--- a/data/judo_therapy/data.xlsx
+++ b/data/judo_therapy/data.xlsx
@@ -4641,10 +4641,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>224/05/15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>事業所名</t>
     <rPh sb="0" eb="3">
       <t>ジギョウショ</t>
@@ -4717,6 +4713,16 @@
   </si>
   <si>
     <t>087-802-8088</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤澤　倫彰</t>
+    <rPh sb="0" eb="2">
+      <t>フジサワ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ノリアキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4724,8 +4730,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.000000;[Red]\-#,##0.000000"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -4847,7 +4854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4872,9 +4879,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4930,12 +4934,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4950,9 +4948,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
@@ -4986,6 +4981,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5302,7 +5327,7 @@
       <selection activeCell="S11" sqref="S11:S413"/>
       <selection pane="topRight" activeCell="S11" sqref="S11:S413"/>
       <selection pane="bottomLeft" activeCell="S11" sqref="S11:S413"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5313,45 +5338,45 @@
     <col min="4" max="4" width="33.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.44140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.44140625" style="40" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="4.6640625" style="14" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="52" customWidth="1"/>
+    <col min="10" max="10" width="4.6640625" style="13" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="30" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:11" s="27" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>713</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="s">
+      <c r="B1" s="14" t="s">
+        <v>712</v>
+      </c>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="43" t="s">
         <v>138</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K1" s="16"/>
+    </row>
+    <row r="2" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5371,19 +5396,19 @@
       <c r="F2" s="7">
         <v>134.072574</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="33" t="s">
         <v>546</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="I2" s="22">
+      <c r="I2" s="44">
         <v>40777</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="10"/>
-    </row>
-    <row r="3" spans="1:11" s="31" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="19"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5403,21 +5428,21 @@
       <c r="F3" s="7">
         <v>134.06003899999999</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="33" t="s">
         <v>547</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="44">
         <v>43698</v>
       </c>
-      <c r="J3" s="20" t="s">
+      <c r="J3" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="K3" s="10"/>
-    </row>
-    <row r="4" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5431,27 +5456,27 @@
       <c r="D4" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="17">
         <v>34.301977000000001</v>
       </c>
-      <c r="F4" s="18">
+      <c r="F4" s="17">
         <v>133.951987</v>
       </c>
-      <c r="G4" s="37" t="s">
+      <c r="G4" s="33" t="s">
         <v>548</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="17" t="s">
         <v>284</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="45">
         <v>40638</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="32" t="s">
         <v>285</v>
       </c>
-      <c r="K4" s="21"/>
-    </row>
-    <row r="5" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K4" s="20"/>
+    </row>
+    <row r="5" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5471,21 +5496,21 @@
       <c r="F5" s="7">
         <v>133.992369</v>
       </c>
-      <c r="G5" s="37" t="s">
+      <c r="G5" s="33" t="s">
         <v>549</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="44">
         <v>38537</v>
       </c>
-      <c r="J5" s="20" t="s">
+      <c r="J5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K5" s="20"/>
+    </row>
+    <row r="6" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5499,27 +5524,27 @@
       <c r="D6" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <v>34.326830999999999</v>
       </c>
-      <c r="F6" s="18">
+      <c r="F6" s="17">
         <v>134.04700099999999</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="G6" s="33" t="s">
         <v>550</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>129</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="45">
         <v>23457</v>
       </c>
-      <c r="J6" s="20" t="s">
+      <c r="J6" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="K6" s="10"/>
-    </row>
-    <row r="7" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5529,28 +5554,28 @@
       <c r="C7" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="17">
         <v>34.324171</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>133.99242100000001</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="33" t="s">
         <v>551</v>
       </c>
-      <c r="H7" s="18" t="s">
+      <c r="H7" s="17" t="s">
         <v>461</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="45">
         <v>44260</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="10"/>
-    </row>
-    <row r="8" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="19"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5569,21 +5594,21 @@
       <c r="F8" s="7">
         <v>134.109658</v>
       </c>
-      <c r="G8" s="37" t="s">
+      <c r="G8" s="33" t="s">
         <v>552</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="I8" s="22">
+      <c r="I8" s="44">
         <v>41214</v>
       </c>
-      <c r="J8" s="20" t="s">
+      <c r="J8" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="K8" s="10"/>
-    </row>
-    <row r="9" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5602,21 +5627,21 @@
       <c r="F9" s="7">
         <v>134.06302400000001</v>
       </c>
-      <c r="G9" s="37" t="s">
+      <c r="G9" s="33" t="s">
         <v>553</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="I9" s="22">
+      <c r="I9" s="44">
         <v>44805</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="K9" s="10"/>
-    </row>
-    <row r="10" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5635,21 +5660,21 @@
       <c r="F10" s="7">
         <v>134.049935</v>
       </c>
-      <c r="G10" s="37" t="s">
+      <c r="G10" s="33" t="s">
         <v>554</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="44">
         <v>42921</v>
       </c>
-      <c r="J10" s="20" t="s">
+      <c r="J10" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="K10" s="10"/>
-    </row>
-    <row r="11" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5669,19 +5694,19 @@
       <c r="F11" s="7">
         <v>134.093107</v>
       </c>
-      <c r="G11" s="37" t="s">
+      <c r="G11" s="33" t="s">
         <v>555</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="44">
         <v>30333</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="10"/>
-    </row>
-    <row r="12" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="21"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5701,21 +5726,21 @@
       <c r="F12" s="7">
         <v>134.054824</v>
       </c>
-      <c r="G12" s="37" t="s">
+      <c r="G12" s="33" t="s">
         <v>556</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="44">
         <v>35525</v>
       </c>
-      <c r="J12" s="20" t="s">
+      <c r="J12" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="K12" s="10"/>
-    </row>
-    <row r="13" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K12" s="9"/>
+    </row>
+    <row r="13" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5735,19 +5760,19 @@
       <c r="F13" s="7">
         <v>134.081748</v>
       </c>
-      <c r="G13" s="37" t="s">
+      <c r="G13" s="33" t="s">
         <v>557</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="44">
         <v>37073</v>
       </c>
-      <c r="J13" s="22"/>
-      <c r="K13" s="10"/>
-    </row>
-    <row r="14" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="21"/>
+      <c r="K13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5767,21 +5792,21 @@
       <c r="F14" s="7">
         <v>134.044073</v>
       </c>
-      <c r="G14" s="37" t="s">
+      <c r="G14" s="33" t="s">
         <v>558</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="I14" s="22">
+      <c r="I14" s="44">
         <v>44291</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="21" t="s">
         <v>145</v>
       </c>
-      <c r="K14" s="10"/>
-    </row>
-    <row r="15" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K14" s="9"/>
+    </row>
+    <row r="15" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5800,19 +5825,19 @@
       <c r="F15" s="7">
         <v>134.07550499999999</v>
       </c>
-      <c r="G15" s="37" t="s">
+      <c r="G15" s="33" t="s">
         <v>559</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="I15" s="22">
+      <c r="I15" s="44">
         <v>43111</v>
       </c>
-      <c r="J15" s="22"/>
-      <c r="K15" s="10"/>
-    </row>
-    <row r="16" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="21"/>
+      <c r="K15" s="9"/>
+    </row>
+    <row r="16" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5831,21 +5856,21 @@
       <c r="F16" s="7">
         <v>134.06401500000001</v>
       </c>
-      <c r="G16" s="37" t="s">
+      <c r="G16" s="33" t="s">
         <v>560</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="44">
         <v>41309</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="21" t="s">
         <v>301</v>
       </c>
-      <c r="K16" s="10"/>
-    </row>
-    <row r="17" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K16" s="9"/>
+    </row>
+    <row r="17" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5853,26 +5878,28 @@
         <v>709</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="45">
+      <c r="D17" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="E17" s="41">
         <v>34.338999000000001</v>
       </c>
-      <c r="F17" s="45">
+      <c r="F17" s="41">
         <v>134.013867</v>
       </c>
-      <c r="G17" s="37" t="s">
+      <c r="G17" s="33" t="s">
         <v>710</v>
       </c>
-      <c r="H17" s="45" t="s">
+      <c r="H17" s="41" t="s">
         <v>711</v>
       </c>
-      <c r="I17" s="22" t="s">
-        <v>712</v>
-      </c>
-      <c r="J17" s="22"/>
-      <c r="K17" s="10"/>
-    </row>
-    <row r="18" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I17" s="44">
+        <v>45427</v>
+      </c>
+      <c r="J17" s="21"/>
+      <c r="K17" s="9"/>
+    </row>
+    <row r="18" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5892,19 +5919,19 @@
       <c r="F18" s="7">
         <v>134.03964500000001</v>
       </c>
-      <c r="G18" s="37" t="s">
+      <c r="G18" s="33" t="s">
         <v>561</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="44">
         <v>39849</v>
       </c>
-      <c r="J18" s="22"/>
-      <c r="K18" s="10"/>
-    </row>
-    <row r="19" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="21"/>
+      <c r="K18" s="9"/>
+    </row>
+    <row r="19" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5923,19 +5950,19 @@
       <c r="F19" s="7">
         <v>134.08592100000001</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="33" t="s">
         <v>562</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="44">
         <v>42979</v>
       </c>
-      <c r="J19" s="22"/>
-      <c r="K19" s="10"/>
-    </row>
-    <row r="20" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="21"/>
+      <c r="K19" s="9"/>
+    </row>
+    <row r="20" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5955,21 +5982,21 @@
       <c r="F20" s="7">
         <v>134.123323</v>
       </c>
-      <c r="G20" s="37" t="s">
+      <c r="G20" s="33" t="s">
         <v>563</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="44">
         <v>42156</v>
       </c>
-      <c r="J20" s="20" t="s">
+      <c r="J20" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="10"/>
-    </row>
-    <row r="21" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="9"/>
+    </row>
+    <row r="21" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5988,19 +6015,19 @@
       <c r="F21" s="7">
         <v>134.03386900000001</v>
       </c>
-      <c r="G21" s="37" t="s">
+      <c r="G21" s="33" t="s">
         <v>564</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="44">
         <v>42865</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="10"/>
-    </row>
-    <row r="22" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="19"/>
+      <c r="K21" s="9"/>
+    </row>
+    <row r="22" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -6014,27 +6041,27 @@
       <c r="D22" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="17">
         <v>34.305335999999997</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="17">
         <v>134.09291899999999</v>
       </c>
-      <c r="G22" s="37" t="s">
+      <c r="G22" s="33" t="s">
         <v>565</v>
       </c>
-      <c r="H22" s="18" t="s">
+      <c r="H22" s="17" t="s">
         <v>162</v>
       </c>
-      <c r="I22" s="19">
+      <c r="I22" s="45">
         <v>39329</v>
       </c>
-      <c r="J22" s="19" t="s">
+      <c r="J22" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="10"/>
-    </row>
-    <row r="23" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K22" s="9"/>
+    </row>
+    <row r="23" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -6047,25 +6074,25 @@
       <c r="D23" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E23" s="18">
+      <c r="E23" s="17">
         <v>34.300331</v>
       </c>
-      <c r="F23" s="18">
+      <c r="F23" s="17">
         <v>134.035314</v>
       </c>
-      <c r="G23" s="37" t="s">
+      <c r="G23" s="33" t="s">
         <v>566</v>
       </c>
-      <c r="H23" s="18" t="s">
+      <c r="H23" s="17" t="s">
         <v>467</v>
       </c>
-      <c r="I23" s="19">
+      <c r="I23" s="45">
         <v>44652</v>
       </c>
-      <c r="J23" s="19"/>
-      <c r="K23" s="10"/>
-    </row>
-    <row r="24" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="18"/>
+      <c r="K23" s="9"/>
+    </row>
+    <row r="24" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -6084,51 +6111,51 @@
       <c r="F24" s="7">
         <v>134.014883</v>
       </c>
-      <c r="G24" s="37" t="s">
+      <c r="G24" s="33" t="s">
         <v>567</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="I24" s="9">
+      <c r="I24" s="46">
         <v>44410</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="10"/>
-    </row>
-    <row r="25" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="22"/>
+      <c r="K24" s="9"/>
+    </row>
+    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="C25" s="32" t="s">
+      <c r="C25" s="29" t="s">
         <v>507</v>
       </c>
-      <c r="D25" s="34" t="s">
+      <c r="D25" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="E25" s="33">
+      <c r="E25" s="30">
         <v>34.263046000000003</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="30">
         <v>134.02476100000001</v>
       </c>
-      <c r="G25" s="37" t="s">
+      <c r="G25" s="33" t="s">
         <v>568</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="I25" s="35">
+      <c r="I25" s="47">
         <v>42956</v>
       </c>
-      <c r="J25" s="19" t="s">
+      <c r="J25" s="18" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -6148,20 +6175,20 @@
       <c r="F26" s="7">
         <v>134.049126</v>
       </c>
-      <c r="G26" s="37" t="s">
+      <c r="G26" s="33" t="s">
         <v>569</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="44">
         <v>31194</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -6180,18 +6207,18 @@
       <c r="F27" s="7">
         <v>134.02810099999999</v>
       </c>
-      <c r="G27" s="37" t="s">
+      <c r="G27" s="33" t="s">
         <v>570</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="44">
         <v>42163</v>
       </c>
-      <c r="J27" s="20"/>
-    </row>
-    <row r="28" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J27" s="19"/>
+    </row>
+    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -6211,18 +6238,18 @@
       <c r="F28" s="7">
         <v>134.09205600000001</v>
       </c>
-      <c r="G28" s="37" t="s">
+      <c r="G28" s="33" t="s">
         <v>571</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="44">
         <v>39454</v>
       </c>
-      <c r="J28" s="22"/>
-    </row>
-    <row r="29" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="21"/>
+    </row>
+    <row r="29" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -6241,20 +6268,20 @@
       <c r="F29" s="7">
         <v>134.104794</v>
       </c>
-      <c r="G29" s="37" t="s">
+      <c r="G29" s="33" t="s">
         <v>572</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="44">
         <v>40280</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="21" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -6274,18 +6301,18 @@
       <c r="F30" s="7">
         <v>134.03867299999999</v>
       </c>
-      <c r="G30" s="37" t="s">
+      <c r="G30" s="33" t="s">
         <v>573</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="44">
         <v>38808</v>
       </c>
-      <c r="J30" s="23"/>
-    </row>
-    <row r="31" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -6305,18 +6332,18 @@
       <c r="F31" s="7">
         <v>134.10279399999999</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="33" t="s">
         <v>574</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="I31" s="22">
+      <c r="I31" s="44">
         <v>39741</v>
       </c>
-      <c r="J31" s="23"/>
-    </row>
-    <row r="32" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J31" s="22"/>
+    </row>
+    <row r="32" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -6335,18 +6362,18 @@
       <c r="F32" s="7">
         <v>134.14005700000001</v>
       </c>
-      <c r="G32" s="37" t="s">
+      <c r="G32" s="33" t="s">
         <v>575</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="9">
+      <c r="I32" s="46">
         <v>43160</v>
       </c>
-      <c r="J32" s="23"/>
-    </row>
-    <row r="33" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J32" s="22"/>
+    </row>
+    <row r="33" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -6365,18 +6392,18 @@
       <c r="F33" s="7">
         <v>133.98398900000001</v>
       </c>
-      <c r="G33" s="37" t="s">
+      <c r="G33" s="33" t="s">
         <v>576</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="22">
+      <c r="I33" s="44">
         <v>32527</v>
       </c>
-      <c r="J33" s="22"/>
-    </row>
-    <row r="34" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J33" s="21"/>
+    </row>
+    <row r="34" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -6390,26 +6417,26 @@
       <c r="D34" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E34" s="45">
+      <c r="E34" s="41">
         <v>34.281697999999999</v>
       </c>
-      <c r="F34" s="45">
+      <c r="F34" s="41">
         <v>134.11666600000001</v>
       </c>
-      <c r="G34" s="37" t="s">
+      <c r="G34" s="33" t="s">
         <v>577</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="44">
         <v>37557</v>
       </c>
-      <c r="J34" s="20" t="s">
+      <c r="J34" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -6423,26 +6450,26 @@
       <c r="D35" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E35" s="45">
+      <c r="E35" s="41">
         <v>34.341287000000001</v>
       </c>
-      <c r="F35" s="45">
+      <c r="F35" s="41">
         <v>134.118054</v>
       </c>
-      <c r="G35" s="37" t="s">
+      <c r="G35" s="33" t="s">
         <v>578</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="44">
         <v>35263</v>
       </c>
-      <c r="J35" s="20" t="s">
+      <c r="J35" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -6456,24 +6483,24 @@
       <c r="D36" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E36" s="45">
+      <c r="E36" s="41">
         <v>34.322454</v>
       </c>
-      <c r="F36" s="45">
+      <c r="F36" s="41">
         <v>134.044781</v>
       </c>
-      <c r="G36" s="37" t="s">
+      <c r="G36" s="33" t="s">
         <v>579</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I36" s="44">
         <v>36242</v>
       </c>
-      <c r="J36" s="22"/>
-    </row>
-    <row r="37" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J36" s="21"/>
+    </row>
+    <row r="37" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -6486,26 +6513,26 @@
       <c r="D37" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="E37" s="45">
+      <c r="E37" s="41">
         <v>34.337274999999998</v>
       </c>
-      <c r="F37" s="45">
+      <c r="F37" s="41">
         <v>134.05874700000001</v>
       </c>
-      <c r="G37" s="37" t="s">
+      <c r="G37" s="33" t="s">
         <v>580</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I37" s="22">
+      <c r="I37" s="44">
         <v>40634</v>
       </c>
-      <c r="J37" s="22" t="s">
+      <c r="J37" s="21" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -6519,26 +6546,26 @@
       <c r="D38" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E38" s="45">
+      <c r="E38" s="41">
         <v>34.347489000000003</v>
       </c>
-      <c r="F38" s="45">
+      <c r="F38" s="41">
         <v>134.027986</v>
       </c>
-      <c r="G38" s="37" t="s">
+      <c r="G38" s="33" t="s">
         <v>581</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I38" s="44">
         <v>40465</v>
       </c>
-      <c r="J38" s="22" t="s">
+      <c r="J38" s="21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -6551,26 +6578,26 @@
       <c r="D39" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="E39" s="45">
+      <c r="E39" s="41">
         <v>34.290933000000003</v>
       </c>
-      <c r="F39" s="45">
+      <c r="F39" s="41">
         <v>134.09554900000001</v>
       </c>
-      <c r="G39" s="37" t="s">
+      <c r="G39" s="33" t="s">
         <v>582</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="I39" s="22">
+      <c r="I39" s="44">
         <v>44682</v>
       </c>
-      <c r="J39" s="22" t="s">
+      <c r="J39" s="21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -6583,26 +6610,26 @@
       <c r="D40" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="E40" s="45">
+      <c r="E40" s="41">
         <v>34.326923000000001</v>
       </c>
-      <c r="F40" s="45">
+      <c r="F40" s="41">
         <v>134.07030399999999</v>
       </c>
-      <c r="G40" s="37" t="s">
+      <c r="G40" s="33" t="s">
         <v>583</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="I40" s="22">
+      <c r="I40" s="44">
         <v>44197</v>
       </c>
-      <c r="J40" s="22" t="s">
+      <c r="J40" s="21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -6615,24 +6642,24 @@
       <c r="D41" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="E41" s="45">
+      <c r="E41" s="41">
         <v>34.333646000000002</v>
       </c>
-      <c r="F41" s="45">
+      <c r="F41" s="41">
         <v>134.07745299999999</v>
       </c>
-      <c r="G41" s="37" t="s">
+      <c r="G41" s="33" t="s">
         <v>584</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="I41" s="22">
+      <c r="I41" s="44">
         <v>40664</v>
       </c>
-      <c r="J41" s="22"/>
-    </row>
-    <row r="42" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J41" s="21"/>
+    </row>
+    <row r="42" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -6645,24 +6672,24 @@
       <c r="D42" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="E42" s="45">
+      <c r="E42" s="41">
         <v>34.350360999999999</v>
       </c>
-      <c r="F42" s="45">
+      <c r="F42" s="41">
         <v>133.997266</v>
       </c>
-      <c r="G42" s="37" t="s">
+      <c r="G42" s="33" t="s">
         <v>585</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="I42" s="22">
+      <c r="I42" s="44">
         <v>43721</v>
       </c>
-      <c r="J42" s="22"/>
-    </row>
-    <row r="43" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J42" s="21"/>
+    </row>
+    <row r="43" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -6676,57 +6703,57 @@
       <c r="D43" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="E43" s="45">
+      <c r="E43" s="41">
         <v>34.284745000000001</v>
       </c>
-      <c r="F43" s="45">
+      <c r="F43" s="41">
         <v>134.02856199999999</v>
       </c>
-      <c r="G43" s="37" t="s">
+      <c r="G43" s="33" t="s">
         <v>586</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I43" s="22">
+      <c r="I43" s="44">
         <v>33394</v>
       </c>
-      <c r="J43" s="22"/>
-    </row>
-    <row r="44" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J43" s="21"/>
+    </row>
+    <row r="44" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" s="29" t="s">
         <v>196</v>
       </c>
       <c r="C44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>クボシンキュウセッコツイン</v>
       </c>
-      <c r="D44" s="26" t="s">
+      <c r="D44" s="25" t="s">
         <v>197</v>
       </c>
-      <c r="E44" s="46">
+      <c r="E44" s="42">
         <v>34.340418</v>
       </c>
-      <c r="F44" s="46">
+      <c r="F44" s="42">
         <v>134.01149899999999</v>
       </c>
-      <c r="G44" s="37" t="s">
+      <c r="G44" s="33" t="s">
         <v>587</v>
       </c>
-      <c r="H44" s="33" t="s">
+      <c r="H44" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="I44" s="35">
+      <c r="I44" s="47">
         <v>40004</v>
       </c>
-      <c r="J44" s="22" t="s">
+      <c r="J44" s="21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -6740,24 +6767,24 @@
       <c r="D45" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="E45" s="45">
+      <c r="E45" s="41">
         <v>34.324649000000001</v>
       </c>
-      <c r="F45" s="45">
+      <c r="F45" s="41">
         <v>134.07858100000001</v>
       </c>
-      <c r="G45" s="37" t="s">
+      <c r="G45" s="33" t="s">
         <v>588</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I45" s="22">
+      <c r="I45" s="44">
         <v>36434</v>
       </c>
-      <c r="J45" s="22"/>
-    </row>
-    <row r="46" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J45" s="21"/>
+    </row>
+    <row r="46" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -6771,24 +6798,24 @@
       <c r="D46" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="E46" s="45">
+      <c r="E46" s="41">
         <v>34.297524000000003</v>
       </c>
-      <c r="F46" s="45">
+      <c r="F46" s="41">
         <v>134.089235</v>
       </c>
-      <c r="G46" s="37" t="s">
+      <c r="G46" s="33" t="s">
         <v>589</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="I46" s="22">
+      <c r="I46" s="44">
         <v>43657</v>
       </c>
-      <c r="J46" s="22"/>
-    </row>
-    <row r="47" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J46" s="21"/>
+    </row>
+    <row r="47" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -6802,24 +6829,24 @@
       <c r="D47" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E47" s="45">
+      <c r="E47" s="41">
         <v>34.342058000000002</v>
       </c>
-      <c r="F47" s="45">
+      <c r="F47" s="41">
         <v>134.06948600000001</v>
       </c>
-      <c r="G47" s="37" t="s">
+      <c r="G47" s="33" t="s">
         <v>590</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I47" s="22">
+      <c r="I47" s="44">
         <v>29647</v>
       </c>
-      <c r="J47" s="22"/>
-    </row>
-    <row r="48" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J47" s="21"/>
+    </row>
+    <row r="48" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -6833,24 +6860,24 @@
       <c r="D48" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E48" s="45">
+      <c r="E48" s="41">
         <v>34.350304999999999</v>
       </c>
-      <c r="F48" s="45">
+      <c r="F48" s="41">
         <v>133.99323899999999</v>
       </c>
-      <c r="G48" s="37" t="s">
+      <c r="G48" s="33" t="s">
         <v>591</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I48" s="22">
+      <c r="I48" s="44">
         <v>41365</v>
       </c>
-      <c r="J48" s="22"/>
-    </row>
-    <row r="49" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J48" s="21"/>
+    </row>
+    <row r="49" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -6864,24 +6891,24 @@
       <c r="D49" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="E49" s="45">
+      <c r="E49" s="41">
         <v>34.301029</v>
       </c>
-      <c r="F49" s="45">
+      <c r="F49" s="41">
         <v>133.96772100000001</v>
       </c>
-      <c r="G49" s="37" t="s">
+      <c r="G49" s="33" t="s">
         <v>592</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="I49" s="22">
+      <c r="I49" s="44">
         <v>43837</v>
       </c>
-      <c r="J49" s="22"/>
-    </row>
-    <row r="50" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J49" s="21"/>
+    </row>
+    <row r="50" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -6895,24 +6922,24 @@
       <c r="D50" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="E50" s="45">
+      <c r="E50" s="41">
         <v>34.329093</v>
       </c>
-      <c r="F50" s="45">
+      <c r="F50" s="41">
         <v>134.06385700000001</v>
       </c>
-      <c r="G50" s="37" t="s">
+      <c r="G50" s="33" t="s">
         <v>593</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I50" s="22">
+      <c r="I50" s="44">
         <v>29342</v>
       </c>
-      <c r="J50" s="22"/>
-    </row>
-    <row r="51" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J50" s="21"/>
+    </row>
+    <row r="51" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -6925,24 +6952,24 @@
       <c r="D51" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="45">
+      <c r="E51" s="41">
         <v>34.240267000000003</v>
       </c>
-      <c r="F51" s="45">
+      <c r="F51" s="41">
         <v>134.01641499999999</v>
       </c>
-      <c r="G51" s="37" t="s">
+      <c r="G51" s="33" t="s">
         <v>594</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51" s="46">
         <v>36434</v>
       </c>
-      <c r="J51" s="23"/>
-    </row>
-    <row r="52" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J51" s="22"/>
+    </row>
+    <row r="52" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -6956,24 +6983,24 @@
       <c r="D52" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E52" s="45">
+      <c r="E52" s="41">
         <v>34.277875000000002</v>
       </c>
-      <c r="F52" s="45">
+      <c r="F52" s="41">
         <v>134.10302899999999</v>
       </c>
-      <c r="G52" s="37" t="s">
+      <c r="G52" s="33" t="s">
         <v>595</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I52" s="22">
+      <c r="I52" s="44">
         <v>34186</v>
       </c>
-      <c r="J52" s="22"/>
-    </row>
-    <row r="53" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J52" s="21"/>
+    </row>
+    <row r="53" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -6987,26 +7014,26 @@
       <c r="D53" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="E53" s="45">
+      <c r="E53" s="41">
         <v>34.344237</v>
       </c>
-      <c r="F53" s="45">
+      <c r="F53" s="41">
         <v>134.069649</v>
       </c>
-      <c r="G53" s="37" t="s">
+      <c r="G53" s="33" t="s">
         <v>596</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I53" s="22">
+      <c r="I53" s="44">
         <v>44562</v>
       </c>
-      <c r="J53" s="20" t="s">
+      <c r="J53" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -7020,24 +7047,24 @@
       <c r="D54" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="E54" s="45">
+      <c r="E54" s="41">
         <v>34.334299000000001</v>
       </c>
-      <c r="F54" s="45">
+      <c r="F54" s="41">
         <v>134.04808499999999</v>
       </c>
-      <c r="G54" s="37" t="s">
+      <c r="G54" s="33" t="s">
         <v>597</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="I54" s="22">
+      <c r="I54" s="44">
         <v>42242</v>
       </c>
-      <c r="J54" s="20"/>
-    </row>
-    <row r="55" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J54" s="19"/>
+    </row>
+    <row r="55" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -7051,24 +7078,24 @@
       <c r="D55" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="E55" s="45">
+      <c r="E55" s="41">
         <v>34.282964999999997</v>
       </c>
-      <c r="F55" s="45">
+      <c r="F55" s="41">
         <v>134.02371299999999</v>
       </c>
-      <c r="G55" s="37" t="s">
+      <c r="G55" s="33" t="s">
         <v>598</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="22">
+      <c r="I55" s="44">
         <v>32907</v>
       </c>
-      <c r="J55" s="22"/>
-    </row>
-    <row r="56" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J55" s="21"/>
+    </row>
+    <row r="56" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -7082,26 +7109,26 @@
       <c r="D56" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="E56" s="45">
+      <c r="E56" s="41">
         <v>34.346981999999997</v>
       </c>
-      <c r="F56" s="45">
+      <c r="F56" s="41">
         <v>134.001351</v>
       </c>
-      <c r="G56" s="37" t="s">
+      <c r="G56" s="33" t="s">
         <v>599</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I56" s="22">
+      <c r="I56" s="44">
         <v>28496</v>
       </c>
-      <c r="J56" s="22" t="s">
+      <c r="J56" s="21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -7115,26 +7142,26 @@
       <c r="D57" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="E57" s="45">
+      <c r="E57" s="41">
         <v>34.311008000000001</v>
       </c>
-      <c r="F57" s="45">
+      <c r="F57" s="41">
         <v>134.04754500000001</v>
       </c>
-      <c r="G57" s="37" t="s">
+      <c r="G57" s="33" t="s">
         <v>600</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="I57" s="22">
+      <c r="I57" s="44">
         <v>42899</v>
       </c>
-      <c r="J57" s="22" t="s">
+      <c r="J57" s="21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -7148,24 +7175,24 @@
       <c r="D58" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="E58" s="45">
+      <c r="E58" s="41">
         <v>34.262625</v>
       </c>
-      <c r="F58" s="45">
+      <c r="F58" s="41">
         <v>134.024652</v>
       </c>
-      <c r="G58" s="37" t="s">
+      <c r="G58" s="33" t="s">
         <v>601</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="I58" s="22">
+      <c r="I58" s="44">
         <v>42887</v>
       </c>
-      <c r="J58" s="23"/>
-    </row>
-    <row r="59" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J58" s="22"/>
+    </row>
+    <row r="59" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -7178,26 +7205,26 @@
       <c r="D59" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E59" s="45">
+      <c r="E59" s="41">
         <v>34.337761999999998</v>
       </c>
-      <c r="F59" s="45">
+      <c r="F59" s="41">
         <v>134.04435699999999</v>
       </c>
-      <c r="G59" s="37" t="s">
+      <c r="G59" s="33" t="s">
         <v>602</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I59" s="22">
+      <c r="I59" s="44">
         <v>38322</v>
       </c>
-      <c r="J59" s="20" t="s">
+      <c r="J59" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="60" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -7211,24 +7238,24 @@
       <c r="D60" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="E60" s="45">
+      <c r="E60" s="41">
         <v>34.269897</v>
       </c>
-      <c r="F60" s="45">
+      <c r="F60" s="41">
         <v>134.03004899999999</v>
       </c>
-      <c r="G60" s="37" t="s">
+      <c r="G60" s="33" t="s">
         <v>603</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I60" s="22">
+      <c r="I60" s="44">
         <v>33549</v>
       </c>
-      <c r="J60" s="23"/>
-    </row>
-    <row r="61" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J60" s="22"/>
+    </row>
+    <row r="61" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -7241,24 +7268,24 @@
       <c r="D61" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="E61" s="45">
+      <c r="E61" s="41">
         <v>34.269686</v>
       </c>
-      <c r="F61" s="45">
+      <c r="F61" s="41">
         <v>134.03456399999999</v>
       </c>
-      <c r="G61" s="37" t="s">
+      <c r="G61" s="33" t="s">
         <v>604</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="I61" s="22">
+      <c r="I61" s="44">
         <v>44013</v>
       </c>
-      <c r="J61" s="20"/>
-    </row>
-    <row r="62" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J61" s="19"/>
+    </row>
+    <row r="62" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -7272,26 +7299,26 @@
       <c r="D62" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E62" s="45">
+      <c r="E62" s="41">
         <v>34.293765</v>
       </c>
-      <c r="F62" s="45">
+      <c r="F62" s="41">
         <v>133.964755</v>
       </c>
-      <c r="G62" s="37" t="s">
+      <c r="G62" s="33" t="s">
         <v>605</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I62" s="22">
+      <c r="I62" s="44">
         <v>33567</v>
       </c>
-      <c r="J62" s="20" t="s">
+      <c r="J62" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -7305,26 +7332,26 @@
       <c r="D63" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E63" s="45">
+      <c r="E63" s="41">
         <v>34.350797</v>
       </c>
-      <c r="F63" s="45">
+      <c r="F63" s="41">
         <v>134.088661</v>
       </c>
-      <c r="G63" s="37" t="s">
+      <c r="G63" s="33" t="s">
         <v>606</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I63" s="22">
+      <c r="I63" s="44">
         <v>39412</v>
       </c>
-      <c r="J63" s="20" t="s">
+      <c r="J63" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -7337,26 +7364,26 @@
       <c r="D64" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="E64" s="45">
+      <c r="E64" s="41">
         <v>34.348706999999997</v>
       </c>
-      <c r="F64" s="45">
+      <c r="F64" s="41">
         <v>134.01070899999999</v>
       </c>
-      <c r="G64" s="37" t="s">
+      <c r="G64" s="33" t="s">
         <v>607</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="I64" s="22">
+      <c r="I64" s="44">
         <v>20504</v>
       </c>
-      <c r="J64" s="20" t="s">
+      <c r="J64" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -7370,26 +7397,26 @@
       <c r="D65" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="E65" s="45">
+      <c r="E65" s="41">
         <v>34.335113</v>
       </c>
-      <c r="F65" s="45">
+      <c r="F65" s="41">
         <v>134.07334599999999</v>
       </c>
-      <c r="G65" s="37" t="s">
+      <c r="G65" s="33" t="s">
         <v>608</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I65" s="22">
+      <c r="I65" s="44">
         <v>32300</v>
       </c>
-      <c r="J65" s="20" t="s">
+      <c r="J65" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -7403,26 +7430,26 @@
       <c r="D66" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="E66" s="45">
+      <c r="E66" s="41">
         <v>34.311416999999999</v>
       </c>
-      <c r="F66" s="45">
+      <c r="F66" s="41">
         <v>134.04428100000001</v>
       </c>
-      <c r="G66" s="37" t="s">
+      <c r="G66" s="33" t="s">
         <v>609</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I66" s="22">
+      <c r="I66" s="44">
         <v>42879</v>
       </c>
-      <c r="J66" s="20" t="s">
+      <c r="J66" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -7436,24 +7463,24 @@
       <c r="D67" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="E67" s="45">
+      <c r="E67" s="41">
         <v>34.308320999999999</v>
       </c>
-      <c r="F67" s="45">
+      <c r="F67" s="41">
         <v>134.063761</v>
       </c>
-      <c r="G67" s="37" t="s">
+      <c r="G67" s="33" t="s">
         <v>610</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="I67" s="22">
+      <c r="I67" s="44">
         <v>43160</v>
       </c>
-      <c r="J67" s="20"/>
-    </row>
-    <row r="68" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J67" s="19"/>
+    </row>
+    <row r="68" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -7466,22 +7493,22 @@
       <c r="D68" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="E68" s="45">
+      <c r="E68" s="41">
         <v>34.320202999999999</v>
       </c>
-      <c r="F68" s="45">
+      <c r="F68" s="41">
         <v>134.05831900000001</v>
       </c>
-      <c r="G68" s="37" t="s">
+      <c r="G68" s="33" t="s">
         <v>611</v>
       </c>
       <c r="H68" s="7"/>
-      <c r="I68" s="22">
+      <c r="I68" s="44">
         <v>41588</v>
       </c>
-      <c r="J68" s="23"/>
-    </row>
-    <row r="69" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J68" s="22"/>
+    </row>
+    <row r="69" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -7494,26 +7521,26 @@
       <c r="D69" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="E69" s="45">
+      <c r="E69" s="41">
         <v>34.329731000000002</v>
       </c>
-      <c r="F69" s="45">
+      <c r="F69" s="41">
         <v>134.06224700000001</v>
       </c>
-      <c r="G69" s="37" t="s">
+      <c r="G69" s="33" t="s">
         <v>612</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="I69" s="22">
+      <c r="I69" s="44">
         <v>44670</v>
       </c>
-      <c r="J69" s="20" t="s">
+      <c r="J69" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -7527,26 +7554,26 @@
       <c r="D70" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="E70" s="45">
+      <c r="E70" s="41">
         <v>34.321541000000003</v>
       </c>
-      <c r="F70" s="45">
+      <c r="F70" s="41">
         <v>134.06281799999999</v>
       </c>
-      <c r="G70" s="37" t="s">
+      <c r="G70" s="33" t="s">
         <v>613</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I70" s="22">
+      <c r="I70" s="44">
         <v>36194</v>
       </c>
-      <c r="J70" s="20" t="s">
+      <c r="J70" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -7559,26 +7586,26 @@
       <c r="D71" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E71" s="45">
+      <c r="E71" s="41">
         <v>34.333159000000002</v>
       </c>
-      <c r="F71" s="45">
+      <c r="F71" s="41">
         <v>134.048125</v>
       </c>
-      <c r="G71" s="37" t="s">
+      <c r="G71" s="33" t="s">
         <v>614</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="I71" s="22">
+      <c r="I71" s="44">
         <v>42319</v>
       </c>
-      <c r="J71" s="20" t="s">
+      <c r="J71" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -7592,26 +7619,26 @@
       <c r="D72" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="E72" s="45">
+      <c r="E72" s="41">
         <v>34.311684999999997</v>
       </c>
-      <c r="F72" s="45">
+      <c r="F72" s="41">
         <v>134.057176</v>
       </c>
-      <c r="G72" s="37" t="s">
+      <c r="G72" s="33" t="s">
         <v>615</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="I72" s="22">
+      <c r="I72" s="44">
         <v>40299</v>
       </c>
-      <c r="J72" s="20" t="s">
+      <c r="J72" s="19" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="73" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -7625,24 +7652,24 @@
       <c r="D73" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E73" s="45">
+      <c r="E73" s="41">
         <v>34.331446</v>
       </c>
-      <c r="F73" s="45">
+      <c r="F73" s="41">
         <v>134.04839899999999</v>
       </c>
-      <c r="G73" s="37" t="s">
+      <c r="G73" s="33" t="s">
         <v>616</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="I73" s="22">
+      <c r="I73" s="44">
         <v>42156</v>
       </c>
-      <c r="J73" s="22"/>
-    </row>
-    <row r="74" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J73" s="21"/>
+    </row>
+    <row r="74" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -7656,26 +7683,26 @@
       <c r="D74" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E74" s="45">
+      <c r="E74" s="41">
         <v>34.343364000000001</v>
       </c>
-      <c r="F74" s="45">
+      <c r="F74" s="41">
         <v>134.00131099999999</v>
       </c>
-      <c r="G74" s="37" t="s">
+      <c r="G74" s="33" t="s">
         <v>617</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I74" s="22">
+      <c r="I74" s="44">
         <v>38443</v>
       </c>
-      <c r="J74" s="20" t="s">
+      <c r="J74" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="75" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -7689,26 +7716,26 @@
       <c r="D75" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="E75" s="45">
+      <c r="E75" s="41">
         <v>34.309077000000002</v>
       </c>
-      <c r="F75" s="45">
+      <c r="F75" s="41">
         <v>134.04403099999999</v>
       </c>
-      <c r="G75" s="37" t="s">
+      <c r="G75" s="33" t="s">
         <v>618</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="I75" s="22">
+      <c r="I75" s="44">
         <v>44900</v>
       </c>
-      <c r="J75" s="20" t="s">
+      <c r="J75" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -7722,26 +7749,26 @@
       <c r="D76" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E76" s="45">
+      <c r="E76" s="41">
         <v>34.244188000000001</v>
       </c>
-      <c r="F76" s="45">
+      <c r="F76" s="41">
         <v>134.08440300000001</v>
       </c>
-      <c r="G76" s="37" t="s">
+      <c r="G76" s="33" t="s">
         <v>619</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="I76" s="22">
+      <c r="I76" s="44">
         <v>40898</v>
       </c>
-      <c r="J76" s="20" t="s">
+      <c r="J76" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -7755,26 +7782,26 @@
       <c r="D77" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E77" s="45">
+      <c r="E77" s="41">
         <v>34.341887999999997</v>
       </c>
-      <c r="F77" s="45">
+      <c r="F77" s="41">
         <v>134.03182899999999</v>
       </c>
-      <c r="G77" s="37" t="s">
+      <c r="G77" s="33" t="s">
         <v>620</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I77" s="22">
+      <c r="I77" s="44">
         <v>33547</v>
       </c>
-      <c r="J77" s="20" t="s">
+      <c r="J77" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -7788,24 +7815,24 @@
       <c r="D78" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E78" s="45">
+      <c r="E78" s="41">
         <v>34.340279000000002</v>
       </c>
-      <c r="F78" s="45">
+      <c r="F78" s="41">
         <v>134.05004099999999</v>
       </c>
-      <c r="G78" s="37" t="s">
+      <c r="G78" s="33" t="s">
         <v>621</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I78" s="22">
+      <c r="I78" s="44">
         <v>25628</v>
       </c>
-      <c r="J78" s="22"/>
-    </row>
-    <row r="79" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J78" s="21"/>
+    </row>
+    <row r="79" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -7819,24 +7846,24 @@
       <c r="D79" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E79" s="45">
+      <c r="E79" s="41">
         <v>34.345371</v>
       </c>
-      <c r="F79" s="45">
+      <c r="F79" s="41">
         <v>134.12071700000001</v>
       </c>
-      <c r="G79" s="37" t="s">
+      <c r="G79" s="33" t="s">
         <v>622</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I79" s="9">
+      <c r="I79" s="46">
         <v>30972</v>
       </c>
-      <c r="J79" s="23"/>
-    </row>
-    <row r="80" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J79" s="22"/>
+    </row>
+    <row r="80" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -7850,26 +7877,26 @@
       <c r="D80" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E80" s="45">
+      <c r="E80" s="41">
         <v>34.344211000000001</v>
       </c>
-      <c r="F80" s="45">
+      <c r="F80" s="41">
         <v>134.13830799999999</v>
       </c>
-      <c r="G80" s="37" t="s">
+      <c r="G80" s="33" t="s">
         <v>623</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="I80" s="9">
+      <c r="I80" s="46">
         <v>37347</v>
       </c>
-      <c r="J80" s="20" t="s">
+      <c r="J80" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -7883,26 +7910,26 @@
       <c r="D81" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E81" s="45">
+      <c r="E81" s="41">
         <v>34.302152</v>
       </c>
-      <c r="F81" s="45">
+      <c r="F81" s="41">
         <v>134.041696</v>
       </c>
-      <c r="G81" s="37" t="s">
+      <c r="G81" s="33" t="s">
         <v>624</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I81" s="22">
+      <c r="I81" s="44">
         <v>42461</v>
       </c>
-      <c r="J81" s="20" t="s">
+      <c r="J81" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -7916,57 +7943,57 @@
       <c r="D82" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="E82" s="45">
+      <c r="E82" s="41">
         <v>34.337648000000002</v>
       </c>
-      <c r="F82" s="45">
+      <c r="F82" s="41">
         <v>134.063039</v>
       </c>
-      <c r="G82" s="37" t="s">
+      <c r="G82" s="33" t="s">
         <v>625</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="I82" s="22">
+      <c r="I82" s="44">
         <v>42919</v>
       </c>
-      <c r="J82" s="20"/>
-    </row>
-    <row r="83" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J82" s="19"/>
+    </row>
+    <row r="83" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C83" s="2" t="str">
         <f t="shared" si="2"/>
         <v>タテモトセッコツイン</v>
       </c>
       <c r="D83" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="E83" s="41">
+        <v>34.344265999999998</v>
+      </c>
+      <c r="F83" s="41">
+        <v>134.03674100000001</v>
+      </c>
+      <c r="G83" s="33" t="s">
         <v>715</v>
       </c>
-      <c r="E83" s="45">
-        <v>34.344265999999998</v>
-      </c>
-      <c r="F83" s="45">
-        <v>134.03674100000001</v>
-      </c>
-      <c r="G83" s="37" t="s">
+      <c r="H83" s="41" t="s">
         <v>716</v>
       </c>
-      <c r="H83" s="45" t="s">
-        <v>717</v>
-      </c>
-      <c r="I83" s="22">
+      <c r="I83" s="44">
         <v>45442</v>
       </c>
-      <c r="J83" s="23" t="s">
+      <c r="J83" s="22" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -7980,26 +8007,26 @@
       <c r="D84" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E84" s="45">
+      <c r="E84" s="41">
         <v>34.337577000000003</v>
       </c>
-      <c r="F84" s="45">
+      <c r="F84" s="41">
         <v>134.062974</v>
       </c>
-      <c r="G84" s="37" t="s">
+      <c r="G84" s="33" t="s">
         <v>626</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="I84" s="22">
+      <c r="I84" s="44">
         <v>39772</v>
       </c>
-      <c r="J84" s="23" t="s">
+      <c r="J84" s="22" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="85" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -8013,26 +8040,26 @@
       <c r="D85" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="E85" s="45">
+      <c r="E85" s="41">
         <v>34.323653</v>
       </c>
-      <c r="F85" s="45">
+      <c r="F85" s="41">
         <v>134.072329</v>
       </c>
-      <c r="G85" s="37" t="s">
+      <c r="G85" s="33" t="s">
         <v>627</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="I85" s="22">
+      <c r="I85" s="44">
         <v>40749</v>
       </c>
-      <c r="J85" s="22" t="s">
+      <c r="J85" s="21" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="86" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -8045,24 +8072,24 @@
       <c r="D86" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="E86" s="45">
+      <c r="E86" s="41">
         <v>34.338791999999998</v>
       </c>
-      <c r="F86" s="45">
+      <c r="F86" s="41">
         <v>134.04852399999999</v>
       </c>
-      <c r="G86" s="37" t="s">
+      <c r="G86" s="33" t="s">
         <v>628</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="I86" s="22">
+      <c r="I86" s="44">
         <v>45056</v>
       </c>
-      <c r="J86" s="22"/>
-    </row>
-    <row r="87" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J86" s="21"/>
+    </row>
+    <row r="87" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -8075,24 +8102,24 @@
       <c r="D87" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="E87" s="45">
+      <c r="E87" s="41">
         <v>34.315911</v>
       </c>
-      <c r="F87" s="45">
+      <c r="F87" s="41">
         <v>134.03908799999999</v>
       </c>
-      <c r="G87" s="37" t="s">
+      <c r="G87" s="33" t="s">
         <v>629</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="I87" s="22">
+      <c r="I87" s="44">
         <v>45352</v>
       </c>
-      <c r="J87" s="22"/>
-    </row>
-    <row r="88" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J87" s="21"/>
+    </row>
+    <row r="88" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -8105,22 +8132,22 @@
       <c r="D88" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="E88" s="45">
+      <c r="E88" s="41">
         <v>34.321258999999998</v>
       </c>
-      <c r="F88" s="45">
+      <c r="F88" s="41">
         <v>134.04483400000001</v>
       </c>
-      <c r="G88" s="37" t="s">
+      <c r="G88" s="33" t="s">
         <v>630</v>
       </c>
       <c r="H88" s="7"/>
-      <c r="I88" s="9">
+      <c r="I88" s="46">
         <v>42009</v>
       </c>
-      <c r="J88" s="22"/>
-    </row>
-    <row r="89" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J88" s="21"/>
+    </row>
+    <row r="89" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -8134,26 +8161,26 @@
       <c r="D89" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E89" s="45">
+      <c r="E89" s="41">
         <v>34.277093999999998</v>
       </c>
-      <c r="F89" s="45">
+      <c r="F89" s="41">
         <v>134.03984399999999</v>
       </c>
-      <c r="G89" s="37" t="s">
+      <c r="G89" s="33" t="s">
         <v>631</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I89" s="22">
+      <c r="I89" s="44">
         <v>35055</v>
       </c>
-      <c r="J89" s="20" t="s">
+      <c r="J89" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="90" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -8167,24 +8194,24 @@
       <c r="D90" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E90" s="45">
+      <c r="E90" s="41">
         <v>34.307571000000003</v>
       </c>
-      <c r="F90" s="45">
+      <c r="F90" s="41">
         <v>134.04816099999999</v>
       </c>
-      <c r="G90" s="37" t="s">
+      <c r="G90" s="33" t="s">
         <v>632</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I90" s="22">
+      <c r="I90" s="44">
         <v>32512</v>
       </c>
-      <c r="J90" s="22"/>
-    </row>
-    <row r="91" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J90" s="21"/>
+    </row>
+    <row r="91" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -8198,24 +8225,24 @@
       <c r="D91" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="E91" s="45">
+      <c r="E91" s="41">
         <v>34.255747999999997</v>
       </c>
-      <c r="F91" s="45">
+      <c r="F91" s="41">
         <v>134.033804</v>
       </c>
-      <c r="G91" s="37" t="s">
+      <c r="G91" s="33" t="s">
         <v>633</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I91" s="22">
+      <c r="I91" s="44">
         <v>40639</v>
       </c>
-      <c r="J91" s="22"/>
-    </row>
-    <row r="92" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J91" s="21"/>
+    </row>
+    <row r="92" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -8229,24 +8256,24 @@
       <c r="D92" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="E92" s="45">
+      <c r="E92" s="41">
         <v>34.330219</v>
       </c>
-      <c r="F92" s="45">
+      <c r="F92" s="41">
         <v>134.10628700000001</v>
       </c>
-      <c r="G92" s="37" t="s">
+      <c r="G92" s="33" t="s">
         <v>634</v>
       </c>
       <c r="H92" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="I92" s="22">
+      <c r="I92" s="44">
         <v>41736</v>
       </c>
-      <c r="J92" s="22"/>
-    </row>
-    <row r="93" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J92" s="21"/>
+    </row>
+    <row r="93" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -8260,24 +8287,24 @@
       <c r="D93" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E93" s="45">
+      <c r="E93" s="41">
         <v>34.264961</v>
       </c>
-      <c r="F93" s="45">
+      <c r="F93" s="41">
         <v>134.10543899999999</v>
       </c>
-      <c r="G93" s="37" t="s">
+      <c r="G93" s="33" t="s">
         <v>635</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="I93" s="22">
+      <c r="I93" s="44">
         <v>43583</v>
       </c>
-      <c r="J93" s="22"/>
-    </row>
-    <row r="94" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J93" s="21"/>
+    </row>
+    <row r="94" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -8290,24 +8317,24 @@
       <c r="D94" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="E94" s="45">
+      <c r="E94" s="41">
         <v>34.335251</v>
       </c>
-      <c r="F94" s="45">
+      <c r="F94" s="41">
         <v>134.05085600000001</v>
       </c>
-      <c r="G94" s="37" t="s">
+      <c r="G94" s="33" t="s">
         <v>636</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="I94" s="22">
+      <c r="I94" s="44">
         <v>41944</v>
       </c>
-      <c r="J94" s="22"/>
-    </row>
-    <row r="95" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J94" s="21"/>
+    </row>
+    <row r="95" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -8320,26 +8347,26 @@
       <c r="D95" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="E95" s="45">
+      <c r="E95" s="41">
         <v>34.326560999999998</v>
       </c>
-      <c r="F95" s="45">
+      <c r="F95" s="41">
         <v>134.07038299999999</v>
       </c>
-      <c r="G95" s="37" t="s">
+      <c r="G95" s="33" t="s">
         <v>637</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="I95" s="22">
+      <c r="I95" s="44">
         <v>44335</v>
       </c>
-      <c r="J95" s="22" t="s">
+      <c r="J95" s="21" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="96" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -8353,26 +8380,26 @@
       <c r="D96" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E96" s="45">
+      <c r="E96" s="41">
         <v>34.283332999999999</v>
       </c>
-      <c r="F96" s="45">
+      <c r="F96" s="41">
         <v>134.01154099999999</v>
       </c>
-      <c r="G96" s="37" t="s">
+      <c r="G96" s="33" t="s">
         <v>638</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I96" s="22">
+      <c r="I96" s="44">
         <v>38482</v>
       </c>
-      <c r="J96" s="20" t="s">
+      <c r="J96" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="97" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -8386,24 +8413,24 @@
       <c r="D97" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E97" s="45">
+      <c r="E97" s="41">
         <v>34.316357000000004</v>
       </c>
-      <c r="F97" s="45">
+      <c r="F97" s="41">
         <v>134.02864700000001</v>
       </c>
-      <c r="G97" s="37" t="s">
+      <c r="G97" s="33" t="s">
         <v>639</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I97" s="22">
+      <c r="I97" s="44">
         <v>30529</v>
       </c>
-      <c r="J97" s="22"/>
-    </row>
-    <row r="98" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J97" s="21"/>
+    </row>
+    <row r="98" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -8417,24 +8444,24 @@
       <c r="D98" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E98" s="45">
+      <c r="E98" s="41">
         <v>34.351086000000002</v>
       </c>
-      <c r="F98" s="45">
+      <c r="F98" s="41">
         <v>134.12201899999999</v>
       </c>
-      <c r="G98" s="37" t="s">
+      <c r="G98" s="33" t="s">
         <v>640</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I98" s="9">
+      <c r="I98" s="46">
         <v>27837</v>
       </c>
-      <c r="J98" s="23"/>
-    </row>
-    <row r="99" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J98" s="22"/>
+    </row>
+    <row r="99" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -8448,24 +8475,24 @@
       <c r="D99" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E99" s="45">
+      <c r="E99" s="41">
         <v>34.302017999999997</v>
       </c>
-      <c r="F99" s="45">
+      <c r="F99" s="41">
         <v>134.069383996243</v>
       </c>
-      <c r="G99" s="37" t="s">
+      <c r="G99" s="33" t="s">
         <v>641</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I99" s="9">
+      <c r="I99" s="46">
         <v>39632</v>
       </c>
-      <c r="J99" s="23"/>
-    </row>
-    <row r="100" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J99" s="22"/>
+    </row>
+    <row r="100" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -8479,57 +8506,57 @@
       <c r="D100" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="E100" s="45">
+      <c r="E100" s="41">
         <v>34.343505999999998</v>
       </c>
-      <c r="F100" s="45">
+      <c r="F100" s="41">
         <v>134.06172799999999</v>
       </c>
-      <c r="G100" s="37" t="s">
+      <c r="G100" s="33" t="s">
         <v>642</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I100" s="9">
+      <c r="I100" s="46">
         <v>42937</v>
       </c>
-      <c r="J100" s="23"/>
-    </row>
-    <row r="101" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J100" s="22"/>
+    </row>
+    <row r="101" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="32" t="s">
+      <c r="B101" s="29" t="s">
         <v>172</v>
       </c>
       <c r="C101" s="2" t="str">
         <f t="shared" si="3"/>
         <v>ハラノシンキュウセイコツイン</v>
       </c>
-      <c r="D101" s="26" t="s">
+      <c r="D101" s="25" t="s">
         <v>214</v>
       </c>
-      <c r="E101" s="46">
+      <c r="E101" s="42">
         <v>34.344977</v>
       </c>
-      <c r="F101" s="46">
+      <c r="F101" s="42">
         <v>134.03169199999999</v>
       </c>
-      <c r="G101" s="37" t="s">
+      <c r="G101" s="33" t="s">
         <v>643</v>
       </c>
-      <c r="H101" s="33" t="s">
+      <c r="H101" s="30" t="s">
         <v>173</v>
       </c>
-      <c r="I101" s="35">
+      <c r="I101" s="47">
         <v>35934</v>
       </c>
-      <c r="J101" s="22" t="s">
+      <c r="J101" s="21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="102" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -8543,24 +8570,24 @@
       <c r="D102" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E102" s="45">
+      <c r="E102" s="41">
         <v>34.317838000000002</v>
       </c>
-      <c r="F102" s="45">
+      <c r="F102" s="41">
         <v>134.05705599999999</v>
       </c>
-      <c r="G102" s="37" t="s">
+      <c r="G102" s="33" t="s">
         <v>644</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I102" s="22">
+      <c r="I102" s="44">
         <v>38070</v>
       </c>
-      <c r="J102" s="22"/>
-    </row>
-    <row r="103" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J102" s="21"/>
+    </row>
+    <row r="103" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -8574,24 +8601,24 @@
       <c r="D103" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="E103" s="45">
+      <c r="E103" s="41">
         <v>34.335762000000003</v>
       </c>
-      <c r="F103" s="45">
+      <c r="F103" s="41">
         <v>134.05406099999999</v>
       </c>
-      <c r="G103" s="37" t="s">
+      <c r="G103" s="33" t="s">
         <v>645</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="I103" s="22">
+      <c r="I103" s="44">
         <v>45209</v>
       </c>
-      <c r="J103" s="22"/>
-    </row>
-    <row r="104" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J103" s="21"/>
+    </row>
+    <row r="104" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -8604,26 +8631,26 @@
       <c r="D104" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="E104" s="45">
+      <c r="E104" s="41">
         <v>34.300122000000002</v>
       </c>
-      <c r="F104" s="45">
+      <c r="F104" s="41">
         <v>134.098523</v>
       </c>
-      <c r="G104" s="37" t="s">
+      <c r="G104" s="33" t="s">
         <v>646</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="I104" s="22">
+      <c r="I104" s="44">
         <v>41976</v>
       </c>
-      <c r="J104" s="22" t="s">
+      <c r="J104" s="21" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="105" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -8637,24 +8664,24 @@
       <c r="D105" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E105" s="45">
+      <c r="E105" s="41">
         <v>34.337069</v>
       </c>
-      <c r="F105" s="45">
+      <c r="F105" s="41">
         <v>134.09257099999999</v>
       </c>
-      <c r="G105" s="37" t="s">
+      <c r="G105" s="33" t="s">
         <v>647</v>
       </c>
       <c r="H105" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I105" s="22">
+      <c r="I105" s="44">
         <v>31352</v>
       </c>
-      <c r="J105" s="22"/>
-    </row>
-    <row r="106" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J105" s="21"/>
+    </row>
+    <row r="106" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -8668,24 +8695,24 @@
       <c r="D106" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E106" s="45">
+      <c r="E106" s="41">
         <v>34.328966000000001</v>
       </c>
-      <c r="F106" s="45">
+      <c r="F106" s="41">
         <v>134.102282</v>
       </c>
-      <c r="G106" s="37" t="s">
+      <c r="G106" s="33" t="s">
         <v>648</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I106" s="22">
+      <c r="I106" s="44">
         <v>44287</v>
       </c>
-      <c r="J106" s="20"/>
-    </row>
-    <row r="107" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J106" s="19"/>
+    </row>
+    <row r="107" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -8699,26 +8726,26 @@
       <c r="D107" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E107" s="45">
+      <c r="E107" s="41">
         <v>34.335555999999997</v>
       </c>
-      <c r="F107" s="45">
+      <c r="F107" s="41">
         <v>134.04988700000001</v>
       </c>
-      <c r="G107" s="37" t="s">
+      <c r="G107" s="33" t="s">
         <v>649</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I107" s="22">
+      <c r="I107" s="44">
         <v>33512</v>
       </c>
-      <c r="J107" s="20" t="s">
+      <c r="J107" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="108" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -8732,26 +8759,26 @@
       <c r="D108" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E108" s="45">
+      <c r="E108" s="41">
         <v>34.342633999999997</v>
       </c>
-      <c r="F108" s="45">
+      <c r="F108" s="41">
         <v>134.11730700000001</v>
       </c>
-      <c r="G108" s="37" t="s">
+      <c r="G108" s="33" t="s">
         <v>650</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I108" s="22">
+      <c r="I108" s="44">
         <v>35186</v>
       </c>
-      <c r="J108" s="20" t="s">
+      <c r="J108" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="109" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -8765,24 +8792,24 @@
       <c r="D109" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E109" s="45">
+      <c r="E109" s="41">
         <v>34.239983000000002</v>
       </c>
-      <c r="F109" s="45">
+      <c r="F109" s="41">
         <v>134.03624400000001</v>
       </c>
-      <c r="G109" s="37" t="s">
+      <c r="G109" s="33" t="s">
         <v>651</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I109" s="22">
+      <c r="I109" s="44">
         <v>33026</v>
       </c>
-      <c r="J109" s="23"/>
-    </row>
-    <row r="110" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J109" s="22"/>
+    </row>
+    <row r="110" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -8796,24 +8823,24 @@
       <c r="D110" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E110" s="45">
+      <c r="E110" s="41">
         <v>34.296703000000001</v>
       </c>
-      <c r="F110" s="45">
+      <c r="F110" s="41">
         <v>134.089044</v>
       </c>
-      <c r="G110" s="37" t="s">
+      <c r="G110" s="33" t="s">
         <v>652</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I110" s="22">
+      <c r="I110" s="44">
         <v>38930</v>
       </c>
-      <c r="J110" s="23"/>
-    </row>
-    <row r="111" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J110" s="22"/>
+    </row>
+    <row r="111" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -8827,26 +8854,26 @@
       <c r="D111" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E111" s="45">
+      <c r="E111" s="41">
         <v>34.329003999999998</v>
       </c>
-      <c r="F111" s="45">
+      <c r="F111" s="41">
         <v>134.04933299999999</v>
       </c>
-      <c r="G111" s="37" t="s">
+      <c r="G111" s="33" t="s">
         <v>653</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I111" s="22">
+      <c r="I111" s="44">
         <v>39722</v>
       </c>
-      <c r="J111" s="20" t="s">
+      <c r="J111" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="112" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -8860,24 +8887,24 @@
       <c r="D112" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E112" s="45">
+      <c r="E112" s="41">
         <v>34.286422999999999</v>
       </c>
-      <c r="F112" s="45">
+      <c r="F112" s="41">
         <v>134.04751400000001</v>
       </c>
-      <c r="G112" s="37" t="s">
+      <c r="G112" s="33" t="s">
         <v>654</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="I112" s="22">
+      <c r="I112" s="44">
         <v>41821</v>
       </c>
-      <c r="J112" s="20"/>
-    </row>
-    <row r="113" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J112" s="19"/>
+    </row>
+    <row r="113" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -8891,24 +8918,24 @@
       <c r="D113" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E113" s="45">
+      <c r="E113" s="41">
         <v>34.326676999999997</v>
       </c>
-      <c r="F113" s="45">
+      <c r="F113" s="41">
         <v>134.06231600000001</v>
       </c>
-      <c r="G113" s="37" t="s">
+      <c r="G113" s="33" t="s">
         <v>655</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I113" s="22">
+      <c r="I113" s="44">
         <v>31617</v>
       </c>
-      <c r="J113" s="22"/>
-    </row>
-    <row r="114" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J113" s="21"/>
+    </row>
+    <row r="114" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -8922,24 +8949,24 @@
       <c r="D114" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="E114" s="45">
+      <c r="E114" s="41">
         <v>34.325797000000001</v>
       </c>
-      <c r="F114" s="45">
+      <c r="F114" s="41">
         <v>134.07956300000001</v>
       </c>
-      <c r="G114" s="37" t="s">
+      <c r="G114" s="33" t="s">
         <v>656</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="I114" s="22">
+      <c r="I114" s="44">
         <v>42522</v>
       </c>
-      <c r="J114" s="22"/>
-    </row>
-    <row r="115" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J114" s="21"/>
+    </row>
+    <row r="115" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -8953,24 +8980,24 @@
       <c r="D115" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E115" s="45">
+      <c r="E115" s="41">
         <v>34.301738999999998</v>
       </c>
-      <c r="F115" s="45">
+      <c r="F115" s="41">
         <v>134.08894900000001</v>
       </c>
-      <c r="G115" s="37" t="s">
+      <c r="G115" s="33" t="s">
         <v>657</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I115" s="22">
+      <c r="I115" s="44">
         <v>36742</v>
       </c>
-      <c r="J115" s="22"/>
-    </row>
-    <row r="116" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J115" s="21"/>
+    </row>
+    <row r="116" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -8984,26 +9011,26 @@
       <c r="D116" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E116" s="45">
+      <c r="E116" s="41">
         <v>34.281458000000001</v>
       </c>
-      <c r="F116" s="45">
+      <c r="F116" s="41">
         <v>133.99779699999999</v>
       </c>
-      <c r="G116" s="37" t="s">
+      <c r="G116" s="33" t="s">
         <v>658</v>
       </c>
       <c r="H116" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="I116" s="22">
+      <c r="I116" s="44">
         <v>41640</v>
       </c>
-      <c r="J116" s="20" t="s">
+      <c r="J116" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="117" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -9019,18 +9046,18 @@
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
-      <c r="G117" s="37" t="s">
+      <c r="G117" s="33" t="s">
         <v>659</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="I117" s="22">
+      <c r="I117" s="44">
         <v>43101</v>
       </c>
-      <c r="J117" s="20"/>
-    </row>
-    <row r="118" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J117" s="19"/>
+    </row>
+    <row r="118" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -9043,24 +9070,24 @@
       <c r="D118" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="E118" s="45">
+      <c r="E118" s="41">
         <v>34.341878000000001</v>
       </c>
-      <c r="F118" s="45">
+      <c r="F118" s="41">
         <v>134.09666899999999</v>
       </c>
-      <c r="G118" s="37" t="s">
+      <c r="G118" s="33" t="s">
         <v>660</v>
       </c>
       <c r="H118" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="I118" s="22">
+      <c r="I118" s="44">
         <v>45388</v>
       </c>
-      <c r="J118" s="20"/>
-    </row>
-    <row r="119" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J118" s="19"/>
+    </row>
+    <row r="119" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -9074,26 +9101,26 @@
       <c r="D119" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E119" s="45">
+      <c r="E119" s="41">
         <v>34.288414000000003</v>
       </c>
-      <c r="F119" s="45">
+      <c r="F119" s="41">
         <v>134.024146</v>
       </c>
-      <c r="G119" s="37" t="s">
+      <c r="G119" s="33" t="s">
         <v>661</v>
       </c>
       <c r="H119" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I119" s="22">
+      <c r="I119" s="44">
         <v>31997</v>
       </c>
-      <c r="J119" s="22" t="s">
+      <c r="J119" s="21" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="120" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -9107,24 +9134,24 @@
       <c r="D120" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="E120" s="45">
+      <c r="E120" s="41">
         <v>34.256005000000002</v>
       </c>
-      <c r="F120" s="45">
+      <c r="F120" s="41">
         <v>134.026681</v>
       </c>
-      <c r="G120" s="37" t="s">
+      <c r="G120" s="33" t="s">
         <v>662</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="I120" s="9">
+      <c r="I120" s="46">
         <v>44136</v>
       </c>
-      <c r="J120" s="23"/>
-    </row>
-    <row r="121" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J120" s="22"/>
+    </row>
+    <row r="121" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -9138,24 +9165,24 @@
       <c r="D121" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="E121" s="45">
+      <c r="E121" s="41">
         <v>34.317377</v>
       </c>
-      <c r="F121" s="45">
+      <c r="F121" s="41">
         <v>134.061384</v>
       </c>
-      <c r="G121" s="37" t="s">
+      <c r="G121" s="33" t="s">
         <v>663</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="I121" s="9">
+      <c r="I121" s="46">
         <v>42948</v>
       </c>
-      <c r="J121" s="23"/>
-    </row>
-    <row r="122" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J121" s="22"/>
+    </row>
+    <row r="122" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -9169,57 +9196,57 @@
       <c r="D122" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E122" s="18">
+      <c r="E122" s="17">
         <v>34.333772000000003</v>
       </c>
-      <c r="F122" s="18">
+      <c r="F122" s="17">
         <v>134.04996600000001</v>
       </c>
-      <c r="G122" s="37" t="s">
+      <c r="G122" s="33" t="s">
         <v>664</v>
       </c>
-      <c r="H122" s="18" t="s">
+      <c r="H122" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="I122" s="28">
+      <c r="I122" s="48">
         <v>41883</v>
       </c>
-      <c r="J122" s="20"/>
-    </row>
-    <row r="123" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J122" s="19"/>
+    </row>
+    <row r="123" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>122</v>
       </c>
-      <c r="B123" s="32" t="s">
+      <c r="B123" s="29" t="s">
         <v>191</v>
       </c>
-      <c r="C123" s="32" t="str">
+      <c r="C123" s="29" t="str">
         <f t="shared" si="4"/>
         <v>ミキシンキュウセッコツイン</v>
       </c>
-      <c r="D123" s="26" t="s">
+      <c r="D123" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="E123" s="46">
+      <c r="E123" s="42">
         <v>34.387632000000004</v>
       </c>
-      <c r="F123" s="46">
+      <c r="F123" s="42">
         <v>134.13385199999999</v>
       </c>
-      <c r="G123" s="37" t="s">
+      <c r="G123" s="33" t="s">
         <v>665</v>
       </c>
-      <c r="H123" s="33" t="s">
+      <c r="H123" s="30" t="s">
         <v>193</v>
       </c>
-      <c r="I123" s="28">
+      <c r="I123" s="48">
         <v>39958</v>
       </c>
-      <c r="J123" s="20" t="s">
+      <c r="J123" s="19" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="124" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -9233,26 +9260,26 @@
       <c r="D124" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E124" s="45">
+      <c r="E124" s="41">
         <v>34.299140999999999</v>
       </c>
-      <c r="F124" s="45">
+      <c r="F124" s="41">
         <v>134.05196900000001</v>
       </c>
-      <c r="G124" s="37" t="s">
+      <c r="G124" s="33" t="s">
         <v>666</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I124" s="22">
+      <c r="I124" s="44">
         <v>25583</v>
       </c>
-      <c r="J124" s="20" t="s">
+      <c r="J124" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="125" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -9266,26 +9293,26 @@
       <c r="D125" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E125" s="45">
+      <c r="E125" s="41">
         <v>34.341566</v>
       </c>
-      <c r="F125" s="45">
+      <c r="F125" s="41">
         <v>134.066811</v>
       </c>
-      <c r="G125" s="37" t="s">
+      <c r="G125" s="33" t="s">
         <v>667</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I125" s="22">
+      <c r="I125" s="44">
         <v>37835</v>
       </c>
-      <c r="J125" s="20" t="s">
+      <c r="J125" s="19" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="126" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -9298,26 +9325,26 @@
       <c r="D126" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="E126" s="45">
+      <c r="E126" s="41">
         <v>34.280352000000001</v>
       </c>
-      <c r="F126" s="45">
+      <c r="F126" s="41">
         <v>133.96529899999999</v>
       </c>
-      <c r="G126" s="37" t="s">
+      <c r="G126" s="33" t="s">
         <v>668</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="I126" s="22">
+      <c r="I126" s="44">
         <v>41725</v>
       </c>
-      <c r="J126" s="20" t="s">
+      <c r="J126" s="19" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="127" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -9331,24 +9358,24 @@
       <c r="D127" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="E127" s="45">
+      <c r="E127" s="41">
         <v>34.289344</v>
       </c>
-      <c r="F127" s="45">
+      <c r="F127" s="41">
         <v>134.092647</v>
       </c>
-      <c r="G127" s="37" t="s">
+      <c r="G127" s="33" t="s">
         <v>669</v>
       </c>
       <c r="H127" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I127" s="22">
+      <c r="I127" s="44">
         <v>33575</v>
       </c>
-      <c r="J127" s="22"/>
-    </row>
-    <row r="128" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J127" s="21"/>
+    </row>
+    <row r="128" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -9361,26 +9388,26 @@
       <c r="D128" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="E128" s="45">
+      <c r="E128" s="41">
         <v>34.308157000000001</v>
       </c>
-      <c r="F128" s="45">
+      <c r="F128" s="41">
         <v>134.09168500000001</v>
       </c>
-      <c r="G128" s="37" t="s">
+      <c r="G128" s="33" t="s">
         <v>670</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="I128" s="22">
+      <c r="I128" s="44">
         <v>41588</v>
       </c>
-      <c r="J128" s="22" t="s">
+      <c r="J128" s="21" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="129" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -9394,24 +9421,24 @@
       <c r="D129" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E129" s="45">
+      <c r="E129" s="41">
         <v>34.316346000000003</v>
       </c>
-      <c r="F129" s="45">
+      <c r="F129" s="41">
         <v>133.96922799999999</v>
       </c>
-      <c r="G129" s="37" t="s">
+      <c r="G129" s="33" t="s">
         <v>671</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="I129" s="22">
+      <c r="I129" s="44">
         <v>40216</v>
       </c>
-      <c r="J129" s="22"/>
-    </row>
-    <row r="130" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J129" s="21"/>
+    </row>
+    <row r="130" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -9425,25 +9452,25 @@
       <c r="D130" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E130" s="45">
+      <c r="E130" s="41">
         <v>34.337442000000003</v>
       </c>
-      <c r="F130" s="45">
+      <c r="F130" s="41">
         <v>134.10886400000001</v>
       </c>
-      <c r="G130" s="37" t="s">
+      <c r="G130" s="33" t="s">
         <v>673</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I130" s="22">
+      <c r="I130" s="44">
         <v>37561</v>
       </c>
-      <c r="J130" s="22"/>
-      <c r="K130" s="21"/>
-    </row>
-    <row r="131" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J130" s="21"/>
+      <c r="K130" s="20"/>
+    </row>
+    <row r="131" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -9457,24 +9484,24 @@
       <c r="D131" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E131" s="45">
+      <c r="E131" s="41">
         <v>34.337451999999999</v>
       </c>
-      <c r="F131" s="45">
+      <c r="F131" s="41">
         <v>134.066585</v>
       </c>
-      <c r="G131" s="37" t="s">
+      <c r="G131" s="33" t="s">
         <v>672</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I131" s="22">
+      <c r="I131" s="44">
         <v>30122</v>
       </c>
-      <c r="J131" s="22"/>
-    </row>
-    <row r="132" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J131" s="21"/>
+    </row>
+    <row r="132" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -9488,55 +9515,55 @@
       <c r="D132" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E132" s="45">
+      <c r="E132" s="41">
         <v>34.348129</v>
       </c>
-      <c r="F132" s="45">
+      <c r="F132" s="41">
         <v>134.04271399999999</v>
       </c>
-      <c r="G132" s="37" t="s">
+      <c r="G132" s="33" t="s">
         <v>674</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I132" s="22">
+      <c r="I132" s="44">
         <v>40848</v>
       </c>
-      <c r="J132" s="22"/>
-    </row>
-    <row r="133" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J132" s="21"/>
+    </row>
+    <row r="133" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>132</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C133" s="2" t="str">
         <f>PHONETIC(B133)</f>
         <v>ムスビセッコツイン　カミフクオカイン</v>
       </c>
       <c r="D133" s="8" t="s">
+        <v>718</v>
+      </c>
+      <c r="E133" s="41">
+        <v>34.333134000000001</v>
+      </c>
+      <c r="F133" s="41">
+        <v>134.06802099999999</v>
+      </c>
+      <c r="G133" s="33" t="s">
         <v>719</v>
       </c>
-      <c r="E133" s="45">
-        <v>34.333134000000001</v>
-      </c>
-      <c r="F133" s="45">
-        <v>134.06802099999999</v>
-      </c>
-      <c r="G133" s="37" t="s">
+      <c r="H133" s="41" t="s">
         <v>720</v>
       </c>
-      <c r="H133" s="45" t="s">
-        <v>721</v>
-      </c>
-      <c r="I133" s="22">
+      <c r="I133" s="44">
         <v>45427</v>
       </c>
-      <c r="J133" s="22"/>
-    </row>
-    <row r="134" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J133" s="21"/>
+    </row>
+    <row r="134" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -9549,24 +9576,24 @@
       <c r="D134" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="E134" s="45">
+      <c r="E134" s="41">
         <v>34.308826000000003</v>
       </c>
-      <c r="F134" s="45">
+      <c r="F134" s="41">
         <v>133.96402599999999</v>
       </c>
-      <c r="G134" s="37" t="s">
+      <c r="G134" s="33" t="s">
         <v>675</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="I134" s="22">
+      <c r="I134" s="44">
         <v>42086</v>
       </c>
-      <c r="J134" s="22"/>
-    </row>
-    <row r="135" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J134" s="21"/>
+    </row>
+    <row r="135" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -9577,29 +9604,29 @@
         <f t="shared" ref="C135:C141" si="5">PHONETIC(B135)</f>
         <v>モリシンキュウセッコツイン</v>
       </c>
-      <c r="D135" s="37" t="s">
+      <c r="D135" s="33" t="s">
         <v>353</v>
       </c>
-      <c r="E135" s="45">
+      <c r="E135" s="41">
         <v>34.335113</v>
       </c>
-      <c r="F135" s="45">
+      <c r="F135" s="41">
         <v>134.01111599999999</v>
       </c>
-      <c r="G135" s="37" t="s">
+      <c r="G135" s="33" t="s">
         <v>676</v>
       </c>
       <c r="H135" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I135" s="22">
+      <c r="I135" s="44">
         <v>38869</v>
       </c>
-      <c r="J135" s="20" t="s">
+      <c r="J135" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="136" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -9613,24 +9640,24 @@
       <c r="D136" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="E136" s="45">
+      <c r="E136" s="41">
         <v>34.297317</v>
       </c>
-      <c r="F136" s="45">
+      <c r="F136" s="41">
         <v>134.03551100000001</v>
       </c>
-      <c r="G136" s="37" t="s">
+      <c r="G136" s="33" t="s">
         <v>677</v>
       </c>
       <c r="H136" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I136" s="22">
+      <c r="I136" s="44">
         <v>36057</v>
       </c>
-      <c r="J136" s="22"/>
-    </row>
-    <row r="137" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J136" s="21"/>
+    </row>
+    <row r="137" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -9644,24 +9671,24 @@
       <c r="D137" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="E137" s="45">
+      <c r="E137" s="41">
         <v>34.338760999999998</v>
       </c>
-      <c r="F137" s="45">
+      <c r="F137" s="41">
         <v>134.108374</v>
       </c>
-      <c r="G137" s="37" t="s">
+      <c r="G137" s="33" t="s">
         <v>678</v>
       </c>
       <c r="H137" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I137" s="22">
+      <c r="I137" s="44">
         <v>41760</v>
       </c>
-      <c r="J137" s="22"/>
-    </row>
-    <row r="138" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J137" s="21"/>
+    </row>
+    <row r="138" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -9675,24 +9702,24 @@
       <c r="D138" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E138" s="45">
+      <c r="E138" s="41">
         <v>34.340372000000002</v>
       </c>
-      <c r="F138" s="45">
+      <c r="F138" s="41">
         <v>134.11425800000001</v>
       </c>
-      <c r="G138" s="37" t="s">
+      <c r="G138" s="33" t="s">
         <v>679</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I138" s="22">
+      <c r="I138" s="44">
         <v>29717</v>
       </c>
-      <c r="J138" s="22"/>
-    </row>
-    <row r="139" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J138" s="21"/>
+    </row>
+    <row r="139" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -9706,24 +9733,24 @@
       <c r="D139" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E139" s="45">
+      <c r="E139" s="41">
         <v>34.342678999999997</v>
       </c>
-      <c r="F139" s="45">
+      <c r="F139" s="41">
         <v>134.100728</v>
       </c>
-      <c r="G139" s="37" t="s">
+      <c r="G139" s="33" t="s">
         <v>680</v>
       </c>
       <c r="H139" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="I139" s="22">
+      <c r="I139" s="44">
         <v>30015</v>
       </c>
-      <c r="J139" s="22"/>
-    </row>
-    <row r="140" spans="1:11" s="21" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J139" s="21"/>
+    </row>
+    <row r="140" spans="1:11" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -9737,25 +9764,25 @@
       <c r="D140" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="E140" s="45">
+      <c r="E140" s="41">
         <v>34.284075000000001</v>
       </c>
-      <c r="F140" s="45">
+      <c r="F140" s="41">
         <v>134.096462</v>
       </c>
-      <c r="G140" s="37" t="s">
+      <c r="G140" s="33" t="s">
         <v>681</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="I140" s="22">
+      <c r="I140" s="44">
         <v>43070</v>
       </c>
-      <c r="J140" s="22"/>
-      <c r="K140" s="10"/>
-    </row>
-    <row r="141" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J140" s="21"/>
+      <c r="K140" s="9"/>
+    </row>
+    <row r="141" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -9769,26 +9796,26 @@
       <c r="D141" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E141" s="45">
+      <c r="E141" s="41">
         <v>34.342661</v>
       </c>
-      <c r="F141" s="45">
+      <c r="F141" s="41">
         <v>134.096205</v>
       </c>
-      <c r="G141" s="37" t="s">
+      <c r="G141" s="33" t="s">
         <v>682</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I141" s="22">
+      <c r="I141" s="44">
         <v>31040</v>
       </c>
-      <c r="J141" s="22" t="s">
+      <c r="J141" s="21" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="142" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -9801,24 +9828,24 @@
       <c r="D142" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="E142" s="45">
+      <c r="E142" s="41">
         <v>34.333956000000001</v>
       </c>
-      <c r="F142" s="45">
+      <c r="F142" s="41">
         <v>134.081931</v>
       </c>
-      <c r="G142" s="37" t="s">
+      <c r="G142" s="33" t="s">
         <v>683</v>
       </c>
       <c r="H142" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="I142" s="22">
+      <c r="I142" s="44">
         <v>44739</v>
       </c>
-      <c r="J142" s="22"/>
-    </row>
-    <row r="143" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J142" s="21"/>
+    </row>
+    <row r="143" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -9832,26 +9859,26 @@
       <c r="D143" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E143" s="45">
+      <c r="E143" s="41">
         <v>34.313543000000003</v>
       </c>
-      <c r="F143" s="45">
+      <c r="F143" s="41">
         <v>134.026186</v>
       </c>
-      <c r="G143" s="37" t="s">
+      <c r="G143" s="33" t="s">
         <v>684</v>
       </c>
       <c r="H143" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I143" s="22">
+      <c r="I143" s="44">
         <v>30225</v>
       </c>
-      <c r="J143" s="20" t="s">
+      <c r="J143" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -9862,27 +9889,27 @@
         <f>PHONETIC(B144)</f>
         <v>ヤマシロセイコツイン</v>
       </c>
-      <c r="D144" s="11" t="s">
+      <c r="D144" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E144" s="45">
+      <c r="E144" s="41">
         <v>34.307678000000003</v>
       </c>
-      <c r="F144" s="13">
+      <c r="F144" s="12">
         <v>133.96265099999999</v>
       </c>
-      <c r="G144" s="37" t="s">
+      <c r="G144" s="33" t="s">
         <v>685</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="I144" s="22">
+      <c r="I144" s="44">
         <v>44181</v>
       </c>
-      <c r="J144" s="20"/>
-    </row>
-    <row r="145" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J144" s="19"/>
+    </row>
+    <row r="145" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -9896,26 +9923,26 @@
       <c r="D145" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E145" s="45">
+      <c r="E145" s="41">
         <v>34.322457</v>
       </c>
-      <c r="F145" s="13">
+      <c r="F145" s="12">
         <v>134.07410200000001</v>
       </c>
-      <c r="G145" s="37" t="s">
+      <c r="G145" s="33" t="s">
         <v>686</v>
       </c>
       <c r="H145" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I145" s="22">
+      <c r="I145" s="44">
         <v>38082</v>
       </c>
-      <c r="J145" s="20" t="s">
+      <c r="J145" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -9928,24 +9955,24 @@
       <c r="D146" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="E146" s="45">
+      <c r="E146" s="41">
         <v>34.322403000000001</v>
       </c>
-      <c r="F146" s="45">
+      <c r="F146" s="41">
         <v>134.07405900000001</v>
       </c>
-      <c r="G146" s="37" t="s">
+      <c r="G146" s="33" t="s">
         <v>687</v>
       </c>
       <c r="H146" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="I146" s="22">
+      <c r="I146" s="44">
         <v>44932</v>
       </c>
-      <c r="J146" s="20"/>
-    </row>
-    <row r="147" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J146" s="19"/>
+    </row>
+    <row r="147" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -9959,24 +9986,24 @@
       <c r="D147" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="E147" s="45">
+      <c r="E147" s="41">
         <v>34.284092999999999</v>
       </c>
-      <c r="F147" s="45">
+      <c r="F147" s="41">
         <v>133.95545100000001</v>
       </c>
-      <c r="G147" s="37" t="s">
+      <c r="G147" s="33" t="s">
         <v>688</v>
       </c>
       <c r="H147" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="I147" s="22">
+      <c r="I147" s="44">
         <v>41487</v>
       </c>
-      <c r="J147" s="20"/>
-    </row>
-    <row r="148" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J147" s="19"/>
+    </row>
+    <row r="148" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -9990,24 +10017,24 @@
       <c r="D148" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="E148" s="45">
+      <c r="E148" s="41">
         <v>34.297007999999998</v>
       </c>
-      <c r="F148" s="45">
+      <c r="F148" s="41">
         <v>133.94552400000001</v>
       </c>
-      <c r="G148" s="37" t="s">
+      <c r="G148" s="33" t="s">
         <v>689</v>
       </c>
       <c r="H148" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="I148" s="22">
+      <c r="I148" s="44">
         <v>44774</v>
       </c>
-      <c r="J148" s="20"/>
-    </row>
-    <row r="149" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J148" s="19"/>
+    </row>
+    <row r="149" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -10021,26 +10048,26 @@
       <c r="D149" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E149" s="45">
+      <c r="E149" s="41">
         <v>34.271703000000002</v>
       </c>
-      <c r="F149" s="45">
+      <c r="F149" s="41">
         <v>134.02163300000001</v>
       </c>
-      <c r="G149" s="37" t="s">
+      <c r="G149" s="33" t="s">
         <v>690</v>
       </c>
       <c r="H149" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I149" s="9">
+      <c r="I149" s="46">
         <v>31931</v>
       </c>
-      <c r="J149" s="20" t="s">
+      <c r="J149" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -10051,30 +10078,30 @@
         <f t="shared" si="6"/>
         <v>ヨシダシンキュウセイコツイン</v>
       </c>
-      <c r="D150" s="26" t="s">
+      <c r="D150" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="E150" s="45">
+      <c r="E150" s="41">
         <v>34.271738999999997</v>
       </c>
-      <c r="F150" s="27">
+      <c r="F150" s="26">
         <v>134.02161100000001</v>
       </c>
-      <c r="G150" s="37" t="s">
+      <c r="G150" s="33" t="s">
         <v>691</v>
       </c>
-      <c r="H150" s="27" t="s">
+      <c r="H150" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="I150" s="29">
+      <c r="I150" s="49">
         <v>39300</v>
       </c>
-      <c r="J150" s="20" t="s">
+      <c r="J150" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="K150" s="11"/>
-    </row>
-    <row r="151" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K150" s="10"/>
+    </row>
+    <row r="151" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -10085,28 +10112,28 @@
         <f t="shared" si="6"/>
         <v>ヨツバセイコツイン</v>
       </c>
-      <c r="D151" s="26" t="s">
+      <c r="D151" s="25" t="s">
         <v>430</v>
       </c>
-      <c r="E151" s="45">
+      <c r="E151" s="41">
         <v>34.334273000000003</v>
       </c>
-      <c r="F151" s="27">
+      <c r="F151" s="26">
         <v>134.083787</v>
       </c>
-      <c r="G151" s="37" t="s">
+      <c r="G151" s="33" t="s">
         <v>692</v>
       </c>
-      <c r="H151" s="27" t="s">
+      <c r="H151" s="26" t="s">
         <v>431</v>
       </c>
-      <c r="I151" s="29">
+      <c r="I151" s="49">
         <v>43383</v>
       </c>
-      <c r="J151" s="20"/>
-      <c r="K151" s="11"/>
-    </row>
-    <row r="152" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J151" s="19"/>
+      <c r="K151" s="10"/>
+    </row>
+    <row r="152" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -10120,25 +10147,25 @@
       <c r="D152" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E152" s="45">
+      <c r="E152" s="41">
         <v>34.319628000000002</v>
       </c>
-      <c r="F152" s="45">
+      <c r="F152" s="41">
         <v>134.053755</v>
       </c>
-      <c r="G152" s="37" t="s">
+      <c r="G152" s="33" t="s">
         <v>693</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I152" s="22">
+      <c r="I152" s="44">
         <v>32500</v>
       </c>
-      <c r="J152" s="22"/>
-      <c r="K152" s="11"/>
-    </row>
-    <row r="153" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J152" s="21"/>
+      <c r="K152" s="10"/>
+    </row>
+    <row r="153" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -10151,25 +10178,25 @@
       <c r="D153" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="E153" s="45">
+      <c r="E153" s="41">
         <v>34.304028000000002</v>
       </c>
-      <c r="F153" s="45">
+      <c r="F153" s="41">
         <v>133.97233299999999</v>
       </c>
-      <c r="G153" s="37" t="s">
+      <c r="G153" s="33" t="s">
         <v>694</v>
       </c>
       <c r="H153" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="I153" s="22">
+      <c r="I153" s="44">
         <v>45170</v>
       </c>
-      <c r="J153" s="22"/>
-      <c r="K153" s="11"/>
-    </row>
-    <row r="154" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J153" s="21"/>
+      <c r="K153" s="10"/>
+    </row>
+    <row r="154" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -10182,26 +10209,26 @@
       <c r="D154" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="E154" s="45">
+      <c r="E154" s="41">
         <v>34.345882000000003</v>
       </c>
-      <c r="F154" s="45">
+      <c r="F154" s="41">
         <v>134.04718009999999</v>
       </c>
-      <c r="G154" s="37" t="s">
+      <c r="G154" s="33" t="s">
         <v>695</v>
       </c>
       <c r="H154" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I154" s="22">
+      <c r="I154" s="44">
         <v>37805</v>
       </c>
-      <c r="J154" s="22" t="s">
+      <c r="J154" s="21" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="155" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -10215,27 +10242,27 @@
       <c r="D155" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E155" s="45">
+      <c r="E155" s="41">
         <v>34.332870999999997</v>
       </c>
-      <c r="F155" s="45">
+      <c r="F155" s="41">
         <v>134.053585</v>
       </c>
-      <c r="G155" s="37" t="s">
+      <c r="G155" s="33" t="s">
         <v>696</v>
       </c>
       <c r="H155" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I155" s="22">
+      <c r="I155" s="44">
         <v>39448</v>
       </c>
-      <c r="J155" s="20" t="s">
+      <c r="J155" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="K155" s="11"/>
-    </row>
-    <row r="156" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K155" s="10"/>
+    </row>
+    <row r="156" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -10248,25 +10275,25 @@
       <c r="D156" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="E156" s="45">
+      <c r="E156" s="41">
         <v>34.263731</v>
       </c>
-      <c r="F156" s="45">
+      <c r="F156" s="41">
         <v>134.02720400000001</v>
       </c>
-      <c r="G156" s="37" t="s">
+      <c r="G156" s="33" t="s">
         <v>697</v>
       </c>
       <c r="H156" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="I156" s="22">
+      <c r="I156" s="44">
         <v>41396</v>
       </c>
-      <c r="J156" s="20"/>
-      <c r="K156" s="11"/>
-    </row>
-    <row r="157" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J156" s="19"/>
+      <c r="K156" s="10"/>
+    </row>
+    <row r="157" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -10280,25 +10307,25 @@
       <c r="D157" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E157" s="45">
+      <c r="E157" s="41">
         <v>34.312365</v>
       </c>
-      <c r="F157" s="45">
+      <c r="F157" s="41">
         <v>134.083392</v>
       </c>
-      <c r="G157" s="37" t="s">
+      <c r="G157" s="33" t="s">
         <v>698</v>
       </c>
       <c r="H157" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="I157" s="22">
+      <c r="I157" s="44">
         <v>40360</v>
       </c>
-      <c r="J157" s="22"/>
-      <c r="K157" s="11"/>
-    </row>
-    <row r="158" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J157" s="21"/>
+      <c r="K157" s="10"/>
+    </row>
+    <row r="158" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -10311,26 +10338,26 @@
       <c r="D158" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="E158" s="45">
+      <c r="E158" s="41">
         <v>34.329160999999999</v>
       </c>
-      <c r="F158" s="45">
+      <c r="F158" s="41">
         <v>134.058245</v>
       </c>
-      <c r="G158" s="37" t="s">
+      <c r="G158" s="33" t="s">
         <v>699</v>
       </c>
       <c r="H158" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="I158" s="22">
+      <c r="I158" s="44">
         <v>42443</v>
       </c>
-      <c r="J158" s="22" t="s">
+      <c r="J158" s="21" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="159" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -10343,24 +10370,24 @@
       <c r="D159" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="E159" s="45">
+      <c r="E159" s="41">
         <v>34.284131000000002</v>
       </c>
-      <c r="F159" s="45">
+      <c r="F159" s="41">
         <v>134.089755</v>
       </c>
-      <c r="G159" s="37" t="s">
+      <c r="G159" s="33" t="s">
         <v>700</v>
       </c>
       <c r="H159" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="I159" s="22">
+      <c r="I159" s="44">
         <v>44805</v>
       </c>
-      <c r="J159" s="20"/>
-    </row>
-    <row r="160" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J159" s="19"/>
+    </row>
+    <row r="160" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -10373,26 +10400,26 @@
       <c r="D160" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="E160" s="45">
+      <c r="E160" s="41">
         <v>34.335034999999998</v>
       </c>
-      <c r="F160" s="45">
+      <c r="F160" s="41">
         <v>134.07119800000001</v>
       </c>
-      <c r="G160" s="37" t="s">
+      <c r="G160" s="33" t="s">
         <v>701</v>
       </c>
       <c r="H160" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I160" s="22">
+      <c r="I160" s="44">
         <v>40982</v>
       </c>
-      <c r="J160" s="23" t="s">
+      <c r="J160" s="22" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="161" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -10405,25 +10432,25 @@
       <c r="D161" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="E161" s="45">
+      <c r="E161" s="41">
         <v>34.295994</v>
       </c>
-      <c r="F161" s="45">
+      <c r="F161" s="41">
         <v>134.06595799999999</v>
       </c>
-      <c r="G161" s="37" t="s">
+      <c r="G161" s="33" t="s">
         <v>702</v>
       </c>
       <c r="H161" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="I161" s="22">
+      <c r="I161" s="44">
         <v>41395</v>
       </c>
-      <c r="J161" s="23"/>
-      <c r="K161" s="10"/>
-    </row>
-    <row r="162" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J161" s="22"/>
+      <c r="K161" s="9"/>
+    </row>
+    <row r="162" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -10434,27 +10461,27 @@
       <c r="D162" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="E162" s="45">
+      <c r="E162" s="41">
         <v>34.299269000000002</v>
       </c>
-      <c r="F162" s="45">
+      <c r="F162" s="41">
         <v>134.11092500000001</v>
       </c>
-      <c r="G162" s="37" t="s">
+      <c r="G162" s="33" t="s">
         <v>703</v>
       </c>
       <c r="H162" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="I162" s="22">
+      <c r="I162" s="44">
         <v>42454</v>
       </c>
-      <c r="J162" s="20" t="s">
+      <c r="J162" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="K162" s="10"/>
-    </row>
-    <row r="163" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K162" s="9"/>
+    </row>
+    <row r="163" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -10467,25 +10494,25 @@
       <c r="D163" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="E163" s="45">
+      <c r="E163" s="41">
         <v>34.301983</v>
       </c>
-      <c r="F163" s="45">
+      <c r="F163" s="41">
         <v>134.07158699999999</v>
       </c>
-      <c r="G163" s="37" t="s">
+      <c r="G163" s="33" t="s">
         <v>704</v>
       </c>
       <c r="H163" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="I163" s="22">
+      <c r="I163" s="44">
         <v>28216</v>
       </c>
-      <c r="J163" s="22"/>
-      <c r="K163" s="10"/>
-    </row>
-    <row r="164" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J163" s="21"/>
+      <c r="K163" s="9"/>
+    </row>
+    <row r="164" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -10498,25 +10525,25 @@
       <c r="D164" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="E164" s="45">
+      <c r="E164" s="41">
         <v>34.323757000000001</v>
       </c>
-      <c r="F164" s="45">
+      <c r="F164" s="41">
         <v>134.07733400000001</v>
       </c>
-      <c r="G164" s="37" t="s">
+      <c r="G164" s="33" t="s">
         <v>705</v>
       </c>
       <c r="H164" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="I164" s="22">
+      <c r="I164" s="44">
         <v>42520</v>
       </c>
-      <c r="J164" s="22"/>
-      <c r="K164" s="10"/>
-    </row>
-    <row r="165" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J164" s="21"/>
+      <c r="K164" s="9"/>
+    </row>
+    <row r="165" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -10529,27 +10556,27 @@
       <c r="D165" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E165" s="45">
+      <c r="E165" s="41">
         <v>34.286965000000002</v>
       </c>
-      <c r="F165" s="45">
+      <c r="F165" s="41">
         <v>134.042618</v>
       </c>
-      <c r="G165" s="37" t="s">
+      <c r="G165" s="33" t="s">
         <v>706</v>
       </c>
       <c r="H165" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="I165" s="22">
+      <c r="I165" s="44">
         <v>41113</v>
       </c>
-      <c r="J165" s="20" t="s">
+      <c r="J165" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="K165" s="10"/>
-    </row>
-    <row r="166" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K165" s="9"/>
+    </row>
+    <row r="166" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -10562,765 +10589,765 @@
       <c r="D166" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E166" s="45">
+      <c r="E166" s="41">
         <v>34.313502999999997</v>
       </c>
-      <c r="F166" s="45">
+      <c r="F166" s="41">
         <v>134.08316099999999</v>
       </c>
-      <c r="G166" s="37" t="s">
+      <c r="G166" s="33" t="s">
         <v>708</v>
       </c>
       <c r="H166" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="I166" s="22">
+      <c r="I166" s="44">
         <v>41687</v>
       </c>
-      <c r="J166" s="20" t="s">
+      <c r="J166" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="K166" s="10"/>
-    </row>
-    <row r="167" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="10"/>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="25"/>
-      <c r="F167" s="25"/>
-      <c r="G167" s="42"/>
-      <c r="H167" s="25"/>
-      <c r="I167" s="25"/>
-      <c r="J167" s="24"/>
-    </row>
-    <row r="168" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="38"/>
-      <c r="B168" s="10"/>
-      <c r="C168" s="10"/>
-      <c r="D168" s="10"/>
-      <c r="E168" s="25"/>
-      <c r="F168" s="25"/>
-      <c r="G168" s="42"/>
-      <c r="H168" s="25"/>
-      <c r="I168" s="25"/>
-      <c r="J168" s="24"/>
-    </row>
-    <row r="169" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="38"/>
-      <c r="B169" s="10"/>
-      <c r="C169" s="10"/>
-      <c r="D169" s="10"/>
-      <c r="E169" s="25"/>
-      <c r="F169" s="25"/>
-      <c r="G169" s="42"/>
-      <c r="H169" s="25"/>
-      <c r="I169" s="25"/>
-      <c r="J169" s="24"/>
-    </row>
-    <row r="170" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K166" s="9"/>
+    </row>
+    <row r="167" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B167" s="9"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="E167" s="24"/>
+      <c r="F167" s="24"/>
+      <c r="G167" s="38"/>
+      <c r="H167" s="24"/>
+      <c r="I167" s="50"/>
+      <c r="J167" s="23"/>
+    </row>
+    <row r="168" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="34"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="24"/>
+      <c r="F168" s="24"/>
+      <c r="G168" s="38"/>
+      <c r="H168" s="24"/>
+      <c r="I168" s="50"/>
+      <c r="J168" s="23"/>
+    </row>
+    <row r="169" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="34"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="24"/>
+      <c r="F169" s="24"/>
+      <c r="G169" s="38"/>
+      <c r="H169" s="24"/>
+      <c r="I169" s="50"/>
+      <c r="J169" s="23"/>
+    </row>
+    <row r="170" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
-      <c r="B170" s="10"/>
-      <c r="C170" s="10"/>
-      <c r="D170" s="10"/>
-      <c r="E170" s="25"/>
-      <c r="F170" s="25"/>
-      <c r="G170" s="42"/>
-      <c r="H170" s="25"/>
-      <c r="I170" s="25"/>
-      <c r="J170" s="24"/>
-    </row>
-    <row r="171" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="E170" s="24"/>
+      <c r="F170" s="24"/>
+      <c r="G170" s="38"/>
+      <c r="H170" s="24"/>
+      <c r="I170" s="50"/>
+      <c r="J170" s="23"/>
+    </row>
+    <row r="171" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
-      <c r="B171" s="10"/>
-      <c r="C171" s="10"/>
-      <c r="D171" s="10"/>
-      <c r="E171" s="25"/>
-      <c r="F171" s="25"/>
-      <c r="G171" s="42"/>
-      <c r="H171" s="25"/>
-      <c r="I171" s="25"/>
-      <c r="J171" s="24"/>
-    </row>
-    <row r="172" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="E171" s="24"/>
+      <c r="F171" s="24"/>
+      <c r="G171" s="38"/>
+      <c r="H171" s="24"/>
+      <c r="I171" s="50"/>
+      <c r="J171" s="23"/>
+    </row>
+    <row r="172" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
-      <c r="B172" s="10"/>
-      <c r="C172" s="10"/>
-      <c r="D172" s="10"/>
-      <c r="E172" s="25"/>
-      <c r="F172" s="25"/>
-      <c r="G172" s="42"/>
-      <c r="H172" s="25"/>
-      <c r="I172" s="25"/>
-      <c r="J172" s="24"/>
-    </row>
-    <row r="173" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="E172" s="24"/>
+      <c r="F172" s="24"/>
+      <c r="G172" s="38"/>
+      <c r="H172" s="24"/>
+      <c r="I172" s="50"/>
+      <c r="J172" s="23"/>
+    </row>
+    <row r="173" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
-      <c r="B173" s="10"/>
-      <c r="C173" s="10"/>
-      <c r="D173" s="10"/>
-      <c r="E173" s="25"/>
-      <c r="F173" s="25"/>
-      <c r="G173" s="42"/>
-      <c r="H173" s="25"/>
-      <c r="I173" s="25"/>
-      <c r="J173" s="24"/>
-    </row>
-    <row r="174" spans="1:11" s="11" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="E173" s="24"/>
+      <c r="F173" s="24"/>
+      <c r="G173" s="38"/>
+      <c r="H173" s="24"/>
+      <c r="I173" s="50"/>
+      <c r="J173" s="23"/>
+    </row>
+    <row r="174" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
-      <c r="B174" s="10"/>
-      <c r="C174" s="10"/>
-      <c r="D174" s="10"/>
-      <c r="E174" s="25"/>
-      <c r="F174" s="25"/>
-      <c r="G174" s="42"/>
-      <c r="H174" s="25"/>
-      <c r="I174" s="25"/>
-      <c r="J174" s="24"/>
-    </row>
-    <row r="175" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B174" s="9"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="E174" s="24"/>
+      <c r="F174" s="24"/>
+      <c r="G174" s="38"/>
+      <c r="H174" s="24"/>
+      <c r="I174" s="50"/>
+      <c r="J174" s="23"/>
+    </row>
+    <row r="175" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
-      <c r="E175" s="25"/>
-      <c r="F175" s="25"/>
-      <c r="G175" s="42"/>
-      <c r="H175" s="25"/>
-      <c r="I175" s="25"/>
-      <c r="J175" s="24"/>
-    </row>
-    <row r="176" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E175" s="24"/>
+      <c r="F175" s="24"/>
+      <c r="G175" s="38"/>
+      <c r="H175" s="24"/>
+      <c r="I175" s="50"/>
+      <c r="J175" s="23"/>
+    </row>
+    <row r="176" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
-      <c r="E176" s="25"/>
-      <c r="F176" s="25"/>
-      <c r="G176" s="42"/>
-      <c r="H176" s="25"/>
-      <c r="I176" s="25"/>
-      <c r="J176" s="24"/>
-    </row>
-    <row r="177" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E176" s="24"/>
+      <c r="F176" s="24"/>
+      <c r="G176" s="38"/>
+      <c r="H176" s="24"/>
+      <c r="I176" s="50"/>
+      <c r="J176" s="23"/>
+    </row>
+    <row r="177" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6"/>
-      <c r="E177" s="25"/>
-      <c r="F177" s="25"/>
-      <c r="G177" s="42"/>
-      <c r="H177" s="25"/>
-      <c r="I177" s="25"/>
-      <c r="J177" s="24"/>
-    </row>
-    <row r="178" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E177" s="24"/>
+      <c r="F177" s="24"/>
+      <c r="G177" s="38"/>
+      <c r="H177" s="24"/>
+      <c r="I177" s="50"/>
+      <c r="J177" s="23"/>
+    </row>
+    <row r="178" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
-      <c r="G178" s="43"/>
+      <c r="G178" s="39"/>
       <c r="H178" s="5"/>
-      <c r="I178" s="5"/>
-      <c r="J178" s="12"/>
-    </row>
-    <row r="179" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I178" s="51"/>
+      <c r="J178" s="11"/>
+    </row>
+    <row r="179" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
-      <c r="G179" s="43"/>
+      <c r="G179" s="39"/>
       <c r="H179" s="5"/>
-      <c r="I179" s="5"/>
-      <c r="J179" s="12"/>
-    </row>
-    <row r="180" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I179" s="51"/>
+      <c r="J179" s="11"/>
+    </row>
+    <row r="180" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
-      <c r="G180" s="43"/>
+      <c r="G180" s="39"/>
       <c r="H180" s="5"/>
-      <c r="I180" s="5"/>
-      <c r="J180" s="12"/>
-    </row>
-    <row r="181" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I180" s="51"/>
+      <c r="J180" s="11"/>
+    </row>
+    <row r="181" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
-      <c r="G181" s="43"/>
+      <c r="G181" s="39"/>
       <c r="H181" s="5"/>
-      <c r="I181" s="5"/>
-      <c r="J181" s="12"/>
-    </row>
-    <row r="182" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I181" s="51"/>
+      <c r="J181" s="11"/>
+    </row>
+    <row r="182" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
-      <c r="G182" s="43"/>
+      <c r="G182" s="39"/>
       <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-      <c r="J182" s="12"/>
-    </row>
-    <row r="183" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I182" s="51"/>
+      <c r="J182" s="11"/>
+    </row>
+    <row r="183" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
-      <c r="G183" s="43"/>
+      <c r="G183" s="39"/>
       <c r="H183" s="5"/>
-      <c r="I183" s="5"/>
-      <c r="J183" s="12"/>
-    </row>
-    <row r="184" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I183" s="51"/>
+      <c r="J183" s="11"/>
+    </row>
+    <row r="184" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
-      <c r="G184" s="43"/>
+      <c r="G184" s="39"/>
       <c r="H184" s="5"/>
-      <c r="I184" s="5"/>
-      <c r="J184" s="12"/>
-    </row>
-    <row r="185" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I184" s="51"/>
+      <c r="J184" s="11"/>
+    </row>
+    <row r="185" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
-      <c r="G185" s="43"/>
+      <c r="G185" s="39"/>
       <c r="H185" s="5"/>
-      <c r="I185" s="5"/>
-      <c r="J185" s="12"/>
-    </row>
-    <row r="186" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I185" s="51"/>
+      <c r="J185" s="11"/>
+    </row>
+    <row r="186" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
-      <c r="G186" s="43"/>
+      <c r="G186" s="39"/>
       <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="12"/>
-    </row>
-    <row r="187" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I186" s="51"/>
+      <c r="J186" s="11"/>
+    </row>
+    <row r="187" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
-      <c r="G187" s="43"/>
+      <c r="G187" s="39"/>
       <c r="H187" s="5"/>
-      <c r="I187" s="5"/>
-      <c r="J187" s="12"/>
+      <c r="I187" s="51"/>
+      <c r="J187" s="11"/>
     </row>
     <row r="188" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
-      <c r="G188" s="43"/>
+      <c r="G188" s="39"/>
       <c r="H188" s="5"/>
-      <c r="I188" s="5"/>
-      <c r="J188" s="12"/>
+      <c r="I188" s="51"/>
+      <c r="J188" s="11"/>
     </row>
     <row r="189" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
-      <c r="G189" s="43"/>
+      <c r="G189" s="39"/>
       <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="12"/>
+      <c r="I189" s="51"/>
+      <c r="J189" s="11"/>
     </row>
     <row r="190" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
-      <c r="G190" s="43"/>
+      <c r="G190" s="39"/>
       <c r="H190" s="5"/>
-      <c r="I190" s="5"/>
-      <c r="J190" s="12"/>
+      <c r="I190" s="51"/>
+      <c r="J190" s="11"/>
     </row>
     <row r="191" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
-      <c r="G191" s="43"/>
+      <c r="G191" s="39"/>
       <c r="H191" s="5"/>
-      <c r="I191" s="5"/>
-      <c r="J191" s="12"/>
+      <c r="I191" s="51"/>
+      <c r="J191" s="11"/>
     </row>
     <row r="192" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
-      <c r="G192" s="43"/>
+      <c r="G192" s="39"/>
       <c r="H192" s="5"/>
-      <c r="I192" s="5"/>
-      <c r="J192" s="12"/>
+      <c r="I192" s="51"/>
+      <c r="J192" s="11"/>
     </row>
     <row r="193" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
-      <c r="G193" s="43"/>
+      <c r="G193" s="39"/>
       <c r="H193" s="5"/>
-      <c r="I193" s="5"/>
-      <c r="J193" s="12"/>
+      <c r="I193" s="51"/>
+      <c r="J193" s="11"/>
     </row>
     <row r="194" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
-      <c r="G194" s="43"/>
+      <c r="G194" s="39"/>
       <c r="H194" s="5"/>
-      <c r="I194" s="5"/>
-      <c r="J194" s="12"/>
+      <c r="I194" s="51"/>
+      <c r="J194" s="11"/>
     </row>
     <row r="195" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
-      <c r="G195" s="43"/>
+      <c r="G195" s="39"/>
       <c r="H195" s="5"/>
-      <c r="I195" s="5"/>
-      <c r="J195" s="12"/>
+      <c r="I195" s="51"/>
+      <c r="J195" s="11"/>
     </row>
     <row r="196" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
-      <c r="G196" s="43"/>
+      <c r="G196" s="39"/>
       <c r="H196" s="5"/>
-      <c r="I196" s="5"/>
-      <c r="J196" s="12"/>
+      <c r="I196" s="51"/>
+      <c r="J196" s="11"/>
     </row>
     <row r="197" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
-      <c r="G197" s="43"/>
+      <c r="G197" s="39"/>
       <c r="H197" s="5"/>
-      <c r="I197" s="5"/>
-      <c r="J197" s="12"/>
+      <c r="I197" s="51"/>
+      <c r="J197" s="11"/>
     </row>
     <row r="198" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
-      <c r="G198" s="43"/>
+      <c r="G198" s="39"/>
       <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
-      <c r="J198" s="12"/>
+      <c r="I198" s="51"/>
+      <c r="J198" s="11"/>
     </row>
     <row r="199" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
-      <c r="G199" s="43"/>
+      <c r="G199" s="39"/>
       <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
-      <c r="J199" s="12"/>
+      <c r="I199" s="51"/>
+      <c r="J199" s="11"/>
     </row>
     <row r="200" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
-      <c r="G200" s="43"/>
+      <c r="G200" s="39"/>
       <c r="H200" s="5"/>
-      <c r="I200" s="5"/>
-      <c r="J200" s="12"/>
+      <c r="I200" s="51"/>
+      <c r="J200" s="11"/>
     </row>
     <row r="201" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
-      <c r="G201" s="43"/>
+      <c r="G201" s="39"/>
       <c r="H201" s="5"/>
-      <c r="I201" s="5"/>
-      <c r="J201" s="12"/>
+      <c r="I201" s="51"/>
+      <c r="J201" s="11"/>
     </row>
     <row r="202" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
-      <c r="G202" s="43"/>
+      <c r="G202" s="39"/>
       <c r="H202" s="5"/>
-      <c r="I202" s="5"/>
-      <c r="J202" s="12"/>
+      <c r="I202" s="51"/>
+      <c r="J202" s="11"/>
     </row>
     <row r="203" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
-      <c r="G203" s="43"/>
+      <c r="G203" s="39"/>
       <c r="H203" s="5"/>
-      <c r="I203" s="5"/>
-      <c r="J203" s="12"/>
+      <c r="I203" s="51"/>
+      <c r="J203" s="11"/>
     </row>
     <row r="204" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
-      <c r="G204" s="43"/>
+      <c r="G204" s="39"/>
       <c r="H204" s="5"/>
-      <c r="I204" s="5"/>
-      <c r="J204" s="12"/>
+      <c r="I204" s="51"/>
+      <c r="J204" s="11"/>
     </row>
     <row r="205" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
-      <c r="G205" s="43"/>
+      <c r="G205" s="39"/>
       <c r="H205" s="5"/>
-      <c r="I205" s="5"/>
-      <c r="J205" s="12"/>
+      <c r="I205" s="51"/>
+      <c r="J205" s="11"/>
     </row>
     <row r="206" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
-      <c r="G206" s="43"/>
+      <c r="G206" s="39"/>
       <c r="H206" s="5"/>
-      <c r="I206" s="5"/>
-      <c r="J206" s="12"/>
+      <c r="I206" s="51"/>
+      <c r="J206" s="11"/>
     </row>
     <row r="207" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
-      <c r="G207" s="43"/>
+      <c r="G207" s="39"/>
       <c r="H207" s="5"/>
-      <c r="I207" s="5"/>
-      <c r="J207" s="12"/>
+      <c r="I207" s="51"/>
+      <c r="J207" s="11"/>
     </row>
     <row r="208" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
-      <c r="G208" s="43"/>
+      <c r="G208" s="39"/>
       <c r="H208" s="5"/>
-      <c r="I208" s="5"/>
-      <c r="J208" s="12"/>
+      <c r="I208" s="51"/>
+      <c r="J208" s="11"/>
     </row>
     <row r="209" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
-      <c r="G209" s="43"/>
+      <c r="G209" s="39"/>
       <c r="H209" s="5"/>
-      <c r="I209" s="5"/>
-      <c r="J209" s="12"/>
+      <c r="I209" s="51"/>
+      <c r="J209" s="11"/>
     </row>
     <row r="210" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
-      <c r="G210" s="43"/>
+      <c r="G210" s="39"/>
       <c r="H210" s="5"/>
-      <c r="I210" s="5"/>
-      <c r="J210" s="12"/>
+      <c r="I210" s="51"/>
+      <c r="J210" s="11"/>
     </row>
     <row r="211" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
-      <c r="G211" s="43"/>
+      <c r="G211" s="39"/>
       <c r="H211" s="5"/>
-      <c r="I211" s="5"/>
-      <c r="J211" s="12"/>
+      <c r="I211" s="51"/>
+      <c r="J211" s="11"/>
     </row>
     <row r="212" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
-      <c r="G212" s="43"/>
+      <c r="G212" s="39"/>
       <c r="H212" s="5"/>
-      <c r="I212" s="5"/>
-      <c r="J212" s="12"/>
+      <c r="I212" s="51"/>
+      <c r="J212" s="11"/>
     </row>
     <row r="213" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
-      <c r="G213" s="43"/>
+      <c r="G213" s="39"/>
       <c r="H213" s="5"/>
-      <c r="I213" s="5"/>
-      <c r="J213" s="12"/>
+      <c r="I213" s="51"/>
+      <c r="J213" s="11"/>
     </row>
     <row r="214" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
-      <c r="G214" s="43"/>
+      <c r="G214" s="39"/>
       <c r="H214" s="5"/>
-      <c r="I214" s="5"/>
-      <c r="J214" s="12"/>
+      <c r="I214" s="51"/>
+      <c r="J214" s="11"/>
     </row>
     <row r="215" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
-      <c r="G215" s="43"/>
+      <c r="G215" s="39"/>
       <c r="H215" s="5"/>
-      <c r="I215" s="5"/>
-      <c r="J215" s="12"/>
+      <c r="I215" s="51"/>
+      <c r="J215" s="11"/>
     </row>
     <row r="216" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
-      <c r="G216" s="43"/>
+      <c r="G216" s="39"/>
       <c r="H216" s="5"/>
-      <c r="I216" s="5"/>
-      <c r="J216" s="12"/>
+      <c r="I216" s="51"/>
+      <c r="J216" s="11"/>
     </row>
     <row r="217" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
-      <c r="G217" s="43"/>
+      <c r="G217" s="39"/>
       <c r="H217" s="5"/>
-      <c r="I217" s="5"/>
-      <c r="J217" s="12"/>
+      <c r="I217" s="51"/>
+      <c r="J217" s="11"/>
     </row>
     <row r="218" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
-      <c r="G218" s="43"/>
+      <c r="G218" s="39"/>
       <c r="H218" s="5"/>
-      <c r="I218" s="5"/>
-      <c r="J218" s="12"/>
+      <c r="I218" s="51"/>
+      <c r="J218" s="11"/>
     </row>
     <row r="219" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
-      <c r="G219" s="43"/>
+      <c r="G219" s="39"/>
       <c r="H219" s="5"/>
-      <c r="I219" s="5"/>
-      <c r="J219" s="12"/>
+      <c r="I219" s="51"/>
+      <c r="J219" s="11"/>
     </row>
     <row r="220" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
-      <c r="G220" s="43"/>
+      <c r="G220" s="39"/>
       <c r="H220" s="5"/>
-      <c r="I220" s="5"/>
-      <c r="J220" s="12"/>
+      <c r="I220" s="51"/>
+      <c r="J220" s="11"/>
     </row>
     <row r="221" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
-      <c r="G221" s="43"/>
+      <c r="G221" s="39"/>
       <c r="H221" s="5"/>
-      <c r="I221" s="5"/>
-      <c r="J221" s="12"/>
+      <c r="I221" s="51"/>
+      <c r="J221" s="11"/>
     </row>
     <row r="222" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
-      <c r="G222" s="43"/>
+      <c r="G222" s="39"/>
       <c r="H222" s="5"/>
-      <c r="I222" s="5"/>
-      <c r="J222" s="12"/>
+      <c r="I222" s="51"/>
+      <c r="J222" s="11"/>
     </row>
     <row r="223" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
-      <c r="G223" s="43"/>
+      <c r="G223" s="39"/>
       <c r="H223" s="5"/>
-      <c r="I223" s="5"/>
-      <c r="J223" s="12"/>
+      <c r="I223" s="51"/>
+      <c r="J223" s="11"/>
     </row>
     <row r="224" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
-      <c r="G224" s="43"/>
+      <c r="G224" s="39"/>
       <c r="H224" s="5"/>
-      <c r="I224" s="5"/>
-      <c r="J224" s="12"/>
+      <c r="I224" s="51"/>
+      <c r="J224" s="11"/>
     </row>
     <row r="225" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
-      <c r="G225" s="43"/>
+      <c r="G225" s="39"/>
       <c r="H225" s="5"/>
-      <c r="I225" s="5"/>
-      <c r="J225" s="12"/>
+      <c r="I225" s="51"/>
+      <c r="J225" s="11"/>
     </row>
     <row r="226" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
-      <c r="G226" s="43"/>
+      <c r="G226" s="39"/>
       <c r="H226" s="5"/>
-      <c r="I226" s="5"/>
-      <c r="J226" s="12"/>
+      <c r="I226" s="51"/>
+      <c r="J226" s="11"/>
     </row>
     <row r="227" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
-      <c r="G227" s="43"/>
+      <c r="G227" s="39"/>
       <c r="H227" s="5"/>
-      <c r="I227" s="5"/>
-      <c r="J227" s="12"/>
+      <c r="I227" s="51"/>
+      <c r="J227" s="11"/>
     </row>
     <row r="228" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
-      <c r="G228" s="43"/>
+      <c r="G228" s="39"/>
       <c r="H228" s="5"/>
-      <c r="I228" s="5"/>
-      <c r="J228" s="12"/>
+      <c r="I228" s="51"/>
+      <c r="J228" s="11"/>
     </row>
     <row r="229" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
-      <c r="G229" s="43"/>
+      <c r="G229" s="39"/>
       <c r="H229" s="5"/>
-      <c r="I229" s="5"/>
-      <c r="J229" s="12"/>
+      <c r="I229" s="51"/>
+      <c r="J229" s="11"/>
     </row>
     <row r="230" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
-      <c r="G230" s="43"/>
+      <c r="G230" s="39"/>
       <c r="H230" s="5"/>
-      <c r="I230" s="5"/>
-      <c r="J230" s="12"/>
+      <c r="I230" s="51"/>
+      <c r="J230" s="11"/>
     </row>
     <row r="231" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
-      <c r="G231" s="43"/>
+      <c r="G231" s="39"/>
       <c r="H231" s="5"/>
-      <c r="I231" s="5"/>
-      <c r="J231" s="12"/>
+      <c r="I231" s="51"/>
+      <c r="J231" s="11"/>
     </row>
     <row r="232" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
-      <c r="G232" s="43"/>
+      <c r="G232" s="39"/>
       <c r="H232" s="5"/>
-      <c r="I232" s="5"/>
-      <c r="J232" s="12"/>
+      <c r="I232" s="51"/>
+      <c r="J232" s="11"/>
     </row>
     <row r="233" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
-      <c r="G233" s="43"/>
+      <c r="G233" s="39"/>
       <c r="H233" s="5"/>
-      <c r="I233" s="5"/>
-      <c r="J233" s="12"/>
+      <c r="I233" s="51"/>
+      <c r="J233" s="11"/>
     </row>
     <row r="234" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
-      <c r="G234" s="43"/>
+      <c r="G234" s="39"/>
       <c r="H234" s="5"/>
-      <c r="I234" s="5"/>
-      <c r="J234" s="12"/>
+      <c r="I234" s="51"/>
+      <c r="J234" s="11"/>
     </row>
     <row r="235" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
-      <c r="G235" s="43"/>
+      <c r="G235" s="39"/>
       <c r="H235" s="5"/>
-      <c r="I235" s="5"/>
-      <c r="J235" s="12"/>
+      <c r="I235" s="51"/>
+      <c r="J235" s="11"/>
     </row>
     <row r="236" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
-      <c r="G236" s="43"/>
+      <c r="G236" s="39"/>
       <c r="H236" s="5"/>
-      <c r="I236" s="5"/>
-      <c r="J236" s="12"/>
+      <c r="I236" s="51"/>
+      <c r="J236" s="11"/>
     </row>
     <row r="237" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
-      <c r="G237" s="43"/>
+      <c r="G237" s="39"/>
       <c r="H237" s="5"/>
-      <c r="I237" s="5"/>
-      <c r="J237" s="12"/>
+      <c r="I237" s="51"/>
+      <c r="J237" s="11"/>
     </row>
     <row r="238" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
-      <c r="G238" s="43"/>
+      <c r="G238" s="39"/>
       <c r="H238" s="5"/>
-      <c r="I238" s="5"/>
-      <c r="J238" s="12"/>
+      <c r="I238" s="51"/>
+      <c r="J238" s="11"/>
     </row>
     <row r="239" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
-      <c r="G239" s="43"/>
+      <c r="G239" s="39"/>
       <c r="H239" s="5"/>
-      <c r="I239" s="5"/>
-      <c r="J239" s="12"/>
+      <c r="I239" s="51"/>
+      <c r="J239" s="11"/>
     </row>
     <row r="240" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
-      <c r="G240" s="43"/>
+      <c r="G240" s="39"/>
       <c r="H240" s="5"/>
-      <c r="I240" s="5"/>
-      <c r="J240" s="12"/>
+      <c r="I240" s="51"/>
+      <c r="J240" s="11"/>
     </row>
     <row r="241" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
-      <c r="G241" s="43"/>
+      <c r="G241" s="39"/>
       <c r="H241" s="5"/>
-      <c r="I241" s="5"/>
-      <c r="J241" s="12"/>
+      <c r="I241" s="51"/>
+      <c r="J241" s="11"/>
     </row>
     <row r="242" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
-      <c r="G242" s="43"/>
+      <c r="G242" s="39"/>
       <c r="H242" s="5"/>
-      <c r="I242" s="5"/>
-      <c r="J242" s="12"/>
+      <c r="I242" s="51"/>
+      <c r="J242" s="11"/>
     </row>
     <row r="243" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
-      <c r="G243" s="43"/>
+      <c r="G243" s="39"/>
       <c r="H243" s="5"/>
-      <c r="I243" s="5"/>
-      <c r="J243" s="12"/>
+      <c r="I243" s="51"/>
+      <c r="J243" s="11"/>
     </row>
     <row r="244" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
-      <c r="G244" s="43"/>
+      <c r="G244" s="39"/>
       <c r="H244" s="5"/>
-      <c r="I244" s="5"/>
-      <c r="J244" s="12"/>
+      <c r="I244" s="51"/>
+      <c r="J244" s="11"/>
     </row>
     <row r="245" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
-      <c r="G245" s="43"/>
+      <c r="G245" s="39"/>
       <c r="H245" s="5"/>
-      <c r="I245" s="5"/>
-      <c r="J245" s="12"/>
+      <c r="I245" s="51"/>
+      <c r="J245" s="11"/>
     </row>
     <row r="246" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
-      <c r="G246" s="43"/>
+      <c r="G246" s="39"/>
       <c r="H246" s="5"/>
-      <c r="I246" s="5"/>
-      <c r="J246" s="12"/>
+      <c r="I246" s="51"/>
+      <c r="J246" s="11"/>
     </row>
     <row r="247" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
-      <c r="G247" s="43"/>
+      <c r="G247" s="39"/>
       <c r="H247" s="5"/>
-      <c r="I247" s="5"/>
-      <c r="J247" s="12"/>
+      <c r="I247" s="51"/>
+      <c r="J247" s="11"/>
     </row>
     <row r="248" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
-      <c r="G248" s="43"/>
+      <c r="G248" s="39"/>
       <c r="H248" s="5"/>
-      <c r="I248" s="5"/>
-      <c r="J248" s="12"/>
+      <c r="I248" s="51"/>
+      <c r="J248" s="11"/>
     </row>
     <row r="249" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
@@ -11329,10 +11356,10 @@
       <c r="D249" s="1"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
-      <c r="G249" s="44"/>
+      <c r="G249" s="40"/>
       <c r="H249" s="3"/>
-      <c r="I249" s="3"/>
-      <c r="J249" s="14"/>
+      <c r="I249" s="52"/>
+      <c r="J249" s="13"/>
     </row>
     <row r="250" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
@@ -11341,10 +11368,10 @@
       <c r="D250" s="1"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
-      <c r="G250" s="44"/>
+      <c r="G250" s="40"/>
       <c r="H250" s="3"/>
-      <c r="I250" s="3"/>
-      <c r="J250" s="14"/>
+      <c r="I250" s="52"/>
+      <c r="J250" s="13"/>
     </row>
     <row r="251" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
@@ -11353,10 +11380,10 @@
       <c r="D251" s="1"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
-      <c r="G251" s="44"/>
+      <c r="G251" s="40"/>
       <c r="H251" s="3"/>
-      <c r="I251" s="3"/>
-      <c r="J251" s="14"/>
+      <c r="I251" s="52"/>
+      <c r="J251" s="13"/>
     </row>
     <row r="252" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
@@ -11365,10 +11392,10 @@
       <c r="D252" s="1"/>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
-      <c r="G252" s="44"/>
+      <c r="G252" s="40"/>
       <c r="H252" s="3"/>
-      <c r="I252" s="3"/>
-      <c r="J252" s="14"/>
+      <c r="I252" s="52"/>
+      <c r="J252" s="13"/>
     </row>
     <row r="253" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
@@ -11377,10 +11404,10 @@
       <c r="D253" s="1"/>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
-      <c r="G253" s="44"/>
+      <c r="G253" s="40"/>
       <c r="H253" s="3"/>
-      <c r="I253" s="3"/>
-      <c r="J253" s="14"/>
+      <c r="I253" s="52"/>
+      <c r="J253" s="13"/>
     </row>
     <row r="254" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="1"/>
@@ -11389,10 +11416,10 @@
       <c r="D254" s="1"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
-      <c r="G254" s="44"/>
+      <c r="G254" s="40"/>
       <c r="H254" s="3"/>
-      <c r="I254" s="3"/>
-      <c r="J254" s="14"/>
+      <c r="I254" s="52"/>
+      <c r="J254" s="13"/>
     </row>
     <row r="255" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="1"/>
@@ -11401,10 +11428,10 @@
       <c r="D255" s="1"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
-      <c r="G255" s="44"/>
+      <c r="G255" s="40"/>
       <c r="H255" s="3"/>
-      <c r="I255" s="3"/>
-      <c r="J255" s="14"/>
+      <c r="I255" s="52"/>
+      <c r="J255" s="13"/>
     </row>
     <row r="256" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1"/>
@@ -11413,10 +11440,10 @@
       <c r="D256" s="1"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
-      <c r="G256" s="44"/>
+      <c r="G256" s="40"/>
       <c r="H256" s="3"/>
-      <c r="I256" s="3"/>
-      <c r="J256" s="14"/>
+      <c r="I256" s="52"/>
+      <c r="J256" s="13"/>
     </row>
     <row r="257" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1"/>
@@ -11425,10 +11452,10 @@
       <c r="D257" s="1"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
-      <c r="G257" s="44"/>
+      <c r="G257" s="40"/>
       <c r="H257" s="3"/>
-      <c r="I257" s="3"/>
-      <c r="J257" s="14"/>
+      <c r="I257" s="52"/>
+      <c r="J257" s="13"/>
     </row>
     <row r="258" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1"/>
@@ -11437,10 +11464,10 @@
       <c r="D258" s="1"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
-      <c r="G258" s="44"/>
+      <c r="G258" s="40"/>
       <c r="H258" s="3"/>
-      <c r="I258" s="3"/>
-      <c r="J258" s="14"/>
+      <c r="I258" s="52"/>
+      <c r="J258" s="13"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J166"/>

--- a/data/judo_therapy/data.xlsx
+++ b/data/judo_therapy/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\51481\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\51481\Desktop\オープンデータ\柔整（0113分）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4732,7 +4732,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0.000000;[Red]\-#,##0.000000"/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -4854,7 +4854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -4900,9 +4900,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4982,35 +4979,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5320,14 +5317,14 @@
   <sheetPr>
     <tabColor indexed="36"/>
   </sheetPr>
-  <dimension ref="A1:K258"/>
+  <dimension ref="A1:J258"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="S11" sqref="S11:S413"/>
       <selection pane="topRight" activeCell="S11" sqref="S11:S413"/>
       <selection pane="bottomLeft" activeCell="S11" sqref="S11:S413"/>
-      <selection pane="bottomRight" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5338,14 +5335,14 @@
     <col min="4" max="4" width="33.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.44140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.44140625" style="39" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" style="52" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" style="51" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="13" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="27" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="26" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>132</v>
       </c>
@@ -5356,27 +5353,26 @@
       <c r="D1" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>544</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>545</v>
       </c>
-      <c r="G1" s="37" t="s">
+      <c r="G1" s="36" t="s">
         <v>144</v>
       </c>
       <c r="H1" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>138</v>
       </c>
       <c r="J1" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:10" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5396,19 +5392,18 @@
       <c r="F2" s="7">
         <v>134.072574</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="32" t="s">
         <v>546</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="I2" s="44">
+      <c r="I2" s="43">
         <v>40777</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J2" s="18"/>
+    </row>
+    <row r="3" spans="1:10" s="27" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5428,21 +5423,20 @@
       <c r="F3" s="7">
         <v>134.06003899999999</v>
       </c>
-      <c r="G3" s="33" t="s">
+      <c r="G3" s="32" t="s">
         <v>547</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="43">
         <v>43698</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5456,27 +5450,26 @@
       <c r="D4" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>34.301977000000001</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>133.951987</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="32" t="s">
         <v>548</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="44">
         <v>40638</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="K4" s="20"/>
-    </row>
-    <row r="5" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5496,21 +5489,20 @@
       <c r="F5" s="7">
         <v>133.992369</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="32" t="s">
         <v>549</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="I5" s="44">
+      <c r="I5" s="43">
         <v>38537</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="K5" s="20"/>
-    </row>
-    <row r="6" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5524,27 +5516,26 @@
       <c r="D6" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>34.326830999999999</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>134.04700099999999</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="32" t="s">
         <v>550</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="44">
         <v>23457</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5554,28 +5545,27 @@
       <c r="C7" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="34" t="s">
         <v>460</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>34.324171</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="16">
         <v>133.99242100000001</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="32" t="s">
         <v>551</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="44">
         <v>44260</v>
       </c>
-      <c r="J7" s="19"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5594,21 +5584,20 @@
       <c r="F8" s="7">
         <v>134.109658</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="32" t="s">
         <v>552</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="I8" s="44">
+      <c r="I8" s="43">
         <v>41214</v>
       </c>
-      <c r="J8" s="19" t="s">
+      <c r="J8" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5627,21 +5616,20 @@
       <c r="F9" s="7">
         <v>134.06302400000001</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="32" t="s">
         <v>553</v>
       </c>
       <c r="H9" s="7" t="s">
         <v>483</v>
       </c>
-      <c r="I9" s="44">
+      <c r="I9" s="43">
         <v>44805</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="K9" s="9"/>
-    </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5660,21 +5648,20 @@
       <c r="F10" s="7">
         <v>134.049935</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="32" t="s">
         <v>554</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="I10" s="44">
+      <c r="I10" s="43">
         <v>42921</v>
       </c>
-      <c r="J10" s="19" t="s">
+      <c r="J10" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="K10" s="9"/>
-    </row>
-    <row r="11" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5694,19 +5681,18 @@
       <c r="F11" s="7">
         <v>134.093107</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="32" t="s">
         <v>555</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="I11" s="44">
+      <c r="I11" s="43">
         <v>30333</v>
       </c>
-      <c r="J11" s="21"/>
-      <c r="K11" s="9"/>
-    </row>
-    <row r="12" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J11" s="20"/>
+    </row>
+    <row r="12" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5726,21 +5712,20 @@
       <c r="F12" s="7">
         <v>134.054824</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="32" t="s">
         <v>556</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="44">
+      <c r="I12" s="43">
         <v>35525</v>
       </c>
-      <c r="J12" s="19" t="s">
+      <c r="J12" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5760,19 +5745,18 @@
       <c r="F13" s="7">
         <v>134.081748</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="32" t="s">
         <v>557</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I13" s="44">
+      <c r="I13" s="43">
         <v>37073</v>
       </c>
-      <c r="J13" s="21"/>
-      <c r="K13" s="9"/>
-    </row>
-    <row r="14" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J13" s="20"/>
+    </row>
+    <row r="14" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5792,21 +5776,20 @@
       <c r="F14" s="7">
         <v>134.044073</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="32" t="s">
         <v>558</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="I14" s="44">
+      <c r="I14" s="43">
         <v>44291</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="K14" s="9"/>
-    </row>
-    <row r="15" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5825,19 +5808,18 @@
       <c r="F15" s="7">
         <v>134.07550499999999</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="32" t="s">
         <v>559</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="I15" s="44">
+      <c r="I15" s="43">
         <v>43111</v>
       </c>
-      <c r="J15" s="21"/>
-      <c r="K15" s="9"/>
-    </row>
-    <row r="16" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J15" s="20"/>
+    </row>
+    <row r="16" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5856,21 +5838,20 @@
       <c r="F16" s="7">
         <v>134.06401500000001</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="32" t="s">
         <v>560</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="I16" s="44">
+      <c r="I16" s="43">
         <v>41309</v>
       </c>
-      <c r="J16" s="21" t="s">
+      <c r="J16" s="20" t="s">
         <v>301</v>
       </c>
-      <c r="K16" s="9"/>
-    </row>
-    <row r="17" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5881,25 +5862,24 @@
       <c r="D17" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="40">
         <v>34.338999000000001</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="40">
         <v>134.013867</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="32" t="s">
         <v>710</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="40" t="s">
         <v>711</v>
       </c>
-      <c r="I17" s="44">
+      <c r="I17" s="43">
         <v>45427</v>
       </c>
-      <c r="J17" s="21"/>
-      <c r="K17" s="9"/>
-    </row>
-    <row r="18" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5919,19 +5899,18 @@
       <c r="F18" s="7">
         <v>134.03964500000001</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="32" t="s">
         <v>561</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="I18" s="44">
+      <c r="I18" s="43">
         <v>39849</v>
       </c>
-      <c r="J18" s="21"/>
-      <c r="K18" s="9"/>
-    </row>
-    <row r="19" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5950,19 +5929,18 @@
       <c r="F19" s="7">
         <v>134.08592100000001</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="32" t="s">
         <v>562</v>
       </c>
       <c r="H19" s="7" t="s">
         <v>409</v>
       </c>
-      <c r="I19" s="44">
+      <c r="I19" s="43">
         <v>42979</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="9"/>
-    </row>
-    <row r="20" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5982,21 +5960,20 @@
       <c r="F20" s="7">
         <v>134.123323</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="32" t="s">
         <v>563</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="I20" s="44">
+      <c r="I20" s="43">
         <v>42156</v>
       </c>
-      <c r="J20" s="19" t="s">
+      <c r="J20" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="K20" s="9"/>
-    </row>
-    <row r="21" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -6015,19 +5992,18 @@
       <c r="F21" s="7">
         <v>134.03386900000001</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="32" t="s">
         <v>564</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="I21" s="44">
+      <c r="I21" s="43">
         <v>42865</v>
       </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="9"/>
-    </row>
-    <row r="22" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="18"/>
+    </row>
+    <row r="22" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -6041,27 +6017,26 @@
       <c r="D22" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="16">
         <v>34.305335999999997</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="16">
         <v>134.09291899999999</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="H22" s="17" t="s">
+      <c r="H22" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="I22" s="45">
+      <c r="I22" s="44">
         <v>39329</v>
       </c>
-      <c r="J22" s="18" t="s">
+      <c r="J22" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="K22" s="9"/>
-    </row>
-    <row r="23" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -6074,25 +6049,24 @@
       <c r="D23" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="16">
         <v>34.300331</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="16">
         <v>134.035314</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="32" t="s">
         <v>566</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="44">
         <v>44652</v>
       </c>
-      <c r="J23" s="18"/>
-      <c r="K23" s="9"/>
-    </row>
-    <row r="24" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -6111,51 +6085,50 @@
       <c r="F24" s="7">
         <v>134.014883</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="32" t="s">
         <v>567</v>
       </c>
       <c r="H24" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="I24" s="46">
+      <c r="I24" s="45">
         <v>44410</v>
       </c>
-      <c r="J24" s="22"/>
-      <c r="K24" s="9"/>
-    </row>
-    <row r="25" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J24" s="21"/>
+    </row>
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="28" t="s">
         <v>348</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="28" t="s">
         <v>507</v>
       </c>
-      <c r="D25" s="31" t="s">
+      <c r="D25" s="30" t="s">
         <v>349</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="29">
         <v>34.263046000000003</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="29">
         <v>134.02476100000001</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="32" t="s">
         <v>568</v>
       </c>
-      <c r="H25" s="30" t="s">
+      <c r="H25" s="29" t="s">
         <v>350</v>
       </c>
-      <c r="I25" s="47">
+      <c r="I25" s="46">
         <v>42956</v>
       </c>
-      <c r="J25" s="18" t="s">
+      <c r="J25" s="17" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="26" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -6175,20 +6148,20 @@
       <c r="F26" s="7">
         <v>134.049126</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="32" t="s">
         <v>569</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="I26" s="44">
+      <c r="I26" s="43">
         <v>31194</v>
       </c>
-      <c r="J26" s="19" t="s">
+      <c r="J26" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="27" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -6207,18 +6180,18 @@
       <c r="F27" s="7">
         <v>134.02810099999999</v>
       </c>
-      <c r="G27" s="33" t="s">
+      <c r="G27" s="32" t="s">
         <v>570</v>
       </c>
       <c r="H27" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="I27" s="44">
+      <c r="I27" s="43">
         <v>42163</v>
       </c>
-      <c r="J27" s="19"/>
-    </row>
-    <row r="28" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J27" s="18"/>
+    </row>
+    <row r="28" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -6238,18 +6211,18 @@
       <c r="F28" s="7">
         <v>134.09205600000001</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="32" t="s">
         <v>571</v>
       </c>
       <c r="H28" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="44">
+      <c r="I28" s="43">
         <v>39454</v>
       </c>
-      <c r="J28" s="21"/>
-    </row>
-    <row r="29" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J28" s="20"/>
+    </row>
+    <row r="29" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -6268,20 +6241,20 @@
       <c r="F29" s="7">
         <v>134.104794</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="32" t="s">
         <v>572</v>
       </c>
       <c r="H29" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I29" s="44">
+      <c r="I29" s="43">
         <v>40280</v>
       </c>
-      <c r="J29" s="21" t="s">
+      <c r="J29" s="20" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="30" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -6301,18 +6274,18 @@
       <c r="F30" s="7">
         <v>134.03867299999999</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="32" t="s">
         <v>573</v>
       </c>
       <c r="H30" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="I30" s="44">
+      <c r="I30" s="43">
         <v>38808</v>
       </c>
-      <c r="J30" s="22"/>
-    </row>
-    <row r="31" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J30" s="21"/>
+    </row>
+    <row r="31" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -6332,18 +6305,18 @@
       <c r="F31" s="7">
         <v>134.10279399999999</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="32" t="s">
         <v>574</v>
       </c>
       <c r="H31" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="I31" s="44">
+      <c r="I31" s="43">
         <v>39741</v>
       </c>
-      <c r="J31" s="22"/>
-    </row>
-    <row r="32" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J31" s="21"/>
+    </row>
+    <row r="32" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -6362,16 +6335,16 @@
       <c r="F32" s="7">
         <v>134.14005700000001</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="32" t="s">
         <v>575</v>
       </c>
       <c r="H32" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I32" s="46">
+      <c r="I32" s="45">
         <v>43160</v>
       </c>
-      <c r="J32" s="22"/>
+      <c r="J32" s="21"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
@@ -6392,16 +6365,16 @@
       <c r="F33" s="7">
         <v>133.98398900000001</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="32" t="s">
         <v>576</v>
       </c>
       <c r="H33" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I33" s="44">
+      <c r="I33" s="43">
         <v>32527</v>
       </c>
-      <c r="J33" s="21"/>
+      <c r="J33" s="20"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
@@ -6417,22 +6390,22 @@
       <c r="D34" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="E34" s="41">
+      <c r="E34" s="40">
         <v>34.281697999999999</v>
       </c>
-      <c r="F34" s="41">
+      <c r="F34" s="40">
         <v>134.11666600000001</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="32" t="s">
         <v>577</v>
       </c>
       <c r="H34" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I34" s="44">
+      <c r="I34" s="43">
         <v>37557</v>
       </c>
-      <c r="J34" s="19" t="s">
+      <c r="J34" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6450,22 +6423,22 @@
       <c r="D35" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E35" s="41">
+      <c r="E35" s="40">
         <v>34.341287000000001</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="40">
         <v>134.118054</v>
       </c>
-      <c r="G35" s="33" t="s">
+      <c r="G35" s="32" t="s">
         <v>578</v>
       </c>
       <c r="H35" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="I35" s="44">
+      <c r="I35" s="43">
         <v>35263</v>
       </c>
-      <c r="J35" s="19" t="s">
+      <c r="J35" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6483,22 +6456,22 @@
       <c r="D36" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E36" s="41">
+      <c r="E36" s="40">
         <v>34.322454</v>
       </c>
-      <c r="F36" s="41">
+      <c r="F36" s="40">
         <v>134.044781</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="32" t="s">
         <v>579</v>
       </c>
       <c r="H36" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="I36" s="44">
+      <c r="I36" s="43">
         <v>36242</v>
       </c>
-      <c r="J36" s="21"/>
+      <c r="J36" s="20"/>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
@@ -6513,22 +6486,22 @@
       <c r="D37" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="E37" s="41">
+      <c r="E37" s="40">
         <v>34.337274999999998</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="40">
         <v>134.05874700000001</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="32" t="s">
         <v>580</v>
       </c>
       <c r="H37" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I37" s="44">
+      <c r="I37" s="43">
         <v>40634</v>
       </c>
-      <c r="J37" s="21" t="s">
+      <c r="J37" s="20" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6546,22 +6519,22 @@
       <c r="D38" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="40">
         <v>34.347489000000003</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="40">
         <v>134.027986</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="32" t="s">
         <v>581</v>
       </c>
       <c r="H38" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="I38" s="44">
+      <c r="I38" s="43">
         <v>40465</v>
       </c>
-      <c r="J38" s="21" t="s">
+      <c r="J38" s="20" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6578,22 +6551,22 @@
       <c r="D39" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="E39" s="41">
+      <c r="E39" s="40">
         <v>34.290933000000003</v>
       </c>
-      <c r="F39" s="41">
+      <c r="F39" s="40">
         <v>134.09554900000001</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="32" t="s">
         <v>582</v>
       </c>
       <c r="H39" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="I39" s="44">
+      <c r="I39" s="43">
         <v>44682</v>
       </c>
-      <c r="J39" s="21" t="s">
+      <c r="J39" s="20" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6610,22 +6583,22 @@
       <c r="D40" s="8" t="s">
         <v>454</v>
       </c>
-      <c r="E40" s="41">
+      <c r="E40" s="40">
         <v>34.326923000000001</v>
       </c>
-      <c r="F40" s="41">
+      <c r="F40" s="40">
         <v>134.07030399999999</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" s="32" t="s">
         <v>583</v>
       </c>
       <c r="H40" s="7" t="s">
         <v>455</v>
       </c>
-      <c r="I40" s="44">
+      <c r="I40" s="43">
         <v>44197</v>
       </c>
-      <c r="J40" s="21" t="s">
+      <c r="J40" s="20" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6642,22 +6615,22 @@
       <c r="D41" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="E41" s="41">
+      <c r="E41" s="40">
         <v>34.333646000000002</v>
       </c>
-      <c r="F41" s="41">
+      <c r="F41" s="40">
         <v>134.07745299999999</v>
       </c>
-      <c r="G41" s="33" t="s">
+      <c r="G41" s="32" t="s">
         <v>584</v>
       </c>
       <c r="H41" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="I41" s="44">
+      <c r="I41" s="43">
         <v>40664</v>
       </c>
-      <c r="J41" s="21"/>
+      <c r="J41" s="20"/>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
@@ -6672,22 +6645,22 @@
       <c r="D42" s="8" t="s">
         <v>444</v>
       </c>
-      <c r="E42" s="41">
+      <c r="E42" s="40">
         <v>34.350360999999999</v>
       </c>
-      <c r="F42" s="41">
+      <c r="F42" s="40">
         <v>133.997266</v>
       </c>
-      <c r="G42" s="33" t="s">
+      <c r="G42" s="32" t="s">
         <v>585</v>
       </c>
       <c r="H42" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="I42" s="44">
+      <c r="I42" s="43">
         <v>43721</v>
       </c>
-      <c r="J42" s="21"/>
+      <c r="J42" s="20"/>
     </row>
     <row r="43" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
@@ -6703,53 +6676,53 @@
       <c r="D43" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="E43" s="41">
+      <c r="E43" s="40">
         <v>34.284745000000001</v>
       </c>
-      <c r="F43" s="41">
+      <c r="F43" s="40">
         <v>134.02856199999999</v>
       </c>
-      <c r="G43" s="33" t="s">
+      <c r="G43" s="32" t="s">
         <v>586</v>
       </c>
       <c r="H43" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I43" s="44">
+      <c r="I43" s="43">
         <v>33394</v>
       </c>
-      <c r="J43" s="21"/>
+      <c r="J43" s="20"/>
     </row>
     <row r="44" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="29" t="s">
+      <c r="B44" s="28" t="s">
         <v>196</v>
       </c>
       <c r="C44" s="2" t="str">
         <f t="shared" si="0"/>
         <v>クボシンキュウセッコツイン</v>
       </c>
-      <c r="D44" s="25" t="s">
+      <c r="D44" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="E44" s="42">
+      <c r="E44" s="41">
         <v>34.340418</v>
       </c>
-      <c r="F44" s="42">
+      <c r="F44" s="41">
         <v>134.01149899999999</v>
       </c>
-      <c r="G44" s="33" t="s">
+      <c r="G44" s="32" t="s">
         <v>587</v>
       </c>
-      <c r="H44" s="30" t="s">
+      <c r="H44" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="I44" s="47">
+      <c r="I44" s="46">
         <v>40004</v>
       </c>
-      <c r="J44" s="21" t="s">
+      <c r="J44" s="20" t="s">
         <v>145</v>
       </c>
     </row>
@@ -6767,22 +6740,22 @@
       <c r="D45" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="E45" s="41">
+      <c r="E45" s="40">
         <v>34.324649000000001</v>
       </c>
-      <c r="F45" s="41">
+      <c r="F45" s="40">
         <v>134.07858100000001</v>
       </c>
-      <c r="G45" s="33" t="s">
+      <c r="G45" s="32" t="s">
         <v>588</v>
       </c>
       <c r="H45" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I45" s="44">
+      <c r="I45" s="43">
         <v>36434</v>
       </c>
-      <c r="J45" s="21"/>
+      <c r="J45" s="20"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
@@ -6798,22 +6771,22 @@
       <c r="D46" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="E46" s="41">
+      <c r="E46" s="40">
         <v>34.297524000000003</v>
       </c>
-      <c r="F46" s="41">
+      <c r="F46" s="40">
         <v>134.089235</v>
       </c>
-      <c r="G46" s="33" t="s">
+      <c r="G46" s="32" t="s">
         <v>589</v>
       </c>
       <c r="H46" s="7" t="s">
         <v>439</v>
       </c>
-      <c r="I46" s="44">
+      <c r="I46" s="43">
         <v>43657</v>
       </c>
-      <c r="J46" s="21"/>
+      <c r="J46" s="20"/>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
@@ -6829,22 +6802,22 @@
       <c r="D47" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="E47" s="41">
+      <c r="E47" s="40">
         <v>34.342058000000002</v>
       </c>
-      <c r="F47" s="41">
+      <c r="F47" s="40">
         <v>134.06948600000001</v>
       </c>
-      <c r="G47" s="33" t="s">
+      <c r="G47" s="32" t="s">
         <v>590</v>
       </c>
       <c r="H47" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I47" s="44">
+      <c r="I47" s="43">
         <v>29647</v>
       </c>
-      <c r="J47" s="21"/>
+      <c r="J47" s="20"/>
     </row>
     <row r="48" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
@@ -6860,22 +6833,22 @@
       <c r="D48" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="E48" s="41">
+      <c r="E48" s="40">
         <v>34.350304999999999</v>
       </c>
-      <c r="F48" s="41">
+      <c r="F48" s="40">
         <v>133.99323899999999</v>
       </c>
-      <c r="G48" s="33" t="s">
+      <c r="G48" s="32" t="s">
         <v>591</v>
       </c>
       <c r="H48" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="I48" s="44">
+      <c r="I48" s="43">
         <v>41365</v>
       </c>
-      <c r="J48" s="21"/>
+      <c r="J48" s="20"/>
     </row>
     <row r="49" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
@@ -6891,22 +6864,22 @@
       <c r="D49" s="4" t="s">
         <v>447</v>
       </c>
-      <c r="E49" s="41">
+      <c r="E49" s="40">
         <v>34.301029</v>
       </c>
-      <c r="F49" s="41">
+      <c r="F49" s="40">
         <v>133.96772100000001</v>
       </c>
-      <c r="G49" s="33" t="s">
+      <c r="G49" s="32" t="s">
         <v>592</v>
       </c>
       <c r="H49" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="I49" s="44">
+      <c r="I49" s="43">
         <v>43837</v>
       </c>
-      <c r="J49" s="21"/>
+      <c r="J49" s="20"/>
     </row>
     <row r="50" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
@@ -6922,22 +6895,22 @@
       <c r="D50" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="E50" s="41">
+      <c r="E50" s="40">
         <v>34.329093</v>
       </c>
-      <c r="F50" s="41">
+      <c r="F50" s="40">
         <v>134.06385700000001</v>
       </c>
-      <c r="G50" s="33" t="s">
+      <c r="G50" s="32" t="s">
         <v>593</v>
       </c>
       <c r="H50" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I50" s="44">
+      <c r="I50" s="43">
         <v>29342</v>
       </c>
-      <c r="J50" s="21"/>
+      <c r="J50" s="20"/>
     </row>
     <row r="51" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
@@ -6952,22 +6925,22 @@
       <c r="D51" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E51" s="41">
+      <c r="E51" s="40">
         <v>34.240267000000003</v>
       </c>
-      <c r="F51" s="41">
+      <c r="F51" s="40">
         <v>134.01641499999999</v>
       </c>
-      <c r="G51" s="33" t="s">
+      <c r="G51" s="32" t="s">
         <v>594</v>
       </c>
       <c r="H51" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="I51" s="46">
+      <c r="I51" s="45">
         <v>36434</v>
       </c>
-      <c r="J51" s="22"/>
+      <c r="J51" s="21"/>
     </row>
     <row r="52" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
@@ -6983,22 +6956,22 @@
       <c r="D52" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="E52" s="41">
+      <c r="E52" s="40">
         <v>34.277875000000002</v>
       </c>
-      <c r="F52" s="41">
+      <c r="F52" s="40">
         <v>134.10302899999999</v>
       </c>
-      <c r="G52" s="33" t="s">
+      <c r="G52" s="32" t="s">
         <v>595</v>
       </c>
       <c r="H52" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="I52" s="44">
+      <c r="I52" s="43">
         <v>34186</v>
       </c>
-      <c r="J52" s="21"/>
+      <c r="J52" s="20"/>
     </row>
     <row r="53" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
@@ -7014,22 +6987,22 @@
       <c r="D53" s="8" t="s">
         <v>464</v>
       </c>
-      <c r="E53" s="41">
+      <c r="E53" s="40">
         <v>34.344237</v>
       </c>
-      <c r="F53" s="41">
+      <c r="F53" s="40">
         <v>134.069649</v>
       </c>
-      <c r="G53" s="33" t="s">
+      <c r="G53" s="32" t="s">
         <v>596</v>
       </c>
       <c r="H53" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I53" s="44">
+      <c r="I53" s="43">
         <v>44562</v>
       </c>
-      <c r="J53" s="19" t="s">
+      <c r="J53" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7047,22 +7020,22 @@
       <c r="D54" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="E54" s="41">
+      <c r="E54" s="40">
         <v>34.334299000000001</v>
       </c>
-      <c r="F54" s="41">
+      <c r="F54" s="40">
         <v>134.04808499999999</v>
       </c>
-      <c r="G54" s="33" t="s">
+      <c r="G54" s="32" t="s">
         <v>597</v>
       </c>
       <c r="H54" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="I54" s="44">
+      <c r="I54" s="43">
         <v>42242</v>
       </c>
-      <c r="J54" s="19"/>
+      <c r="J54" s="18"/>
     </row>
     <row r="55" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
@@ -7078,22 +7051,22 @@
       <c r="D55" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="E55" s="41">
+      <c r="E55" s="40">
         <v>34.282964999999997</v>
       </c>
-      <c r="F55" s="41">
+      <c r="F55" s="40">
         <v>134.02371299999999</v>
       </c>
-      <c r="G55" s="33" t="s">
+      <c r="G55" s="32" t="s">
         <v>598</v>
       </c>
       <c r="H55" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I55" s="44">
+      <c r="I55" s="43">
         <v>32907</v>
       </c>
-      <c r="J55" s="21"/>
+      <c r="J55" s="20"/>
     </row>
     <row r="56" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
@@ -7109,22 +7082,22 @@
       <c r="D56" s="8" t="s">
         <v>413</v>
       </c>
-      <c r="E56" s="41">
+      <c r="E56" s="40">
         <v>34.346981999999997</v>
       </c>
-      <c r="F56" s="41">
+      <c r="F56" s="40">
         <v>134.001351</v>
       </c>
-      <c r="G56" s="33" t="s">
+      <c r="G56" s="32" t="s">
         <v>599</v>
       </c>
       <c r="H56" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="I56" s="44">
+      <c r="I56" s="43">
         <v>28496</v>
       </c>
-      <c r="J56" s="21" t="s">
+      <c r="J56" s="20" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7142,22 +7115,22 @@
       <c r="D57" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="E57" s="41">
+      <c r="E57" s="40">
         <v>34.311008000000001</v>
       </c>
-      <c r="F57" s="41">
+      <c r="F57" s="40">
         <v>134.04754500000001</v>
       </c>
-      <c r="G57" s="33" t="s">
+      <c r="G57" s="32" t="s">
         <v>600</v>
       </c>
       <c r="H57" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="I57" s="44">
+      <c r="I57" s="43">
         <v>42899</v>
       </c>
-      <c r="J57" s="21" t="s">
+      <c r="J57" s="20" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7175,22 +7148,22 @@
       <c r="D58" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="E58" s="41">
+      <c r="E58" s="40">
         <v>34.262625</v>
       </c>
-      <c r="F58" s="41">
+      <c r="F58" s="40">
         <v>134.024652</v>
       </c>
-      <c r="G58" s="33" t="s">
+      <c r="G58" s="32" t="s">
         <v>601</v>
       </c>
       <c r="H58" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="I58" s="44">
+      <c r="I58" s="43">
         <v>42887</v>
       </c>
-      <c r="J58" s="22"/>
+      <c r="J58" s="21"/>
     </row>
     <row r="59" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
@@ -7205,22 +7178,22 @@
       <c r="D59" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="E59" s="41">
+      <c r="E59" s="40">
         <v>34.337761999999998</v>
       </c>
-      <c r="F59" s="41">
+      <c r="F59" s="40">
         <v>134.04435699999999</v>
       </c>
-      <c r="G59" s="33" t="s">
+      <c r="G59" s="32" t="s">
         <v>602</v>
       </c>
       <c r="H59" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I59" s="44">
+      <c r="I59" s="43">
         <v>38322</v>
       </c>
-      <c r="J59" s="19" t="s">
+      <c r="J59" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7238,22 +7211,22 @@
       <c r="D60" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="E60" s="41">
+      <c r="E60" s="40">
         <v>34.269897</v>
       </c>
-      <c r="F60" s="41">
+      <c r="F60" s="40">
         <v>134.03004899999999</v>
       </c>
-      <c r="G60" s="33" t="s">
+      <c r="G60" s="32" t="s">
         <v>603</v>
       </c>
       <c r="H60" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I60" s="44">
+      <c r="I60" s="43">
         <v>33549</v>
       </c>
-      <c r="J60" s="22"/>
+      <c r="J60" s="21"/>
     </row>
     <row r="61" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
@@ -7268,22 +7241,22 @@
       <c r="D61" s="8" t="s">
         <v>450</v>
       </c>
-      <c r="E61" s="41">
+      <c r="E61" s="40">
         <v>34.269686</v>
       </c>
-      <c r="F61" s="41">
+      <c r="F61" s="40">
         <v>134.03456399999999</v>
       </c>
-      <c r="G61" s="33" t="s">
+      <c r="G61" s="32" t="s">
         <v>604</v>
       </c>
       <c r="H61" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="I61" s="44">
+      <c r="I61" s="43">
         <v>44013</v>
       </c>
-      <c r="J61" s="19"/>
+      <c r="J61" s="18"/>
     </row>
     <row r="62" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
@@ -7299,22 +7272,22 @@
       <c r="D62" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E62" s="41">
+      <c r="E62" s="40">
         <v>34.293765</v>
       </c>
-      <c r="F62" s="41">
+      <c r="F62" s="40">
         <v>133.964755</v>
       </c>
-      <c r="G62" s="33" t="s">
+      <c r="G62" s="32" t="s">
         <v>605</v>
       </c>
       <c r="H62" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="I62" s="44">
+      <c r="I62" s="43">
         <v>33567</v>
       </c>
-      <c r="J62" s="19" t="s">
+      <c r="J62" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7332,22 +7305,22 @@
       <c r="D63" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E63" s="41">
+      <c r="E63" s="40">
         <v>34.350797</v>
       </c>
-      <c r="F63" s="41">
+      <c r="F63" s="40">
         <v>134.088661</v>
       </c>
-      <c r="G63" s="33" t="s">
+      <c r="G63" s="32" t="s">
         <v>606</v>
       </c>
       <c r="H63" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="I63" s="44">
+      <c r="I63" s="43">
         <v>39412</v>
       </c>
-      <c r="J63" s="19" t="s">
+      <c r="J63" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7364,22 +7337,22 @@
       <c r="D64" s="8" t="s">
         <v>434</v>
       </c>
-      <c r="E64" s="41">
+      <c r="E64" s="40">
         <v>34.348706999999997</v>
       </c>
-      <c r="F64" s="41">
+      <c r="F64" s="40">
         <v>134.01070899999999</v>
       </c>
-      <c r="G64" s="33" t="s">
+      <c r="G64" s="32" t="s">
         <v>607</v>
       </c>
       <c r="H64" s="7" t="s">
         <v>435</v>
       </c>
-      <c r="I64" s="44">
+      <c r="I64" s="43">
         <v>20504</v>
       </c>
-      <c r="J64" s="19" t="s">
+      <c r="J64" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7397,22 +7370,22 @@
       <c r="D65" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="E65" s="41">
+      <c r="E65" s="40">
         <v>34.335113</v>
       </c>
-      <c r="F65" s="41">
+      <c r="F65" s="40">
         <v>134.07334599999999</v>
       </c>
-      <c r="G65" s="33" t="s">
+      <c r="G65" s="32" t="s">
         <v>608</v>
       </c>
       <c r="H65" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="I65" s="44">
+      <c r="I65" s="43">
         <v>32300</v>
       </c>
-      <c r="J65" s="19" t="s">
+      <c r="J65" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7430,22 +7403,22 @@
       <c r="D66" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="E66" s="41">
+      <c r="E66" s="40">
         <v>34.311416999999999</v>
       </c>
-      <c r="F66" s="41">
+      <c r="F66" s="40">
         <v>134.04428100000001</v>
       </c>
-      <c r="G66" s="33" t="s">
+      <c r="G66" s="32" t="s">
         <v>609</v>
       </c>
       <c r="H66" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="I66" s="44">
+      <c r="I66" s="43">
         <v>42879</v>
       </c>
-      <c r="J66" s="19" t="s">
+      <c r="J66" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7463,22 +7436,22 @@
       <c r="D67" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="E67" s="41">
+      <c r="E67" s="40">
         <v>34.308320999999999</v>
       </c>
-      <c r="F67" s="41">
+      <c r="F67" s="40">
         <v>134.063761</v>
       </c>
-      <c r="G67" s="33" t="s">
+      <c r="G67" s="32" t="s">
         <v>610</v>
       </c>
       <c r="H67" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="I67" s="44">
+      <c r="I67" s="43">
         <v>43160</v>
       </c>
-      <c r="J67" s="19"/>
+      <c r="J67" s="18"/>
     </row>
     <row r="68" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
@@ -7493,20 +7466,20 @@
       <c r="D68" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="E68" s="41">
+      <c r="E68" s="40">
         <v>34.320202999999999</v>
       </c>
-      <c r="F68" s="41">
+      <c r="F68" s="40">
         <v>134.05831900000001</v>
       </c>
-      <c r="G68" s="33" t="s">
+      <c r="G68" s="32" t="s">
         <v>611</v>
       </c>
       <c r="H68" s="7"/>
-      <c r="I68" s="44">
+      <c r="I68" s="43">
         <v>41588</v>
       </c>
-      <c r="J68" s="22"/>
+      <c r="J68" s="21"/>
     </row>
     <row r="69" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
@@ -7521,22 +7494,22 @@
       <c r="D69" s="8" t="s">
         <v>472</v>
       </c>
-      <c r="E69" s="41">
+      <c r="E69" s="40">
         <v>34.329731000000002</v>
       </c>
-      <c r="F69" s="41">
+      <c r="F69" s="40">
         <v>134.06224700000001</v>
       </c>
-      <c r="G69" s="33" t="s">
+      <c r="G69" s="32" t="s">
         <v>612</v>
       </c>
       <c r="H69" s="7" t="s">
         <v>473</v>
       </c>
-      <c r="I69" s="44">
+      <c r="I69" s="43">
         <v>44670</v>
       </c>
-      <c r="J69" s="19" t="s">
+      <c r="J69" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7554,22 +7527,22 @@
       <c r="D70" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="E70" s="41">
+      <c r="E70" s="40">
         <v>34.321541000000003</v>
       </c>
-      <c r="F70" s="41">
+      <c r="F70" s="40">
         <v>134.06281799999999</v>
       </c>
-      <c r="G70" s="33" t="s">
+      <c r="G70" s="32" t="s">
         <v>613</v>
       </c>
       <c r="H70" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="I70" s="44">
+      <c r="I70" s="43">
         <v>36194</v>
       </c>
-      <c r="J70" s="19" t="s">
+      <c r="J70" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7586,22 +7559,22 @@
       <c r="D71" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="E71" s="41">
+      <c r="E71" s="40">
         <v>34.333159000000002</v>
       </c>
-      <c r="F71" s="41">
+      <c r="F71" s="40">
         <v>134.048125</v>
       </c>
-      <c r="G71" s="33" t="s">
+      <c r="G71" s="32" t="s">
         <v>614</v>
       </c>
       <c r="H71" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="I71" s="44">
+      <c r="I71" s="43">
         <v>42319</v>
       </c>
-      <c r="J71" s="19" t="s">
+      <c r="J71" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7619,22 +7592,22 @@
       <c r="D72" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="E72" s="41">
+      <c r="E72" s="40">
         <v>34.311684999999997</v>
       </c>
-      <c r="F72" s="41">
+      <c r="F72" s="40">
         <v>134.057176</v>
       </c>
-      <c r="G72" s="33" t="s">
+      <c r="G72" s="32" t="s">
         <v>615</v>
       </c>
       <c r="H72" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="I72" s="44">
+      <c r="I72" s="43">
         <v>40299</v>
       </c>
-      <c r="J72" s="19" t="s">
+      <c r="J72" s="18" t="s">
         <v>272</v>
       </c>
     </row>
@@ -7652,22 +7625,22 @@
       <c r="D73" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="E73" s="41">
+      <c r="E73" s="40">
         <v>34.331446</v>
       </c>
-      <c r="F73" s="41">
+      <c r="F73" s="40">
         <v>134.04839899999999</v>
       </c>
-      <c r="G73" s="33" t="s">
+      <c r="G73" s="32" t="s">
         <v>616</v>
       </c>
       <c r="H73" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="I73" s="44">
+      <c r="I73" s="43">
         <v>42156</v>
       </c>
-      <c r="J73" s="21"/>
+      <c r="J73" s="20"/>
     </row>
     <row r="74" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
@@ -7683,22 +7656,22 @@
       <c r="D74" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E74" s="41">
+      <c r="E74" s="40">
         <v>34.343364000000001</v>
       </c>
-      <c r="F74" s="41">
+      <c r="F74" s="40">
         <v>134.00131099999999</v>
       </c>
-      <c r="G74" s="33" t="s">
+      <c r="G74" s="32" t="s">
         <v>617</v>
       </c>
       <c r="H74" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="I74" s="44">
+      <c r="I74" s="43">
         <v>38443</v>
       </c>
-      <c r="J74" s="19" t="s">
+      <c r="J74" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7716,22 +7689,22 @@
       <c r="D75" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="E75" s="41">
+      <c r="E75" s="40">
         <v>34.309077000000002</v>
       </c>
-      <c r="F75" s="41">
+      <c r="F75" s="40">
         <v>134.04403099999999</v>
       </c>
-      <c r="G75" s="33" t="s">
+      <c r="G75" s="32" t="s">
         <v>618</v>
       </c>
       <c r="H75" s="7" t="s">
         <v>486</v>
       </c>
-      <c r="I75" s="44">
+      <c r="I75" s="43">
         <v>44900</v>
       </c>
-      <c r="J75" s="19" t="s">
+      <c r="J75" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7749,22 +7722,22 @@
       <c r="D76" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="E76" s="41">
+      <c r="E76" s="40">
         <v>34.244188000000001</v>
       </c>
-      <c r="F76" s="41">
+      <c r="F76" s="40">
         <v>134.08440300000001</v>
       </c>
-      <c r="G76" s="33" t="s">
+      <c r="G76" s="32" t="s">
         <v>619</v>
       </c>
       <c r="H76" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="I76" s="44">
+      <c r="I76" s="43">
         <v>40898</v>
       </c>
-      <c r="J76" s="19" t="s">
+      <c r="J76" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7782,22 +7755,22 @@
       <c r="D77" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E77" s="41">
+      <c r="E77" s="40">
         <v>34.341887999999997</v>
       </c>
-      <c r="F77" s="41">
+      <c r="F77" s="40">
         <v>134.03182899999999</v>
       </c>
-      <c r="G77" s="33" t="s">
+      <c r="G77" s="32" t="s">
         <v>620</v>
       </c>
       <c r="H77" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I77" s="44">
+      <c r="I77" s="43">
         <v>33547</v>
       </c>
-      <c r="J77" s="19" t="s">
+      <c r="J77" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7815,22 +7788,22 @@
       <c r="D78" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E78" s="41">
+      <c r="E78" s="40">
         <v>34.340279000000002</v>
       </c>
-      <c r="F78" s="41">
+      <c r="F78" s="40">
         <v>134.05004099999999</v>
       </c>
-      <c r="G78" s="33" t="s">
+      <c r="G78" s="32" t="s">
         <v>621</v>
       </c>
       <c r="H78" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I78" s="44">
+      <c r="I78" s="43">
         <v>25628</v>
       </c>
-      <c r="J78" s="21"/>
+      <c r="J78" s="20"/>
     </row>
     <row r="79" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
@@ -7846,22 +7819,22 @@
       <c r="D79" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="E79" s="41">
+      <c r="E79" s="40">
         <v>34.345371</v>
       </c>
-      <c r="F79" s="41">
+      <c r="F79" s="40">
         <v>134.12071700000001</v>
       </c>
-      <c r="G79" s="33" t="s">
+      <c r="G79" s="32" t="s">
         <v>622</v>
       </c>
       <c r="H79" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I79" s="46">
+      <c r="I79" s="45">
         <v>30972</v>
       </c>
-      <c r="J79" s="22"/>
+      <c r="J79" s="21"/>
     </row>
     <row r="80" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
@@ -7877,22 +7850,22 @@
       <c r="D80" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E80" s="41">
+      <c r="E80" s="40">
         <v>34.344211000000001</v>
       </c>
-      <c r="F80" s="41">
+      <c r="F80" s="40">
         <v>134.13830799999999</v>
       </c>
-      <c r="G80" s="33" t="s">
+      <c r="G80" s="32" t="s">
         <v>623</v>
       </c>
       <c r="H80" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="I80" s="46">
+      <c r="I80" s="45">
         <v>37347</v>
       </c>
-      <c r="J80" s="19" t="s">
+      <c r="J80" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7910,22 +7883,22 @@
       <c r="D81" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="E81" s="41">
+      <c r="E81" s="40">
         <v>34.302152</v>
       </c>
-      <c r="F81" s="41">
+      <c r="F81" s="40">
         <v>134.041696</v>
       </c>
-      <c r="G81" s="33" t="s">
+      <c r="G81" s="32" t="s">
         <v>624</v>
       </c>
       <c r="H81" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="I81" s="44">
+      <c r="I81" s="43">
         <v>42461</v>
       </c>
-      <c r="J81" s="19" t="s">
+      <c r="J81" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7943,22 +7916,22 @@
       <c r="D82" s="8" t="s">
         <v>397</v>
       </c>
-      <c r="E82" s="41">
+      <c r="E82" s="40">
         <v>34.337648000000002</v>
       </c>
-      <c r="F82" s="41">
+      <c r="F82" s="40">
         <v>134.063039</v>
       </c>
-      <c r="G82" s="33" t="s">
+      <c r="G82" s="32" t="s">
         <v>625</v>
       </c>
       <c r="H82" s="7" t="s">
         <v>398</v>
       </c>
-      <c r="I82" s="44">
+      <c r="I82" s="43">
         <v>42919</v>
       </c>
-      <c r="J82" s="19"/>
+      <c r="J82" s="18"/>
     </row>
     <row r="83" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
@@ -7974,22 +7947,22 @@
       <c r="D83" s="8" t="s">
         <v>714</v>
       </c>
-      <c r="E83" s="41">
+      <c r="E83" s="40">
         <v>34.344265999999998</v>
       </c>
-      <c r="F83" s="41">
+      <c r="F83" s="40">
         <v>134.03674100000001</v>
       </c>
-      <c r="G83" s="33" t="s">
+      <c r="G83" s="32" t="s">
         <v>715</v>
       </c>
-      <c r="H83" s="41" t="s">
+      <c r="H83" s="40" t="s">
         <v>716</v>
       </c>
-      <c r="I83" s="44">
+      <c r="I83" s="43">
         <v>45442</v>
       </c>
-      <c r="J83" s="22" t="s">
+      <c r="J83" s="21" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8007,22 +7980,22 @@
       <c r="D84" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="E84" s="41">
+      <c r="E84" s="40">
         <v>34.337577000000003</v>
       </c>
-      <c r="F84" s="41">
+      <c r="F84" s="40">
         <v>134.062974</v>
       </c>
-      <c r="G84" s="33" t="s">
+      <c r="G84" s="32" t="s">
         <v>626</v>
       </c>
       <c r="H84" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="I84" s="44">
+      <c r="I84" s="43">
         <v>39772</v>
       </c>
-      <c r="J84" s="22" t="s">
+      <c r="J84" s="21" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8040,22 +8013,22 @@
       <c r="D85" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="E85" s="41">
+      <c r="E85" s="40">
         <v>34.323653</v>
       </c>
-      <c r="F85" s="41">
+      <c r="F85" s="40">
         <v>134.072329</v>
       </c>
-      <c r="G85" s="33" t="s">
+      <c r="G85" s="32" t="s">
         <v>627</v>
       </c>
       <c r="H85" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="I85" s="44">
+      <c r="I85" s="43">
         <v>40749</v>
       </c>
-      <c r="J85" s="21" t="s">
+      <c r="J85" s="20" t="s">
         <v>297</v>
       </c>
     </row>
@@ -8072,22 +8045,22 @@
       <c r="D86" s="8" t="s">
         <v>494</v>
       </c>
-      <c r="E86" s="41">
+      <c r="E86" s="40">
         <v>34.338791999999998</v>
       </c>
-      <c r="F86" s="41">
+      <c r="F86" s="40">
         <v>134.04852399999999</v>
       </c>
-      <c r="G86" s="33" t="s">
+      <c r="G86" s="32" t="s">
         <v>628</v>
       </c>
       <c r="H86" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="I86" s="44">
+      <c r="I86" s="43">
         <v>45056</v>
       </c>
-      <c r="J86" s="21"/>
+      <c r="J86" s="20"/>
     </row>
     <row r="87" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
@@ -8102,22 +8075,22 @@
       <c r="D87" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="E87" s="41">
+      <c r="E87" s="40">
         <v>34.315911</v>
       </c>
-      <c r="F87" s="41">
+      <c r="F87" s="40">
         <v>134.03908799999999</v>
       </c>
-      <c r="G87" s="33" t="s">
+      <c r="G87" s="32" t="s">
         <v>629</v>
       </c>
       <c r="H87" s="7" t="s">
         <v>505</v>
       </c>
-      <c r="I87" s="44">
+      <c r="I87" s="43">
         <v>45352</v>
       </c>
-      <c r="J87" s="21"/>
+      <c r="J87" s="20"/>
     </row>
     <row r="88" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
@@ -8132,20 +8105,20 @@
       <c r="D88" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="E88" s="41">
+      <c r="E88" s="40">
         <v>34.321258999999998</v>
       </c>
-      <c r="F88" s="41">
+      <c r="F88" s="40">
         <v>134.04483400000001</v>
       </c>
-      <c r="G88" s="33" t="s">
+      <c r="G88" s="32" t="s">
         <v>630</v>
       </c>
       <c r="H88" s="7"/>
-      <c r="I88" s="46">
+      <c r="I88" s="45">
         <v>42009</v>
       </c>
-      <c r="J88" s="21"/>
+      <c r="J88" s="20"/>
     </row>
     <row r="89" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
@@ -8161,22 +8134,22 @@
       <c r="D89" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="E89" s="41">
+      <c r="E89" s="40">
         <v>34.277093999999998</v>
       </c>
-      <c r="F89" s="41">
+      <c r="F89" s="40">
         <v>134.03984399999999</v>
       </c>
-      <c r="G89" s="33" t="s">
+      <c r="G89" s="32" t="s">
         <v>631</v>
       </c>
       <c r="H89" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="I89" s="44">
+      <c r="I89" s="43">
         <v>35055</v>
       </c>
-      <c r="J89" s="19" t="s">
+      <c r="J89" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8194,22 +8167,22 @@
       <c r="D90" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="E90" s="41">
+      <c r="E90" s="40">
         <v>34.307571000000003</v>
       </c>
-      <c r="F90" s="41">
+      <c r="F90" s="40">
         <v>134.04816099999999</v>
       </c>
-      <c r="G90" s="33" t="s">
+      <c r="G90" s="32" t="s">
         <v>632</v>
       </c>
       <c r="H90" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I90" s="44">
+      <c r="I90" s="43">
         <v>32512</v>
       </c>
-      <c r="J90" s="21"/>
+      <c r="J90" s="20"/>
     </row>
     <row r="91" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
@@ -8225,22 +8198,22 @@
       <c r="D91" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="E91" s="41">
+      <c r="E91" s="40">
         <v>34.255747999999997</v>
       </c>
-      <c r="F91" s="41">
+      <c r="F91" s="40">
         <v>134.033804</v>
       </c>
-      <c r="G91" s="33" t="s">
+      <c r="G91" s="32" t="s">
         <v>633</v>
       </c>
       <c r="H91" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="I91" s="44">
+      <c r="I91" s="43">
         <v>40639</v>
       </c>
-      <c r="J91" s="21"/>
+      <c r="J91" s="20"/>
     </row>
     <row r="92" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
@@ -8256,22 +8229,22 @@
       <c r="D92" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="E92" s="41">
+      <c r="E92" s="40">
         <v>34.330219</v>
       </c>
-      <c r="F92" s="41">
+      <c r="F92" s="40">
         <v>134.10628700000001</v>
       </c>
-      <c r="G92" s="33" t="s">
+      <c r="G92" s="32" t="s">
         <v>634</v>
       </c>
       <c r="H92" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="I92" s="44">
+      <c r="I92" s="43">
         <v>41736</v>
       </c>
-      <c r="J92" s="21"/>
+      <c r="J92" s="20"/>
     </row>
     <row r="93" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
@@ -8287,22 +8260,22 @@
       <c r="D93" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="E93" s="41">
+      <c r="E93" s="40">
         <v>34.264961</v>
       </c>
-      <c r="F93" s="41">
+      <c r="F93" s="40">
         <v>134.10543899999999</v>
       </c>
-      <c r="G93" s="33" t="s">
+      <c r="G93" s="32" t="s">
         <v>635</v>
       </c>
       <c r="H93" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="I93" s="44">
+      <c r="I93" s="43">
         <v>43583</v>
       </c>
-      <c r="J93" s="21"/>
+      <c r="J93" s="20"/>
     </row>
     <row r="94" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
@@ -8317,22 +8290,22 @@
       <c r="D94" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="E94" s="41">
+      <c r="E94" s="40">
         <v>34.335251</v>
       </c>
-      <c r="F94" s="41">
+      <c r="F94" s="40">
         <v>134.05085600000001</v>
       </c>
-      <c r="G94" s="33" t="s">
+      <c r="G94" s="32" t="s">
         <v>636</v>
       </c>
       <c r="H94" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="I94" s="44">
+      <c r="I94" s="43">
         <v>41944</v>
       </c>
-      <c r="J94" s="21"/>
+      <c r="J94" s="20"/>
     </row>
     <row r="95" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
@@ -8347,22 +8320,22 @@
       <c r="D95" s="8" t="s">
         <v>463</v>
       </c>
-      <c r="E95" s="41">
+      <c r="E95" s="40">
         <v>34.326560999999998</v>
       </c>
-      <c r="F95" s="41">
+      <c r="F95" s="40">
         <v>134.07038299999999</v>
       </c>
-      <c r="G95" s="33" t="s">
+      <c r="G95" s="32" t="s">
         <v>637</v>
       </c>
       <c r="H95" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="I95" s="44">
+      <c r="I95" s="43">
         <v>44335</v>
       </c>
-      <c r="J95" s="21" t="s">
+      <c r="J95" s="20" t="s">
         <v>301</v>
       </c>
     </row>
@@ -8380,22 +8353,22 @@
       <c r="D96" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="E96" s="41">
+      <c r="E96" s="40">
         <v>34.283332999999999</v>
       </c>
-      <c r="F96" s="41">
+      <c r="F96" s="40">
         <v>134.01154099999999</v>
       </c>
-      <c r="G96" s="33" t="s">
+      <c r="G96" s="32" t="s">
         <v>638</v>
       </c>
       <c r="H96" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="I96" s="44">
+      <c r="I96" s="43">
         <v>38482</v>
       </c>
-      <c r="J96" s="19" t="s">
+      <c r="J96" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8413,22 +8386,22 @@
       <c r="D97" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="E97" s="41">
+      <c r="E97" s="40">
         <v>34.316357000000004</v>
       </c>
-      <c r="F97" s="41">
+      <c r="F97" s="40">
         <v>134.02864700000001</v>
       </c>
-      <c r="G97" s="33" t="s">
+      <c r="G97" s="32" t="s">
         <v>639</v>
       </c>
       <c r="H97" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I97" s="44">
+      <c r="I97" s="43">
         <v>30529</v>
       </c>
-      <c r="J97" s="21"/>
+      <c r="J97" s="20"/>
     </row>
     <row r="98" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
@@ -8444,22 +8417,22 @@
       <c r="D98" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E98" s="41">
+      <c r="E98" s="40">
         <v>34.351086000000002</v>
       </c>
-      <c r="F98" s="41">
+      <c r="F98" s="40">
         <v>134.12201899999999</v>
       </c>
-      <c r="G98" s="33" t="s">
+      <c r="G98" s="32" t="s">
         <v>640</v>
       </c>
       <c r="H98" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="I98" s="46">
+      <c r="I98" s="45">
         <v>27837</v>
       </c>
-      <c r="J98" s="22"/>
+      <c r="J98" s="21"/>
     </row>
     <row r="99" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
@@ -8475,22 +8448,22 @@
       <c r="D99" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="E99" s="41">
+      <c r="E99" s="40">
         <v>34.302017999999997</v>
       </c>
-      <c r="F99" s="41">
+      <c r="F99" s="40">
         <v>134.069383996243</v>
       </c>
-      <c r="G99" s="33" t="s">
+      <c r="G99" s="32" t="s">
         <v>641</v>
       </c>
       <c r="H99" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="I99" s="46">
+      <c r="I99" s="45">
         <v>39632</v>
       </c>
-      <c r="J99" s="22"/>
+      <c r="J99" s="21"/>
     </row>
     <row r="100" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
@@ -8506,53 +8479,53 @@
       <c r="D100" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="E100" s="41">
+      <c r="E100" s="40">
         <v>34.343505999999998</v>
       </c>
-      <c r="F100" s="41">
+      <c r="F100" s="40">
         <v>134.06172799999999</v>
       </c>
-      <c r="G100" s="33" t="s">
+      <c r="G100" s="32" t="s">
         <v>642</v>
       </c>
       <c r="H100" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="I100" s="46">
+      <c r="I100" s="45">
         <v>42937</v>
       </c>
-      <c r="J100" s="22"/>
+      <c r="J100" s="21"/>
     </row>
     <row r="101" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="29" t="s">
+      <c r="B101" s="28" t="s">
         <v>172</v>
       </c>
       <c r="C101" s="2" t="str">
         <f t="shared" si="3"/>
         <v>ハラノシンキュウセイコツイン</v>
       </c>
-      <c r="D101" s="25" t="s">
+      <c r="D101" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="E101" s="42">
+      <c r="E101" s="41">
         <v>34.344977</v>
       </c>
-      <c r="F101" s="42">
+      <c r="F101" s="41">
         <v>134.03169199999999</v>
       </c>
-      <c r="G101" s="33" t="s">
+      <c r="G101" s="32" t="s">
         <v>643</v>
       </c>
-      <c r="H101" s="30" t="s">
+      <c r="H101" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="I101" s="47">
+      <c r="I101" s="46">
         <v>35934</v>
       </c>
-      <c r="J101" s="21" t="s">
+      <c r="J101" s="20" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8570,22 +8543,22 @@
       <c r="D102" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="E102" s="41">
+      <c r="E102" s="40">
         <v>34.317838000000002</v>
       </c>
-      <c r="F102" s="41">
+      <c r="F102" s="40">
         <v>134.05705599999999</v>
       </c>
-      <c r="G102" s="33" t="s">
+      <c r="G102" s="32" t="s">
         <v>644</v>
       </c>
       <c r="H102" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I102" s="44">
+      <c r="I102" s="43">
         <v>38070</v>
       </c>
-      <c r="J102" s="21"/>
+      <c r="J102" s="20"/>
     </row>
     <row r="103" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
@@ -8601,22 +8574,22 @@
       <c r="D103" s="8" t="s">
         <v>501</v>
       </c>
-      <c r="E103" s="41">
+      <c r="E103" s="40">
         <v>34.335762000000003</v>
       </c>
-      <c r="F103" s="41">
+      <c r="F103" s="40">
         <v>134.05406099999999</v>
       </c>
-      <c r="G103" s="33" t="s">
+      <c r="G103" s="32" t="s">
         <v>645</v>
       </c>
       <c r="H103" s="7" t="s">
         <v>502</v>
       </c>
-      <c r="I103" s="44">
+      <c r="I103" s="43">
         <v>45209</v>
       </c>
-      <c r="J103" s="21"/>
+      <c r="J103" s="20"/>
     </row>
     <row r="104" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
@@ -8631,22 +8604,22 @@
       <c r="D104" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="E104" s="41">
+      <c r="E104" s="40">
         <v>34.300122000000002</v>
       </c>
-      <c r="F104" s="41">
+      <c r="F104" s="40">
         <v>134.098523</v>
       </c>
-      <c r="G104" s="33" t="s">
+      <c r="G104" s="32" t="s">
         <v>646</v>
       </c>
       <c r="H104" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="I104" s="44">
+      <c r="I104" s="43">
         <v>41976</v>
       </c>
-      <c r="J104" s="21" t="s">
+      <c r="J104" s="20" t="s">
         <v>301</v>
       </c>
     </row>
@@ -8664,22 +8637,22 @@
       <c r="D105" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="E105" s="41">
+      <c r="E105" s="40">
         <v>34.337069</v>
       </c>
-      <c r="F105" s="41">
+      <c r="F105" s="40">
         <v>134.09257099999999</v>
       </c>
-      <c r="G105" s="33" t="s">
+      <c r="G105" s="32" t="s">
         <v>647</v>
       </c>
       <c r="H105" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I105" s="44">
+      <c r="I105" s="43">
         <v>31352</v>
       </c>
-      <c r="J105" s="21"/>
+      <c r="J105" s="20"/>
     </row>
     <row r="106" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
@@ -8695,22 +8668,22 @@
       <c r="D106" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="E106" s="41">
+      <c r="E106" s="40">
         <v>34.328966000000001</v>
       </c>
-      <c r="F106" s="41">
+      <c r="F106" s="40">
         <v>134.102282</v>
       </c>
-      <c r="G106" s="33" t="s">
+      <c r="G106" s="32" t="s">
         <v>648</v>
       </c>
       <c r="H106" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="I106" s="44">
+      <c r="I106" s="43">
         <v>44287</v>
       </c>
-      <c r="J106" s="19"/>
+      <c r="J106" s="18"/>
     </row>
     <row r="107" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
@@ -8726,22 +8699,22 @@
       <c r="D107" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="E107" s="41">
+      <c r="E107" s="40">
         <v>34.335555999999997</v>
       </c>
-      <c r="F107" s="41">
+      <c r="F107" s="40">
         <v>134.04988700000001</v>
       </c>
-      <c r="G107" s="33" t="s">
+      <c r="G107" s="32" t="s">
         <v>649</v>
       </c>
       <c r="H107" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I107" s="44">
+      <c r="I107" s="43">
         <v>33512</v>
       </c>
-      <c r="J107" s="19" t="s">
+      <c r="J107" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8759,22 +8732,22 @@
       <c r="D108" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E108" s="41">
+      <c r="E108" s="40">
         <v>34.342633999999997</v>
       </c>
-      <c r="F108" s="41">
+      <c r="F108" s="40">
         <v>134.11730700000001</v>
       </c>
-      <c r="G108" s="33" t="s">
+      <c r="G108" s="32" t="s">
         <v>650</v>
       </c>
       <c r="H108" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I108" s="44">
+      <c r="I108" s="43">
         <v>35186</v>
       </c>
-      <c r="J108" s="19" t="s">
+      <c r="J108" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8792,22 +8765,22 @@
       <c r="D109" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="E109" s="41">
+      <c r="E109" s="40">
         <v>34.239983000000002</v>
       </c>
-      <c r="F109" s="41">
+      <c r="F109" s="40">
         <v>134.03624400000001</v>
       </c>
-      <c r="G109" s="33" t="s">
+      <c r="G109" s="32" t="s">
         <v>651</v>
       </c>
       <c r="H109" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="I109" s="44">
+      <c r="I109" s="43">
         <v>33026</v>
       </c>
-      <c r="J109" s="22"/>
+      <c r="J109" s="21"/>
     </row>
     <row r="110" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
@@ -8823,22 +8796,22 @@
       <c r="D110" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E110" s="41">
+      <c r="E110" s="40">
         <v>34.296703000000001</v>
       </c>
-      <c r="F110" s="41">
+      <c r="F110" s="40">
         <v>134.089044</v>
       </c>
-      <c r="G110" s="33" t="s">
+      <c r="G110" s="32" t="s">
         <v>652</v>
       </c>
       <c r="H110" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I110" s="44">
+      <c r="I110" s="43">
         <v>38930</v>
       </c>
-      <c r="J110" s="22"/>
+      <c r="J110" s="21"/>
     </row>
     <row r="111" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
@@ -8854,22 +8827,22 @@
       <c r="D111" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E111" s="41">
+      <c r="E111" s="40">
         <v>34.329003999999998</v>
       </c>
-      <c r="F111" s="41">
+      <c r="F111" s="40">
         <v>134.04933299999999</v>
       </c>
-      <c r="G111" s="33" t="s">
+      <c r="G111" s="32" t="s">
         <v>653</v>
       </c>
       <c r="H111" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I111" s="44">
+      <c r="I111" s="43">
         <v>39722</v>
       </c>
-      <c r="J111" s="19" t="s">
+      <c r="J111" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -8887,22 +8860,22 @@
       <c r="D112" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="E112" s="41">
+      <c r="E112" s="40">
         <v>34.286422999999999</v>
       </c>
-      <c r="F112" s="41">
+      <c r="F112" s="40">
         <v>134.04751400000001</v>
       </c>
-      <c r="G112" s="33" t="s">
+      <c r="G112" s="32" t="s">
         <v>654</v>
       </c>
       <c r="H112" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="I112" s="44">
+      <c r="I112" s="43">
         <v>41821</v>
       </c>
-      <c r="J112" s="19"/>
+      <c r="J112" s="18"/>
     </row>
     <row r="113" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
@@ -8918,22 +8891,22 @@
       <c r="D113" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="E113" s="41">
+      <c r="E113" s="40">
         <v>34.326676999999997</v>
       </c>
-      <c r="F113" s="41">
+      <c r="F113" s="40">
         <v>134.06231600000001</v>
       </c>
-      <c r="G113" s="33" t="s">
+      <c r="G113" s="32" t="s">
         <v>655</v>
       </c>
       <c r="H113" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="I113" s="44">
+      <c r="I113" s="43">
         <v>31617</v>
       </c>
-      <c r="J113" s="21"/>
+      <c r="J113" s="20"/>
     </row>
     <row r="114" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
@@ -8949,22 +8922,22 @@
       <c r="D114" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="E114" s="41">
+      <c r="E114" s="40">
         <v>34.325797000000001</v>
       </c>
-      <c r="F114" s="41">
+      <c r="F114" s="40">
         <v>134.07956300000001</v>
       </c>
-      <c r="G114" s="33" t="s">
+      <c r="G114" s="32" t="s">
         <v>656</v>
       </c>
       <c r="H114" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="I114" s="44">
+      <c r="I114" s="43">
         <v>42522</v>
       </c>
-      <c r="J114" s="21"/>
+      <c r="J114" s="20"/>
     </row>
     <row r="115" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
@@ -8980,22 +8953,22 @@
       <c r="D115" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E115" s="41">
+      <c r="E115" s="40">
         <v>34.301738999999998</v>
       </c>
-      <c r="F115" s="41">
+      <c r="F115" s="40">
         <v>134.08894900000001</v>
       </c>
-      <c r="G115" s="33" t="s">
+      <c r="G115" s="32" t="s">
         <v>657</v>
       </c>
       <c r="H115" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I115" s="44">
+      <c r="I115" s="43">
         <v>36742</v>
       </c>
-      <c r="J115" s="21"/>
+      <c r="J115" s="20"/>
     </row>
     <row r="116" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
@@ -9011,22 +8984,22 @@
       <c r="D116" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="E116" s="41">
+      <c r="E116" s="40">
         <v>34.281458000000001</v>
       </c>
-      <c r="F116" s="41">
+      <c r="F116" s="40">
         <v>133.99779699999999</v>
       </c>
-      <c r="G116" s="33" t="s">
+      <c r="G116" s="32" t="s">
         <v>658</v>
       </c>
       <c r="H116" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="I116" s="44">
+      <c r="I116" s="43">
         <v>41640</v>
       </c>
-      <c r="J116" s="19" t="s">
+      <c r="J116" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -9046,16 +9019,16 @@
       </c>
       <c r="E117" s="7"/>
       <c r="F117" s="7"/>
-      <c r="G117" s="33" t="s">
+      <c r="G117" s="32" t="s">
         <v>659</v>
       </c>
       <c r="H117" s="7" t="s">
         <v>416</v>
       </c>
-      <c r="I117" s="44">
+      <c r="I117" s="43">
         <v>43101</v>
       </c>
-      <c r="J117" s="19"/>
+      <c r="J117" s="18"/>
     </row>
     <row r="118" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
@@ -9070,22 +9043,22 @@
       <c r="D118" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="E118" s="41">
+      <c r="E118" s="40">
         <v>34.341878000000001</v>
       </c>
-      <c r="F118" s="41">
+      <c r="F118" s="40">
         <v>134.09666899999999</v>
       </c>
-      <c r="G118" s="33" t="s">
+      <c r="G118" s="32" t="s">
         <v>660</v>
       </c>
       <c r="H118" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="I118" s="44">
+      <c r="I118" s="43">
         <v>45388</v>
       </c>
-      <c r="J118" s="19"/>
+      <c r="J118" s="18"/>
     </row>
     <row r="119" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
@@ -9101,22 +9074,22 @@
       <c r="D119" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="E119" s="41">
+      <c r="E119" s="40">
         <v>34.288414000000003</v>
       </c>
-      <c r="F119" s="41">
+      <c r="F119" s="40">
         <v>134.024146</v>
       </c>
-      <c r="G119" s="33" t="s">
+      <c r="G119" s="32" t="s">
         <v>661</v>
       </c>
       <c r="H119" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="I119" s="44">
+      <c r="I119" s="43">
         <v>31997</v>
       </c>
-      <c r="J119" s="21" t="s">
+      <c r="J119" s="20" t="s">
         <v>387</v>
       </c>
     </row>
@@ -9134,22 +9107,22 @@
       <c r="D120" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="E120" s="41">
+      <c r="E120" s="40">
         <v>34.256005000000002</v>
       </c>
-      <c r="F120" s="41">
+      <c r="F120" s="40">
         <v>134.026681</v>
       </c>
-      <c r="G120" s="33" t="s">
+      <c r="G120" s="32" t="s">
         <v>662</v>
       </c>
       <c r="H120" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="I120" s="46">
+      <c r="I120" s="45">
         <v>44136</v>
       </c>
-      <c r="J120" s="22"/>
+      <c r="J120" s="21"/>
     </row>
     <row r="121" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
@@ -9165,22 +9138,22 @@
       <c r="D121" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="E121" s="41">
+      <c r="E121" s="40">
         <v>34.317377</v>
       </c>
-      <c r="F121" s="41">
+      <c r="F121" s="40">
         <v>134.061384</v>
       </c>
-      <c r="G121" s="33" t="s">
+      <c r="G121" s="32" t="s">
         <v>663</v>
       </c>
       <c r="H121" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="I121" s="46">
+      <c r="I121" s="45">
         <v>42948</v>
       </c>
-      <c r="J121" s="22"/>
+      <c r="J121" s="21"/>
     </row>
     <row r="122" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
@@ -9196,53 +9169,53 @@
       <c r="D122" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="E122" s="17">
+      <c r="E122" s="16">
         <v>34.333772000000003</v>
       </c>
-      <c r="F122" s="17">
+      <c r="F122" s="16">
         <v>134.04996600000001</v>
       </c>
-      <c r="G122" s="33" t="s">
+      <c r="G122" s="32" t="s">
         <v>664</v>
       </c>
-      <c r="H122" s="17" t="s">
+      <c r="H122" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="I122" s="48">
+      <c r="I122" s="47">
         <v>41883</v>
       </c>
-      <c r="J122" s="19"/>
+      <c r="J122" s="18"/>
     </row>
     <row r="123" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>122</v>
       </c>
-      <c r="B123" s="29" t="s">
+      <c r="B123" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="C123" s="29" t="str">
+      <c r="C123" s="28" t="str">
         <f t="shared" si="4"/>
         <v>ミキシンキュウセッコツイン</v>
       </c>
-      <c r="D123" s="25" t="s">
+      <c r="D123" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="E123" s="42">
+      <c r="E123" s="41">
         <v>34.387632000000004</v>
       </c>
-      <c r="F123" s="42">
+      <c r="F123" s="41">
         <v>134.13385199999999</v>
       </c>
-      <c r="G123" s="33" t="s">
+      <c r="G123" s="32" t="s">
         <v>665</v>
       </c>
-      <c r="H123" s="30" t="s">
+      <c r="H123" s="29" t="s">
         <v>193</v>
       </c>
-      <c r="I123" s="48">
+      <c r="I123" s="47">
         <v>39958</v>
       </c>
-      <c r="J123" s="19" t="s">
+      <c r="J123" s="18" t="s">
         <v>194</v>
       </c>
     </row>
@@ -9260,22 +9233,22 @@
       <c r="D124" s="8" t="s">
         <v>223</v>
       </c>
-      <c r="E124" s="41">
+      <c r="E124" s="40">
         <v>34.299140999999999</v>
       </c>
-      <c r="F124" s="41">
+      <c r="F124" s="40">
         <v>134.05196900000001</v>
       </c>
-      <c r="G124" s="33" t="s">
+      <c r="G124" s="32" t="s">
         <v>666</v>
       </c>
       <c r="H124" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="I124" s="44">
+      <c r="I124" s="43">
         <v>25583</v>
       </c>
-      <c r="J124" s="19" t="s">
+      <c r="J124" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -9293,22 +9266,22 @@
       <c r="D125" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E125" s="41">
+      <c r="E125" s="40">
         <v>34.341566</v>
       </c>
-      <c r="F125" s="41">
+      <c r="F125" s="40">
         <v>134.066811</v>
       </c>
-      <c r="G125" s="33" t="s">
+      <c r="G125" s="32" t="s">
         <v>667</v>
       </c>
       <c r="H125" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I125" s="44">
+      <c r="I125" s="43">
         <v>37835</v>
       </c>
-      <c r="J125" s="19" t="s">
+      <c r="J125" s="18" t="s">
         <v>387</v>
       </c>
     </row>
@@ -9325,22 +9298,22 @@
       <c r="D126" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="E126" s="41">
+      <c r="E126" s="40">
         <v>34.280352000000001</v>
       </c>
-      <c r="F126" s="41">
+      <c r="F126" s="40">
         <v>133.96529899999999</v>
       </c>
-      <c r="G126" s="33" t="s">
+      <c r="G126" s="32" t="s">
         <v>668</v>
       </c>
       <c r="H126" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="I126" s="44">
+      <c r="I126" s="43">
         <v>41725</v>
       </c>
-      <c r="J126" s="19" t="s">
+      <c r="J126" s="18" t="s">
         <v>301</v>
       </c>
     </row>
@@ -9358,22 +9331,22 @@
       <c r="D127" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="E127" s="41">
+      <c r="E127" s="40">
         <v>34.289344</v>
       </c>
-      <c r="F127" s="41">
+      <c r="F127" s="40">
         <v>134.092647</v>
       </c>
-      <c r="G127" s="33" t="s">
+      <c r="G127" s="32" t="s">
         <v>669</v>
       </c>
       <c r="H127" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I127" s="44">
+      <c r="I127" s="43">
         <v>33575</v>
       </c>
-      <c r="J127" s="21"/>
+      <c r="J127" s="20"/>
     </row>
     <row r="128" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
@@ -9388,26 +9361,26 @@
       <c r="D128" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="E128" s="41">
+      <c r="E128" s="40">
         <v>34.308157000000001</v>
       </c>
-      <c r="F128" s="41">
+      <c r="F128" s="40">
         <v>134.09168500000001</v>
       </c>
-      <c r="G128" s="33" t="s">
+      <c r="G128" s="32" t="s">
         <v>670</v>
       </c>
       <c r="H128" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="I128" s="44">
+      <c r="I128" s="43">
         <v>41588</v>
       </c>
-      <c r="J128" s="21" t="s">
+      <c r="J128" s="20" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="129" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -9421,24 +9394,24 @@
       <c r="D129" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="E129" s="41">
+      <c r="E129" s="40">
         <v>34.316346000000003</v>
       </c>
-      <c r="F129" s="41">
+      <c r="F129" s="40">
         <v>133.96922799999999</v>
       </c>
-      <c r="G129" s="33" t="s">
+      <c r="G129" s="32" t="s">
         <v>671</v>
       </c>
       <c r="H129" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="I129" s="44">
+      <c r="I129" s="43">
         <v>40216</v>
       </c>
-      <c r="J129" s="21"/>
-    </row>
-    <row r="130" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J129" s="20"/>
+    </row>
+    <row r="130" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -9452,25 +9425,24 @@
       <c r="D130" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E130" s="41">
+      <c r="E130" s="40">
         <v>34.337442000000003</v>
       </c>
-      <c r="F130" s="41">
+      <c r="F130" s="40">
         <v>134.10886400000001</v>
       </c>
-      <c r="G130" s="33" t="s">
+      <c r="G130" s="32" t="s">
         <v>673</v>
       </c>
       <c r="H130" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I130" s="44">
+      <c r="I130" s="43">
         <v>37561</v>
       </c>
-      <c r="J130" s="21"/>
-      <c r="K130" s="20"/>
-    </row>
-    <row r="131" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J130" s="20"/>
+    </row>
+    <row r="131" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -9484,24 +9456,24 @@
       <c r="D131" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="E131" s="41">
+      <c r="E131" s="40">
         <v>34.337451999999999</v>
       </c>
-      <c r="F131" s="41">
+      <c r="F131" s="40">
         <v>134.066585</v>
       </c>
-      <c r="G131" s="33" t="s">
+      <c r="G131" s="32" t="s">
         <v>672</v>
       </c>
       <c r="H131" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="I131" s="44">
+      <c r="I131" s="43">
         <v>30122</v>
       </c>
-      <c r="J131" s="21"/>
-    </row>
-    <row r="132" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J131" s="20"/>
+    </row>
+    <row r="132" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -9515,24 +9487,24 @@
       <c r="D132" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E132" s="41">
+      <c r="E132" s="40">
         <v>34.348129</v>
       </c>
-      <c r="F132" s="41">
+      <c r="F132" s="40">
         <v>134.04271399999999</v>
       </c>
-      <c r="G132" s="33" t="s">
+      <c r="G132" s="32" t="s">
         <v>674</v>
       </c>
       <c r="H132" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="I132" s="44">
+      <c r="I132" s="43">
         <v>40848</v>
       </c>
-      <c r="J132" s="21"/>
-    </row>
-    <row r="133" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J132" s="20"/>
+    </row>
+    <row r="133" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -9546,24 +9518,24 @@
       <c r="D133" s="8" t="s">
         <v>718</v>
       </c>
-      <c r="E133" s="41">
+      <c r="E133" s="40">
         <v>34.333134000000001</v>
       </c>
-      <c r="F133" s="41">
+      <c r="F133" s="40">
         <v>134.06802099999999</v>
       </c>
-      <c r="G133" s="33" t="s">
+      <c r="G133" s="32" t="s">
         <v>719</v>
       </c>
-      <c r="H133" s="41" t="s">
+      <c r="H133" s="40" t="s">
         <v>720</v>
       </c>
-      <c r="I133" s="44">
+      <c r="I133" s="43">
         <v>45427</v>
       </c>
-      <c r="J133" s="21"/>
-    </row>
-    <row r="134" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J133" s="20"/>
+    </row>
+    <row r="134" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -9576,24 +9548,24 @@
       <c r="D134" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="E134" s="41">
+      <c r="E134" s="40">
         <v>34.308826000000003</v>
       </c>
-      <c r="F134" s="41">
+      <c r="F134" s="40">
         <v>133.96402599999999</v>
       </c>
-      <c r="G134" s="33" t="s">
+      <c r="G134" s="32" t="s">
         <v>675</v>
       </c>
       <c r="H134" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="I134" s="44">
+      <c r="I134" s="43">
         <v>42086</v>
       </c>
-      <c r="J134" s="21"/>
-    </row>
-    <row r="135" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J134" s="20"/>
+    </row>
+    <row r="135" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -9604,29 +9576,29 @@
         <f t="shared" ref="C135:C141" si="5">PHONETIC(B135)</f>
         <v>モリシンキュウセッコツイン</v>
       </c>
-      <c r="D135" s="33" t="s">
+      <c r="D135" s="32" t="s">
         <v>353</v>
       </c>
-      <c r="E135" s="41">
+      <c r="E135" s="40">
         <v>34.335113</v>
       </c>
-      <c r="F135" s="41">
+      <c r="F135" s="40">
         <v>134.01111599999999</v>
       </c>
-      <c r="G135" s="33" t="s">
+      <c r="G135" s="32" t="s">
         <v>676</v>
       </c>
       <c r="H135" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I135" s="44">
+      <c r="I135" s="43">
         <v>38869</v>
       </c>
-      <c r="J135" s="19" t="s">
+      <c r="J135" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="136" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -9640,24 +9612,24 @@
       <c r="D136" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="E136" s="41">
+      <c r="E136" s="40">
         <v>34.297317</v>
       </c>
-      <c r="F136" s="41">
+      <c r="F136" s="40">
         <v>134.03551100000001</v>
       </c>
-      <c r="G136" s="33" t="s">
+      <c r="G136" s="32" t="s">
         <v>677</v>
       </c>
       <c r="H136" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I136" s="44">
+      <c r="I136" s="43">
         <v>36057</v>
       </c>
-      <c r="J136" s="21"/>
-    </row>
-    <row r="137" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J136" s="20"/>
+    </row>
+    <row r="137" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -9671,24 +9643,24 @@
       <c r="D137" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="E137" s="41">
+      <c r="E137" s="40">
         <v>34.338760999999998</v>
       </c>
-      <c r="F137" s="41">
+      <c r="F137" s="40">
         <v>134.108374</v>
       </c>
-      <c r="G137" s="33" t="s">
+      <c r="G137" s="32" t="s">
         <v>678</v>
       </c>
       <c r="H137" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="I137" s="44">
+      <c r="I137" s="43">
         <v>41760</v>
       </c>
-      <c r="J137" s="21"/>
-    </row>
-    <row r="138" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J137" s="20"/>
+    </row>
+    <row r="138" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -9702,24 +9674,24 @@
       <c r="D138" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="E138" s="41">
+      <c r="E138" s="40">
         <v>34.340372000000002</v>
       </c>
-      <c r="F138" s="41">
+      <c r="F138" s="40">
         <v>134.11425800000001</v>
       </c>
-      <c r="G138" s="33" t="s">
+      <c r="G138" s="32" t="s">
         <v>679</v>
       </c>
       <c r="H138" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I138" s="44">
+      <c r="I138" s="43">
         <v>29717</v>
       </c>
-      <c r="J138" s="21"/>
-    </row>
-    <row r="139" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J138" s="20"/>
+    </row>
+    <row r="139" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -9733,24 +9705,24 @@
       <c r="D139" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="E139" s="41">
+      <c r="E139" s="40">
         <v>34.342678999999997</v>
       </c>
-      <c r="F139" s="41">
+      <c r="F139" s="40">
         <v>134.100728</v>
       </c>
-      <c r="G139" s="33" t="s">
+      <c r="G139" s="32" t="s">
         <v>680</v>
       </c>
       <c r="H139" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="I139" s="44">
+      <c r="I139" s="43">
         <v>30015</v>
       </c>
-      <c r="J139" s="21"/>
-    </row>
-    <row r="140" spans="1:11" s="20" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J139" s="20"/>
+    </row>
+    <row r="140" spans="1:10" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -9764,25 +9736,24 @@
       <c r="D140" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="E140" s="41">
+      <c r="E140" s="40">
         <v>34.284075000000001</v>
       </c>
-      <c r="F140" s="41">
+      <c r="F140" s="40">
         <v>134.096462</v>
       </c>
-      <c r="G140" s="33" t="s">
+      <c r="G140" s="32" t="s">
         <v>681</v>
       </c>
       <c r="H140" s="7" t="s">
         <v>412</v>
       </c>
-      <c r="I140" s="44">
+      <c r="I140" s="43">
         <v>43070</v>
       </c>
-      <c r="J140" s="21"/>
-      <c r="K140" s="9"/>
-    </row>
-    <row r="141" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J140" s="20"/>
+    </row>
+    <row r="141" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -9796,26 +9767,26 @@
       <c r="D141" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E141" s="41">
+      <c r="E141" s="40">
         <v>34.342661</v>
       </c>
-      <c r="F141" s="41">
+      <c r="F141" s="40">
         <v>134.096205</v>
       </c>
-      <c r="G141" s="33" t="s">
+      <c r="G141" s="32" t="s">
         <v>682</v>
       </c>
       <c r="H141" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="I141" s="44">
+      <c r="I141" s="43">
         <v>31040</v>
       </c>
-      <c r="J141" s="21" t="s">
+      <c r="J141" s="20" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="142" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -9828,24 +9799,24 @@
       <c r="D142" s="8" t="s">
         <v>478</v>
       </c>
-      <c r="E142" s="41">
+      <c r="E142" s="40">
         <v>34.333956000000001</v>
       </c>
-      <c r="F142" s="41">
+      <c r="F142" s="40">
         <v>134.081931</v>
       </c>
-      <c r="G142" s="33" t="s">
+      <c r="G142" s="32" t="s">
         <v>683</v>
       </c>
       <c r="H142" s="7" t="s">
         <v>479</v>
       </c>
-      <c r="I142" s="44">
+      <c r="I142" s="43">
         <v>44739</v>
       </c>
-      <c r="J142" s="21"/>
-    </row>
-    <row r="143" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J142" s="20"/>
+    </row>
+    <row r="143" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -9859,26 +9830,26 @@
       <c r="D143" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E143" s="41">
+      <c r="E143" s="40">
         <v>34.313543000000003</v>
       </c>
-      <c r="F143" s="41">
+      <c r="F143" s="40">
         <v>134.026186</v>
       </c>
-      <c r="G143" s="33" t="s">
+      <c r="G143" s="32" t="s">
         <v>684</v>
       </c>
       <c r="H143" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I143" s="44">
+      <c r="I143" s="43">
         <v>30225</v>
       </c>
-      <c r="J143" s="19" t="s">
+      <c r="J143" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="144" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -9892,24 +9863,24 @@
       <c r="D144" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E144" s="41">
+      <c r="E144" s="40">
         <v>34.307678000000003</v>
       </c>
       <c r="F144" s="12">
         <v>133.96265099999999</v>
       </c>
-      <c r="G144" s="33" t="s">
+      <c r="G144" s="32" t="s">
         <v>685</v>
       </c>
       <c r="H144" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="I144" s="44">
+      <c r="I144" s="43">
         <v>44181</v>
       </c>
-      <c r="J144" s="19"/>
-    </row>
-    <row r="145" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J144" s="18"/>
+    </row>
+    <row r="145" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -9923,26 +9894,26 @@
       <c r="D145" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E145" s="41">
+      <c r="E145" s="40">
         <v>34.322457</v>
       </c>
       <c r="F145" s="12">
         <v>134.07410200000001</v>
       </c>
-      <c r="G145" s="33" t="s">
+      <c r="G145" s="32" t="s">
         <v>686</v>
       </c>
       <c r="H145" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="I145" s="44">
+      <c r="I145" s="43">
         <v>38082</v>
       </c>
-      <c r="J145" s="19" t="s">
+      <c r="J145" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -9955,24 +9926,24 @@
       <c r="D146" s="8" t="s">
         <v>489</v>
       </c>
-      <c r="E146" s="41">
+      <c r="E146" s="40">
         <v>34.322403000000001</v>
       </c>
-      <c r="F146" s="41">
+      <c r="F146" s="40">
         <v>134.07405900000001</v>
       </c>
-      <c r="G146" s="33" t="s">
+      <c r="G146" s="32" t="s">
         <v>687</v>
       </c>
       <c r="H146" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="I146" s="44">
+      <c r="I146" s="43">
         <v>44932</v>
       </c>
-      <c r="J146" s="19"/>
-    </row>
-    <row r="147" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J146" s="18"/>
+    </row>
+    <row r="147" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -9986,24 +9957,24 @@
       <c r="D147" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="E147" s="41">
+      <c r="E147" s="40">
         <v>34.284092999999999</v>
       </c>
-      <c r="F147" s="41">
+      <c r="F147" s="40">
         <v>133.95545100000001</v>
       </c>
-      <c r="G147" s="33" t="s">
+      <c r="G147" s="32" t="s">
         <v>688</v>
       </c>
       <c r="H147" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="I147" s="44">
+      <c r="I147" s="43">
         <v>41487</v>
       </c>
-      <c r="J147" s="19"/>
-    </row>
-    <row r="148" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J147" s="18"/>
+    </row>
+    <row r="148" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -10017,24 +9988,24 @@
       <c r="D148" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="E148" s="41">
+      <c r="E148" s="40">
         <v>34.297007999999998</v>
       </c>
-      <c r="F148" s="41">
+      <c r="F148" s="40">
         <v>133.94552400000001</v>
       </c>
-      <c r="G148" s="33" t="s">
+      <c r="G148" s="32" t="s">
         <v>689</v>
       </c>
       <c r="H148" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="I148" s="44">
+      <c r="I148" s="43">
         <v>44774</v>
       </c>
-      <c r="J148" s="19"/>
-    </row>
-    <row r="149" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J148" s="18"/>
+    </row>
+    <row r="149" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -10048,26 +10019,26 @@
       <c r="D149" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="E149" s="41">
+      <c r="E149" s="40">
         <v>34.271703000000002</v>
       </c>
-      <c r="F149" s="41">
+      <c r="F149" s="40">
         <v>134.02163300000001</v>
       </c>
-      <c r="G149" s="33" t="s">
+      <c r="G149" s="32" t="s">
         <v>690</v>
       </c>
       <c r="H149" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="I149" s="46">
+      <c r="I149" s="45">
         <v>31931</v>
       </c>
-      <c r="J149" s="19" t="s">
+      <c r="J149" s="18" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -10078,30 +10049,29 @@
         <f t="shared" si="6"/>
         <v>ヨシダシンキュウセイコツイン</v>
       </c>
-      <c r="D150" s="25" t="s">
+      <c r="D150" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="E150" s="41">
+      <c r="E150" s="40">
         <v>34.271738999999997</v>
       </c>
-      <c r="F150" s="26">
+      <c r="F150" s="25">
         <v>134.02161100000001</v>
       </c>
-      <c r="G150" s="33" t="s">
+      <c r="G150" s="32" t="s">
         <v>691</v>
       </c>
-      <c r="H150" s="26" t="s">
+      <c r="H150" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="I150" s="49">
+      <c r="I150" s="48">
         <v>39300</v>
       </c>
-      <c r="J150" s="19" t="s">
+      <c r="J150" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="K150" s="10"/>
-    </row>
-    <row r="151" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -10112,28 +10082,27 @@
         <f t="shared" si="6"/>
         <v>ヨツバセイコツイン</v>
       </c>
-      <c r="D151" s="25" t="s">
+      <c r="D151" s="24" t="s">
         <v>430</v>
       </c>
-      <c r="E151" s="41">
+      <c r="E151" s="40">
         <v>34.334273000000003</v>
       </c>
-      <c r="F151" s="26">
+      <c r="F151" s="25">
         <v>134.083787</v>
       </c>
-      <c r="G151" s="33" t="s">
+      <c r="G151" s="32" t="s">
         <v>692</v>
       </c>
-      <c r="H151" s="26" t="s">
+      <c r="H151" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="I151" s="49">
+      <c r="I151" s="48">
         <v>43383</v>
       </c>
-      <c r="J151" s="19"/>
-      <c r="K151" s="10"/>
-    </row>
-    <row r="152" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J151" s="18"/>
+    </row>
+    <row r="152" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -10147,25 +10116,24 @@
       <c r="D152" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="E152" s="41">
+      <c r="E152" s="40">
         <v>34.319628000000002</v>
       </c>
-      <c r="F152" s="41">
+      <c r="F152" s="40">
         <v>134.053755</v>
       </c>
-      <c r="G152" s="33" t="s">
+      <c r="G152" s="32" t="s">
         <v>693</v>
       </c>
       <c r="H152" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="I152" s="44">
+      <c r="I152" s="43">
         <v>32500</v>
       </c>
-      <c r="J152" s="21"/>
-      <c r="K152" s="10"/>
-    </row>
-    <row r="153" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J152" s="20"/>
+    </row>
+    <row r="153" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -10178,25 +10146,24 @@
       <c r="D153" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="E153" s="41">
+      <c r="E153" s="40">
         <v>34.304028000000002</v>
       </c>
-      <c r="F153" s="41">
+      <c r="F153" s="40">
         <v>133.97233299999999</v>
       </c>
-      <c r="G153" s="33" t="s">
+      <c r="G153" s="32" t="s">
         <v>694</v>
       </c>
       <c r="H153" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="I153" s="44">
+      <c r="I153" s="43">
         <v>45170</v>
       </c>
-      <c r="J153" s="21"/>
-      <c r="K153" s="10"/>
-    </row>
-    <row r="154" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J153" s="20"/>
+    </row>
+    <row r="154" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -10209,26 +10176,26 @@
       <c r="D154" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="E154" s="41">
+      <c r="E154" s="40">
         <v>34.345882000000003</v>
       </c>
-      <c r="F154" s="41">
+      <c r="F154" s="40">
         <v>134.04718009999999</v>
       </c>
-      <c r="G154" s="33" t="s">
+      <c r="G154" s="32" t="s">
         <v>695</v>
       </c>
       <c r="H154" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I154" s="44">
+      <c r="I154" s="43">
         <v>37805</v>
       </c>
-      <c r="J154" s="21" t="s">
+      <c r="J154" s="20" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="155" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -10242,27 +10209,26 @@
       <c r="D155" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="E155" s="41">
+      <c r="E155" s="40">
         <v>34.332870999999997</v>
       </c>
-      <c r="F155" s="41">
+      <c r="F155" s="40">
         <v>134.053585</v>
       </c>
-      <c r="G155" s="33" t="s">
+      <c r="G155" s="32" t="s">
         <v>696</v>
       </c>
       <c r="H155" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="I155" s="44">
+      <c r="I155" s="43">
         <v>39448</v>
       </c>
-      <c r="J155" s="19" t="s">
+      <c r="J155" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="K155" s="10"/>
-    </row>
-    <row r="156" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -10275,25 +10241,24 @@
       <c r="D156" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="E156" s="41">
+      <c r="E156" s="40">
         <v>34.263731</v>
       </c>
-      <c r="F156" s="41">
+      <c r="F156" s="40">
         <v>134.02720400000001</v>
       </c>
-      <c r="G156" s="33" t="s">
+      <c r="G156" s="32" t="s">
         <v>697</v>
       </c>
       <c r="H156" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="I156" s="44">
+      <c r="I156" s="43">
         <v>41396</v>
       </c>
-      <c r="J156" s="19"/>
-      <c r="K156" s="10"/>
-    </row>
-    <row r="157" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J156" s="18"/>
+    </row>
+    <row r="157" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -10307,25 +10272,24 @@
       <c r="D157" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E157" s="41">
+      <c r="E157" s="40">
         <v>34.312365</v>
       </c>
-      <c r="F157" s="41">
+      <c r="F157" s="40">
         <v>134.083392</v>
       </c>
-      <c r="G157" s="33" t="s">
+      <c r="G157" s="32" t="s">
         <v>698</v>
       </c>
       <c r="H157" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="I157" s="44">
+      <c r="I157" s="43">
         <v>40360</v>
       </c>
-      <c r="J157" s="21"/>
-      <c r="K157" s="10"/>
-    </row>
-    <row r="158" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J157" s="20"/>
+    </row>
+    <row r="158" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -10338,26 +10302,26 @@
       <c r="D158" s="8" t="s">
         <v>366</v>
       </c>
-      <c r="E158" s="41">
+      <c r="E158" s="40">
         <v>34.329160999999999</v>
       </c>
-      <c r="F158" s="41">
+      <c r="F158" s="40">
         <v>134.058245</v>
       </c>
-      <c r="G158" s="33" t="s">
+      <c r="G158" s="32" t="s">
         <v>699</v>
       </c>
       <c r="H158" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="I158" s="44">
+      <c r="I158" s="43">
         <v>42443</v>
       </c>
-      <c r="J158" s="21" t="s">
+      <c r="J158" s="20" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="159" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -10370,24 +10334,24 @@
       <c r="D159" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="E159" s="41">
+      <c r="E159" s="40">
         <v>34.284131000000002</v>
       </c>
-      <c r="F159" s="41">
+      <c r="F159" s="40">
         <v>134.089755</v>
       </c>
-      <c r="G159" s="33" t="s">
+      <c r="G159" s="32" t="s">
         <v>700</v>
       </c>
       <c r="H159" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="I159" s="44">
+      <c r="I159" s="43">
         <v>44805</v>
       </c>
-      <c r="J159" s="19"/>
-    </row>
-    <row r="160" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J159" s="18"/>
+    </row>
+    <row r="160" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -10400,26 +10364,26 @@
       <c r="D160" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="E160" s="41">
+      <c r="E160" s="40">
         <v>34.335034999999998</v>
       </c>
-      <c r="F160" s="41">
+      <c r="F160" s="40">
         <v>134.07119800000001</v>
       </c>
-      <c r="G160" s="33" t="s">
+      <c r="G160" s="32" t="s">
         <v>701</v>
       </c>
       <c r="H160" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="I160" s="44">
+      <c r="I160" s="43">
         <v>40982</v>
       </c>
-      <c r="J160" s="22" t="s">
+      <c r="J160" s="21" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="161" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -10432,25 +10396,24 @@
       <c r="D161" s="8" t="s">
         <v>318</v>
       </c>
-      <c r="E161" s="41">
+      <c r="E161" s="40">
         <v>34.295994</v>
       </c>
-      <c r="F161" s="41">
+      <c r="F161" s="40">
         <v>134.06595799999999</v>
       </c>
-      <c r="G161" s="33" t="s">
+      <c r="G161" s="32" t="s">
         <v>702</v>
       </c>
       <c r="H161" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="I161" s="44">
+      <c r="I161" s="43">
         <v>41395</v>
       </c>
-      <c r="J161" s="22"/>
-      <c r="K161" s="9"/>
-    </row>
-    <row r="162" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J161" s="21"/>
+    </row>
+    <row r="162" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -10461,27 +10424,26 @@
       <c r="D162" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="E162" s="41">
+      <c r="E162" s="40">
         <v>34.299269000000002</v>
       </c>
-      <c r="F162" s="41">
+      <c r="F162" s="40">
         <v>134.11092500000001</v>
       </c>
-      <c r="G162" s="33" t="s">
+      <c r="G162" s="32" t="s">
         <v>703</v>
       </c>
       <c r="H162" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="I162" s="44">
+      <c r="I162" s="43">
         <v>42454</v>
       </c>
-      <c r="J162" s="19" t="s">
+      <c r="J162" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="K162" s="9"/>
-    </row>
-    <row r="163" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="163" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -10494,25 +10456,24 @@
       <c r="D163" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="E163" s="41">
+      <c r="E163" s="40">
         <v>34.301983</v>
       </c>
-      <c r="F163" s="41">
+      <c r="F163" s="40">
         <v>134.07158699999999</v>
       </c>
-      <c r="G163" s="33" t="s">
+      <c r="G163" s="32" t="s">
         <v>704</v>
       </c>
       <c r="H163" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="I163" s="44">
+      <c r="I163" s="43">
         <v>28216</v>
       </c>
-      <c r="J163" s="21"/>
-      <c r="K163" s="9"/>
-    </row>
-    <row r="164" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J163" s="20"/>
+    </row>
+    <row r="164" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -10525,25 +10486,24 @@
       <c r="D164" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="E164" s="41">
+      <c r="E164" s="40">
         <v>34.323757000000001</v>
       </c>
-      <c r="F164" s="41">
+      <c r="F164" s="40">
         <v>134.07733400000001</v>
       </c>
-      <c r="G164" s="33" t="s">
+      <c r="G164" s="32" t="s">
         <v>705</v>
       </c>
       <c r="H164" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="I164" s="44">
+      <c r="I164" s="43">
         <v>42520</v>
       </c>
-      <c r="J164" s="21"/>
-      <c r="K164" s="9"/>
-    </row>
-    <row r="165" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J164" s="20"/>
+    </row>
+    <row r="165" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -10556,27 +10516,26 @@
       <c r="D165" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E165" s="41">
+      <c r="E165" s="40">
         <v>34.286965000000002</v>
       </c>
-      <c r="F165" s="41">
+      <c r="F165" s="40">
         <v>134.042618</v>
       </c>
-      <c r="G165" s="33" t="s">
+      <c r="G165" s="32" t="s">
         <v>706</v>
       </c>
       <c r="H165" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="I165" s="44">
+      <c r="I165" s="43">
         <v>41113</v>
       </c>
-      <c r="J165" s="19" t="s">
+      <c r="J165" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="K165" s="9"/>
-    </row>
-    <row r="166" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="166" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -10589,147 +10548,146 @@
       <c r="D166" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E166" s="41">
+      <c r="E166" s="40">
         <v>34.313502999999997</v>
       </c>
-      <c r="F166" s="41">
+      <c r="F166" s="40">
         <v>134.08316099999999</v>
       </c>
-      <c r="G166" s="33" t="s">
+      <c r="G166" s="32" t="s">
         <v>708</v>
       </c>
       <c r="H166" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="I166" s="44">
+      <c r="I166" s="43">
         <v>41687</v>
       </c>
-      <c r="J166" s="19" t="s">
+      <c r="J166" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="K166" s="9"/>
-    </row>
-    <row r="167" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="167" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="9"/>
       <c r="C167" s="9"/>
       <c r="D167" s="9"/>
-      <c r="E167" s="24"/>
-      <c r="F167" s="24"/>
-      <c r="G167" s="38"/>
-      <c r="H167" s="24"/>
-      <c r="I167" s="50"/>
-      <c r="J167" s="23"/>
-    </row>
-    <row r="168" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="34"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="23"/>
+      <c r="G167" s="37"/>
+      <c r="H167" s="23"/>
+      <c r="I167" s="49"/>
+      <c r="J167" s="22"/>
+    </row>
+    <row r="168" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="33"/>
       <c r="B168" s="9"/>
       <c r="C168" s="9"/>
       <c r="D168" s="9"/>
-      <c r="E168" s="24"/>
-      <c r="F168" s="24"/>
-      <c r="G168" s="38"/>
-      <c r="H168" s="24"/>
-      <c r="I168" s="50"/>
-      <c r="J168" s="23"/>
-    </row>
-    <row r="169" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="34"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="23"/>
+      <c r="G168" s="37"/>
+      <c r="H168" s="23"/>
+      <c r="I168" s="49"/>
+      <c r="J168" s="22"/>
+    </row>
+    <row r="169" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="33"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
-      <c r="E169" s="24"/>
-      <c r="F169" s="24"/>
-      <c r="G169" s="38"/>
-      <c r="H169" s="24"/>
-      <c r="I169" s="50"/>
-      <c r="J169" s="23"/>
-    </row>
-    <row r="170" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E169" s="23"/>
+      <c r="F169" s="23"/>
+      <c r="G169" s="37"/>
+      <c r="H169" s="23"/>
+      <c r="I169" s="49"/>
+      <c r="J169" s="22"/>
+    </row>
+    <row r="170" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="6"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
-      <c r="E170" s="24"/>
-      <c r="F170" s="24"/>
-      <c r="G170" s="38"/>
-      <c r="H170" s="24"/>
-      <c r="I170" s="50"/>
-      <c r="J170" s="23"/>
-    </row>
-    <row r="171" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E170" s="23"/>
+      <c r="F170" s="23"/>
+      <c r="G170" s="37"/>
+      <c r="H170" s="23"/>
+      <c r="I170" s="49"/>
+      <c r="J170" s="22"/>
+    </row>
+    <row r="171" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="6"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
-      <c r="E171" s="24"/>
-      <c r="F171" s="24"/>
-      <c r="G171" s="38"/>
-      <c r="H171" s="24"/>
-      <c r="I171" s="50"/>
-      <c r="J171" s="23"/>
-    </row>
-    <row r="172" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E171" s="23"/>
+      <c r="F171" s="23"/>
+      <c r="G171" s="37"/>
+      <c r="H171" s="23"/>
+      <c r="I171" s="49"/>
+      <c r="J171" s="22"/>
+    </row>
+    <row r="172" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="6"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
-      <c r="E172" s="24"/>
-      <c r="F172" s="24"/>
-      <c r="G172" s="38"/>
-      <c r="H172" s="24"/>
-      <c r="I172" s="50"/>
-      <c r="J172" s="23"/>
-    </row>
-    <row r="173" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E172" s="23"/>
+      <c r="F172" s="23"/>
+      <c r="G172" s="37"/>
+      <c r="H172" s="23"/>
+      <c r="I172" s="49"/>
+      <c r="J172" s="22"/>
+    </row>
+    <row r="173" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="6"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
-      <c r="E173" s="24"/>
-      <c r="F173" s="24"/>
-      <c r="G173" s="38"/>
-      <c r="H173" s="24"/>
-      <c r="I173" s="50"/>
-      <c r="J173" s="23"/>
-    </row>
-    <row r="174" spans="1:11" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E173" s="23"/>
+      <c r="F173" s="23"/>
+      <c r="G173" s="37"/>
+      <c r="H173" s="23"/>
+      <c r="I173" s="49"/>
+      <c r="J173" s="22"/>
+    </row>
+    <row r="174" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="6"/>
       <c r="B174" s="9"/>
       <c r="C174" s="9"/>
       <c r="D174" s="9"/>
-      <c r="E174" s="24"/>
-      <c r="F174" s="24"/>
-      <c r="G174" s="38"/>
-      <c r="H174" s="24"/>
-      <c r="I174" s="50"/>
-      <c r="J174" s="23"/>
-    </row>
-    <row r="175" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E174" s="23"/>
+      <c r="F174" s="23"/>
+      <c r="G174" s="37"/>
+      <c r="H174" s="23"/>
+      <c r="I174" s="49"/>
+      <c r="J174" s="22"/>
+    </row>
+    <row r="175" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
-      <c r="E175" s="24"/>
-      <c r="F175" s="24"/>
-      <c r="G175" s="38"/>
-      <c r="H175" s="24"/>
-      <c r="I175" s="50"/>
-      <c r="J175" s="23"/>
-    </row>
-    <row r="176" spans="1:11" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E175" s="23"/>
+      <c r="F175" s="23"/>
+      <c r="G175" s="37"/>
+      <c r="H175" s="23"/>
+      <c r="I175" s="49"/>
+      <c r="J175" s="22"/>
+    </row>
+    <row r="176" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
-      <c r="E176" s="24"/>
-      <c r="F176" s="24"/>
-      <c r="G176" s="38"/>
-      <c r="H176" s="24"/>
-      <c r="I176" s="50"/>
-      <c r="J176" s="23"/>
+      <c r="E176" s="23"/>
+      <c r="F176" s="23"/>
+      <c r="G176" s="37"/>
+      <c r="H176" s="23"/>
+      <c r="I176" s="49"/>
+      <c r="J176" s="22"/>
     </row>
     <row r="177" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6"/>
-      <c r="E177" s="24"/>
-      <c r="F177" s="24"/>
-      <c r="G177" s="38"/>
-      <c r="H177" s="24"/>
-      <c r="I177" s="50"/>
-      <c r="J177" s="23"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="23"/>
+      <c r="G177" s="37"/>
+      <c r="H177" s="23"/>
+      <c r="I177" s="49"/>
+      <c r="J177" s="22"/>
     </row>
     <row r="178" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
@@ -10738,9 +10696,9 @@
       <c r="D178" s="6"/>
       <c r="E178" s="5"/>
       <c r="F178" s="5"/>
-      <c r="G178" s="39"/>
+      <c r="G178" s="38"/>
       <c r="H178" s="5"/>
-      <c r="I178" s="51"/>
+      <c r="I178" s="50"/>
       <c r="J178" s="11"/>
     </row>
     <row r="179" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10750,9 +10708,9 @@
       <c r="D179" s="6"/>
       <c r="E179" s="5"/>
       <c r="F179" s="5"/>
-      <c r="G179" s="39"/>
+      <c r="G179" s="38"/>
       <c r="H179" s="5"/>
-      <c r="I179" s="51"/>
+      <c r="I179" s="50"/>
       <c r="J179" s="11"/>
     </row>
     <row r="180" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10762,9 +10720,9 @@
       <c r="D180" s="6"/>
       <c r="E180" s="5"/>
       <c r="F180" s="5"/>
-      <c r="G180" s="39"/>
+      <c r="G180" s="38"/>
       <c r="H180" s="5"/>
-      <c r="I180" s="51"/>
+      <c r="I180" s="50"/>
       <c r="J180" s="11"/>
     </row>
     <row r="181" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10774,9 +10732,9 @@
       <c r="D181" s="6"/>
       <c r="E181" s="5"/>
       <c r="F181" s="5"/>
-      <c r="G181" s="39"/>
+      <c r="G181" s="38"/>
       <c r="H181" s="5"/>
-      <c r="I181" s="51"/>
+      <c r="I181" s="50"/>
       <c r="J181" s="11"/>
     </row>
     <row r="182" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10786,9 +10744,9 @@
       <c r="D182" s="6"/>
       <c r="E182" s="5"/>
       <c r="F182" s="5"/>
-      <c r="G182" s="39"/>
+      <c r="G182" s="38"/>
       <c r="H182" s="5"/>
-      <c r="I182" s="51"/>
+      <c r="I182" s="50"/>
       <c r="J182" s="11"/>
     </row>
     <row r="183" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10798,9 +10756,9 @@
       <c r="D183" s="6"/>
       <c r="E183" s="5"/>
       <c r="F183" s="5"/>
-      <c r="G183" s="39"/>
+      <c r="G183" s="38"/>
       <c r="H183" s="5"/>
-      <c r="I183" s="51"/>
+      <c r="I183" s="50"/>
       <c r="J183" s="11"/>
     </row>
     <row r="184" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10810,9 +10768,9 @@
       <c r="D184" s="6"/>
       <c r="E184" s="5"/>
       <c r="F184" s="5"/>
-      <c r="G184" s="39"/>
+      <c r="G184" s="38"/>
       <c r="H184" s="5"/>
-      <c r="I184" s="51"/>
+      <c r="I184" s="50"/>
       <c r="J184" s="11"/>
     </row>
     <row r="185" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10822,9 +10780,9 @@
       <c r="D185" s="6"/>
       <c r="E185" s="5"/>
       <c r="F185" s="5"/>
-      <c r="G185" s="39"/>
+      <c r="G185" s="38"/>
       <c r="H185" s="5"/>
-      <c r="I185" s="51"/>
+      <c r="I185" s="50"/>
       <c r="J185" s="11"/>
     </row>
     <row r="186" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10834,9 +10792,9 @@
       <c r="D186" s="6"/>
       <c r="E186" s="5"/>
       <c r="F186" s="5"/>
-      <c r="G186" s="39"/>
+      <c r="G186" s="38"/>
       <c r="H186" s="5"/>
-      <c r="I186" s="51"/>
+      <c r="I186" s="50"/>
       <c r="J186" s="11"/>
     </row>
     <row r="187" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10846,507 +10804,507 @@
       <c r="D187" s="6"/>
       <c r="E187" s="5"/>
       <c r="F187" s="5"/>
-      <c r="G187" s="39"/>
+      <c r="G187" s="38"/>
       <c r="H187" s="5"/>
-      <c r="I187" s="51"/>
+      <c r="I187" s="50"/>
       <c r="J187" s="11"/>
     </row>
     <row r="188" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
-      <c r="G188" s="39"/>
+      <c r="G188" s="38"/>
       <c r="H188" s="5"/>
-      <c r="I188" s="51"/>
+      <c r="I188" s="50"/>
       <c r="J188" s="11"/>
     </row>
     <row r="189" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
-      <c r="G189" s="39"/>
+      <c r="G189" s="38"/>
       <c r="H189" s="5"/>
-      <c r="I189" s="51"/>
+      <c r="I189" s="50"/>
       <c r="J189" s="11"/>
     </row>
     <row r="190" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
-      <c r="G190" s="39"/>
+      <c r="G190" s="38"/>
       <c r="H190" s="5"/>
-      <c r="I190" s="51"/>
+      <c r="I190" s="50"/>
       <c r="J190" s="11"/>
     </row>
     <row r="191" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
-      <c r="G191" s="39"/>
+      <c r="G191" s="38"/>
       <c r="H191" s="5"/>
-      <c r="I191" s="51"/>
+      <c r="I191" s="50"/>
       <c r="J191" s="11"/>
     </row>
     <row r="192" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E192" s="5"/>
       <c r="F192" s="5"/>
-      <c r="G192" s="39"/>
+      <c r="G192" s="38"/>
       <c r="H192" s="5"/>
-      <c r="I192" s="51"/>
+      <c r="I192" s="50"/>
       <c r="J192" s="11"/>
     </row>
     <row r="193" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
-      <c r="G193" s="39"/>
+      <c r="G193" s="38"/>
       <c r="H193" s="5"/>
-      <c r="I193" s="51"/>
+      <c r="I193" s="50"/>
       <c r="J193" s="11"/>
     </row>
     <row r="194" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
-      <c r="G194" s="39"/>
+      <c r="G194" s="38"/>
       <c r="H194" s="5"/>
-      <c r="I194" s="51"/>
+      <c r="I194" s="50"/>
       <c r="J194" s="11"/>
     </row>
     <row r="195" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E195" s="5"/>
       <c r="F195" s="5"/>
-      <c r="G195" s="39"/>
+      <c r="G195" s="38"/>
       <c r="H195" s="5"/>
-      <c r="I195" s="51"/>
+      <c r="I195" s="50"/>
       <c r="J195" s="11"/>
     </row>
     <row r="196" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E196" s="5"/>
       <c r="F196" s="5"/>
-      <c r="G196" s="39"/>
+      <c r="G196" s="38"/>
       <c r="H196" s="5"/>
-      <c r="I196" s="51"/>
+      <c r="I196" s="50"/>
       <c r="J196" s="11"/>
     </row>
     <row r="197" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E197" s="5"/>
       <c r="F197" s="5"/>
-      <c r="G197" s="39"/>
+      <c r="G197" s="38"/>
       <c r="H197" s="5"/>
-      <c r="I197" s="51"/>
+      <c r="I197" s="50"/>
       <c r="J197" s="11"/>
     </row>
     <row r="198" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E198" s="5"/>
       <c r="F198" s="5"/>
-      <c r="G198" s="39"/>
+      <c r="G198" s="38"/>
       <c r="H198" s="5"/>
-      <c r="I198" s="51"/>
+      <c r="I198" s="50"/>
       <c r="J198" s="11"/>
     </row>
     <row r="199" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E199" s="5"/>
       <c r="F199" s="5"/>
-      <c r="G199" s="39"/>
+      <c r="G199" s="38"/>
       <c r="H199" s="5"/>
-      <c r="I199" s="51"/>
+      <c r="I199" s="50"/>
       <c r="J199" s="11"/>
     </row>
     <row r="200" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E200" s="5"/>
       <c r="F200" s="5"/>
-      <c r="G200" s="39"/>
+      <c r="G200" s="38"/>
       <c r="H200" s="5"/>
-      <c r="I200" s="51"/>
+      <c r="I200" s="50"/>
       <c r="J200" s="11"/>
     </row>
     <row r="201" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E201" s="5"/>
       <c r="F201" s="5"/>
-      <c r="G201" s="39"/>
+      <c r="G201" s="38"/>
       <c r="H201" s="5"/>
-      <c r="I201" s="51"/>
+      <c r="I201" s="50"/>
       <c r="J201" s="11"/>
     </row>
     <row r="202" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E202" s="5"/>
       <c r="F202" s="5"/>
-      <c r="G202" s="39"/>
+      <c r="G202" s="38"/>
       <c r="H202" s="5"/>
-      <c r="I202" s="51"/>
+      <c r="I202" s="50"/>
       <c r="J202" s="11"/>
     </row>
     <row r="203" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E203" s="5"/>
       <c r="F203" s="5"/>
-      <c r="G203" s="39"/>
+      <c r="G203" s="38"/>
       <c r="H203" s="5"/>
-      <c r="I203" s="51"/>
+      <c r="I203" s="50"/>
       <c r="J203" s="11"/>
     </row>
     <row r="204" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E204" s="5"/>
       <c r="F204" s="5"/>
-      <c r="G204" s="39"/>
+      <c r="G204" s="38"/>
       <c r="H204" s="5"/>
-      <c r="I204" s="51"/>
+      <c r="I204" s="50"/>
       <c r="J204" s="11"/>
     </row>
     <row r="205" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E205" s="5"/>
       <c r="F205" s="5"/>
-      <c r="G205" s="39"/>
+      <c r="G205" s="38"/>
       <c r="H205" s="5"/>
-      <c r="I205" s="51"/>
+      <c r="I205" s="50"/>
       <c r="J205" s="11"/>
     </row>
     <row r="206" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E206" s="5"/>
       <c r="F206" s="5"/>
-      <c r="G206" s="39"/>
+      <c r="G206" s="38"/>
       <c r="H206" s="5"/>
-      <c r="I206" s="51"/>
+      <c r="I206" s="50"/>
       <c r="J206" s="11"/>
     </row>
     <row r="207" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E207" s="5"/>
       <c r="F207" s="5"/>
-      <c r="G207" s="39"/>
+      <c r="G207" s="38"/>
       <c r="H207" s="5"/>
-      <c r="I207" s="51"/>
+      <c r="I207" s="50"/>
       <c r="J207" s="11"/>
     </row>
     <row r="208" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E208" s="5"/>
       <c r="F208" s="5"/>
-      <c r="G208" s="39"/>
+      <c r="G208" s="38"/>
       <c r="H208" s="5"/>
-      <c r="I208" s="51"/>
+      <c r="I208" s="50"/>
       <c r="J208" s="11"/>
     </row>
     <row r="209" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E209" s="5"/>
       <c r="F209" s="5"/>
-      <c r="G209" s="39"/>
+      <c r="G209" s="38"/>
       <c r="H209" s="5"/>
-      <c r="I209" s="51"/>
+      <c r="I209" s="50"/>
       <c r="J209" s="11"/>
     </row>
     <row r="210" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E210" s="5"/>
       <c r="F210" s="5"/>
-      <c r="G210" s="39"/>
+      <c r="G210" s="38"/>
       <c r="H210" s="5"/>
-      <c r="I210" s="51"/>
+      <c r="I210" s="50"/>
       <c r="J210" s="11"/>
     </row>
     <row r="211" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E211" s="5"/>
       <c r="F211" s="5"/>
-      <c r="G211" s="39"/>
+      <c r="G211" s="38"/>
       <c r="H211" s="5"/>
-      <c r="I211" s="51"/>
+      <c r="I211" s="50"/>
       <c r="J211" s="11"/>
     </row>
     <row r="212" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E212" s="5"/>
       <c r="F212" s="5"/>
-      <c r="G212" s="39"/>
+      <c r="G212" s="38"/>
       <c r="H212" s="5"/>
-      <c r="I212" s="51"/>
+      <c r="I212" s="50"/>
       <c r="J212" s="11"/>
     </row>
     <row r="213" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E213" s="5"/>
       <c r="F213" s="5"/>
-      <c r="G213" s="39"/>
+      <c r="G213" s="38"/>
       <c r="H213" s="5"/>
-      <c r="I213" s="51"/>
+      <c r="I213" s="50"/>
       <c r="J213" s="11"/>
     </row>
     <row r="214" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E214" s="5"/>
       <c r="F214" s="5"/>
-      <c r="G214" s="39"/>
+      <c r="G214" s="38"/>
       <c r="H214" s="5"/>
-      <c r="I214" s="51"/>
+      <c r="I214" s="50"/>
       <c r="J214" s="11"/>
     </row>
     <row r="215" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E215" s="5"/>
       <c r="F215" s="5"/>
-      <c r="G215" s="39"/>
+      <c r="G215" s="38"/>
       <c r="H215" s="5"/>
-      <c r="I215" s="51"/>
+      <c r="I215" s="50"/>
       <c r="J215" s="11"/>
     </row>
     <row r="216" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E216" s="5"/>
       <c r="F216" s="5"/>
-      <c r="G216" s="39"/>
+      <c r="G216" s="38"/>
       <c r="H216" s="5"/>
-      <c r="I216" s="51"/>
+      <c r="I216" s="50"/>
       <c r="J216" s="11"/>
     </row>
     <row r="217" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E217" s="5"/>
       <c r="F217" s="5"/>
-      <c r="G217" s="39"/>
+      <c r="G217" s="38"/>
       <c r="H217" s="5"/>
-      <c r="I217" s="51"/>
+      <c r="I217" s="50"/>
       <c r="J217" s="11"/>
     </row>
     <row r="218" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E218" s="5"/>
       <c r="F218" s="5"/>
-      <c r="G218" s="39"/>
+      <c r="G218" s="38"/>
       <c r="H218" s="5"/>
-      <c r="I218" s="51"/>
+      <c r="I218" s="50"/>
       <c r="J218" s="11"/>
     </row>
     <row r="219" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E219" s="5"/>
       <c r="F219" s="5"/>
-      <c r="G219" s="39"/>
+      <c r="G219" s="38"/>
       <c r="H219" s="5"/>
-      <c r="I219" s="51"/>
+      <c r="I219" s="50"/>
       <c r="J219" s="11"/>
     </row>
     <row r="220" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E220" s="5"/>
       <c r="F220" s="5"/>
-      <c r="G220" s="39"/>
+      <c r="G220" s="38"/>
       <c r="H220" s="5"/>
-      <c r="I220" s="51"/>
+      <c r="I220" s="50"/>
       <c r="J220" s="11"/>
     </row>
     <row r="221" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E221" s="5"/>
       <c r="F221" s="5"/>
-      <c r="G221" s="39"/>
+      <c r="G221" s="38"/>
       <c r="H221" s="5"/>
-      <c r="I221" s="51"/>
+      <c r="I221" s="50"/>
       <c r="J221" s="11"/>
     </row>
     <row r="222" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E222" s="5"/>
       <c r="F222" s="5"/>
-      <c r="G222" s="39"/>
+      <c r="G222" s="38"/>
       <c r="H222" s="5"/>
-      <c r="I222" s="51"/>
+      <c r="I222" s="50"/>
       <c r="J222" s="11"/>
     </row>
     <row r="223" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E223" s="5"/>
       <c r="F223" s="5"/>
-      <c r="G223" s="39"/>
+      <c r="G223" s="38"/>
       <c r="H223" s="5"/>
-      <c r="I223" s="51"/>
+      <c r="I223" s="50"/>
       <c r="J223" s="11"/>
     </row>
     <row r="224" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E224" s="5"/>
       <c r="F224" s="5"/>
-      <c r="G224" s="39"/>
+      <c r="G224" s="38"/>
       <c r="H224" s="5"/>
-      <c r="I224" s="51"/>
+      <c r="I224" s="50"/>
       <c r="J224" s="11"/>
     </row>
     <row r="225" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
-      <c r="G225" s="39"/>
+      <c r="G225" s="38"/>
       <c r="H225" s="5"/>
-      <c r="I225" s="51"/>
+      <c r="I225" s="50"/>
       <c r="J225" s="11"/>
     </row>
     <row r="226" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
-      <c r="G226" s="39"/>
+      <c r="G226" s="38"/>
       <c r="H226" s="5"/>
-      <c r="I226" s="51"/>
+      <c r="I226" s="50"/>
       <c r="J226" s="11"/>
     </row>
     <row r="227" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
-      <c r="G227" s="39"/>
+      <c r="G227" s="38"/>
       <c r="H227" s="5"/>
-      <c r="I227" s="51"/>
+      <c r="I227" s="50"/>
       <c r="J227" s="11"/>
     </row>
     <row r="228" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
-      <c r="G228" s="39"/>
+      <c r="G228" s="38"/>
       <c r="H228" s="5"/>
-      <c r="I228" s="51"/>
+      <c r="I228" s="50"/>
       <c r="J228" s="11"/>
     </row>
     <row r="229" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
-      <c r="G229" s="39"/>
+      <c r="G229" s="38"/>
       <c r="H229" s="5"/>
-      <c r="I229" s="51"/>
+      <c r="I229" s="50"/>
       <c r="J229" s="11"/>
     </row>
     <row r="230" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
-      <c r="G230" s="39"/>
+      <c r="G230" s="38"/>
       <c r="H230" s="5"/>
-      <c r="I230" s="51"/>
+      <c r="I230" s="50"/>
       <c r="J230" s="11"/>
     </row>
     <row r="231" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
-      <c r="G231" s="39"/>
+      <c r="G231" s="38"/>
       <c r="H231" s="5"/>
-      <c r="I231" s="51"/>
+      <c r="I231" s="50"/>
       <c r="J231" s="11"/>
     </row>
     <row r="232" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
-      <c r="G232" s="39"/>
+      <c r="G232" s="38"/>
       <c r="H232" s="5"/>
-      <c r="I232" s="51"/>
+      <c r="I232" s="50"/>
       <c r="J232" s="11"/>
     </row>
     <row r="233" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
-      <c r="G233" s="39"/>
+      <c r="G233" s="38"/>
       <c r="H233" s="5"/>
-      <c r="I233" s="51"/>
+      <c r="I233" s="50"/>
       <c r="J233" s="11"/>
     </row>
     <row r="234" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
-      <c r="G234" s="39"/>
+      <c r="G234" s="38"/>
       <c r="H234" s="5"/>
-      <c r="I234" s="51"/>
+      <c r="I234" s="50"/>
       <c r="J234" s="11"/>
     </row>
     <row r="235" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
-      <c r="G235" s="39"/>
+      <c r="G235" s="38"/>
       <c r="H235" s="5"/>
-      <c r="I235" s="51"/>
+      <c r="I235" s="50"/>
       <c r="J235" s="11"/>
     </row>
     <row r="236" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
-      <c r="G236" s="39"/>
+      <c r="G236" s="38"/>
       <c r="H236" s="5"/>
-      <c r="I236" s="51"/>
+      <c r="I236" s="50"/>
       <c r="J236" s="11"/>
     </row>
     <row r="237" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
-      <c r="G237" s="39"/>
+      <c r="G237" s="38"/>
       <c r="H237" s="5"/>
-      <c r="I237" s="51"/>
+      <c r="I237" s="50"/>
       <c r="J237" s="11"/>
     </row>
     <row r="238" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
-      <c r="G238" s="39"/>
+      <c r="G238" s="38"/>
       <c r="H238" s="5"/>
-      <c r="I238" s="51"/>
+      <c r="I238" s="50"/>
       <c r="J238" s="11"/>
     </row>
     <row r="239" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="1"/>
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
-      <c r="G239" s="39"/>
+      <c r="G239" s="38"/>
       <c r="H239" s="5"/>
-      <c r="I239" s="51"/>
+      <c r="I239" s="50"/>
       <c r="J239" s="11"/>
     </row>
     <row r="240" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="1"/>
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
-      <c r="G240" s="39"/>
+      <c r="G240" s="38"/>
       <c r="H240" s="5"/>
-      <c r="I240" s="51"/>
+      <c r="I240" s="50"/>
       <c r="J240" s="11"/>
     </row>
     <row r="241" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="1"/>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
-      <c r="G241" s="39"/>
+      <c r="G241" s="38"/>
       <c r="H241" s="5"/>
-      <c r="I241" s="51"/>
+      <c r="I241" s="50"/>
       <c r="J241" s="11"/>
     </row>
     <row r="242" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1"/>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
-      <c r="G242" s="39"/>
+      <c r="G242" s="38"/>
       <c r="H242" s="5"/>
-      <c r="I242" s="51"/>
+      <c r="I242" s="50"/>
       <c r="J242" s="11"/>
     </row>
     <row r="243" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1"/>
       <c r="E243" s="5"/>
       <c r="F243" s="5"/>
-      <c r="G243" s="39"/>
+      <c r="G243" s="38"/>
       <c r="H243" s="5"/>
-      <c r="I243" s="51"/>
+      <c r="I243" s="50"/>
       <c r="J243" s="11"/>
     </row>
     <row r="244" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1"/>
       <c r="E244" s="5"/>
       <c r="F244" s="5"/>
-      <c r="G244" s="39"/>
+      <c r="G244" s="38"/>
       <c r="H244" s="5"/>
-      <c r="I244" s="51"/>
+      <c r="I244" s="50"/>
       <c r="J244" s="11"/>
     </row>
     <row r="245" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1"/>
       <c r="E245" s="5"/>
       <c r="F245" s="5"/>
-      <c r="G245" s="39"/>
+      <c r="G245" s="38"/>
       <c r="H245" s="5"/>
-      <c r="I245" s="51"/>
+      <c r="I245" s="50"/>
       <c r="J245" s="11"/>
     </row>
     <row r="246" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1"/>
       <c r="E246" s="5"/>
       <c r="F246" s="5"/>
-      <c r="G246" s="39"/>
+      <c r="G246" s="38"/>
       <c r="H246" s="5"/>
-      <c r="I246" s="51"/>
+      <c r="I246" s="50"/>
       <c r="J246" s="11"/>
     </row>
     <row r="247" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1"/>
       <c r="E247" s="5"/>
       <c r="F247" s="5"/>
-      <c r="G247" s="39"/>
+      <c r="G247" s="38"/>
       <c r="H247" s="5"/>
-      <c r="I247" s="51"/>
+      <c r="I247" s="50"/>
       <c r="J247" s="11"/>
     </row>
     <row r="248" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="1"/>
       <c r="E248" s="5"/>
       <c r="F248" s="5"/>
-      <c r="G248" s="39"/>
+      <c r="G248" s="38"/>
       <c r="H248" s="5"/>
-      <c r="I248" s="51"/>
+      <c r="I248" s="50"/>
       <c r="J248" s="11"/>
     </row>
     <row r="249" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11356,9 +11314,9 @@
       <c r="D249" s="1"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
-      <c r="G249" s="40"/>
+      <c r="G249" s="39"/>
       <c r="H249" s="3"/>
-      <c r="I249" s="52"/>
+      <c r="I249" s="51"/>
       <c r="J249" s="13"/>
     </row>
     <row r="250" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11368,9 +11326,9 @@
       <c r="D250" s="1"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
-      <c r="G250" s="40"/>
+      <c r="G250" s="39"/>
       <c r="H250" s="3"/>
-      <c r="I250" s="52"/>
+      <c r="I250" s="51"/>
       <c r="J250" s="13"/>
     </row>
     <row r="251" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11380,9 +11338,9 @@
       <c r="D251" s="1"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
-      <c r="G251" s="40"/>
+      <c r="G251" s="39"/>
       <c r="H251" s="3"/>
-      <c r="I251" s="52"/>
+      <c r="I251" s="51"/>
       <c r="J251" s="13"/>
     </row>
     <row r="252" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11392,9 +11350,9 @@
       <c r="D252" s="1"/>
       <c r="E252" s="3"/>
       <c r="F252" s="3"/>
-      <c r="G252" s="40"/>
+      <c r="G252" s="39"/>
       <c r="H252" s="3"/>
-      <c r="I252" s="52"/>
+      <c r="I252" s="51"/>
       <c r="J252" s="13"/>
     </row>
     <row r="253" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11404,9 +11362,9 @@
       <c r="D253" s="1"/>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
-      <c r="G253" s="40"/>
+      <c r="G253" s="39"/>
       <c r="H253" s="3"/>
-      <c r="I253" s="52"/>
+      <c r="I253" s="51"/>
       <c r="J253" s="13"/>
     </row>
     <row r="254" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11416,9 +11374,9 @@
       <c r="D254" s="1"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
-      <c r="G254" s="40"/>
+      <c r="G254" s="39"/>
       <c r="H254" s="3"/>
-      <c r="I254" s="52"/>
+      <c r="I254" s="51"/>
       <c r="J254" s="13"/>
     </row>
     <row r="255" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11428,9 +11386,9 @@
       <c r="D255" s="1"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
-      <c r="G255" s="40"/>
+      <c r="G255" s="39"/>
       <c r="H255" s="3"/>
-      <c r="I255" s="52"/>
+      <c r="I255" s="51"/>
       <c r="J255" s="13"/>
     </row>
     <row r="256" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11440,9 +11398,9 @@
       <c r="D256" s="1"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
-      <c r="G256" s="40"/>
+      <c r="G256" s="39"/>
       <c r="H256" s="3"/>
-      <c r="I256" s="52"/>
+      <c r="I256" s="51"/>
       <c r="J256" s="13"/>
     </row>
     <row r="257" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11452,9 +11410,9 @@
       <c r="D257" s="1"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
-      <c r="G257" s="40"/>
+      <c r="G257" s="39"/>
       <c r="H257" s="3"/>
-      <c r="I257" s="52"/>
+      <c r="I257" s="51"/>
       <c r="J257" s="13"/>
     </row>
     <row r="258" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11464,9 +11422,9 @@
       <c r="D258" s="1"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
-      <c r="G258" s="40"/>
+      <c r="G258" s="39"/>
       <c r="H258" s="3"/>
-      <c r="I258" s="52"/>
+      <c r="I258" s="51"/>
       <c r="J258" s="13"/>
     </row>
   </sheetData>

--- a/data/judo_therapy/data.xlsx
+++ b/data/judo_therapy/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="724">
   <si>
     <t>087-868-4722</t>
     <phoneticPr fontId="1"/>
@@ -4723,6 +4723,14 @@
     <rPh sb="3" eb="5">
       <t>ノリアキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イノハナセッコツイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アサヒシンキュウセッコツイン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5320,11 +5328,11 @@
   <dimension ref="A1:J258"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="S11" sqref="S11:S413"/>
       <selection pane="topRight" activeCell="S11" sqref="S11:S413"/>
       <selection pane="bottomLeft" activeCell="S11" sqref="S11:S413"/>
-      <selection pane="bottomRight" activeCell="M6" sqref="M6"/>
+      <selection pane="bottomRight" activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5858,7 +5866,9 @@
       <c r="B17" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="C17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>722</v>
+      </c>
       <c r="D17" s="8" t="s">
         <v>721</v>
       </c>
@@ -10420,7 +10430,9 @@
       <c r="B162" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="C162" s="2"/>
+      <c r="C162" s="2" t="s">
+        <v>723</v>
+      </c>
       <c r="D162" s="8" t="s">
         <v>371</v>
       </c>

--- a/data/judo_therapy/data.xlsx
+++ b/data/judo_therapy/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\51481\Desktop\オープンデータ\柔整（0113分）\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\51481\Desktop\オープンデータ\柔整（0113）\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,8 +15,8 @@
     <sheet name="柔　整" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'柔　整'!$A$1:$J$166</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'柔　整'!$A$1:$J$166</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'柔　整'!$A$1:$J$168</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'柔　整'!$A$1:$J$168</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'柔　整'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="734">
   <si>
     <t>087-868-4722</t>
     <phoneticPr fontId="1"/>
@@ -4731,6 +4731,109 @@
   </si>
   <si>
     <t>アサヒシンキュウセッコツイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かつ接骨院</t>
+    <rPh sb="2" eb="5">
+      <t>セッコツイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香川県高松市福岡町2丁目27-18</t>
+    <rPh sb="0" eb="3">
+      <t>カガワケン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>タカマツシ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>フクオカチョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>チョウメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>080-3167-3377</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>株式会社かつ接骨院</t>
+    <rPh sb="0" eb="4">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>セッコツイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>塩上三接骨院</t>
+    <rPh sb="0" eb="1">
+      <t>シオ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>セッコツイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サンサンセッコツイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シオガミサンセッコツイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梶本　泰良</t>
+    <rPh sb="0" eb="2">
+      <t>カジモト</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤスシ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>070-5356-3869</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香川県高松市塩上町三丁目13番8号</t>
+    <rPh sb="0" eb="3">
+      <t>カガワケン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>タカマツシ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シオガミ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チョウ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>サンチョウメ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ゴウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -4862,7 +4965,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -5016,6 +5119,9 @@
     </xf>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5324,15 +5430,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="36"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J258"/>
+  <dimension ref="A1:J260"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="S11" sqref="S11:S413"/>
       <selection pane="topRight" activeCell="S11" sqref="S11:S413"/>
       <selection pane="bottomLeft" activeCell="S11" sqref="S11:S413"/>
-      <selection pane="bottomRight" activeCell="C162" sqref="C162"/>
+      <selection pane="bottomRight" activeCell="B165" sqref="B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6326,127 +6433,125 @@
       </c>
       <c r="J31" s="21"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>425</v>
-      </c>
-      <c r="E32" s="7">
-        <v>34.338174000000002</v>
-      </c>
-      <c r="F32" s="7">
-        <v>134.14005700000001</v>
-      </c>
-      <c r="G32" s="32" t="s">
-        <v>575</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I32" s="45">
-        <v>43160</v>
-      </c>
-      <c r="J32" s="21"/>
+      <c r="B32" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="C32" s="2" t="str">
+        <f>PHONETIC(B32)</f>
+        <v>カツセッコツイン</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>727</v>
+      </c>
+      <c r="E32" s="16">
+        <v>34.343791000000003</v>
+      </c>
+      <c r="F32" s="16">
+        <v>134.06783799999999</v>
+      </c>
+      <c r="G32" s="52" t="s">
+        <v>725</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>726</v>
+      </c>
+      <c r="I32" s="44">
+        <v>45474</v>
+      </c>
+      <c r="J32" s="18"/>
     </row>
     <row r="33" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>66</v>
+      <c r="B33" s="8" t="s">
+        <v>188</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>248</v>
+        <v>425</v>
       </c>
       <c r="E33" s="7">
-        <v>34.305224000000003</v>
+        <v>34.338174000000002</v>
       </c>
       <c r="F33" s="7">
-        <v>133.98398900000001</v>
+        <v>134.14005700000001</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="43">
-        <v>32527</v>
-      </c>
-      <c r="J33" s="20"/>
+        <v>61</v>
+      </c>
+      <c r="I33" s="45">
+        <v>43160</v>
+      </c>
+      <c r="J33" s="21"/>
     </row>
     <row r="34" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" s="2" t="str">
-        <f>PHONETIC(B34)</f>
-        <v>カメダシンキュウセッコツイン</v>
+      <c r="B34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E34" s="40">
-        <v>34.281697999999999</v>
-      </c>
-      <c r="F34" s="40">
-        <v>134.11666600000001</v>
+        <v>248</v>
+      </c>
+      <c r="E34" s="7">
+        <v>34.305224000000003</v>
+      </c>
+      <c r="F34" s="7">
+        <v>133.98398900000001</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="I34" s="43">
-        <v>37557</v>
-      </c>
-      <c r="J34" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>32527</v>
+      </c>
+      <c r="J34" s="20"/>
     </row>
     <row r="35" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="C35" s="2" t="str">
         <f>PHONETIC(B35)</f>
-        <v>カワキタセッコツイン</v>
+        <v>カメダシンキュウセッコツイン</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E35" s="40">
-        <v>34.341287000000001</v>
+        <v>34.281697999999999</v>
       </c>
       <c r="F35" s="40">
-        <v>134.118054</v>
+        <v>134.11666600000001</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I35" s="43">
-        <v>35263</v>
+        <v>37557</v>
       </c>
       <c r="J35" s="18" t="s">
         <v>145</v>
@@ -6457,124 +6562,125 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C36" s="2" t="str">
         <f>PHONETIC(B36)</f>
-        <v>カワニシセッコツイン</v>
+        <v>カワキタセッコツイン</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E36" s="40">
-        <v>34.322454</v>
+        <v>34.341287000000001</v>
       </c>
       <c r="F36" s="40">
-        <v>134.044781</v>
+        <v>134.118054</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="I36" s="43">
-        <v>36242</v>
-      </c>
-      <c r="J36" s="20"/>
+        <v>35263</v>
+      </c>
+      <c r="J36" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="37" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>147</v>
+      <c r="B37" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="2" t="str">
+        <f>PHONETIC(B37)</f>
+        <v>カワニシセッコツイン</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="E37" s="40">
-        <v>34.337274999999998</v>
+        <v>34.322454</v>
       </c>
       <c r="F37" s="40">
-        <v>134.05874700000001</v>
+        <v>134.044781</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="I37" s="43">
-        <v>40634</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>290</v>
-      </c>
+        <v>36242</v>
+      </c>
+      <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="C38" s="2" t="str">
-        <f>PHONETIC(B38)</f>
-        <v>カワバタ整骨院</v>
+      <c r="B38" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="E38" s="40">
-        <v>34.347489000000003</v>
+        <v>34.337274999999998</v>
       </c>
       <c r="F38" s="40">
-        <v>134.027986</v>
+        <v>134.05874700000001</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>166</v>
+        <v>2</v>
       </c>
       <c r="I38" s="43">
-        <v>40465</v>
+        <v>40634</v>
       </c>
       <c r="J38" s="20" t="s">
-        <v>145</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>516</v>
+      <c r="B39" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="C39" s="2" t="str">
+        <f>PHONETIC(B39)</f>
+        <v>カワバタ整骨院</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>391</v>
+        <v>279</v>
       </c>
       <c r="E39" s="40">
-        <v>34.290933000000003</v>
+        <v>34.347489000000003</v>
       </c>
       <c r="F39" s="40">
-        <v>134.09554900000001</v>
+        <v>134.027986</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>390</v>
+        <v>166</v>
       </c>
       <c r="I39" s="43">
-        <v>44682</v>
+        <v>40465</v>
       </c>
       <c r="J39" s="20" t="s">
         <v>145</v>
@@ -6585,28 +6691,28 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>453</v>
+        <v>389</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>454</v>
+        <v>391</v>
       </c>
       <c r="E40" s="40">
-        <v>34.326923000000001</v>
+        <v>34.290933000000003</v>
       </c>
       <c r="F40" s="40">
-        <v>134.07030399999999</v>
+        <v>134.09554900000001</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>455</v>
+        <v>390</v>
       </c>
       <c r="I40" s="43">
-        <v>44197</v>
+        <v>44682</v>
       </c>
       <c r="J40" s="20" t="s">
         <v>145</v>
@@ -6617,58 +6723,60 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>155</v>
+        <v>453</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>156</v>
+        <v>517</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>249</v>
+        <v>454</v>
       </c>
       <c r="E41" s="40">
-        <v>34.333646000000002</v>
+        <v>34.326923000000001</v>
       </c>
       <c r="F41" s="40">
-        <v>134.07745299999999</v>
+        <v>134.07030399999999</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>180</v>
+        <v>455</v>
       </c>
       <c r="I41" s="43">
-        <v>40664</v>
-      </c>
-      <c r="J41" s="20"/>
+        <v>44197</v>
+      </c>
+      <c r="J41" s="20" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="42" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>443</v>
+        <v>155</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>518</v>
+        <v>156</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>444</v>
+        <v>249</v>
       </c>
       <c r="E42" s="40">
-        <v>34.350360999999999</v>
+        <v>34.333646000000002</v>
       </c>
       <c r="F42" s="40">
-        <v>133.997266</v>
+        <v>134.07745299999999</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>445</v>
+        <v>180</v>
       </c>
       <c r="I42" s="43">
-        <v>43721</v>
+        <v>40664</v>
       </c>
       <c r="J42" s="20"/>
     </row>
@@ -6676,30 +6784,29 @@
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C43" s="2" t="str">
-        <f t="shared" ref="C43:C50" si="0">PHONETIC(B43)</f>
-        <v>クニカタセッコツイン</v>
+      <c r="B43" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>518</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>251</v>
+        <v>444</v>
       </c>
       <c r="E43" s="40">
-        <v>34.284745000000001</v>
+        <v>34.350360999999999</v>
       </c>
       <c r="F43" s="40">
-        <v>134.02856199999999</v>
+        <v>133.997266</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>5</v>
+        <v>445</v>
       </c>
       <c r="I43" s="43">
-        <v>33394</v>
+        <v>43721</v>
       </c>
       <c r="J43" s="20"/>
     </row>
@@ -6707,94 +6814,94 @@
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="28" t="s">
-        <v>196</v>
+      <c r="B44" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>クボシンキュウセッコツイン</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="E44" s="41">
-        <v>34.340418</v>
-      </c>
-      <c r="F44" s="41">
-        <v>134.01149899999999</v>
+        <f t="shared" ref="C44:C51" si="0">PHONETIC(B44)</f>
+        <v>クニカタセッコツイン</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E44" s="40">
+        <v>34.284745000000001</v>
+      </c>
+      <c r="F44" s="40">
+        <v>134.02856199999999</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>587</v>
-      </c>
-      <c r="H44" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="I44" s="46">
-        <v>40004</v>
-      </c>
-      <c r="J44" s="20" t="s">
-        <v>145</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="H44" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I44" s="43">
+        <v>33394</v>
+      </c>
+      <c r="J44" s="20"/>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>98</v>
+      <c r="B45" s="28" t="s">
+        <v>196</v>
       </c>
       <c r="C45" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>クボセッコツイン</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="E45" s="40">
-        <v>34.324649000000001</v>
-      </c>
-      <c r="F45" s="40">
-        <v>134.07858100000001</v>
+        <v>クボシンキュウセッコツイン</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="E45" s="41">
+        <v>34.340418</v>
+      </c>
+      <c r="F45" s="41">
+        <v>134.01149899999999</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>588</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I45" s="43">
-        <v>36434</v>
-      </c>
-      <c r="J45" s="20"/>
+        <v>587</v>
+      </c>
+      <c r="H45" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="I45" s="46">
+        <v>40004</v>
+      </c>
+      <c r="J45" s="20" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>437</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>ケンセイコツイン</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>438</v>
+        <v>クボセッコツイン</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="E46" s="40">
-        <v>34.297524000000003</v>
+        <v>34.324649000000001</v>
       </c>
       <c r="F46" s="40">
-        <v>134.089235</v>
+        <v>134.07858100000001</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>439</v>
+        <v>35</v>
       </c>
       <c r="I46" s="43">
-        <v>43657</v>
+        <v>36434</v>
       </c>
       <c r="J46" s="20"/>
     </row>
@@ -6803,29 +6910,29 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>70</v>
+        <v>437</v>
       </c>
       <c r="C47" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>コウザイセッコツイン</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>253</v>
+        <v>ケンセイコツイン</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="E47" s="40">
-        <v>34.342058000000002</v>
+        <v>34.297524000000003</v>
       </c>
       <c r="F47" s="40">
-        <v>134.06948600000001</v>
+        <v>134.089235</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>7</v>
+        <v>439</v>
       </c>
       <c r="I47" s="43">
-        <v>29647</v>
+        <v>43657</v>
       </c>
       <c r="J47" s="20"/>
     </row>
@@ -6841,22 +6948,22 @@
         <v>コウザイセッコツイン</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="E48" s="40">
-        <v>34.350304999999999</v>
+        <v>34.342058000000002</v>
       </c>
       <c r="F48" s="40">
-        <v>133.99323899999999</v>
+        <v>134.06948600000001</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="I48" s="43">
-        <v>41365</v>
+        <v>29647</v>
       </c>
       <c r="J48" s="20"/>
     </row>
@@ -6865,29 +6972,29 @@
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>446</v>
+        <v>70</v>
       </c>
       <c r="C49" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>コクブンジセイコツイン</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>447</v>
+        <v>コウザイセッコツイン</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="E49" s="40">
-        <v>34.301029</v>
+        <v>34.350304999999999</v>
       </c>
       <c r="F49" s="40">
-        <v>133.96772100000001</v>
+        <v>133.99323899999999</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>448</v>
+        <v>41</v>
       </c>
       <c r="I49" s="43">
-        <v>43837</v>
+        <v>41365</v>
       </c>
       <c r="J49" s="20"/>
     </row>
@@ -6896,29 +7003,29 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>69</v>
+        <v>446</v>
       </c>
       <c r="C50" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>コジマセッコツイン</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>255</v>
+        <v>コクブンジセイコツイン</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>447</v>
       </c>
       <c r="E50" s="40">
-        <v>34.329093</v>
+        <v>34.301029</v>
       </c>
       <c r="F50" s="40">
-        <v>134.06385700000001</v>
+        <v>133.96772100000001</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>6</v>
+        <v>448</v>
       </c>
       <c r="I50" s="43">
-        <v>29342</v>
+        <v>43837</v>
       </c>
       <c r="J50" s="20"/>
     </row>
@@ -6927,61 +7034,61 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>150</v>
+        <v>69</v>
+      </c>
+      <c r="C51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>コジマセッコツイン</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>116</v>
+        <v>255</v>
       </c>
       <c r="E51" s="40">
-        <v>34.240267000000003</v>
+        <v>34.329093</v>
       </c>
       <c r="F51" s="40">
-        <v>134.01641499999999</v>
+        <v>134.06385700000001</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I51" s="45">
-        <v>36434</v>
-      </c>
-      <c r="J51" s="21"/>
+        <v>6</v>
+      </c>
+      <c r="I51" s="43">
+        <v>29342</v>
+      </c>
+      <c r="J51" s="20"/>
     </row>
     <row r="52" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C52" s="2" t="str">
-        <f t="shared" ref="C52:C58" si="1">PHONETIC(B52)</f>
-        <v>ササキセッコツイン</v>
+        <v>115</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>256</v>
+        <v>116</v>
       </c>
       <c r="E52" s="40">
-        <v>34.277875000000002</v>
+        <v>34.240267000000003</v>
       </c>
       <c r="F52" s="40">
-        <v>134.10302899999999</v>
+        <v>134.01641499999999</v>
       </c>
       <c r="G52" s="32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I52" s="43">
-        <v>34186</v>
-      </c>
-      <c r="J52" s="20"/>
+        <v>52</v>
+      </c>
+      <c r="I52" s="45">
+        <v>36434</v>
+      </c>
+      <c r="J52" s="21"/>
     </row>
     <row r="53" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
@@ -6991,219 +7098,216 @@
         <v>72</v>
       </c>
       <c r="C53" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C53:C60" si="1">PHONETIC(B53)</f>
         <v>ササキセッコツイン</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>464</v>
+        <v>256</v>
       </c>
       <c r="E53" s="40">
-        <v>34.344237</v>
+        <v>34.277875000000002</v>
       </c>
       <c r="F53" s="40">
-        <v>134.069649</v>
+        <v>134.10302899999999</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I53" s="43">
-        <v>44562</v>
-      </c>
-      <c r="J53" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>34186</v>
+      </c>
+      <c r="J53" s="20"/>
     </row>
     <row r="54" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>362</v>
+        <v>72</v>
       </c>
       <c r="C54" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>サンサン接骨院</v>
+        <v>ササキセッコツイン</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>363</v>
+        <v>464</v>
       </c>
       <c r="E54" s="40">
-        <v>34.334299000000001</v>
+        <v>34.344237</v>
       </c>
       <c r="F54" s="40">
-        <v>134.04808499999999</v>
+        <v>134.069649</v>
       </c>
       <c r="G54" s="32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>364</v>
+        <v>10</v>
       </c>
       <c r="I54" s="43">
-        <v>42242</v>
-      </c>
-      <c r="J54" s="18"/>
+        <v>44562</v>
+      </c>
+      <c r="J54" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="55" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C55" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>シチジョウセッコツイン</v>
+        <v>362</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>729</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>257</v>
+        <v>363</v>
       </c>
       <c r="E55" s="40">
-        <v>34.282964999999997</v>
+        <v>34.334299000000001</v>
       </c>
       <c r="F55" s="40">
-        <v>134.02371299999999</v>
+        <v>134.04808499999999</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>11</v>
+        <v>364</v>
       </c>
       <c r="I55" s="43">
-        <v>32907</v>
-      </c>
-      <c r="J55" s="20"/>
-    </row>
-    <row r="56" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42242</v>
+      </c>
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56" spans="1:10" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C56" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>シノミヤセッコツイン</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>413</v>
-      </c>
-      <c r="E56" s="40">
-        <v>34.346981999999997</v>
-      </c>
-      <c r="F56" s="40">
-        <v>134.001351</v>
-      </c>
-      <c r="G56" s="32" t="s">
-        <v>599</v>
-      </c>
-      <c r="H56" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I56" s="43">
-        <v>28496</v>
-      </c>
-      <c r="J56" s="20" t="s">
-        <v>145</v>
-      </c>
+      <c r="B56" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="E56" s="16">
+        <v>34.338890999999997</v>
+      </c>
+      <c r="F56" s="16">
+        <v>134.05840599999999</v>
+      </c>
+      <c r="G56" s="52" t="s">
+        <v>733</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="I56" s="44">
+        <v>45460</v>
+      </c>
+      <c r="J56" s="18"/>
     </row>
     <row r="57" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>393</v>
+        <v>178</v>
       </c>
       <c r="C57" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>シミズセッコツイン</v>
+        <v>シチジョウセッコツイン</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>394</v>
+        <v>257</v>
       </c>
       <c r="E57" s="40">
-        <v>34.311008000000001</v>
+        <v>34.282964999999997</v>
       </c>
       <c r="F57" s="40">
-        <v>134.04754500000001</v>
+        <v>134.02371299999999</v>
       </c>
       <c r="G57" s="32" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="H57" s="7" t="s">
-        <v>395</v>
+        <v>11</v>
       </c>
       <c r="I57" s="43">
-        <v>42899</v>
-      </c>
-      <c r="J57" s="20" t="s">
-        <v>145</v>
-      </c>
+        <v>32907</v>
+      </c>
+      <c r="J57" s="20"/>
     </row>
     <row r="58" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>276</v>
+        <v>73</v>
       </c>
       <c r="C58" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>シモエノオセイコツイン</v>
+        <v>シノミヤセッコツイン</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>277</v>
+        <v>413</v>
       </c>
       <c r="E58" s="40">
-        <v>34.262625</v>
+        <v>34.346981999999997</v>
       </c>
       <c r="F58" s="40">
-        <v>134.024652</v>
+        <v>134.001351</v>
       </c>
       <c r="G58" s="32" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>278</v>
+        <v>12</v>
       </c>
       <c r="I58" s="43">
-        <v>42887</v>
-      </c>
-      <c r="J58" s="21"/>
+        <v>28496</v>
+      </c>
+      <c r="J58" s="20" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="59" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>149</v>
+        <v>393</v>
+      </c>
+      <c r="C59" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>シミズセッコツイン</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>254</v>
+        <v>394</v>
       </c>
       <c r="E59" s="40">
-        <v>34.337761999999998</v>
+        <v>34.311008000000001</v>
       </c>
       <c r="F59" s="40">
-        <v>134.04435699999999</v>
+        <v>134.04754500000001</v>
       </c>
       <c r="G59" s="32" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>1</v>
+        <v>395</v>
       </c>
       <c r="I59" s="43">
-        <v>38322</v>
-      </c>
-      <c r="J59" s="18" t="s">
+        <v>42899</v>
+      </c>
+      <c r="J59" s="20" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7212,29 +7316,29 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>118</v>
+        <v>276</v>
       </c>
       <c r="C60" s="2" t="str">
-        <f>PHONETIC(B60)</f>
-        <v>ショウジ セッコツイン</v>
+        <f t="shared" si="1"/>
+        <v>シモエノオセイコツイン</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="E60" s="40">
-        <v>34.269897</v>
+        <v>34.262625</v>
       </c>
       <c r="F60" s="40">
-        <v>134.03004899999999</v>
+        <v>134.024652</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>54</v>
+        <v>278</v>
       </c>
       <c r="I60" s="43">
-        <v>33549</v>
+        <v>42887</v>
       </c>
       <c r="J60" s="21"/>
     </row>
@@ -7243,124 +7347,122 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>449</v>
+        <v>106</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>519</v>
+        <v>149</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>450</v>
+        <v>254</v>
       </c>
       <c r="E61" s="40">
-        <v>34.269686</v>
+        <v>34.337761999999998</v>
       </c>
       <c r="F61" s="40">
-        <v>134.03456399999999</v>
+        <v>134.04435699999999</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="I61" s="43">
-        <v>44013</v>
-      </c>
-      <c r="J61" s="18"/>
+        <v>38322</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="62" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C62" s="2" t="str">
         <f>PHONETIC(B62)</f>
-        <v>スエザワセッコツイン</v>
+        <v>ショウジ セッコツイン</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>112</v>
+        <v>258</v>
       </c>
       <c r="E62" s="40">
-        <v>34.293765</v>
+        <v>34.269897</v>
       </c>
       <c r="F62" s="40">
-        <v>133.964755</v>
+        <v>134.03004899999999</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="I62" s="43">
-        <v>33567</v>
-      </c>
-      <c r="J62" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>33549</v>
+      </c>
+      <c r="J62" s="21"/>
     </row>
     <row r="63" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C63" s="2" t="str">
-        <f>PHONETIC(B63)</f>
-        <v>スコヤカシンキュウセイコツイン</v>
+        <v>449</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>519</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>128</v>
+        <v>450</v>
       </c>
       <c r="E63" s="40">
-        <v>34.350797</v>
+        <v>34.269686</v>
       </c>
       <c r="F63" s="40">
-        <v>134.088661</v>
+        <v>134.03456399999999</v>
       </c>
       <c r="G63" s="32" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>60</v>
+        <v>451</v>
       </c>
       <c r="I63" s="43">
-        <v>39412</v>
-      </c>
-      <c r="J63" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>44013</v>
+      </c>
+      <c r="J63" s="18"/>
     </row>
     <row r="64" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>520</v>
+        <v>111</v>
+      </c>
+      <c r="C64" s="2" t="str">
+        <f>PHONETIC(B64)</f>
+        <v>スエザワセッコツイン</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>434</v>
+        <v>112</v>
       </c>
       <c r="E64" s="40">
-        <v>34.348706999999997</v>
+        <v>34.293765</v>
       </c>
       <c r="F64" s="40">
-        <v>134.01070899999999</v>
+        <v>133.964755</v>
       </c>
       <c r="G64" s="32" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>435</v>
+        <v>49</v>
       </c>
       <c r="I64" s="43">
-        <v>20504</v>
+        <v>33567</v>
       </c>
       <c r="J64" s="18" t="s">
         <v>145</v>
@@ -7371,29 +7473,29 @@
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>74</v>
+        <v>165</v>
       </c>
       <c r="C65" s="2" t="str">
         <f>PHONETIC(B65)</f>
-        <v>スナガワセッコツイン</v>
+        <v>スコヤカシンキュウセイコツイン</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>259</v>
+        <v>128</v>
       </c>
       <c r="E65" s="40">
-        <v>34.335113</v>
+        <v>34.350797</v>
       </c>
       <c r="F65" s="40">
-        <v>134.07334599999999</v>
+        <v>134.088661</v>
       </c>
       <c r="G65" s="32" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="I65" s="43">
-        <v>32300</v>
+        <v>39412</v>
       </c>
       <c r="J65" s="18" t="s">
         <v>145</v>
@@ -7404,29 +7506,28 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C66" s="2" t="str">
-        <f>PHONETIC(B66)</f>
-        <v>セッコツインnavi</v>
+        <v>433</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>520</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>201</v>
+        <v>434</v>
       </c>
       <c r="E66" s="40">
-        <v>34.311416999999999</v>
+        <v>34.348706999999997</v>
       </c>
       <c r="F66" s="40">
-        <v>134.04428100000001</v>
+        <v>134.01070899999999</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>203</v>
+        <v>435</v>
       </c>
       <c r="I66" s="43">
-        <v>42879</v>
+        <v>20504</v>
       </c>
       <c r="J66" s="18" t="s">
         <v>145</v>
@@ -7437,152 +7538,153 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>426</v>
+        <v>74</v>
       </c>
       <c r="C67" s="2" t="str">
         <f>PHONETIC(B67)</f>
-        <v>セッコツインネスト</v>
+        <v>スナガワセッコツイン</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>427</v>
+        <v>259</v>
       </c>
       <c r="E67" s="40">
-        <v>34.308320999999999</v>
+        <v>34.335113</v>
       </c>
       <c r="F67" s="40">
-        <v>134.063761</v>
+        <v>134.07334599999999</v>
       </c>
       <c r="G67" s="32" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>428</v>
+        <v>13</v>
       </c>
       <c r="I67" s="43">
-        <v>43160</v>
-      </c>
-      <c r="J67" s="18"/>
+        <v>32300</v>
+      </c>
+      <c r="J67" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="68" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>521</v>
+        <v>200</v>
+      </c>
+      <c r="C68" s="2" t="str">
+        <f>PHONETIC(B68)</f>
+        <v>セッコツインnavi</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>329</v>
+        <v>201</v>
       </c>
       <c r="E68" s="40">
-        <v>34.320202999999999</v>
+        <v>34.311416999999999</v>
       </c>
       <c r="F68" s="40">
-        <v>134.05831900000001</v>
+        <v>134.04428100000001</v>
       </c>
       <c r="G68" s="32" t="s">
-        <v>611</v>
-      </c>
-      <c r="H68" s="7"/>
+        <v>609</v>
+      </c>
+      <c r="H68" s="7" t="s">
+        <v>203</v>
+      </c>
       <c r="I68" s="43">
-        <v>41588</v>
-      </c>
-      <c r="J68" s="21"/>
+        <v>42879</v>
+      </c>
+      <c r="J68" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="69" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>469</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>470</v>
+        <v>426</v>
+      </c>
+      <c r="C69" s="2" t="str">
+        <f>PHONETIC(B69)</f>
+        <v>セッコツインネスト</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
       <c r="E69" s="40">
-        <v>34.329731000000002</v>
+        <v>34.308320999999999</v>
       </c>
       <c r="F69" s="40">
-        <v>134.06224700000001</v>
+        <v>134.063761</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>473</v>
+        <v>428</v>
       </c>
       <c r="I69" s="43">
-        <v>44670</v>
-      </c>
-      <c r="J69" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>43160</v>
+      </c>
+      <c r="J69" s="18"/>
     </row>
     <row r="70" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70" s="2" t="str">
-        <f>PHONETIC(B70)</f>
-        <v>タイラセッコツイン</v>
+        <v>328</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>521</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>260</v>
+        <v>329</v>
       </c>
       <c r="E70" s="40">
-        <v>34.321541000000003</v>
+        <v>34.320202999999999</v>
       </c>
       <c r="F70" s="40">
-        <v>134.06281799999999</v>
+        <v>134.05831900000001</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>613</v>
-      </c>
-      <c r="H70" s="7" t="s">
-        <v>33</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="H70" s="7"/>
       <c r="I70" s="43">
-        <v>36194</v>
-      </c>
-      <c r="J70" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>41588</v>
+      </c>
+      <c r="J70" s="21"/>
     </row>
     <row r="71" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>365</v>
+        <v>469</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>187</v>
+        <v>472</v>
       </c>
       <c r="E71" s="40">
-        <v>34.333159000000002</v>
+        <v>34.329731000000002</v>
       </c>
       <c r="F71" s="40">
-        <v>134.048125</v>
+        <v>134.06224700000001</v>
       </c>
       <c r="G71" s="32" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="H71" s="7" t="s">
-        <v>369</v>
+        <v>473</v>
       </c>
       <c r="I71" s="43">
-        <v>42319</v>
+        <v>44670</v>
       </c>
       <c r="J71" s="18" t="s">
         <v>145</v>
@@ -7593,32 +7695,32 @@
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>269</v>
+        <v>96</v>
       </c>
       <c r="C72" s="2" t="str">
-        <f t="shared" ref="C72:C85" si="2">PHONETIC(B72)</f>
-        <v>タカシンキュウセッコツイン</v>
+        <f>PHONETIC(B72)</f>
+        <v>タイラセッコツイン</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="E72" s="40">
-        <v>34.311684999999997</v>
+        <v>34.321541000000003</v>
       </c>
       <c r="F72" s="40">
-        <v>134.057176</v>
+        <v>134.06281799999999</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>271</v>
+        <v>33</v>
       </c>
       <c r="I72" s="43">
-        <v>40299</v>
+        <v>36194</v>
       </c>
       <c r="J72" s="18" t="s">
-        <v>272</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7626,63 +7728,64 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C73" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>タカハシセッコツイン</v>
+        <v>365</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>471</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>261</v>
+        <v>187</v>
       </c>
       <c r="E73" s="40">
-        <v>34.331446</v>
+        <v>34.333159000000002</v>
       </c>
       <c r="F73" s="40">
-        <v>134.04839899999999</v>
+        <v>134.048125</v>
       </c>
       <c r="G73" s="32" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="I73" s="43">
-        <v>42156</v>
-      </c>
-      <c r="J73" s="20"/>
+        <v>42319</v>
+      </c>
+      <c r="J73" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="74" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>109</v>
+        <v>269</v>
       </c>
       <c r="C74" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>タカマツクアセッコツイン</v>
+        <f t="shared" ref="C74:C87" si="2">PHONETIC(B74)</f>
+        <v>タカシンキュウセッコツイン</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>110</v>
+        <v>270</v>
       </c>
       <c r="E74" s="40">
-        <v>34.343364000000001</v>
+        <v>34.311684999999997</v>
       </c>
       <c r="F74" s="40">
-        <v>134.00131099999999</v>
+        <v>134.057176</v>
       </c>
       <c r="G74" s="32" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>136</v>
+        <v>271</v>
       </c>
       <c r="I74" s="43">
-        <v>38443</v>
+        <v>40299</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>145</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7690,62 +7793,60 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>484</v>
+        <v>75</v>
       </c>
       <c r="C75" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>タカマツサカグチシンキュウセイコツイン オオタイン</v>
+        <v>タカハシセッコツイン</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>485</v>
+        <v>261</v>
       </c>
       <c r="E75" s="40">
-        <v>34.309077000000002</v>
+        <v>34.331446</v>
       </c>
       <c r="F75" s="40">
-        <v>134.04403099999999</v>
+        <v>134.04839899999999</v>
       </c>
       <c r="G75" s="32" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>486</v>
+        <v>356</v>
       </c>
       <c r="I75" s="43">
-        <v>44900</v>
-      </c>
-      <c r="J75" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>42156</v>
+      </c>
+      <c r="J75" s="20"/>
     </row>
     <row r="76" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>304</v>
+        <v>109</v>
       </c>
       <c r="C76" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>タカマツスマイルシンキュウセイコツイン</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>305</v>
+        <v>タカマツクアセッコツイン</v>
+      </c>
+      <c r="D76" s="8" t="s">
+        <v>110</v>
       </c>
       <c r="E76" s="40">
-        <v>34.244188000000001</v>
+        <v>34.343364000000001</v>
       </c>
       <c r="F76" s="40">
-        <v>134.08440300000001</v>
+        <v>134.00131099999999</v>
       </c>
       <c r="G76" s="32" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>306</v>
+        <v>136</v>
       </c>
       <c r="I76" s="43">
-        <v>40898</v>
+        <v>38443</v>
       </c>
       <c r="J76" s="18" t="s">
         <v>145</v>
@@ -7756,29 +7857,29 @@
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>76</v>
+        <v>484</v>
       </c>
       <c r="C77" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>タカマツセイコツイン</v>
+        <v>タカマツサカグチシンキュウセイコツイン オオタイン</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>213</v>
+        <v>485</v>
       </c>
       <c r="E77" s="40">
-        <v>34.341887999999997</v>
+        <v>34.309077000000002</v>
       </c>
       <c r="F77" s="40">
-        <v>134.03182899999999</v>
+        <v>134.04403099999999</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>14</v>
+        <v>486</v>
       </c>
       <c r="I77" s="43">
-        <v>33547</v>
+        <v>44900</v>
       </c>
       <c r="J77" s="18" t="s">
         <v>145</v>
@@ -7789,190 +7890,192 @@
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>77</v>
+        <v>304</v>
       </c>
       <c r="C78" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>タキガワセジュツショ</v>
-      </c>
-      <c r="D78" s="8" t="s">
-        <v>204</v>
+        <v>タカマツスマイルシンキュウセイコツイン</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="E78" s="40">
-        <v>34.340279000000002</v>
+        <v>34.244188000000001</v>
       </c>
       <c r="F78" s="40">
-        <v>134.05004099999999</v>
+        <v>134.08440300000001</v>
       </c>
       <c r="G78" s="32" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>15</v>
+        <v>306</v>
       </c>
       <c r="I78" s="43">
-        <v>25628</v>
-      </c>
-      <c r="J78" s="20"/>
+        <v>40898</v>
+      </c>
+      <c r="J78" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="79" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="C79" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>タケウエセッコツイン</v>
+        <v>タカマツセイコツイン</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="E79" s="40">
-        <v>34.345371</v>
+        <v>34.341887999999997</v>
       </c>
       <c r="F79" s="40">
-        <v>134.12071700000001</v>
+        <v>134.03182899999999</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I79" s="45">
-        <v>30972</v>
-      </c>
-      <c r="J79" s="21"/>
+        <v>14</v>
+      </c>
+      <c r="I79" s="43">
+        <v>33547</v>
+      </c>
+      <c r="J79" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="80" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="C80" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>タケウエセッコツイン</v>
+        <v>タキガワセジュツショ</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E80" s="40">
-        <v>34.344211000000001</v>
+        <v>34.340279000000002</v>
       </c>
       <c r="F80" s="40">
-        <v>134.13830799999999</v>
+        <v>134.05004099999999</v>
       </c>
       <c r="G80" s="32" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="I80" s="45">
-        <v>37347</v>
-      </c>
-      <c r="J80" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I80" s="43">
+        <v>25628</v>
+      </c>
+      <c r="J80" s="20"/>
     </row>
     <row r="81" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C81" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>タケダセッコツイン</v>
+        <v>タケウエセッコツイン</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>127</v>
+        <v>205</v>
       </c>
       <c r="E81" s="40">
-        <v>34.302152</v>
+        <v>34.345371</v>
       </c>
       <c r="F81" s="40">
-        <v>134.041696</v>
+        <v>134.12071700000001</v>
       </c>
       <c r="G81" s="32" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I81" s="43">
-        <v>42461</v>
-      </c>
-      <c r="J81" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="I81" s="45">
+        <v>30972</v>
+      </c>
+      <c r="J81" s="21"/>
     </row>
     <row r="82" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>396</v>
+        <v>113</v>
       </c>
       <c r="C82" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>タダセッコツイン</v>
+        <v>タケウエセッコツイン</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>397</v>
+        <v>206</v>
       </c>
       <c r="E82" s="40">
-        <v>34.337648000000002</v>
+        <v>34.344211000000001</v>
       </c>
       <c r="F82" s="40">
-        <v>134.063039</v>
+        <v>134.13830799999999</v>
       </c>
       <c r="G82" s="32" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="I82" s="43">
-        <v>42919</v>
-      </c>
-      <c r="J82" s="18"/>
+        <v>174</v>
+      </c>
+      <c r="I82" s="45">
+        <v>37347</v>
+      </c>
+      <c r="J82" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="83" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>713</v>
+        <v>126</v>
       </c>
       <c r="C83" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>タテモトセッコツイン</v>
+        <v>タケダセッコツイン</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>714</v>
+        <v>127</v>
       </c>
       <c r="E83" s="40">
-        <v>34.344265999999998</v>
+        <v>34.302152</v>
       </c>
       <c r="F83" s="40">
-        <v>134.03674100000001</v>
+        <v>134.041696</v>
       </c>
       <c r="G83" s="32" t="s">
-        <v>715</v>
-      </c>
-      <c r="H83" s="40" t="s">
-        <v>716</v>
+        <v>624</v>
+      </c>
+      <c r="H83" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="I83" s="43">
-        <v>45442</v>
-      </c>
-      <c r="J83" s="21" t="s">
+        <v>42461</v>
+      </c>
+      <c r="J83" s="18" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7981,152 +8084,158 @@
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>184</v>
+        <v>396</v>
       </c>
       <c r="C84" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>タナカシンキュウセイコツイン</v>
+        <v>タダセッコツイン</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>185</v>
+        <v>397</v>
       </c>
       <c r="E84" s="40">
-        <v>34.337577000000003</v>
+        <v>34.337648000000002</v>
       </c>
       <c r="F84" s="40">
-        <v>134.062974</v>
+        <v>134.063039</v>
       </c>
       <c r="G84" s="32" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>186</v>
+        <v>398</v>
       </c>
       <c r="I84" s="43">
-        <v>39772</v>
-      </c>
-      <c r="J84" s="21" t="s">
-        <v>145</v>
-      </c>
+        <v>42919</v>
+      </c>
+      <c r="J84" s="18"/>
     </row>
     <row r="85" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>294</v>
+      <c r="B85" s="8" t="s">
+        <v>713</v>
       </c>
       <c r="C85" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>チクゴシンキュウセイコツイン</v>
+        <v>タテモトセッコツイン</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>295</v>
+        <v>714</v>
       </c>
       <c r="E85" s="40">
-        <v>34.323653</v>
+        <v>34.344265999999998</v>
       </c>
       <c r="F85" s="40">
-        <v>134.072329</v>
+        <v>134.03674100000001</v>
       </c>
       <c r="G85" s="32" t="s">
-        <v>627</v>
-      </c>
-      <c r="H85" s="7" t="s">
-        <v>296</v>
+        <v>715</v>
+      </c>
+      <c r="H85" s="40" t="s">
+        <v>716</v>
       </c>
       <c r="I85" s="43">
-        <v>40749</v>
-      </c>
-      <c r="J85" s="20" t="s">
-        <v>297</v>
+        <v>45442</v>
+      </c>
+      <c r="J85" s="21" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
-      <c r="B86" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>493</v>
+      <c r="B86" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="C86" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>タナカシンキュウセイコツイン</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>494</v>
+        <v>185</v>
       </c>
       <c r="E86" s="40">
-        <v>34.338791999999998</v>
+        <v>34.337577000000003</v>
       </c>
       <c r="F86" s="40">
-        <v>134.04852399999999</v>
+        <v>134.062974</v>
       </c>
       <c r="G86" s="32" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="H86" s="7" t="s">
-        <v>495</v>
+        <v>186</v>
       </c>
       <c r="I86" s="43">
-        <v>45056</v>
-      </c>
-      <c r="J86" s="20"/>
+        <v>39772</v>
+      </c>
+      <c r="J86" s="21" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="87" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>522</v>
+        <v>294</v>
+      </c>
+      <c r="C87" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>チクゴシンキュウセイコツイン</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>504</v>
+        <v>295</v>
       </c>
       <c r="E87" s="40">
-        <v>34.315911</v>
+        <v>34.323653</v>
       </c>
       <c r="F87" s="40">
-        <v>134.03908799999999</v>
+        <v>134.072329</v>
       </c>
       <c r="G87" s="32" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>505</v>
+        <v>296</v>
       </c>
       <c r="I87" s="43">
-        <v>45352</v>
-      </c>
-      <c r="J87" s="20"/>
+        <v>40749</v>
+      </c>
+      <c r="J87" s="20" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="88" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>87</v>
       </c>
-      <c r="B88" s="8" t="s">
-        <v>346</v>
+      <c r="B88" s="2" t="s">
+        <v>492</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>523</v>
+        <v>493</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>347</v>
+        <v>494</v>
       </c>
       <c r="E88" s="40">
-        <v>34.321258999999998</v>
+        <v>34.338791999999998</v>
       </c>
       <c r="F88" s="40">
-        <v>134.04483400000001</v>
+        <v>134.04852399999999</v>
       </c>
       <c r="G88" s="32" t="s">
-        <v>630</v>
-      </c>
-      <c r="H88" s="7"/>
-      <c r="I88" s="45">
-        <v>42009</v>
+        <v>628</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="I88" s="43">
+        <v>45056</v>
       </c>
       <c r="J88" s="20"/>
     </row>
@@ -8134,63 +8243,57 @@
       <c r="A89" s="2">
         <v>88</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C89" s="2" t="str">
-        <f>PHONETIC(B89)</f>
-        <v>ナカイセッコツイン</v>
+      <c r="B89" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>522</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>207</v>
+        <v>504</v>
       </c>
       <c r="E89" s="40">
-        <v>34.277093999999998</v>
+        <v>34.315911</v>
       </c>
       <c r="F89" s="40">
-        <v>134.03984399999999</v>
+        <v>134.03908799999999</v>
       </c>
       <c r="G89" s="32" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>28</v>
+        <v>505</v>
       </c>
       <c r="I89" s="43">
-        <v>35055</v>
-      </c>
-      <c r="J89" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>45352</v>
+      </c>
+      <c r="J89" s="20"/>
     </row>
     <row r="90" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C90" s="2" t="str">
-        <f>PHONETIC(B90)</f>
-        <v>ナカジマセッコツイン</v>
+        <v>346</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>523</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>208</v>
+        <v>347</v>
       </c>
       <c r="E90" s="40">
-        <v>34.307571000000003</v>
+        <v>34.321258999999998</v>
       </c>
       <c r="F90" s="40">
-        <v>134.04816099999999</v>
+        <v>134.04483400000001</v>
       </c>
       <c r="G90" s="32" t="s">
-        <v>632</v>
-      </c>
-      <c r="H90" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="I90" s="43">
-        <v>32512</v>
+        <v>630</v>
+      </c>
+      <c r="H90" s="7"/>
+      <c r="I90" s="45">
+        <v>42009</v>
       </c>
       <c r="J90" s="20"/>
     </row>
@@ -8199,60 +8302,62 @@
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>286</v>
+        <v>91</v>
       </c>
       <c r="C91" s="2" t="str">
         <f>PHONETIC(B91)</f>
-        <v>ナカソネセイコツイン</v>
+        <v>ナカイセッコツイン</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>287</v>
+        <v>207</v>
       </c>
       <c r="E91" s="40">
-        <v>34.255747999999997</v>
+        <v>34.277093999999998</v>
       </c>
       <c r="F91" s="40">
-        <v>134.033804</v>
+        <v>134.03984399999999</v>
       </c>
       <c r="G91" s="32" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="H91" s="7" t="s">
-        <v>288</v>
+        <v>28</v>
       </c>
       <c r="I91" s="43">
-        <v>40639</v>
-      </c>
-      <c r="J91" s="20"/>
+        <v>35055</v>
+      </c>
+      <c r="J91" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="92" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>383</v>
+        <v>78</v>
       </c>
       <c r="C92" s="2" t="str">
         <f>PHONETIC(B92)</f>
-        <v>ナガノセッコツイン</v>
+        <v>ナカジマセッコツイン</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>384</v>
+        <v>208</v>
       </c>
       <c r="E92" s="40">
-        <v>34.330219</v>
+        <v>34.307571000000003</v>
       </c>
       <c r="F92" s="40">
-        <v>134.10628700000001</v>
+        <v>134.04816099999999</v>
       </c>
       <c r="G92" s="32" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>385</v>
+        <v>16</v>
       </c>
       <c r="I92" s="43">
-        <v>41736</v>
+        <v>32512</v>
       </c>
       <c r="J92" s="20"/>
     </row>
@@ -8261,29 +8366,29 @@
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>195</v>
+        <v>286</v>
       </c>
       <c r="C93" s="2" t="str">
         <f>PHONETIC(B93)</f>
-        <v>ナゴミセイコツイン</v>
+        <v>ナカソネセイコツイン</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>209</v>
+        <v>287</v>
       </c>
       <c r="E93" s="40">
-        <v>34.264961</v>
+        <v>34.255747999999997</v>
       </c>
       <c r="F93" s="40">
-        <v>134.10543899999999</v>
+        <v>134.033804</v>
       </c>
       <c r="G93" s="32" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>436</v>
+        <v>288</v>
       </c>
       <c r="I93" s="43">
-        <v>43583</v>
+        <v>40639</v>
       </c>
       <c r="J93" s="20"/>
     </row>
@@ -8292,28 +8397,29 @@
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>524</v>
+        <v>383</v>
+      </c>
+      <c r="C94" s="2" t="str">
+        <f>PHONETIC(B94)</f>
+        <v>ナガノセッコツイン</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>341</v>
+        <v>384</v>
       </c>
       <c r="E94" s="40">
-        <v>34.335251</v>
+        <v>34.330219</v>
       </c>
       <c r="F94" s="40">
-        <v>134.05085600000001</v>
+        <v>134.10628700000001</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="I94" s="43">
-        <v>41944</v>
+        <v>41736</v>
       </c>
       <c r="J94" s="20"/>
     </row>
@@ -8322,187 +8428,186 @@
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>525</v>
+        <v>195</v>
+      </c>
+      <c r="C95" s="2" t="str">
+        <f>PHONETIC(B95)</f>
+        <v>ナゴミセイコツイン</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>463</v>
+        <v>209</v>
       </c>
       <c r="E95" s="40">
-        <v>34.326560999999998</v>
+        <v>34.264961</v>
       </c>
       <c r="F95" s="40">
-        <v>134.07038299999999</v>
+        <v>134.10543899999999</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="I95" s="43">
-        <v>44335</v>
-      </c>
-      <c r="J95" s="20" t="s">
-        <v>301</v>
-      </c>
+        <v>43583</v>
+      </c>
+      <c r="J95" s="20"/>
     </row>
     <row r="96" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C96" s="2" t="str">
-        <f t="shared" ref="C96:C103" si="3">PHONETIC(B96)</f>
-        <v>ナミオセッコツイン</v>
+        <v>340</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>524</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
       <c r="E96" s="40">
-        <v>34.283332999999999</v>
+        <v>34.335251</v>
       </c>
       <c r="F96" s="40">
-        <v>134.01154099999999</v>
+        <v>134.05085600000001</v>
       </c>
       <c r="G96" s="32" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>47</v>
+        <v>381</v>
       </c>
       <c r="I96" s="43">
-        <v>38482</v>
-      </c>
-      <c r="J96" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>41944</v>
+      </c>
+      <c r="J96" s="20"/>
     </row>
     <row r="97" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C97" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ハマガキセッコツイン</v>
+        <v>441</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>211</v>
+        <v>463</v>
       </c>
       <c r="E97" s="40">
-        <v>34.316357000000004</v>
+        <v>34.326560999999998</v>
       </c>
       <c r="F97" s="40">
-        <v>134.02864700000001</v>
+        <v>134.07038299999999</v>
       </c>
       <c r="G97" s="32" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>17</v>
+        <v>442</v>
       </c>
       <c r="I97" s="43">
-        <v>30529</v>
-      </c>
-      <c r="J97" s="20"/>
+        <v>44335</v>
+      </c>
+      <c r="J97" s="20" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="98" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C98" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ハマノセッコツイン</v>
+        <f t="shared" ref="C98:C105" si="3">PHONETIC(B98)</f>
+        <v>ナミオセッコツイン</v>
       </c>
       <c r="D98" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E98" s="40">
-        <v>34.351086000000002</v>
+        <v>34.283332999999999</v>
       </c>
       <c r="F98" s="40">
-        <v>134.12201899999999</v>
+        <v>134.01154099999999</v>
       </c>
       <c r="G98" s="32" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I98" s="45">
-        <v>27837</v>
-      </c>
-      <c r="J98" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="I98" s="43">
+        <v>38482</v>
+      </c>
+      <c r="J98" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="99" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="C99" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ハヤシセイコツイン</v>
+        <v>ハマガキセッコツイン</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E99" s="40">
-        <v>34.302017999999997</v>
+        <v>34.316357000000004</v>
       </c>
       <c r="F99" s="40">
-        <v>134.069383996243</v>
+        <v>134.02864700000001</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="I99" s="45">
-        <v>39632</v>
-      </c>
-      <c r="J99" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="I99" s="43">
+        <v>30529</v>
+      </c>
+      <c r="J99" s="20"/>
     </row>
     <row r="100" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>399</v>
+        <v>114</v>
       </c>
       <c r="C100" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ハラセイコツイン</v>
+        <v>ハマノセッコツイン</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>400</v>
+        <v>212</v>
       </c>
       <c r="E100" s="40">
-        <v>34.343505999999998</v>
+        <v>34.351086000000002</v>
       </c>
       <c r="F100" s="40">
-        <v>134.06172799999999</v>
+        <v>134.12201899999999</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>401</v>
+        <v>51</v>
       </c>
       <c r="I100" s="45">
-        <v>42937</v>
+        <v>27837</v>
       </c>
       <c r="J100" s="21"/>
     </row>
@@ -8510,157 +8615,156 @@
       <c r="A101" s="2">
         <v>100</v>
       </c>
-      <c r="B101" s="28" t="s">
-        <v>172</v>
+      <c r="B101" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="C101" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ハラノシンキュウセイコツイン</v>
-      </c>
-      <c r="D101" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="E101" s="41">
-        <v>34.344977</v>
-      </c>
-      <c r="F101" s="41">
-        <v>134.03169199999999</v>
+        <v>ハヤシセイコツイン</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E101" s="40">
+        <v>34.302017999999997</v>
+      </c>
+      <c r="F101" s="40">
+        <v>134.069383996243</v>
       </c>
       <c r="G101" s="32" t="s">
-        <v>643</v>
-      </c>
-      <c r="H101" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="I101" s="46">
-        <v>35934</v>
-      </c>
-      <c r="J101" s="20" t="s">
-        <v>145</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="H101" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I101" s="45">
+        <v>39632</v>
+      </c>
+      <c r="J101" s="21"/>
     </row>
     <row r="102" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>104</v>
+        <v>399</v>
       </c>
       <c r="C102" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ハンズセイコツイン</v>
+        <v>ハラセイコツイン</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>215</v>
+        <v>400</v>
       </c>
       <c r="E102" s="40">
-        <v>34.317838000000002</v>
+        <v>34.343505999999998</v>
       </c>
       <c r="F102" s="40">
-        <v>134.05705599999999</v>
+        <v>134.06172799999999</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I102" s="43">
-        <v>38070</v>
-      </c>
-      <c r="J102" s="20"/>
+        <v>401</v>
+      </c>
+      <c r="I102" s="45">
+        <v>42937</v>
+      </c>
+      <c r="J102" s="21"/>
     </row>
     <row r="103" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>102</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>500</v>
+      <c r="B103" s="28" t="s">
+        <v>172</v>
       </c>
       <c r="C103" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Ｈａｂｉｔセッコツイン</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="E103" s="40">
-        <v>34.335762000000003</v>
-      </c>
-      <c r="F103" s="40">
-        <v>134.05406099999999</v>
+        <v>ハラノシンキュウセイコツイン</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E103" s="41">
+        <v>34.344977</v>
+      </c>
+      <c r="F103" s="41">
+        <v>134.03169199999999</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>645</v>
-      </c>
-      <c r="H103" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="I103" s="43">
-        <v>45209</v>
-      </c>
-      <c r="J103" s="20"/>
+        <v>643</v>
+      </c>
+      <c r="H103" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="I103" s="46">
+        <v>35934</v>
+      </c>
+      <c r="J103" s="20" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="104" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>526</v>
+        <v>104</v>
+      </c>
+      <c r="C104" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ハンズセイコツイン</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>344</v>
+        <v>215</v>
       </c>
       <c r="E104" s="40">
-        <v>34.300122000000002</v>
+        <v>34.317838000000002</v>
       </c>
       <c r="F104" s="40">
-        <v>134.098523</v>
+        <v>134.05705599999999</v>
       </c>
       <c r="G104" s="32" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="I104" s="43">
-        <v>41976</v>
-      </c>
-      <c r="J104" s="20" t="s">
-        <v>301</v>
-      </c>
+        <v>38070</v>
+      </c>
+      <c r="J104" s="20"/>
     </row>
     <row r="105" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>67</v>
+        <v>500</v>
       </c>
       <c r="C105" s="2" t="str">
-        <f t="shared" ref="C105:C125" si="4">PHONETIC(B105)</f>
-        <v>ヒサトミセッコツイン</v>
+        <f t="shared" si="3"/>
+        <v>Ｈａｂｉｔセッコツイン</v>
       </c>
       <c r="D105" s="8" t="s">
-        <v>216</v>
+        <v>501</v>
       </c>
       <c r="E105" s="40">
-        <v>34.337069</v>
+        <v>34.335762000000003</v>
       </c>
       <c r="F105" s="40">
-        <v>134.09257099999999</v>
+        <v>134.05406099999999</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H105" s="7" t="s">
-        <v>4</v>
+        <v>502</v>
       </c>
       <c r="I105" s="43">
-        <v>31352</v>
+        <v>45209</v>
       </c>
       <c r="J105" s="20"/>
     </row>
@@ -8669,314 +8773,315 @@
         <v>105</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C106" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ヒナタセイコツイン</v>
+        <v>343</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>526</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>219</v>
+        <v>344</v>
       </c>
       <c r="E106" s="40">
-        <v>34.328966000000001</v>
+        <v>34.300122000000002</v>
       </c>
       <c r="F106" s="40">
-        <v>134.102282</v>
+        <v>134.098523</v>
       </c>
       <c r="G106" s="32" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>190</v>
+        <v>345</v>
       </c>
       <c r="I106" s="43">
-        <v>44287</v>
-      </c>
-      <c r="J106" s="18"/>
+        <v>41976</v>
+      </c>
+      <c r="J106" s="20" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="107" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C107" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ヒノウエセッコツイン</v>
+        <f t="shared" ref="C107:C127" si="4">PHONETIC(B107)</f>
+        <v>ヒサトミセッコツイン</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E107" s="40">
-        <v>34.335555999999997</v>
+        <v>34.337069</v>
       </c>
       <c r="F107" s="40">
-        <v>134.04988700000001</v>
+        <v>134.09257099999999</v>
       </c>
       <c r="G107" s="32" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I107" s="43">
-        <v>33512</v>
-      </c>
-      <c r="J107" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>31352</v>
+      </c>
+      <c r="J107" s="20"/>
     </row>
     <row r="108" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="C108" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>ヒラタセッコツイン</v>
+        <v>ヒナタセイコツイン</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E108" s="40">
-        <v>34.342633999999997</v>
+        <v>34.328966000000001</v>
       </c>
       <c r="F108" s="40">
-        <v>134.11730700000001</v>
+        <v>134.102282</v>
       </c>
       <c r="G108" s="32" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="I108" s="43">
-        <v>35186</v>
-      </c>
-      <c r="J108" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>44287</v>
+      </c>
+      <c r="J108" s="18"/>
     </row>
     <row r="109" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C109" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>フクイ セッコツイン</v>
+        <v>ヒノウエセッコツイン</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E109" s="40">
-        <v>34.239983000000002</v>
+        <v>34.335555999999997</v>
       </c>
       <c r="F109" s="40">
-        <v>134.03624400000001</v>
+        <v>134.04988700000001</v>
       </c>
       <c r="G109" s="32" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="I109" s="43">
-        <v>33026</v>
-      </c>
-      <c r="J109" s="21"/>
+        <v>33512</v>
+      </c>
+      <c r="J109" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="110" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C110" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>フジモトセイコツイン</v>
+        <v>ヒラタセッコツイン</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="E110" s="40">
-        <v>34.296703000000001</v>
+        <v>34.342633999999997</v>
       </c>
       <c r="F110" s="40">
-        <v>134.089044</v>
+        <v>134.11730700000001</v>
       </c>
       <c r="G110" s="32" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I110" s="43">
-        <v>38930</v>
-      </c>
-      <c r="J110" s="21"/>
+        <v>35186</v>
+      </c>
+      <c r="J110" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="111" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C111" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>フジワラセッコツイン</v>
-      </c>
-      <c r="D111" s="4" t="s">
-        <v>281</v>
+        <v>フクイ セッコツイン</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="E111" s="40">
-        <v>34.329003999999998</v>
+        <v>34.239983000000002</v>
       </c>
       <c r="F111" s="40">
-        <v>134.04933299999999</v>
+        <v>134.03624400000001</v>
       </c>
       <c r="G111" s="32" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I111" s="43">
-        <v>39722</v>
-      </c>
-      <c r="J111" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>33026</v>
+      </c>
+      <c r="J111" s="21"/>
     </row>
     <row r="112" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C112" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>ブッショウザンセッコツイン</v>
+        <v>フジモトセイコツイン</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="E112" s="40">
-        <v>34.286422999999999</v>
+        <v>34.296703000000001</v>
       </c>
       <c r="F112" s="40">
-        <v>134.04751400000001</v>
+        <v>134.089044</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>338</v>
+        <v>59</v>
       </c>
       <c r="I112" s="43">
-        <v>41821</v>
-      </c>
-      <c r="J112" s="18"/>
+        <v>38930</v>
+      </c>
+      <c r="J112" s="21"/>
     </row>
     <row r="113" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C113" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>フモトセッコツイン</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>221</v>
+        <v>フジワラセッコツイン</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="E113" s="40">
-        <v>34.326676999999997</v>
+        <v>34.329003999999998</v>
       </c>
       <c r="F113" s="40">
-        <v>134.06231600000001</v>
+        <v>134.04933299999999</v>
       </c>
       <c r="G113" s="32" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I113" s="43">
-        <v>31617</v>
-      </c>
-      <c r="J113" s="20"/>
+        <v>39722</v>
+      </c>
+      <c r="J113" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="114" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>377</v>
+        <v>101</v>
       </c>
       <c r="C114" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>ベル接骨院</v>
+        <v>ブッショウザンセッコツイン</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="E114" s="40">
-        <v>34.325797000000001</v>
+        <v>34.286422999999999</v>
       </c>
       <c r="F114" s="40">
-        <v>134.07956300000001</v>
+        <v>134.04751400000001</v>
       </c>
       <c r="G114" s="32" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="I114" s="43">
-        <v>42522</v>
-      </c>
-      <c r="J114" s="20"/>
+        <v>41821</v>
+      </c>
+      <c r="J114" s="18"/>
     </row>
     <row r="115" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C115" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>ホシノセッコツイン</v>
+        <v>フモトセッコツイン</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E115" s="40">
-        <v>34.301738999999998</v>
+        <v>34.326676999999997</v>
       </c>
       <c r="F115" s="40">
-        <v>134.08894900000001</v>
+        <v>134.06231600000001</v>
       </c>
       <c r="G115" s="32" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I115" s="43">
-        <v>36742</v>
+        <v>31617</v>
       </c>
       <c r="J115" s="20"/>
     </row>
@@ -8985,314 +9090,310 @@
         <v>115</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>124</v>
+        <v>377</v>
       </c>
       <c r="C116" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>ホットセッコツイン</v>
+        <v>ベル接骨院</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="E116" s="40">
-        <v>34.281458000000001</v>
+        <v>34.325797000000001</v>
       </c>
       <c r="F116" s="40">
-        <v>133.99779699999999</v>
+        <v>134.07956300000001</v>
       </c>
       <c r="G116" s="32" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>125</v>
+        <v>379</v>
       </c>
       <c r="I116" s="43">
-        <v>41640</v>
-      </c>
-      <c r="J116" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>42522</v>
+      </c>
+      <c r="J116" s="20"/>
     </row>
     <row r="117" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>116</v>
       </c>
-      <c r="B117" s="4" t="s">
-        <v>414</v>
+      <c r="B117" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C117" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>ホネツギトコロ</v>
+        <v>ホシノセッコツイン</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="E117" s="40">
+        <v>34.301738999999998</v>
+      </c>
+      <c r="F117" s="40">
+        <v>134.08894900000001</v>
+      </c>
       <c r="G117" s="32" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>416</v>
+        <v>37</v>
       </c>
       <c r="I117" s="43">
-        <v>43101</v>
-      </c>
-      <c r="J117" s="18"/>
+        <v>36742</v>
+      </c>
+      <c r="J117" s="20"/>
     </row>
     <row r="118" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>117</v>
       </c>
-      <c r="B118" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>541</v>
+      <c r="B118" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C118" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ホットセッコツイン</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>542</v>
+        <v>330</v>
       </c>
       <c r="E118" s="40">
-        <v>34.341878000000001</v>
+        <v>34.281458000000001</v>
       </c>
       <c r="F118" s="40">
-        <v>134.09666899999999</v>
+        <v>133.99779699999999</v>
       </c>
       <c r="G118" s="32" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>543</v>
+        <v>125</v>
       </c>
       <c r="I118" s="43">
-        <v>45388</v>
-      </c>
-      <c r="J118" s="18"/>
+        <v>41640</v>
+      </c>
+      <c r="J118" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="119" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>118</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>82</v>
+      <c r="B119" s="4" t="s">
+        <v>414</v>
       </c>
       <c r="C119" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>マツカセッコツイン</v>
+        <v>ホネツギトコロ</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E119" s="40">
-        <v>34.288414000000003</v>
-      </c>
-      <c r="F119" s="40">
-        <v>134.024146</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
       <c r="G119" s="32" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>20</v>
+        <v>416</v>
       </c>
       <c r="I119" s="43">
-        <v>31997</v>
-      </c>
-      <c r="J119" s="20" t="s">
-        <v>387</v>
-      </c>
+        <v>43101</v>
+      </c>
+      <c r="J119" s="18"/>
     </row>
     <row r="120" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>119</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C120" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>マユミ セッコツイン</v>
+      <c r="B120" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>541</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="E120" s="40">
-        <v>34.256005000000002</v>
+        <v>34.341878000000001</v>
       </c>
       <c r="F120" s="40">
-        <v>134.026681</v>
+        <v>134.09666899999999</v>
       </c>
       <c r="G120" s="32" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="I120" s="45">
-        <v>44136</v>
-      </c>
-      <c r="J120" s="21"/>
+        <v>543</v>
+      </c>
+      <c r="I120" s="43">
+        <v>45388</v>
+      </c>
+      <c r="J120" s="18"/>
     </row>
     <row r="121" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>120</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="C121" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>マユミセッコツイン</v>
+        <v>マツカセッコツイン</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>403</v>
+        <v>262</v>
       </c>
       <c r="E121" s="40">
-        <v>34.317377</v>
+        <v>34.288414000000003</v>
       </c>
       <c r="F121" s="40">
-        <v>134.061384</v>
+        <v>134.024146</v>
       </c>
       <c r="G121" s="32" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="I121" s="45">
-        <v>42948</v>
-      </c>
-      <c r="J121" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="I121" s="43">
+        <v>31997</v>
+      </c>
+      <c r="J121" s="20" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="122" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>121</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>163</v>
+      <c r="B122" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="C122" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>マルイチセイコツイン</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E122" s="16">
-        <v>34.333772000000003</v>
-      </c>
-      <c r="F122" s="16">
-        <v>134.04996600000001</v>
+        <v>マユミ セッコツイン</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E122" s="40">
+        <v>34.256005000000002</v>
+      </c>
+      <c r="F122" s="40">
+        <v>134.026681</v>
       </c>
       <c r="G122" s="32" t="s">
-        <v>664</v>
-      </c>
-      <c r="H122" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I122" s="47">
-        <v>41883</v>
-      </c>
-      <c r="J122" s="18"/>
+        <v>662</v>
+      </c>
+      <c r="H122" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I122" s="45">
+        <v>44136</v>
+      </c>
+      <c r="J122" s="21"/>
     </row>
     <row r="123" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>122</v>
       </c>
-      <c r="B123" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C123" s="28" t="str">
+      <c r="B123" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C123" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>ミキシンキュウセッコツイン</v>
-      </c>
-      <c r="D123" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="E123" s="41">
-        <v>34.387632000000004</v>
-      </c>
-      <c r="F123" s="41">
-        <v>134.13385199999999</v>
+        <v>マユミセッコツイン</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="E123" s="40">
+        <v>34.317377</v>
+      </c>
+      <c r="F123" s="40">
+        <v>134.061384</v>
       </c>
       <c r="G123" s="32" t="s">
-        <v>665</v>
-      </c>
-      <c r="H123" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="I123" s="47">
-        <v>39958</v>
-      </c>
-      <c r="J123" s="18" t="s">
-        <v>194</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="H123" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="I123" s="45">
+        <v>42948</v>
+      </c>
+      <c r="J123" s="21"/>
     </row>
     <row r="124" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>123</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>83</v>
+      <c r="B124" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="C124" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>ミキセッコツイン</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E124" s="40">
-        <v>34.299140999999999</v>
-      </c>
-      <c r="F124" s="40">
-        <v>134.05196900000001</v>
+        <v>マルイチセイコツイン</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E124" s="16">
+        <v>34.333772000000003</v>
+      </c>
+      <c r="F124" s="16">
+        <v>134.04996600000001</v>
       </c>
       <c r="G124" s="32" t="s">
-        <v>666</v>
-      </c>
-      <c r="H124" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I124" s="43">
-        <v>25583</v>
-      </c>
-      <c r="J124" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="H124" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I124" s="47">
+        <v>41883</v>
+      </c>
+      <c r="J124" s="18"/>
     </row>
     <row r="125" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>124</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C125" s="2" t="str">
+      <c r="B125" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C125" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>ミズノオトタダシコツイン</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E125" s="40">
-        <v>34.341566</v>
-      </c>
-      <c r="F125" s="40">
-        <v>134.066811</v>
+        <v>ミキシンキュウセッコツイン</v>
+      </c>
+      <c r="D125" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E125" s="41">
+        <v>34.387632000000004</v>
+      </c>
+      <c r="F125" s="41">
+        <v>134.13385199999999</v>
       </c>
       <c r="G125" s="32" t="s">
-        <v>667</v>
-      </c>
-      <c r="H125" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I125" s="43">
-        <v>37835</v>
+        <v>665</v>
+      </c>
+      <c r="H125" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="I125" s="47">
+        <v>39958</v>
       </c>
       <c r="J125" s="18" t="s">
-        <v>387</v>
+        <v>194</v>
       </c>
     </row>
     <row r="126" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9300,31 +9401,32 @@
         <v>125</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>527</v>
+        <v>83</v>
+      </c>
+      <c r="C126" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ミキセッコツイン</v>
       </c>
       <c r="D126" s="8" t="s">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="E126" s="40">
-        <v>34.280352000000001</v>
+        <v>34.299140999999999</v>
       </c>
       <c r="F126" s="40">
-        <v>133.96529899999999</v>
+        <v>134.05196900000001</v>
       </c>
       <c r="G126" s="32" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H126" s="7" t="s">
-        <v>333</v>
+        <v>21</v>
       </c>
       <c r="I126" s="43">
-        <v>41725</v>
+        <v>25583</v>
       </c>
       <c r="J126" s="18" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9332,61 +9434,63 @@
         <v>126</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="C127" s="2" t="str">
-        <f>PHONETIC(B127)</f>
-        <v>ミゾブチセッコツイン</v>
+        <f t="shared" si="4"/>
+        <v>ミズノオトタダシコツイン</v>
       </c>
       <c r="D127" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E127" s="40">
-        <v>34.289344</v>
+        <v>34.341566</v>
       </c>
       <c r="F127" s="40">
-        <v>134.092647</v>
+        <v>134.066811</v>
       </c>
       <c r="G127" s="32" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H127" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I127" s="43">
-        <v>33575</v>
-      </c>
-      <c r="J127" s="20"/>
+        <v>37835</v>
+      </c>
+      <c r="J127" s="18" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="128" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>127</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E128" s="40">
-        <v>34.308157000000001</v>
+        <v>34.280352000000001</v>
       </c>
       <c r="F128" s="40">
-        <v>134.09168500000001</v>
+        <v>133.96529899999999</v>
       </c>
       <c r="G128" s="32" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="I128" s="43">
-        <v>41588</v>
-      </c>
-      <c r="J128" s="20" t="s">
+        <v>41725</v>
+      </c>
+      <c r="J128" s="18" t="s">
         <v>301</v>
       </c>
     </row>
@@ -9395,29 +9499,29 @@
         <v>128</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="C129" s="2" t="str">
         <f>PHONETIC(B129)</f>
-        <v>ミナモトセイコツイン</v>
+        <v>ミゾブチセッコツイン</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="E129" s="40">
-        <v>34.316346000000003</v>
+        <v>34.289344</v>
       </c>
       <c r="F129" s="40">
-        <v>133.96922799999999</v>
+        <v>134.092647</v>
       </c>
       <c r="G129" s="32" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="I129" s="43">
-        <v>40216</v>
+        <v>33575</v>
       </c>
       <c r="J129" s="20"/>
     </row>
@@ -9426,60 +9530,61 @@
         <v>129</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C130" s="2" t="str">
-        <f>PHONETIC(B130)</f>
-        <v>ミヤケセッコツイン</v>
+        <v>326</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>226</v>
+        <v>327</v>
       </c>
       <c r="E130" s="40">
-        <v>34.337442000000003</v>
+        <v>34.308157000000001</v>
       </c>
       <c r="F130" s="40">
-        <v>134.10886400000001</v>
+        <v>134.09168500000001</v>
       </c>
       <c r="G130" s="32" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>40</v>
+        <v>382</v>
       </c>
       <c r="I130" s="43">
-        <v>37561</v>
-      </c>
-      <c r="J130" s="20"/>
+        <v>41588</v>
+      </c>
+      <c r="J130" s="20" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="131" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>130</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="C131" s="2" t="str">
         <f>PHONETIC(B131)</f>
-        <v>ミヤザキセッコツイン</v>
+        <v>ミナモトセイコツイン</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="E131" s="40">
-        <v>34.337451999999999</v>
+        <v>34.316346000000003</v>
       </c>
       <c r="F131" s="40">
-        <v>134.066585</v>
+        <v>133.96922799999999</v>
       </c>
       <c r="G131" s="32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="I131" s="43">
-        <v>30122</v>
+        <v>40216</v>
       </c>
       <c r="J131" s="20"/>
     </row>
@@ -9488,29 +9593,29 @@
         <v>131</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C132" s="2" t="str">
         <f>PHONETIC(B132)</f>
-        <v>ミヨシセッコツイン</v>
+        <v>ミヤケセッコツイン</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E132" s="40">
-        <v>34.348129</v>
+        <v>34.337442000000003</v>
       </c>
       <c r="F132" s="40">
-        <v>134.04271399999999</v>
+        <v>134.10886400000001</v>
       </c>
       <c r="G132" s="32" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I132" s="43">
-        <v>40848</v>
+        <v>37561</v>
       </c>
       <c r="J132" s="20"/>
     </row>
@@ -9519,29 +9624,29 @@
         <v>132</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>717</v>
+        <v>86</v>
       </c>
       <c r="C133" s="2" t="str">
         <f>PHONETIC(B133)</f>
-        <v>ムスビセッコツイン　カミフクオカイン</v>
+        <v>ミヤザキセッコツイン</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>718</v>
+        <v>227</v>
       </c>
       <c r="E133" s="40">
-        <v>34.333134000000001</v>
+        <v>34.337451999999999</v>
       </c>
       <c r="F133" s="40">
-        <v>134.06802099999999</v>
+        <v>134.066585</v>
       </c>
       <c r="G133" s="32" t="s">
-        <v>719</v>
-      </c>
-      <c r="H133" s="40" t="s">
-        <v>720</v>
+        <v>672</v>
+      </c>
+      <c r="H133" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="I133" s="43">
-        <v>45427</v>
+        <v>30122</v>
       </c>
       <c r="J133" s="20"/>
     </row>
@@ -9550,28 +9655,29 @@
         <v>133</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>529</v>
+        <v>84</v>
+      </c>
+      <c r="C134" s="2" t="str">
+        <f>PHONETIC(B134)</f>
+        <v>ミヨシセッコツイン</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>352</v>
+        <v>228</v>
       </c>
       <c r="E134" s="40">
-        <v>34.308826000000003</v>
+        <v>34.348129</v>
       </c>
       <c r="F134" s="40">
-        <v>133.96402599999999</v>
+        <v>134.04271399999999</v>
       </c>
       <c r="G134" s="32" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>354</v>
+        <v>22</v>
       </c>
       <c r="I134" s="43">
-        <v>42086</v>
+        <v>40848</v>
       </c>
       <c r="J134" s="20"/>
     </row>
@@ -9580,62 +9686,59 @@
         <v>134</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>137</v>
+        <v>717</v>
       </c>
       <c r="C135" s="2" t="str">
-        <f t="shared" ref="C135:C141" si="5">PHONETIC(B135)</f>
-        <v>モリシンキュウセッコツイン</v>
-      </c>
-      <c r="D135" s="32" t="s">
-        <v>353</v>
+        <f>PHONETIC(B135)</f>
+        <v>ムスビセッコツイン　カミフクオカイン</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>718</v>
       </c>
       <c r="E135" s="40">
-        <v>34.335113</v>
+        <v>34.333134000000001</v>
       </c>
       <c r="F135" s="40">
-        <v>134.01111599999999</v>
+        <v>134.06802099999999</v>
       </c>
       <c r="G135" s="32" t="s">
-        <v>676</v>
-      </c>
-      <c r="H135" s="7" t="s">
-        <v>58</v>
+        <v>719</v>
+      </c>
+      <c r="H135" s="40" t="s">
+        <v>720</v>
       </c>
       <c r="I135" s="43">
-        <v>38869</v>
-      </c>
-      <c r="J135" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>45427</v>
+      </c>
+      <c r="J135" s="20"/>
     </row>
     <row r="136" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>135</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C136" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>モリセッコツイン</v>
+        <v>351</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>529</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>229</v>
+        <v>352</v>
       </c>
       <c r="E136" s="40">
-        <v>34.297317</v>
+        <v>34.308826000000003</v>
       </c>
       <c r="F136" s="40">
-        <v>134.03551100000001</v>
+        <v>133.96402599999999</v>
       </c>
       <c r="G136" s="32" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>32</v>
+        <v>354</v>
       </c>
       <c r="I136" s="43">
-        <v>36057</v>
+        <v>42086</v>
       </c>
       <c r="J136" s="20"/>
     </row>
@@ -9644,60 +9747,62 @@
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C137" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>ヤシマセイコツイン</v>
-      </c>
-      <c r="D137" s="8" t="s">
-        <v>334</v>
+        <f t="shared" ref="C137:C143" si="5">PHONETIC(B137)</f>
+        <v>モリシンキュウセッコツイン</v>
+      </c>
+      <c r="D137" s="32" t="s">
+        <v>353</v>
       </c>
       <c r="E137" s="40">
-        <v>34.338760999999998</v>
+        <v>34.335113</v>
       </c>
       <c r="F137" s="40">
-        <v>134.108374</v>
+        <v>134.01111599999999</v>
       </c>
       <c r="G137" s="32" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H137" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I137" s="43">
-        <v>41760</v>
-      </c>
-      <c r="J137" s="20"/>
+        <v>38869</v>
+      </c>
+      <c r="J137" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="138" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>137</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C138" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>ヤシマセッコツイン</v>
+        <v>モリセッコツイン</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E138" s="40">
-        <v>34.340372000000002</v>
+        <v>34.297317</v>
       </c>
       <c r="F138" s="40">
-        <v>134.11425800000001</v>
+        <v>134.03551100000001</v>
       </c>
       <c r="G138" s="32" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I138" s="43">
-        <v>29717</v>
+        <v>36057</v>
       </c>
       <c r="J138" s="20"/>
     </row>
@@ -9706,60 +9811,60 @@
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C139" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>ヤノセッコツイン</v>
+        <v>ヤシマセイコツイン</v>
       </c>
       <c r="D139" s="8" t="s">
-        <v>231</v>
+        <v>334</v>
       </c>
       <c r="E139" s="40">
-        <v>34.342678999999997</v>
+        <v>34.338760999999998</v>
       </c>
       <c r="F139" s="40">
-        <v>134.100728</v>
+        <v>134.108374</v>
       </c>
       <c r="G139" s="32" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="I139" s="43">
-        <v>30015</v>
+        <v>41760</v>
       </c>
       <c r="J139" s="20"/>
     </row>
-    <row r="140" spans="1:10" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>139</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="C140" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>ヤマグチセッコツイン</v>
+        <v>ヤシマセッコツイン</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>411</v>
+        <v>230</v>
       </c>
       <c r="E140" s="40">
-        <v>34.284075000000001</v>
+        <v>34.340372000000002</v>
       </c>
       <c r="F140" s="40">
-        <v>134.096462</v>
+        <v>134.11425800000001</v>
       </c>
       <c r="G140" s="32" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>412</v>
+        <v>18</v>
       </c>
       <c r="I140" s="43">
-        <v>43070</v>
+        <v>29717</v>
       </c>
       <c r="J140" s="20"/>
     </row>
@@ -9768,61 +9873,60 @@
         <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C141" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>ヤマグチセッコツイン</v>
+        <v>ヤノセッコツイン</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E141" s="40">
-        <v>34.342661</v>
+        <v>34.342678999999997</v>
       </c>
       <c r="F141" s="40">
-        <v>134.096205</v>
+        <v>134.100728</v>
       </c>
       <c r="G141" s="32" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="I141" s="43">
-        <v>31040</v>
-      </c>
-      <c r="J141" s="20" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30015</v>
+      </c>
+      <c r="J141" s="20"/>
+    </row>
+    <row r="142" spans="1:10" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>141</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>477</v>
+        <v>410</v>
+      </c>
+      <c r="C142" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>ヤマグチセッコツイン</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>478</v>
+        <v>411</v>
       </c>
       <c r="E142" s="40">
-        <v>34.333956000000001</v>
+        <v>34.284075000000001</v>
       </c>
       <c r="F142" s="40">
-        <v>134.081931</v>
+        <v>134.096462</v>
       </c>
       <c r="G142" s="32" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>479</v>
+        <v>412</v>
       </c>
       <c r="I142" s="43">
-        <v>44739</v>
+        <v>43070</v>
       </c>
       <c r="J142" s="20"/>
     </row>
@@ -9831,32 +9935,32 @@
         <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C143" s="2" t="str">
-        <f>PHONETIC(B143)</f>
-        <v>ヤマシタセッコツイン</v>
+        <f t="shared" si="5"/>
+        <v>ヤマグチセッコツイン</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E143" s="40">
-        <v>34.313543000000003</v>
+        <v>34.342661</v>
       </c>
       <c r="F143" s="40">
-        <v>134.026186</v>
+        <v>134.096205</v>
       </c>
       <c r="G143" s="32" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I143" s="43">
-        <v>30225</v>
-      </c>
-      <c r="J143" s="18" t="s">
-        <v>145</v>
+        <v>31040</v>
+      </c>
+      <c r="J143" s="20" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="144" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9864,60 +9968,59 @@
         <v>143</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C144" s="2" t="str">
-        <f>PHONETIC(B144)</f>
-        <v>ヤマシロセイコツイン</v>
-      </c>
-      <c r="D144" s="10" t="s">
-        <v>274</v>
+        <v>476</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>478</v>
       </c>
       <c r="E144" s="40">
-        <v>34.307678000000003</v>
-      </c>
-      <c r="F144" s="12">
-        <v>133.96265099999999</v>
+        <v>34.333956000000001</v>
+      </c>
+      <c r="F144" s="40">
+        <v>134.081931</v>
       </c>
       <c r="G144" s="32" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="I144" s="43">
-        <v>44181</v>
-      </c>
-      <c r="J144" s="18"/>
+        <v>44739</v>
+      </c>
+      <c r="J144" s="20"/>
     </row>
     <row r="145" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>144</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C145" s="2" t="str">
         <f>PHONETIC(B145)</f>
-        <v>ユウシンキュウセイコツイン</v>
+        <v>ヤマシタセッコツイン</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E145" s="40">
-        <v>34.322457</v>
-      </c>
-      <c r="F145" s="12">
-        <v>134.07410200000001</v>
+        <v>34.313543000000003</v>
+      </c>
+      <c r="F145" s="40">
+        <v>134.026186</v>
       </c>
       <c r="G145" s="32" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I145" s="43">
-        <v>38082</v>
+        <v>30225</v>
       </c>
       <c r="J145" s="18" t="s">
         <v>145</v>
@@ -9928,28 +10031,29 @@
         <v>145</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="D146" s="8" t="s">
-        <v>489</v>
+        <v>273</v>
+      </c>
+      <c r="C146" s="2" t="str">
+        <f>PHONETIC(B146)</f>
+        <v>ヤマシロセイコツイン</v>
+      </c>
+      <c r="D146" s="10" t="s">
+        <v>274</v>
       </c>
       <c r="E146" s="40">
-        <v>34.322403000000001</v>
-      </c>
-      <c r="F146" s="40">
-        <v>134.07405900000001</v>
+        <v>34.307678000000003</v>
+      </c>
+      <c r="F146" s="12">
+        <v>133.96265099999999</v>
       </c>
       <c r="G146" s="32" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="I146" s="43">
-        <v>44932</v>
+        <v>44181</v>
       </c>
       <c r="J146" s="18"/>
     </row>
@@ -9958,60 +10062,61 @@
         <v>146</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="C147" s="2" t="str">
-        <f t="shared" ref="C147:C152" si="6">PHONETIC(B147)</f>
-        <v>ユトリセッコツイン</v>
+        <f>PHONETIC(B147)</f>
+        <v>ユウシンキュウセイコツイン</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E147" s="40">
-        <v>34.284092999999999</v>
-      </c>
-      <c r="F147" s="40">
-        <v>133.95545100000001</v>
+        <v>34.322457</v>
+      </c>
+      <c r="F147" s="12">
+        <v>134.07410200000001</v>
       </c>
       <c r="G147" s="32" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="I147" s="43">
-        <v>41487</v>
-      </c>
-      <c r="J147" s="18"/>
+        <v>38082</v>
+      </c>
+      <c r="J147" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="148" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>147</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="C148" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>ヨコイセッコツイン</v>
+        <v>487</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="D148" s="8" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="E148" s="40">
-        <v>34.297007999999998</v>
+        <v>34.322403000000001</v>
       </c>
       <c r="F148" s="40">
-        <v>133.94552400000001</v>
+        <v>134.07405900000001</v>
       </c>
       <c r="G148" s="32" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="I148" s="43">
-        <v>44774</v>
+        <v>44932</v>
       </c>
       <c r="J148" s="18"/>
     </row>
@@ -10020,590 +10125,628 @@
         <v>148</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C149" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>ヨコタセッコツイン</v>
+        <f t="shared" ref="C149:C154" si="6">PHONETIC(B149)</f>
+        <v>ユトリセッコツイン</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E149" s="40">
-        <v>34.271703000000002</v>
+        <v>34.284092999999999</v>
       </c>
       <c r="F149" s="40">
-        <v>134.02163300000001</v>
+        <v>133.95545100000001</v>
       </c>
       <c r="G149" s="32" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I149" s="45">
-        <v>31931</v>
-      </c>
-      <c r="J149" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="I149" s="43">
+        <v>41487</v>
+      </c>
+      <c r="J149" s="18"/>
     </row>
     <row r="150" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>149</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>158</v>
+        <v>480</v>
       </c>
       <c r="C150" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>ヨシダシンキュウセイコツイン</v>
-      </c>
-      <c r="D150" s="24" t="s">
-        <v>157</v>
+        <v>ヨコイセッコツイン</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>481</v>
       </c>
       <c r="E150" s="40">
-        <v>34.271738999999997</v>
-      </c>
-      <c r="F150" s="25">
-        <v>134.02161100000001</v>
+        <v>34.297007999999998</v>
+      </c>
+      <c r="F150" s="40">
+        <v>133.94552400000001</v>
       </c>
       <c r="G150" s="32" t="s">
-        <v>691</v>
-      </c>
-      <c r="H150" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="I150" s="48">
-        <v>39300</v>
-      </c>
-      <c r="J150" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="H150" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="I150" s="43">
+        <v>44774</v>
+      </c>
+      <c r="J150" s="18"/>
     </row>
     <row r="151" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>150</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>429</v>
+        <v>153</v>
       </c>
       <c r="C151" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>ヨツバセイコツイン</v>
-      </c>
-      <c r="D151" s="24" t="s">
-        <v>430</v>
+        <v>ヨコタセッコツイン</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="E151" s="40">
-        <v>34.334273000000003</v>
-      </c>
-      <c r="F151" s="25">
-        <v>134.083787</v>
+        <v>34.271703000000002</v>
+      </c>
+      <c r="F151" s="40">
+        <v>134.02163300000001</v>
       </c>
       <c r="G151" s="32" t="s">
-        <v>692</v>
-      </c>
-      <c r="H151" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="I151" s="48">
-        <v>43383</v>
-      </c>
-      <c r="J151" s="18"/>
+        <v>690</v>
+      </c>
+      <c r="H151" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I151" s="45">
+        <v>31931</v>
+      </c>
+      <c r="J151" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="152" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>151</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="C152" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>ヨネツセッコツイン</v>
-      </c>
-      <c r="D152" s="8" t="s">
-        <v>237</v>
+        <v>ヨシダシンキュウセイコツイン</v>
+      </c>
+      <c r="D152" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="E152" s="40">
-        <v>34.319628000000002</v>
-      </c>
-      <c r="F152" s="40">
-        <v>134.053755</v>
+        <v>34.271738999999997</v>
+      </c>
+      <c r="F152" s="25">
+        <v>134.02161100000001</v>
       </c>
       <c r="G152" s="32" t="s">
-        <v>693</v>
-      </c>
-      <c r="H152" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I152" s="43">
-        <v>32500</v>
-      </c>
-      <c r="J152" s="20"/>
+        <v>691</v>
+      </c>
+      <c r="H152" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="I152" s="48">
+        <v>39300</v>
+      </c>
+      <c r="J152" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="153" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>152</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D153" s="8" t="s">
-        <v>498</v>
+        <v>429</v>
+      </c>
+      <c r="C153" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>ヨツバセイコツイン</v>
+      </c>
+      <c r="D153" s="24" t="s">
+        <v>430</v>
       </c>
       <c r="E153" s="40">
-        <v>34.304028000000002</v>
-      </c>
-      <c r="F153" s="40">
-        <v>133.97233299999999</v>
+        <v>34.334273000000003</v>
+      </c>
+      <c r="F153" s="25">
+        <v>134.083787</v>
       </c>
       <c r="G153" s="32" t="s">
-        <v>694</v>
-      </c>
-      <c r="H153" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="I153" s="43">
-        <v>45170</v>
-      </c>
-      <c r="J153" s="20"/>
+        <v>692</v>
+      </c>
+      <c r="H153" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="I153" s="48">
+        <v>43383</v>
+      </c>
+      <c r="J153" s="18"/>
     </row>
     <row r="154" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>153</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>148</v>
+        <v>90</v>
+      </c>
+      <c r="C154" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>ヨネツセッコツイン</v>
       </c>
       <c r="D154" s="8" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E154" s="40">
-        <v>34.345882000000003</v>
+        <v>34.319628000000002</v>
       </c>
       <c r="F154" s="40">
-        <v>134.04718009999999</v>
+        <v>134.053755</v>
       </c>
       <c r="G154" s="32" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H154" s="7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I154" s="43">
-        <v>37805</v>
-      </c>
-      <c r="J154" s="20" t="s">
-        <v>145</v>
-      </c>
+        <v>32500</v>
+      </c>
+      <c r="J154" s="20"/>
     </row>
     <row r="155" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>154</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C155" s="2" t="str">
-        <f>PHONETIC(B155)</f>
-        <v>リツリンシンキュウセイコツイン</v>
+        <v>496</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>170</v>
+        <v>498</v>
       </c>
       <c r="E155" s="40">
-        <v>34.332870999999997</v>
+        <v>34.304028000000002</v>
       </c>
       <c r="F155" s="40">
-        <v>134.053585</v>
+        <v>133.97233299999999</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H155" s="7" t="s">
-        <v>46</v>
+        <v>499</v>
       </c>
       <c r="I155" s="43">
-        <v>39448</v>
-      </c>
-      <c r="J155" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>45170</v>
+      </c>
+      <c r="J155" s="20"/>
     </row>
     <row r="156" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>155</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>320</v>
+        <v>102</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>530</v>
+        <v>148</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>321</v>
+        <v>250</v>
       </c>
       <c r="E156" s="40">
-        <v>34.263731</v>
+        <v>34.345882000000003</v>
       </c>
       <c r="F156" s="40">
-        <v>134.02720400000001</v>
+        <v>134.04718009999999</v>
       </c>
       <c r="G156" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>322</v>
+        <v>42</v>
       </c>
       <c r="I156" s="43">
-        <v>41396</v>
-      </c>
-      <c r="J156" s="18"/>
+        <v>37805</v>
+      </c>
+      <c r="J156" s="20" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="157" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>156</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C157" s="2" t="str">
         <f>PHONETIC(B157)</f>
-        <v>ワカクサセイコツイン</v>
+        <v>リツリンシンキュウセイコツイン</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>275</v>
+        <v>170</v>
       </c>
       <c r="E157" s="40">
-        <v>34.312365</v>
+        <v>34.332870999999997</v>
       </c>
       <c r="F157" s="40">
-        <v>134.083392</v>
+        <v>134.053585</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="I157" s="43">
-        <v>40360</v>
-      </c>
-      <c r="J157" s="20"/>
+        <v>39448</v>
+      </c>
+      <c r="J157" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="158" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>157</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="E158" s="40">
-        <v>34.329160999999999</v>
+        <v>34.263731</v>
       </c>
       <c r="F158" s="40">
-        <v>134.058245</v>
+        <v>134.02720400000001</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="I158" s="43">
-        <v>42443</v>
-      </c>
-      <c r="J158" s="20" t="s">
-        <v>301</v>
-      </c>
+        <v>41396</v>
+      </c>
+      <c r="J158" s="18"/>
     </row>
     <row r="159" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>158</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>532</v>
+        <v>105</v>
+      </c>
+      <c r="C159" s="2" t="str">
+        <f>PHONETIC(B159)</f>
+        <v>ワカクサセイコツイン</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>359</v>
+        <v>275</v>
       </c>
       <c r="E159" s="40">
-        <v>34.284131000000002</v>
+        <v>34.312365</v>
       </c>
       <c r="F159" s="40">
-        <v>134.089755</v>
+        <v>134.083392</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>360</v>
+        <v>171</v>
       </c>
       <c r="I159" s="43">
-        <v>44805</v>
-      </c>
-      <c r="J159" s="18"/>
+        <v>40360</v>
+      </c>
+      <c r="J159" s="20"/>
     </row>
     <row r="160" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>159</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>299</v>
+        <v>366</v>
       </c>
       <c r="E160" s="40">
-        <v>34.335034999999998</v>
+        <v>34.329160999999999</v>
       </c>
       <c r="F160" s="40">
-        <v>134.07119800000001</v>
+        <v>134.058245</v>
       </c>
       <c r="G160" s="32" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="I160" s="43">
-        <v>40982</v>
-      </c>
-      <c r="J160" s="21" t="s">
+        <v>42443</v>
+      </c>
+      <c r="J160" s="20" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="161" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>160</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="E161" s="40">
-        <v>34.295994</v>
+        <v>34.284131000000002</v>
       </c>
       <c r="F161" s="40">
-        <v>134.06595799999999</v>
+        <v>134.089755</v>
       </c>
       <c r="G161" s="32" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="I161" s="43">
-        <v>41395</v>
-      </c>
-      <c r="J161" s="21"/>
-    </row>
-    <row r="162" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44805</v>
+      </c>
+      <c r="J161" s="18"/>
+    </row>
+    <row r="162" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>161</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>723</v>
+        <v>533</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>371</v>
+        <v>299</v>
       </c>
       <c r="E162" s="40">
-        <v>34.299269000000002</v>
+        <v>34.335034999999998</v>
       </c>
       <c r="F162" s="40">
-        <v>134.11092500000001</v>
+        <v>134.07119800000001</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>372</v>
+        <v>300</v>
       </c>
       <c r="I162" s="43">
-        <v>42454</v>
-      </c>
-      <c r="J162" s="18" t="s">
-        <v>145</v>
+        <v>40982</v>
+      </c>
+      <c r="J162" s="21" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="163" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>162</v>
       </c>
-      <c r="B163" s="2" t="s">
-        <v>307</v>
+      <c r="B163" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="E163" s="40">
-        <v>34.301983</v>
+        <v>34.295994</v>
       </c>
       <c r="F163" s="40">
-        <v>134.07158699999999</v>
+        <v>134.06595799999999</v>
       </c>
       <c r="G163" s="32" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="I163" s="43">
-        <v>28216</v>
-      </c>
-      <c r="J163" s="20"/>
+        <v>41395</v>
+      </c>
+      <c r="J163" s="21"/>
     </row>
     <row r="164" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>163</v>
       </c>
-      <c r="B164" s="2" t="s">
-        <v>374</v>
+      <c r="B164" s="8" t="s">
+        <v>370</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>536</v>
+        <v>723</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E164" s="40">
-        <v>34.323757000000001</v>
+        <v>34.299269000000002</v>
       </c>
       <c r="F164" s="40">
-        <v>134.07733400000001</v>
+        <v>134.11092500000001</v>
       </c>
       <c r="G164" s="32" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I164" s="43">
-        <v>42520</v>
-      </c>
-      <c r="J164" s="20"/>
+        <v>42454</v>
+      </c>
+      <c r="J164" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="165" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>164</v>
       </c>
-      <c r="B165" s="8" t="s">
-        <v>707</v>
+      <c r="B165" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E165" s="40">
-        <v>34.286965000000002</v>
+        <v>34.301983</v>
       </c>
       <c r="F165" s="40">
-        <v>134.042618</v>
+        <v>134.07158699999999</v>
       </c>
       <c r="G165" s="32" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="I165" s="43">
-        <v>41113</v>
-      </c>
-      <c r="J165" s="18" t="s">
-        <v>301</v>
-      </c>
+        <v>28216</v>
+      </c>
+      <c r="J165" s="20"/>
     </row>
     <row r="166" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>165</v>
       </c>
-      <c r="B166" s="8" t="s">
+      <c r="B166" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="E166" s="40">
+        <v>34.323757000000001</v>
+      </c>
+      <c r="F166" s="40">
+        <v>134.07733400000001</v>
+      </c>
+      <c r="G166" s="32" t="s">
+        <v>705</v>
+      </c>
+      <c r="H166" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="I166" s="43">
+        <v>42520</v>
+      </c>
+      <c r="J166" s="20"/>
+    </row>
+    <row r="167" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>166</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E167" s="40">
+        <v>34.286965000000002</v>
+      </c>
+      <c r="F167" s="40">
+        <v>134.042618</v>
+      </c>
+      <c r="G167" s="32" t="s">
+        <v>706</v>
+      </c>
+      <c r="H167" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="I167" s="43">
+        <v>41113</v>
+      </c>
+      <c r="J167" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>167</v>
+      </c>
+      <c r="B168" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C168" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D166" s="8" t="s">
+      <c r="D168" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E166" s="40">
+      <c r="E168" s="40">
         <v>34.313502999999997</v>
       </c>
-      <c r="F166" s="40">
+      <c r="F168" s="40">
         <v>134.08316099999999</v>
       </c>
-      <c r="G166" s="32" t="s">
+      <c r="G168" s="32" t="s">
         <v>708</v>
       </c>
-      <c r="H166" s="7" t="s">
+      <c r="H168" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="I166" s="43">
+      <c r="I168" s="43">
         <v>41687</v>
       </c>
-      <c r="J166" s="18" t="s">
+      <c r="J168" s="18" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="167" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B167" s="9"/>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
-      <c r="E167" s="23"/>
-      <c r="F167" s="23"/>
-      <c r="G167" s="37"/>
-      <c r="H167" s="23"/>
-      <c r="I167" s="49"/>
-      <c r="J167" s="22"/>
-    </row>
-    <row r="168" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="33"/>
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="23"/>
-      <c r="F168" s="23"/>
-      <c r="G168" s="37"/>
-      <c r="H168" s="23"/>
-      <c r="I168" s="49"/>
-      <c r="J168" s="22"/>
-    </row>
     <row r="169" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="33"/>
       <c r="B169" s="9"/>
       <c r="C169" s="9"/>
       <c r="D169" s="9"/>
@@ -10615,7 +10758,7 @@
       <c r="J169" s="22"/>
     </row>
     <row r="170" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="6"/>
+      <c r="A170" s="33"/>
       <c r="B170" s="9"/>
       <c r="C170" s="9"/>
       <c r="D170" s="9"/>
@@ -10627,7 +10770,7 @@
       <c r="J170" s="22"/>
     </row>
     <row r="171" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="6"/>
+      <c r="A171" s="33"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
@@ -10674,8 +10817,11 @@
       <c r="I174" s="49"/>
       <c r="J174" s="22"/>
     </row>
-    <row r="175" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6"/>
+      <c r="B175" s="9"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
       <c r="E175" s="23"/>
       <c r="F175" s="23"/>
       <c r="G175" s="37"/>
@@ -10683,8 +10829,11 @@
       <c r="I175" s="49"/>
       <c r="J175" s="22"/>
     </row>
-    <row r="176" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6"/>
+      <c r="B176" s="9"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9"/>
       <c r="E176" s="23"/>
       <c r="F176" s="23"/>
       <c r="G176" s="37"/>
@@ -10703,27 +10852,21 @@
     </row>
     <row r="178" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
-      <c r="B178" s="6"/>
-      <c r="C178" s="6"/>
-      <c r="D178" s="6"/>
-      <c r="E178" s="5"/>
-      <c r="F178" s="5"/>
-      <c r="G178" s="38"/>
-      <c r="H178" s="5"/>
-      <c r="I178" s="50"/>
-      <c r="J178" s="11"/>
+      <c r="E178" s="23"/>
+      <c r="F178" s="23"/>
+      <c r="G178" s="37"/>
+      <c r="H178" s="23"/>
+      <c r="I178" s="49"/>
+      <c r="J178" s="22"/>
     </row>
     <row r="179" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6"/>
-      <c r="B179" s="6"/>
-      <c r="C179" s="6"/>
-      <c r="D179" s="6"/>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
-      <c r="G179" s="38"/>
-      <c r="H179" s="5"/>
-      <c r="I179" s="50"/>
-      <c r="J179" s="11"/>
+      <c r="E179" s="23"/>
+      <c r="F179" s="23"/>
+      <c r="G179" s="37"/>
+      <c r="H179" s="23"/>
+      <c r="I179" s="49"/>
+      <c r="J179" s="22"/>
     </row>
     <row r="180" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
@@ -10821,7 +10964,11 @@
       <c r="I187" s="50"/>
       <c r="J187" s="11"/>
     </row>
-    <row r="188" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="6"/>
+      <c r="B188" s="6"/>
+      <c r="C188" s="6"/>
+      <c r="D188" s="6"/>
       <c r="E188" s="5"/>
       <c r="F188" s="5"/>
       <c r="G188" s="38"/>
@@ -10829,7 +10976,11 @@
       <c r="I188" s="50"/>
       <c r="J188" s="11"/>
     </row>
-    <row r="189" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="6"/>
+      <c r="B189" s="6"/>
+      <c r="C189" s="6"/>
+      <c r="D189" s="6"/>
       <c r="E189" s="5"/>
       <c r="F189" s="5"/>
       <c r="G189" s="38"/>
@@ -11117,7 +11268,7 @@
       <c r="I224" s="50"/>
       <c r="J224" s="11"/>
     </row>
-    <row r="225" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E225" s="5"/>
       <c r="F225" s="5"/>
       <c r="G225" s="38"/>
@@ -11125,7 +11276,7 @@
       <c r="I225" s="50"/>
       <c r="J225" s="11"/>
     </row>
-    <row r="226" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E226" s="5"/>
       <c r="F226" s="5"/>
       <c r="G226" s="38"/>
@@ -11133,7 +11284,7 @@
       <c r="I226" s="50"/>
       <c r="J226" s="11"/>
     </row>
-    <row r="227" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="38"/>
@@ -11141,7 +11292,7 @@
       <c r="I227" s="50"/>
       <c r="J227" s="11"/>
     </row>
-    <row r="228" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E228" s="5"/>
       <c r="F228" s="5"/>
       <c r="G228" s="38"/>
@@ -11149,7 +11300,7 @@
       <c r="I228" s="50"/>
       <c r="J228" s="11"/>
     </row>
-    <row r="229" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E229" s="5"/>
       <c r="F229" s="5"/>
       <c r="G229" s="38"/>
@@ -11157,7 +11308,7 @@
       <c r="I229" s="50"/>
       <c r="J229" s="11"/>
     </row>
-    <row r="230" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E230" s="5"/>
       <c r="F230" s="5"/>
       <c r="G230" s="38"/>
@@ -11165,7 +11316,7 @@
       <c r="I230" s="50"/>
       <c r="J230" s="11"/>
     </row>
-    <row r="231" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E231" s="5"/>
       <c r="F231" s="5"/>
       <c r="G231" s="38"/>
@@ -11173,7 +11324,7 @@
       <c r="I231" s="50"/>
       <c r="J231" s="11"/>
     </row>
-    <row r="232" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E232" s="5"/>
       <c r="F232" s="5"/>
       <c r="G232" s="38"/>
@@ -11181,7 +11332,7 @@
       <c r="I232" s="50"/>
       <c r="J232" s="11"/>
     </row>
-    <row r="233" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E233" s="5"/>
       <c r="F233" s="5"/>
       <c r="G233" s="38"/>
@@ -11189,7 +11340,7 @@
       <c r="I233" s="50"/>
       <c r="J233" s="11"/>
     </row>
-    <row r="234" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E234" s="5"/>
       <c r="F234" s="5"/>
       <c r="G234" s="38"/>
@@ -11197,7 +11348,7 @@
       <c r="I234" s="50"/>
       <c r="J234" s="11"/>
     </row>
-    <row r="235" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E235" s="5"/>
       <c r="F235" s="5"/>
       <c r="G235" s="38"/>
@@ -11205,7 +11356,7 @@
       <c r="I235" s="50"/>
       <c r="J235" s="11"/>
     </row>
-    <row r="236" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E236" s="5"/>
       <c r="F236" s="5"/>
       <c r="G236" s="38"/>
@@ -11213,7 +11364,7 @@
       <c r="I236" s="50"/>
       <c r="J236" s="11"/>
     </row>
-    <row r="237" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E237" s="5"/>
       <c r="F237" s="5"/>
       <c r="G237" s="38"/>
@@ -11221,7 +11372,7 @@
       <c r="I237" s="50"/>
       <c r="J237" s="11"/>
     </row>
-    <row r="238" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E238" s="5"/>
       <c r="F238" s="5"/>
       <c r="G238" s="38"/>
@@ -11229,8 +11380,7 @@
       <c r="I238" s="50"/>
       <c r="J238" s="11"/>
     </row>
-    <row r="239" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A239" s="1"/>
+    <row r="239" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E239" s="5"/>
       <c r="F239" s="5"/>
       <c r="G239" s="38"/>
@@ -11238,8 +11388,7 @@
       <c r="I239" s="50"/>
       <c r="J239" s="11"/>
     </row>
-    <row r="240" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A240" s="1"/>
+    <row r="240" spans="5:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E240" s="5"/>
       <c r="F240" s="5"/>
       <c r="G240" s="38"/>
@@ -11321,27 +11470,21 @@
     </row>
     <row r="249" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="1"/>
-      <c r="B249" s="1"/>
-      <c r="C249" s="1"/>
-      <c r="D249" s="1"/>
-      <c r="E249" s="3"/>
-      <c r="F249" s="3"/>
-      <c r="G249" s="39"/>
-      <c r="H249" s="3"/>
-      <c r="I249" s="51"/>
-      <c r="J249" s="13"/>
+      <c r="E249" s="5"/>
+      <c r="F249" s="5"/>
+      <c r="G249" s="38"/>
+      <c r="H249" s="5"/>
+      <c r="I249" s="50"/>
+      <c r="J249" s="11"/>
     </row>
     <row r="250" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1"/>
-      <c r="B250" s="1"/>
-      <c r="C250" s="1"/>
-      <c r="D250" s="1"/>
-      <c r="E250" s="3"/>
-      <c r="F250" s="3"/>
-      <c r="G250" s="39"/>
-      <c r="H250" s="3"/>
-      <c r="I250" s="51"/>
-      <c r="J250" s="13"/>
+      <c r="E250" s="5"/>
+      <c r="F250" s="5"/>
+      <c r="G250" s="38"/>
+      <c r="H250" s="5"/>
+      <c r="I250" s="50"/>
+      <c r="J250" s="11"/>
     </row>
     <row r="251" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
@@ -11439,11 +11582,35 @@
       <c r="I258" s="51"/>
       <c r="J258" s="13"/>
     </row>
+    <row r="259" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="1"/>
+      <c r="B259" s="1"/>
+      <c r="C259" s="1"/>
+      <c r="D259" s="1"/>
+      <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="39"/>
+      <c r="H259" s="3"/>
+      <c r="I259" s="51"/>
+      <c r="J259" s="13"/>
+    </row>
+    <row r="260" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="1"/>
+      <c r="B260" s="1"/>
+      <c r="C260" s="1"/>
+      <c r="D260" s="1"/>
+      <c r="E260" s="3"/>
+      <c r="F260" s="3"/>
+      <c r="G260" s="39"/>
+      <c r="H260" s="3"/>
+      <c r="I260" s="51"/>
+      <c r="J260" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J166"/>
+  <autoFilter ref="A1:J168"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/data/judo_therapy/data.xlsx
+++ b/data/judo_therapy/data.xlsx
@@ -15,8 +15,8 @@
     <sheet name="柔　整" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'柔　整'!$A$1:$J$168</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'柔　整'!$A$1:$J$168</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'柔　整'!$A$1:$J$170</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'柔　整'!$A$1:$J$170</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'柔　整'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="801" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="743">
   <si>
     <t>087-868-4722</t>
     <phoneticPr fontId="1"/>
@@ -4834,6 +4834,78 @@
     <rPh sb="16" eb="17">
       <t>ゴウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なつめ接骨院</t>
+    <rPh sb="3" eb="6">
+      <t>セッコツイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナツメセッコツイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香川県高松市仏生山町甲42-1</t>
+    <rPh sb="6" eb="10">
+      <t>ブッショウザンチョウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>087-813-5514</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>喜楽整骨院</t>
+    <rPh sb="0" eb="2">
+      <t>キラク</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セイコツイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キラクセイコツイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川端　重樹</t>
+    <rPh sb="0" eb="1">
+      <t>カワ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>バタ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香川県高松市磨屋町5-11 磨屋町ビル１Ｆ 101</t>
+    <rPh sb="0" eb="3">
+      <t>カガワケン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>タカマツシ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>トギヤマチ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>トギヤマチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>087-851-3677</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -5432,25 +5504,25 @@
     <tabColor indexed="36"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J260"/>
+  <dimension ref="A1:J262"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="S11" sqref="S11:S413"/>
       <selection pane="topRight" activeCell="S11" sqref="S11:S413"/>
       <selection pane="bottomLeft" activeCell="S11" sqref="S11:S413"/>
-      <selection pane="bottomRight" activeCell="B165" sqref="B165"/>
+      <selection pane="bottomRight" activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.88671875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.44140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41" style="39" customWidth="1"/>
     <col min="8" max="8" width="13.6640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="11.88671875" style="51" customWidth="1"/>
     <col min="10" max="10" width="4.6640625" style="13" customWidth="1"/>
@@ -6814,125 +6886,126 @@
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="2" t="str">
-        <f t="shared" ref="C44:C51" si="0">PHONETIC(B44)</f>
-        <v>クニカタセッコツイン</v>
+      <c r="B44" s="2" t="s">
+        <v>738</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>739</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>251</v>
+        <v>740</v>
       </c>
       <c r="E44" s="40">
-        <v>34.284745000000001</v>
+        <v>34.345768999999997</v>
       </c>
       <c r="F44" s="40">
-        <v>134.02856199999999</v>
+        <v>134.04562799999999</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>586</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>5</v>
+        <v>741</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>742</v>
       </c>
       <c r="I44" s="43">
-        <v>33394</v>
-      </c>
-      <c r="J44" s="20"/>
+        <v>43892</v>
+      </c>
+      <c r="J44" s="20" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="45" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="28" t="s">
-        <v>196</v>
+      <c r="B45" s="8" t="s">
+        <v>68</v>
       </c>
       <c r="C45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>クボシンキュウセッコツイン</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>197</v>
-      </c>
-      <c r="E45" s="41">
-        <v>34.340418</v>
-      </c>
-      <c r="F45" s="41">
-        <v>134.01149899999999</v>
+        <f t="shared" ref="C45:C52" si="0">PHONETIC(B45)</f>
+        <v>クニカタセッコツイン</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E45" s="40">
+        <v>34.284745000000001</v>
+      </c>
+      <c r="F45" s="40">
+        <v>134.02856199999999</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>587</v>
-      </c>
-      <c r="H45" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="I45" s="46">
-        <v>40004</v>
-      </c>
-      <c r="J45" s="20" t="s">
-        <v>145</v>
-      </c>
+        <v>586</v>
+      </c>
+      <c r="H45" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I45" s="43">
+        <v>33394</v>
+      </c>
+      <c r="J45" s="20"/>
     </row>
     <row r="46" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>98</v>
+      <c r="B46" s="28" t="s">
+        <v>196</v>
       </c>
       <c r="C46" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>クボセッコツイン</v>
-      </c>
-      <c r="D46" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="E46" s="40">
-        <v>34.324649000000001</v>
-      </c>
-      <c r="F46" s="40">
-        <v>134.07858100000001</v>
+        <v>クボシンキュウセッコツイン</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="E46" s="41">
+        <v>34.340418</v>
+      </c>
+      <c r="F46" s="41">
+        <v>134.01149899999999</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>588</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I46" s="43">
-        <v>36434</v>
-      </c>
-      <c r="J46" s="20"/>
+        <v>587</v>
+      </c>
+      <c r="H46" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="I46" s="46">
+        <v>40004</v>
+      </c>
+      <c r="J46" s="20" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="47" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>437</v>
+        <v>98</v>
       </c>
       <c r="C47" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>ケンセイコツイン</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>438</v>
+        <v>クボセッコツイン</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="E47" s="40">
-        <v>34.297524000000003</v>
+        <v>34.324649000000001</v>
       </c>
       <c r="F47" s="40">
-        <v>134.089235</v>
+        <v>134.07858100000001</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>439</v>
+        <v>35</v>
       </c>
       <c r="I47" s="43">
-        <v>43657</v>
+        <v>36434</v>
       </c>
       <c r="J47" s="20"/>
     </row>
@@ -6941,29 +7014,29 @@
         <v>47</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>70</v>
+        <v>437</v>
       </c>
       <c r="C48" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>コウザイセッコツイン</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>253</v>
+        <v>ケンセイコツイン</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="E48" s="40">
-        <v>34.342058000000002</v>
+        <v>34.297524000000003</v>
       </c>
       <c r="F48" s="40">
-        <v>134.06948600000001</v>
+        <v>134.089235</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>7</v>
+        <v>439</v>
       </c>
       <c r="I48" s="43">
-        <v>29647</v>
+        <v>43657</v>
       </c>
       <c r="J48" s="20"/>
     </row>
@@ -6979,22 +7052,22 @@
         <v>コウザイセッコツイン</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>316</v>
+        <v>253</v>
       </c>
       <c r="E49" s="40">
-        <v>34.350304999999999</v>
+        <v>34.342058000000002</v>
       </c>
       <c r="F49" s="40">
-        <v>133.99323899999999</v>
+        <v>134.06948600000001</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="I49" s="43">
-        <v>41365</v>
+        <v>29647</v>
       </c>
       <c r="J49" s="20"/>
     </row>
@@ -7003,29 +7076,29 @@
         <v>49</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>446</v>
+        <v>70</v>
       </c>
       <c r="C50" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>コクブンジセイコツイン</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>447</v>
+        <v>コウザイセッコツイン</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>316</v>
       </c>
       <c r="E50" s="40">
-        <v>34.301029</v>
+        <v>34.350304999999999</v>
       </c>
       <c r="F50" s="40">
-        <v>133.96772100000001</v>
+        <v>133.99323899999999</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>448</v>
+        <v>41</v>
       </c>
       <c r="I50" s="43">
-        <v>43837</v>
+        <v>41365</v>
       </c>
       <c r="J50" s="20"/>
     </row>
@@ -7034,29 +7107,29 @@
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>69</v>
+        <v>446</v>
       </c>
       <c r="C51" s="2" t="str">
         <f t="shared" si="0"/>
-        <v>コジマセッコツイン</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>255</v>
+        <v>コクブンジセイコツイン</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>447</v>
       </c>
       <c r="E51" s="40">
-        <v>34.329093</v>
+        <v>34.301029</v>
       </c>
       <c r="F51" s="40">
-        <v>134.06385700000001</v>
+        <v>133.96772100000001</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="H51" s="7" t="s">
-        <v>6</v>
+        <v>448</v>
       </c>
       <c r="I51" s="43">
-        <v>29342</v>
+        <v>43837</v>
       </c>
       <c r="J51" s="20"/>
     </row>
@@ -7065,61 +7138,61 @@
         <v>51</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>150</v>
+        <v>69</v>
+      </c>
+      <c r="C52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>コジマセッコツイン</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>116</v>
+        <v>255</v>
       </c>
       <c r="E52" s="40">
-        <v>34.240267000000003</v>
+        <v>34.329093</v>
       </c>
       <c r="F52" s="40">
-        <v>134.01641499999999</v>
+        <v>134.06385700000001</v>
       </c>
       <c r="G52" s="32" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="H52" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I52" s="45">
-        <v>36434</v>
-      </c>
-      <c r="J52" s="21"/>
+        <v>6</v>
+      </c>
+      <c r="I52" s="43">
+        <v>29342</v>
+      </c>
+      <c r="J52" s="20"/>
     </row>
     <row r="53" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="2" t="str">
-        <f t="shared" ref="C53:C60" si="1">PHONETIC(B53)</f>
-        <v>ササキセッコツイン</v>
+        <v>115</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>256</v>
+        <v>116</v>
       </c>
       <c r="E53" s="40">
-        <v>34.277875000000002</v>
+        <v>34.240267000000003</v>
       </c>
       <c r="F53" s="40">
-        <v>134.10302899999999</v>
+        <v>134.01641499999999</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I53" s="43">
-        <v>34186</v>
-      </c>
-      <c r="J53" s="20"/>
+        <v>52</v>
+      </c>
+      <c r="I53" s="45">
+        <v>36434</v>
+      </c>
+      <c r="J53" s="21"/>
     </row>
     <row r="54" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
@@ -7129,183 +7202,181 @@
         <v>72</v>
       </c>
       <c r="C54" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C54:C61" si="1">PHONETIC(B54)</f>
         <v>ササキセッコツイン</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>464</v>
+        <v>256</v>
       </c>
       <c r="E54" s="40">
-        <v>34.344237</v>
+        <v>34.277875000000002</v>
       </c>
       <c r="F54" s="40">
-        <v>134.069649</v>
+        <v>134.10302899999999</v>
       </c>
       <c r="G54" s="32" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="H54" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I54" s="43">
-        <v>44562</v>
-      </c>
-      <c r="J54" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>34186</v>
+      </c>
+      <c r="J54" s="20"/>
     </row>
     <row r="55" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>729</v>
+        <v>72</v>
+      </c>
+      <c r="C55" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>ササキセッコツイン</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>363</v>
+        <v>464</v>
       </c>
       <c r="E55" s="40">
-        <v>34.334299000000001</v>
+        <v>34.344237</v>
       </c>
       <c r="F55" s="40">
-        <v>134.04808499999999</v>
+        <v>134.069649</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H55" s="7" t="s">
-        <v>364</v>
+        <v>10</v>
       </c>
       <c r="I55" s="43">
-        <v>42242</v>
-      </c>
-      <c r="J55" s="18"/>
-    </row>
-    <row r="56" spans="1:10" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44562</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>728</v>
+      <c r="B56" s="8" t="s">
+        <v>362</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="E56" s="16">
-        <v>34.338890999999997</v>
-      </c>
-      <c r="F56" s="16">
-        <v>134.05840599999999</v>
-      </c>
-      <c r="G56" s="52" t="s">
-        <v>733</v>
-      </c>
-      <c r="H56" s="16" t="s">
-        <v>732</v>
-      </c>
-      <c r="I56" s="44">
-        <v>45460</v>
+        <v>729</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="E56" s="40">
+        <v>34.334299000000001</v>
+      </c>
+      <c r="F56" s="40">
+        <v>134.04808499999999</v>
+      </c>
+      <c r="G56" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="H56" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="I56" s="43">
+        <v>42242</v>
       </c>
       <c r="J56" s="18"/>
     </row>
-    <row r="57" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="C57" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>シチジョウセッコツイン</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="E57" s="40">
-        <v>34.282964999999997</v>
-      </c>
-      <c r="F57" s="40">
-        <v>134.02371299999999</v>
-      </c>
-      <c r="G57" s="32" t="s">
-        <v>598</v>
-      </c>
-      <c r="H57" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="I57" s="43">
-        <v>32907</v>
-      </c>
-      <c r="J57" s="20"/>
+      <c r="B57" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="E57" s="16">
+        <v>34.338890999999997</v>
+      </c>
+      <c r="F57" s="16">
+        <v>134.05840599999999</v>
+      </c>
+      <c r="G57" s="52" t="s">
+        <v>733</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>732</v>
+      </c>
+      <c r="I57" s="44">
+        <v>45460</v>
+      </c>
+      <c r="J57" s="18"/>
     </row>
     <row r="58" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>73</v>
+        <v>178</v>
       </c>
       <c r="C58" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>シノミヤセッコツイン</v>
+        <v>シチジョウセッコツイン</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>413</v>
+        <v>257</v>
       </c>
       <c r="E58" s="40">
-        <v>34.346981999999997</v>
+        <v>34.282964999999997</v>
       </c>
       <c r="F58" s="40">
-        <v>134.001351</v>
+        <v>134.02371299999999</v>
       </c>
       <c r="G58" s="32" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H58" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I58" s="43">
-        <v>28496</v>
-      </c>
-      <c r="J58" s="20" t="s">
-        <v>145</v>
-      </c>
+        <v>32907</v>
+      </c>
+      <c r="J58" s="20"/>
     </row>
     <row r="59" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>393</v>
+        <v>73</v>
       </c>
       <c r="C59" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>シミズセッコツイン</v>
+        <v>シノミヤセッコツイン</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="E59" s="40">
-        <v>34.311008000000001</v>
+        <v>34.346981999999997</v>
       </c>
       <c r="F59" s="40">
-        <v>134.04754500000001</v>
+        <v>134.001351</v>
       </c>
       <c r="G59" s="32" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="H59" s="7" t="s">
-        <v>395</v>
+        <v>12</v>
       </c>
       <c r="I59" s="43">
-        <v>42899</v>
+        <v>28496</v>
       </c>
       <c r="J59" s="20" t="s">
         <v>145</v>
@@ -7316,186 +7387,186 @@
         <v>59</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>276</v>
+        <v>393</v>
       </c>
       <c r="C60" s="2" t="str">
         <f t="shared" si="1"/>
-        <v>シモエノオセイコツイン</v>
+        <v>シミズセッコツイン</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>277</v>
+        <v>394</v>
       </c>
       <c r="E60" s="40">
-        <v>34.262625</v>
+        <v>34.311008000000001</v>
       </c>
       <c r="F60" s="40">
-        <v>134.024652</v>
+        <v>134.04754500000001</v>
       </c>
       <c r="G60" s="32" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H60" s="7" t="s">
-        <v>278</v>
+        <v>395</v>
       </c>
       <c r="I60" s="43">
-        <v>42887</v>
-      </c>
-      <c r="J60" s="21"/>
+        <v>42899</v>
+      </c>
+      <c r="J60" s="20" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="61" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>149</v>
+        <v>276</v>
+      </c>
+      <c r="C61" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>シモエノオセイコツイン</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="E61" s="40">
-        <v>34.337761999999998</v>
+        <v>34.262625</v>
       </c>
       <c r="F61" s="40">
-        <v>134.04435699999999</v>
+        <v>134.024652</v>
       </c>
       <c r="G61" s="32" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>1</v>
+        <v>278</v>
       </c>
       <c r="I61" s="43">
-        <v>38322</v>
-      </c>
-      <c r="J61" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>42887</v>
+      </c>
+      <c r="J61" s="21"/>
     </row>
     <row r="62" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="2" t="str">
-        <f>PHONETIC(B62)</f>
-        <v>ショウジ セッコツイン</v>
+        <v>106</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E62" s="40">
-        <v>34.269897</v>
+        <v>34.337761999999998</v>
       </c>
       <c r="F62" s="40">
-        <v>134.03004899999999</v>
+        <v>134.04435699999999</v>
       </c>
       <c r="G62" s="32" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="H62" s="7" t="s">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="I62" s="43">
-        <v>33549</v>
-      </c>
-      <c r="J62" s="21"/>
+        <v>38322</v>
+      </c>
+      <c r="J62" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="63" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>449</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>519</v>
+        <v>118</v>
+      </c>
+      <c r="C63" s="2" t="str">
+        <f>PHONETIC(B63)</f>
+        <v>ショウジ セッコツイン</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>450</v>
+        <v>258</v>
       </c>
       <c r="E63" s="40">
-        <v>34.269686</v>
+        <v>34.269897</v>
       </c>
       <c r="F63" s="40">
-        <v>134.03456399999999</v>
+        <v>134.03004899999999</v>
       </c>
       <c r="G63" s="32" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="H63" s="7" t="s">
-        <v>451</v>
+        <v>54</v>
       </c>
       <c r="I63" s="43">
-        <v>44013</v>
-      </c>
-      <c r="J63" s="18"/>
+        <v>33549</v>
+      </c>
+      <c r="J63" s="21"/>
     </row>
     <row r="64" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C64" s="2" t="str">
-        <f>PHONETIC(B64)</f>
-        <v>スエザワセッコツイン</v>
+        <v>449</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>519</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>112</v>
+        <v>450</v>
       </c>
       <c r="E64" s="40">
-        <v>34.293765</v>
+        <v>34.269686</v>
       </c>
       <c r="F64" s="40">
-        <v>133.964755</v>
+        <v>134.03456399999999</v>
       </c>
       <c r="G64" s="32" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="H64" s="7" t="s">
-        <v>49</v>
+        <v>451</v>
       </c>
       <c r="I64" s="43">
-        <v>33567</v>
-      </c>
-      <c r="J64" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>44013</v>
+      </c>
+      <c r="J64" s="18"/>
     </row>
     <row r="65" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>165</v>
+        <v>111</v>
       </c>
       <c r="C65" s="2" t="str">
         <f>PHONETIC(B65)</f>
-        <v>スコヤカシンキュウセイコツイン</v>
+        <v>スエザワセッコツイン</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E65" s="40">
-        <v>34.350797</v>
+        <v>34.293765</v>
       </c>
       <c r="F65" s="40">
-        <v>134.088661</v>
+        <v>133.964755</v>
       </c>
       <c r="G65" s="32" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="H65" s="7" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="I65" s="43">
-        <v>39412</v>
+        <v>33567</v>
       </c>
       <c r="J65" s="18" t="s">
         <v>145</v>
@@ -7506,28 +7577,29 @@
         <v>65</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>520</v>
+        <v>165</v>
+      </c>
+      <c r="C66" s="2" t="str">
+        <f>PHONETIC(B66)</f>
+        <v>スコヤカシンキュウセイコツイン</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>434</v>
+        <v>128</v>
       </c>
       <c r="E66" s="40">
-        <v>34.348706999999997</v>
+        <v>34.350797</v>
       </c>
       <c r="F66" s="40">
-        <v>134.01070899999999</v>
+        <v>134.088661</v>
       </c>
       <c r="G66" s="32" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="H66" s="7" t="s">
-        <v>435</v>
+        <v>60</v>
       </c>
       <c r="I66" s="43">
-        <v>20504</v>
+        <v>39412</v>
       </c>
       <c r="J66" s="18" t="s">
         <v>145</v>
@@ -7538,29 +7610,28 @@
         <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C67" s="2" t="str">
-        <f>PHONETIC(B67)</f>
-        <v>スナガワセッコツイン</v>
+        <v>433</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>520</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>259</v>
+        <v>434</v>
       </c>
       <c r="E67" s="40">
-        <v>34.335113</v>
+        <v>34.348706999999997</v>
       </c>
       <c r="F67" s="40">
-        <v>134.07334599999999</v>
+        <v>134.01070899999999</v>
       </c>
       <c r="G67" s="32" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>13</v>
+        <v>435</v>
       </c>
       <c r="I67" s="43">
-        <v>32300</v>
+        <v>20504</v>
       </c>
       <c r="J67" s="18" t="s">
         <v>145</v>
@@ -7571,29 +7642,29 @@
         <v>67</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="C68" s="2" t="str">
         <f>PHONETIC(B68)</f>
-        <v>セッコツインnavi</v>
+        <v>スナガワセッコツイン</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="E68" s="40">
-        <v>34.311416999999999</v>
+        <v>34.335113</v>
       </c>
       <c r="F68" s="40">
-        <v>134.04428100000001</v>
+        <v>134.07334599999999</v>
       </c>
       <c r="G68" s="32" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="H68" s="7" t="s">
-        <v>203</v>
+        <v>13</v>
       </c>
       <c r="I68" s="43">
-        <v>42879</v>
+        <v>32300</v>
       </c>
       <c r="J68" s="18" t="s">
         <v>145</v>
@@ -7604,120 +7675,120 @@
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>426</v>
+        <v>200</v>
       </c>
       <c r="C69" s="2" t="str">
         <f>PHONETIC(B69)</f>
-        <v>セッコツインネスト</v>
+        <v>セッコツインnavi</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>427</v>
+        <v>201</v>
       </c>
       <c r="E69" s="40">
-        <v>34.308320999999999</v>
+        <v>34.311416999999999</v>
       </c>
       <c r="F69" s="40">
-        <v>134.063761</v>
+        <v>134.04428100000001</v>
       </c>
       <c r="G69" s="32" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>428</v>
+        <v>203</v>
       </c>
       <c r="I69" s="43">
-        <v>43160</v>
-      </c>
-      <c r="J69" s="18"/>
+        <v>42879</v>
+      </c>
+      <c r="J69" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="70" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>521</v>
+        <v>426</v>
+      </c>
+      <c r="C70" s="2" t="str">
+        <f>PHONETIC(B70)</f>
+        <v>セッコツインネスト</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>329</v>
+        <v>427</v>
       </c>
       <c r="E70" s="40">
-        <v>34.320202999999999</v>
+        <v>34.308320999999999</v>
       </c>
       <c r="F70" s="40">
-        <v>134.05831900000001</v>
+        <v>134.063761</v>
       </c>
       <c r="G70" s="32" t="s">
-        <v>611</v>
-      </c>
-      <c r="H70" s="7"/>
+        <v>610</v>
+      </c>
+      <c r="H70" s="7" t="s">
+        <v>428</v>
+      </c>
       <c r="I70" s="43">
-        <v>41588</v>
-      </c>
-      <c r="J70" s="21"/>
+        <v>43160</v>
+      </c>
+      <c r="J70" s="18"/>
     </row>
     <row r="71" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>469</v>
+        <v>328</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>472</v>
+        <v>329</v>
       </c>
       <c r="E71" s="40">
-        <v>34.329731000000002</v>
+        <v>34.320202999999999</v>
       </c>
       <c r="F71" s="40">
-        <v>134.06224700000001</v>
+        <v>134.05831900000001</v>
       </c>
       <c r="G71" s="32" t="s">
-        <v>612</v>
-      </c>
-      <c r="H71" s="7" t="s">
-        <v>473</v>
-      </c>
+        <v>611</v>
+      </c>
+      <c r="H71" s="7"/>
       <c r="I71" s="43">
-        <v>44670</v>
-      </c>
-      <c r="J71" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>41588</v>
+      </c>
+      <c r="J71" s="21"/>
     </row>
     <row r="72" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" s="2" t="str">
-        <f>PHONETIC(B72)</f>
-        <v>タイラセッコツイン</v>
+        <v>469</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>470</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>260</v>
+        <v>472</v>
       </c>
       <c r="E72" s="40">
-        <v>34.321541000000003</v>
+        <v>34.329731000000002</v>
       </c>
       <c r="F72" s="40">
-        <v>134.06281799999999</v>
+        <v>134.06224700000001</v>
       </c>
       <c r="G72" s="32" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>33</v>
+        <v>473</v>
       </c>
       <c r="I72" s="43">
-        <v>36194</v>
+        <v>44670</v>
       </c>
       <c r="J72" s="18" t="s">
         <v>145</v>
@@ -7728,28 +7799,29 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>365</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>471</v>
+        <v>96</v>
+      </c>
+      <c r="C73" s="2" t="str">
+        <f>PHONETIC(B73)</f>
+        <v>タイラセッコツイン</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>187</v>
+        <v>260</v>
       </c>
       <c r="E73" s="40">
-        <v>34.333159000000002</v>
+        <v>34.321541000000003</v>
       </c>
       <c r="F73" s="40">
-        <v>134.048125</v>
+        <v>134.06281799999999</v>
       </c>
       <c r="G73" s="32" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="H73" s="7" t="s">
-        <v>369</v>
+        <v>33</v>
       </c>
       <c r="I73" s="43">
-        <v>42319</v>
+        <v>36194</v>
       </c>
       <c r="J73" s="18" t="s">
         <v>145</v>
@@ -7760,32 +7832,31 @@
         <v>73</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="C74" s="2" t="str">
-        <f t="shared" ref="C74:C87" si="2">PHONETIC(B74)</f>
-        <v>タカシンキュウセッコツイン</v>
+        <v>365</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>471</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>270</v>
+        <v>187</v>
       </c>
       <c r="E74" s="40">
-        <v>34.311684999999997</v>
+        <v>34.333159000000002</v>
       </c>
       <c r="F74" s="40">
-        <v>134.057176</v>
+        <v>134.048125</v>
       </c>
       <c r="G74" s="32" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="H74" s="7" t="s">
-        <v>271</v>
+        <v>369</v>
       </c>
       <c r="I74" s="43">
-        <v>40299</v>
+        <v>42319</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>272</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7793,93 +7864,93 @@
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>75</v>
+        <v>269</v>
       </c>
       <c r="C75" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>タカハシセッコツイン</v>
+        <f t="shared" ref="C75:C88" si="2">PHONETIC(B75)</f>
+        <v>タカシンキュウセッコツイン</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="E75" s="40">
-        <v>34.331446</v>
+        <v>34.311684999999997</v>
       </c>
       <c r="F75" s="40">
-        <v>134.04839899999999</v>
+        <v>134.057176</v>
       </c>
       <c r="G75" s="32" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H75" s="7" t="s">
-        <v>356</v>
+        <v>271</v>
       </c>
       <c r="I75" s="43">
-        <v>42156</v>
-      </c>
-      <c r="J75" s="20"/>
+        <v>40299</v>
+      </c>
+      <c r="J75" s="18" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="76" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="C76" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>タカマツクアセッコツイン</v>
+        <v>タカハシセッコツイン</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>110</v>
+        <v>261</v>
       </c>
       <c r="E76" s="40">
-        <v>34.343364000000001</v>
+        <v>34.331446</v>
       </c>
       <c r="F76" s="40">
-        <v>134.00131099999999</v>
+        <v>134.04839899999999</v>
       </c>
       <c r="G76" s="32" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H76" s="7" t="s">
-        <v>136</v>
+        <v>356</v>
       </c>
       <c r="I76" s="43">
-        <v>38443</v>
-      </c>
-      <c r="J76" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>42156</v>
+      </c>
+      <c r="J76" s="20"/>
     </row>
     <row r="77" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>484</v>
+        <v>109</v>
       </c>
       <c r="C77" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>タカマツサカグチシンキュウセイコツイン オオタイン</v>
+        <v>タカマツクアセッコツイン</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>485</v>
+        <v>110</v>
       </c>
       <c r="E77" s="40">
-        <v>34.309077000000002</v>
+        <v>34.343364000000001</v>
       </c>
       <c r="F77" s="40">
-        <v>134.04403099999999</v>
+        <v>134.00131099999999</v>
       </c>
       <c r="G77" s="32" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="H77" s="7" t="s">
-        <v>486</v>
+        <v>136</v>
       </c>
       <c r="I77" s="43">
-        <v>44900</v>
+        <v>38443</v>
       </c>
       <c r="J77" s="18" t="s">
         <v>145</v>
@@ -7890,29 +7961,29 @@
         <v>77</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>304</v>
+        <v>484</v>
       </c>
       <c r="C78" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>タカマツスマイルシンキュウセイコツイン</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>305</v>
+        <v>タカマツサカグチシンキュウセイコツイン オオタイン</v>
+      </c>
+      <c r="D78" s="8" t="s">
+        <v>485</v>
       </c>
       <c r="E78" s="40">
-        <v>34.244188000000001</v>
+        <v>34.309077000000002</v>
       </c>
       <c r="F78" s="40">
-        <v>134.08440300000001</v>
+        <v>134.04403099999999</v>
       </c>
       <c r="G78" s="32" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>306</v>
+        <v>486</v>
       </c>
       <c r="I78" s="43">
-        <v>40898</v>
+        <v>44900</v>
       </c>
       <c r="J78" s="18" t="s">
         <v>145</v>
@@ -7923,29 +7994,29 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>76</v>
+        <v>304</v>
       </c>
       <c r="C79" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>タカマツセイコツイン</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>213</v>
+        <v>タカマツスマイルシンキュウセイコツイン</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>305</v>
       </c>
       <c r="E79" s="40">
-        <v>34.341887999999997</v>
+        <v>34.244188000000001</v>
       </c>
       <c r="F79" s="40">
-        <v>134.03182899999999</v>
+        <v>134.08440300000001</v>
       </c>
       <c r="G79" s="32" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>14</v>
+        <v>306</v>
       </c>
       <c r="I79" s="43">
-        <v>33547</v>
+        <v>40898</v>
       </c>
       <c r="J79" s="18" t="s">
         <v>145</v>
@@ -7956,62 +8027,64 @@
         <v>79</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C80" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>タキガワセジュツショ</v>
+        <v>タカマツセイコツイン</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E80" s="40">
-        <v>34.340279000000002</v>
+        <v>34.341887999999997</v>
       </c>
       <c r="F80" s="40">
-        <v>134.05004099999999</v>
+        <v>134.03182899999999</v>
       </c>
       <c r="G80" s="32" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I80" s="43">
-        <v>25628</v>
-      </c>
-      <c r="J80" s="20"/>
+        <v>33547</v>
+      </c>
+      <c r="J80" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="81" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="C81" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>タケウエセッコツイン</v>
+        <v>タキガワセジュツショ</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E81" s="40">
-        <v>34.345371</v>
+        <v>34.340279000000002</v>
       </c>
       <c r="F81" s="40">
-        <v>134.12071700000001</v>
+        <v>134.05004099999999</v>
       </c>
       <c r="G81" s="32" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H81" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I81" s="45">
-        <v>30972</v>
-      </c>
-      <c r="J81" s="21"/>
+        <v>15</v>
+      </c>
+      <c r="I81" s="43">
+        <v>25628</v>
+      </c>
+      <c r="J81" s="20"/>
     </row>
     <row r="82" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
@@ -8025,55 +8098,53 @@
         <v>タケウエセッコツイン</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E82" s="40">
-        <v>34.344211000000001</v>
+        <v>34.345371</v>
       </c>
       <c r="F82" s="40">
-        <v>134.13830799999999</v>
+        <v>134.12071700000001</v>
       </c>
       <c r="G82" s="32" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="H82" s="7" t="s">
-        <v>174</v>
+        <v>50</v>
       </c>
       <c r="I82" s="45">
-        <v>37347</v>
-      </c>
-      <c r="J82" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>30972</v>
+      </c>
+      <c r="J82" s="21"/>
     </row>
     <row r="83" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C83" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>タケダセッコツイン</v>
+        <v>タケウエセッコツイン</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
       <c r="E83" s="40">
-        <v>34.302152</v>
+        <v>34.344211000000001</v>
       </c>
       <c r="F83" s="40">
-        <v>134.041696</v>
+        <v>134.13830799999999</v>
       </c>
       <c r="G83" s="32" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="H83" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I83" s="43">
-        <v>42461</v>
+        <v>174</v>
+      </c>
+      <c r="I83" s="45">
+        <v>37347</v>
       </c>
       <c r="J83" s="18" t="s">
         <v>145</v>
@@ -8084,93 +8155,93 @@
         <v>83</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>396</v>
+        <v>126</v>
       </c>
       <c r="C84" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>タダセッコツイン</v>
+        <v>タケダセッコツイン</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>397</v>
+        <v>127</v>
       </c>
       <c r="E84" s="40">
-        <v>34.337648000000002</v>
+        <v>34.302152</v>
       </c>
       <c r="F84" s="40">
-        <v>134.063039</v>
+        <v>134.041696</v>
       </c>
       <c r="G84" s="32" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>398</v>
+        <v>56</v>
       </c>
       <c r="I84" s="43">
-        <v>42919</v>
-      </c>
-      <c r="J84" s="18"/>
+        <v>42461</v>
+      </c>
+      <c r="J84" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="85" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>713</v>
+        <v>396</v>
       </c>
       <c r="C85" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>タテモトセッコツイン</v>
+        <v>タダセッコツイン</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>714</v>
+        <v>397</v>
       </c>
       <c r="E85" s="40">
-        <v>34.344265999999998</v>
+        <v>34.337648000000002</v>
       </c>
       <c r="F85" s="40">
-        <v>134.03674100000001</v>
+        <v>134.063039</v>
       </c>
       <c r="G85" s="32" t="s">
-        <v>715</v>
-      </c>
-      <c r="H85" s="40" t="s">
-        <v>716</v>
+        <v>625</v>
+      </c>
+      <c r="H85" s="7" t="s">
+        <v>398</v>
       </c>
       <c r="I85" s="43">
-        <v>45442</v>
-      </c>
-      <c r="J85" s="21" t="s">
-        <v>145</v>
-      </c>
+        <v>42919</v>
+      </c>
+      <c r="J85" s="18"/>
     </row>
     <row r="86" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>184</v>
+        <v>713</v>
       </c>
       <c r="C86" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>タナカシンキュウセイコツイン</v>
+        <v>タテモトセッコツイン</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>185</v>
+        <v>714</v>
       </c>
       <c r="E86" s="40">
-        <v>34.337577000000003</v>
+        <v>34.344265999999998</v>
       </c>
       <c r="F86" s="40">
-        <v>134.062974</v>
+        <v>134.03674100000001</v>
       </c>
       <c r="G86" s="32" t="s">
-        <v>626</v>
-      </c>
-      <c r="H86" s="7" t="s">
-        <v>186</v>
+        <v>715</v>
+      </c>
+      <c r="H86" s="40" t="s">
+        <v>716</v>
       </c>
       <c r="I86" s="43">
-        <v>39772</v>
+        <v>45442</v>
       </c>
       <c r="J86" s="21" t="s">
         <v>145</v>
@@ -8180,33 +8251,33 @@
       <c r="A87" s="2">
         <v>86</v>
       </c>
-      <c r="B87" s="2" t="s">
-        <v>294</v>
+      <c r="B87" s="8" t="s">
+        <v>184</v>
       </c>
       <c r="C87" s="2" t="str">
         <f t="shared" si="2"/>
-        <v>チクゴシンキュウセイコツイン</v>
+        <v>タナカシンキュウセイコツイン</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>295</v>
+        <v>185</v>
       </c>
       <c r="E87" s="40">
-        <v>34.323653</v>
+        <v>34.337577000000003</v>
       </c>
       <c r="F87" s="40">
-        <v>134.072329</v>
+        <v>134.062974</v>
       </c>
       <c r="G87" s="32" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="H87" s="7" t="s">
-        <v>296</v>
+        <v>186</v>
       </c>
       <c r="I87" s="43">
-        <v>40749</v>
-      </c>
-      <c r="J87" s="20" t="s">
-        <v>297</v>
+        <v>39772</v>
+      </c>
+      <c r="J87" s="21" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="88" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8214,58 +8285,61 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>492</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>493</v>
+        <v>294</v>
+      </c>
+      <c r="C88" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>チクゴシンキュウセイコツイン</v>
       </c>
       <c r="D88" s="8" t="s">
-        <v>494</v>
+        <v>295</v>
       </c>
       <c r="E88" s="40">
-        <v>34.338791999999998</v>
+        <v>34.323653</v>
       </c>
       <c r="F88" s="40">
-        <v>134.04852399999999</v>
+        <v>134.072329</v>
       </c>
       <c r="G88" s="32" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>495</v>
+        <v>296</v>
       </c>
       <c r="I88" s="43">
-        <v>45056</v>
-      </c>
-      <c r="J88" s="20"/>
+        <v>40749</v>
+      </c>
+      <c r="J88" s="20" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="89" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>503</v>
+        <v>492</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>522</v>
+        <v>493</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="E89" s="40">
-        <v>34.315911</v>
+        <v>34.338791999999998</v>
       </c>
       <c r="F89" s="40">
-        <v>134.03908799999999</v>
+        <v>134.04852399999999</v>
       </c>
       <c r="G89" s="32" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="H89" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="I89" s="43">
-        <v>45352</v>
+        <v>45056</v>
       </c>
       <c r="J89" s="20"/>
     </row>
@@ -8273,27 +8347,29 @@
       <c r="A90" s="2">
         <v>89</v>
       </c>
-      <c r="B90" s="8" t="s">
-        <v>346</v>
+      <c r="B90" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>347</v>
+        <v>504</v>
       </c>
       <c r="E90" s="40">
-        <v>34.321258999999998</v>
+        <v>34.315911</v>
       </c>
       <c r="F90" s="40">
-        <v>134.04483400000001</v>
+        <v>134.03908799999999</v>
       </c>
       <c r="G90" s="32" t="s">
-        <v>630</v>
-      </c>
-      <c r="H90" s="7"/>
-      <c r="I90" s="45">
-        <v>42009</v>
+        <v>629</v>
+      </c>
+      <c r="H90" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="I90" s="43">
+        <v>45352</v>
       </c>
       <c r="J90" s="20"/>
     </row>
@@ -8302,93 +8378,90 @@
         <v>90</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C91" s="2" t="str">
-        <f>PHONETIC(B91)</f>
-        <v>ナカイセッコツイン</v>
+        <v>346</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>523</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>207</v>
+        <v>347</v>
       </c>
       <c r="E91" s="40">
-        <v>34.277093999999998</v>
+        <v>34.321258999999998</v>
       </c>
       <c r="F91" s="40">
-        <v>134.03984399999999</v>
+        <v>134.04483400000001</v>
       </c>
       <c r="G91" s="32" t="s">
-        <v>631</v>
-      </c>
-      <c r="H91" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="I91" s="43">
-        <v>35055</v>
-      </c>
-      <c r="J91" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>630</v>
+      </c>
+      <c r="H91" s="7"/>
+      <c r="I91" s="45">
+        <v>42009</v>
+      </c>
+      <c r="J91" s="20"/>
     </row>
     <row r="92" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="C92" s="2" t="str">
         <f>PHONETIC(B92)</f>
-        <v>ナカジマセッコツイン</v>
+        <v>ナカイセッコツイン</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E92" s="40">
-        <v>34.307571000000003</v>
+        <v>34.277093999999998</v>
       </c>
       <c r="F92" s="40">
-        <v>134.04816099999999</v>
+        <v>134.03984399999999</v>
       </c>
       <c r="G92" s="32" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="H92" s="7" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="I92" s="43">
-        <v>32512</v>
-      </c>
-      <c r="J92" s="20"/>
+        <v>35055</v>
+      </c>
+      <c r="J92" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="93" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>286</v>
+        <v>78</v>
       </c>
       <c r="C93" s="2" t="str">
         <f>PHONETIC(B93)</f>
-        <v>ナカソネセイコツイン</v>
+        <v>ナカジマセッコツイン</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>287</v>
+        <v>208</v>
       </c>
       <c r="E93" s="40">
-        <v>34.255747999999997</v>
+        <v>34.307571000000003</v>
       </c>
       <c r="F93" s="40">
-        <v>134.033804</v>
+        <v>134.04816099999999</v>
       </c>
       <c r="G93" s="32" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="H93" s="7" t="s">
-        <v>288</v>
+        <v>16</v>
       </c>
       <c r="I93" s="43">
-        <v>40639</v>
+        <v>32512</v>
       </c>
       <c r="J93" s="20"/>
     </row>
@@ -8397,29 +8470,29 @@
         <v>93</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>383</v>
+        <v>286</v>
       </c>
       <c r="C94" s="2" t="str">
         <f>PHONETIC(B94)</f>
-        <v>ナガノセッコツイン</v>
+        <v>ナカソネセイコツイン</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>384</v>
+        <v>287</v>
       </c>
       <c r="E94" s="40">
-        <v>34.330219</v>
+        <v>34.255747999999997</v>
       </c>
       <c r="F94" s="40">
-        <v>134.10628700000001</v>
+        <v>134.033804</v>
       </c>
       <c r="G94" s="32" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="H94" s="7" t="s">
-        <v>385</v>
+        <v>288</v>
       </c>
       <c r="I94" s="43">
-        <v>41736</v>
+        <v>40639</v>
       </c>
       <c r="J94" s="20"/>
     </row>
@@ -8428,29 +8501,29 @@
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>195</v>
+        <v>383</v>
       </c>
       <c r="C95" s="2" t="str">
         <f>PHONETIC(B95)</f>
-        <v>ナゴミセイコツイン</v>
+        <v>ナガノセッコツイン</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>209</v>
+        <v>384</v>
       </c>
       <c r="E95" s="40">
-        <v>34.264961</v>
+        <v>34.330219</v>
       </c>
       <c r="F95" s="40">
-        <v>134.10543899999999</v>
+        <v>134.10628700000001</v>
       </c>
       <c r="G95" s="32" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="H95" s="7" t="s">
-        <v>436</v>
+        <v>385</v>
       </c>
       <c r="I95" s="43">
-        <v>43583</v>
+        <v>41736</v>
       </c>
       <c r="J95" s="20"/>
     </row>
@@ -8459,28 +8532,29 @@
         <v>95</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>524</v>
+        <v>195</v>
+      </c>
+      <c r="C96" s="2" t="str">
+        <f>PHONETIC(B96)</f>
+        <v>ナゴミセイコツイン</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>341</v>
+        <v>209</v>
       </c>
       <c r="E96" s="40">
-        <v>34.335251</v>
+        <v>34.264961</v>
       </c>
       <c r="F96" s="40">
-        <v>134.05085600000001</v>
+        <v>134.10543899999999</v>
       </c>
       <c r="G96" s="32" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="H96" s="7" t="s">
-        <v>381</v>
+        <v>436</v>
       </c>
       <c r="I96" s="43">
-        <v>41944</v>
+        <v>43583</v>
       </c>
       <c r="J96" s="20"/>
     </row>
@@ -8489,64 +8563,61 @@
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>441</v>
+        <v>340</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D97" s="8" t="s">
-        <v>463</v>
+        <v>341</v>
       </c>
       <c r="E97" s="40">
-        <v>34.326560999999998</v>
+        <v>34.335251</v>
       </c>
       <c r="F97" s="40">
-        <v>134.07038299999999</v>
+        <v>134.05085600000001</v>
       </c>
       <c r="G97" s="32" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>442</v>
+        <v>381</v>
       </c>
       <c r="I97" s="43">
-        <v>44335</v>
-      </c>
-      <c r="J97" s="20" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>41944</v>
+      </c>
+      <c r="J97" s="20"/>
+    </row>
+    <row r="98" spans="1:10" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>97</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C98" s="2" t="str">
-        <f t="shared" ref="C98:C105" si="3">PHONETIC(B98)</f>
-        <v>ナミオセッコツイン</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="E98" s="40">
-        <v>34.283332999999999</v>
-      </c>
-      <c r="F98" s="40">
-        <v>134.01154099999999</v>
-      </c>
-      <c r="G98" s="32" t="s">
-        <v>638</v>
-      </c>
-      <c r="H98" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I98" s="43">
-        <v>38482</v>
-      </c>
-      <c r="J98" s="18" t="s">
-        <v>145</v>
+      <c r="B98" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="E98" s="16">
+        <v>34.287421000000002</v>
+      </c>
+      <c r="F98" s="16">
+        <v>134.03875099999999</v>
+      </c>
+      <c r="G98" s="52" t="s">
+        <v>736</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>737</v>
+      </c>
+      <c r="I98" s="44">
+        <v>45475</v>
+      </c>
+      <c r="J98" s="17" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -8554,122 +8625,125 @@
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C99" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ハマガキセッコツイン</v>
+        <v>441</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>525</v>
       </c>
       <c r="D99" s="8" t="s">
-        <v>211</v>
+        <v>463</v>
       </c>
       <c r="E99" s="40">
-        <v>34.316357000000004</v>
+        <v>34.326560999999998</v>
       </c>
       <c r="F99" s="40">
-        <v>134.02864700000001</v>
+        <v>134.07038299999999</v>
       </c>
       <c r="G99" s="32" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H99" s="7" t="s">
-        <v>17</v>
+        <v>442</v>
       </c>
       <c r="I99" s="43">
-        <v>30529</v>
-      </c>
-      <c r="J99" s="20"/>
+        <v>44335</v>
+      </c>
+      <c r="J99" s="20" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="100" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="C100" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>ハマノセッコツイン</v>
+        <f t="shared" ref="C100:C107" si="3">PHONETIC(B100)</f>
+        <v>ナミオセッコツイン</v>
       </c>
       <c r="D100" s="8" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E100" s="40">
-        <v>34.351086000000002</v>
+        <v>34.283332999999999</v>
       </c>
       <c r="F100" s="40">
-        <v>134.12201899999999</v>
+        <v>134.01154099999999</v>
       </c>
       <c r="G100" s="32" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="H100" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="I100" s="45">
-        <v>27837</v>
-      </c>
-      <c r="J100" s="21"/>
+        <v>47</v>
+      </c>
+      <c r="I100" s="43">
+        <v>38482</v>
+      </c>
+      <c r="J100" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="101" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>176</v>
+        <v>79</v>
       </c>
       <c r="C101" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ハヤシセイコツイン</v>
+        <v>ハマガキセッコツイン</v>
       </c>
       <c r="D101" s="8" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E101" s="40">
-        <v>34.302017999999997</v>
+        <v>34.316357000000004</v>
       </c>
       <c r="F101" s="40">
-        <v>134.069383996243</v>
+        <v>134.02864700000001</v>
       </c>
       <c r="G101" s="32" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="H101" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="I101" s="45">
-        <v>39632</v>
-      </c>
-      <c r="J101" s="21"/>
+        <v>17</v>
+      </c>
+      <c r="I101" s="43">
+        <v>30529</v>
+      </c>
+      <c r="J101" s="20"/>
     </row>
     <row r="102" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>399</v>
+        <v>114</v>
       </c>
       <c r="C102" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ハラセイコツイン</v>
+        <v>ハマノセッコツイン</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>400</v>
+        <v>212</v>
       </c>
       <c r="E102" s="40">
-        <v>34.343505999999998</v>
+        <v>34.351086000000002</v>
       </c>
       <c r="F102" s="40">
-        <v>134.06172799999999</v>
+        <v>134.12201899999999</v>
       </c>
       <c r="G102" s="32" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H102" s="7" t="s">
-        <v>401</v>
+        <v>51</v>
       </c>
       <c r="I102" s="45">
-        <v>42937</v>
+        <v>27837</v>
       </c>
       <c r="J102" s="21"/>
     </row>
@@ -8677,157 +8751,156 @@
       <c r="A103" s="2">
         <v>102</v>
       </c>
-      <c r="B103" s="28" t="s">
-        <v>172</v>
+      <c r="B103" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="C103" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ハラノシンキュウセイコツイン</v>
-      </c>
-      <c r="D103" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="E103" s="41">
-        <v>34.344977</v>
-      </c>
-      <c r="F103" s="41">
-        <v>134.03169199999999</v>
+        <v>ハヤシセイコツイン</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E103" s="40">
+        <v>34.302017999999997</v>
+      </c>
+      <c r="F103" s="40">
+        <v>134.069383996243</v>
       </c>
       <c r="G103" s="32" t="s">
-        <v>643</v>
-      </c>
-      <c r="H103" s="29" t="s">
-        <v>173</v>
-      </c>
-      <c r="I103" s="46">
-        <v>35934</v>
-      </c>
-      <c r="J103" s="20" t="s">
-        <v>145</v>
-      </c>
+        <v>641</v>
+      </c>
+      <c r="H103" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I103" s="45">
+        <v>39632</v>
+      </c>
+      <c r="J103" s="21"/>
     </row>
     <row r="104" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>104</v>
+        <v>399</v>
       </c>
       <c r="C104" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>ハンズセイコツイン</v>
+        <v>ハラセイコツイン</v>
       </c>
       <c r="D104" s="8" t="s">
-        <v>215</v>
+        <v>400</v>
       </c>
       <c r="E104" s="40">
-        <v>34.317838000000002</v>
+        <v>34.343505999999998</v>
       </c>
       <c r="F104" s="40">
-        <v>134.05705599999999</v>
+        <v>134.06172799999999</v>
       </c>
       <c r="G104" s="32" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="H104" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I104" s="43">
-        <v>38070</v>
-      </c>
-      <c r="J104" s="20"/>
+        <v>401</v>
+      </c>
+      <c r="I104" s="45">
+        <v>42937</v>
+      </c>
+      <c r="J104" s="21"/>
     </row>
     <row r="105" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>104</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>500</v>
+      <c r="B105" s="28" t="s">
+        <v>172</v>
       </c>
       <c r="C105" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>Ｈａｂｉｔセッコツイン</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>501</v>
-      </c>
-      <c r="E105" s="40">
-        <v>34.335762000000003</v>
-      </c>
-      <c r="F105" s="40">
-        <v>134.05406099999999</v>
+        <v>ハラノシンキュウセイコツイン</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E105" s="41">
+        <v>34.344977</v>
+      </c>
+      <c r="F105" s="41">
+        <v>134.03169199999999</v>
       </c>
       <c r="G105" s="32" t="s">
-        <v>645</v>
-      </c>
-      <c r="H105" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="I105" s="43">
-        <v>45209</v>
-      </c>
-      <c r="J105" s="20"/>
+        <v>643</v>
+      </c>
+      <c r="H105" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="I105" s="46">
+        <v>35934</v>
+      </c>
+      <c r="J105" s="20" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="106" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>526</v>
+        <v>104</v>
+      </c>
+      <c r="C106" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v>ハンズセイコツイン</v>
       </c>
       <c r="D106" s="8" t="s">
-        <v>344</v>
+        <v>215</v>
       </c>
       <c r="E106" s="40">
-        <v>34.300122000000002</v>
+        <v>34.317838000000002</v>
       </c>
       <c r="F106" s="40">
-        <v>134.098523</v>
+        <v>134.05705599999999</v>
       </c>
       <c r="G106" s="32" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H106" s="7" t="s">
-        <v>345</v>
+        <v>0</v>
       </c>
       <c r="I106" s="43">
-        <v>41976</v>
-      </c>
-      <c r="J106" s="20" t="s">
-        <v>301</v>
-      </c>
+        <v>38070</v>
+      </c>
+      <c r="J106" s="20"/>
     </row>
     <row r="107" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>67</v>
+        <v>500</v>
       </c>
       <c r="C107" s="2" t="str">
-        <f t="shared" ref="C107:C127" si="4">PHONETIC(B107)</f>
-        <v>ヒサトミセッコツイン</v>
+        <f t="shared" si="3"/>
+        <v>Ｈａｂｉｔセッコツイン</v>
       </c>
       <c r="D107" s="8" t="s">
-        <v>216</v>
+        <v>501</v>
       </c>
       <c r="E107" s="40">
-        <v>34.337069</v>
+        <v>34.335762000000003</v>
       </c>
       <c r="F107" s="40">
-        <v>134.09257099999999</v>
+        <v>134.05406099999999</v>
       </c>
       <c r="G107" s="32" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="H107" s="7" t="s">
-        <v>4</v>
+        <v>502</v>
       </c>
       <c r="I107" s="43">
-        <v>31352</v>
+        <v>45209</v>
       </c>
       <c r="J107" s="20"/>
     </row>
@@ -8836,314 +8909,315 @@
         <v>107</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="C108" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ヒナタセイコツイン</v>
+        <v>343</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>526</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>219</v>
+        <v>344</v>
       </c>
       <c r="E108" s="40">
-        <v>34.328966000000001</v>
+        <v>34.300122000000002</v>
       </c>
       <c r="F108" s="40">
-        <v>134.102282</v>
+        <v>134.098523</v>
       </c>
       <c r="G108" s="32" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="H108" s="7" t="s">
-        <v>190</v>
+        <v>345</v>
       </c>
       <c r="I108" s="43">
-        <v>44287</v>
-      </c>
-      <c r="J108" s="18"/>
+        <v>41976</v>
+      </c>
+      <c r="J108" s="20" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="109" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>108</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C109" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>ヒノウエセッコツイン</v>
+        <f t="shared" ref="C109:C129" si="4">PHONETIC(B109)</f>
+        <v>ヒサトミセッコツイン</v>
       </c>
       <c r="D109" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E109" s="40">
-        <v>34.335555999999997</v>
+        <v>34.337069</v>
       </c>
       <c r="F109" s="40">
-        <v>134.04988700000001</v>
+        <v>134.09257099999999</v>
       </c>
       <c r="G109" s="32" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="H109" s="7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I109" s="43">
-        <v>33512</v>
-      </c>
-      <c r="J109" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>31352</v>
+      </c>
+      <c r="J109" s="20"/>
     </row>
     <row r="110" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>92</v>
+        <v>189</v>
       </c>
       <c r="C110" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>ヒラタセッコツイン</v>
+        <v>ヒナタセイコツイン</v>
       </c>
       <c r="D110" s="8" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E110" s="40">
-        <v>34.342633999999997</v>
+        <v>34.328966000000001</v>
       </c>
       <c r="F110" s="40">
-        <v>134.11730700000001</v>
+        <v>134.102282</v>
       </c>
       <c r="G110" s="32" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>29</v>
+        <v>190</v>
       </c>
       <c r="I110" s="43">
-        <v>35186</v>
-      </c>
-      <c r="J110" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>44287</v>
+      </c>
+      <c r="J110" s="18"/>
     </row>
     <row r="111" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>110</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="C111" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>フクイ セッコツイン</v>
+        <v>ヒノウエセッコツイン</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E111" s="40">
-        <v>34.239983000000002</v>
+        <v>34.335555999999997</v>
       </c>
       <c r="F111" s="40">
-        <v>134.03624400000001</v>
+        <v>134.04988700000001</v>
       </c>
       <c r="G111" s="32" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="H111" s="7" t="s">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="I111" s="43">
-        <v>33026</v>
-      </c>
-      <c r="J111" s="21"/>
+        <v>33512</v>
+      </c>
+      <c r="J111" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="112" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="C112" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>フジモトセイコツイン</v>
+        <v>ヒラタセッコツイン</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>280</v>
+        <v>218</v>
       </c>
       <c r="E112" s="40">
-        <v>34.296703000000001</v>
+        <v>34.342633999999997</v>
       </c>
       <c r="F112" s="40">
-        <v>134.089044</v>
+        <v>134.11730700000001</v>
       </c>
       <c r="G112" s="32" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H112" s="7" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="I112" s="43">
-        <v>38930</v>
-      </c>
-      <c r="J112" s="21"/>
+        <v>35186</v>
+      </c>
+      <c r="J112" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="113" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="C113" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>フジワラセッコツイン</v>
-      </c>
-      <c r="D113" s="4" t="s">
-        <v>281</v>
+        <v>フクイ セッコツイン</v>
+      </c>
+      <c r="D113" s="8" t="s">
+        <v>220</v>
       </c>
       <c r="E113" s="40">
-        <v>34.329003999999998</v>
+        <v>34.239983000000002</v>
       </c>
       <c r="F113" s="40">
-        <v>134.04933299999999</v>
+        <v>134.03624400000001</v>
       </c>
       <c r="G113" s="32" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="H113" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="I113" s="43">
-        <v>39722</v>
-      </c>
-      <c r="J113" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>33026</v>
+      </c>
+      <c r="J113" s="21"/>
     </row>
     <row r="114" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="C114" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>ブッショウザンセッコツイン</v>
+        <v>フジモトセイコツイン</v>
       </c>
       <c r="D114" s="8" t="s">
-        <v>337</v>
+        <v>280</v>
       </c>
       <c r="E114" s="40">
-        <v>34.286422999999999</v>
+        <v>34.296703000000001</v>
       </c>
       <c r="F114" s="40">
-        <v>134.04751400000001</v>
+        <v>134.089044</v>
       </c>
       <c r="G114" s="32" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="H114" s="7" t="s">
-        <v>338</v>
+        <v>59</v>
       </c>
       <c r="I114" s="43">
-        <v>41821</v>
-      </c>
-      <c r="J114" s="18"/>
+        <v>38930</v>
+      </c>
+      <c r="J114" s="21"/>
     </row>
     <row r="115" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>114</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>81</v>
+        <v>99</v>
       </c>
       <c r="C115" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>フモトセッコツイン</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>221</v>
+        <v>フジワラセッコツイン</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="E115" s="40">
-        <v>34.326676999999997</v>
+        <v>34.329003999999998</v>
       </c>
       <c r="F115" s="40">
-        <v>134.06231600000001</v>
+        <v>134.04933299999999</v>
       </c>
       <c r="G115" s="32" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H115" s="7" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="I115" s="43">
-        <v>31617</v>
-      </c>
-      <c r="J115" s="20"/>
+        <v>39722</v>
+      </c>
+      <c r="J115" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="116" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>115</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>377</v>
+        <v>101</v>
       </c>
       <c r="C116" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>ベル接骨院</v>
+        <v>ブッショウザンセッコツイン</v>
       </c>
       <c r="D116" s="8" t="s">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="E116" s="40">
-        <v>34.325797000000001</v>
+        <v>34.286422999999999</v>
       </c>
       <c r="F116" s="40">
-        <v>134.07956300000001</v>
+        <v>134.04751400000001</v>
       </c>
       <c r="G116" s="32" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H116" s="7" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="I116" s="43">
-        <v>42522</v>
-      </c>
-      <c r="J116" s="20"/>
+        <v>41821</v>
+      </c>
+      <c r="J116" s="18"/>
     </row>
     <row r="117" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
       <c r="C117" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>ホシノセッコツイン</v>
+        <v>フモトセッコツイン</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E117" s="40">
-        <v>34.301738999999998</v>
+        <v>34.326676999999997</v>
       </c>
       <c r="F117" s="40">
-        <v>134.08894900000001</v>
+        <v>134.06231600000001</v>
       </c>
       <c r="G117" s="32" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H117" s="7" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="I117" s="43">
-        <v>36742</v>
+        <v>31617</v>
       </c>
       <c r="J117" s="20"/>
     </row>
@@ -9152,314 +9226,310 @@
         <v>117</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>124</v>
+        <v>377</v>
       </c>
       <c r="C118" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>ホットセッコツイン</v>
+        <v>ベル接骨院</v>
       </c>
       <c r="D118" s="8" t="s">
-        <v>330</v>
+        <v>378</v>
       </c>
       <c r="E118" s="40">
-        <v>34.281458000000001</v>
+        <v>34.325797000000001</v>
       </c>
       <c r="F118" s="40">
-        <v>133.99779699999999</v>
+        <v>134.07956300000001</v>
       </c>
       <c r="G118" s="32" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H118" s="7" t="s">
-        <v>125</v>
+        <v>379</v>
       </c>
       <c r="I118" s="43">
-        <v>41640</v>
-      </c>
-      <c r="J118" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>42522</v>
+      </c>
+      <c r="J118" s="20"/>
     </row>
     <row r="119" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>118</v>
       </c>
-      <c r="B119" s="4" t="s">
-        <v>414</v>
+      <c r="B119" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="C119" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>ホネツギトコロ</v>
+        <v>ホシノセッコツイン</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="E119" s="7"/>
-      <c r="F119" s="7"/>
+        <v>222</v>
+      </c>
+      <c r="E119" s="40">
+        <v>34.301738999999998</v>
+      </c>
+      <c r="F119" s="40">
+        <v>134.08894900000001</v>
+      </c>
       <c r="G119" s="32" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H119" s="7" t="s">
-        <v>416</v>
+        <v>37</v>
       </c>
       <c r="I119" s="43">
-        <v>43101</v>
-      </c>
-      <c r="J119" s="18"/>
+        <v>36742</v>
+      </c>
+      <c r="J119" s="20"/>
     </row>
     <row r="120" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>119</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>541</v>
+      <c r="B120" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C120" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ホットセッコツイン</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>542</v>
+        <v>330</v>
       </c>
       <c r="E120" s="40">
-        <v>34.341878000000001</v>
+        <v>34.281458000000001</v>
       </c>
       <c r="F120" s="40">
-        <v>134.09666899999999</v>
+        <v>133.99779699999999</v>
       </c>
       <c r="G120" s="32" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H120" s="7" t="s">
-        <v>543</v>
+        <v>125</v>
       </c>
       <c r="I120" s="43">
-        <v>45388</v>
-      </c>
-      <c r="J120" s="18"/>
+        <v>41640</v>
+      </c>
+      <c r="J120" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="121" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>120</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>82</v>
+      <c r="B121" s="4" t="s">
+        <v>414</v>
       </c>
       <c r="C121" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>マツカセッコツイン</v>
+        <v>ホネツギトコロ</v>
       </c>
       <c r="D121" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E121" s="40">
-        <v>34.288414000000003</v>
-      </c>
-      <c r="F121" s="40">
-        <v>134.024146</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
       <c r="G121" s="32" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H121" s="7" t="s">
-        <v>20</v>
+        <v>416</v>
       </c>
       <c r="I121" s="43">
-        <v>31997</v>
-      </c>
-      <c r="J121" s="20" t="s">
-        <v>387</v>
-      </c>
+        <v>43101</v>
+      </c>
+      <c r="J121" s="18"/>
     </row>
     <row r="122" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>121</v>
       </c>
-      <c r="B122" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C122" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>マユミ セッコツイン</v>
+      <c r="B122" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>541</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>462</v>
+        <v>542</v>
       </c>
       <c r="E122" s="40">
-        <v>34.256005000000002</v>
+        <v>34.341878000000001</v>
       </c>
       <c r="F122" s="40">
-        <v>134.026681</v>
+        <v>134.09666899999999</v>
       </c>
       <c r="G122" s="32" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H122" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="I122" s="45">
-        <v>44136</v>
-      </c>
-      <c r="J122" s="21"/>
+        <v>543</v>
+      </c>
+      <c r="I122" s="43">
+        <v>45388</v>
+      </c>
+      <c r="J122" s="18"/>
     </row>
     <row r="123" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>122</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>402</v>
+        <v>82</v>
       </c>
       <c r="C123" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>マユミセッコツイン</v>
+        <v>マツカセッコツイン</v>
       </c>
       <c r="D123" s="8" t="s">
-        <v>403</v>
+        <v>262</v>
       </c>
       <c r="E123" s="40">
-        <v>34.317377</v>
+        <v>34.288414000000003</v>
       </c>
       <c r="F123" s="40">
-        <v>134.061384</v>
+        <v>134.024146</v>
       </c>
       <c r="G123" s="32" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H123" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="I123" s="45">
-        <v>42948</v>
-      </c>
-      <c r="J123" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="I123" s="43">
+        <v>31997</v>
+      </c>
+      <c r="J123" s="20" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="124" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>123</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>163</v>
+      <c r="B124" s="8" t="s">
+        <v>119</v>
       </c>
       <c r="C124" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>マルイチセイコツイン</v>
-      </c>
-      <c r="D124" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="E124" s="16">
-        <v>34.333772000000003</v>
-      </c>
-      <c r="F124" s="16">
-        <v>134.04996600000001</v>
+        <v>マユミ セッコツイン</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E124" s="40">
+        <v>34.256005000000002</v>
+      </c>
+      <c r="F124" s="40">
+        <v>134.026681</v>
       </c>
       <c r="G124" s="32" t="s">
-        <v>664</v>
-      </c>
-      <c r="H124" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="I124" s="47">
-        <v>41883</v>
-      </c>
-      <c r="J124" s="18"/>
+        <v>662</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="I124" s="45">
+        <v>44136</v>
+      </c>
+      <c r="J124" s="21"/>
     </row>
     <row r="125" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>124</v>
       </c>
-      <c r="B125" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C125" s="28" t="str">
+      <c r="B125" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C125" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>ミキシンキュウセッコツイン</v>
-      </c>
-      <c r="D125" s="24" t="s">
-        <v>192</v>
-      </c>
-      <c r="E125" s="41">
-        <v>34.387632000000004</v>
-      </c>
-      <c r="F125" s="41">
-        <v>134.13385199999999</v>
+        <v>マユミセッコツイン</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="E125" s="40">
+        <v>34.317377</v>
+      </c>
+      <c r="F125" s="40">
+        <v>134.061384</v>
       </c>
       <c r="G125" s="32" t="s">
-        <v>665</v>
-      </c>
-      <c r="H125" s="29" t="s">
-        <v>193</v>
-      </c>
-      <c r="I125" s="47">
-        <v>39958</v>
-      </c>
-      <c r="J125" s="18" t="s">
-        <v>194</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="H125" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="I125" s="45">
+        <v>42948</v>
+      </c>
+      <c r="J125" s="21"/>
     </row>
     <row r="126" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>125</v>
       </c>
-      <c r="B126" s="8" t="s">
-        <v>83</v>
+      <c r="B126" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="C126" s="2" t="str">
         <f t="shared" si="4"/>
-        <v>ミキセッコツイン</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="E126" s="40">
-        <v>34.299140999999999</v>
-      </c>
-      <c r="F126" s="40">
-        <v>134.05196900000001</v>
+        <v>マルイチセイコツイン</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="E126" s="16">
+        <v>34.333772000000003</v>
+      </c>
+      <c r="F126" s="16">
+        <v>134.04996600000001</v>
       </c>
       <c r="G126" s="32" t="s">
-        <v>666</v>
-      </c>
-      <c r="H126" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="I126" s="43">
-        <v>25583</v>
-      </c>
-      <c r="J126" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>664</v>
+      </c>
+      <c r="H126" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="I126" s="47">
+        <v>41883</v>
+      </c>
+      <c r="J126" s="18"/>
     </row>
     <row r="127" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>126</v>
       </c>
-      <c r="B127" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="C127" s="2" t="str">
+      <c r="B127" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C127" s="28" t="str">
         <f t="shared" si="4"/>
-        <v>ミズノオトタダシコツイン</v>
-      </c>
-      <c r="D127" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E127" s="40">
-        <v>34.341566</v>
-      </c>
-      <c r="F127" s="40">
-        <v>134.066811</v>
+        <v>ミキシンキュウセッコツイン</v>
+      </c>
+      <c r="D127" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="E127" s="41">
+        <v>34.387632000000004</v>
+      </c>
+      <c r="F127" s="41">
+        <v>134.13385199999999</v>
       </c>
       <c r="G127" s="32" t="s">
-        <v>667</v>
-      </c>
-      <c r="H127" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I127" s="43">
-        <v>37835</v>
+        <v>665</v>
+      </c>
+      <c r="H127" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="I127" s="47">
+        <v>39958</v>
       </c>
       <c r="J127" s="18" t="s">
-        <v>387</v>
+        <v>194</v>
       </c>
     </row>
     <row r="128" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9467,31 +9537,32 @@
         <v>127</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>527</v>
+        <v>83</v>
+      </c>
+      <c r="C128" s="2" t="str">
+        <f t="shared" si="4"/>
+        <v>ミキセッコツイン</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>332</v>
+        <v>223</v>
       </c>
       <c r="E128" s="40">
-        <v>34.280352000000001</v>
+        <v>34.299140999999999</v>
       </c>
       <c r="F128" s="40">
-        <v>133.96529899999999</v>
+        <v>134.05196900000001</v>
       </c>
       <c r="G128" s="32" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H128" s="7" t="s">
-        <v>333</v>
+        <v>21</v>
       </c>
       <c r="I128" s="43">
-        <v>41725</v>
+        <v>25583</v>
       </c>
       <c r="J128" s="18" t="s">
-        <v>301</v>
+        <v>145</v>
       </c>
     </row>
     <row r="129" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9499,61 +9570,63 @@
         <v>128</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>85</v>
+        <v>263</v>
       </c>
       <c r="C129" s="2" t="str">
-        <f>PHONETIC(B129)</f>
-        <v>ミゾブチセッコツイン</v>
+        <f t="shared" si="4"/>
+        <v>ミズノオトタダシコツイン</v>
       </c>
       <c r="D129" s="8" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E129" s="40">
-        <v>34.289344</v>
+        <v>34.341566</v>
       </c>
       <c r="F129" s="40">
-        <v>134.092647</v>
+        <v>134.066811</v>
       </c>
       <c r="G129" s="32" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H129" s="7" t="s">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="I129" s="43">
-        <v>33575</v>
-      </c>
-      <c r="J129" s="20"/>
+        <v>37835</v>
+      </c>
+      <c r="J129" s="18" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="130" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>129</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D130" s="8" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="E130" s="40">
-        <v>34.308157000000001</v>
+        <v>34.280352000000001</v>
       </c>
       <c r="F130" s="40">
-        <v>134.09168500000001</v>
+        <v>133.96529899999999</v>
       </c>
       <c r="G130" s="32" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H130" s="7" t="s">
-        <v>382</v>
+        <v>333</v>
       </c>
       <c r="I130" s="43">
-        <v>41588</v>
-      </c>
-      <c r="J130" s="20" t="s">
+        <v>41725</v>
+      </c>
+      <c r="J130" s="18" t="s">
         <v>301</v>
       </c>
     </row>
@@ -9562,29 +9635,29 @@
         <v>130</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>198</v>
+        <v>85</v>
       </c>
       <c r="C131" s="2" t="str">
         <f>PHONETIC(B131)</f>
-        <v>ミナモトセイコツイン</v>
+        <v>ミゾブチセッコツイン</v>
       </c>
       <c r="D131" s="8" t="s">
-        <v>202</v>
+        <v>225</v>
       </c>
       <c r="E131" s="40">
-        <v>34.316346000000003</v>
+        <v>34.289344</v>
       </c>
       <c r="F131" s="40">
-        <v>133.96922799999999</v>
+        <v>134.092647</v>
       </c>
       <c r="G131" s="32" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="H131" s="7" t="s">
-        <v>199</v>
+        <v>23</v>
       </c>
       <c r="I131" s="43">
-        <v>40216</v>
+        <v>33575</v>
       </c>
       <c r="J131" s="20"/>
     </row>
@@ -9593,60 +9666,61 @@
         <v>131</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C132" s="2" t="str">
-        <f>PHONETIC(B132)</f>
-        <v>ミヤケセッコツイン</v>
+        <v>326</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>528</v>
       </c>
       <c r="D132" s="8" t="s">
-        <v>226</v>
+        <v>327</v>
       </c>
       <c r="E132" s="40">
-        <v>34.337442000000003</v>
+        <v>34.308157000000001</v>
       </c>
       <c r="F132" s="40">
-        <v>134.10886400000001</v>
+        <v>134.09168500000001</v>
       </c>
       <c r="G132" s="32" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="H132" s="7" t="s">
-        <v>40</v>
+        <v>382</v>
       </c>
       <c r="I132" s="43">
-        <v>37561</v>
-      </c>
-      <c r="J132" s="20"/>
+        <v>41588</v>
+      </c>
+      <c r="J132" s="20" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="133" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>132</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>86</v>
+        <v>198</v>
       </c>
       <c r="C133" s="2" t="str">
         <f>PHONETIC(B133)</f>
-        <v>ミヤザキセッコツイン</v>
+        <v>ミナモトセイコツイン</v>
       </c>
       <c r="D133" s="8" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="E133" s="40">
-        <v>34.337451999999999</v>
+        <v>34.316346000000003</v>
       </c>
       <c r="F133" s="40">
-        <v>134.066585</v>
+        <v>133.96922799999999</v>
       </c>
       <c r="G133" s="32" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H133" s="7" t="s">
-        <v>24</v>
+        <v>199</v>
       </c>
       <c r="I133" s="43">
-        <v>30122</v>
+        <v>40216</v>
       </c>
       <c r="J133" s="20"/>
     </row>
@@ -9655,29 +9729,29 @@
         <v>133</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C134" s="2" t="str">
         <f>PHONETIC(B134)</f>
-        <v>ミヨシセッコツイン</v>
+        <v>ミヤケセッコツイン</v>
       </c>
       <c r="D134" s="8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E134" s="40">
-        <v>34.348129</v>
+        <v>34.337442000000003</v>
       </c>
       <c r="F134" s="40">
-        <v>134.04271399999999</v>
+        <v>134.10886400000001</v>
       </c>
       <c r="G134" s="32" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="H134" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I134" s="43">
-        <v>40848</v>
+        <v>37561</v>
       </c>
       <c r="J134" s="20"/>
     </row>
@@ -9686,29 +9760,29 @@
         <v>134</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>717</v>
+        <v>86</v>
       </c>
       <c r="C135" s="2" t="str">
         <f>PHONETIC(B135)</f>
-        <v>ムスビセッコツイン　カミフクオカイン</v>
+        <v>ミヤザキセッコツイン</v>
       </c>
       <c r="D135" s="8" t="s">
-        <v>718</v>
+        <v>227</v>
       </c>
       <c r="E135" s="40">
-        <v>34.333134000000001</v>
+        <v>34.337451999999999</v>
       </c>
       <c r="F135" s="40">
-        <v>134.06802099999999</v>
+        <v>134.066585</v>
       </c>
       <c r="G135" s="32" t="s">
-        <v>719</v>
-      </c>
-      <c r="H135" s="40" t="s">
-        <v>720</v>
+        <v>672</v>
+      </c>
+      <c r="H135" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="I135" s="43">
-        <v>45427</v>
+        <v>30122</v>
       </c>
       <c r="J135" s="20"/>
     </row>
@@ -9717,28 +9791,29 @@
         <v>135</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>351</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>529</v>
+        <v>84</v>
+      </c>
+      <c r="C136" s="2" t="str">
+        <f>PHONETIC(B136)</f>
+        <v>ミヨシセッコツイン</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>352</v>
+        <v>228</v>
       </c>
       <c r="E136" s="40">
-        <v>34.308826000000003</v>
+        <v>34.348129</v>
       </c>
       <c r="F136" s="40">
-        <v>133.96402599999999</v>
+        <v>134.04271399999999</v>
       </c>
       <c r="G136" s="32" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H136" s="7" t="s">
-        <v>354</v>
+        <v>22</v>
       </c>
       <c r="I136" s="43">
-        <v>42086</v>
+        <v>40848</v>
       </c>
       <c r="J136" s="20"/>
     </row>
@@ -9747,62 +9822,59 @@
         <v>136</v>
       </c>
       <c r="B137" s="8" t="s">
-        <v>137</v>
+        <v>717</v>
       </c>
       <c r="C137" s="2" t="str">
-        <f t="shared" ref="C137:C143" si="5">PHONETIC(B137)</f>
-        <v>モリシンキュウセッコツイン</v>
-      </c>
-      <c r="D137" s="32" t="s">
-        <v>353</v>
+        <f>PHONETIC(B137)</f>
+        <v>ムスビセッコツイン　カミフクオカイン</v>
+      </c>
+      <c r="D137" s="8" t="s">
+        <v>718</v>
       </c>
       <c r="E137" s="40">
-        <v>34.335113</v>
+        <v>34.333134000000001</v>
       </c>
       <c r="F137" s="40">
-        <v>134.01111599999999</v>
+        <v>134.06802099999999</v>
       </c>
       <c r="G137" s="32" t="s">
-        <v>676</v>
-      </c>
-      <c r="H137" s="7" t="s">
-        <v>58</v>
+        <v>719</v>
+      </c>
+      <c r="H137" s="40" t="s">
+        <v>720</v>
       </c>
       <c r="I137" s="43">
-        <v>38869</v>
-      </c>
-      <c r="J137" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>45427</v>
+      </c>
+      <c r="J137" s="20"/>
     </row>
     <row r="138" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>137</v>
       </c>
       <c r="B138" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C138" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>モリセッコツイン</v>
+        <v>351</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>529</v>
       </c>
       <c r="D138" s="8" t="s">
-        <v>229</v>
+        <v>352</v>
       </c>
       <c r="E138" s="40">
-        <v>34.297317</v>
+        <v>34.308826000000003</v>
       </c>
       <c r="F138" s="40">
-        <v>134.03551100000001</v>
+        <v>133.96402599999999</v>
       </c>
       <c r="G138" s="32" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="H138" s="7" t="s">
-        <v>32</v>
+        <v>354</v>
       </c>
       <c r="I138" s="43">
-        <v>36057</v>
+        <v>42086</v>
       </c>
       <c r="J138" s="20"/>
     </row>
@@ -9811,60 +9883,62 @@
         <v>138</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="C139" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>ヤシマセイコツイン</v>
-      </c>
-      <c r="D139" s="8" t="s">
-        <v>334</v>
+        <f t="shared" ref="C139:C145" si="5">PHONETIC(B139)</f>
+        <v>モリシンキュウセッコツイン</v>
+      </c>
+      <c r="D139" s="32" t="s">
+        <v>353</v>
       </c>
       <c r="E139" s="40">
-        <v>34.338760999999998</v>
+        <v>34.335113</v>
       </c>
       <c r="F139" s="40">
-        <v>134.108374</v>
+        <v>134.01111599999999</v>
       </c>
       <c r="G139" s="32" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="H139" s="7" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="I139" s="43">
-        <v>41760</v>
-      </c>
-      <c r="J139" s="20"/>
+        <v>38869</v>
+      </c>
+      <c r="J139" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="140" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>139</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="C140" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>ヤシマセッコツイン</v>
+        <v>モリセッコツイン</v>
       </c>
       <c r="D140" s="8" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E140" s="40">
-        <v>34.340372000000002</v>
+        <v>34.297317</v>
       </c>
       <c r="F140" s="40">
-        <v>134.11425800000001</v>
+        <v>134.03551100000001</v>
       </c>
       <c r="G140" s="32" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H140" s="7" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="I140" s="43">
-        <v>29717</v>
+        <v>36057</v>
       </c>
       <c r="J140" s="20"/>
     </row>
@@ -9873,60 +9947,60 @@
         <v>140</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="C141" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>ヤノセッコツイン</v>
+        <v>ヤシマセイコツイン</v>
       </c>
       <c r="D141" s="8" t="s">
-        <v>231</v>
+        <v>334</v>
       </c>
       <c r="E141" s="40">
-        <v>34.342678999999997</v>
+        <v>34.338760999999998</v>
       </c>
       <c r="F141" s="40">
-        <v>134.100728</v>
+        <v>134.108374</v>
       </c>
       <c r="G141" s="32" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="H141" s="7" t="s">
-        <v>179</v>
+        <v>48</v>
       </c>
       <c r="I141" s="43">
-        <v>30015</v>
+        <v>41760</v>
       </c>
       <c r="J141" s="20"/>
     </row>
-    <row r="142" spans="1:10" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>141</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>410</v>
+        <v>80</v>
       </c>
       <c r="C142" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>ヤマグチセッコツイン</v>
+        <v>ヤシマセッコツイン</v>
       </c>
       <c r="D142" s="8" t="s">
-        <v>411</v>
+        <v>230</v>
       </c>
       <c r="E142" s="40">
-        <v>34.284075000000001</v>
+        <v>34.340372000000002</v>
       </c>
       <c r="F142" s="40">
-        <v>134.096462</v>
+        <v>134.11425800000001</v>
       </c>
       <c r="G142" s="32" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="H142" s="7" t="s">
-        <v>412</v>
+        <v>18</v>
       </c>
       <c r="I142" s="43">
-        <v>43070</v>
+        <v>29717</v>
       </c>
       <c r="J142" s="20"/>
     </row>
@@ -9935,61 +10009,60 @@
         <v>142</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C143" s="2" t="str">
         <f t="shared" si="5"/>
-        <v>ヤマグチセッコツイン</v>
+        <v>ヤノセッコツイン</v>
       </c>
       <c r="D143" s="8" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E143" s="40">
-        <v>34.342661</v>
+        <v>34.342678999999997</v>
       </c>
       <c r="F143" s="40">
-        <v>134.096205</v>
+        <v>134.100728</v>
       </c>
       <c r="G143" s="32" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="H143" s="7" t="s">
-        <v>25</v>
+        <v>179</v>
       </c>
       <c r="I143" s="43">
-        <v>31040</v>
-      </c>
-      <c r="J143" s="20" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30015</v>
+      </c>
+      <c r="J143" s="20"/>
+    </row>
+    <row r="144" spans="1:10" s="19" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>143</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>476</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>477</v>
+        <v>410</v>
+      </c>
+      <c r="C144" s="2" t="str">
+        <f t="shared" si="5"/>
+        <v>ヤマグチセッコツイン</v>
       </c>
       <c r="D144" s="8" t="s">
-        <v>478</v>
+        <v>411</v>
       </c>
       <c r="E144" s="40">
-        <v>34.333956000000001</v>
+        <v>34.284075000000001</v>
       </c>
       <c r="F144" s="40">
-        <v>134.081931</v>
+        <v>134.096462</v>
       </c>
       <c r="G144" s="32" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="H144" s="7" t="s">
-        <v>479</v>
+        <v>412</v>
       </c>
       <c r="I144" s="43">
-        <v>44739</v>
+        <v>43070</v>
       </c>
       <c r="J144" s="20"/>
     </row>
@@ -9998,32 +10071,32 @@
         <v>144</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C145" s="2" t="str">
-        <f>PHONETIC(B145)</f>
-        <v>ヤマシタセッコツイン</v>
+        <f t="shared" si="5"/>
+        <v>ヤマグチセッコツイン</v>
       </c>
       <c r="D145" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E145" s="40">
-        <v>34.313543000000003</v>
+        <v>34.342661</v>
       </c>
       <c r="F145" s="40">
-        <v>134.026186</v>
+        <v>134.096205</v>
       </c>
       <c r="G145" s="32" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H145" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I145" s="43">
-        <v>30225</v>
-      </c>
-      <c r="J145" s="18" t="s">
-        <v>145</v>
+        <v>31040</v>
+      </c>
+      <c r="J145" s="20" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="146" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10031,60 +10104,59 @@
         <v>145</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="C146" s="2" t="str">
-        <f>PHONETIC(B146)</f>
-        <v>ヤマシロセイコツイン</v>
-      </c>
-      <c r="D146" s="10" t="s">
-        <v>274</v>
+        <v>476</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>478</v>
       </c>
       <c r="E146" s="40">
-        <v>34.307678000000003</v>
-      </c>
-      <c r="F146" s="12">
-        <v>133.96265099999999</v>
+        <v>34.333956000000001</v>
+      </c>
+      <c r="F146" s="40">
+        <v>134.081931</v>
       </c>
       <c r="G146" s="32" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="H146" s="7" t="s">
-        <v>452</v>
+        <v>479</v>
       </c>
       <c r="I146" s="43">
-        <v>44181</v>
-      </c>
-      <c r="J146" s="18"/>
+        <v>44739</v>
+      </c>
+      <c r="J146" s="20"/>
     </row>
     <row r="147" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>146</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="C147" s="2" t="str">
         <f>PHONETIC(B147)</f>
-        <v>ユウシンキュウセイコツイン</v>
+        <v>ヤマシタセッコツイン</v>
       </c>
       <c r="D147" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E147" s="40">
-        <v>34.322457</v>
-      </c>
-      <c r="F147" s="12">
-        <v>134.07410200000001</v>
+        <v>34.313543000000003</v>
+      </c>
+      <c r="F147" s="40">
+        <v>134.026186</v>
       </c>
       <c r="G147" s="32" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="H147" s="7" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="I147" s="43">
-        <v>38082</v>
+        <v>30225</v>
       </c>
       <c r="J147" s="18" t="s">
         <v>145</v>
@@ -10095,28 +10167,29 @@
         <v>147</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>487</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>488</v>
-      </c>
-      <c r="D148" s="8" t="s">
-        <v>489</v>
+        <v>273</v>
+      </c>
+      <c r="C148" s="2" t="str">
+        <f>PHONETIC(B148)</f>
+        <v>ヤマシロセイコツイン</v>
+      </c>
+      <c r="D148" s="10" t="s">
+        <v>274</v>
       </c>
       <c r="E148" s="40">
-        <v>34.322403000000001</v>
-      </c>
-      <c r="F148" s="40">
-        <v>134.07405900000001</v>
+        <v>34.307678000000003</v>
+      </c>
+      <c r="F148" s="12">
+        <v>133.96265099999999</v>
       </c>
       <c r="G148" s="32" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="H148" s="7" t="s">
-        <v>490</v>
+        <v>452</v>
       </c>
       <c r="I148" s="43">
-        <v>44932</v>
+        <v>44181</v>
       </c>
       <c r="J148" s="18"/>
     </row>
@@ -10125,60 +10198,61 @@
         <v>148</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>154</v>
+        <v>63</v>
       </c>
       <c r="C149" s="2" t="str">
-        <f t="shared" ref="C149:C154" si="6">PHONETIC(B149)</f>
-        <v>ユトリセッコツイン</v>
+        <f>PHONETIC(B149)</f>
+        <v>ユウシンキュウセイコツイン</v>
       </c>
       <c r="D149" s="8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E149" s="40">
-        <v>34.284092999999999</v>
-      </c>
-      <c r="F149" s="40">
-        <v>133.95545100000001</v>
+        <v>34.322457</v>
+      </c>
+      <c r="F149" s="12">
+        <v>134.07410200000001</v>
       </c>
       <c r="G149" s="32" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="H149" s="7" t="s">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="I149" s="43">
-        <v>41487</v>
-      </c>
-      <c r="J149" s="18"/>
+        <v>38082</v>
+      </c>
+      <c r="J149" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="150" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>149</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>480</v>
-      </c>
-      <c r="C150" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>ヨコイセッコツイン</v>
+        <v>487</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>488</v>
       </c>
       <c r="D150" s="8" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="E150" s="40">
-        <v>34.297007999999998</v>
+        <v>34.322403000000001</v>
       </c>
       <c r="F150" s="40">
-        <v>133.94552400000001</v>
+        <v>134.07405900000001</v>
       </c>
       <c r="G150" s="32" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="H150" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="I150" s="43">
-        <v>44774</v>
+        <v>44932</v>
       </c>
       <c r="J150" s="18"/>
     </row>
@@ -10187,590 +10261,628 @@
         <v>150</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C151" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>ヨコタセッコツイン</v>
+        <f t="shared" ref="C151:C156" si="6">PHONETIC(B151)</f>
+        <v>ユトリセッコツイン</v>
       </c>
       <c r="D151" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E151" s="40">
-        <v>34.271703000000002</v>
+        <v>34.284092999999999</v>
       </c>
       <c r="F151" s="40">
-        <v>134.02163300000001</v>
+        <v>133.95545100000001</v>
       </c>
       <c r="G151" s="32" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="H151" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I151" s="45">
-        <v>31931</v>
-      </c>
-      <c r="J151" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="I151" s="43">
+        <v>41487</v>
+      </c>
+      <c r="J151" s="18"/>
     </row>
     <row r="152" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>151</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>158</v>
+        <v>480</v>
       </c>
       <c r="C152" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>ヨシダシンキュウセイコツイン</v>
-      </c>
-      <c r="D152" s="24" t="s">
-        <v>157</v>
+        <v>ヨコイセッコツイン</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>481</v>
       </c>
       <c r="E152" s="40">
-        <v>34.271738999999997</v>
-      </c>
-      <c r="F152" s="25">
-        <v>134.02161100000001</v>
+        <v>34.297007999999998</v>
+      </c>
+      <c r="F152" s="40">
+        <v>133.94552400000001</v>
       </c>
       <c r="G152" s="32" t="s">
-        <v>691</v>
-      </c>
-      <c r="H152" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="I152" s="48">
-        <v>39300</v>
-      </c>
-      <c r="J152" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>689</v>
+      </c>
+      <c r="H152" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="I152" s="43">
+        <v>44774</v>
+      </c>
+      <c r="J152" s="18"/>
     </row>
     <row r="153" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>152</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>429</v>
+        <v>153</v>
       </c>
       <c r="C153" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>ヨツバセイコツイン</v>
-      </c>
-      <c r="D153" s="24" t="s">
-        <v>430</v>
+        <v>ヨコタセッコツイン</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>236</v>
       </c>
       <c r="E153" s="40">
-        <v>34.334273000000003</v>
-      </c>
-      <c r="F153" s="25">
-        <v>134.083787</v>
+        <v>34.271703000000002</v>
+      </c>
+      <c r="F153" s="40">
+        <v>134.02163300000001</v>
       </c>
       <c r="G153" s="32" t="s">
-        <v>692</v>
-      </c>
-      <c r="H153" s="25" t="s">
-        <v>431</v>
-      </c>
-      <c r="I153" s="48">
-        <v>43383</v>
-      </c>
-      <c r="J153" s="18"/>
+        <v>690</v>
+      </c>
+      <c r="H153" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I153" s="45">
+        <v>31931</v>
+      </c>
+      <c r="J153" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="154" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>153</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="C154" s="2" t="str">
         <f t="shared" si="6"/>
-        <v>ヨネツセッコツイン</v>
-      </c>
-      <c r="D154" s="8" t="s">
-        <v>237</v>
+        <v>ヨシダシンキュウセイコツイン</v>
+      </c>
+      <c r="D154" s="24" t="s">
+        <v>157</v>
       </c>
       <c r="E154" s="40">
-        <v>34.319628000000002</v>
-      </c>
-      <c r="F154" s="40">
-        <v>134.053755</v>
+        <v>34.271738999999997</v>
+      </c>
+      <c r="F154" s="25">
+        <v>134.02161100000001</v>
       </c>
       <c r="G154" s="32" t="s">
-        <v>693</v>
-      </c>
-      <c r="H154" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="I154" s="43">
-        <v>32500</v>
-      </c>
-      <c r="J154" s="20"/>
+        <v>691</v>
+      </c>
+      <c r="H154" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="I154" s="48">
+        <v>39300</v>
+      </c>
+      <c r="J154" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="155" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>154</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>496</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="D155" s="8" t="s">
-        <v>498</v>
+        <v>429</v>
+      </c>
+      <c r="C155" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>ヨツバセイコツイン</v>
+      </c>
+      <c r="D155" s="24" t="s">
+        <v>430</v>
       </c>
       <c r="E155" s="40">
-        <v>34.304028000000002</v>
-      </c>
-      <c r="F155" s="40">
-        <v>133.97233299999999</v>
+        <v>34.334273000000003</v>
+      </c>
+      <c r="F155" s="25">
+        <v>134.083787</v>
       </c>
       <c r="G155" s="32" t="s">
-        <v>694</v>
-      </c>
-      <c r="H155" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="I155" s="43">
-        <v>45170</v>
-      </c>
-      <c r="J155" s="20"/>
+        <v>692</v>
+      </c>
+      <c r="H155" s="25" t="s">
+        <v>431</v>
+      </c>
+      <c r="I155" s="48">
+        <v>43383</v>
+      </c>
+      <c r="J155" s="18"/>
     </row>
     <row r="156" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>155</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>148</v>
+        <v>90</v>
+      </c>
+      <c r="C156" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>ヨネツセッコツイン</v>
       </c>
       <c r="D156" s="8" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="E156" s="40">
-        <v>34.345882000000003</v>
+        <v>34.319628000000002</v>
       </c>
       <c r="F156" s="40">
-        <v>134.04718009999999</v>
+        <v>134.053755</v>
       </c>
       <c r="G156" s="32" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="H156" s="7" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="I156" s="43">
-        <v>37805</v>
-      </c>
-      <c r="J156" s="20" t="s">
-        <v>145</v>
-      </c>
+        <v>32500</v>
+      </c>
+      <c r="J156" s="20"/>
     </row>
     <row r="157" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>156</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C157" s="2" t="str">
-        <f>PHONETIC(B157)</f>
-        <v>リツリンシンキュウセイコツイン</v>
+        <v>496</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>497</v>
       </c>
       <c r="D157" s="8" t="s">
-        <v>170</v>
+        <v>498</v>
       </c>
       <c r="E157" s="40">
-        <v>34.332870999999997</v>
+        <v>34.304028000000002</v>
       </c>
       <c r="F157" s="40">
-        <v>134.053585</v>
+        <v>133.97233299999999</v>
       </c>
       <c r="G157" s="32" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="H157" s="7" t="s">
-        <v>46</v>
+        <v>499</v>
       </c>
       <c r="I157" s="43">
-        <v>39448</v>
-      </c>
-      <c r="J157" s="18" t="s">
-        <v>145</v>
-      </c>
+        <v>45170</v>
+      </c>
+      <c r="J157" s="20"/>
     </row>
     <row r="158" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>157</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>320</v>
+        <v>102</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>530</v>
+        <v>148</v>
       </c>
       <c r="D158" s="8" t="s">
-        <v>321</v>
+        <v>250</v>
       </c>
       <c r="E158" s="40">
-        <v>34.263731</v>
+        <v>34.345882000000003</v>
       </c>
       <c r="F158" s="40">
-        <v>134.02720400000001</v>
+        <v>134.04718009999999</v>
       </c>
       <c r="G158" s="32" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="H158" s="7" t="s">
-        <v>322</v>
+        <v>42</v>
       </c>
       <c r="I158" s="43">
-        <v>41396</v>
-      </c>
-      <c r="J158" s="18"/>
+        <v>37805</v>
+      </c>
+      <c r="J158" s="20" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="159" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>158</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="C159" s="2" t="str">
         <f>PHONETIC(B159)</f>
-        <v>ワカクサセイコツイン</v>
+        <v>リツリンシンキュウセイコツイン</v>
       </c>
       <c r="D159" s="8" t="s">
-        <v>275</v>
+        <v>170</v>
       </c>
       <c r="E159" s="40">
-        <v>34.312365</v>
+        <v>34.332870999999997</v>
       </c>
       <c r="F159" s="40">
-        <v>134.083392</v>
+        <v>134.053585</v>
       </c>
       <c r="G159" s="32" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H159" s="7" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="I159" s="43">
-        <v>40360</v>
-      </c>
-      <c r="J159" s="20"/>
+        <v>39448</v>
+      </c>
+      <c r="J159" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="160" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>159</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>368</v>
+        <v>320</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D160" s="8" t="s">
-        <v>366</v>
+        <v>321</v>
       </c>
       <c r="E160" s="40">
-        <v>34.329160999999999</v>
+        <v>34.263731</v>
       </c>
       <c r="F160" s="40">
-        <v>134.058245</v>
+        <v>134.02720400000001</v>
       </c>
       <c r="G160" s="32" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="H160" s="7" t="s">
-        <v>367</v>
+        <v>322</v>
       </c>
       <c r="I160" s="43">
-        <v>42443</v>
-      </c>
-      <c r="J160" s="20" t="s">
-        <v>301</v>
-      </c>
+        <v>41396</v>
+      </c>
+      <c r="J160" s="18"/>
     </row>
     <row r="161" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>160</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>532</v>
+        <v>105</v>
+      </c>
+      <c r="C161" s="2" t="str">
+        <f>PHONETIC(B161)</f>
+        <v>ワカクサセイコツイン</v>
       </c>
       <c r="D161" s="8" t="s">
-        <v>359</v>
+        <v>275</v>
       </c>
       <c r="E161" s="40">
-        <v>34.284131000000002</v>
+        <v>34.312365</v>
       </c>
       <c r="F161" s="40">
-        <v>134.089755</v>
+        <v>134.083392</v>
       </c>
       <c r="G161" s="32" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="H161" s="7" t="s">
-        <v>360</v>
+        <v>171</v>
       </c>
       <c r="I161" s="43">
-        <v>44805</v>
-      </c>
-      <c r="J161" s="18"/>
+        <v>40360</v>
+      </c>
+      <c r="J161" s="20"/>
     </row>
     <row r="162" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>161</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D162" s="8" t="s">
-        <v>299</v>
+        <v>366</v>
       </c>
       <c r="E162" s="40">
-        <v>34.335034999999998</v>
+        <v>34.329160999999999</v>
       </c>
       <c r="F162" s="40">
-        <v>134.07119800000001</v>
+        <v>134.058245</v>
       </c>
       <c r="G162" s="32" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="H162" s="7" t="s">
-        <v>300</v>
+        <v>367</v>
       </c>
       <c r="I162" s="43">
-        <v>40982</v>
-      </c>
-      <c r="J162" s="21" t="s">
+        <v>42443</v>
+      </c>
+      <c r="J162" s="20" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="163" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>162</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D163" s="8" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="E163" s="40">
-        <v>34.295994</v>
+        <v>34.284131000000002</v>
       </c>
       <c r="F163" s="40">
-        <v>134.06595799999999</v>
+        <v>134.089755</v>
       </c>
       <c r="G163" s="32" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H163" s="7" t="s">
-        <v>319</v>
+        <v>360</v>
       </c>
       <c r="I163" s="43">
-        <v>41395</v>
-      </c>
-      <c r="J163" s="21"/>
-    </row>
-    <row r="164" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44805</v>
+      </c>
+      <c r="J163" s="18"/>
+    </row>
+    <row r="164" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>163</v>
       </c>
       <c r="B164" s="8" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>723</v>
+        <v>533</v>
       </c>
       <c r="D164" s="8" t="s">
-        <v>371</v>
+        <v>299</v>
       </c>
       <c r="E164" s="40">
-        <v>34.299269000000002</v>
+        <v>34.335034999999998</v>
       </c>
       <c r="F164" s="40">
-        <v>134.11092500000001</v>
+        <v>134.07119800000001</v>
       </c>
       <c r="G164" s="32" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="H164" s="7" t="s">
-        <v>372</v>
+        <v>300</v>
       </c>
       <c r="I164" s="43">
-        <v>42454</v>
-      </c>
-      <c r="J164" s="18" t="s">
-        <v>145</v>
+        <v>40982</v>
+      </c>
+      <c r="J164" s="21" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="165" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>164</v>
       </c>
-      <c r="B165" s="2" t="s">
-        <v>307</v>
+      <c r="B165" s="8" t="s">
+        <v>317</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D165" s="8" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="E165" s="40">
-        <v>34.301983</v>
+        <v>34.295994</v>
       </c>
       <c r="F165" s="40">
-        <v>134.07158699999999</v>
+        <v>134.06595799999999</v>
       </c>
       <c r="G165" s="32" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="H165" s="7" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="I165" s="43">
-        <v>28216</v>
-      </c>
-      <c r="J165" s="20"/>
+        <v>41395</v>
+      </c>
+      <c r="J165" s="21"/>
     </row>
     <row r="166" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>165</v>
       </c>
-      <c r="B166" s="2" t="s">
-        <v>374</v>
+      <c r="B166" s="8" t="s">
+        <v>370</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>536</v>
+        <v>723</v>
       </c>
       <c r="D166" s="8" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E166" s="40">
-        <v>34.323757000000001</v>
+        <v>34.299269000000002</v>
       </c>
       <c r="F166" s="40">
-        <v>134.07733400000001</v>
+        <v>134.11092500000001</v>
       </c>
       <c r="G166" s="32" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="H166" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="I166" s="43">
-        <v>42520</v>
-      </c>
-      <c r="J166" s="20"/>
+        <v>42454</v>
+      </c>
+      <c r="J166" s="18" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="167" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>166</v>
       </c>
-      <c r="B167" s="8" t="s">
-        <v>707</v>
+      <c r="B167" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D167" s="8" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="E167" s="40">
-        <v>34.286965000000002</v>
+        <v>34.301983</v>
       </c>
       <c r="F167" s="40">
-        <v>134.042618</v>
+        <v>134.07158699999999</v>
       </c>
       <c r="G167" s="32" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="H167" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="I167" s="43">
-        <v>41113</v>
-      </c>
-      <c r="J167" s="18" t="s">
-        <v>301</v>
-      </c>
+        <v>28216</v>
+      </c>
+      <c r="J167" s="20"/>
     </row>
     <row r="168" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>167</v>
       </c>
-      <c r="B168" s="8" t="s">
+      <c r="B168" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="E168" s="40">
+        <v>34.323757000000001</v>
+      </c>
+      <c r="F168" s="40">
+        <v>134.07733400000001</v>
+      </c>
+      <c r="G168" s="32" t="s">
+        <v>705</v>
+      </c>
+      <c r="H168" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="I168" s="43">
+        <v>42520</v>
+      </c>
+      <c r="J168" s="20"/>
+    </row>
+    <row r="169" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>168</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E169" s="40">
+        <v>34.286965000000002</v>
+      </c>
+      <c r="F169" s="40">
+        <v>134.042618</v>
+      </c>
+      <c r="G169" s="32" t="s">
+        <v>706</v>
+      </c>
+      <c r="H169" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="I169" s="43">
+        <v>41113</v>
+      </c>
+      <c r="J169" s="18" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>169</v>
+      </c>
+      <c r="B170" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C170" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D168" s="8" t="s">
+      <c r="D170" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="E168" s="40">
+      <c r="E170" s="40">
         <v>34.313502999999997</v>
       </c>
-      <c r="F168" s="40">
+      <c r="F170" s="40">
         <v>134.08316099999999</v>
       </c>
-      <c r="G168" s="32" t="s">
+      <c r="G170" s="32" t="s">
         <v>708</v>
       </c>
-      <c r="H168" s="7" t="s">
+      <c r="H170" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="I168" s="43">
+      <c r="I170" s="43">
         <v>41687</v>
       </c>
-      <c r="J168" s="18" t="s">
+      <c r="J170" s="18" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="169" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B169" s="9"/>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-      <c r="E169" s="23"/>
-      <c r="F169" s="23"/>
-      <c r="G169" s="37"/>
-      <c r="H169" s="23"/>
-      <c r="I169" s="49"/>
-      <c r="J169" s="22"/>
-    </row>
-    <row r="170" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A170" s="33"/>
-      <c r="B170" s="9"/>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-      <c r="E170" s="23"/>
-      <c r="F170" s="23"/>
-      <c r="G170" s="37"/>
-      <c r="H170" s="23"/>
-      <c r="I170" s="49"/>
-      <c r="J170" s="22"/>
-    </row>
     <row r="171" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A171" s="33"/>
       <c r="B171" s="9"/>
       <c r="C171" s="9"/>
       <c r="D171" s="9"/>
@@ -10782,7 +10894,7 @@
       <c r="J171" s="22"/>
     </row>
     <row r="172" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="6"/>
+      <c r="A172" s="33"/>
       <c r="B172" s="9"/>
       <c r="C172" s="9"/>
       <c r="D172" s="9"/>
@@ -10794,7 +10906,7 @@
       <c r="J172" s="22"/>
     </row>
     <row r="173" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="6"/>
+      <c r="A173" s="33"/>
       <c r="B173" s="9"/>
       <c r="C173" s="9"/>
       <c r="D173" s="9"/>
@@ -10841,8 +10953,11 @@
       <c r="I176" s="49"/>
       <c r="J176" s="22"/>
     </row>
-    <row r="177" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="6"/>
+      <c r="B177" s="9"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
       <c r="E177" s="23"/>
       <c r="F177" s="23"/>
       <c r="G177" s="37"/>
@@ -10850,8 +10965,11 @@
       <c r="I177" s="49"/>
       <c r="J177" s="22"/>
     </row>
-    <row r="178" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" s="10" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="6"/>
+      <c r="B178" s="9"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
       <c r="E178" s="23"/>
       <c r="F178" s="23"/>
       <c r="G178" s="37"/>
@@ -10870,27 +10988,21 @@
     </row>
     <row r="180" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6"/>
-      <c r="B180" s="6"/>
-      <c r="C180" s="6"/>
-      <c r="D180" s="6"/>
-      <c r="E180" s="5"/>
-      <c r="F180" s="5"/>
-      <c r="G180" s="38"/>
-      <c r="H180" s="5"/>
-      <c r="I180" s="50"/>
-      <c r="J180" s="11"/>
+      <c r="E180" s="23"/>
+      <c r="F180" s="23"/>
+      <c r="G180" s="37"/>
+      <c r="H180" s="23"/>
+      <c r="I180" s="49"/>
+      <c r="J180" s="22"/>
     </row>
     <row r="181" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="6"/>
-      <c r="B181" s="6"/>
-      <c r="C181" s="6"/>
-      <c r="D181" s="6"/>
-      <c r="E181" s="5"/>
-      <c r="F181" s="5"/>
-      <c r="G181" s="38"/>
-      <c r="H181" s="5"/>
-      <c r="I181" s="50"/>
-      <c r="J181" s="11"/>
+      <c r="E181" s="23"/>
+      <c r="F181" s="23"/>
+      <c r="G181" s="37"/>
+      <c r="H181" s="23"/>
+      <c r="I181" s="49"/>
+      <c r="J181" s="22"/>
     </row>
     <row r="182" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="6"/>
@@ -10988,7 +11100,11 @@
       <c r="I189" s="50"/>
       <c r="J189" s="11"/>
     </row>
-    <row r="190" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="6"/>
+      <c r="B190" s="6"/>
+      <c r="C190" s="6"/>
+      <c r="D190" s="6"/>
       <c r="E190" s="5"/>
       <c r="F190" s="5"/>
       <c r="G190" s="38"/>
@@ -10996,7 +11112,11 @@
       <c r="I190" s="50"/>
       <c r="J190" s="11"/>
     </row>
-    <row r="191" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" s="9" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="6"/>
+      <c r="B191" s="6"/>
+      <c r="C191" s="6"/>
+      <c r="D191" s="6"/>
       <c r="E191" s="5"/>
       <c r="F191" s="5"/>
       <c r="G191" s="38"/>
@@ -11397,7 +11517,6 @@
       <c r="J240" s="11"/>
     </row>
     <row r="241" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A241" s="1"/>
       <c r="E241" s="5"/>
       <c r="F241" s="5"/>
       <c r="G241" s="38"/>
@@ -11406,7 +11525,6 @@
       <c r="J241" s="11"/>
     </row>
     <row r="242" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A242" s="1"/>
       <c r="E242" s="5"/>
       <c r="F242" s="5"/>
       <c r="G242" s="38"/>
@@ -11488,27 +11606,21 @@
     </row>
     <row r="251" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="1"/>
-      <c r="B251" s="1"/>
-      <c r="C251" s="1"/>
-      <c r="D251" s="1"/>
-      <c r="E251" s="3"/>
-      <c r="F251" s="3"/>
-      <c r="G251" s="39"/>
-      <c r="H251" s="3"/>
-      <c r="I251" s="51"/>
-      <c r="J251" s="13"/>
+      <c r="E251" s="5"/>
+      <c r="F251" s="5"/>
+      <c r="G251" s="38"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="50"/>
+      <c r="J251" s="11"/>
     </row>
     <row r="252" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="1"/>
-      <c r="B252" s="1"/>
-      <c r="C252" s="1"/>
-      <c r="D252" s="1"/>
-      <c r="E252" s="3"/>
-      <c r="F252" s="3"/>
-      <c r="G252" s="39"/>
-      <c r="H252" s="3"/>
-      <c r="I252" s="51"/>
-      <c r="J252" s="13"/>
+      <c r="E252" s="5"/>
+      <c r="F252" s="5"/>
+      <c r="G252" s="38"/>
+      <c r="H252" s="5"/>
+      <c r="I252" s="50"/>
+      <c r="J252" s="11"/>
     </row>
     <row r="253" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="1"/>
@@ -11606,11 +11718,35 @@
       <c r="I260" s="51"/>
       <c r="J260" s="13"/>
     </row>
+    <row r="261" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="1"/>
+      <c r="B261" s="1"/>
+      <c r="C261" s="1"/>
+      <c r="D261" s="1"/>
+      <c r="E261" s="3"/>
+      <c r="F261" s="3"/>
+      <c r="G261" s="39"/>
+      <c r="H261" s="3"/>
+      <c r="I261" s="51"/>
+      <c r="J261" s="13"/>
+    </row>
+    <row r="262" spans="1:10" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="1"/>
+      <c r="B262" s="1"/>
+      <c r="C262" s="1"/>
+      <c r="D262" s="1"/>
+      <c r="E262" s="3"/>
+      <c r="F262" s="3"/>
+      <c r="G262" s="39"/>
+      <c r="H262" s="3"/>
+      <c r="I262" s="51"/>
+      <c r="J262" s="13"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:J168"/>
+  <autoFilter ref="A1:J170"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/data/judo_therapy/data.xlsx
+++ b/data/judo_therapy/data.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\51481\デスクトップ\オープンデータ\オープンデータ\柔整\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ivpf201v.takamatsu.local\Profile\51481\Desktop\オープンデータ\柔整\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3600CB-8016-4D67-8C34-EC8A8A2FDCC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{31749410-94AE-4AD9-A2EC-75CE6BE1C48B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$198</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$197</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="756">
   <si>
     <t>名　　　　称</t>
   </si>
@@ -1143,18 +1142,6 @@
   </si>
   <si>
     <t>087-862-2624</t>
-  </si>
-  <si>
-    <t>ピース鍼灸整骨院</t>
-  </si>
-  <si>
-    <t>山田　正人</t>
-  </si>
-  <si>
-    <t>香川県高松市東山崎町４６２番地１</t>
-  </si>
-  <si>
-    <t>087-840-7774</t>
   </si>
   <si>
     <t>ともみ整骨院</t>
@@ -2161,9 +2148,6 @@
   <si>
     <t>087-869-2880</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>087-</t>
   </si>
   <si>
     <t>087-867-3818</t>
@@ -2405,9 +2389,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -2505,7 +2489,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2523,7 +2507,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準_Sheet1" xfId="1" xr:uid="{44B39936-2911-4539-9E22-57FFB4047F1E}"/>
+    <cellStyle name="標準_Sheet1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2854,12 +2838,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E86227F4-E57E-4F0E-A935-CE1B2141DCD2}">
-  <dimension ref="A1:I198"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="B199" sqref="B199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2877,7 +2861,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>0</v>
@@ -2953,7 +2937,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="H3" s="7">
         <v>30333</v>
@@ -3011,7 +2995,7 @@
         <v>23</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="H5" s="7">
         <v>32527</v>
@@ -3040,7 +3024,7 @@
         <v>26</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H6" s="7">
         <v>31352</v>
@@ -3069,7 +3053,7 @@
         <v>29</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="H7" s="7">
         <v>33394</v>
@@ -3098,7 +3082,7 @@
         <v>32</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="H8" s="7">
         <v>29342</v>
@@ -3127,7 +3111,7 @@
         <v>35</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="H9" s="7">
         <v>29647</v>
@@ -3185,7 +3169,7 @@
         <v>42</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="H11" s="7">
         <v>34186</v>
@@ -3214,7 +3198,7 @@
         <v>45</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="H12" s="7">
         <v>32907</v>
@@ -3269,7 +3253,7 @@
         <v>134.03185099999999</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>52</v>
@@ -3298,10 +3282,10 @@
         <v>134.05004099999999</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="H15" s="7">
         <v>25628</v>
@@ -3330,7 +3314,7 @@
         <v>57</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="H16" s="7">
         <v>28216</v>
@@ -3359,7 +3343,7 @@
         <v>60</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="H17" s="7">
         <v>32512</v>
@@ -3388,7 +3372,7 @@
         <v>63</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H18" s="7">
         <v>30529</v>
@@ -3417,7 +3401,7 @@
         <v>66</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="H19" s="7">
         <v>29717</v>
@@ -3446,7 +3430,7 @@
         <v>69</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="H20" s="7">
         <v>31617</v>
@@ -3533,7 +3517,7 @@
         <v>80</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="H23" s="7">
         <v>33575</v>
@@ -3562,7 +3546,7 @@
         <v>83</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="H24" s="7">
         <v>30015</v>
@@ -3591,7 +3575,7 @@
         <v>86</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="H25" s="7">
         <v>31040</v>
@@ -3765,7 +3749,7 @@
         <v>109</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="H31" s="7">
         <v>36057</v>
@@ -3804,8 +3788,8 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="5" t="s">
-        <v>701</v>
+      <c r="A33" s="5">
+        <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>114</v>
@@ -3823,7 +3807,7 @@
         <v>116</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="H33" s="7">
         <v>36242</v>
@@ -3881,7 +3865,7 @@
         <v>123</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="H35" s="7">
         <v>36742</v>
@@ -3910,7 +3894,7 @@
         <v>126</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="H36" s="7">
         <v>37073</v>
@@ -3968,7 +3952,7 @@
         <v>133</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="H38" s="7">
         <v>37561</v>
@@ -4055,7 +4039,7 @@
         <v>144</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="H41" s="7">
         <v>38070</v>
@@ -4081,7 +4065,7 @@
         <v>134.10490200000001</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G42" s="6" t="s">
         <v>147</v>
@@ -4255,10 +4239,10 @@
         <v>134.050062</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="H48" s="7">
         <v>38749</v>
@@ -4287,7 +4271,7 @@
         <v>172</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="H49" s="7">
         <v>36434</v>
@@ -4313,10 +4297,10 @@
         <v>134.03625400000001</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="H50" s="7">
         <v>33026</v>
@@ -4342,10 +4326,10 @@
         <v>134.03007099999999</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="H51" s="7">
         <v>33549</v>
@@ -4432,7 +4416,7 @@
         <v>187</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="H54" s="7">
         <v>38808</v>
@@ -4490,7 +4474,7 @@
         <v>194</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="H56" s="7">
         <v>38930</v>
@@ -4577,7 +4561,7 @@
         <v>205</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="H59" s="7">
         <v>39454</v>
@@ -5154,7 +5138,7 @@
         <v>134.04995500000001</v>
       </c>
       <c r="F79" s="10" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="G79" s="6" t="s">
         <v>284</v>
@@ -5270,7 +5254,7 @@
         <v>134.07120900000001</v>
       </c>
       <c r="F83" s="10" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="G83" s="6" t="s">
         <v>299</v>
@@ -5299,7 +5283,7 @@
         <v>134.051402</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="G84" s="6" t="s">
         <v>302</v>
@@ -5618,7 +5602,7 @@
         <v>134.05445800000001</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="G95" s="6" t="s">
         <v>340</v>
@@ -5647,7 +5631,7 @@
         <v>134.08312799999999</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="G96" s="6" t="s">
         <v>342</v>
@@ -5734,7 +5718,7 @@
         <v>134.069569</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="G99" s="6" t="s">
         <v>16</v>
@@ -5792,7 +5776,7 @@
         <v>134.07390599999999</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="G101" s="6" t="s">
         <v>359</v>
@@ -5873,10 +5857,10 @@
         <v>369</v>
       </c>
       <c r="D104" s="5">
-        <v>34.300122000000002</v>
+        <v>34.321258999999998</v>
       </c>
       <c r="E104" s="5">
-        <v>134.098523</v>
+        <v>134.04483400000001</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>370</v>
@@ -5885,10 +5869,10 @@
         <v>371</v>
       </c>
       <c r="H104" s="7">
-        <v>41976</v>
+        <v>42009</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -5902,10 +5886,10 @@
         <v>373</v>
       </c>
       <c r="D105" s="5">
-        <v>34.321258999999998</v>
+        <v>34.308826000000003</v>
       </c>
       <c r="E105" s="5">
-        <v>134.04483400000001</v>
+        <v>133.96402599999999</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>374</v>
@@ -5914,7 +5898,7 @@
         <v>375</v>
       </c>
       <c r="H105" s="7">
-        <v>42009</v>
+        <v>42086</v>
       </c>
       <c r="I105" s="8" t="s">
         <v>16</v>
@@ -5931,10 +5915,10 @@
         <v>377</v>
       </c>
       <c r="D106" s="5">
-        <v>34.308826000000003</v>
+        <v>34.343775999999998</v>
       </c>
       <c r="E106" s="5">
-        <v>133.96402599999999</v>
+        <v>134.123323</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>378</v>
@@ -5943,10 +5927,10 @@
         <v>379</v>
       </c>
       <c r="H106" s="7">
-        <v>42086</v>
+        <v>42156</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -5960,10 +5944,10 @@
         <v>381</v>
       </c>
       <c r="D107" s="5">
-        <v>34.343775999999998</v>
+        <v>34.331446</v>
       </c>
       <c r="E107" s="5">
-        <v>134.123323</v>
+        <v>134.04839899999999</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>382</v>
@@ -5975,7 +5959,7 @@
         <v>42156</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -5989,10 +5973,10 @@
         <v>385</v>
       </c>
       <c r="D108" s="5">
-        <v>34.331446</v>
+        <v>34.289495000000002</v>
       </c>
       <c r="E108" s="5">
-        <v>134.04839899999999</v>
+        <v>134.02810099999999</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>386</v>
@@ -6001,10 +5985,10 @@
         <v>387</v>
       </c>
       <c r="H108" s="7">
-        <v>42156</v>
+        <v>42163</v>
       </c>
       <c r="I108" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -6018,10 +6002,10 @@
         <v>389</v>
       </c>
       <c r="D109" s="5">
-        <v>34.289495000000002</v>
+        <v>34.333159000000002</v>
       </c>
       <c r="E109" s="5">
-        <v>134.02810099999999</v>
+        <v>134.048125</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>390</v>
@@ -6030,7 +6014,7 @@
         <v>391</v>
       </c>
       <c r="H109" s="7">
-        <v>42163</v>
+        <v>42319</v>
       </c>
       <c r="I109" s="8" t="s">
         <v>12</v>
@@ -6047,10 +6031,10 @@
         <v>393</v>
       </c>
       <c r="D110" s="5">
-        <v>34.333159000000002</v>
+        <v>34.329160999999999</v>
       </c>
       <c r="E110" s="5">
-        <v>134.048125</v>
+        <v>134.058245</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>394</v>
@@ -6059,7 +6043,7 @@
         <v>395</v>
       </c>
       <c r="H110" s="7">
-        <v>42319</v>
+        <v>42443</v>
       </c>
       <c r="I110" s="8" t="s">
         <v>12</v>
@@ -6076,10 +6060,10 @@
         <v>397</v>
       </c>
       <c r="D111" s="5">
-        <v>34.329160999999999</v>
+        <v>34.302152</v>
       </c>
       <c r="E111" s="5">
-        <v>134.058245</v>
+        <v>134.041696</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>398</v>
@@ -6088,7 +6072,7 @@
         <v>399</v>
       </c>
       <c r="H111" s="7">
-        <v>42443</v>
+        <v>42461</v>
       </c>
       <c r="I111" s="8" t="s">
         <v>12</v>
@@ -6105,10 +6089,10 @@
         <v>401</v>
       </c>
       <c r="D112" s="5">
-        <v>34.302152</v>
+        <v>34.299269000000002</v>
       </c>
       <c r="E112" s="5">
-        <v>134.041696</v>
+        <v>134.11092500000001</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>402</v>
@@ -6117,7 +6101,7 @@
         <v>403</v>
       </c>
       <c r="H112" s="7">
-        <v>42461</v>
+        <v>42454</v>
       </c>
       <c r="I112" s="8" t="s">
         <v>12</v>
@@ -6133,23 +6117,23 @@
       <c r="C113" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="D113" s="5">
-        <v>34.299269000000002</v>
-      </c>
-      <c r="E113" s="5">
-        <v>134.11092500000001</v>
-      </c>
-      <c r="F113" s="6" t="s">
+      <c r="D113" s="11">
+        <v>34.346671000000001</v>
+      </c>
+      <c r="E113" s="9">
+        <v>134.04559599999999</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>722</v>
+      </c>
+      <c r="G113" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="G113" s="6" t="s">
-        <v>407</v>
-      </c>
       <c r="H113" s="7">
-        <v>42454</v>
+        <v>38510</v>
       </c>
       <c r="I113" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -6157,25 +6141,25 @@
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="C114" s="6" t="s">
+      <c r="D114" s="5">
+        <v>34.323757000000001</v>
+      </c>
+      <c r="E114" s="5">
+        <v>134.07733400000001</v>
+      </c>
+      <c r="F114" s="6" t="s">
         <v>409</v>
-      </c>
-      <c r="D114" s="11">
-        <v>34.346671000000001</v>
-      </c>
-      <c r="E114" s="9">
-        <v>134.04559599999999</v>
-      </c>
-      <c r="F114" s="10" t="s">
-        <v>727</v>
       </c>
       <c r="G114" s="6" t="s">
         <v>410</v>
       </c>
       <c r="H114" s="7">
-        <v>38510</v>
+        <v>42520</v>
       </c>
       <c r="I114" s="8" t="s">
         <v>16</v>
@@ -6192,10 +6176,10 @@
         <v>412</v>
       </c>
       <c r="D115" s="5">
-        <v>34.323757000000001</v>
+        <v>34.325797000000001</v>
       </c>
       <c r="E115" s="5">
-        <v>134.07733400000001</v>
+        <v>134.07956300000001</v>
       </c>
       <c r="F115" s="6" t="s">
         <v>413</v>
@@ -6204,7 +6188,7 @@
         <v>414</v>
       </c>
       <c r="H115" s="7">
-        <v>42520</v>
+        <v>42522</v>
       </c>
       <c r="I115" s="8" t="s">
         <v>16</v>
@@ -6220,23 +6204,23 @@
       <c r="C116" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D116" s="5">
-        <v>34.325797000000001</v>
-      </c>
-      <c r="E116" s="5">
-        <v>134.07956300000001</v>
-      </c>
-      <c r="F116" s="6" t="s">
+      <c r="D116" s="11">
+        <v>34.346752000000002</v>
+      </c>
+      <c r="E116" s="9">
+        <v>134.05436499999999</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>723</v>
+      </c>
+      <c r="G116" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="G116" s="6" t="s">
-        <v>418</v>
-      </c>
       <c r="H116" s="7">
-        <v>42522</v>
+        <v>42620</v>
       </c>
       <c r="I116" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -6244,28 +6228,28 @@
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="C117" s="6" t="s">
+      <c r="D117" s="5">
+        <v>34.256841000000001</v>
+      </c>
+      <c r="E117" s="5">
+        <v>134.03386900000001</v>
+      </c>
+      <c r="F117" s="6" t="s">
         <v>420</v>
-      </c>
-      <c r="D117" s="11">
-        <v>34.346752000000002</v>
-      </c>
-      <c r="E117" s="9">
-        <v>134.05436499999999</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>728</v>
       </c>
       <c r="G117" s="6" t="s">
         <v>421</v>
       </c>
       <c r="H117" s="7">
-        <v>42620</v>
+        <v>42865</v>
       </c>
       <c r="I117" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -6279,10 +6263,10 @@
         <v>423</v>
       </c>
       <c r="D118" s="5">
-        <v>34.256841000000001</v>
+        <v>34.311008000000001</v>
       </c>
       <c r="E118" s="5">
-        <v>134.03386900000001</v>
+        <v>134.04754500000001</v>
       </c>
       <c r="F118" s="6" t="s">
         <v>424</v>
@@ -6291,10 +6275,10 @@
         <v>425</v>
       </c>
       <c r="H118" s="7">
-        <v>42865</v>
+        <v>42899</v>
       </c>
       <c r="I118" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -6308,10 +6292,10 @@
         <v>427</v>
       </c>
       <c r="D119" s="5">
-        <v>34.311008000000001</v>
+        <v>34.311416999999999</v>
       </c>
       <c r="E119" s="5">
-        <v>134.04754500000001</v>
+        <v>134.04428100000001</v>
       </c>
       <c r="F119" s="6" t="s">
         <v>428</v>
@@ -6320,7 +6304,7 @@
         <v>429</v>
       </c>
       <c r="H119" s="7">
-        <v>42899</v>
+        <v>42879</v>
       </c>
       <c r="I119" s="8" t="s">
         <v>12</v>
@@ -6337,10 +6321,10 @@
         <v>431</v>
       </c>
       <c r="D120" s="5">
-        <v>34.311416999999999</v>
+        <v>34.262625</v>
       </c>
       <c r="E120" s="5">
-        <v>134.04428100000001</v>
+        <v>134.024652</v>
       </c>
       <c r="F120" s="6" t="s">
         <v>432</v>
@@ -6349,10 +6333,10 @@
         <v>433</v>
       </c>
       <c r="H120" s="7">
-        <v>42879</v>
+        <v>42887</v>
       </c>
       <c r="I120" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -6366,10 +6350,10 @@
         <v>435</v>
       </c>
       <c r="D121" s="5">
-        <v>34.262625</v>
+        <v>34.337648000000002</v>
       </c>
       <c r="E121" s="5">
-        <v>134.024652</v>
+        <v>134.063039</v>
       </c>
       <c r="F121" s="6" t="s">
         <v>436</v>
@@ -6378,7 +6362,7 @@
         <v>437</v>
       </c>
       <c r="H121" s="7">
-        <v>42887</v>
+        <v>42919</v>
       </c>
       <c r="I121" s="8" t="s">
         <v>16</v>
@@ -6395,10 +6379,10 @@
         <v>439</v>
       </c>
       <c r="D122" s="5">
-        <v>34.337648000000002</v>
+        <v>34.343505999999998</v>
       </c>
       <c r="E122" s="5">
-        <v>134.063039</v>
+        <v>134.06172799999999</v>
       </c>
       <c r="F122" s="6" t="s">
         <v>440</v>
@@ -6407,7 +6391,7 @@
         <v>441</v>
       </c>
       <c r="H122" s="7">
-        <v>42919</v>
+        <v>42937</v>
       </c>
       <c r="I122" s="8" t="s">
         <v>16</v>
@@ -6424,10 +6408,10 @@
         <v>443</v>
       </c>
       <c r="D123" s="5">
-        <v>34.343505999999998</v>
+        <v>34.330067999999997</v>
       </c>
       <c r="E123" s="5">
-        <v>134.06172799999999</v>
+        <v>134.049935</v>
       </c>
       <c r="F123" s="6" t="s">
         <v>444</v>
@@ -6436,10 +6420,10 @@
         <v>445</v>
       </c>
       <c r="H123" s="7">
-        <v>42937</v>
+        <v>42921</v>
       </c>
       <c r="I123" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -6453,10 +6437,10 @@
         <v>447</v>
       </c>
       <c r="D124" s="5">
-        <v>34.330067999999997</v>
+        <v>34.317377</v>
       </c>
       <c r="E124" s="5">
-        <v>134.049935</v>
+        <v>134.061384</v>
       </c>
       <c r="F124" s="6" t="s">
         <v>448</v>
@@ -6465,7 +6449,7 @@
         <v>449</v>
       </c>
       <c r="H124" s="7">
-        <v>42921</v>
+        <v>42948</v>
       </c>
       <c r="I124" s="8" t="s">
         <v>12</v>
@@ -6482,19 +6466,19 @@
         <v>451</v>
       </c>
       <c r="D125" s="5">
-        <v>34.317377</v>
+        <v>34.263046000000003</v>
       </c>
       <c r="E125" s="5">
-        <v>134.061384</v>
+        <v>134.02476100000001</v>
       </c>
       <c r="F125" s="6" t="s">
         <v>452</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>453</v>
+        <v>16</v>
       </c>
       <c r="H125" s="7">
-        <v>42948</v>
+        <v>42956</v>
       </c>
       <c r="I125" s="8" t="s">
         <v>12</v>
@@ -6505,28 +6489,28 @@
         <v>125</v>
       </c>
       <c r="B126" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="C126" s="6" t="s">
+      <c r="D126" s="5">
+        <v>34.258761</v>
+      </c>
+      <c r="E126" s="5">
+        <v>134.08592100000001</v>
+      </c>
+      <c r="F126" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="D126" s="5">
-        <v>34.263046000000003</v>
-      </c>
-      <c r="E126" s="5">
-        <v>134.02476100000001</v>
-      </c>
-      <c r="F126" s="6" t="s">
+      <c r="G126" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="G126" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="H126" s="7">
-        <v>42956</v>
+        <v>42979</v>
       </c>
       <c r="I126" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -6539,23 +6523,23 @@
       <c r="C127" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="D127" s="5">
-        <v>34.258761</v>
-      </c>
-      <c r="E127" s="5">
-        <v>134.08592100000001</v>
-      </c>
-      <c r="F127" s="6" t="s">
+      <c r="D127" s="11">
+        <v>34.284075000000001</v>
+      </c>
+      <c r="E127" s="9">
+        <v>134.096484</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>724</v>
+      </c>
+      <c r="G127" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="G127" s="6" t="s">
-        <v>460</v>
-      </c>
       <c r="H127" s="7">
-        <v>42979</v>
+        <v>43070</v>
       </c>
       <c r="I127" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -6563,22 +6547,22 @@
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="C128" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="C128" s="6" t="s">
+      <c r="D128" s="11">
+        <v>34.284039</v>
+      </c>
+      <c r="E128" s="11">
+        <v>134.09647000000001</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>725</v>
+      </c>
+      <c r="G128" s="6" t="s">
         <v>462</v>
-      </c>
-      <c r="D128" s="11">
-        <v>34.284075000000001</v>
-      </c>
-      <c r="E128" s="9">
-        <v>134.096484</v>
-      </c>
-      <c r="F128" s="10" t="s">
-        <v>729</v>
-      </c>
-      <c r="G128" s="6" t="s">
-        <v>463</v>
       </c>
       <c r="H128" s="7">
         <v>43070</v>
@@ -6592,22 +6576,22 @@
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="C129" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D129" s="11">
+        <v>34.288925999999996</v>
+      </c>
+      <c r="E129" s="9">
+        <v>134.026186</v>
+      </c>
+      <c r="F129" s="10" t="s">
+        <v>726</v>
+      </c>
+      <c r="G129" s="6" t="s">
         <v>464</v>
-      </c>
-      <c r="C129" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="D129" s="11">
-        <v>34.284039</v>
-      </c>
-      <c r="E129" s="11">
-        <v>134.09647000000001</v>
-      </c>
-      <c r="F129" s="10" t="s">
-        <v>730</v>
-      </c>
-      <c r="G129" s="6" t="s">
-        <v>466</v>
       </c>
       <c r="H129" s="7">
         <v>43070</v>
@@ -6620,23 +6604,23 @@
       <c r="A130" s="5">
         <v>129</v>
       </c>
-      <c r="B130" s="6" t="s">
-        <v>467</v>
+      <c r="B130" s="10" t="s">
+        <v>728</v>
       </c>
       <c r="C130" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D130" s="11">
+        <v>34.340944999999998</v>
+      </c>
+      <c r="E130" s="9">
+        <v>133.998808</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>727</v>
+      </c>
+      <c r="G130" s="6" t="s">
         <v>465</v>
-      </c>
-      <c r="D130" s="11">
-        <v>34.288925999999996</v>
-      </c>
-      <c r="E130" s="9">
-        <v>134.026186</v>
-      </c>
-      <c r="F130" s="10" t="s">
-        <v>731</v>
-      </c>
-      <c r="G130" s="6" t="s">
-        <v>468</v>
       </c>
       <c r="H130" s="7">
         <v>43070</v>
@@ -6649,23 +6633,23 @@
       <c r="A131" s="5">
         <v>130</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>733</v>
+      <c r="B131" s="6" t="s">
+        <v>466</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D131" s="11">
-        <v>34.340944999999998</v>
+        <v>34.307951000000003</v>
       </c>
       <c r="E131" s="9">
-        <v>133.998808</v>
+        <v>134.06442300000001</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="G131" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="H131" s="7">
         <v>43070</v>
@@ -6679,28 +6663,28 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="C132" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="D132" s="11">
+        <v>34.304431000000001</v>
+      </c>
+      <c r="E132" s="9">
+        <v>133.99029200000001</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>730</v>
+      </c>
+      <c r="G132" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="C132" s="6" t="s">
-        <v>465</v>
-      </c>
-      <c r="D132" s="11">
-        <v>34.307951000000003</v>
-      </c>
-      <c r="E132" s="9">
-        <v>134.06442300000001</v>
-      </c>
-      <c r="F132" s="10" t="s">
-        <v>734</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>471</v>
-      </c>
       <c r="H132" s="7">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="I132" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -6708,19 +6692,19 @@
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="C133" s="6" t="s">
+      <c r="D133" s="5">
+        <v>34.346981999999997</v>
+      </c>
+      <c r="E133" s="5">
+        <v>134.001351</v>
+      </c>
+      <c r="F133" s="6" t="s">
         <v>473</v>
-      </c>
-      <c r="D133" s="11">
-        <v>34.304431000000001</v>
-      </c>
-      <c r="E133" s="9">
-        <v>133.99029200000001</v>
-      </c>
-      <c r="F133" s="10" t="s">
-        <v>735</v>
       </c>
       <c r="G133" s="6" t="s">
         <v>474</v>
@@ -6743,10 +6727,10 @@
         <v>476</v>
       </c>
       <c r="D134" s="5">
-        <v>34.346981999999997</v>
+        <v>34.289068</v>
       </c>
       <c r="E134" s="5">
-        <v>134.001351</v>
+        <v>134.07550499999999</v>
       </c>
       <c r="F134" s="6" t="s">
         <v>477</v>
@@ -6755,7 +6739,7 @@
         <v>478</v>
       </c>
       <c r="H134" s="7">
-        <v>43101</v>
+        <v>43111</v>
       </c>
       <c r="I134" s="8" t="s">
         <v>16</v>
@@ -6772,10 +6756,10 @@
         <v>480</v>
       </c>
       <c r="D135" s="5">
-        <v>34.289068</v>
+        <v>34.338174000000002</v>
       </c>
       <c r="E135" s="5">
-        <v>134.07550499999999</v>
+        <v>134.14005700000001</v>
       </c>
       <c r="F135" s="6" t="s">
         <v>481</v>
@@ -6784,7 +6768,7 @@
         <v>482</v>
       </c>
       <c r="H135" s="7">
-        <v>43111</v>
+        <v>43160</v>
       </c>
       <c r="I135" s="8" t="s">
         <v>16</v>
@@ -6795,22 +6779,22 @@
         <v>135</v>
       </c>
       <c r="B136" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C136" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="C136" s="6" t="s">
+      <c r="D136" s="5">
+        <v>34.324649000000001</v>
+      </c>
+      <c r="E136" s="5">
+        <v>134.07858100000001</v>
+      </c>
+      <c r="F136" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="D136" s="5">
-        <v>34.338174000000002</v>
-      </c>
-      <c r="E136" s="5">
-        <v>134.14005700000001</v>
-      </c>
-      <c r="F136" s="6" t="s">
+      <c r="G136" s="6" t="s">
         <v>485</v>
-      </c>
-      <c r="G136" s="6" t="s">
-        <v>486</v>
       </c>
       <c r="H136" s="7">
         <v>43160</v>
@@ -6824,16 +6808,16 @@
         <v>136</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>117</v>
+        <v>486</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>487</v>
       </c>
       <c r="D137" s="5">
-        <v>34.324649000000001</v>
+        <v>34.308320999999999</v>
       </c>
       <c r="E137" s="5">
-        <v>134.07858100000001</v>
+        <v>134.063761</v>
       </c>
       <c r="F137" s="6" t="s">
         <v>488</v>
@@ -6858,20 +6842,20 @@
       <c r="C138" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="D138" s="5">
-        <v>34.308320999999999</v>
-      </c>
-      <c r="E138" s="5">
-        <v>134.063761</v>
-      </c>
-      <c r="F138" s="6" t="s">
-        <v>492</v>
+      <c r="D138" s="11">
+        <v>34.304431000000001</v>
+      </c>
+      <c r="E138" s="9">
+        <v>133.99030300000001</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>731</v>
       </c>
       <c r="G138" s="6" t="s">
-        <v>493</v>
+        <v>16</v>
       </c>
       <c r="H138" s="7">
-        <v>43160</v>
+        <v>43185</v>
       </c>
       <c r="I138" s="8" t="s">
         <v>16</v>
@@ -6882,25 +6866,25 @@
         <v>138</v>
       </c>
       <c r="B139" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="C139" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D139" s="5">
+        <v>34.334273000000003</v>
+      </c>
+      <c r="E139" s="5">
+        <v>134.083787</v>
+      </c>
+      <c r="F139" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="C139" s="6" t="s">
+      <c r="G139" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="D139" s="11">
-        <v>34.304431000000001</v>
-      </c>
-      <c r="E139" s="9">
-        <v>133.99030300000001</v>
-      </c>
-      <c r="F139" s="10" t="s">
-        <v>736</v>
-      </c>
-      <c r="G139" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="H139" s="7">
-        <v>43185</v>
+        <v>43383</v>
       </c>
       <c r="I139" s="8" t="s">
         <v>16</v>
@@ -6917,10 +6901,10 @@
         <v>497</v>
       </c>
       <c r="D140" s="5">
-        <v>34.334273000000003</v>
+        <v>34.348706999999997</v>
       </c>
       <c r="E140" s="5">
-        <v>134.083787</v>
+        <v>134.01070899999999</v>
       </c>
       <c r="F140" s="6" t="s">
         <v>498</v>
@@ -6929,10 +6913,10 @@
         <v>499</v>
       </c>
       <c r="H140" s="7">
-        <v>43383</v>
+        <v>43515</v>
       </c>
       <c r="I140" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -6945,20 +6929,20 @@
       <c r="C141" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="D141" s="5">
-        <v>34.348706999999997</v>
-      </c>
-      <c r="E141" s="5">
-        <v>134.01070899999999</v>
-      </c>
-      <c r="F141" s="6" t="s">
-        <v>502</v>
+      <c r="D141" s="11">
+        <v>34.320255000000003</v>
+      </c>
+      <c r="E141" s="9">
+        <v>134.04388299999999</v>
+      </c>
+      <c r="F141" s="10" t="s">
+        <v>732</v>
       </c>
       <c r="G141" s="6" t="s">
-        <v>503</v>
+        <v>16</v>
       </c>
       <c r="H141" s="7">
-        <v>43515</v>
+        <v>43586</v>
       </c>
       <c r="I141" s="8" t="s">
         <v>12</v>
@@ -6969,28 +6953,28 @@
         <v>141</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>504</v>
+        <v>364</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="D142" s="11">
-        <v>34.320255000000003</v>
-      </c>
-      <c r="E142" s="9">
-        <v>134.04388299999999</v>
-      </c>
-      <c r="F142" s="10" t="s">
-        <v>737</v>
+        <v>502</v>
+      </c>
+      <c r="D142" s="5">
+        <v>34.264961</v>
+      </c>
+      <c r="E142" s="5">
+        <v>134.10543899999999</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>503</v>
       </c>
       <c r="G142" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H142" s="7">
-        <v>43586</v>
+        <v>43583</v>
       </c>
       <c r="I142" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="143" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -6998,25 +6982,25 @@
         <v>142</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>364</v>
+        <v>504</v>
       </c>
       <c r="C143" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="D143" s="5">
+        <v>34.297524000000003</v>
+      </c>
+      <c r="E143" s="5">
+        <v>134.089235</v>
+      </c>
+      <c r="F143" s="6" t="s">
         <v>506</v>
       </c>
-      <c r="D143" s="5">
-        <v>34.264961</v>
-      </c>
-      <c r="E143" s="5">
-        <v>134.10543899999999</v>
-      </c>
-      <c r="F143" s="6" t="s">
+      <c r="G143" s="6" t="s">
         <v>507</v>
       </c>
-      <c r="G143" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="H143" s="7">
-        <v>43583</v>
+        <v>43657</v>
       </c>
       <c r="I143" s="8" t="s">
         <v>16</v>
@@ -7032,20 +7016,20 @@
       <c r="C144" s="6" t="s">
         <v>509</v>
       </c>
-      <c r="D144" s="5">
-        <v>34.297524000000003</v>
-      </c>
-      <c r="E144" s="5">
-        <v>134.089235</v>
-      </c>
-      <c r="F144" s="6" t="s">
-        <v>510</v>
+      <c r="D144" s="11">
+        <v>34.338583999999997</v>
+      </c>
+      <c r="E144" s="9">
+        <v>134.05114900000001</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>733</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>511</v>
+        <v>16</v>
       </c>
       <c r="H144" s="7">
-        <v>43657</v>
+        <v>43647</v>
       </c>
       <c r="I144" s="8" t="s">
         <v>16</v>
@@ -7056,28 +7040,28 @@
         <v>144</v>
       </c>
       <c r="B145" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="C145" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="D145" s="5">
+        <v>34.310828999999998</v>
+      </c>
+      <c r="E145" s="5">
+        <v>134.06003899999999</v>
+      </c>
+      <c r="F145" s="6" t="s">
         <v>512</v>
       </c>
-      <c r="C145" s="6" t="s">
+      <c r="G145" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="D145" s="11">
-        <v>34.338583999999997</v>
-      </c>
-      <c r="E145" s="9">
-        <v>134.05114900000001</v>
-      </c>
-      <c r="F145" s="10" t="s">
-        <v>738</v>
-      </c>
-      <c r="G145" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="H145" s="7">
-        <v>43647</v>
+        <v>43698</v>
       </c>
       <c r="I145" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -7091,10 +7075,10 @@
         <v>515</v>
       </c>
       <c r="D146" s="5">
-        <v>34.310828999999998</v>
+        <v>34.350360999999999</v>
       </c>
       <c r="E146" s="5">
-        <v>134.06003899999999</v>
+        <v>133.997266</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>516</v>
@@ -7103,10 +7087,10 @@
         <v>517</v>
       </c>
       <c r="H146" s="7">
-        <v>43698</v>
+        <v>43721</v>
       </c>
       <c r="I146" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -7119,20 +7103,20 @@
       <c r="C147" s="6" t="s">
         <v>519</v>
       </c>
-      <c r="D147" s="5">
-        <v>34.350360999999999</v>
-      </c>
-      <c r="E147" s="5">
-        <v>133.997266</v>
-      </c>
-      <c r="F147" s="6" t="s">
+      <c r="D147" s="11">
+        <v>34.320157999999999</v>
+      </c>
+      <c r="E147" s="9">
+        <v>134.081976</v>
+      </c>
+      <c r="F147" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="G147" s="6" t="s">
         <v>520</v>
       </c>
-      <c r="G147" s="6" t="s">
-        <v>521</v>
-      </c>
       <c r="H147" s="7">
-        <v>43721</v>
+        <v>43739</v>
       </c>
       <c r="I147" s="8" t="s">
         <v>16</v>
@@ -7143,25 +7127,25 @@
         <v>147</v>
       </c>
       <c r="B148" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>522</v>
       </c>
-      <c r="C148" s="6" t="s">
+      <c r="D148" s="5">
+        <v>34.301029</v>
+      </c>
+      <c r="E148" s="5">
+        <v>133.96772100000001</v>
+      </c>
+      <c r="F148" s="6" t="s">
         <v>523</v>
-      </c>
-      <c r="D148" s="11">
-        <v>34.320157999999999</v>
-      </c>
-      <c r="E148" s="9">
-        <v>134.081976</v>
-      </c>
-      <c r="F148" s="10" t="s">
-        <v>739</v>
       </c>
       <c r="G148" s="6" t="s">
         <v>524</v>
       </c>
       <c r="H148" s="7">
-        <v>43739</v>
+        <v>43837</v>
       </c>
       <c r="I148" s="8" t="s">
         <v>16</v>
@@ -7178,10 +7162,10 @@
         <v>526</v>
       </c>
       <c r="D149" s="5">
-        <v>34.301029</v>
+        <v>34.345882000000003</v>
       </c>
       <c r="E149" s="5">
-        <v>133.96772100000001</v>
+        <v>134.04718009999999</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>527</v>
@@ -7190,10 +7174,10 @@
         <v>528</v>
       </c>
       <c r="H149" s="7">
-        <v>43837</v>
+        <v>43892</v>
       </c>
       <c r="I149" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -7206,23 +7190,23 @@
       <c r="C150" s="6" t="s">
         <v>530</v>
       </c>
-      <c r="D150" s="5">
-        <v>34.345882000000003</v>
-      </c>
-      <c r="E150" s="5">
-        <v>134.04718009999999</v>
-      </c>
-      <c r="F150" s="6" t="s">
+      <c r="D150" s="11">
+        <v>34.343426000000001</v>
+      </c>
+      <c r="E150" s="9">
+        <v>134.006621</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="G150" s="6" t="s">
         <v>531</v>
       </c>
-      <c r="G150" s="6" t="s">
-        <v>532</v>
-      </c>
       <c r="H150" s="7">
-        <v>43892</v>
+        <v>43948</v>
       </c>
       <c r="I150" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -7230,25 +7214,25 @@
         <v>150</v>
       </c>
       <c r="B151" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="C151" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="C151" s="6" t="s">
+      <c r="D151" s="5">
+        <v>34.269686</v>
+      </c>
+      <c r="E151" s="5">
+        <v>134.03456399999999</v>
+      </c>
+      <c r="F151" s="6" t="s">
         <v>534</v>
-      </c>
-      <c r="D151" s="11">
-        <v>34.343426000000001</v>
-      </c>
-      <c r="E151" s="9">
-        <v>134.006621</v>
-      </c>
-      <c r="F151" s="10" t="s">
-        <v>740</v>
       </c>
       <c r="G151" s="6" t="s">
         <v>535</v>
       </c>
       <c r="H151" s="7">
-        <v>43948</v>
+        <v>44013</v>
       </c>
       <c r="I151" s="8" t="s">
         <v>16</v>
@@ -7262,25 +7246,25 @@
         <v>536</v>
       </c>
       <c r="C152" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="D152" s="11">
+        <v>34.323721999999997</v>
+      </c>
+      <c r="E152" s="9">
+        <v>134.05932100000001</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="G152" s="6" t="s">
         <v>537</v>
       </c>
-      <c r="D152" s="5">
-        <v>34.269686</v>
-      </c>
-      <c r="E152" s="5">
-        <v>134.03456399999999</v>
-      </c>
-      <c r="F152" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="G152" s="6" t="s">
-        <v>539</v>
-      </c>
       <c r="H152" s="7">
-        <v>44013</v>
+        <v>44118</v>
       </c>
       <c r="I152" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -7288,28 +7272,28 @@
         <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>465</v>
+        <v>539</v>
       </c>
       <c r="D153" s="11">
-        <v>34.323721999999997</v>
+        <v>34.299357999999998</v>
       </c>
       <c r="E153" s="9">
-        <v>134.05932100000001</v>
+        <v>134.109916</v>
       </c>
       <c r="F153" s="10" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="G153" s="6" t="s">
-        <v>541</v>
+        <v>16</v>
       </c>
       <c r="H153" s="7">
-        <v>44118</v>
+        <v>44112</v>
       </c>
       <c r="I153" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -7317,28 +7301,28 @@
         <v>153</v>
       </c>
       <c r="B154" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="D154" s="11">
+        <v>34.338833999999999</v>
+      </c>
+      <c r="E154" s="9">
+        <v>134.037711</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="G154" s="6" t="s">
         <v>542</v>
       </c>
-      <c r="C154" s="6" t="s">
-        <v>543</v>
-      </c>
-      <c r="D154" s="11">
-        <v>34.299357999999998</v>
-      </c>
-      <c r="E154" s="9">
-        <v>134.109916</v>
-      </c>
-      <c r="F154" s="10" t="s">
-        <v>742</v>
-      </c>
-      <c r="G154" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="H154" s="7">
-        <v>44112</v>
+        <v>44198</v>
       </c>
       <c r="I154" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -7346,28 +7330,28 @@
         <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
+        <v>543</v>
+      </c>
+      <c r="C155" s="6" t="s">
         <v>544</v>
       </c>
-      <c r="C155" s="6" t="s">
+      <c r="D155" s="5">
+        <v>34.307678000000003</v>
+      </c>
+      <c r="E155" s="5">
+        <v>133.96265099999999</v>
+      </c>
+      <c r="F155" s="6" t="s">
         <v>545</v>
-      </c>
-      <c r="D155" s="11">
-        <v>34.338833999999999</v>
-      </c>
-      <c r="E155" s="9">
-        <v>134.037711</v>
-      </c>
-      <c r="F155" s="10" t="s">
-        <v>743</v>
       </c>
       <c r="G155" s="6" t="s">
         <v>546</v>
       </c>
       <c r="H155" s="7">
-        <v>44198</v>
+        <v>44181</v>
       </c>
       <c r="I155" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -7381,10 +7365,10 @@
         <v>548</v>
       </c>
       <c r="D156" s="5">
-        <v>34.307678000000003</v>
+        <v>34.326923000000001</v>
       </c>
       <c r="E156" s="5">
-        <v>133.96265099999999</v>
+        <v>134.07030399999999</v>
       </c>
       <c r="F156" s="6" t="s">
         <v>549</v>
@@ -7393,10 +7377,10 @@
         <v>550</v>
       </c>
       <c r="H156" s="7">
-        <v>44181</v>
+        <v>44197</v>
       </c>
       <c r="I156" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -7410,10 +7394,10 @@
         <v>552</v>
       </c>
       <c r="D157" s="5">
-        <v>34.326923000000001</v>
+        <v>34.324171</v>
       </c>
       <c r="E157" s="5">
-        <v>134.07030399999999</v>
+        <v>133.99242100000001</v>
       </c>
       <c r="F157" s="6" t="s">
         <v>553</v>
@@ -7422,10 +7406,10 @@
         <v>554</v>
       </c>
       <c r="H157" s="7">
-        <v>44197</v>
+        <v>44260</v>
       </c>
       <c r="I157" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -7438,20 +7422,20 @@
       <c r="C158" s="6" t="s">
         <v>556</v>
       </c>
-      <c r="D158" s="5">
-        <v>34.324171</v>
-      </c>
-      <c r="E158" s="5">
-        <v>133.99242100000001</v>
-      </c>
-      <c r="F158" s="6" t="s">
+      <c r="D158" s="11">
+        <v>34.337505</v>
+      </c>
+      <c r="E158" s="9">
+        <v>134.03438499999999</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="G158" s="6" t="s">
         <v>557</v>
       </c>
-      <c r="G158" s="6" t="s">
-        <v>558</v>
-      </c>
       <c r="H158" s="7">
-        <v>44260</v>
+        <v>44291</v>
       </c>
       <c r="I158" s="8" t="s">
         <v>16</v>
@@ -7462,25 +7446,25 @@
         <v>158</v>
       </c>
       <c r="B159" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="C159" s="6" t="s">
         <v>559</v>
       </c>
-      <c r="C159" s="6" t="s">
+      <c r="D159" s="5">
+        <v>34.328966000000001</v>
+      </c>
+      <c r="E159" s="5">
+        <v>134.102282</v>
+      </c>
+      <c r="F159" s="6" t="s">
         <v>560</v>
-      </c>
-      <c r="D159" s="11">
-        <v>34.337505</v>
-      </c>
-      <c r="E159" s="9">
-        <v>134.03438499999999</v>
-      </c>
-      <c r="F159" s="10" t="s">
-        <v>744</v>
       </c>
       <c r="G159" s="6" t="s">
         <v>561</v>
       </c>
       <c r="H159" s="7">
-        <v>44291</v>
+        <v>44287</v>
       </c>
       <c r="I159" s="8" t="s">
         <v>16</v>
@@ -7496,17 +7480,17 @@
       <c r="C160" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="D160" s="5">
-        <v>34.328966000000001</v>
-      </c>
-      <c r="E160" s="5">
-        <v>134.102282</v>
-      </c>
-      <c r="F160" s="6" t="s">
-        <v>564</v>
+      <c r="D160" s="11">
+        <v>34.294271999999999</v>
+      </c>
+      <c r="E160" s="9">
+        <v>134.079407</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>740</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>565</v>
+        <v>16</v>
       </c>
       <c r="H160" s="7">
         <v>44287</v>
@@ -7520,25 +7504,25 @@
         <v>160</v>
       </c>
       <c r="B161" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="D161" s="11">
+        <v>34.256005000000002</v>
+      </c>
+      <c r="E161" s="9">
+        <v>134.02667099999999</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="G161" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="C161" s="6" t="s">
-        <v>567</v>
-      </c>
-      <c r="D161" s="11">
-        <v>34.294271999999999</v>
-      </c>
-      <c r="E161" s="9">
-        <v>134.079407</v>
-      </c>
-      <c r="F161" s="10" t="s">
-        <v>745</v>
-      </c>
-      <c r="G161" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="H161" s="7">
-        <v>44287</v>
+        <v>44136</v>
       </c>
       <c r="I161" s="8" t="s">
         <v>16</v>
@@ -7549,28 +7533,28 @@
         <v>161</v>
       </c>
       <c r="B162" s="6" t="s">
+        <v>567</v>
+      </c>
+      <c r="C162" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="C162" s="6" t="s">
+      <c r="D162" s="5">
+        <v>34.326560999999998</v>
+      </c>
+      <c r="E162" s="5">
+        <v>134.07038299999999</v>
+      </c>
+      <c r="F162" s="6" t="s">
         <v>569</v>
-      </c>
-      <c r="D162" s="11">
-        <v>34.256005000000002</v>
-      </c>
-      <c r="E162" s="9">
-        <v>134.02667099999999</v>
-      </c>
-      <c r="F162" s="10" t="s">
-        <v>746</v>
       </c>
       <c r="G162" s="6" t="s">
         <v>570</v>
       </c>
       <c r="H162" s="7">
-        <v>44136</v>
+        <v>44335</v>
       </c>
       <c r="I162" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -7584,10 +7568,10 @@
         <v>572</v>
       </c>
       <c r="D163" s="5">
-        <v>34.326560999999998</v>
+        <v>34.343221</v>
       </c>
       <c r="E163" s="5">
-        <v>134.07038299999999</v>
+        <v>134.014883</v>
       </c>
       <c r="F163" s="6" t="s">
         <v>573</v>
@@ -7596,10 +7580,10 @@
         <v>574</v>
       </c>
       <c r="H163" s="7">
-        <v>44335</v>
+        <v>44410</v>
       </c>
       <c r="I163" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -7612,23 +7596,23 @@
       <c r="C164" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="D164" s="5">
-        <v>34.343221</v>
-      </c>
-      <c r="E164" s="5">
-        <v>134.014883</v>
-      </c>
-      <c r="F164" s="6" t="s">
+      <c r="D164" s="11">
+        <v>34.319516999999998</v>
+      </c>
+      <c r="E164" s="9">
+        <v>134.044399</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="G164" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="G164" s="6" t="s">
-        <v>578</v>
-      </c>
       <c r="H164" s="7">
-        <v>44410</v>
+        <v>44440</v>
       </c>
       <c r="I164" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -7636,25 +7620,25 @@
         <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
+        <v>578</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="C165" s="6" t="s">
+      <c r="D165" s="11">
+        <v>34.334778</v>
+      </c>
+      <c r="E165" s="9">
+        <v>134.08684500000001</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="G165" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="D165" s="11">
-        <v>34.319516999999998</v>
-      </c>
-      <c r="E165" s="9">
-        <v>134.044399</v>
-      </c>
-      <c r="F165" s="10" t="s">
-        <v>747</v>
-      </c>
-      <c r="G165" s="6" t="s">
-        <v>581</v>
-      </c>
       <c r="H165" s="7">
-        <v>44440</v>
+        <v>43836</v>
       </c>
       <c r="I165" s="8" t="s">
         <v>12</v>
@@ -7665,25 +7649,25 @@
         <v>165</v>
       </c>
       <c r="B166" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>581</v>
+      </c>
+      <c r="D166" s="5">
+        <v>34.344237</v>
+      </c>
+      <c r="E166" s="5">
+        <v>134.069649</v>
+      </c>
+      <c r="F166" s="6" t="s">
         <v>582</v>
       </c>
-      <c r="C166" s="6" t="s">
+      <c r="G166" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="D166" s="11">
-        <v>34.334778</v>
-      </c>
-      <c r="E166" s="9">
-        <v>134.08684500000001</v>
-      </c>
-      <c r="F166" s="10" t="s">
-        <v>748</v>
-      </c>
-      <c r="G166" s="6" t="s">
-        <v>584</v>
-      </c>
       <c r="H166" s="7">
-        <v>43836</v>
+        <v>44562</v>
       </c>
       <c r="I166" s="8" t="s">
         <v>12</v>
@@ -7693,26 +7677,26 @@
       <c r="A167" s="5">
         <v>166</v>
       </c>
-      <c r="B167" s="6" t="s">
-        <v>40</v>
+      <c r="B167" s="10" t="s">
+        <v>744</v>
       </c>
       <c r="C167" s="6" t="s">
+        <v>584</v>
+      </c>
+      <c r="D167" s="11">
+        <v>34.285093000000003</v>
+      </c>
+      <c r="E167" s="9">
+        <v>134.04800499999999</v>
+      </c>
+      <c r="F167" s="6" t="s">
         <v>585</v>
       </c>
-      <c r="D167" s="5">
-        <v>34.344237</v>
-      </c>
-      <c r="E167" s="5">
-        <v>134.069649</v>
-      </c>
-      <c r="F167" s="6" t="s">
+      <c r="G167" s="6" t="s">
         <v>586</v>
       </c>
-      <c r="G167" s="6" t="s">
-        <v>587</v>
-      </c>
       <c r="H167" s="7">
-        <v>44562</v>
+        <v>44566</v>
       </c>
       <c r="I167" s="8" t="s">
         <v>12</v>
@@ -7722,29 +7706,29 @@
       <c r="A168" s="5">
         <v>167</v>
       </c>
-      <c r="B168" s="10" t="s">
-        <v>749</v>
+      <c r="B168" s="6" t="s">
+        <v>587</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>588</v>
       </c>
       <c r="D168" s="11">
-        <v>34.285093000000003</v>
+        <v>34.241031</v>
       </c>
       <c r="E168" s="9">
-        <v>134.04800499999999</v>
-      </c>
-      <c r="F168" s="6" t="s">
-        <v>589</v>
+        <v>134.02841599999999</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>745</v>
       </c>
       <c r="G168" s="6" t="s">
-        <v>590</v>
+        <v>16</v>
       </c>
       <c r="H168" s="7">
-        <v>44566</v>
+        <v>44606</v>
       </c>
       <c r="I168" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -7752,28 +7736,28 @@
         <v>168</v>
       </c>
       <c r="B169" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="D169" s="5">
+        <v>34.300331</v>
+      </c>
+      <c r="E169" s="5">
+        <v>134.035314</v>
+      </c>
+      <c r="F169" s="6" t="s">
         <v>591</v>
       </c>
-      <c r="C169" s="6" t="s">
+      <c r="G169" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="D169" s="11">
-        <v>34.241031</v>
-      </c>
-      <c r="E169" s="9">
-        <v>134.02841599999999</v>
-      </c>
-      <c r="F169" s="10" t="s">
-        <v>750</v>
-      </c>
-      <c r="G169" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="H169" s="7">
-        <v>44606</v>
+        <v>44652</v>
       </c>
       <c r="I169" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -7787,10 +7771,10 @@
         <v>594</v>
       </c>
       <c r="D170" s="5">
-        <v>34.300331</v>
+        <v>34.329731000000002</v>
       </c>
       <c r="E170" s="5">
-        <v>134.035314</v>
+        <v>134.06224700000001</v>
       </c>
       <c r="F170" s="6" t="s">
         <v>595</v>
@@ -7799,7 +7783,7 @@
         <v>596</v>
       </c>
       <c r="H170" s="7">
-        <v>44652</v>
+        <v>44670</v>
       </c>
       <c r="I170" s="8" t="s">
         <v>12</v>
@@ -7816,10 +7800,10 @@
         <v>598</v>
       </c>
       <c r="D171" s="5">
-        <v>34.329731000000002</v>
+        <v>34.290933000000003</v>
       </c>
       <c r="E171" s="5">
-        <v>134.06224700000001</v>
+        <v>134.09554900000001</v>
       </c>
       <c r="F171" s="6" t="s">
         <v>599</v>
@@ -7828,7 +7812,7 @@
         <v>600</v>
       </c>
       <c r="H171" s="7">
-        <v>44670</v>
+        <v>44682</v>
       </c>
       <c r="I171" s="8" t="s">
         <v>12</v>
@@ -7845,10 +7829,10 @@
         <v>602</v>
       </c>
       <c r="D172" s="5">
-        <v>34.290933000000003</v>
+        <v>34.333956000000001</v>
       </c>
       <c r="E172" s="5">
-        <v>134.09554900000001</v>
+        <v>134.081931</v>
       </c>
       <c r="F172" s="6" t="s">
         <v>603</v>
@@ -7857,10 +7841,10 @@
         <v>604</v>
       </c>
       <c r="H172" s="7">
-        <v>44682</v>
+        <v>44739</v>
       </c>
       <c r="I172" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -7873,20 +7857,20 @@
       <c r="C173" s="6" t="s">
         <v>606</v>
       </c>
-      <c r="D173" s="5">
-        <v>34.333956000000001</v>
-      </c>
-      <c r="E173" s="5">
-        <v>134.081931</v>
-      </c>
-      <c r="F173" s="6" t="s">
-        <v>607</v>
+      <c r="D173" s="11">
+        <v>34.339699000000003</v>
+      </c>
+      <c r="E173" s="9">
+        <v>134.079081</v>
+      </c>
+      <c r="F173" s="10" t="s">
+        <v>746</v>
       </c>
       <c r="G173" s="6" t="s">
-        <v>608</v>
+        <v>16</v>
       </c>
       <c r="H173" s="7">
-        <v>44739</v>
+        <v>44805</v>
       </c>
       <c r="I173" s="8" t="s">
         <v>16</v>
@@ -7897,25 +7881,25 @@
         <v>173</v>
       </c>
       <c r="B174" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="D174" s="5">
+        <v>34.297007999999998</v>
+      </c>
+      <c r="E174" s="5">
+        <v>133.94552400000001</v>
+      </c>
+      <c r="F174" s="6" t="s">
         <v>609</v>
       </c>
-      <c r="C174" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="D174" s="11">
-        <v>34.339699000000003</v>
-      </c>
-      <c r="E174" s="9">
-        <v>134.079081</v>
-      </c>
-      <c r="F174" s="10" t="s">
-        <v>751</v>
-      </c>
       <c r="G174" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H174" s="7">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="I174" s="8" t="s">
         <v>16</v>
@@ -7926,25 +7910,25 @@
         <v>174</v>
       </c>
       <c r="B175" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="C175" s="6" t="s">
         <v>611</v>
       </c>
-      <c r="C175" s="6" t="s">
+      <c r="D175" s="5">
+        <v>34.284131000000002</v>
+      </c>
+      <c r="E175" s="5">
+        <v>134.089755</v>
+      </c>
+      <c r="F175" s="6" t="s">
         <v>612</v>
       </c>
-      <c r="D175" s="5">
-        <v>34.297007999999998</v>
-      </c>
-      <c r="E175" s="5">
-        <v>133.94552400000001</v>
-      </c>
-      <c r="F175" s="6" t="s">
-        <v>613</v>
-      </c>
       <c r="G175" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H175" s="7">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="I175" s="8" t="s">
         <v>16</v>
@@ -7955,28 +7939,28 @@
         <v>175</v>
       </c>
       <c r="B176" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="C176" s="6" t="s">
         <v>614</v>
       </c>
-      <c r="C176" s="6" t="s">
+      <c r="D176" s="5">
+        <v>34.324306999999997</v>
+      </c>
+      <c r="E176" s="5">
+        <v>134.06302400000001</v>
+      </c>
+      <c r="F176" s="6" t="s">
         <v>615</v>
       </c>
-      <c r="D176" s="5">
-        <v>34.284131000000002</v>
-      </c>
-      <c r="E176" s="5">
-        <v>134.089755</v>
-      </c>
-      <c r="F176" s="6" t="s">
+      <c r="G176" s="6" t="s">
         <v>616</v>
-      </c>
-      <c r="G176" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="H176" s="7">
         <v>44805</v>
       </c>
       <c r="I176" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -7990,19 +7974,19 @@
         <v>618</v>
       </c>
       <c r="D177" s="5">
-        <v>34.324306999999997</v>
+        <v>34.309077000000002</v>
       </c>
       <c r="E177" s="5">
-        <v>134.06302400000001</v>
+        <v>134.04403099999999</v>
       </c>
       <c r="F177" s="6" t="s">
         <v>619</v>
       </c>
       <c r="G177" s="6" t="s">
-        <v>620</v>
+        <v>16</v>
       </c>
       <c r="H177" s="7">
-        <v>44805</v>
+        <v>44900</v>
       </c>
       <c r="I177" s="8" t="s">
         <v>12</v>
@@ -8013,28 +7997,28 @@
         <v>177</v>
       </c>
       <c r="B178" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="C178" s="6" t="s">
         <v>621</v>
       </c>
-      <c r="C178" s="6" t="s">
+      <c r="D178" s="5">
+        <v>34.322403000000001</v>
+      </c>
+      <c r="E178" s="5">
+        <v>134.07405900000001</v>
+      </c>
+      <c r="F178" s="6" t="s">
         <v>622</v>
       </c>
-      <c r="D178" s="5">
-        <v>34.309077000000002</v>
-      </c>
-      <c r="E178" s="5">
-        <v>134.04403099999999</v>
-      </c>
-      <c r="F178" s="6" t="s">
+      <c r="G178" s="6" t="s">
         <v>623</v>
       </c>
-      <c r="G178" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="H178" s="7">
-        <v>44900</v>
+        <v>44932</v>
       </c>
       <c r="I178" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="179" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -8047,20 +8031,20 @@
       <c r="C179" s="6" t="s">
         <v>625</v>
       </c>
-      <c r="D179" s="5">
-        <v>34.322403000000001</v>
-      </c>
-      <c r="E179" s="5">
-        <v>134.07405900000001</v>
-      </c>
-      <c r="F179" s="6" t="s">
+      <c r="D179" s="11">
+        <v>34.346107000000003</v>
+      </c>
+      <c r="E179" s="9">
+        <v>134.03441599999999</v>
+      </c>
+      <c r="F179" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="G179" s="6" t="s">
         <v>626</v>
       </c>
-      <c r="G179" s="6" t="s">
-        <v>627</v>
-      </c>
       <c r="H179" s="7">
-        <v>44932</v>
+        <v>44287</v>
       </c>
       <c r="I179" s="8" t="s">
         <v>16</v>
@@ -8071,25 +8055,25 @@
         <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
+        <v>627</v>
+      </c>
+      <c r="C180" s="6" t="s">
         <v>628</v>
       </c>
-      <c r="C180" s="6" t="s">
-        <v>629</v>
-      </c>
       <c r="D180" s="11">
-        <v>34.346107000000003</v>
+        <v>34.292172999999998</v>
       </c>
       <c r="E180" s="9">
-        <v>134.03441599999999</v>
+        <v>134.11281099999999</v>
       </c>
       <c r="F180" s="10" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="G180" s="6" t="s">
-        <v>630</v>
+        <v>16</v>
       </c>
       <c r="H180" s="7">
-        <v>44287</v>
+        <v>44991</v>
       </c>
       <c r="I180" s="8" t="s">
         <v>16</v>
@@ -8100,25 +8084,25 @@
         <v>180</v>
       </c>
       <c r="B181" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="D181" s="11">
+        <v>34.324812999999999</v>
+      </c>
+      <c r="E181" s="9">
+        <v>134.07267300000001</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="G181" s="6" t="s">
         <v>631</v>
       </c>
-      <c r="C181" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="D181" s="11">
-        <v>34.292172999999998</v>
-      </c>
-      <c r="E181" s="9">
-        <v>134.11281099999999</v>
-      </c>
-      <c r="F181" s="10" t="s">
-        <v>753</v>
-      </c>
-      <c r="G181" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="H181" s="7">
-        <v>44991</v>
+        <v>45012</v>
       </c>
       <c r="I181" s="8" t="s">
         <v>16</v>
@@ -8129,25 +8113,25 @@
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="C182" s="6" t="s">
         <v>633</v>
       </c>
-      <c r="C182" s="6" t="s">
+      <c r="D182" s="5">
+        <v>34.338791999999998</v>
+      </c>
+      <c r="E182" s="5">
+        <v>134.04852399999999</v>
+      </c>
+      <c r="F182" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="D182" s="11">
-        <v>34.324812999999999</v>
-      </c>
-      <c r="E182" s="9">
-        <v>134.07267300000001</v>
-      </c>
-      <c r="F182" s="10" t="s">
-        <v>754</v>
-      </c>
       <c r="G182" s="6" t="s">
-        <v>635</v>
+        <v>16</v>
       </c>
       <c r="H182" s="7">
-        <v>45012</v>
+        <v>45056</v>
       </c>
       <c r="I182" s="8" t="s">
         <v>16</v>
@@ -8158,25 +8142,25 @@
         <v>182</v>
       </c>
       <c r="B183" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="C183" s="6" t="s">
         <v>636</v>
       </c>
-      <c r="C183" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="D183" s="5">
-        <v>34.338791999999998</v>
-      </c>
-      <c r="E183" s="5">
-        <v>134.04852399999999</v>
-      </c>
-      <c r="F183" s="6" t="s">
-        <v>638</v>
+      <c r="D183" s="11">
+        <v>34.324812999999999</v>
+      </c>
+      <c r="E183" s="9">
+        <v>134.07266200000001</v>
+      </c>
+      <c r="F183" s="10" t="s">
+        <v>750</v>
       </c>
       <c r="G183" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H183" s="7">
-        <v>45056</v>
+        <v>45170</v>
       </c>
       <c r="I183" s="8" t="s">
         <v>16</v>
@@ -8187,25 +8171,25 @@
         <v>183</v>
       </c>
       <c r="B184" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="D184" s="5">
+        <v>34.335762000000003</v>
+      </c>
+      <c r="E184" s="5">
+        <v>134.05406099999999</v>
+      </c>
+      <c r="F184" s="6" t="s">
         <v>639</v>
       </c>
-      <c r="C184" s="6" t="s">
+      <c r="G184" s="6" t="s">
         <v>640</v>
       </c>
-      <c r="D184" s="11">
-        <v>34.324812999999999</v>
-      </c>
-      <c r="E184" s="9">
-        <v>134.07266200000001</v>
-      </c>
-      <c r="F184" s="10" t="s">
-        <v>755</v>
-      </c>
-      <c r="G184" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="H184" s="7">
-        <v>45170</v>
+        <v>45209</v>
       </c>
       <c r="I184" s="8" t="s">
         <v>16</v>
@@ -8221,23 +8205,23 @@
       <c r="C185" s="6" t="s">
         <v>642</v>
       </c>
-      <c r="D185" s="5">
-        <v>34.335762000000003</v>
-      </c>
-      <c r="E185" s="5">
-        <v>134.05406099999999</v>
-      </c>
-      <c r="F185" s="6" t="s">
-        <v>643</v>
+      <c r="D185" s="11">
+        <v>34.347512000000002</v>
+      </c>
+      <c r="E185" s="9">
+        <v>134.089719</v>
+      </c>
+      <c r="F185" s="10" t="s">
+        <v>751</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>644</v>
+        <v>16</v>
       </c>
       <c r="H185" s="7">
-        <v>45209</v>
+        <v>45295</v>
       </c>
       <c r="I185" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -8245,28 +8229,28 @@
         <v>185</v>
       </c>
       <c r="B186" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="D186" s="5">
+        <v>34.315911</v>
+      </c>
+      <c r="E186" s="5">
+        <v>134.03908799999999</v>
+      </c>
+      <c r="F186" s="6" t="s">
         <v>645</v>
       </c>
-      <c r="C186" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="D186" s="11">
-        <v>34.347512000000002</v>
-      </c>
-      <c r="E186" s="9">
-        <v>134.089719</v>
-      </c>
-      <c r="F186" s="10" t="s">
-        <v>756</v>
-      </c>
       <c r="G186" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H186" s="7">
-        <v>45295</v>
+        <v>45352</v>
       </c>
       <c r="I186" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -8274,25 +8258,25 @@
         <v>186</v>
       </c>
       <c r="B187" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C187" s="6" t="s">
         <v>647</v>
       </c>
-      <c r="C187" s="6" t="s">
+      <c r="D187" s="11">
+        <v>34.347566</v>
+      </c>
+      <c r="E187" s="9">
+        <v>134.089676</v>
+      </c>
+      <c r="F187" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="G187" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="D187" s="5">
-        <v>34.315911</v>
-      </c>
-      <c r="E187" s="5">
-        <v>134.03908799999999</v>
-      </c>
-      <c r="F187" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="G187" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="H187" s="7">
-        <v>45352</v>
+        <v>45348</v>
       </c>
       <c r="I187" s="8" t="s">
         <v>16</v>
@@ -8303,25 +8287,25 @@
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="C188" s="6" t="s">
         <v>650</v>
       </c>
-      <c r="C188" s="6" t="s">
+      <c r="D188" s="5">
+        <v>34.341878000000001</v>
+      </c>
+      <c r="E188" s="5">
+        <v>134.09666899999999</v>
+      </c>
+      <c r="F188" s="6" t="s">
         <v>651</v>
-      </c>
-      <c r="D188" s="11">
-        <v>34.347566</v>
-      </c>
-      <c r="E188" s="9">
-        <v>134.089676</v>
-      </c>
-      <c r="F188" s="10" t="s">
-        <v>757</v>
       </c>
       <c r="G188" s="6" t="s">
         <v>652</v>
       </c>
       <c r="H188" s="7">
-        <v>45348</v>
+        <v>45388</v>
       </c>
       <c r="I188" s="8" t="s">
         <v>16</v>
@@ -8338,10 +8322,10 @@
         <v>654</v>
       </c>
       <c r="D189" s="5">
-        <v>34.341878000000001</v>
+        <v>34.333134000000001</v>
       </c>
       <c r="E189" s="5">
-        <v>134.09666899999999</v>
+        <v>134.06802099999999</v>
       </c>
       <c r="F189" s="6" t="s">
         <v>655</v>
@@ -8350,7 +8334,7 @@
         <v>656</v>
       </c>
       <c r="H189" s="7">
-        <v>45388</v>
+        <v>45427</v>
       </c>
       <c r="I189" s="8" t="s">
         <v>16</v>
@@ -8367,22 +8351,22 @@
         <v>658</v>
       </c>
       <c r="D190" s="5">
-        <v>34.333134000000001</v>
+        <v>34.338999000000001</v>
       </c>
       <c r="E190" s="5">
-        <v>134.06802099999999</v>
+        <v>134.013867</v>
       </c>
       <c r="F190" s="6" t="s">
         <v>659</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>660</v>
+        <v>16</v>
       </c>
       <c r="H190" s="7">
         <v>45427</v>
       </c>
       <c r="I190" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -8390,25 +8374,25 @@
         <v>190</v>
       </c>
       <c r="B191" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="C191" s="6" t="s">
         <v>661</v>
       </c>
-      <c r="C191" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="D191" s="5">
-        <v>34.338999000000001</v>
-      </c>
-      <c r="E191" s="5">
-        <v>134.013867</v>
-      </c>
-      <c r="F191" s="6" t="s">
-        <v>663</v>
+      <c r="D191" s="11">
+        <v>34.347504000000001</v>
+      </c>
+      <c r="E191" s="9">
+        <v>134.08972900000001</v>
+      </c>
+      <c r="F191" s="10" t="s">
+        <v>753</v>
       </c>
       <c r="G191" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H191" s="7">
-        <v>45427</v>
+        <v>45439</v>
       </c>
       <c r="I191" s="8" t="s">
         <v>12</v>
@@ -8419,25 +8403,25 @@
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="D192" s="5">
+        <v>34.344265999999998</v>
+      </c>
+      <c r="E192" s="5">
+        <v>134.03674100000001</v>
+      </c>
+      <c r="F192" s="6" t="s">
         <v>664</v>
       </c>
-      <c r="C192" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="D192" s="11">
-        <v>34.347504000000001</v>
-      </c>
-      <c r="E192" s="9">
-        <v>134.08972900000001</v>
-      </c>
-      <c r="F192" s="10" t="s">
-        <v>758</v>
-      </c>
       <c r="G192" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H192" s="7">
-        <v>45439</v>
+        <v>45442</v>
       </c>
       <c r="I192" s="8" t="s">
         <v>12</v>
@@ -8448,28 +8432,28 @@
         <v>192</v>
       </c>
       <c r="B193" s="6" t="s">
+        <v>665</v>
+      </c>
+      <c r="C193" s="6" t="s">
         <v>666</v>
       </c>
-      <c r="C193" s="6" t="s">
+      <c r="D193" s="5">
+        <v>34.343791000000003</v>
+      </c>
+      <c r="E193" s="5">
+        <v>134.06783799999999</v>
+      </c>
+      <c r="F193" s="6" t="s">
         <v>667</v>
       </c>
-      <c r="D193" s="5">
-        <v>34.344265999999998</v>
-      </c>
-      <c r="E193" s="5">
-        <v>134.03674100000001</v>
-      </c>
-      <c r="F193" s="6" t="s">
-        <v>668</v>
-      </c>
       <c r="G193" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H193" s="7">
-        <v>45442</v>
+        <v>45474</v>
       </c>
       <c r="I193" s="8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="194" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -8477,25 +8461,25 @@
         <v>193</v>
       </c>
       <c r="B194" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="C194" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="D194" s="5">
+        <v>34.338890999999997</v>
+      </c>
+      <c r="E194" s="5">
+        <v>134.05840599999999</v>
+      </c>
+      <c r="F194" s="6" t="s">
         <v>669</v>
       </c>
-      <c r="C194" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="D194" s="5">
-        <v>34.343791000000003</v>
-      </c>
-      <c r="E194" s="5">
-        <v>134.06783799999999</v>
-      </c>
-      <c r="F194" s="6" t="s">
-        <v>671</v>
-      </c>
       <c r="G194" s="6" t="s">
         <v>16</v>
       </c>
       <c r="H194" s="7">
-        <v>45474</v>
+        <v>45460</v>
       </c>
       <c r="I194" s="8" t="s">
         <v>16</v>
@@ -8506,28 +8490,28 @@
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="C195" s="6" t="s">
+        <v>671</v>
+      </c>
+      <c r="D195" s="5">
+        <v>34.287421000000002</v>
+      </c>
+      <c r="E195" s="5">
+        <v>134.03875099999999</v>
+      </c>
+      <c r="F195" s="6" t="s">
         <v>672</v>
       </c>
-      <c r="C195" s="6" t="s">
-        <v>632</v>
-      </c>
-      <c r="D195" s="5">
-        <v>34.338890999999997</v>
-      </c>
-      <c r="E195" s="5">
-        <v>134.05840599999999</v>
-      </c>
-      <c r="F195" s="6" t="s">
+      <c r="G195" s="6" t="s">
         <v>673</v>
       </c>
-      <c r="G195" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="H195" s="7">
-        <v>45460</v>
+        <v>45475</v>
       </c>
       <c r="I195" s="8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
@@ -8540,20 +8524,20 @@
       <c r="C196" s="6" t="s">
         <v>675</v>
       </c>
-      <c r="D196" s="5">
-        <v>34.287421000000002</v>
-      </c>
-      <c r="E196" s="5">
-        <v>134.03875099999999</v>
-      </c>
-      <c r="F196" s="6" t="s">
+      <c r="D196" s="11">
+        <v>34.347548000000003</v>
+      </c>
+      <c r="E196" s="9">
+        <v>134.089665</v>
+      </c>
+      <c r="F196" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="G196" s="6" t="s">
         <v>676</v>
       </c>
-      <c r="G196" s="6" t="s">
-        <v>677</v>
-      </c>
       <c r="H196" s="7">
-        <v>45475</v>
+        <v>45502</v>
       </c>
       <c r="I196" s="8" t="s">
         <v>12</v>
@@ -8564,22 +8548,22 @@
         <v>196</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="D197" s="11">
-        <v>34.347548000000003</v>
+        <v>34.347566</v>
       </c>
       <c r="E197" s="9">
-        <v>134.089665</v>
+        <v>134.089708</v>
       </c>
       <c r="F197" s="10" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="H197" s="7">
         <v>45502</v>
@@ -8588,37 +8572,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A198" s="5">
-        <v>197</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>681</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="D198" s="11">
-        <v>34.347566</v>
-      </c>
-      <c r="E198" s="9">
-        <v>134.089708</v>
-      </c>
-      <c r="F198" s="10" t="s">
-        <v>760</v>
-      </c>
-      <c r="G198" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="H198" s="7">
-        <v>45502</v>
-      </c>
-      <c r="I198" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:I198" xr:uid="{E86227F4-E57E-4F0E-A935-CE1B2141DCD2}"/>
+  <autoFilter ref="A1:I197"/>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/data/judo_therapy/data.xlsx
+++ b/data/judo_therapy/data.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$198</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -181,9 +181,6 @@
     <t>砂川接骨院</t>
   </si>
   <si>
-    <t>砂川　考洋</t>
-  </si>
-  <si>
     <t>香川県高松市木太町２３４３番地</t>
   </si>
   <si>
@@ -742,18 +739,9 @@
     <t>087-867-5311</t>
   </si>
   <si>
-    <t>みき鍼灸接骨院</t>
-  </si>
-  <si>
     <t>三木　和行　</t>
   </si>
   <si>
-    <t>香川県高松市庵治町１０７０番地８</t>
-  </si>
-  <si>
-    <t>087-871-4882</t>
-  </si>
-  <si>
     <t>久保鍼灸接骨院</t>
   </si>
   <si>
@@ -1789,21 +1777,12 @@
     <t>087-880-1424</t>
   </si>
   <si>
-    <t>かわひがし整骨院</t>
-  </si>
-  <si>
     <t>長尾　大輝</t>
   </si>
   <si>
-    <t>大谷鍼灸整骨院</t>
-  </si>
-  <si>
     <t>大谷　智也</t>
   </si>
   <si>
-    <t>香川県高松市鹿角町３４７番地１</t>
-  </si>
-  <si>
     <t>087-899-6868</t>
   </si>
   <si>
@@ -2320,10 +2299,6 @@
   </si>
   <si>
     <t>アイリス接骨院　高松院</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>香川県高松市香川町川東下５０５番地１　キョーエイ西側駐車場</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -2470,13 +2445,79 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>かわひがし接骨院</t>
+    <rPh sb="5" eb="6">
+      <t>セツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>香川県高松市香川町川東下５０５番地１　キョーエイ空港店内</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>砂川接骨院株式会社</t>
+    <rPh sb="0" eb="2">
+      <t>スナガワ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セッコツイン</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>カブシキガイシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>みき接骨院</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>香川県高松市屋島西町字百石１９０７-１</t>
+    <rPh sb="6" eb="8">
+      <t>ヤシマ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ニシ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>マチ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>アザ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒャッコク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>087-802-7887</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大谷接骨院</t>
+    <rPh sb="2" eb="3">
+      <t>セツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>香川県高松市勅使町２９２－1</t>
+    <rPh sb="6" eb="9">
+      <t>チョクシチョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="#,##0.000000;[Red]\-#,##0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -2558,7 +2599,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2598,16 +2639,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="標準_Sheet1" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFD9D9D9"/>
+          <fgColor rgb="FFFFFF00"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -2616,6 +2675,22 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -2957,7 +3032,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B195" sqref="B195"/>
+      <selection pane="bottomLeft" activeCell="B192" sqref="B192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="29.19921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2975,7 +3050,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="19.95" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3007,10 +3082,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="D2" s="4">
         <v>34.322933999999997</v>
@@ -3019,7 +3094,7 @@
         <v>134.04767100000001</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="7">
@@ -3034,10 +3109,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
       <c r="D3" s="9">
         <v>34.322232999999997</v>
@@ -3046,7 +3121,7 @@
         <v>134.09585100000001</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="7">
@@ -3059,10 +3134,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D4" s="4">
         <v>34.333101999999997</v>
@@ -3071,7 +3146,7 @@
         <v>134.05328700000001</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="7">
@@ -3086,10 +3161,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
       <c r="D5" s="10">
         <v>34.324812999999999</v>
@@ -3098,7 +3173,7 @@
         <v>134.07266200000001</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>16</v>
@@ -3159,7 +3234,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="H7" s="7">
         <v>30333</v>
@@ -3217,7 +3292,7 @@
         <v>23</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="H9" s="7">
         <v>32527</v>
@@ -3246,7 +3321,7 @@
         <v>26</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="H10" s="7">
         <v>31352</v>
@@ -3275,7 +3350,7 @@
         <v>29</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>677</v>
+        <v>670</v>
       </c>
       <c r="H11" s="7">
         <v>33394</v>
@@ -3304,7 +3379,7 @@
         <v>32</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>679</v>
+        <v>672</v>
       </c>
       <c r="H12" s="7">
         <v>29342</v>
@@ -3333,7 +3408,7 @@
         <v>35</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>678</v>
+        <v>671</v>
       </c>
       <c r="H13" s="7">
         <v>29647</v>
@@ -3391,7 +3466,7 @@
         <v>42</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>680</v>
+        <v>673</v>
       </c>
       <c r="H15" s="7">
         <v>34186</v>
@@ -3420,7 +3495,7 @@
         <v>45</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="H16" s="7">
         <v>32907</v>
@@ -3436,8 +3511,8 @@
       <c r="B17" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>47</v>
+      <c r="C17" s="6" t="s">
+        <v>752</v>
       </c>
       <c r="D17" s="4">
         <v>34.335113</v>
@@ -3446,13 +3521,13 @@
         <v>134.07334599999999</v>
       </c>
       <c r="F17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>49</v>
-      </c>
       <c r="H17" s="7">
-        <v>32300</v>
+        <v>45402</v>
       </c>
       <c r="I17" s="8" t="s">
         <v>12</v>
@@ -3463,10 +3538,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="D18" s="10">
         <v>34.341870999999998</v>
@@ -3475,10 +3550,10 @@
         <v>134.03185099999999</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>704</v>
+        <v>697</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H18" s="7">
         <v>33547</v>
@@ -3492,10 +3567,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="D19" s="10">
         <v>34.340252</v>
@@ -3504,10 +3579,10 @@
         <v>134.05004099999999</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="H19" s="7">
         <v>25628</v>
@@ -3521,10 +3596,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>55</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="D20" s="4">
         <v>34.301983</v>
@@ -3533,10 +3608,10 @@
         <v>134.07158699999999</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
       <c r="H20" s="7">
         <v>28216</v>
@@ -3550,10 +3625,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="D21" s="4">
         <v>34.307571000000003</v>
@@ -3562,10 +3637,10 @@
         <v>134.04816099999999</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="H21" s="7">
         <v>32512</v>
@@ -3579,10 +3654,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>62</v>
       </c>
       <c r="D22" s="4">
         <v>34.316357000000004</v>
@@ -3591,10 +3666,10 @@
         <v>134.02864700000001</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>685</v>
+        <v>678</v>
       </c>
       <c r="H22" s="7">
         <v>30529</v>
@@ -3608,10 +3683,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="D23" s="4">
         <v>34.340372000000002</v>
@@ -3620,10 +3695,10 @@
         <v>134.11425800000001</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>686</v>
+        <v>679</v>
       </c>
       <c r="H23" s="7">
         <v>29717</v>
@@ -3637,10 +3712,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="D24" s="4">
         <v>34.326676999999997</v>
@@ -3649,10 +3724,10 @@
         <v>134.06231600000001</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>687</v>
+        <v>680</v>
       </c>
       <c r="H24" s="7">
         <v>31617</v>
@@ -3666,10 +3741,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>71</v>
       </c>
       <c r="D25" s="4">
         <v>34.288414000000003</v>
@@ -3678,10 +3753,10 @@
         <v>134.024146</v>
       </c>
       <c r="F25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="H25" s="7">
         <v>31997</v>
@@ -3695,10 +3770,10 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>75</v>
       </c>
       <c r="D26" s="4">
         <v>34.299140999999999</v>
@@ -3707,10 +3782,10 @@
         <v>134.05196900000001</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>77</v>
       </c>
       <c r="H26" s="7">
         <v>25583</v>
@@ -3724,10 +3799,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="D27" s="4">
         <v>34.289344</v>
@@ -3736,10 +3811,10 @@
         <v>134.092647</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>688</v>
+        <v>681</v>
       </c>
       <c r="H27" s="7">
         <v>33575</v>
@@ -3753,10 +3828,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="D28" s="4">
         <v>34.342678999999997</v>
@@ -3765,10 +3840,10 @@
         <v>134.100728</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>689</v>
+        <v>682</v>
       </c>
       <c r="H28" s="7">
         <v>30015</v>
@@ -3782,10 +3857,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="D29" s="4">
         <v>34.342661</v>
@@ -3794,10 +3869,10 @@
         <v>134.096205</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="H29" s="7">
         <v>31040</v>
@@ -3811,10 +3886,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="D30" s="4">
         <v>34.313543000000003</v>
@@ -3823,10 +3898,10 @@
         <v>134.026186</v>
       </c>
       <c r="F30" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>89</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="H30" s="7">
         <v>30225</v>
@@ -3840,10 +3915,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C31" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="D31" s="4">
         <v>34.277093999999998</v>
@@ -3852,10 +3927,10 @@
         <v>134.03984399999999</v>
       </c>
       <c r="F31" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="H31" s="7">
         <v>35055</v>
@@ -3869,10 +3944,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="5" t="s">
         <v>95</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>96</v>
       </c>
       <c r="D32" s="4">
         <v>34.342633999999997</v>
@@ -3881,10 +3956,10 @@
         <v>134.11730700000001</v>
       </c>
       <c r="F32" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="H32" s="7">
         <v>35186</v>
@@ -3898,10 +3973,10 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>100</v>
       </c>
       <c r="D33" s="4">
         <v>34.341287000000001</v>
@@ -3910,10 +3985,10 @@
         <v>134.118054</v>
       </c>
       <c r="F33" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>101</v>
-      </c>
-      <c r="G33" s="5" t="s">
-        <v>102</v>
       </c>
       <c r="H33" s="7">
         <v>35263</v>
@@ -3927,10 +4002,10 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="D34" s="4">
         <v>34.319352000000002</v>
@@ -3939,10 +4014,10 @@
         <v>134.054824</v>
       </c>
       <c r="F34" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="G34" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="H34" s="7">
         <v>35525</v>
@@ -3956,10 +4031,10 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="D35" s="4">
         <v>34.297317</v>
@@ -3968,10 +4043,10 @@
         <v>134.03551100000001</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>691</v>
+        <v>684</v>
       </c>
       <c r="H35" s="7">
         <v>36057</v>
@@ -3985,10 +4060,10 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>111</v>
       </c>
       <c r="D36" s="4">
         <v>34.321541000000003</v>
@@ -3997,10 +4072,10 @@
         <v>134.06281799999999</v>
       </c>
       <c r="F36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="G36" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="H36" s="7">
         <v>36194</v>
@@ -4014,10 +4089,10 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>115</v>
       </c>
       <c r="D37" s="4">
         <v>34.322454</v>
@@ -4026,10 +4101,10 @@
         <v>134.044781</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>692</v>
+        <v>685</v>
       </c>
       <c r="H37" s="7">
         <v>36242</v>
@@ -4043,10 +4118,10 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="5" t="s">
         <v>117</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>118</v>
       </c>
       <c r="D38" s="4">
         <v>34.324649000000001</v>
@@ -4055,10 +4130,10 @@
         <v>134.07858100000001</v>
       </c>
       <c r="F38" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>119</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>120</v>
       </c>
       <c r="H38" s="7">
         <v>36434</v>
@@ -4072,10 +4147,10 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C39" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="D39" s="4">
         <v>34.301738999999998</v>
@@ -4084,10 +4159,10 @@
         <v>134.08894900000001</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>693</v>
+        <v>686</v>
       </c>
       <c r="H39" s="7">
         <v>36742</v>
@@ -4101,10 +4176,10 @@
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="5" t="s">
         <v>124</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>125</v>
       </c>
       <c r="D40" s="4">
         <v>34.322983999999998</v>
@@ -4113,10 +4188,10 @@
         <v>134.081748</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>694</v>
+        <v>687</v>
       </c>
       <c r="H40" s="7">
         <v>37073</v>
@@ -4130,10 +4205,10 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="D41" s="4">
         <v>34.281697999999999</v>
@@ -4142,10 +4217,10 @@
         <v>134.11666600000001</v>
       </c>
       <c r="F41" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="H41" s="7">
         <v>37557</v>
@@ -4159,10 +4234,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="D42" s="4">
         <v>34.337442000000003</v>
@@ -4171,10 +4246,10 @@
         <v>134.10886400000001</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>695</v>
+        <v>688</v>
       </c>
       <c r="H42" s="7">
         <v>37561</v>
@@ -4188,10 +4263,10 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>134</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>135</v>
       </c>
       <c r="D43" s="4">
         <v>34.341566</v>
@@ -4200,10 +4275,10 @@
         <v>134.066811</v>
       </c>
       <c r="F43" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>136</v>
-      </c>
-      <c r="G43" s="5" t="s">
-        <v>137</v>
       </c>
       <c r="H43" s="7">
         <v>37835</v>
@@ -4217,10 +4292,10 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="D44" s="4">
         <v>34.322457</v>
@@ -4229,10 +4304,10 @@
         <v>134.07410200000001</v>
       </c>
       <c r="F44" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>140</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>141</v>
       </c>
       <c r="H44" s="7">
         <v>38082</v>
@@ -4246,10 +4321,10 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="5" t="s">
         <v>142</v>
-      </c>
-      <c r="C45" s="5" t="s">
-        <v>143</v>
       </c>
       <c r="D45" s="4">
         <v>34.317838000000002</v>
@@ -4258,10 +4333,10 @@
         <v>134.05705599999999</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>696</v>
+        <v>689</v>
       </c>
       <c r="H45" s="7">
         <v>38070</v>
@@ -4275,10 +4350,10 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="D46" s="10">
         <v>34.270817999999998</v>
@@ -4287,10 +4362,10 @@
         <v>134.10490200000001</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H46" s="7">
         <v>38108</v>
@@ -4304,10 +4379,10 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="5" t="s">
         <v>148</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>149</v>
       </c>
       <c r="D47" s="4">
         <v>34.337761999999998</v>
@@ -4316,10 +4391,10 @@
         <v>134.04435699999999</v>
       </c>
       <c r="F47" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="H47" s="7">
         <v>38322</v>
@@ -4333,10 +4408,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="5" t="s">
         <v>152</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="D48" s="4">
         <v>34.283332999999999</v>
@@ -4345,10 +4420,10 @@
         <v>134.01154099999999</v>
       </c>
       <c r="F48" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>155</v>
       </c>
       <c r="H48" s="7">
         <v>38482</v>
@@ -4362,10 +4437,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="5" t="s">
         <v>156</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>157</v>
       </c>
       <c r="D49" s="4">
         <v>34.353082999999998</v>
@@ -4374,10 +4449,10 @@
         <v>133.992369</v>
       </c>
       <c r="F49" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="G49" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="H49" s="7">
         <v>38537</v>
@@ -4391,10 +4466,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="C50" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="D50" s="4">
         <v>34.343364000000001</v>
@@ -4403,10 +4478,10 @@
         <v>134.00131099999999</v>
       </c>
       <c r="F50" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>162</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>163</v>
       </c>
       <c r="H50" s="7">
         <v>38443</v>
@@ -4420,10 +4495,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C51" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="C51" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="D51" s="4">
         <v>34.293765</v>
@@ -4432,10 +4507,10 @@
         <v>133.964755</v>
       </c>
       <c r="F51" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="G51" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="H51" s="7">
         <v>33567</v>
@@ -4449,10 +4524,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C52" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>169</v>
       </c>
       <c r="D52" s="10">
         <v>34.340235</v>
@@ -4461,10 +4536,10 @@
         <v>134.050062</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="G52" s="6" t="s">
-        <v>697</v>
+        <v>690</v>
       </c>
       <c r="H52" s="7">
         <v>38749</v>
@@ -4478,10 +4553,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C53" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="D53" s="4">
         <v>34.240267000000003</v>
@@ -4490,10 +4565,10 @@
         <v>134.01641499999999</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G53" s="6" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="H53" s="7">
         <v>36434</v>
@@ -4507,10 +4582,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C54" s="5" t="s">
         <v>173</v>
-      </c>
-      <c r="C54" s="5" t="s">
-        <v>174</v>
       </c>
       <c r="D54" s="11">
         <v>34.240000999999999</v>
@@ -4519,10 +4594,10 @@
         <v>134.03625400000001</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>699</v>
+        <v>692</v>
       </c>
       <c r="H54" s="7">
         <v>33026</v>
@@ -4536,10 +4611,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C55" s="5" t="s">
         <v>175</v>
-      </c>
-      <c r="C55" s="5" t="s">
-        <v>176</v>
       </c>
       <c r="D55" s="10">
         <v>34.269914999999997</v>
@@ -4548,10 +4623,10 @@
         <v>134.03007099999999</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="G55" s="6" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="H55" s="7">
         <v>33549</v>
@@ -4565,10 +4640,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C56" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="C56" s="5" t="s">
-        <v>178</v>
       </c>
       <c r="D56" s="4">
         <v>34.271703000000002</v>
@@ -4577,10 +4652,10 @@
         <v>134.02163300000001</v>
       </c>
       <c r="F56" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="G56" s="5" t="s">
-        <v>180</v>
       </c>
       <c r="H56" s="7">
         <v>31931</v>
@@ -4594,10 +4669,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>181</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>182</v>
       </c>
       <c r="D57" s="4">
         <v>34.344211000000001</v>
@@ -4606,10 +4681,10 @@
         <v>134.13830799999999</v>
       </c>
       <c r="F57" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="H57" s="7">
         <v>37347</v>
@@ -4623,10 +4698,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" s="5" t="s">
         <v>185</v>
-      </c>
-      <c r="C58" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="D58" s="4">
         <v>34.285927000000001</v>
@@ -4635,10 +4710,10 @@
         <v>134.03867299999999</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="H58" s="7">
         <v>38808</v>
@@ -4652,10 +4727,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C59" s="5" t="s">
         <v>188</v>
-      </c>
-      <c r="C59" s="5" t="s">
-        <v>189</v>
       </c>
       <c r="D59" s="4">
         <v>34.335113</v>
@@ -4664,10 +4739,10 @@
         <v>134.01111599999999</v>
       </c>
       <c r="F59" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>190</v>
-      </c>
-      <c r="G59" s="5" t="s">
-        <v>191</v>
       </c>
       <c r="H59" s="7">
         <v>38870</v>
@@ -4681,10 +4756,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C60" s="5" t="s">
         <v>192</v>
-      </c>
-      <c r="C60" s="5" t="s">
-        <v>193</v>
       </c>
       <c r="D60" s="4">
         <v>34.296703000000001</v>
@@ -4693,10 +4768,10 @@
         <v>134.089044</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G60" s="6" t="s">
-        <v>702</v>
+        <v>695</v>
       </c>
       <c r="H60" s="7">
         <v>38930</v>
@@ -4710,10 +4785,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C61" s="5" t="s">
         <v>195</v>
-      </c>
-      <c r="C61" s="5" t="s">
-        <v>196</v>
       </c>
       <c r="D61" s="4">
         <v>34.271738999999997</v>
@@ -4722,10 +4797,10 @@
         <v>134.02161100000001</v>
       </c>
       <c r="F61" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="G61" s="5" t="s">
-        <v>198</v>
       </c>
       <c r="H61" s="7">
         <v>39300</v>
@@ -4739,10 +4814,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" s="5" t="s">
         <v>199</v>
-      </c>
-      <c r="C62" s="5" t="s">
-        <v>200</v>
       </c>
       <c r="D62" s="4">
         <v>34.305335999999997</v>
@@ -4751,10 +4826,10 @@
         <v>134.09291899999999</v>
       </c>
       <c r="F62" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="G62" s="5" t="s">
-        <v>202</v>
       </c>
       <c r="H62" s="7">
         <v>39329</v>
@@ -4768,10 +4843,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" s="5" t="s">
         <v>203</v>
-      </c>
-      <c r="C63" s="5" t="s">
-        <v>204</v>
       </c>
       <c r="D63" s="4">
         <v>34.355296000000003</v>
@@ -4780,10 +4855,10 @@
         <v>134.09205600000001</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>703</v>
+        <v>696</v>
       </c>
       <c r="H63" s="7">
         <v>39454</v>
@@ -4797,10 +4872,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C64" s="5" t="s">
         <v>206</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>207</v>
       </c>
       <c r="D64" s="4">
         <v>34.332870999999997</v>
@@ -4809,10 +4884,10 @@
         <v>134.053585</v>
       </c>
       <c r="F64" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>208</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>209</v>
       </c>
       <c r="H64" s="7">
         <v>39448</v>
@@ -4826,10 +4901,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" s="5" t="s">
         <v>210</v>
-      </c>
-      <c r="C65" s="5" t="s">
-        <v>211</v>
       </c>
       <c r="D65" s="4">
         <v>34.344977</v>
@@ -4838,10 +4913,10 @@
         <v>134.03169199999999</v>
       </c>
       <c r="F65" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>212</v>
-      </c>
-      <c r="G65" s="5" t="s">
-        <v>213</v>
       </c>
       <c r="H65" s="7">
         <v>35934</v>
@@ -4855,10 +4930,10 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C66" s="5" t="s">
         <v>214</v>
-      </c>
-      <c r="C66" s="5" t="s">
-        <v>215</v>
       </c>
       <c r="D66" s="4">
         <v>34.302017999999997</v>
@@ -4867,10 +4942,10 @@
         <v>134.069383996243</v>
       </c>
       <c r="F66" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>216</v>
-      </c>
-      <c r="G66" s="5" t="s">
-        <v>217</v>
       </c>
       <c r="H66" s="7">
         <v>39632</v>
@@ -4884,10 +4959,10 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C67" s="5" t="s">
         <v>218</v>
-      </c>
-      <c r="C67" s="5" t="s">
-        <v>219</v>
       </c>
       <c r="D67" s="4">
         <v>34.329003999999998</v>
@@ -4896,10 +4971,10 @@
         <v>134.04933299999999</v>
       </c>
       <c r="F67" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>220</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>221</v>
       </c>
       <c r="H67" s="7">
         <v>39722</v>
@@ -4913,10 +4988,10 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="C68" s="5" t="s">
         <v>222</v>
-      </c>
-      <c r="C68" s="5" t="s">
-        <v>223</v>
       </c>
       <c r="D68" s="4">
         <v>34.342177</v>
@@ -4925,10 +5000,10 @@
         <v>134.10279399999999</v>
       </c>
       <c r="F68" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="G68" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="G68" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="H68" s="7">
         <v>39741</v>
@@ -4942,10 +5017,10 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>226</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>227</v>
       </c>
       <c r="D69" s="4">
         <v>34.337577000000003</v>
@@ -4954,10 +5029,10 @@
         <v>134.062974</v>
       </c>
       <c r="F69" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="G69" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="H69" s="7">
         <v>39772</v>
@@ -4971,10 +5046,10 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C70" s="5" t="s">
         <v>230</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>231</v>
       </c>
       <c r="D70" s="4">
         <v>34.304645999999998</v>
@@ -4983,10 +5058,10 @@
         <v>134.03964500000001</v>
       </c>
       <c r="F70" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G70" s="5" t="s">
         <v>232</v>
-      </c>
-      <c r="G70" s="5" t="s">
-        <v>233</v>
       </c>
       <c r="H70" s="7">
         <v>39849</v>
@@ -5000,25 +5075,25 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>234</v>
+        <v>753</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D71" s="4">
-        <v>34.387632000000004</v>
-      </c>
-      <c r="E71" s="4">
-        <v>134.13385199999999</v>
-      </c>
-      <c r="F71" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="G71" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
+      </c>
+      <c r="D71" s="13">
+        <v>34.339429000000003</v>
+      </c>
+      <c r="E71" s="14">
+        <v>134.10122799999999</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>754</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>755</v>
       </c>
       <c r="H71" s="7">
-        <v>39958</v>
+        <v>45717</v>
       </c>
       <c r="I71" s="8" t="s">
         <v>12</v>
@@ -5029,10 +5104,10 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D72" s="4">
         <v>34.340418</v>
@@ -5041,10 +5116,10 @@
         <v>134.01149899999999</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H72" s="7">
         <v>40004</v>
@@ -5058,10 +5133,10 @@
         <v>72</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D73" s="4">
         <v>34.316346000000003</v>
@@ -5070,10 +5145,10 @@
         <v>133.96922799999999</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H73" s="7">
         <v>40216</v>
@@ -5087,10 +5162,10 @@
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D74" s="4">
         <v>34.324098999999997</v>
@@ -5099,10 +5174,10 @@
         <v>134.104794</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H74" s="7">
         <v>40280</v>
@@ -5116,10 +5191,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D75" s="4">
         <v>34.311684999999997</v>
@@ -5128,10 +5203,10 @@
         <v>134.057176</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H75" s="7">
         <v>40299</v>
@@ -5145,10 +5220,10 @@
         <v>75</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D76" s="4">
         <v>34.312365</v>
@@ -5157,10 +5232,10 @@
         <v>134.083392</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H76" s="7">
         <v>40360</v>
@@ -5174,10 +5249,10 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="D77" s="4">
         <v>34.347489000000003</v>
@@ -5186,10 +5261,10 @@
         <v>134.027986</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="H77" s="7">
         <v>40465</v>
@@ -5203,10 +5278,10 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="D78" s="4">
         <v>34.301977000000001</v>
@@ -5215,10 +5290,10 @@
         <v>133.951987</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="H78" s="7">
         <v>40638</v>
@@ -5232,10 +5307,10 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D79" s="4">
         <v>34.255747999999997</v>
@@ -5244,10 +5319,10 @@
         <v>134.033804</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H79" s="7">
         <v>40639</v>
@@ -5261,10 +5336,10 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D80" s="4">
         <v>34.333646000000002</v>
@@ -5273,10 +5348,10 @@
         <v>134.07745299999999</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="H80" s="7">
         <v>40664</v>
@@ -5290,10 +5365,10 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D81" s="4">
         <v>34.337274999999998</v>
@@ -5302,10 +5377,10 @@
         <v>134.05874700000001</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H81" s="7">
         <v>40634</v>
@@ -5319,10 +5394,10 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="D82" s="4">
         <v>34.299286000000002</v>
@@ -5331,10 +5406,10 @@
         <v>134.072574</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H82" s="7">
         <v>40777</v>
@@ -5348,10 +5423,10 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="D83" s="10">
         <v>34.333768999999997</v>
@@ -5360,10 +5435,10 @@
         <v>134.04995500000001</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="H83" s="7">
         <v>40742</v>
@@ -5377,10 +5452,10 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="D84" s="4">
         <v>34.323653</v>
@@ -5389,10 +5464,10 @@
         <v>134.072329</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="H84" s="7">
         <v>40749</v>
@@ -5406,10 +5481,10 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D85" s="4">
         <v>34.348129</v>
@@ -5418,10 +5493,10 @@
         <v>134.04271399999999</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="H85" s="7">
         <v>40848</v>
@@ -5435,10 +5510,10 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D86" s="4">
         <v>34.244188000000001</v>
@@ -5447,10 +5522,10 @@
         <v>134.08440300000001</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="H86" s="7">
         <v>40898</v>
@@ -5464,10 +5539,10 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D87" s="10">
         <v>34.334972999999998</v>
@@ -5476,10 +5551,10 @@
         <v>134.07120900000001</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H87" s="7">
         <v>40982</v>
@@ -5493,10 +5568,10 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="D88" s="10">
         <v>34.301011000000003</v>
@@ -5505,10 +5580,10 @@
         <v>134.051402</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="H88" s="7">
         <v>41061</v>
@@ -5522,10 +5597,10 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D89" s="4">
         <v>34.286965000000002</v>
@@ -5534,10 +5609,10 @@
         <v>134.042618</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H89" s="7">
         <v>41113</v>
@@ -5551,10 +5626,10 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D90" s="4">
         <v>34.269153000000003</v>
@@ -5563,7 +5638,7 @@
         <v>134.109658</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>16</v>
@@ -5580,10 +5655,10 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D91" s="4">
         <v>34.313287000000003</v>
@@ -5592,10 +5667,10 @@
         <v>134.06401500000001</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="H91" s="7">
         <v>41309</v>
@@ -5612,7 +5687,7 @@
         <v>33</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D92" s="4">
         <v>34.342058000000002</v>
@@ -5621,10 +5696,10 @@
         <v>134.06948600000001</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H92" s="7">
         <v>41365</v>
@@ -5638,10 +5713,10 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="D93" s="4">
         <v>34.295994</v>
@@ -5650,7 +5725,7 @@
         <v>134.06595799999999</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>16</v>
@@ -5667,10 +5742,10 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D94" s="4">
         <v>34.263731</v>
@@ -5679,7 +5754,7 @@
         <v>134.02720400000001</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>16</v>
@@ -5696,10 +5771,10 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D95" s="4">
         <v>34.284092999999999</v>
@@ -5708,10 +5783,10 @@
         <v>133.95545100000001</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H95" s="7">
         <v>41487</v>
@@ -5725,10 +5800,10 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D96" s="4">
         <v>34.308157000000001</v>
@@ -5737,10 +5812,10 @@
         <v>134.09168500000001</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="H96" s="7">
         <v>41588</v>
@@ -5754,10 +5829,10 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D97" s="4">
         <v>34.320202999999999</v>
@@ -5766,7 +5841,7 @@
         <v>134.05831900000001</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>16</v>
@@ -5783,10 +5858,10 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="D98" s="4">
         <v>34.281458000000001</v>
@@ -5795,10 +5870,10 @@
         <v>133.99779699999999</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H98" s="7">
         <v>41640</v>
@@ -5812,10 +5887,10 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D99" s="10">
         <v>34.295487999999999</v>
@@ -5824,10 +5899,10 @@
         <v>134.05445800000001</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="H99" s="7">
         <v>41671</v>
@@ -5841,10 +5916,10 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D100" s="10">
         <v>34.313493999999999</v>
@@ -5853,10 +5928,10 @@
         <v>134.08312799999999</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="H100" s="7">
         <v>41687</v>
@@ -5870,10 +5945,10 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D101" s="4">
         <v>34.280352000000001</v>
@@ -5882,10 +5957,10 @@
         <v>133.96529899999999</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="H101" s="7">
         <v>41725</v>
@@ -5899,10 +5974,10 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D102" s="4">
         <v>34.330219</v>
@@ -5911,10 +5986,10 @@
         <v>134.10628700000001</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="H102" s="7">
         <v>41736</v>
@@ -5928,10 +6003,10 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D103" s="10">
         <v>34.301025000000003</v>
@@ -5940,7 +6015,7 @@
         <v>134.069569</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>16</v>
@@ -5957,10 +6032,10 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D104" s="4">
         <v>34.338760999999998</v>
@@ -5969,10 +6044,10 @@
         <v>134.108374</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="H104" s="7">
         <v>41760</v>
@@ -5986,10 +6061,10 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D105" s="10">
         <v>34.325087000000003</v>
@@ -5998,10 +6073,10 @@
         <v>134.07390599999999</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H105" s="7">
         <v>41885</v>
@@ -6015,10 +6090,10 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D106" s="4">
         <v>34.333772000000003</v>
@@ -6027,10 +6102,10 @@
         <v>134.04996600000001</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H106" s="7">
         <v>41883</v>
@@ -6044,10 +6119,10 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D107" s="4">
         <v>34.264961</v>
@@ -6056,10 +6131,10 @@
         <v>134.10543899999999</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="H107" s="7">
         <v>41944</v>
@@ -6073,10 +6148,10 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D108" s="4">
         <v>34.321258999999998</v>
@@ -6085,10 +6160,10 @@
         <v>134.04483400000001</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H108" s="7">
         <v>42009</v>
@@ -6102,10 +6177,10 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D109" s="4">
         <v>34.308826000000003</v>
@@ -6114,10 +6189,10 @@
         <v>133.96402599999999</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H109" s="7">
         <v>42086</v>
@@ -6131,10 +6206,10 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D110" s="4">
         <v>34.343775999999998</v>
@@ -6143,10 +6218,10 @@
         <v>134.123323</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H110" s="7">
         <v>42156</v>
@@ -6160,10 +6235,10 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D111" s="4">
         <v>34.331446</v>
@@ -6172,10 +6247,10 @@
         <v>134.04839899999999</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H111" s="7">
         <v>42156</v>
@@ -6189,10 +6264,10 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D112" s="4">
         <v>34.289495000000002</v>
@@ -6201,10 +6276,10 @@
         <v>134.02810099999999</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H112" s="7">
         <v>42163</v>
@@ -6218,10 +6293,10 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D113" s="4">
         <v>34.329160999999999</v>
@@ -6230,10 +6305,10 @@
         <v>134.058245</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H113" s="7">
         <v>42443</v>
@@ -6247,10 +6322,10 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D114" s="4">
         <v>34.302152</v>
@@ -6259,10 +6334,10 @@
         <v>134.041696</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="H114" s="7">
         <v>42461</v>
@@ -6276,10 +6351,10 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D115" s="4">
         <v>34.299269000000002</v>
@@ -6288,10 +6363,10 @@
         <v>134.11092500000001</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H115" s="7">
         <v>42454</v>
@@ -6305,10 +6380,10 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D116" s="10">
         <v>34.346671000000001</v>
@@ -6317,10 +6392,10 @@
         <v>134.04559599999999</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>717</v>
+        <v>710</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H116" s="7">
         <v>38510</v>
@@ -6334,10 +6409,10 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D117" s="4">
         <v>34.323757000000001</v>
@@ -6346,10 +6421,10 @@
         <v>134.07733400000001</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H117" s="7">
         <v>42520</v>
@@ -6363,10 +6438,10 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D118" s="4">
         <v>34.325797000000001</v>
@@ -6375,10 +6450,10 @@
         <v>134.07956300000001</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="H118" s="7">
         <v>42522</v>
@@ -6392,10 +6467,10 @@
         <v>118</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D119" s="10">
         <v>34.346752000000002</v>
@@ -6404,10 +6479,10 @@
         <v>134.05436499999999</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>718</v>
+        <v>711</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H119" s="7">
         <v>42620</v>
@@ -6421,10 +6496,10 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="D120" s="4">
         <v>34.256841000000001</v>
@@ -6433,10 +6508,10 @@
         <v>134.03386900000001</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H120" s="7">
         <v>42865</v>
@@ -6450,10 +6525,10 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D121" s="4">
         <v>34.311008000000001</v>
@@ -6462,10 +6537,10 @@
         <v>134.04754500000001</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="H121" s="7">
         <v>42899</v>
@@ -6479,10 +6554,10 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D122" s="4">
         <v>34.311416999999999</v>
@@ -6491,10 +6566,10 @@
         <v>134.04428100000001</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H122" s="7">
         <v>42879</v>
@@ -6508,10 +6583,10 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D123" s="4">
         <v>34.262625</v>
@@ -6520,10 +6595,10 @@
         <v>134.024652</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H123" s="7">
         <v>42887</v>
@@ -6537,10 +6612,10 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="D124" s="4">
         <v>34.337648000000002</v>
@@ -6549,10 +6624,10 @@
         <v>134.063039</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H124" s="7">
         <v>42919</v>
@@ -6566,10 +6641,10 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="D125" s="4">
         <v>34.343505999999998</v>
@@ -6578,10 +6653,10 @@
         <v>134.06172799999999</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="G125" s="5" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="H125" s="7">
         <v>42937</v>
@@ -6595,10 +6670,10 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D126" s="4">
         <v>34.330067999999997</v>
@@ -6607,10 +6682,10 @@
         <v>134.049935</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H126" s="7">
         <v>42921</v>
@@ -6624,10 +6699,10 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D127" s="4">
         <v>34.317377</v>
@@ -6636,10 +6711,10 @@
         <v>134.061384</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G127" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H127" s="7">
         <v>42948</v>
@@ -6653,10 +6728,10 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="D128" s="4">
         <v>34.263046000000003</v>
@@ -6665,7 +6740,7 @@
         <v>134.02476100000001</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="G128" s="5" t="s">
         <v>16</v>
@@ -6682,10 +6757,10 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D129" s="4">
         <v>34.258761</v>
@@ -6694,10 +6769,10 @@
         <v>134.08592100000001</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H129" s="7">
         <v>42979</v>
@@ -6711,10 +6786,10 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D130" s="10">
         <v>34.284075000000001</v>
@@ -6723,10 +6798,10 @@
         <v>134.096484</v>
       </c>
       <c r="F130" s="6" t="s">
-        <v>719</v>
+        <v>712</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H130" s="7">
         <v>43070</v>
@@ -6740,10 +6815,10 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D131" s="10">
         <v>34.284039</v>
@@ -6752,10 +6827,10 @@
         <v>134.09647000000001</v>
       </c>
       <c r="F131" s="6" t="s">
-        <v>720</v>
+        <v>713</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="H131" s="7">
         <v>43070</v>
@@ -6769,10 +6844,10 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D132" s="10">
         <v>34.288925999999996</v>
@@ -6781,10 +6856,10 @@
         <v>134.026186</v>
       </c>
       <c r="F132" s="6" t="s">
-        <v>721</v>
+        <v>714</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="H132" s="7">
         <v>43070</v>
@@ -6798,10 +6873,10 @@
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D133" s="10">
         <v>34.340944999999998</v>
@@ -6810,10 +6885,10 @@
         <v>133.998808</v>
       </c>
       <c r="F133" s="6" t="s">
-        <v>722</v>
+        <v>715</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H133" s="7">
         <v>43070</v>
@@ -6827,10 +6902,10 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D134" s="10">
         <v>34.307951000000003</v>
@@ -6839,10 +6914,10 @@
         <v>134.06442300000001</v>
       </c>
       <c r="F134" s="6" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="H134" s="7">
         <v>43070</v>
@@ -6856,10 +6931,10 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D135" s="10">
         <v>34.304431000000001</v>
@@ -6868,10 +6943,10 @@
         <v>133.99029200000001</v>
       </c>
       <c r="F135" s="6" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="H135" s="7">
         <v>43101</v>
@@ -6885,10 +6960,10 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D136" s="4">
         <v>34.346981999999997</v>
@@ -6897,10 +6972,10 @@
         <v>134.001351</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G136" s="5" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H136" s="7">
         <v>43101</v>
@@ -6914,10 +6989,10 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D137" s="4">
         <v>34.289068</v>
@@ -6926,10 +7001,10 @@
         <v>134.07550499999999</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="H137" s="7">
         <v>43111</v>
@@ -6943,10 +7018,10 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="D138" s="4">
         <v>34.338174000000002</v>
@@ -6955,10 +7030,10 @@
         <v>134.14005700000001</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="H138" s="7">
         <v>43160</v>
@@ -6972,10 +7047,10 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D139" s="4">
         <v>34.324649000000001</v>
@@ -6984,10 +7059,10 @@
         <v>134.07858100000001</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="H139" s="7">
         <v>43160</v>
@@ -7001,10 +7076,10 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D140" s="4">
         <v>34.308320999999999</v>
@@ -7013,10 +7088,10 @@
         <v>134.063761</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H140" s="7">
         <v>43160</v>
@@ -7030,10 +7105,10 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D141" s="10">
         <v>34.304431000000001</v>
@@ -7042,7 +7117,7 @@
         <v>133.99030300000001</v>
       </c>
       <c r="F141" s="6" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="G141" s="5" t="s">
         <v>16</v>
@@ -7059,10 +7134,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="D142" s="4">
         <v>34.334273000000003</v>
@@ -7071,10 +7146,10 @@
         <v>134.083787</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H142" s="7">
         <v>43383</v>
@@ -7088,10 +7163,10 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D143" s="4">
         <v>34.348706999999997</v>
@@ -7100,10 +7175,10 @@
         <v>134.01070899999999</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H143" s="7">
         <v>43515</v>
@@ -7117,10 +7192,10 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D144" s="10">
         <v>34.320255000000003</v>
@@ -7129,7 +7204,7 @@
         <v>134.04388299999999</v>
       </c>
       <c r="F144" s="6" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="G144" s="5" t="s">
         <v>16</v>
@@ -7146,10 +7221,10 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D145" s="4">
         <v>34.264961</v>
@@ -7158,7 +7233,7 @@
         <v>134.10543899999999</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G145" s="5" t="s">
         <v>16</v>
@@ -7175,10 +7250,10 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D146" s="4">
         <v>34.297524000000003</v>
@@ -7187,10 +7262,10 @@
         <v>134.089235</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="H146" s="7">
         <v>43657</v>
@@ -7204,10 +7279,10 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D147" s="4">
         <v>34.310828999999998</v>
@@ -7216,10 +7291,10 @@
         <v>134.06003899999999</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G147" s="5" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H147" s="7">
         <v>43698</v>
@@ -7233,10 +7308,10 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="D148" s="4">
         <v>34.350360999999999</v>
@@ -7245,10 +7320,10 @@
         <v>133.997266</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="H148" s="7">
         <v>43721</v>
@@ -7262,10 +7337,10 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="D149" s="10">
         <v>34.320157999999999</v>
@@ -7274,10 +7349,10 @@
         <v>134.081976</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H149" s="7">
         <v>43739</v>
@@ -7291,10 +7366,10 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D150" s="4">
         <v>34.301029</v>
@@ -7303,10 +7378,10 @@
         <v>133.96772100000001</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="H150" s="7">
         <v>43837</v>
@@ -7320,10 +7395,10 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D151" s="4">
         <v>34.345882000000003</v>
@@ -7332,10 +7407,10 @@
         <v>134.04718009999999</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="H151" s="7">
         <v>43892</v>
@@ -7349,10 +7424,10 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="D152" s="10">
         <v>34.343426000000001</v>
@@ -7361,10 +7436,10 @@
         <v>134.006621</v>
       </c>
       <c r="F152" s="6" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H152" s="7">
         <v>43948</v>
@@ -7378,10 +7453,10 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D153" s="4">
         <v>34.269686</v>
@@ -7390,10 +7465,10 @@
         <v>134.03456399999999</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H153" s="7">
         <v>44013</v>
@@ -7407,10 +7482,10 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D154" s="10">
         <v>34.323721999999997</v>
@@ -7419,10 +7494,10 @@
         <v>134.05932100000001</v>
       </c>
       <c r="F154" s="6" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="G154" s="5" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H154" s="7">
         <v>44118</v>
@@ -7436,10 +7511,10 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="D155" s="10">
         <v>34.299357999999998</v>
@@ -7448,7 +7523,7 @@
         <v>134.109916</v>
       </c>
       <c r="F155" s="6" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="G155" s="5" t="s">
         <v>16</v>
@@ -7465,10 +7540,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="D156" s="10">
         <v>34.338833999999999</v>
@@ -7477,10 +7552,10 @@
         <v>134.037711</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="H156" s="7">
         <v>44198</v>
@@ -7494,10 +7569,10 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D157" s="4">
         <v>34.307678000000003</v>
@@ -7506,10 +7581,10 @@
         <v>133.96265099999999</v>
       </c>
       <c r="F157" s="5" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="H157" s="7">
         <v>44181</v>
@@ -7523,10 +7598,10 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D158" s="4">
         <v>34.326923000000001</v>
@@ -7535,10 +7610,10 @@
         <v>134.07030399999999</v>
       </c>
       <c r="F158" s="5" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="H158" s="7">
         <v>44197</v>
@@ -7552,10 +7627,10 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D159" s="4">
         <v>34.324171</v>
@@ -7564,10 +7639,10 @@
         <v>133.99242100000001</v>
       </c>
       <c r="F159" s="5" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="G159" s="5" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="H159" s="7">
         <v>44260</v>
@@ -7581,10 +7656,10 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D160" s="10">
         <v>34.337505</v>
@@ -7593,10 +7668,10 @@
         <v>134.03438499999999</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="G160" s="5" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H160" s="7">
         <v>44291</v>
@@ -7610,10 +7685,10 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D161" s="4">
         <v>34.328966000000001</v>
@@ -7622,10 +7697,10 @@
         <v>134.102282</v>
       </c>
       <c r="F161" s="5" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H161" s="7">
         <v>44287</v>
@@ -7639,10 +7714,10 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D162" s="10">
         <v>34.294271999999999</v>
@@ -7651,7 +7726,7 @@
         <v>134.079407</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="G162" s="5" t="s">
         <v>16</v>
@@ -7668,10 +7743,10 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D163" s="10">
         <v>34.256005000000002</v>
@@ -7680,10 +7755,10 @@
         <v>134.02667099999999</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="G163" s="5" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="H163" s="7">
         <v>44136</v>
@@ -7697,10 +7772,10 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D164" s="4">
         <v>34.326560999999998</v>
@@ -7709,10 +7784,10 @@
         <v>134.07038299999999</v>
       </c>
       <c r="F164" s="5" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="H164" s="7">
         <v>44335</v>
@@ -7726,10 +7801,10 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="D165" s="4">
         <v>34.343221</v>
@@ -7738,10 +7813,10 @@
         <v>134.014883</v>
       </c>
       <c r="F165" s="5" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="H165" s="7">
         <v>44410</v>
@@ -7755,10 +7830,10 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D166" s="10">
         <v>34.319516999999998</v>
@@ -7767,10 +7842,10 @@
         <v>134.044399</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="H166" s="7">
         <v>44440</v>
@@ -7784,10 +7859,10 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="D167" s="10">
         <v>34.334778</v>
@@ -7796,10 +7871,10 @@
         <v>134.08684500000001</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="H167" s="7">
         <v>43836</v>
@@ -7816,7 +7891,7 @@
         <v>40</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D168" s="4">
         <v>34.344237</v>
@@ -7825,10 +7900,10 @@
         <v>134.069649</v>
       </c>
       <c r="F168" s="5" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="H168" s="7">
         <v>44562</v>
@@ -7842,10 +7917,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D169" s="10">
         <v>34.285093000000003</v>
@@ -7854,10 +7929,10 @@
         <v>134.04800499999999</v>
       </c>
       <c r="F169" s="5" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="H169" s="7">
         <v>44566</v>
@@ -7871,10 +7946,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>583</v>
+        <v>750</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="D170" s="10">
         <v>34.241031</v>
@@ -7883,13 +7958,13 @@
         <v>134.02841599999999</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>739</v>
+        <v>751</v>
       </c>
       <c r="G170" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H170" s="7">
-        <v>44606</v>
+        <v>45719</v>
       </c>
       <c r="I170" s="8" t="s">
         <v>16</v>
@@ -7900,25 +7975,25 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>585</v>
+        <v>756</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>586</v>
-      </c>
-      <c r="D171" s="4">
-        <v>34.300331</v>
-      </c>
-      <c r="E171" s="4">
-        <v>134.035314</v>
-      </c>
-      <c r="F171" s="5" t="s">
-        <v>587</v>
-      </c>
-      <c r="G171" s="5" t="s">
-        <v>588</v>
+        <v>580</v>
+      </c>
+      <c r="D171" s="16">
+        <v>34.309787999999998</v>
+      </c>
+      <c r="E171" s="17">
+        <v>134.01008300000001</v>
+      </c>
+      <c r="F171" s="15" t="s">
+        <v>757</v>
+      </c>
+      <c r="G171" s="18" t="s">
+        <v>581</v>
       </c>
       <c r="H171" s="7">
-        <v>44652</v>
+        <v>45715</v>
       </c>
       <c r="I171" s="8" t="s">
         <v>12</v>
@@ -7929,10 +8004,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="D172" s="4">
         <v>34.329731000000002</v>
@@ -7941,10 +8016,10 @@
         <v>134.06224700000001</v>
       </c>
       <c r="F172" s="5" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="G172" s="5" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
       <c r="H172" s="7">
         <v>44670</v>
@@ -7958,10 +8033,10 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="D173" s="4">
         <v>34.290933000000003</v>
@@ -7970,10 +8045,10 @@
         <v>134.09554900000001</v>
       </c>
       <c r="F173" s="5" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="H173" s="7">
         <v>44682</v>
@@ -7987,10 +8062,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="D174" s="4">
         <v>34.333956000000001</v>
@@ -7999,10 +8074,10 @@
         <v>134.081931</v>
       </c>
       <c r="F174" s="5" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="G174" s="5" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="H174" s="7">
         <v>44739</v>
@@ -8016,10 +8091,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="D175" s="10">
         <v>34.339699000000003</v>
@@ -8028,7 +8103,7 @@
         <v>134.079081</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>16</v>
@@ -8045,10 +8120,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="D176" s="4">
         <v>34.297007999999998</v>
@@ -8057,7 +8132,7 @@
         <v>133.94552400000001</v>
       </c>
       <c r="F176" s="5" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>16</v>
@@ -8074,10 +8149,10 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
       <c r="D177" s="4">
         <v>34.284131000000002</v>
@@ -8086,7 +8161,7 @@
         <v>134.089755</v>
       </c>
       <c r="F177" s="5" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>16</v>
@@ -8103,10 +8178,10 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="D178" s="4">
         <v>34.324306999999997</v>
@@ -8115,10 +8190,10 @@
         <v>134.06302400000001</v>
       </c>
       <c r="F178" s="5" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="G178" s="5" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="H178" s="7">
         <v>44805</v>
@@ -8132,10 +8207,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="D179" s="4">
         <v>34.309077000000002</v>
@@ -8144,7 +8219,7 @@
         <v>134.04403099999999</v>
       </c>
       <c r="F179" s="5" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>16</v>
@@ -8161,10 +8236,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="D180" s="4">
         <v>34.322403000000001</v>
@@ -8173,10 +8248,10 @@
         <v>134.07405900000001</v>
       </c>
       <c r="F180" s="5" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="H180" s="7">
         <v>44932</v>
@@ -8190,10 +8265,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="5" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="D181" s="10">
         <v>34.346107000000003</v>
@@ -8202,10 +8277,10 @@
         <v>134.03441599999999</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="G181" s="5" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="H181" s="7">
         <v>44287</v>
@@ -8219,10 +8294,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="5" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="D182" s="10">
         <v>34.292172999999998</v>
@@ -8231,7 +8306,7 @@
         <v>134.11281099999999</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>16</v>
@@ -8248,10 +8323,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="5" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="D183" s="10">
         <v>34.324812999999999</v>
@@ -8260,10 +8335,10 @@
         <v>134.07267300000001</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="H183" s="7">
         <v>45012</v>
@@ -8277,10 +8352,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="5" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="D184" s="4">
         <v>34.338791999999998</v>
@@ -8289,7 +8364,7 @@
         <v>134.04852399999999</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G184" s="5" t="s">
         <v>16</v>
@@ -8306,10 +8381,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="5" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="D185" s="4">
         <v>34.335762000000003</v>
@@ -8318,10 +8393,10 @@
         <v>134.05406099999999</v>
       </c>
       <c r="F185" s="5" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="G185" s="5" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="H185" s="7">
         <v>45209</v>
@@ -8335,10 +8410,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="5" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="D186" s="10">
         <v>34.347512000000002</v>
@@ -8347,7 +8422,7 @@
         <v>134.089719</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="G186" s="5" t="s">
         <v>16</v>
@@ -8364,10 +8439,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="D187" s="4">
         <v>34.315911</v>
@@ -8376,7 +8451,7 @@
         <v>134.03908799999999</v>
       </c>
       <c r="F187" s="5" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>16</v>
@@ -8393,10 +8468,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="D188" s="10">
         <v>34.347566</v>
@@ -8405,10 +8480,10 @@
         <v>134.089676</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G188" s="5" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="H188" s="7">
         <v>45348</v>
@@ -8422,10 +8497,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="5" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="D189" s="4">
         <v>34.341878000000001</v>
@@ -8434,10 +8509,10 @@
         <v>134.09666899999999</v>
       </c>
       <c r="F189" s="5" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="H189" s="7">
         <v>45388</v>
@@ -8451,10 +8526,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="D190" s="4">
         <v>34.333134000000001</v>
@@ -8463,10 +8538,10 @@
         <v>134.06802099999999</v>
       </c>
       <c r="F190" s="5" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="G190" s="5" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="H190" s="7">
         <v>45427</v>
@@ -8480,10 +8555,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="D191" s="4">
         <v>34.338999000000001</v>
@@ -8492,7 +8567,7 @@
         <v>134.013867</v>
       </c>
       <c r="F191" s="5" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>16</v>
@@ -8509,10 +8584,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
       <c r="D192" s="10">
         <v>34.347504000000001</v>
@@ -8521,7 +8596,7 @@
         <v>134.08972900000001</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="G192" s="5" t="s">
         <v>16</v>
@@ -8538,10 +8613,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
       <c r="D193" s="4">
         <v>34.344265999999998</v>
@@ -8550,7 +8625,7 @@
         <v>134.03674100000001</v>
       </c>
       <c r="F193" s="5" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>16</v>
@@ -8567,10 +8642,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="5" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="D194" s="4">
         <v>34.343791000000003</v>
@@ -8579,7 +8654,7 @@
         <v>134.06783799999999</v>
       </c>
       <c r="F194" s="5" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>16</v>
@@ -8596,10 +8671,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="5" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="D195" s="4">
         <v>34.338890999999997</v>
@@ -8608,7 +8683,7 @@
         <v>134.05840599999999</v>
       </c>
       <c r="F195" s="5" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
       <c r="G195" s="5" t="s">
         <v>16</v>
@@ -8625,10 +8700,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="5" t="s">
-        <v>665</v>
+        <v>658</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>666</v>
+        <v>659</v>
       </c>
       <c r="D196" s="4">
         <v>34.287421000000002</v>
@@ -8637,10 +8712,10 @@
         <v>134.03875099999999</v>
       </c>
       <c r="F196" s="5" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
       <c r="H196" s="7">
         <v>45475</v>
@@ -8654,10 +8729,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="5" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="D197" s="10">
         <v>34.347548000000003</v>
@@ -8666,10 +8741,10 @@
         <v>134.089665</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="H197" s="7">
         <v>45502</v>
@@ -8683,10 +8758,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="5" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="D198" s="10">
         <v>34.347566</v>
@@ -8695,10 +8770,10 @@
         <v>134.089708</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="H198" s="7">
         <v>45502</v>
@@ -8708,7 +8783,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1"/>
+  <autoFilter ref="A1:I198">
+    <sortState ref="A17:I171">
+      <sortCondition sortBy="cellColor" ref="A1:A198" dxfId="1"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="70" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>

--- a/data/judo_therapy/data.xlsx
+++ b/data/judo_therapy/data.xlsx
@@ -5,35 +5,22 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\デスクトップ\オープンデータ更新（一時保管）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC37BE42-B27C-4B15-AAC4-58A37926AA21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09328EC-7384-4557-8FC5-821189249824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1791" uniqueCount="1524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="1523">
   <si>
     <t>№</t>
   </si>
@@ -86,9 +73,6 @@
     <t/>
   </si>
   <si>
-    <t>2024/12/28</t>
-  </si>
-  <si>
     <t>○</t>
   </si>
   <si>
@@ -3308,6 +3292,9 @@
     <t>140</t>
   </si>
   <si>
+    <t>ひまわり整骨院（休止中）</t>
+  </si>
+  <si>
     <t>川上　貴士</t>
   </si>
   <si>
@@ -4352,10 +4339,10 @@
     <t>187</t>
   </si>
   <si>
-    <t>高松メディカル整骨院</t>
-  </si>
-  <si>
-    <t>岡田　直也</t>
+    <t>高松メディアス整骨院</t>
+  </si>
+  <si>
+    <t>MGC　project株式会社</t>
   </si>
   <si>
     <t>34.347566</t>
@@ -4370,7 +4357,7 @@
     <t>087-843-5510</t>
   </si>
   <si>
-    <t>2024/02/26</t>
+    <t>2025/06/01</t>
   </si>
   <si>
     <t>188</t>
@@ -4595,20 +4582,13 @@
     <t>134.05926</t>
   </si>
   <si>
-    <t>高松市伏石町２１６９－５</t>
+    <t>高松市伏石町２１６９−５</t>
   </si>
   <si>
     <t>087-802-8107</t>
   </si>
   <si>
     <t>2025/3/31</t>
-  </si>
-  <si>
-    <t>ひまわり整骨院（休止中）</t>
-    <rPh sb="8" eb="11">
-      <t>キュウシチュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -4631,12 +4611,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4653,7 +4639,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4995,5331 +4981,5874 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="F192" sqref="F192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.796875" style="1"/>
-    <col min="2" max="2" width="28.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.59765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.796875" style="1"/>
-    <col min="6" max="6" width="63.296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.796875" style="1"/>
+    <col min="2" max="2" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="B4" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" t="s">
         <v>43</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="B7" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" t="s">
         <v>47</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" t="s">
         <v>49</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" t="s">
         <v>50</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" t="s">
         <v>51</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" t="s">
         <v>52</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>53</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" t="s">
         <v>59</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" t="s">
         <v>60</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B9" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B10" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" t="s">
         <v>73</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>77</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B11" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" t="s">
         <v>80</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>85</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B12" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" t="s">
         <v>90</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>93</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B13" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B14" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="I14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>109</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B15" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="I15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>117</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B16" t="s">
         <v>118</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" t="s">
         <v>119</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="E16" t="s">
         <v>121</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" t="s">
         <v>122</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" t="s">
         <v>123</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="H16" t="s">
         <v>124</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>125</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B17" t="s">
         <v>126</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" t="s">
         <v>127</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" t="s">
         <v>128</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="E17" t="s">
         <v>129</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" t="s">
         <v>130</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" t="s">
         <v>131</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="I17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>133</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B18" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" t="s">
         <v>135</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" t="s">
         <v>137</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" t="s">
         <v>138</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" t="s">
         <v>139</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" t="s">
         <v>140</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="I18" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>141</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B19" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" t="s">
         <v>144</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" t="s">
         <v>145</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" t="s">
         <v>146</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" t="s">
         <v>147</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" t="s">
         <v>148</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="I19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>149</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B20" t="s">
         <v>150</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="D20" t="s">
         <v>152</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" t="s">
         <v>153</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" t="s">
         <v>154</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" t="s">
         <v>155</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" t="s">
         <v>156</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>157</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="B21" t="s">
         <v>158</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="C21" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" t="s">
         <v>160</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="E21" t="s">
         <v>161</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" t="s">
         <v>162</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" t="s">
         <v>163</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" t="s">
         <v>164</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>165</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B22" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="C22" t="s">
         <v>167</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="D22" t="s">
         <v>168</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" t="s">
         <v>169</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" t="s">
         <v>170</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" t="s">
         <v>171</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" t="s">
         <v>172</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>173</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="B23" t="s">
         <v>174</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" t="s">
         <v>175</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="D23" t="s">
         <v>176</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" t="s">
         <v>177</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" t="s">
         <v>178</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" t="s">
         <v>179</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" t="s">
         <v>180</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>181</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="B24" t="s">
         <v>182</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" t="s">
         <v>183</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" t="s">
         <v>184</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" t="s">
         <v>185</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="F24" t="s">
         <v>186</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" t="s">
         <v>187</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" t="s">
         <v>188</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>189</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="B25" t="s">
         <v>190</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="C25" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="D25" t="s">
         <v>192</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="E25" t="s">
         <v>193</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="F25" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" t="s">
         <v>195</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" t="s">
         <v>196</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="I25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>197</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="B26" t="s">
         <v>198</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="C26" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="D26" t="s">
         <v>200</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" t="s">
         <v>201</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" t="s">
         <v>202</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" t="s">
         <v>203</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" t="s">
         <v>204</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>205</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="B27" t="s">
         <v>206</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" t="s">
         <v>207</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="D27" t="s">
         <v>208</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" t="s">
         <v>209</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" t="s">
         <v>210</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" t="s">
         <v>211</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" t="s">
         <v>212</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>213</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="B28" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" t="s">
         <v>215</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="D28" t="s">
         <v>216</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" t="s">
         <v>217</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="F28" t="s">
         <v>218</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" t="s">
         <v>219</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" t="s">
         <v>220</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>221</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="B29" t="s">
         <v>222</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" t="s">
         <v>223</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="D29" t="s">
         <v>224</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" t="s">
         <v>225</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" t="s">
         <v>226</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" t="s">
         <v>227</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" t="s">
         <v>228</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="I29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>229</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="B30" t="s">
         <v>230</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" t="s">
         <v>231</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="D30" t="s">
         <v>232</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" t="s">
         <v>233</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="F30" t="s">
         <v>234</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" t="s">
         <v>235</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" t="s">
         <v>236</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="I30" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>237</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B31" t="s">
         <v>238</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" t="s">
         <v>239</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="D31" t="s">
         <v>240</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="E31" t="s">
         <v>241</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" t="s">
         <v>242</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" t="s">
         <v>243</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" t="s">
         <v>244</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
         <v>245</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="B32" t="s">
         <v>246</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="C32" t="s">
         <v>247</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="D32" t="s">
         <v>248</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="E32" t="s">
         <v>249</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="F32" t="s">
         <v>250</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" t="s">
         <v>251</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" t="s">
         <v>252</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="I32" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>253</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="B33" t="s">
         <v>254</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="C33" t="s">
         <v>255</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="D33" t="s">
         <v>256</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" t="s">
         <v>257</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" t="s">
         <v>258</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" t="s">
         <v>259</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" t="s">
         <v>260</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="I33" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>261</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="B34" t="s">
         <v>262</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" t="s">
         <v>263</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="D34" t="s">
         <v>264</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" t="s">
         <v>265</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="F34" t="s">
         <v>266</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" t="s">
         <v>267</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" t="s">
         <v>268</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="I34" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
         <v>269</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="B35" t="s">
         <v>270</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" t="s">
         <v>271</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="D35" t="s">
         <v>272</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="E35" t="s">
         <v>273</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" t="s">
         <v>274</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" t="s">
         <v>275</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" t="s">
         <v>276</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="I35" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>277</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="B36" t="s">
         <v>278</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="C36" t="s">
         <v>279</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="D36" t="s">
         <v>280</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" t="s">
         <v>281</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" t="s">
         <v>282</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" t="s">
         <v>283</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" t="s">
         <v>284</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>285</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="B37" t="s">
         <v>286</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" t="s">
         <v>287</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="D37" t="s">
         <v>288</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" t="s">
         <v>289</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="F37" t="s">
         <v>290</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" t="s">
         <v>291</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" t="s">
         <v>292</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="I37" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>293</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="B38" t="s">
         <v>294</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" t="s">
         <v>295</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="D38" t="s">
         <v>296</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" t="s">
         <v>297</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="F38" t="s">
         <v>298</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" t="s">
         <v>299</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" t="s">
         <v>300</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
         <v>301</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="B39" t="s">
         <v>302</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" t="s">
         <v>303</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="D39" t="s">
         <v>304</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" t="s">
         <v>305</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="F39" t="s">
         <v>306</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" t="s">
         <v>307</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" t="s">
         <v>308</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" t="s">
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>309</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="B40" t="s">
         <v>310</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" t="s">
         <v>311</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="D40" t="s">
         <v>312</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="E40" t="s">
         <v>313</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="F40" t="s">
         <v>314</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" t="s">
         <v>315</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="H40" t="s">
         <v>316</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>317</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="B41" t="s">
         <v>318</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" t="s">
         <v>319</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="D41" t="s">
         <v>320</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" t="s">
         <v>321</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" t="s">
         <v>322</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" t="s">
         <v>323</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="H41" t="s">
         <v>324</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>325</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="B42" t="s">
         <v>326</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" t="s">
         <v>327</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="D42" t="s">
         <v>328</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" t="s">
         <v>329</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="F42" t="s">
         <v>330</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" t="s">
         <v>331</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="H42" t="s">
         <v>332</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>333</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="B43" t="s">
         <v>334</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" t="s">
         <v>335</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="D43" t="s">
         <v>336</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" t="s">
         <v>337</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" t="s">
         <v>338</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" t="s">
         <v>339</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="H43" t="s">
         <v>340</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>341</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="B44" t="s">
         <v>342</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="C44" t="s">
         <v>343</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="D44" t="s">
         <v>344</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" t="s">
         <v>345</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="F44" t="s">
         <v>346</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="G44" t="s">
         <v>347</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="H44" t="s">
         <v>348</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>349</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="B45" t="s">
         <v>350</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="C45" t="s">
         <v>351</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="D45" t="s">
         <v>352</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="E45" t="s">
         <v>353</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" t="s">
         <v>354</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="G45" t="s">
         <v>355</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="H45" t="s">
         <v>356</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>357</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="B46" t="s">
         <v>358</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="C46" t="s">
         <v>359</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="D46" t="s">
         <v>360</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="E46" t="s">
         <v>361</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="F46" t="s">
         <v>362</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="G46" t="s">
         <v>363</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="H46" t="s">
         <v>364</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="I46" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>365</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="B47" t="s">
         <v>366</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" t="s">
         <v>367</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="D47" t="s">
         <v>368</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" t="s">
         <v>369</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" t="s">
         <v>370</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="G47" t="s">
         <v>371</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="H47" t="s">
         <v>372</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="I47" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>373</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="B48" t="s">
         <v>374</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="C48" t="s">
         <v>375</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="D48" t="s">
         <v>376</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="E48" t="s">
         <v>377</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="F48" t="s">
         <v>378</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="G48" t="s">
         <v>379</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="H48" t="s">
         <v>380</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="I48" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>381</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="B49" t="s">
         <v>382</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" t="s">
         <v>383</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="D49" t="s">
         <v>384</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="E49" t="s">
         <v>385</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="F49" t="s">
         <v>386</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="G49" t="s">
         <v>387</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="H49" t="s">
         <v>388</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="I49" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>389</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="B50" t="s">
         <v>390</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="C50" t="s">
         <v>391</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="D50" t="s">
         <v>392</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="E50" t="s">
         <v>393</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="F50" t="s">
         <v>394</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" t="s">
         <v>395</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="H50" t="s">
         <v>396</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="I50" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>397</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="B51" t="s">
         <v>398</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="C51" t="s">
         <v>399</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="D51" t="s">
         <v>400</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" t="s">
         <v>401</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" t="s">
         <v>402</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" t="s">
         <v>403</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="H51" t="s">
         <v>404</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="I51" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>405</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="B52" t="s">
         <v>406</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="C52" t="s">
         <v>407</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="D52" t="s">
         <v>408</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" t="s">
         <v>409</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" t="s">
         <v>410</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" t="s">
         <v>411</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="H52" t="s">
         <v>412</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="I52" t="s">
+        <v>16</v>
+      </c>
+      <c r="J52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>413</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="B53" t="s">
         <v>414</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="C53" t="s">
         <v>415</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="D53" t="s">
         <v>416</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="E53" t="s">
         <v>417</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="F53" t="s">
         <v>418</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" t="s">
         <v>419</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="H53" t="s">
+        <v>300</v>
+      </c>
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>420</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="B54" t="s">
         <v>421</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" t="s">
         <v>422</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="D54" t="s">
         <v>423</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="E54" t="s">
         <v>424</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" t="s">
         <v>425</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" t="s">
         <v>426</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="H54" t="s">
         <v>427</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="I54" t="s">
+        <v>16</v>
+      </c>
+      <c r="J54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>428</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="B55" t="s">
         <v>429</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" t="s">
         <v>430</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="D55" t="s">
         <v>431</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="E55" t="s">
         <v>432</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="F55" t="s">
         <v>433</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" t="s">
         <v>434</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" t="s">
         <v>435</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="I55" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>436</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="B56" t="s">
         <v>437</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="C56" t="s">
         <v>438</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="D56" t="s">
         <v>439</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="E56" t="s">
         <v>440</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="F56" t="s">
         <v>441</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" t="s">
         <v>442</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" t="s">
         <v>443</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="I56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>444</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="B57" t="s">
         <v>445</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="C57" t="s">
         <v>446</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="D57" t="s">
         <v>447</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="E57" t="s">
         <v>448</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="F57" t="s">
         <v>449</v>
       </c>
-      <c r="F57" s="1" t="s">
+      <c r="G57" t="s">
         <v>450</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="H57" t="s">
         <v>451</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="I57" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
         <v>452</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="B58" t="s">
         <v>453</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="C58" t="s">
         <v>454</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="D58" t="s">
         <v>455</v>
       </c>
-      <c r="D58" s="1" t="s">
+      <c r="E58" t="s">
         <v>456</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="F58" t="s">
         <v>457</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" t="s">
         <v>458</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" t="s">
         <v>459</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="I58" t="s">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>460</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="B59" t="s">
         <v>461</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" t="s">
         <v>462</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" t="s">
         <v>463</v>
       </c>
-      <c r="D59" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" t="s">
         <v>464</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" t="s">
         <v>465</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" t="s">
         <v>466</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="I59" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>467</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="B60" t="s">
         <v>468</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="C60" t="s">
         <v>469</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D60" t="s">
         <v>470</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="E60" t="s">
         <v>471</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="F60" t="s">
         <v>472</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" t="s">
         <v>473</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" t="s">
         <v>474</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>475</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="B61" t="s">
         <v>476</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="C61" t="s">
         <v>477</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="D61" t="s">
         <v>478</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="E61" t="s">
         <v>479</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" t="s">
         <v>480</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" t="s">
         <v>481</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" t="s">
         <v>482</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="I61" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>483</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="B62" t="s">
         <v>484</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="C62" t="s">
         <v>485</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="D62" t="s">
         <v>486</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="E62" t="s">
         <v>487</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" t="s">
         <v>488</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" t="s">
         <v>489</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" t="s">
         <v>490</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="I62" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>491</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="B63" t="s">
         <v>492</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="C63" t="s">
         <v>493</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="D63" t="s">
         <v>494</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="E63" t="s">
         <v>495</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" t="s">
         <v>496</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" t="s">
         <v>497</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" t="s">
         <v>498</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="I63" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>499</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="B64" t="s">
         <v>500</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" t="s">
         <v>501</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="D64" t="s">
         <v>502</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" t="s">
         <v>503</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" t="s">
         <v>504</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" t="s">
         <v>505</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" t="s">
         <v>506</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="I64" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>507</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="B65" t="s">
         <v>508</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" t="s">
         <v>509</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="D65" t="s">
         <v>510</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" t="s">
         <v>511</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" t="s">
         <v>512</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" t="s">
         <v>513</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" t="s">
         <v>514</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="I65" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>515</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="B66" t="s">
         <v>516</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" t="s">
         <v>517</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="D66" t="s">
         <v>518</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="E66" t="s">
         <v>519</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" t="s">
         <v>520</v>
       </c>
-      <c r="F66" s="1" t="s">
+      <c r="G66" t="s">
         <v>521</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="H66" t="s">
         <v>522</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="I66" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>523</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="B67" t="s">
         <v>524</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="C67" t="s">
         <v>525</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="D67" t="s">
         <v>526</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" t="s">
         <v>527</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" t="s">
         <v>528</v>
       </c>
-      <c r="F67" s="1" t="s">
+      <c r="G67" t="s">
         <v>529</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="H67" t="s">
         <v>530</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="I67" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>531</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="B68" t="s">
         <v>532</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" t="s">
         <v>533</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="D68" t="s">
         <v>534</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" t="s">
         <v>535</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" t="s">
         <v>536</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="G68" t="s">
         <v>537</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="H68" t="s">
         <v>538</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="I68" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>539</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="B69" t="s">
         <v>540</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" t="s">
         <v>541</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="D69" t="s">
         <v>542</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="E69" t="s">
         <v>543</v>
       </c>
-      <c r="E69" s="1" t="s">
+      <c r="F69" t="s">
         <v>544</v>
       </c>
-      <c r="F69" s="1" t="s">
+      <c r="G69" t="s">
         <v>545</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="H69" t="s">
         <v>546</v>
       </c>
-      <c r="H69" s="1" t="s">
+      <c r="I69" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
         <v>547</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="B70" t="s">
         <v>548</v>
       </c>
-      <c r="B70" s="1" t="s">
+      <c r="C70" t="s">
         <v>549</v>
       </c>
-      <c r="C70" s="1" t="s">
+      <c r="D70" t="s">
         <v>550</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="E70" t="s">
         <v>551</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" t="s">
         <v>552</v>
       </c>
-      <c r="F70" s="1" t="s">
+      <c r="G70" t="s">
         <v>553</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="H70" t="s">
         <v>554</v>
       </c>
-      <c r="H70" s="1" t="s">
+      <c r="I70" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>555</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="B71" t="s">
         <v>556</v>
       </c>
-      <c r="B71" s="1" t="s">
+      <c r="C71" t="s">
         <v>557</v>
       </c>
-      <c r="C71" s="1" t="s">
+      <c r="D71" t="s">
         <v>558</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="E71" t="s">
         <v>559</v>
       </c>
-      <c r="E71" s="1" t="s">
+      <c r="F71" t="s">
         <v>560</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="G71" t="s">
         <v>561</v>
       </c>
-      <c r="G71" s="1" t="s">
+      <c r="H71" t="s">
         <v>562</v>
       </c>
-      <c r="H71" s="1" t="s">
+      <c r="I71" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
         <v>563</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="B72" t="s">
         <v>564</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" t="s">
         <v>565</v>
       </c>
-      <c r="C72" s="1" t="s">
+      <c r="D72" t="s">
         <v>566</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" t="s">
         <v>567</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" t="s">
         <v>568</v>
       </c>
-      <c r="F72" s="1" t="s">
+      <c r="G72" t="s">
         <v>569</v>
       </c>
-      <c r="G72" s="1" t="s">
+      <c r="H72" t="s">
         <v>570</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="I72" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
         <v>571</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="B73" t="s">
         <v>572</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" t="s">
         <v>573</v>
       </c>
-      <c r="C73" s="1" t="s">
+      <c r="D73" t="s">
         <v>574</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="E73" t="s">
         <v>575</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" t="s">
         <v>576</v>
       </c>
-      <c r="F73" s="1" t="s">
+      <c r="G73" t="s">
         <v>577</v>
       </c>
-      <c r="G73" s="1" t="s">
+      <c r="H73" t="s">
         <v>578</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="I73" t="s">
+        <v>16</v>
+      </c>
+      <c r="J73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
         <v>579</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="B74" t="s">
         <v>580</v>
       </c>
-      <c r="B74" s="1" t="s">
+      <c r="C74" t="s">
         <v>581</v>
       </c>
-      <c r="C74" s="1" t="s">
+      <c r="D74" t="s">
         <v>582</v>
       </c>
-      <c r="D74" s="1" t="s">
+      <c r="E74" t="s">
         <v>583</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" t="s">
         <v>584</v>
       </c>
-      <c r="F74" s="1" t="s">
+      <c r="G74" t="s">
         <v>585</v>
       </c>
-      <c r="G74" s="1" t="s">
+      <c r="H74" t="s">
         <v>586</v>
       </c>
-      <c r="H74" s="1" t="s">
+      <c r="I74" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
         <v>587</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="B75" t="s">
         <v>588</v>
       </c>
-      <c r="B75" s="1" t="s">
+      <c r="C75" t="s">
         <v>589</v>
       </c>
-      <c r="C75" s="1" t="s">
+      <c r="D75" t="s">
         <v>590</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" t="s">
         <v>591</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" t="s">
         <v>592</v>
       </c>
-      <c r="F75" s="1" t="s">
+      <c r="G75" t="s">
         <v>593</v>
       </c>
-      <c r="G75" s="1" t="s">
+      <c r="H75" t="s">
         <v>594</v>
       </c>
-      <c r="H75" s="1" t="s">
+      <c r="I75" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
         <v>595</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="B76" t="s">
         <v>596</v>
       </c>
-      <c r="B76" s="1" t="s">
+      <c r="C76" t="s">
         <v>597</v>
       </c>
-      <c r="C76" s="1" t="s">
+      <c r="D76" t="s">
         <v>598</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" t="s">
         <v>599</v>
       </c>
-      <c r="E76" s="1" t="s">
+      <c r="F76" t="s">
         <v>600</v>
       </c>
-      <c r="F76" s="1" t="s">
+      <c r="G76" t="s">
         <v>601</v>
       </c>
-      <c r="G76" s="1" t="s">
+      <c r="H76" t="s">
         <v>602</v>
       </c>
-      <c r="H76" s="1" t="s">
+      <c r="I76" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>603</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="B77" t="s">
         <v>604</v>
       </c>
-      <c r="B77" s="1" t="s">
+      <c r="C77" t="s">
         <v>605</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="D77" t="s">
         <v>606</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" t="s">
         <v>607</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="F77" t="s">
         <v>608</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" t="s">
         <v>609</v>
       </c>
-      <c r="G77" s="1" t="s">
+      <c r="H77" t="s">
         <v>610</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="I77" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>611</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="B78" t="s">
         <v>612</v>
       </c>
-      <c r="B78" s="1" t="s">
+      <c r="C78" t="s">
         <v>613</v>
       </c>
-      <c r="C78" s="1" t="s">
+      <c r="D78" t="s">
         <v>614</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" t="s">
         <v>615</v>
       </c>
-      <c r="E78" s="1" t="s">
+      <c r="F78" t="s">
         <v>616</v>
       </c>
-      <c r="F78" s="1" t="s">
+      <c r="G78" t="s">
         <v>617</v>
       </c>
-      <c r="G78" s="1" t="s">
+      <c r="H78" t="s">
         <v>618</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="I78" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>619</v>
       </c>
-      <c r="I78" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="B79" t="s">
         <v>620</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" t="s">
         <v>621</v>
       </c>
-      <c r="C79" s="1" t="s">
+      <c r="D79" t="s">
         <v>622</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" t="s">
         <v>623</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="F79" t="s">
         <v>624</v>
       </c>
-      <c r="F79" s="1" t="s">
+      <c r="G79" t="s">
         <v>625</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="H79" t="s">
         <v>626</v>
       </c>
-      <c r="H79" s="1" t="s">
+      <c r="I79" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>627</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="B80" t="s">
         <v>628</v>
       </c>
-      <c r="B80" s="1" t="s">
+      <c r="C80" t="s">
         <v>629</v>
       </c>
-      <c r="C80" s="1" t="s">
+      <c r="D80" t="s">
         <v>630</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" t="s">
         <v>631</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" t="s">
         <v>632</v>
       </c>
-      <c r="F80" s="1" t="s">
+      <c r="G80" t="s">
         <v>633</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="H80" t="s">
         <v>634</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="I80" t="s">
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>635</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="B81" t="s">
         <v>636</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="C81" t="s">
         <v>637</v>
       </c>
-      <c r="C81" s="1" t="s">
+      <c r="D81" t="s">
         <v>638</v>
       </c>
-      <c r="D81" s="1" t="s">
+      <c r="E81" t="s">
         <v>639</v>
       </c>
-      <c r="E81" s="1" t="s">
+      <c r="F81" t="s">
         <v>640</v>
       </c>
-      <c r="F81" s="1" t="s">
+      <c r="G81" t="s">
         <v>641</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="H81" t="s">
         <v>642</v>
       </c>
-      <c r="H81" s="1" t="s">
+      <c r="I81" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>643</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+      <c r="B82" t="s">
         <v>644</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="C82" t="s">
         <v>645</v>
       </c>
-      <c r="C82" s="1" t="s">
+      <c r="D82" t="s">
         <v>646</v>
       </c>
-      <c r="D82" s="1" t="s">
+      <c r="E82" t="s">
         <v>647</v>
       </c>
-      <c r="E82" s="1" t="s">
+      <c r="F82" t="s">
         <v>648</v>
       </c>
-      <c r="F82" s="1" t="s">
+      <c r="G82" t="s">
         <v>649</v>
       </c>
-      <c r="G82" s="1" t="s">
+      <c r="H82" t="s">
         <v>650</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="I82" t="s">
+        <v>16</v>
+      </c>
+      <c r="J82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>651</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+      <c r="B83" t="s">
         <v>652</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="C83" t="s">
         <v>653</v>
       </c>
-      <c r="C83" s="1" t="s">
+      <c r="D83" t="s">
         <v>654</v>
       </c>
-      <c r="D83" s="1" t="s">
+      <c r="E83" t="s">
         <v>655</v>
       </c>
-      <c r="E83" s="1" t="s">
+      <c r="F83" t="s">
         <v>656</v>
       </c>
-      <c r="F83" s="1" t="s">
+      <c r="G83" t="s">
         <v>657</v>
       </c>
-      <c r="G83" s="1" t="s">
+      <c r="H83" t="s">
         <v>658</v>
       </c>
-      <c r="H83" s="1" t="s">
+      <c r="I83" t="s">
+        <v>16</v>
+      </c>
+      <c r="J83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>659</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="B84" t="s">
         <v>660</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="C84" t="s">
         <v>661</v>
       </c>
-      <c r="C84" s="1" t="s">
+      <c r="D84" t="s">
         <v>662</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" t="s">
         <v>663</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="F84" t="s">
         <v>664</v>
       </c>
-      <c r="F84" s="1" t="s">
+      <c r="G84" t="s">
         <v>665</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="H84" t="s">
         <v>666</v>
       </c>
-      <c r="H84" s="1" t="s">
+      <c r="I84" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>667</v>
       </c>
-      <c r="I84" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="B85" t="s">
         <v>668</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="C85" t="s">
         <v>669</v>
       </c>
-      <c r="C85" s="1" t="s">
+      <c r="D85" t="s">
         <v>670</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" t="s">
         <v>671</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="F85" t="s">
         <v>672</v>
       </c>
-      <c r="F85" s="1" t="s">
+      <c r="G85" t="s">
         <v>673</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="H85" t="s">
         <v>674</v>
       </c>
-      <c r="H85" s="1" t="s">
+      <c r="I85" t="s">
+        <v>16</v>
+      </c>
+      <c r="J85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>675</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="B86" t="s">
         <v>676</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="C86" t="s">
         <v>677</v>
       </c>
-      <c r="C86" s="1" t="s">
+      <c r="D86" t="s">
         <v>678</v>
       </c>
-      <c r="D86" s="1" t="s">
+      <c r="E86" t="s">
         <v>679</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="F86" t="s">
         <v>680</v>
       </c>
-      <c r="F86" s="1" t="s">
+      <c r="G86" t="s">
         <v>681</v>
       </c>
-      <c r="G86" s="1" t="s">
+      <c r="H86" t="s">
         <v>682</v>
       </c>
-      <c r="H86" s="1" t="s">
+      <c r="I86" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>683</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="B87" t="s">
         <v>684</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" t="s">
         <v>685</v>
       </c>
-      <c r="C87" s="1" t="s">
+      <c r="D87" t="s">
         <v>686</v>
       </c>
-      <c r="D87" s="1" t="s">
+      <c r="E87" t="s">
         <v>687</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="F87" t="s">
         <v>688</v>
       </c>
-      <c r="F87" s="1" t="s">
+      <c r="G87" t="s">
         <v>689</v>
       </c>
-      <c r="G87" s="1" t="s">
+      <c r="H87" t="s">
         <v>690</v>
       </c>
-      <c r="H87" s="1" t="s">
+      <c r="I87" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>691</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+      <c r="B88" t="s">
         <v>692</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="C88" t="s">
         <v>693</v>
       </c>
-      <c r="C88" s="1" t="s">
+      <c r="D88" t="s">
         <v>694</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="E88" t="s">
         <v>695</v>
       </c>
-      <c r="E88" s="1" t="s">
+      <c r="F88" t="s">
         <v>696</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="G88" t="s">
         <v>697</v>
       </c>
-      <c r="G88" s="1" t="s">
+      <c r="H88" t="s">
         <v>698</v>
       </c>
-      <c r="H88" s="1" t="s">
+      <c r="I88" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>699</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="B89" t="s">
         <v>700</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" t="s">
         <v>701</v>
       </c>
-      <c r="C89" s="1" t="s">
+      <c r="D89" t="s">
         <v>702</v>
       </c>
-      <c r="D89" s="1" t="s">
+      <c r="E89" t="s">
         <v>703</v>
       </c>
-      <c r="E89" s="1" t="s">
+      <c r="F89" t="s">
         <v>704</v>
       </c>
-      <c r="F89" s="1" t="s">
+      <c r="G89" t="s">
         <v>705</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="H89" t="s">
         <v>706</v>
       </c>
-      <c r="H89" s="1" t="s">
+      <c r="I89" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
         <v>707</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+      <c r="B90" t="s">
         <v>708</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="C90" t="s">
         <v>709</v>
       </c>
-      <c r="C90" s="1" t="s">
+      <c r="D90" t="s">
         <v>710</v>
       </c>
-      <c r="D90" s="1" t="s">
+      <c r="E90" t="s">
         <v>711</v>
       </c>
-      <c r="E90" s="1" t="s">
+      <c r="F90" t="s">
         <v>712</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="G90" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" t="s">
         <v>713</v>
       </c>
-      <c r="G90" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H90" s="1" t="s">
+      <c r="I90" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>714</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="B91" t="s">
         <v>715</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="C91" t="s">
         <v>716</v>
       </c>
-      <c r="C91" s="1" t="s">
+      <c r="D91" t="s">
         <v>717</v>
       </c>
-      <c r="D91" s="1" t="s">
+      <c r="E91" t="s">
         <v>718</v>
       </c>
-      <c r="E91" s="1" t="s">
+      <c r="F91" t="s">
         <v>719</v>
       </c>
-      <c r="F91" s="1" t="s">
+      <c r="G91" t="s">
         <v>720</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="H91" t="s">
         <v>721</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="I91" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>722</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+      <c r="B92" t="s">
+        <v>94</v>
+      </c>
+      <c r="C92" t="s">
         <v>723</v>
       </c>
-      <c r="B92" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C92" s="1" t="s">
+      <c r="D92" t="s">
+        <v>96</v>
+      </c>
+      <c r="E92" t="s">
+        <v>97</v>
+      </c>
+      <c r="F92" t="s">
         <v>724</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="F92" s="1" t="s">
+      <c r="G92" t="s">
         <v>725</v>
       </c>
-      <c r="G92" s="1" t="s">
+      <c r="H92" t="s">
         <v>726</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="I92" t="s">
+        <v>16</v>
+      </c>
+      <c r="J92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>727</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+      <c r="B93" t="s">
         <v>728</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" t="s">
         <v>729</v>
       </c>
-      <c r="C93" s="1" t="s">
+      <c r="D93" t="s">
         <v>730</v>
       </c>
-      <c r="D93" s="1" t="s">
+      <c r="E93" t="s">
         <v>731</v>
       </c>
-      <c r="E93" s="1" t="s">
+      <c r="F93" t="s">
         <v>732</v>
       </c>
-      <c r="F93" s="1" t="s">
+      <c r="G93" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" t="s">
         <v>733</v>
       </c>
-      <c r="G93" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H93" s="1" t="s">
+      <c r="I93" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>734</v>
       </c>
-      <c r="I93" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="B94" t="s">
         <v>735</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" t="s">
         <v>736</v>
       </c>
-      <c r="C94" s="1" t="s">
+      <c r="D94" t="s">
         <v>737</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" t="s">
         <v>738</v>
       </c>
-      <c r="E94" s="1" t="s">
+      <c r="F94" t="s">
         <v>739</v>
       </c>
-      <c r="F94" s="1" t="s">
+      <c r="G94" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" t="s">
         <v>740</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H94" s="1" t="s">
+      <c r="I94" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>741</v>
       </c>
-      <c r="I94" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="B95" t="s">
         <v>742</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="C95" t="s">
         <v>743</v>
       </c>
-      <c r="C95" s="1" t="s">
+      <c r="D95" t="s">
         <v>744</v>
       </c>
-      <c r="D95" s="1" t="s">
+      <c r="E95" t="s">
         <v>745</v>
       </c>
-      <c r="E95" s="1" t="s">
+      <c r="F95" t="s">
         <v>746</v>
       </c>
-      <c r="F95" s="1" t="s">
+      <c r="G95" t="s">
         <v>747</v>
       </c>
-      <c r="G95" s="1" t="s">
+      <c r="H95" t="s">
         <v>748</v>
       </c>
-      <c r="H95" s="1" t="s">
+      <c r="I95" t="s">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>749</v>
       </c>
-      <c r="I95" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+      <c r="B96" t="s">
         <v>750</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="C96" t="s">
         <v>751</v>
       </c>
-      <c r="C96" s="1" t="s">
+      <c r="D96" t="s">
         <v>752</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" t="s">
         <v>753</v>
       </c>
-      <c r="E96" s="1" t="s">
+      <c r="F96" t="s">
         <v>754</v>
       </c>
-      <c r="F96" s="1" t="s">
+      <c r="G96" t="s">
         <v>755</v>
       </c>
-      <c r="G96" s="1" t="s">
+      <c r="H96" t="s">
         <v>756</v>
       </c>
-      <c r="H96" s="1" t="s">
+      <c r="I96" t="s">
+        <v>17</v>
+      </c>
+      <c r="J96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
         <v>757</v>
       </c>
-      <c r="I96" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="B97" t="s">
         <v>758</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" t="s">
         <v>759</v>
       </c>
-      <c r="C97" s="1" t="s">
+      <c r="D97" t="s">
         <v>760</v>
       </c>
-      <c r="D97" s="1" t="s">
+      <c r="E97" t="s">
         <v>761</v>
       </c>
-      <c r="E97" s="1" t="s">
+      <c r="F97" t="s">
         <v>762</v>
       </c>
-      <c r="F97" s="1" t="s">
+      <c r="G97" t="s">
+        <v>16</v>
+      </c>
+      <c r="H97" t="s">
+        <v>756</v>
+      </c>
+      <c r="I97" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
         <v>763</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>757</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="B98" t="s">
         <v>764</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="C98" t="s">
         <v>765</v>
       </c>
-      <c r="C98" s="1" t="s">
+      <c r="D98" t="s">
         <v>766</v>
       </c>
-      <c r="D98" s="1" t="s">
+      <c r="E98" t="s">
         <v>767</v>
       </c>
-      <c r="E98" s="1" t="s">
+      <c r="F98" t="s">
         <v>768</v>
       </c>
-      <c r="F98" s="1" t="s">
+      <c r="G98" t="s">
         <v>769</v>
       </c>
-      <c r="G98" s="1" t="s">
+      <c r="H98" t="s">
         <v>770</v>
       </c>
-      <c r="H98" s="1" t="s">
+      <c r="I98" t="s">
+        <v>17</v>
+      </c>
+      <c r="J98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
         <v>771</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="B99" t="s">
         <v>772</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" t="s">
         <v>773</v>
       </c>
-      <c r="C99" s="1" t="s">
+      <c r="D99" t="s">
         <v>774</v>
       </c>
-      <c r="D99" s="1" t="s">
+      <c r="E99" t="s">
         <v>775</v>
       </c>
-      <c r="E99" s="1" t="s">
+      <c r="F99" t="s">
         <v>776</v>
       </c>
-      <c r="F99" s="1" t="s">
+      <c r="G99" t="s">
         <v>777</v>
       </c>
-      <c r="G99" s="1" t="s">
+      <c r="H99" t="s">
         <v>778</v>
       </c>
-      <c r="H99" s="1" t="s">
+      <c r="I99" t="s">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>779</v>
       </c>
-      <c r="I99" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="B100" t="s">
         <v>780</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="C100" t="s">
+        <v>701</v>
+      </c>
+      <c r="D100" t="s">
         <v>781</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>702</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="E100" t="s">
         <v>782</v>
       </c>
-      <c r="E100" s="1" t="s">
+      <c r="F100" t="s">
         <v>783</v>
       </c>
-      <c r="F100" s="1" t="s">
+      <c r="G100" t="s">
         <v>784</v>
       </c>
-      <c r="G100" s="1" t="s">
+      <c r="H100" t="s">
         <v>785</v>
       </c>
-      <c r="H100" s="1" t="s">
+      <c r="I100" t="s">
+        <v>17</v>
+      </c>
+      <c r="J100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>786</v>
       </c>
-      <c r="I100" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+      <c r="B101" t="s">
         <v>787</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="C101" t="s">
         <v>788</v>
       </c>
-      <c r="C101" s="1" t="s">
+      <c r="D101" t="s">
         <v>789</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" t="s">
         <v>790</v>
       </c>
-      <c r="E101" s="1" t="s">
+      <c r="F101" t="s">
         <v>791</v>
       </c>
-      <c r="F101" s="1" t="s">
+      <c r="G101" t="s">
         <v>792</v>
       </c>
-      <c r="G101" s="1" t="s">
+      <c r="H101" t="s">
         <v>793</v>
       </c>
-      <c r="H101" s="1" t="s">
+      <c r="I101" t="s">
+        <v>17</v>
+      </c>
+      <c r="J101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
         <v>794</v>
       </c>
-      <c r="I101" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+      <c r="B102" t="s">
         <v>795</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="C102" t="s">
         <v>796</v>
       </c>
-      <c r="C102" s="1" t="s">
+      <c r="D102" t="s">
         <v>797</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" t="s">
         <v>798</v>
       </c>
-      <c r="E102" s="1" t="s">
+      <c r="F102" t="s">
         <v>799</v>
       </c>
-      <c r="F102" s="1" t="s">
+      <c r="G102" t="s">
         <v>800</v>
       </c>
-      <c r="G102" s="1" t="s">
+      <c r="H102" t="s">
         <v>801</v>
       </c>
-      <c r="H102" s="1" t="s">
+      <c r="I102" t="s">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
         <v>802</v>
       </c>
-      <c r="I102" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+      <c r="B103" t="s">
         <v>803</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="C103" t="s">
         <v>804</v>
       </c>
-      <c r="C103" s="1" t="s">
+      <c r="D103" t="s">
         <v>805</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" t="s">
         <v>806</v>
       </c>
-      <c r="E103" s="1" t="s">
+      <c r="F103" t="s">
         <v>807</v>
       </c>
-      <c r="F103" s="1" t="s">
+      <c r="G103" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" t="s">
         <v>808</v>
       </c>
-      <c r="G103" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H103" s="1" t="s">
+      <c r="I103" t="s">
+        <v>16</v>
+      </c>
+      <c r="J103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>809</v>
       </c>
-      <c r="I103" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+      <c r="B104" t="s">
         <v>810</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="C104" t="s">
         <v>811</v>
       </c>
-      <c r="C104" s="1" t="s">
+      <c r="D104" t="s">
         <v>812</v>
       </c>
-      <c r="D104" s="1" t="s">
+      <c r="E104" t="s">
         <v>813</v>
       </c>
-      <c r="E104" s="1" t="s">
+      <c r="F104" t="s">
         <v>814</v>
       </c>
-      <c r="F104" s="1" t="s">
+      <c r="G104" t="s">
         <v>815</v>
       </c>
-      <c r="G104" s="1" t="s">
+      <c r="H104" t="s">
         <v>816</v>
       </c>
-      <c r="H104" s="1" t="s">
+      <c r="I104" t="s">
+        <v>16</v>
+      </c>
+      <c r="J104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
         <v>817</v>
       </c>
-      <c r="I104" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+      <c r="B105" t="s">
         <v>818</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="C105" t="s">
         <v>819</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="D105" t="s">
         <v>820</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" t="s">
         <v>821</v>
       </c>
-      <c r="E105" s="1" t="s">
+      <c r="F105" t="s">
         <v>822</v>
       </c>
-      <c r="F105" s="1" t="s">
+      <c r="G105" t="s">
         <v>823</v>
       </c>
-      <c r="G105" s="1" t="s">
+      <c r="H105" t="s">
         <v>824</v>
       </c>
-      <c r="H105" s="1" t="s">
+      <c r="I105" t="s">
+        <v>17</v>
+      </c>
+      <c r="J105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
         <v>825</v>
       </c>
-      <c r="I105" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+      <c r="B106" t="s">
         <v>826</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="C106" t="s">
         <v>827</v>
       </c>
-      <c r="C106" s="1" t="s">
+      <c r="D106" t="s">
         <v>828</v>
       </c>
-      <c r="D106" s="1" t="s">
+      <c r="E106" t="s">
         <v>829</v>
       </c>
-      <c r="E106" s="1" t="s">
+      <c r="F106" t="s">
         <v>830</v>
       </c>
-      <c r="F106" s="1" t="s">
+      <c r="G106" t="s">
         <v>831</v>
       </c>
-      <c r="G106" s="1" t="s">
+      <c r="H106" t="s">
         <v>832</v>
       </c>
-      <c r="H106" s="1" t="s">
+      <c r="I106" t="s">
+        <v>16</v>
+      </c>
+      <c r="J106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
         <v>833</v>
       </c>
-      <c r="I106" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
+      <c r="B107" t="s">
         <v>834</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="C107" t="s">
         <v>835</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="D107" t="s">
         <v>836</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="E107" t="s">
         <v>837</v>
       </c>
-      <c r="E107" s="1" t="s">
+      <c r="F107" t="s">
         <v>838</v>
       </c>
-      <c r="F107" s="1" t="s">
+      <c r="G107" t="s">
         <v>839</v>
       </c>
-      <c r="G107" s="1" t="s">
+      <c r="H107" t="s">
         <v>840</v>
       </c>
-      <c r="H107" s="1" t="s">
+      <c r="I107" t="s">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
         <v>841</v>
       </c>
-      <c r="I107" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+      <c r="B108" t="s">
         <v>842</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="C108" t="s">
         <v>843</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="D108" t="s">
         <v>844</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="E108" t="s">
         <v>845</v>
       </c>
-      <c r="E108" s="1" t="s">
+      <c r="F108" t="s">
         <v>846</v>
       </c>
-      <c r="F108" s="1" t="s">
+      <c r="G108" t="s">
         <v>847</v>
       </c>
-      <c r="G108" s="1" t="s">
+      <c r="H108" t="s">
         <v>848</v>
       </c>
-      <c r="H108" s="1" t="s">
+      <c r="I108" t="s">
+        <v>16</v>
+      </c>
+      <c r="J108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
         <v>849</v>
       </c>
-      <c r="I108" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
+      <c r="B109" t="s">
         <v>850</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="C109" t="s">
         <v>851</v>
       </c>
-      <c r="C109" s="1" t="s">
+      <c r="D109" t="s">
         <v>852</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" t="s">
         <v>853</v>
       </c>
-      <c r="E109" s="1" t="s">
+      <c r="F109" t="s">
         <v>854</v>
       </c>
-      <c r="F109" s="1" t="s">
+      <c r="G109" t="s">
         <v>855</v>
       </c>
-      <c r="G109" s="1" t="s">
+      <c r="H109" t="s">
         <v>856</v>
       </c>
-      <c r="H109" s="1" t="s">
+      <c r="I109" t="s">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>857</v>
       </c>
-      <c r="I109" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+      <c r="B110" t="s">
         <v>858</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="C110" t="s">
         <v>859</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="D110" t="s">
         <v>860</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" t="s">
         <v>861</v>
       </c>
-      <c r="E110" s="1" t="s">
+      <c r="F110" t="s">
         <v>862</v>
       </c>
-      <c r="F110" s="1" t="s">
+      <c r="G110" t="s">
         <v>863</v>
       </c>
-      <c r="G110" s="1" t="s">
+      <c r="H110" t="s">
         <v>864</v>
       </c>
-      <c r="H110" s="1" t="s">
+      <c r="I110" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
         <v>865</v>
       </c>
-      <c r="I110" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+      <c r="B111" t="s">
         <v>866</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="C111" t="s">
         <v>867</v>
       </c>
-      <c r="C111" s="1" t="s">
+      <c r="D111" t="s">
         <v>868</v>
       </c>
-      <c r="D111" s="1" t="s">
+      <c r="E111" t="s">
         <v>869</v>
       </c>
-      <c r="E111" s="1" t="s">
+      <c r="F111" t="s">
         <v>870</v>
       </c>
-      <c r="F111" s="1" t="s">
+      <c r="G111" t="s">
         <v>871</v>
       </c>
-      <c r="G111" s="1" t="s">
+      <c r="H111" t="s">
+        <v>864</v>
+      </c>
+      <c r="I111" t="s">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
         <v>872</v>
       </c>
-      <c r="H111" s="1" t="s">
-        <v>865</v>
-      </c>
-      <c r="I111" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+      <c r="B112" t="s">
         <v>873</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="C112" t="s">
         <v>874</v>
       </c>
-      <c r="C112" s="1" t="s">
+      <c r="D112" t="s">
         <v>875</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="E112" t="s">
         <v>876</v>
       </c>
-      <c r="E112" s="1" t="s">
+      <c r="F112" t="s">
         <v>877</v>
       </c>
-      <c r="F112" s="1" t="s">
+      <c r="G112" t="s">
         <v>878</v>
       </c>
-      <c r="G112" s="1" t="s">
+      <c r="H112" t="s">
         <v>879</v>
       </c>
-      <c r="H112" s="1" t="s">
+      <c r="I112" t="s">
+        <v>17</v>
+      </c>
+      <c r="J112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>880</v>
       </c>
-      <c r="I112" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+      <c r="B113" t="s">
         <v>881</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="C113" t="s">
         <v>882</v>
       </c>
-      <c r="C113" s="1" t="s">
+      <c r="D113" t="s">
         <v>883</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="E113" t="s">
         <v>884</v>
       </c>
-      <c r="E113" s="1" t="s">
+      <c r="F113" t="s">
         <v>885</v>
       </c>
-      <c r="F113" s="1" t="s">
+      <c r="G113" t="s">
         <v>886</v>
       </c>
-      <c r="G113" s="1" t="s">
+      <c r="H113" t="s">
         <v>887</v>
       </c>
-      <c r="H113" s="1" t="s">
+      <c r="I113" t="s">
+        <v>17</v>
+      </c>
+      <c r="J113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
         <v>888</v>
       </c>
-      <c r="I113" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+      <c r="B114" t="s">
         <v>889</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="C114" t="s">
         <v>890</v>
       </c>
-      <c r="C114" s="1" t="s">
+      <c r="D114" t="s">
         <v>891</v>
       </c>
-      <c r="D114" s="1" t="s">
+      <c r="E114" t="s">
         <v>892</v>
       </c>
-      <c r="E114" s="1" t="s">
+      <c r="F114" t="s">
         <v>893</v>
       </c>
-      <c r="F114" s="1" t="s">
+      <c r="G114" t="s">
         <v>894</v>
       </c>
-      <c r="G114" s="1" t="s">
+      <c r="H114" t="s">
         <v>895</v>
       </c>
-      <c r="H114" s="1" t="s">
+      <c r="I114" t="s">
+        <v>17</v>
+      </c>
+      <c r="J114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
         <v>896</v>
       </c>
-      <c r="I114" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+      <c r="B115" t="s">
         <v>897</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="C115" t="s">
         <v>898</v>
       </c>
-      <c r="C115" s="1" t="s">
+      <c r="D115" t="s">
         <v>899</v>
       </c>
-      <c r="D115" s="1" t="s">
+      <c r="E115" t="s">
         <v>900</v>
       </c>
-      <c r="E115" s="1" t="s">
+      <c r="F115" t="s">
         <v>901</v>
       </c>
-      <c r="F115" s="1" t="s">
+      <c r="G115" t="s">
         <v>902</v>
       </c>
-      <c r="G115" s="1" t="s">
+      <c r="H115" t="s">
         <v>903</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="I115" t="s">
+        <v>17</v>
+      </c>
+      <c r="J115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>904</v>
       </c>
-      <c r="I115" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+      <c r="B116" t="s">
         <v>905</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="C116" t="s">
         <v>906</v>
       </c>
-      <c r="C116" s="1" t="s">
+      <c r="D116" t="s">
         <v>907</v>
       </c>
-      <c r="D116" s="1" t="s">
+      <c r="E116" t="s">
         <v>908</v>
       </c>
-      <c r="E116" s="1" t="s">
+      <c r="F116" t="s">
         <v>909</v>
       </c>
-      <c r="F116" s="1" t="s">
+      <c r="G116" t="s">
         <v>910</v>
       </c>
-      <c r="G116" s="1" t="s">
+      <c r="H116" t="s">
         <v>911</v>
       </c>
-      <c r="H116" s="1" t="s">
+      <c r="I116" t="s">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>912</v>
       </c>
-      <c r="I116" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+      <c r="B117" t="s">
         <v>913</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="C117" t="s">
         <v>914</v>
       </c>
-      <c r="C117" s="1" t="s">
+      <c r="D117" t="s">
         <v>915</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="E117" t="s">
         <v>916</v>
       </c>
-      <c r="E117" s="1" t="s">
+      <c r="F117" t="s">
         <v>917</v>
       </c>
-      <c r="F117" s="1" t="s">
+      <c r="G117" t="s">
         <v>918</v>
       </c>
-      <c r="G117" s="1" t="s">
+      <c r="H117" t="s">
         <v>919</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="I117" t="s">
+        <v>16</v>
+      </c>
+      <c r="J117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>920</v>
       </c>
-      <c r="I117" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+      <c r="B118" t="s">
         <v>921</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="C118" t="s">
         <v>922</v>
       </c>
-      <c r="C118" s="1" t="s">
+      <c r="D118" t="s">
         <v>923</v>
       </c>
-      <c r="D118" s="1" t="s">
+      <c r="E118" t="s">
         <v>924</v>
       </c>
-      <c r="E118" s="1" t="s">
+      <c r="F118" t="s">
         <v>925</v>
       </c>
-      <c r="F118" s="1" t="s">
+      <c r="G118" t="s">
         <v>926</v>
       </c>
-      <c r="G118" s="1" t="s">
+      <c r="H118" t="s">
         <v>927</v>
       </c>
-      <c r="H118" s="1" t="s">
+      <c r="I118" t="s">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>928</v>
       </c>
-      <c r="I118" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+      <c r="B119" t="s">
         <v>929</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="C119" t="s">
         <v>930</v>
       </c>
-      <c r="C119" s="1" t="s">
+      <c r="D119" t="s">
         <v>931</v>
       </c>
-      <c r="D119" s="1" t="s">
+      <c r="E119" t="s">
         <v>932</v>
       </c>
-      <c r="E119" s="1" t="s">
+      <c r="F119" t="s">
         <v>933</v>
       </c>
-      <c r="F119" s="1" t="s">
+      <c r="G119" t="s">
         <v>934</v>
       </c>
-      <c r="G119" s="1" t="s">
+      <c r="H119" t="s">
         <v>935</v>
       </c>
-      <c r="H119" s="1" t="s">
+      <c r="I119" t="s">
+        <v>17</v>
+      </c>
+      <c r="J119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
         <v>936</v>
       </c>
-      <c r="I119" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+      <c r="B120" t="s">
         <v>937</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="C120" t="s">
         <v>938</v>
       </c>
-      <c r="C120" s="1" t="s">
+      <c r="D120" t="s">
         <v>939</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" t="s">
         <v>940</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="F120" t="s">
         <v>941</v>
       </c>
-      <c r="F120" s="1" t="s">
+      <c r="G120" t="s">
         <v>942</v>
       </c>
-      <c r="G120" s="1" t="s">
+      <c r="H120" t="s">
         <v>943</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="I120" t="s">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
         <v>944</v>
       </c>
-      <c r="I120" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+      <c r="B121" t="s">
         <v>945</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="C121" t="s">
         <v>946</v>
       </c>
-      <c r="C121" s="1" t="s">
+      <c r="D121" t="s">
         <v>947</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="E121" t="s">
         <v>948</v>
       </c>
-      <c r="E121" s="1" t="s">
+      <c r="F121" t="s">
         <v>949</v>
       </c>
-      <c r="F121" s="1" t="s">
+      <c r="G121" t="s">
         <v>950</v>
       </c>
-      <c r="G121" s="1" t="s">
+      <c r="H121" t="s">
         <v>951</v>
       </c>
-      <c r="H121" s="1" t="s">
+      <c r="I121" t="s">
+        <v>17</v>
+      </c>
+      <c r="J121" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
         <v>952</v>
       </c>
-      <c r="I121" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+      <c r="B122" t="s">
         <v>953</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="C122" t="s">
         <v>954</v>
       </c>
-      <c r="C122" s="1" t="s">
+      <c r="D122" t="s">
         <v>955</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="E122" t="s">
         <v>956</v>
       </c>
-      <c r="E122" s="1" t="s">
+      <c r="F122" t="s">
         <v>957</v>
       </c>
-      <c r="F122" s="1" t="s">
+      <c r="G122" t="s">
         <v>958</v>
       </c>
-      <c r="G122" s="1" t="s">
+      <c r="H122" t="s">
         <v>959</v>
       </c>
-      <c r="H122" s="1" t="s">
+      <c r="I122" t="s">
+        <v>17</v>
+      </c>
+      <c r="J122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
         <v>960</v>
       </c>
-      <c r="I122" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
+      <c r="B123" t="s">
         <v>961</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="C123" t="s">
         <v>962</v>
       </c>
-      <c r="C123" s="1" t="s">
+      <c r="D123" t="s">
         <v>963</v>
       </c>
-      <c r="D123" s="1" t="s">
+      <c r="E123" t="s">
         <v>964</v>
       </c>
-      <c r="E123" s="1" t="s">
+      <c r="F123" t="s">
         <v>965</v>
       </c>
-      <c r="F123" s="1" t="s">
+      <c r="G123" t="s">
         <v>966</v>
       </c>
-      <c r="G123" s="1" t="s">
+      <c r="H123" t="s">
         <v>967</v>
       </c>
-      <c r="H123" s="1" t="s">
+      <c r="I123" t="s">
+        <v>16</v>
+      </c>
+      <c r="J123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
         <v>968</v>
       </c>
-      <c r="I123" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
+      <c r="B124" t="s">
         <v>969</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="C124" t="s">
         <v>970</v>
       </c>
-      <c r="C124" s="1" t="s">
+      <c r="D124" t="s">
         <v>971</v>
       </c>
-      <c r="D124" s="1" t="s">
+      <c r="E124" t="s">
         <v>972</v>
       </c>
-      <c r="E124" s="1" t="s">
+      <c r="F124" t="s">
         <v>973</v>
       </c>
-      <c r="F124" s="1" t="s">
+      <c r="G124" t="s">
         <v>974</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="H124" t="s">
         <v>975</v>
       </c>
-      <c r="H124" s="1" t="s">
+      <c r="I124" t="s">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
         <v>976</v>
       </c>
-      <c r="I124" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
+      <c r="B125" t="s">
         <v>977</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="C125" t="s">
         <v>978</v>
       </c>
-      <c r="C125" s="1" t="s">
+      <c r="D125" t="s">
         <v>979</v>
       </c>
-      <c r="D125" s="1" t="s">
+      <c r="E125" t="s">
         <v>980</v>
       </c>
-      <c r="E125" s="1" t="s">
+      <c r="F125" t="s">
         <v>981</v>
       </c>
-      <c r="F125" s="1" t="s">
+      <c r="G125" t="s">
         <v>982</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="H125" t="s">
         <v>983</v>
       </c>
-      <c r="H125" s="1" t="s">
+      <c r="I125" t="s">
+        <v>16</v>
+      </c>
+      <c r="J125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
         <v>984</v>
       </c>
-      <c r="I125" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+      <c r="B126" t="s">
         <v>985</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="C126" t="s">
         <v>986</v>
       </c>
-      <c r="C126" s="1" t="s">
+      <c r="D126" t="s">
         <v>987</v>
       </c>
-      <c r="D126" s="1" t="s">
+      <c r="E126" t="s">
         <v>988</v>
       </c>
-      <c r="E126" s="1" t="s">
+      <c r="F126" t="s">
         <v>989</v>
       </c>
-      <c r="F126" s="1" t="s">
+      <c r="G126" t="s">
         <v>990</v>
       </c>
-      <c r="G126" s="1" t="s">
+      <c r="H126" t="s">
         <v>991</v>
       </c>
-      <c r="H126" s="1" t="s">
+      <c r="I126" t="s">
+        <v>17</v>
+      </c>
+      <c r="J126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
         <v>992</v>
       </c>
-      <c r="I126" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+      <c r="B127" t="s">
         <v>993</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" t="s">
         <v>994</v>
       </c>
-      <c r="C127" s="1" t="s">
+      <c r="D127" t="s">
         <v>995</v>
       </c>
-      <c r="D127" s="1" t="s">
+      <c r="E127" t="s">
         <v>996</v>
       </c>
-      <c r="E127" s="1" t="s">
+      <c r="F127" t="s">
         <v>997</v>
       </c>
-      <c r="F127" s="1" t="s">
+      <c r="G127" t="s">
         <v>998</v>
       </c>
-      <c r="G127" s="1" t="s">
+      <c r="H127" t="s">
         <v>999</v>
       </c>
-      <c r="H127" s="1" t="s">
+      <c r="I127" t="s">
+        <v>17</v>
+      </c>
+      <c r="J127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
         <v>1000</v>
       </c>
-      <c r="I127" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
+      <c r="B128" t="s">
         <v>1001</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" t="s">
         <v>1002</v>
       </c>
-      <c r="C128" s="1" t="s">
+      <c r="D128" t="s">
         <v>1003</v>
       </c>
-      <c r="D128" s="1" t="s">
+      <c r="E128" t="s">
         <v>1004</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="F128" t="s">
         <v>1005</v>
       </c>
-      <c r="F128" s="1" t="s">
+      <c r="G128" t="s">
+        <v>16</v>
+      </c>
+      <c r="H128" t="s">
         <v>1006</v>
       </c>
-      <c r="G128" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H128" s="1" t="s">
+      <c r="I128" t="s">
+        <v>17</v>
+      </c>
+      <c r="J128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
         <v>1007</v>
       </c>
-      <c r="I128" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
+      <c r="B129" t="s">
         <v>1008</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="C129" t="s">
         <v>1009</v>
       </c>
-      <c r="C129" s="1" t="s">
+      <c r="D129" t="s">
         <v>1010</v>
       </c>
-      <c r="D129" s="1" t="s">
+      <c r="E129" t="s">
         <v>1011</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="F129" t="s">
         <v>1012</v>
       </c>
-      <c r="F129" s="1" t="s">
+      <c r="G129" t="s">
         <v>1013</v>
       </c>
-      <c r="G129" s="1" t="s">
+      <c r="H129" t="s">
         <v>1014</v>
       </c>
-      <c r="H129" s="1" t="s">
+      <c r="I129" t="s">
+        <v>16</v>
+      </c>
+      <c r="J129" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
         <v>1015</v>
       </c>
-      <c r="I129" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
+      <c r="B130" t="s">
         <v>1016</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="C130" t="s">
         <v>1017</v>
       </c>
-      <c r="C130" s="1" t="s">
+      <c r="D130" t="s">
         <v>1018</v>
       </c>
-      <c r="D130" s="1" t="s">
+      <c r="E130" t="s">
         <v>1019</v>
       </c>
-      <c r="E130" s="1" t="s">
+      <c r="F130" t="s">
         <v>1020</v>
       </c>
-      <c r="F130" s="1" t="s">
+      <c r="G130" t="s">
         <v>1021</v>
       </c>
-      <c r="G130" s="1" t="s">
+      <c r="H130" t="s">
         <v>1022</v>
       </c>
-      <c r="H130" s="1" t="s">
+      <c r="I130" t="s">
+        <v>17</v>
+      </c>
+      <c r="J130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
         <v>1023</v>
       </c>
-      <c r="I130" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
+      <c r="B131" t="s">
         <v>1024</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="C131" t="s">
         <v>1025</v>
       </c>
-      <c r="C131" s="1" t="s">
+      <c r="D131" t="s">
         <v>1026</v>
       </c>
-      <c r="D131" s="1" t="s">
+      <c r="E131" t="s">
         <v>1027</v>
       </c>
-      <c r="E131" s="1" t="s">
+      <c r="F131" t="s">
         <v>1028</v>
       </c>
-      <c r="F131" s="1" t="s">
+      <c r="G131" t="s">
         <v>1029</v>
       </c>
-      <c r="G131" s="1" t="s">
+      <c r="H131" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I131" t="s">
+        <v>17</v>
+      </c>
+      <c r="J131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
         <v>1030</v>
       </c>
-      <c r="H131" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="I131" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
+      <c r="B132" t="s">
         <v>1031</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="C132" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D132" t="s">
         <v>1032</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D132" s="1" t="s">
+      <c r="E132" t="s">
+        <v>233</v>
+      </c>
+      <c r="F132" t="s">
         <v>1033</v>
       </c>
-      <c r="E132" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="F132" s="1" t="s">
+      <c r="G132" t="s">
         <v>1034</v>
       </c>
-      <c r="G132" s="1" t="s">
+      <c r="H132" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I132" t="s">
+        <v>17</v>
+      </c>
+      <c r="J132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
         <v>1035</v>
       </c>
-      <c r="H132" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="I132" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
+      <c r="B133" t="s">
         <v>1036</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="C133" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D133" t="s">
         <v>1037</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D133" s="1" t="s">
+      <c r="E133" t="s">
         <v>1038</v>
       </c>
-      <c r="E133" s="1" t="s">
+      <c r="F133" t="s">
         <v>1039</v>
       </c>
-      <c r="F133" s="1" t="s">
+      <c r="G133" t="s">
         <v>1040</v>
       </c>
-      <c r="G133" s="1" t="s">
+      <c r="H133" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I133" t="s">
+        <v>17</v>
+      </c>
+      <c r="J133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
         <v>1041</v>
       </c>
-      <c r="H133" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="I133" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
+      <c r="B134" t="s">
         <v>1042</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="C134" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D134" t="s">
         <v>1043</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D134" s="1" t="s">
+      <c r="E134" t="s">
         <v>1044</v>
       </c>
-      <c r="E134" s="1" t="s">
+      <c r="F134" t="s">
         <v>1045</v>
       </c>
-      <c r="F134" s="1" t="s">
+      <c r="G134" t="s">
         <v>1046</v>
       </c>
-      <c r="G134" s="1" t="s">
+      <c r="H134" t="s">
+        <v>1022</v>
+      </c>
+      <c r="I134" t="s">
+        <v>17</v>
+      </c>
+      <c r="J134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
         <v>1047</v>
       </c>
-      <c r="H134" s="1" t="s">
-        <v>1023</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
+      <c r="B135" t="s">
         <v>1048</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="C135" t="s">
         <v>1049</v>
       </c>
-      <c r="C135" s="1" t="s">
+      <c r="D135" t="s">
         <v>1050</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" t="s">
         <v>1051</v>
       </c>
-      <c r="E135" s="1" t="s">
+      <c r="F135" t="s">
         <v>1052</v>
       </c>
-      <c r="F135" s="1" t="s">
+      <c r="G135" t="s">
         <v>1053</v>
       </c>
-      <c r="G135" s="1" t="s">
+      <c r="H135" t="s">
         <v>1054</v>
       </c>
-      <c r="H135" s="1" t="s">
+      <c r="I135" t="s">
+        <v>16</v>
+      </c>
+      <c r="J135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
         <v>1055</v>
       </c>
-      <c r="I135" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
+      <c r="B136" t="s">
         <v>1056</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="C136" t="s">
         <v>1057</v>
       </c>
-      <c r="C136" s="1" t="s">
+      <c r="D136" t="s">
         <v>1058</v>
       </c>
-      <c r="D136" s="1" t="s">
+      <c r="E136" t="s">
         <v>1059</v>
       </c>
-      <c r="E136" s="1" t="s">
+      <c r="F136" t="s">
         <v>1060</v>
       </c>
-      <c r="F136" s="1" t="s">
+      <c r="G136" t="s">
         <v>1061</v>
       </c>
-      <c r="G136" s="1" t="s">
+      <c r="H136" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I136" t="s">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
         <v>1062</v>
       </c>
-      <c r="H136" s="1" t="s">
-        <v>1055</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
+      <c r="B137" t="s">
         <v>1063</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="C137" t="s">
         <v>1064</v>
       </c>
-      <c r="C137" s="1" t="s">
+      <c r="D137" t="s">
         <v>1065</v>
       </c>
-      <c r="D137" s="1" t="s">
+      <c r="E137" t="s">
         <v>1066</v>
       </c>
-      <c r="E137" s="1" t="s">
+      <c r="F137" t="s">
         <v>1067</v>
       </c>
-      <c r="F137" s="1" t="s">
+      <c r="G137" t="s">
         <v>1068</v>
       </c>
-      <c r="G137" s="1" t="s">
+      <c r="H137" t="s">
         <v>1069</v>
       </c>
-      <c r="H137" s="1" t="s">
+      <c r="I137" t="s">
+        <v>16</v>
+      </c>
+      <c r="J137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
         <v>1070</v>
       </c>
-      <c r="I137" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
+      <c r="B138" t="s">
         <v>1071</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="C138" t="s">
         <v>1072</v>
       </c>
-      <c r="C138" s="1" t="s">
+      <c r="D138" t="s">
         <v>1073</v>
       </c>
-      <c r="D138" s="1" t="s">
+      <c r="E138" t="s">
         <v>1074</v>
       </c>
-      <c r="E138" s="1" t="s">
+      <c r="F138" t="s">
         <v>1075</v>
       </c>
-      <c r="F138" s="1" t="s">
+      <c r="G138" t="s">
         <v>1076</v>
       </c>
-      <c r="G138" s="1" t="s">
+      <c r="H138" t="s">
         <v>1077</v>
       </c>
-      <c r="H138" s="1" t="s">
+      <c r="I138" t="s">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
         <v>1078</v>
       </c>
-      <c r="I138" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
+      <c r="B139" t="s">
+        <v>294</v>
+      </c>
+      <c r="C139" t="s">
         <v>1079</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C139" s="1" t="s">
+      <c r="D139" t="s">
+        <v>296</v>
+      </c>
+      <c r="E139" t="s">
+        <v>297</v>
+      </c>
+      <c r="F139" t="s">
         <v>1080</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F139" s="1" t="s">
+      <c r="G139" t="s">
         <v>1081</v>
       </c>
-      <c r="G139" s="1" t="s">
+      <c r="H139" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I139" t="s">
+        <v>16</v>
+      </c>
+      <c r="J139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
         <v>1082</v>
       </c>
-      <c r="H139" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="I139" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
+      <c r="B140" t="s">
         <v>1083</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="C140" t="s">
         <v>1084</v>
       </c>
-      <c r="C140" s="1" t="s">
+      <c r="D140" t="s">
         <v>1085</v>
       </c>
-      <c r="D140" s="1" t="s">
+      <c r="E140" t="s">
         <v>1086</v>
       </c>
-      <c r="E140" s="1" t="s">
+      <c r="F140" t="s">
         <v>1087</v>
       </c>
-      <c r="F140" s="1" t="s">
+      <c r="G140" t="s">
         <v>1088</v>
       </c>
-      <c r="G140" s="1" t="s">
+      <c r="H140" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I140" t="s">
+        <v>16</v>
+      </c>
+      <c r="J140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
         <v>1089</v>
       </c>
-      <c r="H140" s="1" t="s">
-        <v>1078</v>
-      </c>
-      <c r="I140" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
+      <c r="B141" t="s">
         <v>1090</v>
       </c>
-      <c r="B141" s="1" t="s">
-        <v>1523</v>
-      </c>
-      <c r="C141" s="1" t="s">
+      <c r="C141" t="s">
         <v>1091</v>
       </c>
-      <c r="D141" s="1" t="s">
-        <v>1051</v>
-      </c>
-      <c r="E141" s="1" t="s">
+      <c r="D141" t="s">
+        <v>1050</v>
+      </c>
+      <c r="E141" t="s">
         <v>1092</v>
       </c>
-      <c r="F141" s="1" t="s">
+      <c r="F141" t="s">
         <v>1093</v>
       </c>
-      <c r="G141" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H141" s="1" t="s">
+      <c r="G141" t="s">
+        <v>16</v>
+      </c>
+      <c r="H141" t="s">
         <v>1094</v>
       </c>
-      <c r="I141" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
+      <c r="I141" t="s">
+        <v>16</v>
+      </c>
+      <c r="J141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
         <v>1095</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" t="s">
         <v>1096</v>
       </c>
-      <c r="C142" s="1" t="s">
+      <c r="C142" t="s">
         <v>1097</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="D142" t="s">
         <v>1098</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="E142" t="s">
         <v>1099</v>
       </c>
-      <c r="F142" s="1" t="s">
+      <c r="F142" t="s">
         <v>1100</v>
       </c>
-      <c r="G142" s="1" t="s">
+      <c r="G142" t="s">
         <v>1101</v>
       </c>
-      <c r="H142" s="1" t="s">
+      <c r="H142" t="s">
         <v>1102</v>
       </c>
-      <c r="I142" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
+      <c r="I142" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
         <v>1103</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" t="s">
         <v>1104</v>
       </c>
-      <c r="C143" s="1" t="s">
+      <c r="C143" t="s">
         <v>1105</v>
       </c>
-      <c r="D143" s="1" t="s">
+      <c r="D143" t="s">
         <v>1106</v>
       </c>
-      <c r="E143" s="1" t="s">
+      <c r="E143" t="s">
         <v>1107</v>
       </c>
-      <c r="F143" s="1" t="s">
+      <c r="F143" t="s">
         <v>1108</v>
       </c>
-      <c r="G143" s="1" t="s">
+      <c r="G143" t="s">
         <v>1109</v>
       </c>
-      <c r="H143" s="1" t="s">
+      <c r="H143" t="s">
         <v>1110</v>
       </c>
-      <c r="I143" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
+      <c r="I143" t="s">
+        <v>17</v>
+      </c>
+      <c r="J143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
         <v>1111</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" t="s">
         <v>1112</v>
       </c>
-      <c r="C144" s="1" t="s">
+      <c r="C144" t="s">
         <v>1113</v>
       </c>
-      <c r="D144" s="1" t="s">
+      <c r="D144" t="s">
         <v>1114</v>
       </c>
-      <c r="E144" s="1" t="s">
+      <c r="E144" t="s">
         <v>1115</v>
       </c>
-      <c r="F144" s="1" t="s">
+      <c r="F144" t="s">
         <v>1116</v>
       </c>
-      <c r="G144" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H144" s="1" t="s">
+      <c r="G144" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144" t="s">
         <v>1117</v>
       </c>
-      <c r="I144" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
+      <c r="I144" t="s">
+        <v>17</v>
+      </c>
+      <c r="J144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
         <v>1118</v>
       </c>
-      <c r="B145" s="1" t="s">
-        <v>835</v>
-      </c>
-      <c r="C145" s="1" t="s">
+      <c r="B145" t="s">
+        <v>834</v>
+      </c>
+      <c r="C145" t="s">
         <v>1119</v>
       </c>
-      <c r="D145" s="1" t="s">
+      <c r="D145" t="s">
+        <v>836</v>
+      </c>
+      <c r="E145" t="s">
         <v>837</v>
       </c>
-      <c r="E145" s="1" t="s">
-        <v>838</v>
-      </c>
-      <c r="F145" s="1" t="s">
+      <c r="F145" t="s">
         <v>1120</v>
       </c>
-      <c r="G145" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H145" s="1" t="s">
+      <c r="G145" t="s">
+        <v>16</v>
+      </c>
+      <c r="H145" t="s">
         <v>1121</v>
       </c>
-      <c r="I145" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
+      <c r="I145" t="s">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>1122</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" t="s">
         <v>1123</v>
       </c>
-      <c r="C146" s="1" t="s">
+      <c r="C146" t="s">
         <v>1124</v>
       </c>
-      <c r="D146" s="1" t="s">
+      <c r="D146" t="s">
         <v>1125</v>
       </c>
-      <c r="E146" s="1" t="s">
+      <c r="E146" t="s">
         <v>1126</v>
       </c>
-      <c r="F146" s="1" t="s">
+      <c r="F146" t="s">
         <v>1127</v>
       </c>
-      <c r="G146" s="1" t="s">
+      <c r="G146" t="s">
         <v>1128</v>
       </c>
-      <c r="H146" s="1" t="s">
+      <c r="H146" t="s">
         <v>1129</v>
       </c>
-      <c r="I146" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
+      <c r="I146" t="s">
+        <v>16</v>
+      </c>
+      <c r="J146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>1130</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" t="s">
         <v>1131</v>
       </c>
-      <c r="C147" s="1" t="s">
+      <c r="C147" t="s">
         <v>1132</v>
       </c>
-      <c r="D147" s="1" t="s">
+      <c r="D147" t="s">
         <v>1133</v>
       </c>
-      <c r="E147" s="1" t="s">
+      <c r="E147" t="s">
         <v>1134</v>
       </c>
-      <c r="F147" s="1" t="s">
+      <c r="F147" t="s">
         <v>1135</v>
       </c>
-      <c r="G147" s="1" t="s">
+      <c r="G147" t="s">
         <v>1136</v>
       </c>
-      <c r="H147" s="1" t="s">
+      <c r="H147" t="s">
         <v>1137</v>
       </c>
-      <c r="I147" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
+      <c r="I147" t="s">
+        <v>17</v>
+      </c>
+      <c r="J147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
         <v>1138</v>
       </c>
-      <c r="B148" s="1" t="s">
+      <c r="B148" t="s">
         <v>1139</v>
       </c>
-      <c r="C148" s="1" t="s">
+      <c r="C148" t="s">
         <v>1140</v>
       </c>
-      <c r="D148" s="1" t="s">
+      <c r="D148" t="s">
         <v>1141</v>
       </c>
-      <c r="E148" s="1" t="s">
+      <c r="E148" t="s">
         <v>1142</v>
       </c>
-      <c r="F148" s="1" t="s">
+      <c r="F148" t="s">
         <v>1143</v>
       </c>
-      <c r="G148" s="1" t="s">
+      <c r="G148" t="s">
         <v>1144</v>
       </c>
-      <c r="H148" s="1" t="s">
+      <c r="H148" t="s">
         <v>1145</v>
       </c>
-      <c r="I148" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
+      <c r="I148" t="s">
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
         <v>1146</v>
       </c>
-      <c r="B149" s="1" t="s">
+      <c r="B149" t="s">
         <v>1147</v>
       </c>
-      <c r="C149" s="1" t="s">
+      <c r="C149" t="s">
         <v>1148</v>
       </c>
-      <c r="D149" s="1" t="s">
+      <c r="D149" t="s">
         <v>1149</v>
       </c>
-      <c r="E149" s="1" t="s">
+      <c r="E149" t="s">
         <v>1150</v>
       </c>
-      <c r="F149" s="1" t="s">
+      <c r="F149" t="s">
         <v>1151</v>
       </c>
-      <c r="G149" s="1" t="s">
+      <c r="G149" t="s">
         <v>1152</v>
       </c>
-      <c r="H149" s="1" t="s">
+      <c r="H149" t="s">
         <v>1153</v>
       </c>
-      <c r="I149" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
+      <c r="I149" t="s">
+        <v>16</v>
+      </c>
+      <c r="J149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
         <v>1154</v>
       </c>
-      <c r="B150" s="1" t="s">
+      <c r="B150" t="s">
         <v>1155</v>
       </c>
-      <c r="C150" s="1" t="s">
+      <c r="C150" t="s">
         <v>1156</v>
       </c>
-      <c r="D150" s="1" t="s">
+      <c r="D150" t="s">
         <v>1157</v>
       </c>
-      <c r="E150" s="1" t="s">
+      <c r="E150" t="s">
         <v>1158</v>
       </c>
-      <c r="F150" s="1" t="s">
+      <c r="F150" t="s">
         <v>1159</v>
       </c>
-      <c r="G150" s="1" t="s">
+      <c r="G150" t="s">
         <v>1160</v>
       </c>
-      <c r="H150" s="1" t="s">
+      <c r="H150" t="s">
         <v>1161</v>
       </c>
-      <c r="I150" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
+      <c r="I150" t="s">
+        <v>16</v>
+      </c>
+      <c r="J150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>1162</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="B151" t="s">
         <v>1163</v>
       </c>
-      <c r="C151" s="1" t="s">
+      <c r="C151" t="s">
         <v>1164</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="D151" t="s">
         <v>1165</v>
       </c>
-      <c r="E151" s="1" t="s">
+      <c r="E151" t="s">
         <v>1166</v>
       </c>
-      <c r="F151" s="1" t="s">
+      <c r="F151" t="s">
         <v>1167</v>
       </c>
-      <c r="G151" s="1" t="s">
+      <c r="G151" t="s">
         <v>1168</v>
       </c>
-      <c r="H151" s="1" t="s">
+      <c r="H151" t="s">
         <v>1169</v>
       </c>
-      <c r="I151" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
+      <c r="I151" t="s">
+        <v>17</v>
+      </c>
+      <c r="J151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
         <v>1170</v>
       </c>
-      <c r="B152" s="1" t="s">
+      <c r="B152" t="s">
         <v>1171</v>
       </c>
-      <c r="C152" s="1" t="s">
+      <c r="C152" t="s">
         <v>1172</v>
       </c>
-      <c r="D152" s="1" t="s">
+      <c r="D152" t="s">
         <v>1173</v>
       </c>
-      <c r="E152" s="1" t="s">
+      <c r="E152" t="s">
         <v>1174</v>
       </c>
-      <c r="F152" s="1" t="s">
+      <c r="F152" t="s">
         <v>1175</v>
       </c>
-      <c r="G152" s="1" t="s">
+      <c r="G152" t="s">
         <v>1176</v>
       </c>
-      <c r="H152" s="1" t="s">
+      <c r="H152" t="s">
         <v>1177</v>
       </c>
-      <c r="I152" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
+      <c r="I152" t="s">
+        <v>16</v>
+      </c>
+      <c r="J152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
         <v>1178</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="B153" t="s">
         <v>1179</v>
       </c>
-      <c r="C153" s="1" t="s">
+      <c r="C153" t="s">
         <v>1180</v>
       </c>
-      <c r="D153" s="1" t="s">
+      <c r="D153" t="s">
         <v>1181</v>
       </c>
-      <c r="E153" s="1" t="s">
+      <c r="E153" t="s">
         <v>1182</v>
       </c>
-      <c r="F153" s="1" t="s">
+      <c r="F153" t="s">
         <v>1183</v>
       </c>
-      <c r="G153" s="1" t="s">
+      <c r="G153" t="s">
         <v>1184</v>
       </c>
-      <c r="H153" s="1" t="s">
+      <c r="H153" t="s">
         <v>1185</v>
       </c>
-      <c r="I153" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
+      <c r="I153" t="s">
+        <v>16</v>
+      </c>
+      <c r="J153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
         <v>1186</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="B154" t="s">
         <v>1187</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D154" s="1" t="s">
+      <c r="C154" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D154" t="s">
         <v>1188</v>
       </c>
-      <c r="E154" s="1" t="s">
+      <c r="E154" t="s">
         <v>1189</v>
       </c>
-      <c r="F154" s="1" t="s">
+      <c r="F154" t="s">
         <v>1190</v>
       </c>
-      <c r="G154" s="1" t="s">
+      <c r="G154" t="s">
         <v>1191</v>
       </c>
-      <c r="H154" s="1" t="s">
+      <c r="H154" t="s">
         <v>1192</v>
       </c>
-      <c r="I154" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
+      <c r="I154" t="s">
+        <v>17</v>
+      </c>
+      <c r="J154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
         <v>1193</v>
       </c>
-      <c r="B155" s="1" t="s">
+      <c r="B155" t="s">
         <v>1194</v>
       </c>
-      <c r="C155" s="1" t="s">
+      <c r="C155" t="s">
         <v>1195</v>
       </c>
-      <c r="D155" s="1" t="s">
+      <c r="D155" t="s">
         <v>1196</v>
       </c>
-      <c r="E155" s="1" t="s">
+      <c r="E155" t="s">
         <v>1197</v>
       </c>
-      <c r="F155" s="1" t="s">
+      <c r="F155" t="s">
         <v>1198</v>
       </c>
-      <c r="G155" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H155" s="1" t="s">
+      <c r="G155" t="s">
+        <v>16</v>
+      </c>
+      <c r="H155" t="s">
         <v>1199</v>
       </c>
-      <c r="I155" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
+      <c r="I155" t="s">
+        <v>16</v>
+      </c>
+      <c r="J155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
         <v>1200</v>
       </c>
-      <c r="B156" s="1" t="s">
+      <c r="B156" t="s">
         <v>1201</v>
       </c>
-      <c r="C156" s="1" t="s">
+      <c r="C156" t="s">
         <v>1202</v>
       </c>
-      <c r="D156" s="1" t="s">
+      <c r="D156" t="s">
         <v>1203</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="E156" t="s">
         <v>1204</v>
       </c>
-      <c r="F156" s="1" t="s">
+      <c r="F156" t="s">
         <v>1205</v>
       </c>
-      <c r="G156" s="1" t="s">
+      <c r="G156" t="s">
         <v>1206</v>
       </c>
-      <c r="H156" s="1" t="s">
+      <c r="H156" t="s">
         <v>1207</v>
       </c>
-      <c r="I156" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
+      <c r="I156" t="s">
+        <v>17</v>
+      </c>
+      <c r="J156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
         <v>1208</v>
       </c>
-      <c r="B157" s="1" t="s">
+      <c r="B157" t="s">
         <v>1209</v>
       </c>
-      <c r="C157" s="1" t="s">
+      <c r="C157" t="s">
         <v>1210</v>
       </c>
-      <c r="D157" s="1" t="s">
+      <c r="D157" t="s">
         <v>1211</v>
       </c>
-      <c r="E157" s="1" t="s">
+      <c r="E157" t="s">
         <v>1212</v>
       </c>
-      <c r="F157" s="1" t="s">
+      <c r="F157" t="s">
         <v>1213</v>
       </c>
-      <c r="G157" s="1" t="s">
+      <c r="G157" t="s">
         <v>1214</v>
       </c>
-      <c r="H157" s="1" t="s">
+      <c r="H157" t="s">
         <v>1215</v>
       </c>
-      <c r="I157" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
+      <c r="I157" t="s">
+        <v>16</v>
+      </c>
+      <c r="J157" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
         <v>1216</v>
       </c>
-      <c r="B158" s="1" t="s">
+      <c r="B158" t="s">
         <v>1217</v>
       </c>
-      <c r="C158" s="1" t="s">
+      <c r="C158" t="s">
         <v>1218</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="D158" t="s">
         <v>1219</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="E158" t="s">
         <v>1220</v>
       </c>
-      <c r="F158" s="1" t="s">
+      <c r="F158" t="s">
         <v>1221</v>
       </c>
-      <c r="G158" s="1" t="s">
+      <c r="G158" t="s">
         <v>1222</v>
       </c>
-      <c r="H158" s="1" t="s">
+      <c r="H158" t="s">
         <v>1223</v>
       </c>
-      <c r="I158" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+      <c r="I158" t="s">
+        <v>17</v>
+      </c>
+      <c r="J158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
         <v>1224</v>
       </c>
-      <c r="B159" s="1" t="s">
+      <c r="B159" t="s">
         <v>1225</v>
       </c>
-      <c r="C159" s="1" t="s">
+      <c r="C159" t="s">
         <v>1226</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="D159" t="s">
         <v>1227</v>
       </c>
-      <c r="E159" s="1" t="s">
+      <c r="E159" t="s">
         <v>1228</v>
       </c>
-      <c r="F159" s="1" t="s">
+      <c r="F159" t="s">
         <v>1229</v>
       </c>
-      <c r="G159" s="1" t="s">
+      <c r="G159" t="s">
         <v>1230</v>
       </c>
-      <c r="H159" s="1" t="s">
+      <c r="H159" t="s">
         <v>1231</v>
       </c>
-      <c r="I159" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
+      <c r="I159" t="s">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
         <v>1232</v>
       </c>
-      <c r="B160" s="1" t="s">
+      <c r="B160" t="s">
         <v>1233</v>
       </c>
-      <c r="C160" s="1" t="s">
+      <c r="C160" t="s">
         <v>1234</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="D160" t="s">
         <v>1235</v>
       </c>
-      <c r="E160" s="1" t="s">
+      <c r="E160" t="s">
         <v>1236</v>
       </c>
-      <c r="F160" s="1" t="s">
+      <c r="F160" t="s">
         <v>1237</v>
       </c>
-      <c r="G160" s="1" t="s">
+      <c r="G160" t="s">
         <v>1238</v>
       </c>
-      <c r="H160" s="1" t="s">
+      <c r="H160" t="s">
         <v>1239</v>
       </c>
-      <c r="I160" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
+      <c r="I160" t="s">
+        <v>16</v>
+      </c>
+      <c r="J160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
         <v>1240</v>
       </c>
-      <c r="B161" s="1" t="s">
+      <c r="B161" t="s">
         <v>1241</v>
       </c>
-      <c r="C161" s="1" t="s">
+      <c r="C161" t="s">
         <v>1242</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="D161" t="s">
         <v>1243</v>
       </c>
-      <c r="E161" s="1" t="s">
+      <c r="E161" t="s">
         <v>1244</v>
       </c>
-      <c r="F161" s="1" t="s">
+      <c r="F161" t="s">
         <v>1245</v>
       </c>
-      <c r="G161" s="1" t="s">
+      <c r="G161" t="s">
         <v>1246</v>
       </c>
-      <c r="H161" s="1" t="s">
+      <c r="H161" t="s">
         <v>1247</v>
       </c>
-      <c r="I161" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
+      <c r="I161" t="s">
+        <v>16</v>
+      </c>
+      <c r="J161" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
         <v>1248</v>
       </c>
-      <c r="B162" s="1" t="s">
+      <c r="B162" t="s">
         <v>1249</v>
       </c>
-      <c r="C162" s="1" t="s">
+      <c r="C162" t="s">
         <v>1250</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="D162" t="s">
         <v>1251</v>
       </c>
-      <c r="E162" s="1" t="s">
+      <c r="E162" t="s">
         <v>1252</v>
       </c>
-      <c r="F162" s="1" t="s">
+      <c r="F162" t="s">
         <v>1253</v>
       </c>
-      <c r="G162" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H162" s="1" t="s">
+      <c r="G162" t="s">
+        <v>16</v>
+      </c>
+      <c r="H162" t="s">
         <v>1247</v>
       </c>
-      <c r="I162" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
+      <c r="I162" t="s">
+        <v>16</v>
+      </c>
+      <c r="J162" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
         <v>1254</v>
       </c>
-      <c r="B163" s="1" t="s">
+      <c r="B163" t="s">
         <v>1255</v>
       </c>
-      <c r="C163" s="1" t="s">
+      <c r="C163" t="s">
         <v>1256</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="D163" t="s">
         <v>1257</v>
       </c>
-      <c r="E163" s="1" t="s">
+      <c r="E163" t="s">
         <v>1258</v>
       </c>
-      <c r="F163" s="1" t="s">
+      <c r="F163" t="s">
         <v>1259</v>
       </c>
-      <c r="G163" s="1" t="s">
+      <c r="G163" t="s">
         <v>1260</v>
       </c>
-      <c r="H163" s="1" t="s">
+      <c r="H163" t="s">
         <v>1261</v>
       </c>
-      <c r="I163" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
+      <c r="I163" t="s">
+        <v>16</v>
+      </c>
+      <c r="J163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
         <v>1262</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B164" t="s">
         <v>1263</v>
       </c>
-      <c r="C164" s="1" t="s">
+      <c r="C164" t="s">
         <v>1264</v>
       </c>
-      <c r="D164" s="1" t="s">
+      <c r="D164" t="s">
         <v>1265</v>
       </c>
-      <c r="E164" s="1" t="s">
+      <c r="E164" t="s">
         <v>1266</v>
       </c>
-      <c r="F164" s="1" t="s">
+      <c r="F164" t="s">
         <v>1267</v>
       </c>
-      <c r="G164" s="1" t="s">
+      <c r="G164" t="s">
         <v>1268</v>
       </c>
-      <c r="H164" s="1" t="s">
+      <c r="H164" t="s">
         <v>1269</v>
       </c>
-      <c r="I164" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
+      <c r="I164" t="s">
+        <v>17</v>
+      </c>
+      <c r="J164" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
         <v>1270</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="B165" t="s">
         <v>1271</v>
       </c>
-      <c r="C165" s="1" t="s">
+      <c r="C165" t="s">
         <v>1272</v>
       </c>
-      <c r="D165" s="1" t="s">
+      <c r="D165" t="s">
         <v>1273</v>
       </c>
-      <c r="E165" s="1" t="s">
+      <c r="E165" t="s">
         <v>1274</v>
       </c>
-      <c r="F165" s="1" t="s">
+      <c r="F165" t="s">
         <v>1275</v>
       </c>
-      <c r="G165" s="1" t="s">
+      <c r="G165" t="s">
         <v>1276</v>
       </c>
-      <c r="H165" s="1" t="s">
+      <c r="H165" t="s">
         <v>1277</v>
       </c>
-      <c r="I165" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
+      <c r="I165" t="s">
+        <v>16</v>
+      </c>
+      <c r="J165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
         <v>1278</v>
       </c>
-      <c r="B166" s="1" t="s">
+      <c r="B166" t="s">
         <v>1279</v>
       </c>
-      <c r="C166" s="1" t="s">
+      <c r="C166" t="s">
         <v>1280</v>
       </c>
-      <c r="D166" s="1" t="s">
+      <c r="D166" t="s">
         <v>1281</v>
       </c>
-      <c r="E166" s="1" t="s">
+      <c r="E166" t="s">
         <v>1282</v>
       </c>
-      <c r="F166" s="1" t="s">
+      <c r="F166" t="s">
         <v>1283</v>
       </c>
-      <c r="G166" s="1" t="s">
+      <c r="G166" t="s">
         <v>1284</v>
       </c>
-      <c r="H166" s="1" t="s">
+      <c r="H166" t="s">
         <v>1285</v>
       </c>
-      <c r="I166" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
+      <c r="I166" t="s">
+        <v>17</v>
+      </c>
+      <c r="J166" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
         <v>1286</v>
       </c>
-      <c r="B167" s="1" t="s">
+      <c r="B167" t="s">
         <v>1287</v>
       </c>
-      <c r="C167" s="1" t="s">
+      <c r="C167" t="s">
         <v>1288</v>
       </c>
-      <c r="D167" s="1" t="s">
+      <c r="D167" t="s">
         <v>1289</v>
       </c>
-      <c r="E167" s="1" t="s">
+      <c r="E167" t="s">
         <v>1290</v>
       </c>
-      <c r="F167" s="1" t="s">
+      <c r="F167" t="s">
         <v>1291</v>
       </c>
-      <c r="G167" s="1" t="s">
+      <c r="G167" t="s">
         <v>1292</v>
       </c>
-      <c r="H167" s="1" t="s">
+      <c r="H167" t="s">
         <v>1293</v>
       </c>
-      <c r="I167" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
+      <c r="I167" t="s">
+        <v>17</v>
+      </c>
+      <c r="J167" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
         <v>1294</v>
       </c>
-      <c r="B168" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C168" s="1" t="s">
+      <c r="B168" t="s">
+        <v>110</v>
+      </c>
+      <c r="C168" t="s">
         <v>1295</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D168" t="s">
+        <v>112</v>
+      </c>
+      <c r="E168" t="s">
         <v>113</v>
       </c>
-      <c r="E168" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F168" s="1" t="s">
+      <c r="F168" t="s">
         <v>1296</v>
       </c>
-      <c r="G168" s="1" t="s">
+      <c r="G168" t="s">
         <v>1297</v>
       </c>
-      <c r="H168" s="1" t="s">
+      <c r="H168" t="s">
         <v>1298</v>
       </c>
-      <c r="I168" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
+      <c r="I168" t="s">
+        <v>17</v>
+      </c>
+      <c r="J168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
         <v>1299</v>
       </c>
-      <c r="B169" s="1" t="s">
+      <c r="B169" t="s">
         <v>1300</v>
       </c>
-      <c r="C169" s="1" t="s">
+      <c r="C169" t="s">
         <v>1301</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D169" t="s">
         <v>1302</v>
       </c>
-      <c r="E169" s="1" t="s">
+      <c r="E169" t="s">
         <v>1303</v>
       </c>
-      <c r="F169" s="1" t="s">
+      <c r="F169" t="s">
         <v>1304</v>
       </c>
-      <c r="G169" s="1" t="s">
+      <c r="G169" t="s">
         <v>1305</v>
       </c>
-      <c r="H169" s="1" t="s">
+      <c r="H169" t="s">
         <v>1306</v>
       </c>
-      <c r="I169" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
+      <c r="I169" t="s">
+        <v>17</v>
+      </c>
+      <c r="J169" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
         <v>1307</v>
       </c>
-      <c r="B170" s="1" t="s">
+      <c r="B170" t="s">
         <v>1308</v>
       </c>
-      <c r="C170" s="1" t="s">
+      <c r="C170" t="s">
         <v>1309</v>
       </c>
-      <c r="D170" s="1" t="s">
+      <c r="D170" t="s">
         <v>1310</v>
       </c>
-      <c r="E170" s="1" t="s">
+      <c r="E170" t="s">
         <v>1311</v>
       </c>
-      <c r="F170" s="1" t="s">
+      <c r="F170" t="s">
         <v>1312</v>
       </c>
-      <c r="G170" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H170" s="1" t="s">
+      <c r="G170" t="s">
+        <v>16</v>
+      </c>
+      <c r="H170" t="s">
         <v>1313</v>
       </c>
-      <c r="I170" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
+      <c r="I170" t="s">
+        <v>16</v>
+      </c>
+      <c r="J170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
         <v>1314</v>
       </c>
-      <c r="B171" s="1" t="s">
+      <c r="B171" t="s">
         <v>1315</v>
       </c>
-      <c r="C171" s="1" t="s">
+      <c r="C171" t="s">
         <v>1316</v>
       </c>
-      <c r="D171" s="1" t="s">
+      <c r="D171" t="s">
         <v>1317</v>
       </c>
-      <c r="E171" s="1" t="s">
+      <c r="E171" t="s">
         <v>1318</v>
       </c>
-      <c r="F171" s="1" t="s">
+      <c r="F171" t="s">
         <v>1319</v>
       </c>
-      <c r="G171" s="1" t="s">
+      <c r="G171" t="s">
         <v>1320</v>
       </c>
-      <c r="H171" s="1" t="s">
+      <c r="H171" t="s">
         <v>1321</v>
       </c>
-      <c r="I171" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
+      <c r="I171" t="s">
+        <v>17</v>
+      </c>
+      <c r="J171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
         <v>1322</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="B172" t="s">
         <v>1323</v>
       </c>
-      <c r="C172" s="1" t="s">
+      <c r="C172" t="s">
         <v>1324</v>
       </c>
-      <c r="D172" s="1" t="s">
+      <c r="D172" t="s">
         <v>1325</v>
       </c>
-      <c r="E172" s="1" t="s">
+      <c r="E172" t="s">
         <v>1326</v>
       </c>
-      <c r="F172" s="1" t="s">
+      <c r="F172" t="s">
         <v>1327</v>
       </c>
-      <c r="G172" s="1" t="s">
+      <c r="G172" t="s">
         <v>1328</v>
       </c>
-      <c r="H172" s="1" t="s">
+      <c r="H172" t="s">
         <v>1329</v>
       </c>
-      <c r="I172" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
+      <c r="I172" t="s">
+        <v>17</v>
+      </c>
+      <c r="J172" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
         <v>1330</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B173" t="s">
         <v>1331</v>
       </c>
-      <c r="C173" s="1" t="s">
+      <c r="C173" t="s">
         <v>1332</v>
       </c>
-      <c r="D173" s="1" t="s">
+      <c r="D173" t="s">
         <v>1333</v>
       </c>
-      <c r="E173" s="1" t="s">
+      <c r="E173" t="s">
         <v>1334</v>
       </c>
-      <c r="F173" s="1" t="s">
+      <c r="F173" t="s">
         <v>1335</v>
       </c>
-      <c r="G173" s="1" t="s">
+      <c r="G173" t="s">
         <v>1336</v>
       </c>
-      <c r="H173" s="1" t="s">
+      <c r="H173" t="s">
         <v>1337</v>
       </c>
-      <c r="I173" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
+      <c r="I173" t="s">
+        <v>17</v>
+      </c>
+      <c r="J173" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
         <v>1338</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="B174" t="s">
         <v>1339</v>
       </c>
-      <c r="C174" s="1" t="s">
+      <c r="C174" t="s">
         <v>1340</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D174" t="s">
         <v>1341</v>
       </c>
-      <c r="E174" s="1" t="s">
+      <c r="E174" t="s">
         <v>1342</v>
       </c>
-      <c r="F174" s="1" t="s">
+      <c r="F174" t="s">
         <v>1343</v>
       </c>
-      <c r="G174" s="1" t="s">
+      <c r="G174" t="s">
         <v>1344</v>
       </c>
-      <c r="H174" s="1" t="s">
+      <c r="H174" t="s">
         <v>1345</v>
       </c>
-      <c r="I174" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
+      <c r="I174" t="s">
+        <v>16</v>
+      </c>
+      <c r="J174" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
         <v>1346</v>
       </c>
-      <c r="B175" s="1" t="s">
+      <c r="B175" t="s">
         <v>1347</v>
       </c>
-      <c r="C175" s="1" t="s">
+      <c r="C175" t="s">
         <v>1348</v>
       </c>
-      <c r="D175" s="1" t="s">
+      <c r="D175" t="s">
         <v>1349</v>
       </c>
-      <c r="E175" s="1" t="s">
+      <c r="E175" t="s">
         <v>1350</v>
       </c>
-      <c r="F175" s="1" t="s">
+      <c r="F175" t="s">
         <v>1351</v>
       </c>
-      <c r="G175" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H175" s="1" t="s">
+      <c r="G175" t="s">
+        <v>16</v>
+      </c>
+      <c r="H175" t="s">
         <v>1352</v>
       </c>
-      <c r="I175" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
+      <c r="I175" t="s">
+        <v>16</v>
+      </c>
+      <c r="J175" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
         <v>1353</v>
       </c>
-      <c r="B176" s="1" t="s">
+      <c r="B176" t="s">
         <v>1354</v>
       </c>
-      <c r="C176" s="1" t="s">
+      <c r="C176" t="s">
         <v>1355</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="D176" t="s">
         <v>1356</v>
       </c>
-      <c r="E176" s="1" t="s">
+      <c r="E176" t="s">
         <v>1357</v>
       </c>
-      <c r="F176" s="1" t="s">
+      <c r="F176" t="s">
         <v>1358</v>
       </c>
-      <c r="G176" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H176" s="1" t="s">
+      <c r="G176" t="s">
+        <v>16</v>
+      </c>
+      <c r="H176" t="s">
         <v>1359</v>
       </c>
-      <c r="I176" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
+      <c r="I176" t="s">
+        <v>16</v>
+      </c>
+      <c r="J176" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>1360</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B177" t="s">
         <v>1361</v>
       </c>
-      <c r="C177" s="1" t="s">
+      <c r="C177" t="s">
         <v>1362</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="D177" t="s">
         <v>1363</v>
       </c>
-      <c r="E177" s="1" t="s">
+      <c r="E177" t="s">
         <v>1364</v>
       </c>
-      <c r="F177" s="1" t="s">
+      <c r="F177" t="s">
         <v>1365</v>
       </c>
-      <c r="G177" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H177" s="1" t="s">
+      <c r="G177" t="s">
+        <v>16</v>
+      </c>
+      <c r="H177" t="s">
         <v>1352</v>
       </c>
-      <c r="I177" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
+      <c r="I177" t="s">
+        <v>16</v>
+      </c>
+      <c r="J177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>1366</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="B178" t="s">
         <v>1367</v>
       </c>
-      <c r="C178" s="1" t="s">
+      <c r="C178" t="s">
         <v>1368</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="D178" t="s">
         <v>1369</v>
       </c>
-      <c r="E178" s="1" t="s">
+      <c r="E178" t="s">
         <v>1370</v>
       </c>
-      <c r="F178" s="1" t="s">
+      <c r="F178" t="s">
         <v>1371</v>
       </c>
-      <c r="G178" s="1" t="s">
+      <c r="G178" t="s">
         <v>1372</v>
       </c>
-      <c r="H178" s="1" t="s">
+      <c r="H178" t="s">
         <v>1352</v>
       </c>
-      <c r="I178" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
+      <c r="I178" t="s">
+        <v>17</v>
+      </c>
+      <c r="J178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
         <v>1373</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B179" t="s">
         <v>1374</v>
       </c>
-      <c r="C179" s="1" t="s">
+      <c r="C179" t="s">
         <v>1375</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="D179" t="s">
         <v>1376</v>
       </c>
-      <c r="E179" s="1" t="s">
+      <c r="E179" t="s">
         <v>1377</v>
       </c>
-      <c r="F179" s="1" t="s">
+      <c r="F179" t="s">
         <v>1378</v>
       </c>
-      <c r="G179" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H179" s="1" t="s">
+      <c r="G179" t="s">
+        <v>16</v>
+      </c>
+      <c r="H179" t="s">
         <v>1379</v>
       </c>
-      <c r="I179" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
+      <c r="I179" t="s">
+        <v>17</v>
+      </c>
+      <c r="J179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
         <v>1380</v>
       </c>
-      <c r="B180" s="1" t="s">
+      <c r="B180" t="s">
         <v>1381</v>
       </c>
-      <c r="C180" s="1" t="s">
+      <c r="C180" t="s">
         <v>1382</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="D180" t="s">
         <v>1383</v>
       </c>
-      <c r="E180" s="1" t="s">
+      <c r="E180" t="s">
         <v>1384</v>
       </c>
-      <c r="F180" s="1" t="s">
+      <c r="F180" t="s">
         <v>1385</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="G180" t="s">
         <v>1386</v>
       </c>
-      <c r="H180" s="1" t="s">
+      <c r="H180" t="s">
         <v>1387</v>
       </c>
-      <c r="I180" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A181" s="1" t="s">
+      <c r="I180" t="s">
+        <v>16</v>
+      </c>
+      <c r="J180" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>1388</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="B181" t="s">
         <v>1389</v>
       </c>
-      <c r="C181" s="1" t="s">
+      <c r="C181" t="s">
         <v>1390</v>
       </c>
-      <c r="D181" s="1" t="s">
+      <c r="D181" t="s">
         <v>1391</v>
       </c>
-      <c r="E181" s="1" t="s">
+      <c r="E181" t="s">
         <v>1392</v>
       </c>
-      <c r="F181" s="1" t="s">
+      <c r="F181" t="s">
         <v>1393</v>
       </c>
-      <c r="G181" s="1" t="s">
+      <c r="G181" t="s">
         <v>1394</v>
       </c>
-      <c r="H181" s="1" t="s">
+      <c r="H181" t="s">
         <v>1247</v>
       </c>
-      <c r="I181" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A182" s="1" t="s">
+      <c r="I181" t="s">
+        <v>16</v>
+      </c>
+      <c r="J181" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
         <v>1395</v>
       </c>
-      <c r="B182" s="1" t="s">
+      <c r="B182" t="s">
         <v>1396</v>
       </c>
-      <c r="C182" s="1" t="s">
+      <c r="C182" t="s">
         <v>1397</v>
       </c>
-      <c r="D182" s="1" t="s">
+      <c r="D182" t="s">
         <v>1398</v>
       </c>
-      <c r="E182" s="1" t="s">
+      <c r="E182" t="s">
         <v>1399</v>
       </c>
-      <c r="F182" s="1" t="s">
+      <c r="F182" t="s">
         <v>1400</v>
       </c>
-      <c r="G182" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H182" s="1" t="s">
+      <c r="G182" t="s">
+        <v>16</v>
+      </c>
+      <c r="H182" t="s">
         <v>1401</v>
       </c>
-      <c r="I182" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A183" s="1" t="s">
+      <c r="I182" t="s">
+        <v>16</v>
+      </c>
+      <c r="J182" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>1402</v>
       </c>
-      <c r="B183" s="1" t="s">
+      <c r="B183" t="s">
         <v>1403</v>
       </c>
-      <c r="C183" s="1" t="s">
+      <c r="C183" t="s">
         <v>1404</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E183" s="1" t="s">
+      <c r="D183" t="s">
+        <v>34</v>
+      </c>
+      <c r="E183" t="s">
         <v>1405</v>
       </c>
-      <c r="F183" s="1" t="s">
+      <c r="F183" t="s">
         <v>1406</v>
       </c>
-      <c r="G183" s="1" t="s">
+      <c r="G183" t="s">
         <v>1407</v>
       </c>
-      <c r="H183" s="1" t="s">
+      <c r="H183" t="s">
         <v>1408</v>
       </c>
-      <c r="I183" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I183" t="s">
+        <v>16</v>
+      </c>
+      <c r="J183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
         <v>1409</v>
       </c>
@@ -10347,95 +10876,107 @@
       <c r="I184" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A185" s="1" t="s">
+      <c r="J184" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
         <v>1416</v>
       </c>
-      <c r="B185" s="1" t="s">
+      <c r="B185" t="s">
         <v>1417</v>
       </c>
-      <c r="C185" s="1" t="s">
+      <c r="C185" t="s">
         <v>1418</v>
       </c>
-      <c r="D185" s="1" t="s">
+      <c r="D185" t="s">
         <v>1419</v>
       </c>
-      <c r="E185" s="1" t="s">
+      <c r="E185" t="s">
         <v>1420</v>
       </c>
-      <c r="F185" s="1" t="s">
+      <c r="F185" t="s">
         <v>1421</v>
       </c>
-      <c r="G185" s="1" t="s">
+      <c r="G185" t="s">
         <v>1422</v>
       </c>
-      <c r="H185" s="1" t="s">
+      <c r="H185" t="s">
         <v>1423</v>
       </c>
-      <c r="I185" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A186" s="1" t="s">
+      <c r="I185" t="s">
+        <v>16</v>
+      </c>
+      <c r="J185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
         <v>1424</v>
       </c>
-      <c r="B186" s="1" t="s">
+      <c r="B186" t="s">
         <v>1425</v>
       </c>
-      <c r="C186" s="1" t="s">
+      <c r="C186" t="s">
         <v>1426</v>
       </c>
-      <c r="D186" s="1" t="s">
+      <c r="D186" t="s">
         <v>1427</v>
       </c>
-      <c r="E186" s="1" t="s">
+      <c r="E186" t="s">
         <v>1428</v>
       </c>
-      <c r="F186" s="1" t="s">
+      <c r="F186" t="s">
         <v>1429</v>
       </c>
-      <c r="G186" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H186" s="1" t="s">
+      <c r="G186" t="s">
+        <v>16</v>
+      </c>
+      <c r="H186" t="s">
         <v>1430</v>
       </c>
-      <c r="I186" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
+      <c r="I186" t="s">
+        <v>17</v>
+      </c>
+      <c r="J186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
         <v>1431</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" t="s">
         <v>1432</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" t="s">
         <v>1433</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" t="s">
         <v>1434</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="E187" t="s">
         <v>1435</v>
       </c>
-      <c r="F187" s="1" t="s">
+      <c r="F187" t="s">
         <v>1436</v>
       </c>
-      <c r="G187" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H187" s="1" t="s">
+      <c r="G187" t="s">
+        <v>16</v>
+      </c>
+      <c r="H187" t="s">
         <v>1437</v>
       </c>
-      <c r="I187" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I187" t="s">
+        <v>16</v>
+      </c>
+      <c r="J187" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>1438</v>
       </c>
@@ -10463,328 +11004,367 @@
       <c r="I188" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A189" s="1" t="s">
+      <c r="J188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
         <v>1446</v>
       </c>
-      <c r="B189" s="1" t="s">
+      <c r="B189" t="s">
         <v>1447</v>
       </c>
-      <c r="C189" s="1" t="s">
+      <c r="C189" t="s">
         <v>1448</v>
       </c>
-      <c r="D189" s="1" t="s">
+      <c r="D189" t="s">
         <v>1449</v>
       </c>
-      <c r="E189" s="1" t="s">
+      <c r="E189" t="s">
         <v>1450</v>
       </c>
-      <c r="F189" s="1" t="s">
+      <c r="F189" t="s">
         <v>1451</v>
       </c>
-      <c r="G189" s="1" t="s">
+      <c r="G189" t="s">
         <v>1452</v>
       </c>
-      <c r="H189" s="1" t="s">
+      <c r="H189" t="s">
         <v>1453</v>
       </c>
-      <c r="I189" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
+      <c r="I189" t="s">
+        <v>16</v>
+      </c>
+      <c r="J189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
         <v>1454</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B190" t="s">
         <v>1455</v>
       </c>
-      <c r="C190" s="1" t="s">
+      <c r="C190" t="s">
         <v>1456</v>
       </c>
-      <c r="D190" s="1" t="s">
+      <c r="D190" t="s">
         <v>1457</v>
       </c>
-      <c r="E190" s="1" t="s">
+      <c r="E190" t="s">
         <v>1458</v>
       </c>
-      <c r="F190" s="1" t="s">
+      <c r="F190" t="s">
         <v>1459</v>
       </c>
-      <c r="G190" s="1" t="s">
+      <c r="G190" t="s">
         <v>1460</v>
       </c>
-      <c r="H190" s="1" t="s">
+      <c r="H190" t="s">
         <v>1461</v>
       </c>
-      <c r="I190" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
+      <c r="I190" t="s">
+        <v>16</v>
+      </c>
+      <c r="J190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>1462</v>
       </c>
-      <c r="B191" s="1" t="s">
+      <c r="B191" t="s">
         <v>1463</v>
       </c>
-      <c r="C191" s="1" t="s">
+      <c r="C191" t="s">
         <v>1464</v>
       </c>
-      <c r="D191" s="1" t="s">
+      <c r="D191" t="s">
         <v>1465</v>
       </c>
-      <c r="E191" s="1" t="s">
+      <c r="E191" t="s">
         <v>1466</v>
       </c>
-      <c r="F191" s="1" t="s">
+      <c r="F191" t="s">
         <v>1467</v>
       </c>
-      <c r="G191" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H191" s="1" t="s">
+      <c r="G191" t="s">
+        <v>16</v>
+      </c>
+      <c r="H191" t="s">
         <v>1461</v>
       </c>
-      <c r="I191" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
+      <c r="I191" t="s">
+        <v>17</v>
+      </c>
+      <c r="J191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>1468</v>
       </c>
-      <c r="B192" s="1" t="s">
+      <c r="B192" t="s">
         <v>1469</v>
       </c>
-      <c r="C192" s="1" t="s">
+      <c r="C192" t="s">
         <v>1470</v>
       </c>
-      <c r="D192" s="1" t="s">
+      <c r="D192" t="s">
         <v>1471</v>
       </c>
-      <c r="E192" s="1" t="s">
+      <c r="E192" t="s">
         <v>1472</v>
       </c>
-      <c r="F192" s="1" t="s">
+      <c r="F192" t="s">
         <v>1473</v>
       </c>
-      <c r="G192" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H192" s="1" t="s">
+      <c r="G192" t="s">
+        <v>16</v>
+      </c>
+      <c r="H192" t="s">
         <v>1474</v>
       </c>
-      <c r="I192" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A193" s="1" t="s">
+      <c r="I192" t="s">
+        <v>17</v>
+      </c>
+      <c r="J192" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
         <v>1475</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="B193" t="s">
         <v>1476</v>
       </c>
-      <c r="C193" s="1" t="s">
+      <c r="C193" t="s">
         <v>1477</v>
       </c>
-      <c r="D193" s="1" t="s">
+      <c r="D193" t="s">
         <v>1478</v>
       </c>
-      <c r="E193" s="1" t="s">
+      <c r="E193" t="s">
         <v>1479</v>
       </c>
-      <c r="F193" s="1" t="s">
+      <c r="F193" t="s">
         <v>1480</v>
       </c>
-      <c r="G193" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H193" s="1" t="s">
+      <c r="G193" t="s">
+        <v>16</v>
+      </c>
+      <c r="H193" t="s">
         <v>1481</v>
       </c>
-      <c r="I193" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A194" s="1" t="s">
+      <c r="I193" t="s">
+        <v>17</v>
+      </c>
+      <c r="J193" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>1482</v>
       </c>
-      <c r="B194" s="1" t="s">
+      <c r="B194" t="s">
         <v>1483</v>
       </c>
-      <c r="C194" s="1" t="s">
+      <c r="C194" t="s">
         <v>1484</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="D194" t="s">
         <v>1485</v>
       </c>
-      <c r="E194" s="1" t="s">
+      <c r="E194" t="s">
         <v>1486</v>
       </c>
-      <c r="F194" s="1" t="s">
+      <c r="F194" t="s">
         <v>1487</v>
       </c>
-      <c r="G194" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H194" s="1" t="s">
+      <c r="G194" t="s">
+        <v>16</v>
+      </c>
+      <c r="H194" t="s">
         <v>1488</v>
       </c>
-      <c r="I194" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A195" s="1" t="s">
+      <c r="I194" t="s">
+        <v>16</v>
+      </c>
+      <c r="J194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>1489</v>
       </c>
-      <c r="B195" s="1" t="s">
+      <c r="B195" t="s">
         <v>1490</v>
       </c>
-      <c r="C195" s="1" t="s">
+      <c r="C195" t="s">
         <v>1397</v>
       </c>
-      <c r="D195" s="1" t="s">
+      <c r="D195" t="s">
         <v>1491</v>
       </c>
-      <c r="E195" s="1" t="s">
+      <c r="E195" t="s">
         <v>1492</v>
       </c>
-      <c r="F195" s="1" t="s">
+      <c r="F195" t="s">
         <v>1493</v>
       </c>
-      <c r="G195" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H195" s="1" t="s">
+      <c r="G195" t="s">
+        <v>16</v>
+      </c>
+      <c r="H195" t="s">
         <v>1494</v>
       </c>
-      <c r="I195" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A196" s="1" t="s">
+      <c r="I195" t="s">
+        <v>16</v>
+      </c>
+      <c r="J195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
         <v>1495</v>
       </c>
-      <c r="B196" s="1" t="s">
+      <c r="B196" t="s">
         <v>1496</v>
       </c>
-      <c r="C196" s="1" t="s">
+      <c r="C196" t="s">
         <v>1497</v>
       </c>
-      <c r="D196" s="1" t="s">
+      <c r="D196" t="s">
         <v>1498</v>
       </c>
-      <c r="E196" s="1" t="s">
+      <c r="E196" t="s">
         <v>1499</v>
       </c>
-      <c r="F196" s="1" t="s">
+      <c r="F196" t="s">
         <v>1500</v>
       </c>
-      <c r="G196" s="1" t="s">
+      <c r="G196" t="s">
         <v>1501</v>
       </c>
-      <c r="H196" s="1" t="s">
+      <c r="H196" t="s">
         <v>1502</v>
       </c>
-      <c r="I196" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A197" s="1" t="s">
+      <c r="I196" t="s">
+        <v>17</v>
+      </c>
+      <c r="J196" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
         <v>1503</v>
       </c>
-      <c r="B197" s="1" t="s">
+      <c r="B197" t="s">
         <v>1504</v>
       </c>
-      <c r="C197" s="1" t="s">
+      <c r="C197" t="s">
         <v>1505</v>
       </c>
-      <c r="D197" s="1" t="s">
+      <c r="D197" t="s">
         <v>1506</v>
       </c>
-      <c r="E197" s="1" t="s">
+      <c r="E197" t="s">
         <v>1507</v>
       </c>
-      <c r="F197" s="1" t="s">
+      <c r="F197" t="s">
         <v>1508</v>
       </c>
-      <c r="G197" s="1" t="s">
+      <c r="G197" t="s">
         <v>1509</v>
       </c>
-      <c r="H197" s="1" t="s">
+      <c r="H197" t="s">
         <v>1510</v>
       </c>
-      <c r="I197" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A198" s="1" t="s">
+      <c r="I197" t="s">
+        <v>17</v>
+      </c>
+      <c r="J197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
         <v>1511</v>
       </c>
-      <c r="B198" s="1" t="s">
+      <c r="B198" t="s">
         <v>1512</v>
       </c>
-      <c r="C198" s="1" t="s">
+      <c r="C198" t="s">
         <v>1505</v>
       </c>
-      <c r="D198" s="1" t="s">
+      <c r="D198" t="s">
         <v>1441</v>
       </c>
-      <c r="E198" s="1" t="s">
+      <c r="E198" t="s">
         <v>1513</v>
       </c>
-      <c r="F198" s="1" t="s">
+      <c r="F198" t="s">
         <v>1514</v>
       </c>
-      <c r="G198" s="1" t="s">
+      <c r="G198" t="s">
         <v>1509</v>
       </c>
-      <c r="H198" s="1" t="s">
+      <c r="H198" t="s">
         <v>1510</v>
       </c>
-      <c r="I198" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A199" s="1" t="s">
+      <c r="I198" t="s">
+        <v>17</v>
+      </c>
+      <c r="J198" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
         <v>1515</v>
       </c>
-      <c r="B199" s="1" t="s">
+      <c r="B199" t="s">
         <v>1516</v>
       </c>
-      <c r="C199" s="1" t="s">
+      <c r="C199" t="s">
         <v>1517</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="D199" t="s">
         <v>1518</v>
       </c>
-      <c r="E199" s="1" t="s">
+      <c r="E199" t="s">
         <v>1519</v>
       </c>
-      <c r="F199" s="1" t="s">
+      <c r="F199" t="s">
         <v>1520</v>
       </c>
-      <c r="G199" s="1" t="s">
+      <c r="G199" t="s">
         <v>1521</v>
       </c>
-      <c r="H199" s="1" t="s">
+      <c r="H199" t="s">
         <v>1522</v>
+      </c>
+      <c r="I199" t="s">
+        <v>16</v>
+      </c>
+      <c r="J199" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J140 A142:J198 A141 C141:J141 A199:I199" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J199" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/judo_therapy/data.xlsx
+++ b/data/judo_therapy/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\デスクトップ\オープンデータ更新（一時保管）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09328EC-7384-4557-8FC5-821189249824}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49712E6-C11B-4C61-905B-E9AC05CF9851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1990" uniqueCount="1523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="1516">
   <si>
     <t>№</t>
   </si>
@@ -4247,27 +4247,6 @@
   </si>
   <si>
     <t>2023/03/27</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>ちゃんと整骨院</t>
-  </si>
-  <si>
-    <t>瀧井　寛</t>
-  </si>
-  <si>
-    <t>34.338792</t>
-  </si>
-  <si>
-    <t>134.048524</t>
-  </si>
-  <si>
-    <t>香川県高松市田町２番地６</t>
-  </si>
-  <si>
-    <t>2023/05/10</t>
   </si>
   <si>
     <t>184</t>
@@ -4611,18 +4590,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4639,7 +4612,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4979,20 +4952,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J199"/>
+  <dimension ref="A1:J198"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="F192" sqref="F192"/>
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28.19921875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="63.296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5024,7 +4997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -5056,7 +5029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -5088,7 +5061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -5120,7 +5093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -5152,7 +5125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -5184,7 +5157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -5216,7 +5189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -5248,7 +5221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -5280,7 +5253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -5312,7 +5285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -5344,7 +5317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -5376,7 +5349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -5408,7 +5381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -5440,7 +5413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>109</v>
       </c>
@@ -5472,7 +5445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -5504,7 +5477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -5536,7 +5509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -5568,7 +5541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>141</v>
       </c>
@@ -5600,7 +5573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>149</v>
       </c>
@@ -5632,7 +5605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -5664,7 +5637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>165</v>
       </c>
@@ -5696,7 +5669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -5728,7 +5701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>181</v>
       </c>
@@ -5760,7 +5733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>189</v>
       </c>
@@ -5792,7 +5765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>197</v>
       </c>
@@ -5824,7 +5797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>205</v>
       </c>
@@ -5856,7 +5829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>213</v>
       </c>
@@ -5888,7 +5861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>221</v>
       </c>
@@ -5920,7 +5893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>229</v>
       </c>
@@ -5952,7 +5925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>237</v>
       </c>
@@ -5984,7 +5957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -6016,7 +5989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>253</v>
       </c>
@@ -6048,7 +6021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>261</v>
       </c>
@@ -6080,7 +6053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>269</v>
       </c>
@@ -6112,7 +6085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>277</v>
       </c>
@@ -6144,7 +6117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>285</v>
       </c>
@@ -6176,7 +6149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>293</v>
       </c>
@@ -6208,7 +6181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>301</v>
       </c>
@@ -6240,7 +6213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>309</v>
       </c>
@@ -6272,7 +6245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>317</v>
       </c>
@@ -6304,7 +6277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>325</v>
       </c>
@@ -6336,7 +6309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>333</v>
       </c>
@@ -6368,7 +6341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>341</v>
       </c>
@@ -6400,7 +6373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>349</v>
       </c>
@@ -6432,7 +6405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>357</v>
       </c>
@@ -6464,7 +6437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>365</v>
       </c>
@@ -6496,7 +6469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>373</v>
       </c>
@@ -6528,7 +6501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>381</v>
       </c>
@@ -6560,7 +6533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>389</v>
       </c>
@@ -6592,7 +6565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>397</v>
       </c>
@@ -6624,7 +6597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>405</v>
       </c>
@@ -6656,7 +6629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>413</v>
       </c>
@@ -6688,7 +6661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>420</v>
       </c>
@@ -6720,7 +6693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>428</v>
       </c>
@@ -6752,7 +6725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>436</v>
       </c>
@@ -6784,7 +6757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>444</v>
       </c>
@@ -6816,7 +6789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>452</v>
       </c>
@@ -6848,7 +6821,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>460</v>
       </c>
@@ -6880,7 +6853,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>467</v>
       </c>
@@ -6912,7 +6885,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>475</v>
       </c>
@@ -6944,7 +6917,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>483</v>
       </c>
@@ -6976,7 +6949,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>491</v>
       </c>
@@ -7008,7 +6981,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>499</v>
       </c>
@@ -7040,7 +7013,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>507</v>
       </c>
@@ -7072,7 +7045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>515</v>
       </c>
@@ -7104,7 +7077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>523</v>
       </c>
@@ -7136,7 +7109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>531</v>
       </c>
@@ -7168,7 +7141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>539</v>
       </c>
@@ -7200,7 +7173,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>547</v>
       </c>
@@ -7232,7 +7205,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>555</v>
       </c>
@@ -7264,7 +7237,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>563</v>
       </c>
@@ -7296,7 +7269,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>571</v>
       </c>
@@ -7328,7 +7301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>579</v>
       </c>
@@ -7360,7 +7333,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>587</v>
       </c>
@@ -7392,7 +7365,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>595</v>
       </c>
@@ -7424,7 +7397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>603</v>
       </c>
@@ -7456,7 +7429,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>611</v>
       </c>
@@ -7488,7 +7461,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>619</v>
       </c>
@@ -7520,7 +7493,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>627</v>
       </c>
@@ -7552,7 +7525,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>635</v>
       </c>
@@ -7584,7 +7557,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>643</v>
       </c>
@@ -7616,7 +7589,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>651</v>
       </c>
@@ -7648,7 +7621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>659</v>
       </c>
@@ -7680,7 +7653,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>667</v>
       </c>
@@ -7712,7 +7685,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>675</v>
       </c>
@@ -7744,7 +7717,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>683</v>
       </c>
@@ -7776,7 +7749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>691</v>
       </c>
@@ -7808,7 +7781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>699</v>
       </c>
@@ -7840,7 +7813,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>707</v>
       </c>
@@ -7872,7 +7845,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>714</v>
       </c>
@@ -7904,7 +7877,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>722</v>
       </c>
@@ -7936,7 +7909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>727</v>
       </c>
@@ -7968,7 +7941,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>734</v>
       </c>
@@ -8000,7 +7973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>741</v>
       </c>
@@ -8032,7 +8005,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>749</v>
       </c>
@@ -8064,7 +8037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>757</v>
       </c>
@@ -8096,7 +8069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>763</v>
       </c>
@@ -8128,7 +8101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>771</v>
       </c>
@@ -8160,7 +8133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>779</v>
       </c>
@@ -8192,7 +8165,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>786</v>
       </c>
@@ -8224,7 +8197,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>794</v>
       </c>
@@ -8256,7 +8229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>802</v>
       </c>
@@ -8288,7 +8261,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>809</v>
       </c>
@@ -8320,7 +8293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>817</v>
       </c>
@@ -8352,7 +8325,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>825</v>
       </c>
@@ -8384,7 +8357,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>833</v>
       </c>
@@ -8416,7 +8389,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>841</v>
       </c>
@@ -8448,7 +8421,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>849</v>
       </c>
@@ -8480,7 +8453,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>857</v>
       </c>
@@ -8512,7 +8485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>865</v>
       </c>
@@ -8544,7 +8517,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>872</v>
       </c>
@@ -8576,7 +8549,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>880</v>
       </c>
@@ -8608,7 +8581,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>888</v>
       </c>
@@ -8640,7 +8613,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>896</v>
       </c>
@@ -8672,7 +8645,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>904</v>
       </c>
@@ -8704,7 +8677,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>912</v>
       </c>
@@ -8736,7 +8709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>920</v>
       </c>
@@ -8768,7 +8741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>928</v>
       </c>
@@ -8800,7 +8773,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>936</v>
       </c>
@@ -8832,7 +8805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>944</v>
       </c>
@@ -8864,7 +8837,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>952</v>
       </c>
@@ -8896,7 +8869,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>960</v>
       </c>
@@ -8928,7 +8901,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>968</v>
       </c>
@@ -8960,7 +8933,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>976</v>
       </c>
@@ -8992,7 +8965,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>984</v>
       </c>
@@ -9024,7 +8997,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>992</v>
       </c>
@@ -9056,7 +9029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1000</v>
       </c>
@@ -9088,7 +9061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1007</v>
       </c>
@@ -9120,7 +9093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1015</v>
       </c>
@@ -9152,7 +9125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1023</v>
       </c>
@@ -9184,7 +9157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1030</v>
       </c>
@@ -9216,7 +9189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1035</v>
       </c>
@@ -9248,7 +9221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1041</v>
       </c>
@@ -9280,7 +9253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1047</v>
       </c>
@@ -9312,7 +9285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1055</v>
       </c>
@@ -9344,7 +9317,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1062</v>
       </c>
@@ -9376,7 +9349,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1070</v>
       </c>
@@ -9408,7 +9381,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1078</v>
       </c>
@@ -9440,7 +9413,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1082</v>
       </c>
@@ -9472,7 +9445,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1089</v>
       </c>
@@ -9504,7 +9477,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1095</v>
       </c>
@@ -9536,7 +9509,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1103</v>
       </c>
@@ -9568,7 +9541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1111</v>
       </c>
@@ -9600,7 +9573,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1118</v>
       </c>
@@ -9632,7 +9605,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1122</v>
       </c>
@@ -9664,7 +9637,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1130</v>
       </c>
@@ -9696,7 +9669,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1138</v>
       </c>
@@ -9728,7 +9701,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1146</v>
       </c>
@@ -9760,7 +9733,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1154</v>
       </c>
@@ -9792,7 +9765,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1162</v>
       </c>
@@ -9824,7 +9797,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1170</v>
       </c>
@@ -9856,7 +9829,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1178</v>
       </c>
@@ -9888,7 +9861,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1186</v>
       </c>
@@ -9920,7 +9893,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1193</v>
       </c>
@@ -9952,7 +9925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1200</v>
       </c>
@@ -9984,7 +9957,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1208</v>
       </c>
@@ -10016,7 +9989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1216</v>
       </c>
@@ -10048,7 +10021,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1224</v>
       </c>
@@ -10080,7 +10053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1232</v>
       </c>
@@ -10112,7 +10085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1240</v>
       </c>
@@ -10144,7 +10117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1248</v>
       </c>
@@ -10176,7 +10149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1254</v>
       </c>
@@ -10208,7 +10181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1262</v>
       </c>
@@ -10240,7 +10213,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1270</v>
       </c>
@@ -10272,7 +10245,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1278</v>
       </c>
@@ -10304,7 +10277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1286</v>
       </c>
@@ -10336,7 +10309,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1294</v>
       </c>
@@ -10368,7 +10341,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1299</v>
       </c>
@@ -10400,7 +10373,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1307</v>
       </c>
@@ -10432,7 +10405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1314</v>
       </c>
@@ -10464,7 +10437,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1322</v>
       </c>
@@ -10496,7 +10469,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1330</v>
       </c>
@@ -10528,7 +10501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1338</v>
       </c>
@@ -10560,7 +10533,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1346</v>
       </c>
@@ -10592,7 +10565,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1353</v>
       </c>
@@ -10624,7 +10597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1360</v>
       </c>
@@ -10656,7 +10629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1366</v>
       </c>
@@ -10688,7 +10661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1373</v>
       </c>
@@ -10720,7 +10693,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1380</v>
       </c>
@@ -10752,7 +10725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1388</v>
       </c>
@@ -10784,7 +10757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1395</v>
       </c>
@@ -10816,7 +10789,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1402</v>
       </c>
@@ -10848,71 +10821,71 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A184" s="1" t="s">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
         <v>1409</v>
       </c>
-      <c r="B184" s="1" t="s">
+      <c r="B184" t="s">
         <v>1410</v>
       </c>
-      <c r="C184" s="1" t="s">
+      <c r="C184" t="s">
         <v>1411</v>
       </c>
-      <c r="D184" s="1" t="s">
+      <c r="D184" t="s">
         <v>1412</v>
       </c>
-      <c r="E184" s="1" t="s">
+      <c r="E184" t="s">
         <v>1413</v>
       </c>
-      <c r="F184" s="1" t="s">
+      <c r="F184" t="s">
         <v>1414</v>
       </c>
-      <c r="G184" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H184" s="1" t="s">
+      <c r="G184" t="s">
         <v>1415</v>
       </c>
-      <c r="I184" s="1" t="s">
+      <c r="H184" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I184" t="s">
         <v>16</v>
       </c>
       <c r="J184" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="B185" t="s">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="C185" t="s">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="D185" t="s">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="E185" t="s">
-        <v>1420</v>
+        <v>1421</v>
       </c>
       <c r="F185" t="s">
-        <v>1421</v>
+        <v>1422</v>
       </c>
       <c r="G185" t="s">
-        <v>1422</v>
+        <v>16</v>
       </c>
       <c r="H185" t="s">
         <v>1423</v>
       </c>
       <c r="I185" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J185" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1424</v>
       </c>
@@ -10938,164 +10911,164 @@
         <v>1430</v>
       </c>
       <c r="I186" t="s">
+        <v>16</v>
+      </c>
+      <c r="J186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C187" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F187" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G187" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H187" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="I187" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B188" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1441</v>
+      </c>
+      <c r="D188" t="s">
+        <v>1442</v>
+      </c>
+      <c r="E188" t="s">
+        <v>1443</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1444</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1445</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1446</v>
+      </c>
+      <c r="I188" t="s">
+        <v>16</v>
+      </c>
+      <c r="J188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1449</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1450</v>
+      </c>
+      <c r="E189" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1452</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1453</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I189" t="s">
+        <v>16</v>
+      </c>
+      <c r="J189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1458</v>
+      </c>
+      <c r="E190" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1460</v>
+      </c>
+      <c r="G190" t="s">
+        <v>16</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1454</v>
+      </c>
+      <c r="I190" t="s">
         <v>17</v>
       </c>
-      <c r="J186" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="187" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B187" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C187" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D187" t="s">
-        <v>1434</v>
-      </c>
-      <c r="E187" t="s">
-        <v>1435</v>
-      </c>
-      <c r="F187" t="s">
-        <v>1436</v>
-      </c>
-      <c r="G187" t="s">
-        <v>16</v>
-      </c>
-      <c r="H187" t="s">
-        <v>1437</v>
-      </c>
-      <c r="I187" t="s">
-        <v>16</v>
-      </c>
-      <c r="J187" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="188" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A188" s="1" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>1439</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>1440</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>1441</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>1442</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>1443</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>1444</v>
-      </c>
-      <c r="H188" s="1" t="s">
-        <v>1445</v>
-      </c>
-      <c r="I188" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J188" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="189" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B189" t="s">
-        <v>1447</v>
-      </c>
-      <c r="C189" t="s">
-        <v>1448</v>
-      </c>
-      <c r="D189" t="s">
-        <v>1449</v>
-      </c>
-      <c r="E189" t="s">
-        <v>1450</v>
-      </c>
-      <c r="F189" t="s">
-        <v>1451</v>
-      </c>
-      <c r="G189" t="s">
-        <v>1452</v>
-      </c>
-      <c r="H189" t="s">
-        <v>1453</v>
-      </c>
-      <c r="I189" t="s">
-        <v>16</v>
-      </c>
-      <c r="J189" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="190" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B190" t="s">
-        <v>1455</v>
-      </c>
-      <c r="C190" t="s">
-        <v>1456</v>
-      </c>
-      <c r="D190" t="s">
-        <v>1457</v>
-      </c>
-      <c r="E190" t="s">
-        <v>1458</v>
-      </c>
-      <c r="F190" t="s">
-        <v>1459</v>
-      </c>
-      <c r="G190" t="s">
-        <v>1460</v>
-      </c>
-      <c r="H190" t="s">
+      <c r="J190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
         <v>1461</v>
       </c>
-      <c r="I190" t="s">
-        <v>16</v>
-      </c>
-      <c r="J190" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
+      <c r="B191" t="s">
         <v>1462</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>1463</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>1464</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>1465</v>
       </c>
-      <c r="E191" t="s">
+      <c r="F191" t="s">
         <v>1466</v>
       </c>
-      <c r="F191" t="s">
+      <c r="G191" t="s">
+        <v>16</v>
+      </c>
+      <c r="H191" t="s">
         <v>1467</v>
-      </c>
-      <c r="G191" t="s">
-        <v>16</v>
-      </c>
-      <c r="H191" t="s">
-        <v>1461</v>
       </c>
       <c r="I191" t="s">
         <v>17</v>
@@ -11104,7 +11077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1468</v>
       </c>
@@ -11136,7 +11109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1475</v>
       </c>
@@ -11162,13 +11135,13 @@
         <v>1481</v>
       </c>
       <c r="I193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J193" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1482</v>
       </c>
@@ -11176,39 +11149,39 @@
         <v>1483</v>
       </c>
       <c r="C194" t="s">
+        <v>1397</v>
+      </c>
+      <c r="D194" t="s">
         <v>1484</v>
       </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
         <v>1485</v>
       </c>
-      <c r="E194" t="s">
+      <c r="F194" t="s">
         <v>1486</v>
       </c>
-      <c r="F194" t="s">
+      <c r="G194" t="s">
+        <v>16</v>
+      </c>
+      <c r="H194" t="s">
         <v>1487</v>
       </c>
-      <c r="G194" t="s">
-        <v>16</v>
-      </c>
-      <c r="H194" t="s">
+      <c r="I194" t="s">
+        <v>16</v>
+      </c>
+      <c r="J194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>1488</v>
       </c>
-      <c r="I194" t="s">
-        <v>16</v>
-      </c>
-      <c r="J194" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="195" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
+      <c r="B195" t="s">
         <v>1489</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>1490</v>
-      </c>
-      <c r="C195" t="s">
-        <v>1397</v>
       </c>
       <c r="D195" t="s">
         <v>1491</v>
@@ -11220,42 +11193,42 @@
         <v>1493</v>
       </c>
       <c r="G195" t="s">
-        <v>16</v>
+        <v>1494</v>
       </c>
       <c r="H195" t="s">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="I195" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J195" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="B196" t="s">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="C196" t="s">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="D196" t="s">
-        <v>1498</v>
+        <v>1499</v>
       </c>
       <c r="E196" t="s">
-        <v>1499</v>
+        <v>1500</v>
       </c>
       <c r="F196" t="s">
-        <v>1500</v>
+        <v>1501</v>
       </c>
       <c r="G196" t="s">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="H196" t="s">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="I196" t="s">
         <v>17</v>
@@ -11264,30 +11237,30 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1498</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1434</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1506</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1507</v>
+      </c>
+      <c r="G197" t="s">
+        <v>1502</v>
+      </c>
+      <c r="H197" t="s">
         <v>1503</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1504</v>
-      </c>
-      <c r="C197" t="s">
-        <v>1505</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1506</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1507</v>
-      </c>
-      <c r="F197" t="s">
-        <v>1508</v>
-      </c>
-      <c r="G197" t="s">
-        <v>1509</v>
-      </c>
-      <c r="H197" t="s">
-        <v>1510</v>
       </c>
       <c r="I197" t="s">
         <v>17</v>
@@ -11296,67 +11269,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B198" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D198" t="s">
         <v>1511</v>
       </c>
-      <c r="B198" t="s">
+      <c r="E198" t="s">
         <v>1512</v>
       </c>
-      <c r="C198" t="s">
-        <v>1505</v>
-      </c>
-      <c r="D198" t="s">
-        <v>1441</v>
-      </c>
-      <c r="E198" t="s">
+      <c r="F198" t="s">
         <v>1513</v>
       </c>
-      <c r="F198" t="s">
+      <c r="G198" t="s">
         <v>1514</v>
       </c>
-      <c r="G198" t="s">
-        <v>1509</v>
-      </c>
       <c r="H198" t="s">
-        <v>1510</v>
+        <v>1515</v>
       </c>
       <c r="I198" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J198" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="199" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>1515</v>
-      </c>
-      <c r="B199" t="s">
-        <v>1516</v>
-      </c>
-      <c r="C199" t="s">
-        <v>1517</v>
-      </c>
-      <c r="D199" t="s">
-        <v>1518</v>
-      </c>
-      <c r="E199" t="s">
-        <v>1519</v>
-      </c>
-      <c r="F199" t="s">
-        <v>1520</v>
-      </c>
-      <c r="G199" t="s">
-        <v>1521</v>
-      </c>
-      <c r="H199" t="s">
-        <v>1522</v>
-      </c>
-      <c r="I199" t="s">
-        <v>16</v>
-      </c>
-      <c r="J199" t="s">
         <v>16</v>
       </c>
     </row>
@@ -11364,7 +11305,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J199" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J183 A184:J198" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/judo_therapy/data.xlsx
+++ b/data/judo_therapy/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\デスクトップ\オープンデータ更新（一時保管）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A49712E6-C11B-4C61-905B-E9AC05CF9851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F91CB4-33AC-4A17-865F-476ACA2EC252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="1516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="1508">
   <si>
     <t>№</t>
   </si>
@@ -2828,30 +2828,6 @@
   </si>
   <si>
     <t>2016/09/07</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>エイジ整骨院</t>
-  </si>
-  <si>
-    <t>大林　一也</t>
-  </si>
-  <si>
-    <t>34.256841</t>
-  </si>
-  <si>
-    <t>134.033869</t>
-  </si>
-  <si>
-    <t>香川県高松市香川町浅野１０３５番地８</t>
-  </si>
-  <si>
-    <t>087-879-5995</t>
-  </si>
-  <si>
-    <t>2017/05/10</t>
   </si>
   <si>
     <t>120</t>
@@ -4610,9 +4586,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4952,18 +4927,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J198"/>
+  <dimension ref="A1:J197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="B181" sqref="B181"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="G112" sqref="G112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="63.296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -8799,7 +8769,7 @@
         <v>943</v>
       </c>
       <c r="I120" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J120" t="s">
         <v>16</v>
@@ -8863,7 +8833,7 @@
         <v>959</v>
       </c>
       <c r="I122" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J122" t="s">
         <v>16</v>
@@ -8959,7 +8929,7 @@
         <v>983</v>
       </c>
       <c r="I125" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J125" t="s">
         <v>16</v>
@@ -9017,10 +8987,10 @@
         <v>997</v>
       </c>
       <c r="G127" t="s">
+        <v>16</v>
+      </c>
+      <c r="H127" t="s">
         <v>998</v>
-      </c>
-      <c r="H127" t="s">
-        <v>999</v>
       </c>
       <c r="I127" t="s">
         <v>17</v>
@@ -9031,31 +9001,31 @@
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
+        <v>999</v>
+      </c>
+      <c r="B128" t="s">
         <v>1000</v>
       </c>
-      <c r="B128" t="s">
+      <c r="C128" t="s">
         <v>1001</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>1002</v>
       </c>
-      <c r="D128" t="s">
+      <c r="E128" t="s">
         <v>1003</v>
       </c>
-      <c r="E128" t="s">
+      <c r="F128" t="s">
         <v>1004</v>
       </c>
-      <c r="F128" t="s">
+      <c r="G128" t="s">
         <v>1005</v>
-      </c>
-      <c r="G128" t="s">
-        <v>16</v>
       </c>
       <c r="H128" t="s">
         <v>1006</v>
       </c>
       <c r="I128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J128" t="s">
         <v>16</v>
@@ -9087,7 +9057,7 @@
         <v>1014</v>
       </c>
       <c r="I129" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J129" t="s">
         <v>16</v>
@@ -9116,7 +9086,7 @@
         <v>1021</v>
       </c>
       <c r="H130" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="I130" t="s">
         <v>17</v>
@@ -9127,28 +9097,28 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B131" t="s">
         <v>1023</v>
       </c>
-      <c r="B131" t="s">
+      <c r="C131" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D131" t="s">
         <v>1024</v>
       </c>
-      <c r="C131" t="s">
+      <c r="E131" t="s">
+        <v>233</v>
+      </c>
+      <c r="F131" t="s">
         <v>1025</v>
       </c>
-      <c r="D131" t="s">
+      <c r="G131" t="s">
         <v>1026</v>
       </c>
-      <c r="E131" t="s">
-        <v>1027</v>
-      </c>
-      <c r="F131" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G131" t="s">
-        <v>1029</v>
-      </c>
       <c r="H131" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="I131" t="s">
         <v>17</v>
@@ -9159,28 +9129,28 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E132" t="s">
         <v>1030</v>
       </c>
-      <c r="B132" t="s">
+      <c r="F132" t="s">
         <v>1031</v>
       </c>
-      <c r="C132" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="G132" t="s">
         <v>1032</v>
       </c>
-      <c r="E132" t="s">
-        <v>233</v>
-      </c>
-      <c r="F132" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G132" t="s">
-        <v>1034</v>
-      </c>
       <c r="H132" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="I132" t="s">
         <v>17</v>
@@ -9191,28 +9161,28 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D133" t="s">
         <v>1035</v>
       </c>
-      <c r="B133" t="s">
+      <c r="E133" t="s">
         <v>1036</v>
       </c>
-      <c r="C133" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="F133" t="s">
         <v>1037</v>
       </c>
-      <c r="E133" t="s">
+      <c r="G133" t="s">
         <v>1038</v>
       </c>
-      <c r="F133" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G133" t="s">
-        <v>1040</v>
-      </c>
       <c r="H133" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
       <c r="I133" t="s">
         <v>17</v>
@@ -9223,31 +9193,31 @@
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C134" t="s">
         <v>1041</v>
       </c>
-      <c r="B134" t="s">
+      <c r="D134" t="s">
         <v>1042</v>
       </c>
-      <c r="C134" t="s">
-        <v>1025</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="E134" t="s">
         <v>1043</v>
       </c>
-      <c r="E134" t="s">
+      <c r="F134" t="s">
         <v>1044</v>
       </c>
-      <c r="F134" t="s">
+      <c r="G134" t="s">
         <v>1045</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>1046</v>
       </c>
-      <c r="H134" t="s">
-        <v>1022</v>
-      </c>
       <c r="I134" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J134" t="s">
         <v>16</v>
@@ -9276,7 +9246,7 @@
         <v>1053</v>
       </c>
       <c r="H135" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="I135" t="s">
         <v>16</v>
@@ -9287,28 +9257,28 @@
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B136" t="s">
         <v>1055</v>
       </c>
-      <c r="B136" t="s">
+      <c r="C136" t="s">
         <v>1056</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>1057</v>
       </c>
-      <c r="D136" t="s">
+      <c r="E136" t="s">
         <v>1058</v>
       </c>
-      <c r="E136" t="s">
+      <c r="F136" t="s">
         <v>1059</v>
       </c>
-      <c r="F136" t="s">
+      <c r="G136" t="s">
         <v>1060</v>
       </c>
-      <c r="G136" t="s">
+      <c r="H136" t="s">
         <v>1061</v>
-      </c>
-      <c r="H136" t="s">
-        <v>1054</v>
       </c>
       <c r="I136" t="s">
         <v>16</v>
@@ -9354,25 +9324,25 @@
         <v>1070</v>
       </c>
       <c r="B138" t="s">
+        <v>294</v>
+      </c>
+      <c r="C138" t="s">
         <v>1071</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
+        <v>296</v>
+      </c>
+      <c r="E138" t="s">
+        <v>297</v>
+      </c>
+      <c r="F138" t="s">
         <v>1072</v>
       </c>
-      <c r="D138" t="s">
+      <c r="G138" t="s">
         <v>1073</v>
       </c>
-      <c r="E138" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F138" t="s">
-        <v>1075</v>
-      </c>
-      <c r="G138" t="s">
-        <v>1076</v>
-      </c>
       <c r="H138" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="I138" t="s">
         <v>16</v>
@@ -9383,28 +9353,28 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B139" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1076</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E139" t="s">
         <v>1078</v>
       </c>
-      <c r="B139" t="s">
-        <v>294</v>
-      </c>
-      <c r="C139" t="s">
+      <c r="F139" t="s">
         <v>1079</v>
       </c>
-      <c r="D139" t="s">
-        <v>296</v>
-      </c>
-      <c r="E139" t="s">
-        <v>297</v>
-      </c>
-      <c r="F139" t="s">
+      <c r="G139" t="s">
         <v>1080</v>
       </c>
-      <c r="G139" t="s">
-        <v>1081</v>
-      </c>
       <c r="H139" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
       <c r="I139" t="s">
         <v>16</v>
@@ -9415,28 +9385,28 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B140" t="s">
         <v>1082</v>
       </c>
-      <c r="B140" t="s">
+      <c r="C140" t="s">
         <v>1083</v>
       </c>
-      <c r="C140" t="s">
+      <c r="D140" t="s">
+        <v>1042</v>
+      </c>
+      <c r="E140" t="s">
         <v>1084</v>
       </c>
-      <c r="D140" t="s">
+      <c r="F140" t="s">
         <v>1085</v>
       </c>
-      <c r="E140" t="s">
+      <c r="G140" t="s">
+        <v>16</v>
+      </c>
+      <c r="H140" t="s">
         <v>1086</v>
-      </c>
-      <c r="F140" t="s">
-        <v>1087</v>
-      </c>
-      <c r="G140" t="s">
-        <v>1088</v>
-      </c>
-      <c r="H140" t="s">
-        <v>1077</v>
       </c>
       <c r="I140" t="s">
         <v>16</v>
@@ -9447,25 +9417,25 @@
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C141" t="s">
         <v>1089</v>
       </c>
-      <c r="B141" t="s">
+      <c r="D141" t="s">
         <v>1090</v>
       </c>
-      <c r="C141" t="s">
+      <c r="E141" t="s">
         <v>1091</v>
       </c>
-      <c r="D141" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="F141" t="s">
         <v>1092</v>
       </c>
-      <c r="F141" t="s">
+      <c r="G141" t="s">
         <v>1093</v>
-      </c>
-      <c r="G141" t="s">
-        <v>16</v>
       </c>
       <c r="H141" t="s">
         <v>1094</v>
@@ -9503,7 +9473,7 @@
         <v>1102</v>
       </c>
       <c r="I142" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J142" t="s">
         <v>16</v>
@@ -9529,10 +9499,10 @@
         <v>1108</v>
       </c>
       <c r="G143" t="s">
+        <v>16</v>
+      </c>
+      <c r="H143" t="s">
         <v>1109</v>
-      </c>
-      <c r="H143" t="s">
-        <v>1110</v>
       </c>
       <c r="I143" t="s">
         <v>17</v>
@@ -9543,31 +9513,31 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B144" t="s">
+        <v>834</v>
+      </c>
+      <c r="C144" t="s">
         <v>1111</v>
       </c>
-      <c r="B144" t="s">
+      <c r="D144" t="s">
+        <v>836</v>
+      </c>
+      <c r="E144" t="s">
+        <v>837</v>
+      </c>
+      <c r="F144" t="s">
         <v>1112</v>
       </c>
-      <c r="C144" t="s">
+      <c r="G144" t="s">
+        <v>16</v>
+      </c>
+      <c r="H144" t="s">
         <v>1113</v>
       </c>
-      <c r="D144" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E144" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F144" t="s">
-        <v>1116</v>
-      </c>
-      <c r="G144" t="s">
-        <v>16</v>
-      </c>
-      <c r="H144" t="s">
-        <v>1117</v>
-      </c>
       <c r="I144" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J144" t="s">
         <v>16</v>
@@ -9575,25 +9545,25 @@
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B145" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1117</v>
+      </c>
+      <c r="E145" t="s">
         <v>1118</v>
       </c>
-      <c r="B145" t="s">
-        <v>834</v>
-      </c>
-      <c r="C145" t="s">
+      <c r="F145" t="s">
         <v>1119</v>
       </c>
-      <c r="D145" t="s">
-        <v>836</v>
-      </c>
-      <c r="E145" t="s">
-        <v>837</v>
-      </c>
-      <c r="F145" t="s">
+      <c r="G145" t="s">
         <v>1120</v>
-      </c>
-      <c r="G145" t="s">
-        <v>16</v>
       </c>
       <c r="H145" t="s">
         <v>1121</v>
@@ -9631,7 +9601,7 @@
         <v>1129</v>
       </c>
       <c r="I146" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J146" t="s">
         <v>16</v>
@@ -9663,7 +9633,7 @@
         <v>1137</v>
       </c>
       <c r="I147" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J147" t="s">
         <v>16</v>
@@ -9759,7 +9729,7 @@
         <v>1161</v>
       </c>
       <c r="I150" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J150" t="s">
         <v>16</v>
@@ -9791,7 +9761,7 @@
         <v>1169</v>
       </c>
       <c r="I151" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J151" t="s">
         <v>16</v>
@@ -9837,25 +9807,25 @@
         <v>1179</v>
       </c>
       <c r="C153" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D153" t="s">
         <v>1180</v>
       </c>
-      <c r="D153" t="s">
+      <c r="E153" t="s">
         <v>1181</v>
       </c>
-      <c r="E153" t="s">
+      <c r="F153" t="s">
         <v>1182</v>
       </c>
-      <c r="F153" t="s">
+      <c r="G153" t="s">
         <v>1183</v>
       </c>
-      <c r="G153" t="s">
+      <c r="H153" t="s">
         <v>1184</v>
       </c>
-      <c r="H153" t="s">
-        <v>1185</v>
-      </c>
       <c r="I153" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J153" t="s">
         <v>16</v>
@@ -9863,13 +9833,13 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B154" t="s">
         <v>1186</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>1187</v>
-      </c>
-      <c r="C154" t="s">
-        <v>1025</v>
       </c>
       <c r="D154" t="s">
         <v>1188</v>
@@ -9881,13 +9851,13 @@
         <v>1190</v>
       </c>
       <c r="G154" t="s">
+        <v>16</v>
+      </c>
+      <c r="H154" t="s">
         <v>1191</v>
       </c>
-      <c r="H154" t="s">
-        <v>1192</v>
-      </c>
       <c r="I154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J154" t="s">
         <v>16</v>
@@ -9895,31 +9865,31 @@
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B155" t="s">
         <v>1193</v>
       </c>
-      <c r="B155" t="s">
+      <c r="C155" t="s">
         <v>1194</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>1195</v>
       </c>
-      <c r="D155" t="s">
+      <c r="E155" t="s">
         <v>1196</v>
       </c>
-      <c r="E155" t="s">
+      <c r="F155" t="s">
         <v>1197</v>
       </c>
-      <c r="F155" t="s">
+      <c r="G155" t="s">
         <v>1198</v>
-      </c>
-      <c r="G155" t="s">
-        <v>16</v>
       </c>
       <c r="H155" t="s">
         <v>1199</v>
       </c>
       <c r="I155" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J155" t="s">
         <v>16</v>
@@ -9951,7 +9921,7 @@
         <v>1207</v>
       </c>
       <c r="I156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J156" t="s">
         <v>16</v>
@@ -9983,7 +9953,7 @@
         <v>1215</v>
       </c>
       <c r="I157" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J157" t="s">
         <v>16</v>
@@ -10015,7 +9985,7 @@
         <v>1223</v>
       </c>
       <c r="I158" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J158" t="s">
         <v>16</v>
@@ -10105,10 +10075,10 @@
         <v>1245</v>
       </c>
       <c r="G161" t="s">
-        <v>1246</v>
+        <v>16</v>
       </c>
       <c r="H161" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="I161" t="s">
         <v>16</v>
@@ -10119,28 +10089,28 @@
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B162" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C162" t="s">
         <v>1248</v>
       </c>
-      <c r="B162" t="s">
+      <c r="D162" t="s">
         <v>1249</v>
       </c>
-      <c r="C162" t="s">
+      <c r="E162" t="s">
         <v>1250</v>
       </c>
-      <c r="D162" t="s">
+      <c r="F162" t="s">
         <v>1251</v>
       </c>
-      <c r="E162" t="s">
+      <c r="G162" t="s">
         <v>1252</v>
       </c>
-      <c r="F162" t="s">
+      <c r="H162" t="s">
         <v>1253</v>
-      </c>
-      <c r="G162" t="s">
-        <v>16</v>
-      </c>
-      <c r="H162" t="s">
-        <v>1247</v>
       </c>
       <c r="I162" t="s">
         <v>16</v>
@@ -10175,7 +10145,7 @@
         <v>1261</v>
       </c>
       <c r="I163" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J163" t="s">
         <v>16</v>
@@ -10207,7 +10177,7 @@
         <v>1269</v>
       </c>
       <c r="I164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J164" t="s">
         <v>16</v>
@@ -10239,7 +10209,7 @@
         <v>1277</v>
       </c>
       <c r="I165" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J165" t="s">
         <v>16</v>
@@ -10282,25 +10252,25 @@
         <v>1286</v>
       </c>
       <c r="B167" t="s">
+        <v>110</v>
+      </c>
+      <c r="C167" t="s">
         <v>1287</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
+        <v>112</v>
+      </c>
+      <c r="E167" t="s">
+        <v>113</v>
+      </c>
+      <c r="F167" t="s">
         <v>1288</v>
       </c>
-      <c r="D167" t="s">
+      <c r="G167" t="s">
         <v>1289</v>
       </c>
-      <c r="E167" t="s">
+      <c r="H167" t="s">
         <v>1290</v>
-      </c>
-      <c r="F167" t="s">
-        <v>1291</v>
-      </c>
-      <c r="G167" t="s">
-        <v>1292</v>
-      </c>
-      <c r="H167" t="s">
-        <v>1293</v>
       </c>
       <c r="I167" t="s">
         <v>17</v>
@@ -10311,19 +10281,19 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B168" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D168" t="s">
         <v>1294</v>
       </c>
-      <c r="B168" t="s">
-        <v>110</v>
-      </c>
-      <c r="C168" t="s">
+      <c r="E168" t="s">
         <v>1295</v>
-      </c>
-      <c r="D168" t="s">
-        <v>112</v>
-      </c>
-      <c r="E168" t="s">
-        <v>113</v>
       </c>
       <c r="F168" t="s">
         <v>1296</v>
@@ -10361,13 +10331,13 @@
         <v>1304</v>
       </c>
       <c r="G169" t="s">
+        <v>16</v>
+      </c>
+      <c r="H169" t="s">
         <v>1305</v>
       </c>
-      <c r="H169" t="s">
-        <v>1306</v>
-      </c>
       <c r="I169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J169" t="s">
         <v>16</v>
@@ -10375,31 +10345,31 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B170" t="s">
         <v>1307</v>
       </c>
-      <c r="B170" t="s">
+      <c r="C170" t="s">
         <v>1308</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>1309</v>
       </c>
-      <c r="D170" t="s">
+      <c r="E170" t="s">
         <v>1310</v>
       </c>
-      <c r="E170" t="s">
+      <c r="F170" t="s">
         <v>1311</v>
       </c>
-      <c r="F170" t="s">
+      <c r="G170" t="s">
         <v>1312</v>
-      </c>
-      <c r="G170" t="s">
-        <v>16</v>
       </c>
       <c r="H170" t="s">
         <v>1313</v>
       </c>
       <c r="I170" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J170" t="s">
         <v>16</v>
@@ -10495,7 +10465,7 @@
         <v>1337</v>
       </c>
       <c r="I173" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J173" t="s">
         <v>16</v>
@@ -10521,10 +10491,10 @@
         <v>1343</v>
       </c>
       <c r="G174" t="s">
+        <v>16</v>
+      </c>
+      <c r="H174" t="s">
         <v>1344</v>
-      </c>
-      <c r="H174" t="s">
-        <v>1345</v>
       </c>
       <c r="I174" t="s">
         <v>16</v>
@@ -10535,28 +10505,28 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B175" t="s">
         <v>1346</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>1347</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>1348</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
         <v>1349</v>
       </c>
-      <c r="E175" t="s">
+      <c r="F175" t="s">
         <v>1350</v>
       </c>
-      <c r="F175" t="s">
+      <c r="G175" t="s">
+        <v>16</v>
+      </c>
+      <c r="H175" t="s">
         <v>1351</v>
-      </c>
-      <c r="G175" t="s">
-        <v>16</v>
-      </c>
-      <c r="H175" t="s">
-        <v>1352</v>
       </c>
       <c r="I175" t="s">
         <v>16</v>
@@ -10567,28 +10537,28 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B176" t="s">
         <v>1353</v>
       </c>
-      <c r="B176" t="s">
+      <c r="C176" t="s">
         <v>1354</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>1355</v>
       </c>
-      <c r="D176" t="s">
+      <c r="E176" t="s">
         <v>1356</v>
       </c>
-      <c r="E176" t="s">
+      <c r="F176" t="s">
         <v>1357</v>
       </c>
-      <c r="F176" t="s">
-        <v>1358</v>
-      </c>
       <c r="G176" t="s">
         <v>16</v>
       </c>
       <c r="H176" t="s">
-        <v>1359</v>
+        <v>1344</v>
       </c>
       <c r="I176" t="s">
         <v>16</v>
@@ -10599,31 +10569,31 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C177" t="s">
         <v>1360</v>
       </c>
-      <c r="B177" t="s">
+      <c r="D177" t="s">
         <v>1361</v>
       </c>
-      <c r="C177" t="s">
+      <c r="E177" t="s">
         <v>1362</v>
       </c>
-      <c r="D177" t="s">
+      <c r="F177" t="s">
         <v>1363</v>
       </c>
-      <c r="E177" t="s">
+      <c r="G177" t="s">
         <v>1364</v>
       </c>
-      <c r="F177" t="s">
-        <v>1365</v>
-      </c>
-      <c r="G177" t="s">
-        <v>16</v>
-      </c>
       <c r="H177" t="s">
-        <v>1352</v>
+        <v>1344</v>
       </c>
       <c r="I177" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J177" t="s">
         <v>16</v>
@@ -10631,28 +10601,28 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B178" t="s">
         <v>1366</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>1367</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>1368</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>1369</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
         <v>1370</v>
       </c>
-      <c r="F178" t="s">
+      <c r="G178" t="s">
+        <v>16</v>
+      </c>
+      <c r="H178" t="s">
         <v>1371</v>
-      </c>
-      <c r="G178" t="s">
-        <v>1372</v>
-      </c>
-      <c r="H178" t="s">
-        <v>1352</v>
       </c>
       <c r="I178" t="s">
         <v>17</v>
@@ -10663,31 +10633,31 @@
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B179" t="s">
         <v>1373</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>1374</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>1375</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>1376</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
         <v>1377</v>
       </c>
-      <c r="F179" t="s">
+      <c r="G179" t="s">
         <v>1378</v>
-      </c>
-      <c r="G179" t="s">
-        <v>16</v>
       </c>
       <c r="H179" t="s">
         <v>1379</v>
       </c>
       <c r="I179" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J179" t="s">
         <v>16</v>
@@ -10716,7 +10686,7 @@
         <v>1386</v>
       </c>
       <c r="H180" t="s">
-        <v>1387</v>
+        <v>1239</v>
       </c>
       <c r="I180" t="s">
         <v>16</v>
@@ -10727,28 +10697,28 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B181" t="s">
         <v>1388</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>1389</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>1390</v>
       </c>
-      <c r="D181" t="s">
+      <c r="E181" t="s">
         <v>1391</v>
       </c>
-      <c r="E181" t="s">
+      <c r="F181" t="s">
         <v>1392</v>
       </c>
-      <c r="F181" t="s">
+      <c r="G181" t="s">
+        <v>16</v>
+      </c>
+      <c r="H181" t="s">
         <v>1393</v>
-      </c>
-      <c r="G181" t="s">
-        <v>1394</v>
-      </c>
-      <c r="H181" t="s">
-        <v>1247</v>
       </c>
       <c r="I181" t="s">
         <v>16</v>
@@ -10759,28 +10729,28 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>1394</v>
+      </c>
+      <c r="B182" t="s">
         <v>1395</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>1396</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
+        <v>34</v>
+      </c>
+      <c r="E182" t="s">
         <v>1397</v>
       </c>
-      <c r="D182" t="s">
+      <c r="F182" t="s">
         <v>1398</v>
       </c>
-      <c r="E182" t="s">
+      <c r="G182" t="s">
         <v>1399</v>
       </c>
-      <c r="F182" t="s">
+      <c r="H182" t="s">
         <v>1400</v>
-      </c>
-      <c r="G182" t="s">
-        <v>16</v>
-      </c>
-      <c r="H182" t="s">
-        <v>1401</v>
       </c>
       <c r="I182" t="s">
         <v>16</v>
@@ -10791,16 +10761,16 @@
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B183" t="s">
         <v>1402</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>1403</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>1404</v>
-      </c>
-      <c r="D183" t="s">
-        <v>34</v>
       </c>
       <c r="E183" t="s">
         <v>1405</v>
@@ -10841,13 +10811,13 @@
         <v>1414</v>
       </c>
       <c r="G184" t="s">
+        <v>16</v>
+      </c>
+      <c r="H184" t="s">
         <v>1415</v>
       </c>
-      <c r="H184" t="s">
-        <v>1416</v>
-      </c>
       <c r="I184" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J184" t="s">
         <v>16</v>
@@ -10855,31 +10825,31 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B185" t="s">
         <v>1417</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>1418</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>1419</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>1420</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>1421</v>
       </c>
-      <c r="F185" t="s">
+      <c r="G185" t="s">
+        <v>16</v>
+      </c>
+      <c r="H185" t="s">
         <v>1422</v>
       </c>
-      <c r="G185" t="s">
-        <v>16</v>
-      </c>
-      <c r="H185" t="s">
-        <v>1423</v>
-      </c>
       <c r="I185" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J185" t="s">
         <v>16</v>
@@ -10887,25 +10857,25 @@
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B186" t="s">
         <v>1424</v>
       </c>
-      <c r="B186" t="s">
+      <c r="C186" t="s">
         <v>1425</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>1426</v>
       </c>
-      <c r="D186" t="s">
+      <c r="E186" t="s">
         <v>1427</v>
       </c>
-      <c r="E186" t="s">
+      <c r="F186" t="s">
         <v>1428</v>
       </c>
-      <c r="F186" t="s">
+      <c r="G186" t="s">
         <v>1429</v>
-      </c>
-      <c r="G186" t="s">
-        <v>16</v>
       </c>
       <c r="H186" t="s">
         <v>1430</v>
@@ -10918,34 +10888,34 @@
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A187" s="1" t="s">
+      <c r="A187" t="s">
         <v>1431</v>
       </c>
-      <c r="B187" s="1" t="s">
+      <c r="B187" t="s">
         <v>1432</v>
       </c>
-      <c r="C187" s="1" t="s">
+      <c r="C187" t="s">
         <v>1433</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="D187" t="s">
         <v>1434</v>
       </c>
-      <c r="E187" s="1" t="s">
+      <c r="E187" t="s">
         <v>1435</v>
       </c>
-      <c r="F187" s="1" t="s">
+      <c r="F187" t="s">
         <v>1436</v>
       </c>
-      <c r="G187" s="1" t="s">
+      <c r="G187" t="s">
         <v>1437</v>
       </c>
-      <c r="H187" s="1" t="s">
+      <c r="H187" t="s">
         <v>1438</v>
       </c>
-      <c r="I187" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J187" s="1" t="s">
+      <c r="I187" t="s">
+        <v>16</v>
+      </c>
+      <c r="J187" t="s">
         <v>16</v>
       </c>
     </row>
@@ -11001,13 +10971,13 @@
         <v>1452</v>
       </c>
       <c r="G189" t="s">
-        <v>1453</v>
+        <v>16</v>
       </c>
       <c r="H189" t="s">
-        <v>1454</v>
+        <v>1446</v>
       </c>
       <c r="I189" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J189" t="s">
         <v>16</v>
@@ -11015,28 +10985,28 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C190" t="s">
         <v>1455</v>
       </c>
-      <c r="B190" t="s">
+      <c r="D190" t="s">
         <v>1456</v>
       </c>
-      <c r="C190" t="s">
+      <c r="E190" t="s">
         <v>1457</v>
       </c>
-      <c r="D190" t="s">
+      <c r="F190" t="s">
         <v>1458</v>
       </c>
-      <c r="E190" t="s">
+      <c r="G190" t="s">
+        <v>16</v>
+      </c>
+      <c r="H190" t="s">
         <v>1459</v>
-      </c>
-      <c r="F190" t="s">
-        <v>1460</v>
-      </c>
-      <c r="G190" t="s">
-        <v>16</v>
-      </c>
-      <c r="H190" t="s">
-        <v>1454</v>
       </c>
       <c r="I190" t="s">
         <v>17</v>
@@ -11047,28 +11017,28 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B191" t="s">
         <v>1461</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>1462</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>1463</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>1464</v>
       </c>
-      <c r="E191" t="s">
+      <c r="F191" t="s">
         <v>1465</v>
       </c>
-      <c r="F191" t="s">
+      <c r="G191" t="s">
+        <v>16</v>
+      </c>
+      <c r="H191" t="s">
         <v>1466</v>
-      </c>
-      <c r="G191" t="s">
-        <v>16</v>
-      </c>
-      <c r="H191" t="s">
-        <v>1467</v>
       </c>
       <c r="I191" t="s">
         <v>17</v>
@@ -11079,31 +11049,31 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B192" t="s">
         <v>1468</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>1469</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>1470</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>1471</v>
       </c>
-      <c r="E192" t="s">
+      <c r="F192" t="s">
         <v>1472</v>
       </c>
-      <c r="F192" t="s">
+      <c r="G192" t="s">
+        <v>16</v>
+      </c>
+      <c r="H192" t="s">
         <v>1473</v>
       </c>
-      <c r="G192" t="s">
-        <v>16</v>
-      </c>
-      <c r="H192" t="s">
-        <v>1474</v>
-      </c>
       <c r="I192" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J192" t="s">
         <v>16</v>
@@ -11111,28 +11081,28 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B193" t="s">
         <v>1475</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
+        <v>1389</v>
+      </c>
+      <c r="D193" t="s">
         <v>1476</v>
       </c>
-      <c r="C193" t="s">
+      <c r="E193" t="s">
         <v>1477</v>
       </c>
-      <c r="D193" t="s">
+      <c r="F193" t="s">
         <v>1478</v>
       </c>
-      <c r="E193" t="s">
+      <c r="G193" t="s">
+        <v>16</v>
+      </c>
+      <c r="H193" t="s">
         <v>1479</v>
-      </c>
-      <c r="F193" t="s">
-        <v>1480</v>
-      </c>
-      <c r="G193" t="s">
-        <v>16</v>
-      </c>
-      <c r="H193" t="s">
-        <v>1481</v>
       </c>
       <c r="I193" t="s">
         <v>16</v>
@@ -11143,31 +11113,31 @@
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B194" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C194" t="s">
         <v>1482</v>
       </c>
-      <c r="B194" t="s">
+      <c r="D194" t="s">
         <v>1483</v>
       </c>
-      <c r="C194" t="s">
-        <v>1397</v>
-      </c>
-      <c r="D194" t="s">
+      <c r="E194" t="s">
         <v>1484</v>
       </c>
-      <c r="E194" t="s">
+      <c r="F194" t="s">
         <v>1485</v>
       </c>
-      <c r="F194" t="s">
+      <c r="G194" t="s">
         <v>1486</v>
-      </c>
-      <c r="G194" t="s">
-        <v>16</v>
       </c>
       <c r="H194" t="s">
         <v>1487</v>
       </c>
       <c r="I194" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J194" t="s">
         <v>16</v>
@@ -11213,22 +11183,22 @@
         <v>1497</v>
       </c>
       <c r="C196" t="s">
+        <v>1490</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1426</v>
+      </c>
+      <c r="E196" t="s">
         <v>1498</v>
       </c>
-      <c r="D196" t="s">
+      <c r="F196" t="s">
         <v>1499</v>
       </c>
-      <c r="E196" t="s">
-        <v>1500</v>
-      </c>
-      <c r="F196" t="s">
-        <v>1501</v>
-      </c>
       <c r="G196" t="s">
-        <v>1502</v>
+        <v>1494</v>
       </c>
       <c r="H196" t="s">
-        <v>1503</v>
+        <v>1495</v>
       </c>
       <c r="I196" t="s">
         <v>17</v>
@@ -11239,65 +11209,33 @@
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E197" t="s">
         <v>1504</v>
       </c>
-      <c r="B197" t="s">
+      <c r="F197" t="s">
         <v>1505</v>
       </c>
-      <c r="C197" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1434</v>
-      </c>
-      <c r="E197" t="s">
+      <c r="G197" t="s">
         <v>1506</v>
       </c>
-      <c r="F197" t="s">
+      <c r="H197" t="s">
         <v>1507</v>
       </c>
-      <c r="G197" t="s">
-        <v>1502</v>
-      </c>
-      <c r="H197" t="s">
-        <v>1503</v>
-      </c>
       <c r="I197" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J197" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B198" t="s">
-        <v>1509</v>
-      </c>
-      <c r="C198" t="s">
-        <v>1510</v>
-      </c>
-      <c r="D198" t="s">
-        <v>1511</v>
-      </c>
-      <c r="E198" t="s">
-        <v>1512</v>
-      </c>
-      <c r="F198" t="s">
-        <v>1513</v>
-      </c>
-      <c r="G198" t="s">
-        <v>1514</v>
-      </c>
-      <c r="H198" t="s">
-        <v>1515</v>
-      </c>
-      <c r="I198" t="s">
-        <v>16</v>
-      </c>
-      <c r="J198" t="s">
         <v>16</v>
       </c>
     </row>
@@ -11305,7 +11243,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J183 A184:J198" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J119 A120:J197" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/judo_therapy/data.xlsx
+++ b/data/judo_therapy/data.xlsx
@@ -2,13 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\デスクトップ\オープンデータ更新（一時保管）\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70F91CB4-33AC-4A17-865F-476ACA2EC252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C40362-981A-4507-9EB6-98C89E9D50AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="1508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="1500">
   <si>
     <t>№</t>
   </si>
@@ -227,30 +222,6 @@
   </si>
   <si>
     <t>1989/01/19</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>久富接骨院</t>
-  </si>
-  <si>
-    <t>久保　權三</t>
-  </si>
-  <si>
-    <t>34.337069</t>
-  </si>
-  <si>
-    <t>134.092571</t>
-  </si>
-  <si>
-    <t>香川県高松市春日町１６９９番地７</t>
-  </si>
-  <si>
-    <t>087-841-5797</t>
-  </si>
-  <si>
-    <t>1985/11/01</t>
   </si>
   <si>
     <t>10</t>
@@ -4927,13 +4898,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J197"/>
+  <dimension ref="A1:J196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="G112" sqref="G112"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="28.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.59765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -5345,7 +5320,7 @@
         <v>100</v>
       </c>
       <c r="I13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
@@ -5377,7 +5352,7 @@
         <v>108</v>
       </c>
       <c r="I14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
@@ -5441,7 +5416,7 @@
         <v>124</v>
       </c>
       <c r="I16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J16" t="s">
         <v>16</v>
@@ -5505,7 +5480,7 @@
         <v>140</v>
       </c>
       <c r="I18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" t="s">
         <v>16</v>
@@ -5697,7 +5672,7 @@
         <v>188</v>
       </c>
       <c r="I24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J24" t="s">
         <v>16</v>
@@ -5761,7 +5736,7 @@
         <v>204</v>
       </c>
       <c r="I26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J26" t="s">
         <v>16</v>
@@ -5857,7 +5832,7 @@
         <v>228</v>
       </c>
       <c r="I29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J29" t="s">
         <v>16</v>
@@ -6017,7 +5992,7 @@
         <v>268</v>
       </c>
       <c r="I34" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J34" t="s">
         <v>16</v>
@@ -6049,7 +6024,7 @@
         <v>276</v>
       </c>
       <c r="I35" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J35" t="s">
         <v>16</v>
@@ -6081,7 +6056,7 @@
         <v>284</v>
       </c>
       <c r="I36" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J36" t="s">
         <v>16</v>
@@ -6113,7 +6088,7 @@
         <v>292</v>
       </c>
       <c r="I37" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J37" t="s">
         <v>16</v>
@@ -6145,7 +6120,7 @@
         <v>300</v>
       </c>
       <c r="I38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J38" t="s">
         <v>16</v>
@@ -6209,7 +6184,7 @@
         <v>316</v>
       </c>
       <c r="I40" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J40" t="s">
         <v>16</v>
@@ -6241,7 +6216,7 @@
         <v>324</v>
       </c>
       <c r="I41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J41" t="s">
         <v>16</v>
@@ -6273,7 +6248,7 @@
         <v>332</v>
       </c>
       <c r="I42" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J42" t="s">
         <v>16</v>
@@ -6337,7 +6312,7 @@
         <v>348</v>
       </c>
       <c r="I44" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J44" t="s">
         <v>16</v>
@@ -6369,7 +6344,7 @@
         <v>356</v>
       </c>
       <c r="I45" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J45" t="s">
         <v>16</v>
@@ -6561,7 +6536,7 @@
         <v>404</v>
       </c>
       <c r="I51" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J51" t="s">
         <v>16</v>
@@ -6590,7 +6565,7 @@
         <v>411</v>
       </c>
       <c r="H52" t="s">
-        <v>412</v>
+        <v>292</v>
       </c>
       <c r="I52" t="s">
         <v>16</v>
@@ -6601,28 +6576,28 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
+        <v>412</v>
+      </c>
+      <c r="B53" t="s">
         <v>413</v>
       </c>
-      <c r="B53" t="s">
+      <c r="C53" t="s">
         <v>414</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>415</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>416</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>417</v>
       </c>
-      <c r="F53" t="s">
+      <c r="G53" t="s">
         <v>418</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>419</v>
-      </c>
-      <c r="H53" t="s">
-        <v>300</v>
       </c>
       <c r="I53" t="s">
         <v>16</v>
@@ -6689,7 +6664,7 @@
         <v>435</v>
       </c>
       <c r="I55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J55" t="s">
         <v>16</v>
@@ -6753,7 +6728,7 @@
         <v>451</v>
       </c>
       <c r="I57" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J57" t="s">
         <v>16</v>
@@ -6770,22 +6745,22 @@
         <v>454</v>
       </c>
       <c r="D58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" t="s">
         <v>455</v>
       </c>
-      <c r="E58" t="s">
+      <c r="F58" t="s">
         <v>456</v>
       </c>
-      <c r="F58" t="s">
+      <c r="G58" t="s">
         <v>457</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>458</v>
       </c>
-      <c r="H58" t="s">
-        <v>459</v>
-      </c>
       <c r="I58" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J58" t="s">
         <v>16</v>
@@ -6793,16 +6768,16 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>459</v>
+      </c>
+      <c r="B59" t="s">
         <v>460</v>
       </c>
-      <c r="B59" t="s">
+      <c r="C59" t="s">
         <v>461</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>462</v>
-      </c>
-      <c r="D59" t="s">
-        <v>128</v>
       </c>
       <c r="E59" t="s">
         <v>463</v>
@@ -6817,7 +6792,7 @@
         <v>466</v>
       </c>
       <c r="I59" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J59" t="s">
         <v>16</v>
@@ -6849,7 +6824,7 @@
         <v>474</v>
       </c>
       <c r="I60" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J60" t="s">
         <v>16</v>
@@ -6913,7 +6888,7 @@
         <v>490</v>
       </c>
       <c r="I62" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J62" t="s">
         <v>16</v>
@@ -6945,7 +6920,7 @@
         <v>498</v>
       </c>
       <c r="I63" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J63" t="s">
         <v>16</v>
@@ -7073,7 +7048,7 @@
         <v>530</v>
       </c>
       <c r="I67" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J67" t="s">
         <v>16</v>
@@ -7105,7 +7080,7 @@
         <v>538</v>
       </c>
       <c r="I68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J68" t="s">
         <v>16</v>
@@ -7137,7 +7112,7 @@
         <v>546</v>
       </c>
       <c r="I69" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J69" t="s">
         <v>16</v>
@@ -7169,7 +7144,7 @@
         <v>554</v>
       </c>
       <c r="I70" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J70" t="s">
         <v>16</v>
@@ -7233,7 +7208,7 @@
         <v>570</v>
       </c>
       <c r="I72" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J72" t="s">
         <v>16</v>
@@ -7265,7 +7240,7 @@
         <v>578</v>
       </c>
       <c r="I73" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J73" t="s">
         <v>16</v>
@@ -7425,7 +7400,7 @@
         <v>618</v>
       </c>
       <c r="I78" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J78" t="s">
         <v>16</v>
@@ -7489,7 +7464,7 @@
         <v>634</v>
       </c>
       <c r="I80" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J80" t="s">
         <v>16</v>
@@ -7521,7 +7496,7 @@
         <v>642</v>
       </c>
       <c r="I81" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J81" t="s">
         <v>16</v>
@@ -7585,7 +7560,7 @@
         <v>658</v>
       </c>
       <c r="I83" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J83" t="s">
         <v>16</v>
@@ -7617,7 +7592,7 @@
         <v>666</v>
       </c>
       <c r="I84" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J84" t="s">
         <v>16</v>
@@ -7649,7 +7624,7 @@
         <v>674</v>
       </c>
       <c r="I85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J85" t="s">
         <v>16</v>
@@ -7713,7 +7688,7 @@
         <v>690</v>
       </c>
       <c r="I87" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J87" t="s">
         <v>16</v>
@@ -7745,7 +7720,7 @@
         <v>698</v>
       </c>
       <c r="I88" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J88" t="s">
         <v>16</v>
@@ -7771,10 +7746,10 @@
         <v>704</v>
       </c>
       <c r="G89" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" t="s">
         <v>705</v>
-      </c>
-      <c r="H89" t="s">
-        <v>706</v>
       </c>
       <c r="I89" t="s">
         <v>17</v>
@@ -7785,25 +7760,25 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
+        <v>706</v>
+      </c>
+      <c r="B90" t="s">
         <v>707</v>
       </c>
-      <c r="B90" t="s">
+      <c r="C90" t="s">
         <v>708</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>709</v>
       </c>
-      <c r="D90" t="s">
+      <c r="E90" t="s">
         <v>710</v>
       </c>
-      <c r="E90" t="s">
+      <c r="F90" t="s">
         <v>711</v>
       </c>
-      <c r="F90" t="s">
+      <c r="G90" t="s">
         <v>712</v>
-      </c>
-      <c r="G90" t="s">
-        <v>16</v>
       </c>
       <c r="H90" t="s">
         <v>713</v>
@@ -7820,28 +7795,28 @@
         <v>714</v>
       </c>
       <c r="B91" t="s">
+        <v>86</v>
+      </c>
+      <c r="C91" t="s">
         <v>715</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91" t="s">
+        <v>89</v>
+      </c>
+      <c r="F91" t="s">
         <v>716</v>
       </c>
-      <c r="D91" t="s">
+      <c r="G91" t="s">
         <v>717</v>
       </c>
-      <c r="E91" t="s">
+      <c r="H91" t="s">
         <v>718</v>
       </c>
-      <c r="F91" t="s">
-        <v>719</v>
-      </c>
-      <c r="G91" t="s">
-        <v>720</v>
-      </c>
-      <c r="H91" t="s">
-        <v>721</v>
-      </c>
       <c r="I91" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J91" t="s">
         <v>16</v>
@@ -7849,28 +7824,28 @@
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
+        <v>719</v>
+      </c>
+      <c r="B92" t="s">
+        <v>720</v>
+      </c>
+      <c r="C92" t="s">
+        <v>721</v>
+      </c>
+      <c r="D92" t="s">
         <v>722</v>
       </c>
-      <c r="B92" t="s">
-        <v>94</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="E92" t="s">
         <v>723</v>
-      </c>
-      <c r="D92" t="s">
-        <v>96</v>
-      </c>
-      <c r="E92" t="s">
-        <v>97</v>
       </c>
       <c r="F92" t="s">
         <v>724</v>
       </c>
       <c r="G92" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" t="s">
         <v>725</v>
-      </c>
-      <c r="H92" t="s">
-        <v>726</v>
       </c>
       <c r="I92" t="s">
         <v>16</v>
@@ -7881,28 +7856,28 @@
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
+        <v>726</v>
+      </c>
+      <c r="B93" t="s">
         <v>727</v>
       </c>
-      <c r="B93" t="s">
+      <c r="C93" t="s">
         <v>728</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>729</v>
       </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
         <v>730</v>
       </c>
-      <c r="E93" t="s">
+      <c r="F93" t="s">
         <v>731</v>
       </c>
-      <c r="F93" t="s">
+      <c r="G93" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" t="s">
         <v>732</v>
-      </c>
-      <c r="G93" t="s">
-        <v>16</v>
-      </c>
-      <c r="H93" t="s">
-        <v>733</v>
       </c>
       <c r="I93" t="s">
         <v>16</v>
@@ -7913,25 +7888,25 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
+        <v>733</v>
+      </c>
+      <c r="B94" t="s">
         <v>734</v>
       </c>
-      <c r="B94" t="s">
+      <c r="C94" t="s">
         <v>735</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>736</v>
       </c>
-      <c r="D94" t="s">
+      <c r="E94" t="s">
         <v>737</v>
       </c>
-      <c r="E94" t="s">
+      <c r="F94" t="s">
         <v>738</v>
       </c>
-      <c r="F94" t="s">
+      <c r="G94" t="s">
         <v>739</v>
-      </c>
-      <c r="G94" t="s">
-        <v>16</v>
       </c>
       <c r="H94" t="s">
         <v>740</v>
@@ -7969,7 +7944,7 @@
         <v>748</v>
       </c>
       <c r="I95" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J95" t="s">
         <v>16</v>
@@ -7995,13 +7970,13 @@
         <v>754</v>
       </c>
       <c r="G96" t="s">
-        <v>755</v>
+        <v>16</v>
       </c>
       <c r="H96" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
       <c r="I96" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J96" t="s">
         <v>16</v>
@@ -8009,31 +7984,31 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>755</v>
+      </c>
+      <c r="B97" t="s">
+        <v>756</v>
+      </c>
+      <c r="C97" t="s">
         <v>757</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D97" t="s">
         <v>758</v>
       </c>
-      <c r="C97" t="s">
+      <c r="E97" t="s">
         <v>759</v>
       </c>
-      <c r="D97" t="s">
+      <c r="F97" t="s">
         <v>760</v>
       </c>
-      <c r="E97" t="s">
+      <c r="G97" t="s">
         <v>761</v>
       </c>
-      <c r="F97" t="s">
+      <c r="H97" t="s">
         <v>762</v>
       </c>
-      <c r="G97" t="s">
-        <v>16</v>
-      </c>
-      <c r="H97" t="s">
-        <v>756</v>
-      </c>
       <c r="I97" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J97" t="s">
         <v>16</v>
@@ -8065,7 +8040,7 @@
         <v>770</v>
       </c>
       <c r="I98" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J98" t="s">
         <v>16</v>
@@ -8079,25 +8054,25 @@
         <v>772</v>
       </c>
       <c r="C99" t="s">
+        <v>693</v>
+      </c>
+      <c r="D99" t="s">
         <v>773</v>
       </c>
-      <c r="D99" t="s">
+      <c r="E99" t="s">
         <v>774</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>775</v>
       </c>
-      <c r="F99" t="s">
+      <c r="G99" t="s">
         <v>776</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>777</v>
       </c>
-      <c r="H99" t="s">
-        <v>778</v>
-      </c>
       <c r="I99" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J99" t="s">
         <v>16</v>
@@ -8105,13 +8080,13 @@
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>778</v>
+      </c>
+      <c r="B100" t="s">
         <v>779</v>
       </c>
-      <c r="B100" t="s">
+      <c r="C100" t="s">
         <v>780</v>
-      </c>
-      <c r="C100" t="s">
-        <v>701</v>
       </c>
       <c r="D100" t="s">
         <v>781</v>
@@ -8161,7 +8136,7 @@
         <v>793</v>
       </c>
       <c r="I101" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J101" t="s">
         <v>16</v>
@@ -8187,10 +8162,10 @@
         <v>799</v>
       </c>
       <c r="G102" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" t="s">
         <v>800</v>
-      </c>
-      <c r="H102" t="s">
-        <v>801</v>
       </c>
       <c r="I102" t="s">
         <v>16</v>
@@ -8201,25 +8176,25 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
+        <v>801</v>
+      </c>
+      <c r="B103" t="s">
         <v>802</v>
       </c>
-      <c r="B103" t="s">
+      <c r="C103" t="s">
         <v>803</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>804</v>
       </c>
-      <c r="D103" t="s">
+      <c r="E103" t="s">
         <v>805</v>
       </c>
-      <c r="E103" t="s">
+      <c r="F103" t="s">
         <v>806</v>
       </c>
-      <c r="F103" t="s">
+      <c r="G103" t="s">
         <v>807</v>
-      </c>
-      <c r="G103" t="s">
-        <v>16</v>
       </c>
       <c r="H103" t="s">
         <v>808</v>
@@ -8257,7 +8232,7 @@
         <v>816</v>
       </c>
       <c r="I104" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J104" t="s">
         <v>16</v>
@@ -8289,7 +8264,7 @@
         <v>824</v>
       </c>
       <c r="I105" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J105" t="s">
         <v>16</v>
@@ -8417,7 +8392,7 @@
         <v>856</v>
       </c>
       <c r="I109" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J109" t="s">
         <v>16</v>
@@ -8446,10 +8421,10 @@
         <v>863</v>
       </c>
       <c r="H110" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="I110" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J110" t="s">
         <v>16</v>
@@ -8457,31 +8432,31 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
+        <v>864</v>
+      </c>
+      <c r="B111" t="s">
         <v>865</v>
       </c>
-      <c r="B111" t="s">
+      <c r="C111" t="s">
         <v>866</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>867</v>
       </c>
-      <c r="D111" t="s">
+      <c r="E111" t="s">
         <v>868</v>
       </c>
-      <c r="E111" t="s">
+      <c r="F111" t="s">
         <v>869</v>
       </c>
-      <c r="F111" t="s">
+      <c r="G111" t="s">
         <v>870</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>871</v>
       </c>
-      <c r="H111" t="s">
-        <v>864</v>
-      </c>
       <c r="I111" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J111" t="s">
         <v>16</v>
@@ -8609,7 +8584,7 @@
         <v>903</v>
       </c>
       <c r="I115" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J115" t="s">
         <v>16</v>
@@ -8705,7 +8680,7 @@
         <v>927</v>
       </c>
       <c r="I118" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J118" t="s">
         <v>16</v>
@@ -8801,7 +8776,7 @@
         <v>951</v>
       </c>
       <c r="I121" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J121" t="s">
         <v>16</v>
@@ -8897,7 +8872,7 @@
         <v>975</v>
       </c>
       <c r="I124" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J124" t="s">
         <v>16</v>
@@ -8955,10 +8930,10 @@
         <v>989</v>
       </c>
       <c r="G126" t="s">
+        <v>16</v>
+      </c>
+      <c r="H126" t="s">
         <v>990</v>
-      </c>
-      <c r="H126" t="s">
-        <v>991</v>
       </c>
       <c r="I126" t="s">
         <v>17</v>
@@ -8969,31 +8944,31 @@
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
+        <v>991</v>
+      </c>
+      <c r="B127" t="s">
         <v>992</v>
       </c>
-      <c r="B127" t="s">
+      <c r="C127" t="s">
         <v>993</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>994</v>
       </c>
-      <c r="D127" t="s">
+      <c r="E127" t="s">
         <v>995</v>
       </c>
-      <c r="E127" t="s">
+      <c r="F127" t="s">
         <v>996</v>
       </c>
-      <c r="F127" t="s">
+      <c r="G127" t="s">
         <v>997</v>
-      </c>
-      <c r="G127" t="s">
-        <v>16</v>
       </c>
       <c r="H127" t="s">
         <v>998</v>
       </c>
       <c r="I127" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J127" t="s">
         <v>16</v>
@@ -9025,7 +9000,7 @@
         <v>1006</v>
       </c>
       <c r="I128" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J128" t="s">
         <v>16</v>
@@ -9054,7 +9029,7 @@
         <v>1013</v>
       </c>
       <c r="H129" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="I129" t="s">
         <v>17</v>
@@ -9065,28 +9040,28 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B130" t="s">
         <v>1015</v>
       </c>
-      <c r="B130" t="s">
+      <c r="C130" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D130" t="s">
         <v>1016</v>
       </c>
-      <c r="C130" t="s">
+      <c r="E130" t="s">
+        <v>225</v>
+      </c>
+      <c r="F130" t="s">
         <v>1017</v>
       </c>
-      <c r="D130" t="s">
+      <c r="G130" t="s">
         <v>1018</v>
       </c>
-      <c r="E130" t="s">
-        <v>1019</v>
-      </c>
-      <c r="F130" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G130" t="s">
-        <v>1021</v>
-      </c>
       <c r="H130" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="I130" t="s">
         <v>17</v>
@@ -9097,28 +9072,28 @@
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D131" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E131" t="s">
         <v>1022</v>
       </c>
-      <c r="B131" t="s">
+      <c r="F131" t="s">
         <v>1023</v>
       </c>
-      <c r="C131" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D131" t="s">
+      <c r="G131" t="s">
         <v>1024</v>
       </c>
-      <c r="E131" t="s">
-        <v>233</v>
-      </c>
-      <c r="F131" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G131" t="s">
-        <v>1026</v>
-      </c>
       <c r="H131" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="I131" t="s">
         <v>17</v>
@@ -9129,28 +9104,28 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D132" t="s">
         <v>1027</v>
       </c>
-      <c r="B132" t="s">
+      <c r="E132" t="s">
         <v>1028</v>
       </c>
-      <c r="C132" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D132" t="s">
+      <c r="F132" t="s">
         <v>1029</v>
       </c>
-      <c r="E132" t="s">
+      <c r="G132" t="s">
         <v>1030</v>
       </c>
-      <c r="F132" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G132" t="s">
-        <v>1032</v>
-      </c>
       <c r="H132" t="s">
-        <v>1014</v>
+        <v>1006</v>
       </c>
       <c r="I132" t="s">
         <v>17</v>
@@ -9161,31 +9136,31 @@
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C133" t="s">
         <v>1033</v>
       </c>
-      <c r="B133" t="s">
+      <c r="D133" t="s">
         <v>1034</v>
       </c>
-      <c r="C133" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D133" t="s">
+      <c r="E133" t="s">
         <v>1035</v>
       </c>
-      <c r="E133" t="s">
+      <c r="F133" t="s">
         <v>1036</v>
       </c>
-      <c r="F133" t="s">
+      <c r="G133" t="s">
         <v>1037</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>1038</v>
       </c>
-      <c r="H133" t="s">
-        <v>1014</v>
-      </c>
       <c r="I133" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J133" t="s">
         <v>16</v>
@@ -9214,7 +9189,7 @@
         <v>1045</v>
       </c>
       <c r="H134" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
       <c r="I134" t="s">
         <v>16</v>
@@ -9225,28 +9200,28 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B135" t="s">
         <v>1047</v>
       </c>
-      <c r="B135" t="s">
+      <c r="C135" t="s">
         <v>1048</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>1049</v>
       </c>
-      <c r="D135" t="s">
+      <c r="E135" t="s">
         <v>1050</v>
       </c>
-      <c r="E135" t="s">
+      <c r="F135" t="s">
         <v>1051</v>
       </c>
-      <c r="F135" t="s">
+      <c r="G135" t="s">
         <v>1052</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
         <v>1053</v>
-      </c>
-      <c r="H135" t="s">
-        <v>1046</v>
       </c>
       <c r="I135" t="s">
         <v>16</v>
@@ -9292,25 +9267,25 @@
         <v>1062</v>
       </c>
       <c r="B137" t="s">
+        <v>286</v>
+      </c>
+      <c r="C137" t="s">
         <v>1063</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
+        <v>288</v>
+      </c>
+      <c r="E137" t="s">
+        <v>289</v>
+      </c>
+      <c r="F137" t="s">
         <v>1064</v>
       </c>
-      <c r="D137" t="s">
+      <c r="G137" t="s">
         <v>1065</v>
       </c>
-      <c r="E137" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F137" t="s">
-        <v>1067</v>
-      </c>
-      <c r="G137" t="s">
-        <v>1068</v>
-      </c>
       <c r="H137" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="I137" t="s">
         <v>16</v>
@@ -9321,28 +9296,28 @@
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B138" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1068</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E138" t="s">
         <v>1070</v>
       </c>
-      <c r="B138" t="s">
-        <v>294</v>
-      </c>
-      <c r="C138" t="s">
+      <c r="F138" t="s">
         <v>1071</v>
       </c>
-      <c r="D138" t="s">
-        <v>296</v>
-      </c>
-      <c r="E138" t="s">
-        <v>297</v>
-      </c>
-      <c r="F138" t="s">
+      <c r="G138" t="s">
         <v>1072</v>
       </c>
-      <c r="G138" t="s">
-        <v>1073</v>
-      </c>
       <c r="H138" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
       <c r="I138" t="s">
         <v>16</v>
@@ -9353,28 +9328,28 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B139" t="s">
         <v>1074</v>
       </c>
-      <c r="B139" t="s">
+      <c r="C139" t="s">
         <v>1075</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E139" t="s">
         <v>1076</v>
       </c>
-      <c r="D139" t="s">
+      <c r="F139" t="s">
         <v>1077</v>
       </c>
-      <c r="E139" t="s">
+      <c r="G139" t="s">
+        <v>16</v>
+      </c>
+      <c r="H139" t="s">
         <v>1078</v>
-      </c>
-      <c r="F139" t="s">
-        <v>1079</v>
-      </c>
-      <c r="G139" t="s">
-        <v>1080</v>
-      </c>
-      <c r="H139" t="s">
-        <v>1069</v>
       </c>
       <c r="I139" t="s">
         <v>16</v>
@@ -9385,25 +9360,25 @@
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B140" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C140" t="s">
         <v>1081</v>
       </c>
-      <c r="B140" t="s">
+      <c r="D140" t="s">
         <v>1082</v>
       </c>
-      <c r="C140" t="s">
+      <c r="E140" t="s">
         <v>1083</v>
       </c>
-      <c r="D140" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="F140" t="s">
         <v>1084</v>
       </c>
-      <c r="F140" t="s">
+      <c r="G140" t="s">
         <v>1085</v>
-      </c>
-      <c r="G140" t="s">
-        <v>16</v>
       </c>
       <c r="H140" t="s">
         <v>1086</v>
@@ -9441,7 +9416,7 @@
         <v>1094</v>
       </c>
       <c r="I141" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J141" t="s">
         <v>16</v>
@@ -9467,10 +9442,10 @@
         <v>1100</v>
       </c>
       <c r="G142" t="s">
+        <v>16</v>
+      </c>
+      <c r="H142" t="s">
         <v>1101</v>
-      </c>
-      <c r="H142" t="s">
-        <v>1102</v>
       </c>
       <c r="I142" t="s">
         <v>17</v>
@@ -9481,31 +9456,31 @@
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B143" t="s">
+        <v>826</v>
+      </c>
+      <c r="C143" t="s">
         <v>1103</v>
       </c>
-      <c r="B143" t="s">
+      <c r="D143" t="s">
+        <v>828</v>
+      </c>
+      <c r="E143" t="s">
+        <v>829</v>
+      </c>
+      <c r="F143" t="s">
         <v>1104</v>
       </c>
-      <c r="C143" t="s">
+      <c r="G143" t="s">
+        <v>16</v>
+      </c>
+      <c r="H143" t="s">
         <v>1105</v>
       </c>
-      <c r="D143" t="s">
-        <v>1106</v>
-      </c>
-      <c r="E143" t="s">
-        <v>1107</v>
-      </c>
-      <c r="F143" t="s">
-        <v>1108</v>
-      </c>
-      <c r="G143" t="s">
-        <v>16</v>
-      </c>
-      <c r="H143" t="s">
-        <v>1109</v>
-      </c>
       <c r="I143" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J143" t="s">
         <v>16</v>
@@ -9513,25 +9488,25 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B144" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1109</v>
+      </c>
+      <c r="E144" t="s">
         <v>1110</v>
       </c>
-      <c r="B144" t="s">
-        <v>834</v>
-      </c>
-      <c r="C144" t="s">
+      <c r="F144" t="s">
         <v>1111</v>
       </c>
-      <c r="D144" t="s">
-        <v>836</v>
-      </c>
-      <c r="E144" t="s">
-        <v>837</v>
-      </c>
-      <c r="F144" t="s">
+      <c r="G144" t="s">
         <v>1112</v>
-      </c>
-      <c r="G144" t="s">
-        <v>16</v>
       </c>
       <c r="H144" t="s">
         <v>1113</v>
@@ -9569,7 +9544,7 @@
         <v>1121</v>
       </c>
       <c r="I145" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J145" t="s">
         <v>16</v>
@@ -9601,7 +9576,7 @@
         <v>1129</v>
       </c>
       <c r="I146" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J146" t="s">
         <v>16</v>
@@ -9697,7 +9672,7 @@
         <v>1153</v>
       </c>
       <c r="I149" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J149" t="s">
         <v>16</v>
@@ -9729,7 +9704,7 @@
         <v>1161</v>
       </c>
       <c r="I150" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J150" t="s">
         <v>16</v>
@@ -9775,25 +9750,25 @@
         <v>1171</v>
       </c>
       <c r="C152" t="s">
+        <v>1009</v>
+      </c>
+      <c r="D152" t="s">
         <v>1172</v>
       </c>
-      <c r="D152" t="s">
+      <c r="E152" t="s">
         <v>1173</v>
       </c>
-      <c r="E152" t="s">
+      <c r="F152" t="s">
         <v>1174</v>
       </c>
-      <c r="F152" t="s">
+      <c r="G152" t="s">
         <v>1175</v>
       </c>
-      <c r="G152" t="s">
+      <c r="H152" t="s">
         <v>1176</v>
       </c>
-      <c r="H152" t="s">
-        <v>1177</v>
-      </c>
       <c r="I152" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J152" t="s">
         <v>16</v>
@@ -9801,13 +9776,13 @@
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B153" t="s">
         <v>1178</v>
       </c>
-      <c r="B153" t="s">
+      <c r="C153" t="s">
         <v>1179</v>
-      </c>
-      <c r="C153" t="s">
-        <v>1017</v>
       </c>
       <c r="D153" t="s">
         <v>1180</v>
@@ -9819,13 +9794,13 @@
         <v>1182</v>
       </c>
       <c r="G153" t="s">
+        <v>16</v>
+      </c>
+      <c r="H153" t="s">
         <v>1183</v>
       </c>
-      <c r="H153" t="s">
-        <v>1184</v>
-      </c>
       <c r="I153" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J153" t="s">
         <v>16</v>
@@ -9833,31 +9808,31 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B154" t="s">
         <v>1185</v>
       </c>
-      <c r="B154" t="s">
+      <c r="C154" t="s">
         <v>1186</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>1187</v>
       </c>
-      <c r="D154" t="s">
+      <c r="E154" t="s">
         <v>1188</v>
       </c>
-      <c r="E154" t="s">
+      <c r="F154" t="s">
         <v>1189</v>
       </c>
-      <c r="F154" t="s">
+      <c r="G154" t="s">
         <v>1190</v>
-      </c>
-      <c r="G154" t="s">
-        <v>16</v>
       </c>
       <c r="H154" t="s">
         <v>1191</v>
       </c>
       <c r="I154" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J154" t="s">
         <v>16</v>
@@ -9889,7 +9864,7 @@
         <v>1199</v>
       </c>
       <c r="I155" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J155" t="s">
         <v>16</v>
@@ -9921,7 +9896,7 @@
         <v>1207</v>
       </c>
       <c r="I156" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J156" t="s">
         <v>16</v>
@@ -9953,7 +9928,7 @@
         <v>1215</v>
       </c>
       <c r="I157" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J157" t="s">
         <v>16</v>
@@ -10043,10 +10018,10 @@
         <v>1237</v>
       </c>
       <c r="G160" t="s">
-        <v>1238</v>
+        <v>16</v>
       </c>
       <c r="H160" t="s">
-        <v>1239</v>
+        <v>1231</v>
       </c>
       <c r="I160" t="s">
         <v>16</v>
@@ -10057,28 +10032,28 @@
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B161" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C161" t="s">
         <v>1240</v>
       </c>
-      <c r="B161" t="s">
+      <c r="D161" t="s">
         <v>1241</v>
       </c>
-      <c r="C161" t="s">
+      <c r="E161" t="s">
         <v>1242</v>
       </c>
-      <c r="D161" t="s">
+      <c r="F161" t="s">
         <v>1243</v>
       </c>
-      <c r="E161" t="s">
+      <c r="G161" t="s">
         <v>1244</v>
       </c>
-      <c r="F161" t="s">
+      <c r="H161" t="s">
         <v>1245</v>
-      </c>
-      <c r="G161" t="s">
-        <v>16</v>
-      </c>
-      <c r="H161" t="s">
-        <v>1239</v>
       </c>
       <c r="I161" t="s">
         <v>16</v>
@@ -10113,7 +10088,7 @@
         <v>1253</v>
       </c>
       <c r="I162" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J162" t="s">
         <v>16</v>
@@ -10145,7 +10120,7 @@
         <v>1261</v>
       </c>
       <c r="I163" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J163" t="s">
         <v>16</v>
@@ -10177,7 +10152,7 @@
         <v>1269</v>
       </c>
       <c r="I164" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J164" t="s">
         <v>16</v>
@@ -10220,25 +10195,25 @@
         <v>1278</v>
       </c>
       <c r="B166" t="s">
+        <v>102</v>
+      </c>
+      <c r="C166" t="s">
         <v>1279</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
+        <v>104</v>
+      </c>
+      <c r="E166" t="s">
+        <v>105</v>
+      </c>
+      <c r="F166" t="s">
         <v>1280</v>
       </c>
-      <c r="D166" t="s">
+      <c r="G166" t="s">
         <v>1281</v>
       </c>
-      <c r="E166" t="s">
+      <c r="H166" t="s">
         <v>1282</v>
-      </c>
-      <c r="F166" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G166" t="s">
-        <v>1284</v>
-      </c>
-      <c r="H166" t="s">
-        <v>1285</v>
       </c>
       <c r="I166" t="s">
         <v>17</v>
@@ -10249,19 +10224,19 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B167" t="s">
+        <v>1284</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D167" t="s">
         <v>1286</v>
       </c>
-      <c r="B167" t="s">
-        <v>110</v>
-      </c>
-      <c r="C167" t="s">
+      <c r="E167" t="s">
         <v>1287</v>
-      </c>
-      <c r="D167" t="s">
-        <v>112</v>
-      </c>
-      <c r="E167" t="s">
-        <v>113</v>
       </c>
       <c r="F167" t="s">
         <v>1288</v>
@@ -10299,13 +10274,13 @@
         <v>1296</v>
       </c>
       <c r="G168" t="s">
+        <v>16</v>
+      </c>
+      <c r="H168" t="s">
         <v>1297</v>
       </c>
-      <c r="H168" t="s">
-        <v>1298</v>
-      </c>
       <c r="I168" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J168" t="s">
         <v>16</v>
@@ -10313,31 +10288,31 @@
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B169" t="s">
         <v>1299</v>
       </c>
-      <c r="B169" t="s">
+      <c r="C169" t="s">
         <v>1300</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>1301</v>
       </c>
-      <c r="D169" t="s">
+      <c r="E169" t="s">
         <v>1302</v>
       </c>
-      <c r="E169" t="s">
+      <c r="F169" t="s">
         <v>1303</v>
       </c>
-      <c r="F169" t="s">
+      <c r="G169" t="s">
         <v>1304</v>
-      </c>
-      <c r="G169" t="s">
-        <v>16</v>
       </c>
       <c r="H169" t="s">
         <v>1305</v>
       </c>
       <c r="I169" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J169" t="s">
         <v>16</v>
@@ -10433,7 +10408,7 @@
         <v>1329</v>
       </c>
       <c r="I172" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J172" t="s">
         <v>16</v>
@@ -10459,10 +10434,10 @@
         <v>1335</v>
       </c>
       <c r="G173" t="s">
+        <v>16</v>
+      </c>
+      <c r="H173" t="s">
         <v>1336</v>
-      </c>
-      <c r="H173" t="s">
-        <v>1337</v>
       </c>
       <c r="I173" t="s">
         <v>16</v>
@@ -10473,28 +10448,28 @@
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B174" t="s">
         <v>1338</v>
       </c>
-      <c r="B174" t="s">
+      <c r="C174" t="s">
         <v>1339</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>1340</v>
       </c>
-      <c r="D174" t="s">
+      <c r="E174" t="s">
         <v>1341</v>
       </c>
-      <c r="E174" t="s">
+      <c r="F174" t="s">
         <v>1342</v>
       </c>
-      <c r="F174" t="s">
+      <c r="G174" t="s">
+        <v>16</v>
+      </c>
+      <c r="H174" t="s">
         <v>1343</v>
-      </c>
-      <c r="G174" t="s">
-        <v>16</v>
-      </c>
-      <c r="H174" t="s">
-        <v>1344</v>
       </c>
       <c r="I174" t="s">
         <v>16</v>
@@ -10505,28 +10480,28 @@
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B175" t="s">
         <v>1345</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>1346</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>1347</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
         <v>1348</v>
       </c>
-      <c r="E175" t="s">
+      <c r="F175" t="s">
         <v>1349</v>
       </c>
-      <c r="F175" t="s">
-        <v>1350</v>
-      </c>
       <c r="G175" t="s">
         <v>16</v>
       </c>
       <c r="H175" t="s">
-        <v>1351</v>
+        <v>1336</v>
       </c>
       <c r="I175" t="s">
         <v>16</v>
@@ -10537,31 +10512,31 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C176" t="s">
         <v>1352</v>
       </c>
-      <c r="B176" t="s">
+      <c r="D176" t="s">
         <v>1353</v>
       </c>
-      <c r="C176" t="s">
+      <c r="E176" t="s">
         <v>1354</v>
       </c>
-      <c r="D176" t="s">
+      <c r="F176" t="s">
         <v>1355</v>
       </c>
-      <c r="E176" t="s">
+      <c r="G176" t="s">
         <v>1356</v>
       </c>
-      <c r="F176" t="s">
-        <v>1357</v>
-      </c>
-      <c r="G176" t="s">
-        <v>16</v>
-      </c>
       <c r="H176" t="s">
-        <v>1344</v>
+        <v>1336</v>
       </c>
       <c r="I176" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J176" t="s">
         <v>16</v>
@@ -10569,28 +10544,28 @@
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B177" t="s">
         <v>1358</v>
       </c>
-      <c r="B177" t="s">
+      <c r="C177" t="s">
         <v>1359</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>1360</v>
       </c>
-      <c r="D177" t="s">
+      <c r="E177" t="s">
         <v>1361</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>1362</v>
       </c>
-      <c r="F177" t="s">
+      <c r="G177" t="s">
+        <v>16</v>
+      </c>
+      <c r="H177" t="s">
         <v>1363</v>
-      </c>
-      <c r="G177" t="s">
-        <v>1364</v>
-      </c>
-      <c r="H177" t="s">
-        <v>1344</v>
       </c>
       <c r="I177" t="s">
         <v>17</v>
@@ -10601,31 +10576,31 @@
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B178" t="s">
         <v>1365</v>
       </c>
-      <c r="B178" t="s">
+      <c r="C178" t="s">
         <v>1366</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>1367</v>
       </c>
-      <c r="D178" t="s">
+      <c r="E178" t="s">
         <v>1368</v>
       </c>
-      <c r="E178" t="s">
+      <c r="F178" t="s">
         <v>1369</v>
       </c>
-      <c r="F178" t="s">
+      <c r="G178" t="s">
         <v>1370</v>
-      </c>
-      <c r="G178" t="s">
-        <v>16</v>
       </c>
       <c r="H178" t="s">
         <v>1371</v>
       </c>
       <c r="I178" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J178" t="s">
         <v>16</v>
@@ -10654,7 +10629,7 @@
         <v>1378</v>
       </c>
       <c r="H179" t="s">
-        <v>1379</v>
+        <v>1231</v>
       </c>
       <c r="I179" t="s">
         <v>16</v>
@@ -10665,28 +10640,28 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B180" t="s">
         <v>1380</v>
       </c>
-      <c r="B180" t="s">
+      <c r="C180" t="s">
         <v>1381</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>1382</v>
       </c>
-      <c r="D180" t="s">
+      <c r="E180" t="s">
         <v>1383</v>
       </c>
-      <c r="E180" t="s">
+      <c r="F180" t="s">
         <v>1384</v>
       </c>
-      <c r="F180" t="s">
+      <c r="G180" t="s">
+        <v>16</v>
+      </c>
+      <c r="H180" t="s">
         <v>1385</v>
-      </c>
-      <c r="G180" t="s">
-        <v>1386</v>
-      </c>
-      <c r="H180" t="s">
-        <v>1239</v>
       </c>
       <c r="I180" t="s">
         <v>16</v>
@@ -10697,28 +10672,28 @@
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
+        <v>1386</v>
+      </c>
+      <c r="B181" t="s">
         <v>1387</v>
       </c>
-      <c r="B181" t="s">
+      <c r="C181" t="s">
         <v>1388</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
+        <v>34</v>
+      </c>
+      <c r="E181" t="s">
         <v>1389</v>
       </c>
-      <c r="D181" t="s">
+      <c r="F181" t="s">
         <v>1390</v>
       </c>
-      <c r="E181" t="s">
+      <c r="G181" t="s">
         <v>1391</v>
       </c>
-      <c r="F181" t="s">
+      <c r="H181" t="s">
         <v>1392</v>
-      </c>
-      <c r="G181" t="s">
-        <v>16</v>
-      </c>
-      <c r="H181" t="s">
-        <v>1393</v>
       </c>
       <c r="I181" t="s">
         <v>16</v>
@@ -10729,16 +10704,16 @@
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B182" t="s">
         <v>1394</v>
       </c>
-      <c r="B182" t="s">
+      <c r="C182" t="s">
         <v>1395</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>1396</v>
-      </c>
-      <c r="D182" t="s">
-        <v>34</v>
       </c>
       <c r="E182" t="s">
         <v>1397</v>
@@ -10779,13 +10754,13 @@
         <v>1406</v>
       </c>
       <c r="G183" t="s">
+        <v>16</v>
+      </c>
+      <c r="H183" t="s">
         <v>1407</v>
       </c>
-      <c r="H183" t="s">
-        <v>1408</v>
-      </c>
       <c r="I183" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J183" t="s">
         <v>16</v>
@@ -10793,31 +10768,31 @@
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B184" t="s">
         <v>1409</v>
       </c>
-      <c r="B184" t="s">
+      <c r="C184" t="s">
         <v>1410</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>1411</v>
       </c>
-      <c r="D184" t="s">
+      <c r="E184" t="s">
         <v>1412</v>
       </c>
-      <c r="E184" t="s">
+      <c r="F184" t="s">
         <v>1413</v>
       </c>
-      <c r="F184" t="s">
+      <c r="G184" t="s">
+        <v>16</v>
+      </c>
+      <c r="H184" t="s">
         <v>1414</v>
       </c>
-      <c r="G184" t="s">
-        <v>16</v>
-      </c>
-      <c r="H184" t="s">
-        <v>1415</v>
-      </c>
       <c r="I184" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J184" t="s">
         <v>16</v>
@@ -10825,25 +10800,25 @@
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B185" t="s">
         <v>1416</v>
       </c>
-      <c r="B185" t="s">
+      <c r="C185" t="s">
         <v>1417</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>1418</v>
       </c>
-      <c r="D185" t="s">
+      <c r="E185" t="s">
         <v>1419</v>
       </c>
-      <c r="E185" t="s">
+      <c r="F185" t="s">
         <v>1420</v>
       </c>
-      <c r="F185" t="s">
+      <c r="G185" t="s">
         <v>1421</v>
-      </c>
-      <c r="G185" t="s">
-        <v>16</v>
       </c>
       <c r="H185" t="s">
         <v>1422</v>
@@ -10939,13 +10914,13 @@
         <v>1444</v>
       </c>
       <c r="G188" t="s">
-        <v>1445</v>
+        <v>16</v>
       </c>
       <c r="H188" t="s">
-        <v>1446</v>
+        <v>1438</v>
       </c>
       <c r="I188" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J188" t="s">
         <v>16</v>
@@ -10953,28 +10928,28 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B189" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C189" t="s">
         <v>1447</v>
       </c>
-      <c r="B189" t="s">
+      <c r="D189" t="s">
         <v>1448</v>
       </c>
-      <c r="C189" t="s">
+      <c r="E189" t="s">
         <v>1449</v>
       </c>
-      <c r="D189" t="s">
+      <c r="F189" t="s">
         <v>1450</v>
       </c>
-      <c r="E189" t="s">
+      <c r="G189" t="s">
+        <v>16</v>
+      </c>
+      <c r="H189" t="s">
         <v>1451</v>
-      </c>
-      <c r="F189" t="s">
-        <v>1452</v>
-      </c>
-      <c r="G189" t="s">
-        <v>16</v>
-      </c>
-      <c r="H189" t="s">
-        <v>1446</v>
       </c>
       <c r="I189" t="s">
         <v>17</v>
@@ -10985,28 +10960,28 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B190" t="s">
         <v>1453</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>1454</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>1455</v>
       </c>
-      <c r="D190" t="s">
+      <c r="E190" t="s">
         <v>1456</v>
       </c>
-      <c r="E190" t="s">
+      <c r="F190" t="s">
         <v>1457</v>
       </c>
-      <c r="F190" t="s">
+      <c r="G190" t="s">
+        <v>16</v>
+      </c>
+      <c r="H190" t="s">
         <v>1458</v>
-      </c>
-      <c r="G190" t="s">
-        <v>16</v>
-      </c>
-      <c r="H190" t="s">
-        <v>1459</v>
       </c>
       <c r="I190" t="s">
         <v>17</v>
@@ -11017,31 +10992,31 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B191" t="s">
         <v>1460</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>1461</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>1462</v>
       </c>
-      <c r="D191" t="s">
+      <c r="E191" t="s">
         <v>1463</v>
       </c>
-      <c r="E191" t="s">
+      <c r="F191" t="s">
         <v>1464</v>
       </c>
-      <c r="F191" t="s">
+      <c r="G191" t="s">
+        <v>16</v>
+      </c>
+      <c r="H191" t="s">
         <v>1465</v>
       </c>
-      <c r="G191" t="s">
-        <v>16</v>
-      </c>
-      <c r="H191" t="s">
-        <v>1466</v>
-      </c>
       <c r="I191" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J191" t="s">
         <v>16</v>
@@ -11049,28 +11024,28 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B192" t="s">
         <v>1467</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
+        <v>1381</v>
+      </c>
+      <c r="D192" t="s">
         <v>1468</v>
       </c>
-      <c r="C192" t="s">
+      <c r="E192" t="s">
         <v>1469</v>
       </c>
-      <c r="D192" t="s">
+      <c r="F192" t="s">
         <v>1470</v>
       </c>
-      <c r="E192" t="s">
+      <c r="G192" t="s">
+        <v>16</v>
+      </c>
+      <c r="H192" t="s">
         <v>1471</v>
-      </c>
-      <c r="F192" t="s">
-        <v>1472</v>
-      </c>
-      <c r="G192" t="s">
-        <v>16</v>
-      </c>
-      <c r="H192" t="s">
-        <v>1473</v>
       </c>
       <c r="I192" t="s">
         <v>16</v>
@@ -11081,31 +11056,31 @@
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B193" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C193" t="s">
         <v>1474</v>
       </c>
-      <c r="B193" t="s">
+      <c r="D193" t="s">
         <v>1475</v>
       </c>
-      <c r="C193" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D193" t="s">
+      <c r="E193" t="s">
         <v>1476</v>
       </c>
-      <c r="E193" t="s">
+      <c r="F193" t="s">
         <v>1477</v>
       </c>
-      <c r="F193" t="s">
+      <c r="G193" t="s">
         <v>1478</v>
-      </c>
-      <c r="G193" t="s">
-        <v>16</v>
       </c>
       <c r="H193" t="s">
         <v>1479</v>
       </c>
       <c r="I193" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J193" t="s">
         <v>16</v>
@@ -11151,22 +11126,22 @@
         <v>1489</v>
       </c>
       <c r="C195" t="s">
+        <v>1482</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1418</v>
+      </c>
+      <c r="E195" t="s">
         <v>1490</v>
       </c>
-      <c r="D195" t="s">
+      <c r="F195" t="s">
         <v>1491</v>
       </c>
-      <c r="E195" t="s">
-        <v>1492</v>
-      </c>
-      <c r="F195" t="s">
-        <v>1493</v>
-      </c>
       <c r="G195" t="s">
-        <v>1494</v>
+        <v>1486</v>
       </c>
       <c r="H195" t="s">
-        <v>1495</v>
+        <v>1487</v>
       </c>
       <c r="I195" t="s">
         <v>17</v>
@@ -11177,73 +11152,42 @@
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B196" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E196" t="s">
         <v>1496</v>
       </c>
-      <c r="B196" t="s">
+      <c r="F196" t="s">
         <v>1497</v>
       </c>
-      <c r="C196" t="s">
-        <v>1490</v>
-      </c>
-      <c r="D196" t="s">
-        <v>1426</v>
-      </c>
-      <c r="E196" t="s">
+      <c r="G196" t="s">
         <v>1498</v>
       </c>
-      <c r="F196" t="s">
+      <c r="H196" t="s">
         <v>1499</v>
       </c>
-      <c r="G196" t="s">
-        <v>1494</v>
-      </c>
-      <c r="H196" t="s">
-        <v>1495</v>
-      </c>
       <c r="I196" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J196" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B197" t="s">
-        <v>1501</v>
-      </c>
-      <c r="C197" t="s">
-        <v>1502</v>
-      </c>
-      <c r="D197" t="s">
-        <v>1503</v>
-      </c>
-      <c r="E197" t="s">
-        <v>1504</v>
-      </c>
-      <c r="F197" t="s">
-        <v>1505</v>
-      </c>
-      <c r="G197" t="s">
-        <v>1506</v>
-      </c>
-      <c r="H197" t="s">
-        <v>1507</v>
-      </c>
-      <c r="I197" t="s">
-        <v>16</v>
-      </c>
-      <c r="J197" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J119 A120:J197" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J9 A10:J196" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/judo_therapy/data.xlsx
+++ b/data/judo_therapy/data.xlsx
@@ -2,8 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C40362-981A-4507-9EB6-98C89E9D50AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD19F009-02C9-45A4-BC59-8EADFB754562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1960" uniqueCount="1500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="1508">
   <si>
     <t>№</t>
   </si>
@@ -1808,7 +1813,7 @@
     <t>かわばた整骨院</t>
   </si>
   <si>
-    <t>株式会社アスリートステーション</t>
+    <t>川畑　勇一</t>
   </si>
   <si>
     <t>34.347489</t>
@@ -1823,7 +1828,7 @@
     <t>087-887-0614</t>
   </si>
   <si>
-    <t>2010/10/14</t>
+    <t>2025/08/01</t>
   </si>
   <si>
     <t>77</t>
@@ -4514,7 +4519,31 @@
     <t>087-802-8107</t>
   </si>
   <si>
-    <t>2025/3/31</t>
+    <t>2025/03/31</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>あさぬま接骨院</t>
+  </si>
+  <si>
+    <t>淺沼　蓮</t>
+  </si>
+  <si>
+    <t>34.30707</t>
+  </si>
+  <si>
+    <t>133.98330</t>
+  </si>
+  <si>
+    <t>高松市御厩町１６６９－２</t>
+  </si>
+  <si>
+    <t>087-800-6199</t>
+  </si>
+  <si>
+    <t>2025/08/25</t>
   </si>
 </sst>
 </file>
@@ -4898,19 +4927,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J196"/>
+  <dimension ref="A1:J197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="J189" sqref="J189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="28.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4942,7 +4970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -4974,7 +5002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -5006,7 +5034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -5038,7 +5066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>31</v>
       </c>
@@ -5070,7 +5098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -5102,7 +5130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -5134,7 +5162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -5166,7 +5194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -5198,7 +5226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>69</v>
       </c>
@@ -5230,7 +5258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -5262,7 +5290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -5294,7 +5322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -5326,7 +5354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>101</v>
       </c>
@@ -5358,7 +5386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>109</v>
       </c>
@@ -5390,7 +5418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>117</v>
       </c>
@@ -5422,7 +5450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>125</v>
       </c>
@@ -5454,7 +5482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>133</v>
       </c>
@@ -5486,7 +5514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>141</v>
       </c>
@@ -5518,7 +5546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>149</v>
       </c>
@@ -5550,7 +5578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>157</v>
       </c>
@@ -5582,7 +5610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>165</v>
       </c>
@@ -5614,7 +5642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>173</v>
       </c>
@@ -5646,7 +5674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>181</v>
       </c>
@@ -5678,7 +5706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>189</v>
       </c>
@@ -5710,7 +5738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>197</v>
       </c>
@@ -5742,7 +5770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>205</v>
       </c>
@@ -5774,7 +5802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>213</v>
       </c>
@@ -5806,7 +5834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>221</v>
       </c>
@@ -5838,7 +5866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>229</v>
       </c>
@@ -5870,7 +5898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>237</v>
       </c>
@@ -5902,7 +5930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>245</v>
       </c>
@@ -5934,7 +5962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>253</v>
       </c>
@@ -5966,7 +5994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>261</v>
       </c>
@@ -5998,7 +6026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>269</v>
       </c>
@@ -6030,7 +6058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>277</v>
       </c>
@@ -6062,7 +6090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>285</v>
       </c>
@@ -6094,7 +6122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>293</v>
       </c>
@@ -6126,7 +6154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>301</v>
       </c>
@@ -6158,7 +6186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>309</v>
       </c>
@@ -6190,7 +6218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>317</v>
       </c>
@@ -6222,7 +6250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>325</v>
       </c>
@@ -6254,7 +6282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>333</v>
       </c>
@@ -6286,7 +6314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>341</v>
       </c>
@@ -6318,7 +6346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>349</v>
       </c>
@@ -6350,7 +6378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>357</v>
       </c>
@@ -6382,7 +6410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>365</v>
       </c>
@@ -6414,7 +6442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>373</v>
       </c>
@@ -6446,7 +6474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>381</v>
       </c>
@@ -6478,7 +6506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>389</v>
       </c>
@@ -6510,7 +6538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>397</v>
       </c>
@@ -6542,7 +6570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>405</v>
       </c>
@@ -6574,7 +6602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>412</v>
       </c>
@@ -6606,7 +6634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>420</v>
       </c>
@@ -6638,7 +6666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>428</v>
       </c>
@@ -6670,7 +6698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>436</v>
       </c>
@@ -6702,7 +6730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>444</v>
       </c>
@@ -6734,7 +6762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>452</v>
       </c>
@@ -6766,7 +6794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>459</v>
       </c>
@@ -6798,7 +6826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>467</v>
       </c>
@@ -6830,7 +6858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>475</v>
       </c>
@@ -6862,7 +6890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>483</v>
       </c>
@@ -6894,7 +6922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>491</v>
       </c>
@@ -6926,7 +6954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>499</v>
       </c>
@@ -6958,7 +6986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>507</v>
       </c>
@@ -6990,7 +7018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>515</v>
       </c>
@@ -7022,7 +7050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>523</v>
       </c>
@@ -7054,7 +7082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>531</v>
       </c>
@@ -7086,7 +7114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>539</v>
       </c>
@@ -7118,7 +7146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>547</v>
       </c>
@@ -7150,7 +7178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>555</v>
       </c>
@@ -7182,7 +7210,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>563</v>
       </c>
@@ -7214,7 +7242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>571</v>
       </c>
@@ -7246,7 +7274,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>579</v>
       </c>
@@ -7278,7 +7306,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>587</v>
       </c>
@@ -7310,7 +7338,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>595</v>
       </c>
@@ -7342,7 +7370,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>603</v>
       </c>
@@ -7374,7 +7402,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>611</v>
       </c>
@@ -7406,7 +7434,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>619</v>
       </c>
@@ -7438,7 +7466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>627</v>
       </c>
@@ -7470,7 +7498,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>635</v>
       </c>
@@ -7502,7 +7530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>643</v>
       </c>
@@ -7534,7 +7562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>651</v>
       </c>
@@ -7566,7 +7594,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>659</v>
       </c>
@@ -7598,7 +7626,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>667</v>
       </c>
@@ -7630,7 +7658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>675</v>
       </c>
@@ -7662,7 +7690,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>683</v>
       </c>
@@ -7694,7 +7722,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>691</v>
       </c>
@@ -7726,7 +7754,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>699</v>
       </c>
@@ -7758,7 +7786,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>706</v>
       </c>
@@ -7790,7 +7818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>714</v>
       </c>
@@ -7822,7 +7850,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>719</v>
       </c>
@@ -7854,7 +7882,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>726</v>
       </c>
@@ -7886,7 +7914,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>733</v>
       </c>
@@ -7918,7 +7946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>741</v>
       </c>
@@ -7950,7 +7978,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>749</v>
       </c>
@@ -7982,7 +8010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>755</v>
       </c>
@@ -8014,7 +8042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>763</v>
       </c>
@@ -8046,7 +8074,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>771</v>
       </c>
@@ -8078,7 +8106,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>778</v>
       </c>
@@ -8110,7 +8138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>786</v>
       </c>
@@ -8142,7 +8170,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>794</v>
       </c>
@@ -8174,7 +8202,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>801</v>
       </c>
@@ -8206,7 +8234,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>809</v>
       </c>
@@ -8238,7 +8266,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>817</v>
       </c>
@@ -8270,7 +8298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>825</v>
       </c>
@@ -8302,7 +8330,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>833</v>
       </c>
@@ -8334,7 +8362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>841</v>
       </c>
@@ -8366,7 +8394,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>849</v>
       </c>
@@ -8398,7 +8426,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>857</v>
       </c>
@@ -8430,7 +8458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>864</v>
       </c>
@@ -8462,7 +8490,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>872</v>
       </c>
@@ -8494,7 +8522,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>880</v>
       </c>
@@ -8526,7 +8554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>888</v>
       </c>
@@ -8558,7 +8586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>896</v>
       </c>
@@ -8590,7 +8618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>904</v>
       </c>
@@ -8622,7 +8650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>912</v>
       </c>
@@ -8654,7 +8682,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>920</v>
       </c>
@@ -8686,7 +8714,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>928</v>
       </c>
@@ -8718,7 +8746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>936</v>
       </c>
@@ -8750,7 +8778,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>944</v>
       </c>
@@ -8782,7 +8810,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>952</v>
       </c>
@@ -8814,7 +8842,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>960</v>
       </c>
@@ -8846,7 +8874,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>968</v>
       </c>
@@ -8878,7 +8906,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>976</v>
       </c>
@@ -8910,7 +8938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>984</v>
       </c>
@@ -8942,7 +8970,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>991</v>
       </c>
@@ -8974,7 +9002,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>999</v>
       </c>
@@ -9006,7 +9034,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>1007</v>
       </c>
@@ -9038,7 +9066,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>1014</v>
       </c>
@@ -9070,7 +9098,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>1019</v>
       </c>
@@ -9102,7 +9130,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>1025</v>
       </c>
@@ -9134,7 +9162,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>1031</v>
       </c>
@@ -9166,7 +9194,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>1039</v>
       </c>
@@ -9198,7 +9226,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>1046</v>
       </c>
@@ -9230,7 +9258,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>1054</v>
       </c>
@@ -9262,7 +9290,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>1062</v>
       </c>
@@ -9294,7 +9322,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>1066</v>
       </c>
@@ -9326,7 +9354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>1073</v>
       </c>
@@ -9358,7 +9386,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>1079</v>
       </c>
@@ -9390,7 +9418,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>1087</v>
       </c>
@@ -9422,7 +9450,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1095</v>
       </c>
@@ -9454,7 +9482,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>1102</v>
       </c>
@@ -9486,7 +9514,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>1106</v>
       </c>
@@ -9518,7 +9546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>1114</v>
       </c>
@@ -9550,7 +9578,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>1122</v>
       </c>
@@ -9582,7 +9610,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>1130</v>
       </c>
@@ -9614,7 +9642,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>1138</v>
       </c>
@@ -9646,7 +9674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>1146</v>
       </c>
@@ -9678,7 +9706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>1154</v>
       </c>
@@ -9710,7 +9738,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>1162</v>
       </c>
@@ -9742,7 +9770,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>1170</v>
       </c>
@@ -9774,7 +9802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>1177</v>
       </c>
@@ -9806,7 +9834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>1184</v>
       </c>
@@ -9838,7 +9866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>1192</v>
       </c>
@@ -9870,7 +9898,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>1200</v>
       </c>
@@ -9902,7 +9930,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>1208</v>
       </c>
@@ -9934,7 +9962,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1216</v>
       </c>
@@ -9966,7 +9994,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>1224</v>
       </c>
@@ -9998,7 +10026,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>1232</v>
       </c>
@@ -10030,7 +10058,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>1238</v>
       </c>
@@ -10062,7 +10090,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>1246</v>
       </c>
@@ -10094,7 +10122,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>1254</v>
       </c>
@@ -10126,7 +10154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>1262</v>
       </c>
@@ -10158,7 +10186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>1270</v>
       </c>
@@ -10190,7 +10218,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>1278</v>
       </c>
@@ -10222,7 +10250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>1283</v>
       </c>
@@ -10254,7 +10282,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>1291</v>
       </c>
@@ -10286,7 +10314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>1298</v>
       </c>
@@ -10318,7 +10346,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>1306</v>
       </c>
@@ -10350,7 +10378,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>1314</v>
       </c>
@@ -10382,7 +10410,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>1322</v>
       </c>
@@ -10414,7 +10442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>1330</v>
       </c>
@@ -10446,7 +10474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>1337</v>
       </c>
@@ -10478,7 +10506,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>1344</v>
       </c>
@@ -10510,7 +10538,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>1350</v>
       </c>
@@ -10542,7 +10570,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1357</v>
       </c>
@@ -10574,7 +10602,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>1364</v>
       </c>
@@ -10606,7 +10634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>1372</v>
       </c>
@@ -10638,7 +10666,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>1379</v>
       </c>
@@ -10670,7 +10698,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>1386</v>
       </c>
@@ -10702,7 +10730,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>1393</v>
       </c>
@@ -10734,7 +10762,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>1401</v>
       </c>
@@ -10766,7 +10794,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>1408</v>
       </c>
@@ -10798,7 +10826,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>1415</v>
       </c>
@@ -10830,7 +10858,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>1423</v>
       </c>
@@ -10862,7 +10890,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>1431</v>
       </c>
@@ -10894,7 +10922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>1439</v>
       </c>
@@ -10926,7 +10954,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>1445</v>
       </c>
@@ -10958,7 +10986,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>1452</v>
       </c>
@@ -10990,7 +11018,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>1459</v>
       </c>
@@ -11022,7 +11050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>1466</v>
       </c>
@@ -11054,7 +11082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>1472</v>
       </c>
@@ -11086,7 +11114,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>1480</v>
       </c>
@@ -11118,7 +11146,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>1488</v>
       </c>
@@ -11150,7 +11178,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1492</v>
       </c>
@@ -11180,14 +11208,39 @@
       </c>
       <c r="J196" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1502</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1503</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1504</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1505</v>
+      </c>
+      <c r="G197" t="s">
+        <v>1506</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1507</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J9 A10:J196" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J196 A197:I197" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/judo_therapy/data.xlsx
+++ b/data/judo_therapy/data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD19F009-02C9-45A4-BC59-8EADFB754562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F6ED01-8713-4741-AE16-8C78A32C5D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1968" uniqueCount="1508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="1508">
   <si>
     <t>№</t>
   </si>
@@ -3286,16 +3286,16 @@
     <t>142</t>
   </si>
   <si>
-    <t>すずらん鍼灸整骨院</t>
-  </si>
-  <si>
-    <t>岩崎　洋己</t>
-  </si>
-  <si>
-    <t>34.348707</t>
-  </si>
-  <si>
-    <t>134.010709</t>
+    <t>すずらん整骨院</t>
+  </si>
+  <si>
+    <t>株式会社　NatuLia</t>
+  </si>
+  <si>
+    <t>34.34846</t>
+  </si>
+  <si>
+    <t>134.01072</t>
   </si>
   <si>
     <t>香川県高松市郷東町４７０番地１</t>
@@ -3304,7 +3304,7 @@
     <t>087-880-5677</t>
   </si>
   <si>
-    <t>2019/02/19</t>
+    <t>2025/09/01</t>
   </si>
   <si>
     <t>143</t>
@@ -4537,7 +4537,7 @@
     <t>133.98330</t>
   </si>
   <si>
-    <t>高松市御厩町１６６９－２</t>
+    <t>高松市御厩町１６６９−２</t>
   </si>
   <si>
     <t>087-800-6199</t>
@@ -4566,12 +4566,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -4586,8 +4592,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4929,14 +4936,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="J189" sqref="J189"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="B141" sqref="B141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="28.19921875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -9422,7 +9426,7 @@
       <c r="A141" t="s">
         <v>1087</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="1" t="s">
         <v>1088</v>
       </c>
       <c r="C141" t="s">
@@ -11234,13 +11238,19 @@
       </c>
       <c r="H197" t="s">
         <v>1507</v>
+      </c>
+      <c r="I197" t="s">
+        <v>16</v>
+      </c>
+      <c r="J197" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J196 A197:I197" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:J197" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/judo_therapy/data.xlsx
+++ b/data/judo_therapy/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\userdata\52845\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28F6ED01-8713-4741-AE16-8C78A32C5D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A4B392-79B9-4310-8EC9-66D794ECA939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1970" uniqueCount="1508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="1516">
   <si>
     <t>№</t>
   </si>
@@ -4544,6 +4544,30 @@
   </si>
   <si>
     <t>2025/08/25</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>宮本接骨院（休止中）</t>
+  </si>
+  <si>
+    <t>宮本　修</t>
+  </si>
+  <si>
+    <t>34.27722</t>
+  </si>
+  <si>
+    <t>134.08669</t>
+  </si>
+  <si>
+    <t>高松市川島本町２０３</t>
+  </si>
+  <si>
+    <t>087-848-0227</t>
+  </si>
+  <si>
+    <t>1979/01/16</t>
   </si>
 </sst>
 </file>
@@ -4934,10 +4958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J197"/>
+  <dimension ref="A1:J198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
-      <selection activeCell="B141" sqref="B141"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -5231,32 +5255,32 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D10" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" t="s">
-        <v>73</v>
-      </c>
-      <c r="F10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H10" t="s">
-        <v>76</v>
-      </c>
-      <c r="I10" t="s">
-        <v>16</v>
+      <c r="A10" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="J10" t="s">
         <v>16</v>
@@ -5264,28 +5288,28 @@
     </row>
     <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="E11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="G11" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="H11" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s">
         <v>16</v>
@@ -5296,28 +5320,28 @@
     </row>
     <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E12" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I12" t="s">
         <v>16</v>
@@ -5328,31 +5352,31 @@
     </row>
     <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C13" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D13" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
@@ -5360,31 +5384,31 @@
     </row>
     <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C14" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F14" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="H14" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J14" t="s">
         <v>16</v>
@@ -5392,28 +5416,28 @@
     </row>
     <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E15" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="G15" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="H15" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I15" t="s">
         <v>16</v>
@@ -5424,31 +5448,31 @@
     </row>
     <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B16" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C16" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="E16" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="H16" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" t="s">
         <v>16</v>
@@ -5456,28 +5480,28 @@
     </row>
     <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B17" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C17" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="E17" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="G17" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="H17" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="I17" t="s">
         <v>17</v>
@@ -5488,31 +5512,31 @@
     </row>
     <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C18" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G18" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="H18" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J18" t="s">
         <v>16</v>
@@ -5520,28 +5544,28 @@
     </row>
     <row r="19" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D19" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E19" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F19" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G19" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="I19" t="s">
         <v>16</v>
@@ -5552,28 +5576,28 @@
     </row>
     <row r="20" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B20" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C20" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E20" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F20" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G20" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="H20" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="I20" t="s">
         <v>16</v>
@@ -5584,28 +5608,28 @@
     </row>
     <row r="21" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B21" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C21" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D21" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E21" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F21" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G21" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="H21" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="I21" t="s">
         <v>16</v>
@@ -5616,28 +5640,28 @@
     </row>
     <row r="22" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C22" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D22" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E22" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G22" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="H22" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I22" t="s">
         <v>16</v>
@@ -5648,28 +5672,28 @@
     </row>
     <row r="23" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D23" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="E23" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="F23" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G23" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="H23" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I23" t="s">
         <v>16</v>
@@ -5680,31 +5704,31 @@
     </row>
     <row r="24" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B24" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="D24" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E24" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F24" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G24" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="H24" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="I24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J24" t="s">
         <v>16</v>
@@ -5712,28 +5736,28 @@
     </row>
     <row r="25" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="D25" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E25" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="F25" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G25" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H25" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -5744,31 +5768,31 @@
     </row>
     <row r="26" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C26" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D26" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E26" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G26" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H26" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="I26" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J26" t="s">
         <v>16</v>
@@ -5776,28 +5800,28 @@
     </row>
     <row r="27" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C27" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D27" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E27" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="G27" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="H27" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="I27" t="s">
         <v>16</v>
@@ -5808,28 +5832,28 @@
     </row>
     <row r="28" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B28" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C28" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D28" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="E28" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="F28" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="G28" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="H28" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="I28" t="s">
         <v>16</v>
@@ -5840,31 +5864,31 @@
     </row>
     <row r="29" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B29" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C29" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D29" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="E29" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F29" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G29" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H29" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J29" t="s">
         <v>16</v>
@@ -5872,28 +5896,28 @@
     </row>
     <row r="30" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B30" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C30" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D30" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="E30" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="F30" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="G30" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="H30" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="I30" t="s">
         <v>17</v>
@@ -5904,28 +5928,28 @@
     </row>
     <row r="31" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B31" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C31" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="D31" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="E31" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="F31" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="G31" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="H31" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="I31" t="s">
         <v>17</v>
@@ -5936,28 +5960,28 @@
     </row>
     <row r="32" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B32" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C32" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="D32" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="E32" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="F32" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="G32" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H32" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="I32" t="s">
         <v>17</v>
@@ -5968,28 +5992,28 @@
     </row>
     <row r="33" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="B33" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C33" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="D33" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="E33" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F33" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="G33" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="H33" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
@@ -6000,31 +6024,31 @@
     </row>
     <row r="34" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B34" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C34" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="D34" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E34" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F34" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="G34" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="H34" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="I34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J34" t="s">
         <v>16</v>
@@ -6032,31 +6056,31 @@
     </row>
     <row r="35" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B35" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C35" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D35" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="E35" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F35" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="G35" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="H35" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="I35" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J35" t="s">
         <v>16</v>
@@ -6064,31 +6088,31 @@
     </row>
     <row r="36" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B36" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C36" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D36" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E36" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F36" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="G36" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="H36" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="I36" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J36" t="s">
         <v>16</v>
@@ -6096,31 +6120,31 @@
     </row>
     <row r="37" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B37" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C37" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="D37" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E37" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="F37" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="G37" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="H37" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="I37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J37" t="s">
         <v>16</v>
@@ -6128,31 +6152,31 @@
     </row>
     <row r="38" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B38" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C38" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="D38" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="E38" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F38" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G38" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H38" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="I38" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J38" t="s">
         <v>16</v>
@@ -6160,28 +6184,28 @@
     </row>
     <row r="39" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B39" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C39" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D39" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="E39" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F39" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="G39" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="H39" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="I39" t="s">
         <v>16</v>
@@ -6192,31 +6216,31 @@
     </row>
     <row r="40" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B40" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C40" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D40" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="E40" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="F40" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="G40" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="H40" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="I40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J40" t="s">
         <v>16</v>
@@ -6224,31 +6248,31 @@
     </row>
     <row r="41" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B41" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C41" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="D41" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="E41" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="F41" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="G41" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="H41" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="I41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J41" t="s">
         <v>16</v>
@@ -6256,31 +6280,31 @@
     </row>
     <row r="42" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B42" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C42" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="D42" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E42" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="F42" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G42" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="H42" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="I42" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J42" t="s">
         <v>16</v>
@@ -6288,28 +6312,28 @@
     </row>
     <row r="43" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B43" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C43" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="D43" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="E43" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F43" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="G43" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H43" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="I43" t="s">
         <v>17</v>
@@ -6320,31 +6344,31 @@
     </row>
     <row r="44" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B44" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C44" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="D44" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="E44" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F44" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G44" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="H44" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="I44" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J44" t="s">
         <v>16</v>
@@ -6352,31 +6376,31 @@
     </row>
     <row r="45" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B45" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C45" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="D45" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="E45" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F45" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G45" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H45" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="I45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J45" t="s">
         <v>16</v>
@@ -6384,28 +6408,28 @@
     </row>
     <row r="46" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B46" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C46" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D46" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="E46" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="F46" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="G46" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="H46" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="I46" t="s">
         <v>17</v>
@@ -6416,28 +6440,28 @@
     </row>
     <row r="47" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B47" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C47" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="D47" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="E47" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="F47" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="G47" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="H47" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="I47" t="s">
         <v>17</v>
@@ -6448,28 +6472,28 @@
     </row>
     <row r="48" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B48" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C48" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="D48" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="E48" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="F48" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="G48" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H48" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="I48" t="s">
         <v>17</v>
@@ -6480,28 +6504,28 @@
     </row>
     <row r="49" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B49" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C49" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="D49" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="E49" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="F49" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="G49" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="H49" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="I49" t="s">
         <v>17</v>
@@ -6512,28 +6536,28 @@
     </row>
     <row r="50" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B50" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C50" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="D50" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="E50" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="F50" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G50" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H50" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="I50" t="s">
         <v>17</v>
@@ -6544,31 +6568,31 @@
     </row>
     <row r="51" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B51" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C51" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="D51" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="E51" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="F51" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="G51" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="H51" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="I51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J51" t="s">
         <v>16</v>
@@ -6576,28 +6600,28 @@
     </row>
     <row r="52" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B52" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C52" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="D52" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="E52" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="F52" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="G52" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="H52" t="s">
-        <v>292</v>
+        <v>404</v>
       </c>
       <c r="I52" t="s">
         <v>16</v>
@@ -6608,28 +6632,28 @@
     </row>
     <row r="53" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B53" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="C53" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="D53" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E53" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="F53" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="G53" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="H53" t="s">
-        <v>419</v>
+        <v>292</v>
       </c>
       <c r="I53" t="s">
         <v>16</v>
@@ -6640,28 +6664,28 @@
     </row>
     <row r="54" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B54" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C54" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="D54" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="E54" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="F54" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="G54" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="H54" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="I54" t="s">
         <v>16</v>
@@ -6672,31 +6696,31 @@
     </row>
     <row r="55" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B55" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C55" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D55" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E55" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="F55" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="G55" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="H55" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="I55" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J55" t="s">
         <v>16</v>
@@ -6704,28 +6728,28 @@
     </row>
     <row r="56" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B56" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C56" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D56" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="E56" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="F56" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G56" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="H56" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="I56" t="s">
         <v>17</v>
@@ -6736,31 +6760,31 @@
     </row>
     <row r="57" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B57" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C57" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="D57" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="E57" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="F57" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="G57" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="H57" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="I57" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J57" t="s">
         <v>16</v>
@@ -6768,31 +6792,31 @@
     </row>
     <row r="58" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B58" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C58" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="D58" t="s">
-        <v>120</v>
+        <v>447</v>
       </c>
       <c r="E58" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="F58" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="G58" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="H58" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="I58" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J58" t="s">
         <v>16</v>
@@ -6800,31 +6824,31 @@
     </row>
     <row r="59" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="B59" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="C59" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="D59" t="s">
-        <v>462</v>
+        <v>120</v>
       </c>
       <c r="E59" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F59" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G59" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="H59" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="I59" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J59" t="s">
         <v>16</v>
@@ -6832,31 +6856,31 @@
     </row>
     <row r="60" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B60" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C60" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="D60" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="E60" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F60" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G60" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="H60" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="I60" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J60" t="s">
         <v>16</v>
@@ -6864,28 +6888,28 @@
     </row>
     <row r="61" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="B61" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C61" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="D61" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="E61" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F61" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G61" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="H61" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="I61" t="s">
         <v>17</v>
@@ -6896,31 +6920,31 @@
     </row>
     <row r="62" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="B62" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C62" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="D62" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="E62" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F62" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="G62" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="H62" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="I62" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J62" t="s">
         <v>16</v>
@@ -6928,31 +6952,31 @@
     </row>
     <row r="63" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="B63" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C63" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="D63" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="E63" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F63" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="G63" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="H63" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="I63" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J63" t="s">
         <v>16</v>
@@ -6960,28 +6984,28 @@
     </row>
     <row r="64" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="B64" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C64" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="D64" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="E64" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="F64" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G64" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="H64" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="I64" t="s">
         <v>17</v>
@@ -6992,28 +7016,28 @@
     </row>
     <row r="65" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="B65" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C65" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D65" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="E65" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F65" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="G65" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="H65" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="I65" t="s">
         <v>17</v>
@@ -7024,28 +7048,28 @@
     </row>
     <row r="66" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="B66" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C66" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="D66" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="E66" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="F66" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="G66" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="H66" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="I66" t="s">
         <v>17</v>
@@ -7056,31 +7080,31 @@
     </row>
     <row r="67" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B67" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C67" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="D67" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="E67" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F67" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G67" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="H67" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="I67" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J67" t="s">
         <v>16</v>
@@ -7088,31 +7112,31 @@
     </row>
     <row r="68" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B68" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C68" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="D68" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="E68" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="F68" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="G68" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="H68" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="I68" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J68" t="s">
         <v>16</v>
@@ -7120,31 +7144,31 @@
     </row>
     <row r="69" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B69" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C69" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="D69" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="E69" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="F69" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="G69" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="H69" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="I69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J69" t="s">
         <v>16</v>
@@ -7152,31 +7176,31 @@
     </row>
     <row r="70" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="B70" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C70" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D70" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E70" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="F70" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="G70" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="H70" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="I70" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J70" t="s">
         <v>16</v>
@@ -7184,28 +7208,28 @@
     </row>
     <row r="71" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B71" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C71" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D71" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="E71" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="F71" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="G71" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="H71" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="I71" t="s">
         <v>17</v>
@@ -7216,31 +7240,31 @@
     </row>
     <row r="72" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B72" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="C72" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="D72" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="E72" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="F72" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="G72" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="H72" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="I72" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J72" t="s">
         <v>16</v>
@@ -7248,31 +7272,31 @@
     </row>
     <row r="73" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B73" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C73" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="D73" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="E73" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="F73" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="G73" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="H73" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="I73" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J73" t="s">
         <v>16</v>
@@ -7280,28 +7304,28 @@
     </row>
     <row r="74" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B74" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C74" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="D74" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="E74" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F74" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="G74" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="H74" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="I74" t="s">
         <v>17</v>
@@ -7312,28 +7336,28 @@
     </row>
     <row r="75" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="B75" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C75" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="D75" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="E75" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F75" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="G75" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="H75" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="I75" t="s">
         <v>17</v>
@@ -7344,28 +7368,28 @@
     </row>
     <row r="76" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B76" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="C76" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="D76" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="E76" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="F76" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="G76" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="H76" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="I76" t="s">
         <v>17</v>
@@ -7376,28 +7400,28 @@
     </row>
     <row r="77" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B77" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="C77" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="D77" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="E77" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="F77" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="G77" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="H77" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="I77" t="s">
         <v>17</v>
@@ -7408,31 +7432,31 @@
     </row>
     <row r="78" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="B78" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="C78" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
       <c r="D78" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="E78" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="F78" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="G78" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="H78" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="I78" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J78" t="s">
         <v>16</v>
@@ -7440,28 +7464,28 @@
     </row>
     <row r="79" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B79" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="C79" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="D79" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="E79" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="F79" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="G79" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="H79" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="I79" t="s">
         <v>16</v>
@@ -7472,31 +7496,31 @@
     </row>
     <row r="80" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="B80" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="C80" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="D80" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="E80" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="F80" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="G80" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="H80" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="I80" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J80" t="s">
         <v>16</v>
@@ -7504,31 +7528,31 @@
     </row>
     <row r="81" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B81" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="C81" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="D81" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="E81" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="F81" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="G81" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="H81" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="I81" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J81" t="s">
         <v>16</v>
@@ -7536,28 +7560,28 @@
     </row>
     <row r="82" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="B82" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="C82" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="D82" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="E82" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F82" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G82" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="H82" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="I82" t="s">
         <v>16</v>
@@ -7568,31 +7592,31 @@
     </row>
     <row r="83" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="B83" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="C83" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="D83" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="E83" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="F83" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="G83" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="H83" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="I83" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J83" t="s">
         <v>16</v>
@@ -7600,31 +7624,31 @@
     </row>
     <row r="84" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B84" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="C84" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="D84" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
       <c r="E84" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
       <c r="F84" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="G84" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="H84" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="I84" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J84" t="s">
         <v>16</v>
@@ -7632,31 +7656,31 @@
     </row>
     <row r="85" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="B85" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="C85" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="D85" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="E85" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="F85" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="G85" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
       <c r="H85" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
       <c r="I85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J85" t="s">
         <v>16</v>
@@ -7664,28 +7688,28 @@
     </row>
     <row r="86" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="B86" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="C86" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="D86" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="E86" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="F86" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="G86" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
       <c r="H86" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
       <c r="I86" t="s">
         <v>17</v>
@@ -7696,31 +7720,31 @@
     </row>
     <row r="87" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B87" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="C87" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="D87" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="E87" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
       <c r="F87" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="G87" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
       <c r="H87" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
       <c r="I87" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J87" t="s">
         <v>16</v>
@@ -7728,31 +7752,31 @@
     </row>
     <row r="88" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
       <c r="B88" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
       <c r="C88" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
       <c r="D88" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
       <c r="E88" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
       <c r="F88" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
       <c r="G88" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="H88" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="I88" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J88" t="s">
         <v>16</v>
@@ -7760,28 +7784,28 @@
     </row>
     <row r="89" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B89" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="C89" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
       <c r="D89" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="E89" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="F89" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="G89" t="s">
-        <v>16</v>
+        <v>697</v>
       </c>
       <c r="H89" t="s">
-        <v>705</v>
+        <v>698</v>
       </c>
       <c r="I89" t="s">
         <v>17</v>
@@ -7792,28 +7816,28 @@
     </row>
     <row r="90" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="B90" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="C90" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="D90" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="E90" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="F90" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="G90" t="s">
-        <v>712</v>
+        <v>16</v>
       </c>
       <c r="H90" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="I90" t="s">
         <v>17</v>
@@ -7824,31 +7848,31 @@
     </row>
     <row r="91" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
       <c r="B91" t="s">
-        <v>86</v>
+        <v>707</v>
       </c>
       <c r="C91" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="D91" t="s">
-        <v>88</v>
+        <v>709</v>
       </c>
       <c r="E91" t="s">
-        <v>89</v>
+        <v>710</v>
       </c>
       <c r="F91" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="G91" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="H91" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="I91" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J91" t="s">
         <v>16</v>
@@ -7856,28 +7880,28 @@
     </row>
     <row r="92" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B92" t="s">
-        <v>720</v>
+        <v>86</v>
       </c>
       <c r="C92" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="D92" t="s">
-        <v>722</v>
+        <v>88</v>
       </c>
       <c r="E92" t="s">
-        <v>723</v>
+        <v>89</v>
       </c>
       <c r="F92" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="G92" t="s">
-        <v>16</v>
+        <v>717</v>
       </c>
       <c r="H92" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="I92" t="s">
         <v>16</v>
@@ -7888,28 +7912,28 @@
     </row>
     <row r="93" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B93" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="C93" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="D93" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="E93" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="F93" t="s">
-        <v>731</v>
+        <v>724</v>
       </c>
       <c r="G93" t="s">
         <v>16</v>
       </c>
       <c r="H93" t="s">
-        <v>732</v>
+        <v>725</v>
       </c>
       <c r="I93" t="s">
         <v>16</v>
@@ -7920,28 +7944,28 @@
     </row>
     <row r="94" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>733</v>
+        <v>726</v>
       </c>
       <c r="B94" t="s">
-        <v>734</v>
+        <v>727</v>
       </c>
       <c r="C94" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="D94" t="s">
-        <v>736</v>
+        <v>729</v>
       </c>
       <c r="E94" t="s">
-        <v>737</v>
+        <v>730</v>
       </c>
       <c r="F94" t="s">
-        <v>738</v>
+        <v>731</v>
       </c>
       <c r="G94" t="s">
-        <v>739</v>
+        <v>16</v>
       </c>
       <c r="H94" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
       <c r="I94" t="s">
         <v>16</v>
@@ -7952,31 +7976,31 @@
     </row>
     <row r="95" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
       <c r="B95" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
       <c r="C95" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
       <c r="D95" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
       <c r="E95" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="F95" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
       <c r="G95" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
       <c r="H95" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
       <c r="I95" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J95" t="s">
         <v>16</v>
@@ -7984,31 +8008,31 @@
     </row>
     <row r="96" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
       <c r="B96" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
       <c r="C96" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
       <c r="D96" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
       <c r="E96" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
       <c r="F96" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
       <c r="G96" t="s">
-        <v>16</v>
+        <v>747</v>
       </c>
       <c r="H96" t="s">
         <v>748</v>
       </c>
       <c r="I96" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J96" t="s">
         <v>16</v>
@@ -8016,31 +8040,31 @@
     </row>
     <row r="97" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
       <c r="B97" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
       <c r="C97" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
       <c r="D97" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="E97" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="F97" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="G97" t="s">
-        <v>761</v>
+        <v>16</v>
       </c>
       <c r="H97" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="I97" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J97" t="s">
         <v>16</v>
@@ -8048,31 +8072,31 @@
     </row>
     <row r="98" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B98" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="C98" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="D98" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="E98" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
       <c r="F98" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="G98" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
       <c r="H98" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
       <c r="I98" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J98" t="s">
         <v>16</v>
@@ -8080,31 +8104,31 @@
     </row>
     <row r="99" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
       <c r="B99" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
       <c r="C99" t="s">
-        <v>693</v>
+        <v>765</v>
       </c>
       <c r="D99" t="s">
-        <v>773</v>
+        <v>766</v>
       </c>
       <c r="E99" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
       <c r="F99" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="G99" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="H99" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="I99" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J99" t="s">
         <v>16</v>
@@ -8112,28 +8136,28 @@
     </row>
     <row r="100" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="B100" t="s">
-        <v>779</v>
+        <v>772</v>
       </c>
       <c r="C100" t="s">
-        <v>780</v>
+        <v>693</v>
       </c>
       <c r="D100" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="E100" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
       <c r="F100" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
       <c r="G100" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
       <c r="H100" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
       <c r="I100" t="s">
         <v>17</v>
@@ -8144,31 +8168,31 @@
     </row>
     <row r="101" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
       <c r="B101" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
       <c r="C101" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="D101" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="E101" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="F101" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="G101" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="H101" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="I101" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J101" t="s">
         <v>16</v>
@@ -8176,28 +8200,28 @@
     </row>
     <row r="102" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="B102" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="C102" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="D102" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
       <c r="E102" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
       <c r="F102" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="G102" t="s">
-        <v>16</v>
+        <v>792</v>
       </c>
       <c r="H102" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="I102" t="s">
         <v>16</v>
@@ -8208,28 +8232,28 @@
     </row>
     <row r="103" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="B103" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="C103" t="s">
-        <v>803</v>
+        <v>796</v>
       </c>
       <c r="D103" t="s">
-        <v>804</v>
+        <v>797</v>
       </c>
       <c r="E103" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="F103" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="G103" t="s">
-        <v>807</v>
+        <v>16</v>
       </c>
       <c r="H103" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="I103" t="s">
         <v>16</v>
@@ -8240,31 +8264,31 @@
     </row>
     <row r="104" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="B104" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
       <c r="C104" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="D104" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="E104" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
       <c r="F104" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
       <c r="G104" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
       <c r="H104" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
       <c r="I104" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J104" t="s">
         <v>16</v>
@@ -8272,31 +8296,31 @@
     </row>
     <row r="105" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
       <c r="B105" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
       <c r="C105" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
       <c r="D105" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="E105" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
       <c r="F105" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
       <c r="G105" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
       <c r="H105" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
       <c r="I105" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J105" t="s">
         <v>16</v>
@@ -8304,28 +8328,28 @@
     </row>
     <row r="106" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
       <c r="B106" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
       <c r="C106" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
       <c r="D106" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
       <c r="E106" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
       <c r="F106" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
       <c r="G106" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
       <c r="H106" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
       <c r="I106" t="s">
         <v>16</v>
@@ -8336,28 +8360,28 @@
     </row>
     <row r="107" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
       <c r="B107" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="C107" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="D107" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="E107" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="F107" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="G107" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="H107" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
       <c r="I107" t="s">
         <v>16</v>
@@ -8368,28 +8392,28 @@
     </row>
     <row r="108" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
       <c r="B108" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
       <c r="C108" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
       <c r="D108" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
       <c r="E108" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
       <c r="F108" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
       <c r="G108" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
       <c r="H108" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
       <c r="I108" t="s">
         <v>16</v>
@@ -8400,31 +8424,31 @@
     </row>
     <row r="109" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
       <c r="B109" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
       <c r="C109" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
       <c r="D109" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
       <c r="E109" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
       <c r="F109" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
       <c r="G109" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
       <c r="H109" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
       <c r="I109" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J109" t="s">
         <v>16</v>
@@ -8432,31 +8456,31 @@
     </row>
     <row r="110" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
       <c r="B110" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
       <c r="C110" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
       <c r="D110" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="E110" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="F110" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="G110" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="H110" t="s">
         <v>856</v>
       </c>
       <c r="I110" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J110" t="s">
         <v>16</v>
@@ -8464,31 +8488,31 @@
     </row>
     <row r="111" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="B111" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="C111" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="D111" t="s">
-        <v>867</v>
+        <v>860</v>
       </c>
       <c r="E111" t="s">
-        <v>868</v>
+        <v>861</v>
       </c>
       <c r="F111" t="s">
-        <v>869</v>
+        <v>862</v>
       </c>
       <c r="G111" t="s">
-        <v>870</v>
+        <v>863</v>
       </c>
       <c r="H111" t="s">
-        <v>871</v>
+        <v>856</v>
       </c>
       <c r="I111" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J111" t="s">
         <v>16</v>
@@ -8496,28 +8520,28 @@
     </row>
     <row r="112" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
       <c r="B112" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
       <c r="C112" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
       <c r="D112" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
       <c r="E112" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
       <c r="F112" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
       <c r="G112" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
       <c r="H112" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
       <c r="I112" t="s">
         <v>17</v>
@@ -8528,28 +8552,28 @@
     </row>
     <row r="113" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
       <c r="B113" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
       <c r="C113" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
       <c r="D113" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
       <c r="E113" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
       <c r="F113" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
       <c r="G113" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
       <c r="H113" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
       <c r="I113" t="s">
         <v>17</v>
@@ -8560,28 +8584,28 @@
     </row>
     <row r="114" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
       <c r="B114" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="C114" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
       <c r="D114" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
       <c r="E114" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
       <c r="F114" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
       <c r="G114" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
       <c r="H114" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
       <c r="I114" t="s">
         <v>17</v>
@@ -8592,31 +8616,31 @@
     </row>
     <row r="115" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
       <c r="B115" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
       <c r="C115" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
       <c r="D115" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
       <c r="E115" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
       <c r="F115" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
       <c r="G115" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
       <c r="H115" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
       <c r="I115" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J115" t="s">
         <v>16</v>
@@ -8624,28 +8648,28 @@
     </row>
     <row r="116" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
       <c r="B116" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
       <c r="C116" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
       <c r="D116" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
       <c r="E116" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
       <c r="F116" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
       <c r="G116" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
       <c r="H116" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
       <c r="I116" t="s">
         <v>16</v>
@@ -8656,28 +8680,28 @@
     </row>
     <row r="117" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
       <c r="B117" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
       <c r="C117" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
       <c r="D117" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
       <c r="E117" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
       <c r="F117" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="G117" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
       <c r="H117" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
       <c r="I117" t="s">
         <v>16</v>
@@ -8688,31 +8712,31 @@
     </row>
     <row r="118" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
       <c r="B118" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
       <c r="C118" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
       <c r="D118" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="E118" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="F118" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="G118" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="H118" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="I118" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J118" t="s">
         <v>16</v>
@@ -8720,28 +8744,28 @@
     </row>
     <row r="119" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="B119" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
       <c r="C119" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
       <c r="D119" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
       <c r="E119" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
       <c r="F119" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
       <c r="G119" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
       <c r="H119" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
       <c r="I119" t="s">
         <v>17</v>
@@ -8752,28 +8776,28 @@
     </row>
     <row r="120" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
       <c r="B120" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
       <c r="C120" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
       <c r="D120" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
       <c r="E120" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
       <c r="F120" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
       <c r="G120" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
       <c r="H120" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
       <c r="I120" t="s">
         <v>17</v>
@@ -8784,31 +8808,31 @@
     </row>
     <row r="121" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
       <c r="B121" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
       <c r="C121" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
       <c r="D121" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
       <c r="E121" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
       <c r="F121" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
       <c r="G121" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
       <c r="H121" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
       <c r="I121" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J121" t="s">
         <v>16</v>
@@ -8816,28 +8840,28 @@
     </row>
     <row r="122" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="B122" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
       <c r="C122" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
       <c r="D122" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
       <c r="E122" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
       <c r="F122" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
       <c r="G122" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
       <c r="H122" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="I122" t="s">
         <v>16</v>
@@ -8848,28 +8872,28 @@
     </row>
     <row r="123" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
       <c r="B123" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
       <c r="C123" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
       <c r="D123" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="E123" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="F123" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="G123" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="H123" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="I123" t="s">
         <v>16</v>
@@ -8880,31 +8904,31 @@
     </row>
     <row r="124" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="B124" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="C124" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="D124" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="E124" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="F124" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="G124" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="H124" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="I124" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J124" t="s">
         <v>16</v>
@@ -8912,28 +8936,28 @@
     </row>
     <row r="125" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="B125" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="C125" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="D125" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="E125" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
       <c r="F125" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
       <c r="G125" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
       <c r="H125" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
       <c r="I125" t="s">
         <v>17</v>
@@ -8944,28 +8968,28 @@
     </row>
     <row r="126" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
       <c r="B126" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
       <c r="C126" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
       <c r="D126" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
       <c r="E126" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
       <c r="F126" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
       <c r="G126" t="s">
-        <v>16</v>
+        <v>982</v>
       </c>
       <c r="H126" t="s">
-        <v>990</v>
+        <v>983</v>
       </c>
       <c r="I126" t="s">
         <v>17</v>
@@ -8976,31 +9000,31 @@
     </row>
     <row r="127" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>991</v>
+        <v>984</v>
       </c>
       <c r="B127" t="s">
-        <v>992</v>
+        <v>985</v>
       </c>
       <c r="C127" t="s">
-        <v>993</v>
+        <v>986</v>
       </c>
       <c r="D127" t="s">
-        <v>994</v>
+        <v>987</v>
       </c>
       <c r="E127" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="F127" t="s">
-        <v>996</v>
+        <v>989</v>
       </c>
       <c r="G127" t="s">
-        <v>997</v>
+        <v>16</v>
       </c>
       <c r="H127" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
       <c r="I127" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J127" t="s">
         <v>16</v>
@@ -9008,31 +9032,31 @@
     </row>
     <row r="128" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
       <c r="B128" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
       <c r="C128" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
       <c r="D128" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
       <c r="E128" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="F128" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
       <c r="G128" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
       <c r="H128" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
       <c r="I128" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J128" t="s">
         <v>16</v>
@@ -9040,25 +9064,25 @@
     </row>
     <row r="129" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
       <c r="B129" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="C129" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
       <c r="D129" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
       <c r="E129" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
       <c r="F129" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
       <c r="G129" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
       <c r="H129" t="s">
         <v>1006</v>
@@ -9072,25 +9096,25 @@
     </row>
     <row r="130" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>1014</v>
+        <v>1007</v>
       </c>
       <c r="B130" t="s">
-        <v>1015</v>
+        <v>1008</v>
       </c>
       <c r="C130" t="s">
         <v>1009</v>
       </c>
       <c r="D130" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="E130" t="s">
-        <v>225</v>
+        <v>1011</v>
       </c>
       <c r="F130" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="G130" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="H130" t="s">
         <v>1006</v>
@@ -9104,25 +9128,25 @@
     </row>
     <row r="131" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B131" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="C131" t="s">
         <v>1009</v>
       </c>
       <c r="D131" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="E131" t="s">
-        <v>1022</v>
+        <v>225</v>
       </c>
       <c r="F131" t="s">
-        <v>1023</v>
+        <v>1017</v>
       </c>
       <c r="G131" t="s">
-        <v>1024</v>
+        <v>1018</v>
       </c>
       <c r="H131" t="s">
         <v>1006</v>
@@ -9136,25 +9160,25 @@
     </row>
     <row r="132" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="B132" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="C132" t="s">
         <v>1009</v>
       </c>
       <c r="D132" t="s">
-        <v>1027</v>
+        <v>1021</v>
       </c>
       <c r="E132" t="s">
-        <v>1028</v>
+        <v>1022</v>
       </c>
       <c r="F132" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="G132" t="s">
-        <v>1030</v>
+        <v>1024</v>
       </c>
       <c r="H132" t="s">
         <v>1006</v>
@@ -9168,31 +9192,31 @@
     </row>
     <row r="133" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>1031</v>
+        <v>1025</v>
       </c>
       <c r="B133" t="s">
-        <v>1032</v>
+        <v>1026</v>
       </c>
       <c r="C133" t="s">
-        <v>1033</v>
+        <v>1009</v>
       </c>
       <c r="D133" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="E133" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="F133" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="G133" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="H133" t="s">
-        <v>1038</v>
+        <v>1006</v>
       </c>
       <c r="I133" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J133" t="s">
         <v>16</v>
@@ -9200,25 +9224,25 @@
     </row>
     <row r="134" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
       <c r="B134" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="C134" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="D134" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
       <c r="E134" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
       <c r="F134" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
       <c r="G134" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
       <c r="H134" t="s">
         <v>1038</v>
@@ -9232,28 +9256,28 @@
     </row>
     <row r="135" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1046</v>
+        <v>1039</v>
       </c>
       <c r="B135" t="s">
-        <v>1047</v>
+        <v>1040</v>
       </c>
       <c r="C135" t="s">
-        <v>1048</v>
+        <v>1041</v>
       </c>
       <c r="D135" t="s">
-        <v>1049</v>
+        <v>1042</v>
       </c>
       <c r="E135" t="s">
-        <v>1050</v>
+        <v>1043</v>
       </c>
       <c r="F135" t="s">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="G135" t="s">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="H135" t="s">
-        <v>1053</v>
+        <v>1038</v>
       </c>
       <c r="I135" t="s">
         <v>16</v>
@@ -9264,28 +9288,28 @@
     </row>
     <row r="136" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="B136" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="C136" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="D136" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="E136" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="F136" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="G136" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="H136" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="I136" t="s">
         <v>16</v>
@@ -9296,25 +9320,25 @@
     </row>
     <row r="137" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
       <c r="B137" t="s">
-        <v>286</v>
+        <v>1055</v>
       </c>
       <c r="C137" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="D137" t="s">
-        <v>288</v>
+        <v>1057</v>
       </c>
       <c r="E137" t="s">
-        <v>289</v>
+        <v>1058</v>
       </c>
       <c r="F137" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="G137" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="H137" t="s">
         <v>1061</v>
@@ -9328,25 +9352,25 @@
     </row>
     <row r="138" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="B138" t="s">
-        <v>1067</v>
+        <v>286</v>
       </c>
       <c r="C138" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="D138" t="s">
-        <v>1069</v>
+        <v>288</v>
       </c>
       <c r="E138" t="s">
-        <v>1070</v>
+        <v>289</v>
       </c>
       <c r="F138" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="G138" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="H138" t="s">
         <v>1061</v>
@@ -9360,28 +9384,28 @@
     </row>
     <row r="139" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="B139" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="C139" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="D139" t="s">
-        <v>1034</v>
+        <v>1069</v>
       </c>
       <c r="E139" t="s">
-        <v>1076</v>
+        <v>1070</v>
       </c>
       <c r="F139" t="s">
-        <v>1077</v>
+        <v>1071</v>
       </c>
       <c r="G139" t="s">
-        <v>16</v>
+        <v>1072</v>
       </c>
       <c r="H139" t="s">
-        <v>1078</v>
+        <v>1061</v>
       </c>
       <c r="I139" t="s">
         <v>16</v>
@@ -9392,28 +9416,28 @@
     </row>
     <row r="140" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>1079</v>
+        <v>1073</v>
       </c>
       <c r="B140" t="s">
-        <v>1080</v>
+        <v>1074</v>
       </c>
       <c r="C140" t="s">
-        <v>1081</v>
+        <v>1075</v>
       </c>
       <c r="D140" t="s">
-        <v>1082</v>
+        <v>1034</v>
       </c>
       <c r="E140" t="s">
-        <v>1083</v>
+        <v>1076</v>
       </c>
       <c r="F140" t="s">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="G140" t="s">
-        <v>1085</v>
+        <v>16</v>
       </c>
       <c r="H140" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="I140" t="s">
         <v>16</v>
@@ -9424,31 +9448,31 @@
     </row>
     <row r="141" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>1087</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>1088</v>
+        <v>1079</v>
+      </c>
+      <c r="B141" t="s">
+        <v>1080</v>
       </c>
       <c r="C141" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="D141" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="E141" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="F141" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="G141" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="H141" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="I141" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J141" t="s">
         <v>16</v>
@@ -9456,28 +9480,28 @@
     </row>
     <row r="142" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="B142" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="C142" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="D142" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="E142" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="F142" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="G142" t="s">
-        <v>16</v>
+        <v>1093</v>
       </c>
       <c r="H142" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="I142" t="s">
         <v>17</v>
@@ -9488,31 +9512,31 @@
     </row>
     <row r="143" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>1102</v>
+        <v>1095</v>
       </c>
       <c r="B143" t="s">
-        <v>826</v>
+        <v>1096</v>
       </c>
       <c r="C143" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="D143" t="s">
-        <v>828</v>
+        <v>1098</v>
       </c>
       <c r="E143" t="s">
-        <v>829</v>
+        <v>1099</v>
       </c>
       <c r="F143" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="G143" t="s">
         <v>16</v>
       </c>
       <c r="H143" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="I143" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J143" t="s">
         <v>16</v>
@@ -9520,28 +9544,28 @@
     </row>
     <row r="144" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="B144" t="s">
-        <v>1107</v>
+        <v>826</v>
       </c>
       <c r="C144" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="D144" t="s">
-        <v>1109</v>
+        <v>828</v>
       </c>
       <c r="E144" t="s">
-        <v>1110</v>
+        <v>829</v>
       </c>
       <c r="F144" t="s">
-        <v>1111</v>
+        <v>1104</v>
       </c>
       <c r="G144" t="s">
-        <v>1112</v>
+        <v>16</v>
       </c>
       <c r="H144" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="I144" t="s">
         <v>16</v>
@@ -9552,31 +9576,31 @@
     </row>
     <row r="145" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="B145" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="C145" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="D145" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="E145" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="F145" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="G145" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="H145" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="I145" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J145" t="s">
         <v>16</v>
@@ -9584,31 +9608,31 @@
     </row>
     <row r="146" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="B146" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="C146" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="D146" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="E146" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="F146" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="G146" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="H146" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="I146" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J146" t="s">
         <v>16</v>
@@ -9616,28 +9640,28 @@
     </row>
     <row r="147" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="B147" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="C147" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="D147" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="E147" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="F147" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="G147" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="H147" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="I147" t="s">
         <v>16</v>
@@ -9648,28 +9672,28 @@
     </row>
     <row r="148" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="B148" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="C148" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="D148" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="E148" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="F148" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="G148" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="H148" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="I148" t="s">
         <v>16</v>
@@ -9680,31 +9704,31 @@
     </row>
     <row r="149" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="B149" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="C149" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="D149" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="E149" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="F149" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="G149" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="H149" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="I149" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J149" t="s">
         <v>16</v>
@@ -9712,31 +9736,31 @@
     </row>
     <row r="150" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="B150" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="C150" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="D150" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="E150" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="F150" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="G150" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="H150" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="I150" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J150" t="s">
         <v>16</v>
@@ -9744,28 +9768,28 @@
     </row>
     <row r="151" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="B151" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="C151" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="D151" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="E151" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="F151" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="G151" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="H151" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="I151" t="s">
         <v>16</v>
@@ -9776,31 +9800,31 @@
     </row>
     <row r="152" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="B152" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="C152" t="s">
-        <v>1009</v>
+        <v>1164</v>
       </c>
       <c r="D152" t="s">
-        <v>1172</v>
+        <v>1165</v>
       </c>
       <c r="E152" t="s">
-        <v>1173</v>
+        <v>1166</v>
       </c>
       <c r="F152" t="s">
-        <v>1174</v>
+        <v>1167</v>
       </c>
       <c r="G152" t="s">
-        <v>1175</v>
+        <v>1168</v>
       </c>
       <c r="H152" t="s">
-        <v>1176</v>
+        <v>1169</v>
       </c>
       <c r="I152" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J152" t="s">
         <v>16</v>
@@ -9808,31 +9832,31 @@
     </row>
     <row r="153" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>1177</v>
+        <v>1170</v>
       </c>
       <c r="B153" t="s">
-        <v>1178</v>
+        <v>1171</v>
       </c>
       <c r="C153" t="s">
-        <v>1179</v>
+        <v>1009</v>
       </c>
       <c r="D153" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="E153" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="F153" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="G153" t="s">
-        <v>16</v>
+        <v>1175</v>
       </c>
       <c r="H153" t="s">
-        <v>1183</v>
+        <v>1176</v>
       </c>
       <c r="I153" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J153" t="s">
         <v>16</v>
@@ -9840,31 +9864,31 @@
     </row>
     <row r="154" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1184</v>
+        <v>1177</v>
       </c>
       <c r="B154" t="s">
-        <v>1185</v>
+        <v>1178</v>
       </c>
       <c r="C154" t="s">
-        <v>1186</v>
+        <v>1179</v>
       </c>
       <c r="D154" t="s">
-        <v>1187</v>
+        <v>1180</v>
       </c>
       <c r="E154" t="s">
-        <v>1188</v>
+        <v>1181</v>
       </c>
       <c r="F154" t="s">
-        <v>1189</v>
+        <v>1182</v>
       </c>
       <c r="G154" t="s">
-        <v>1190</v>
+        <v>16</v>
       </c>
       <c r="H154" t="s">
-        <v>1191</v>
+        <v>1183</v>
       </c>
       <c r="I154" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J154" t="s">
         <v>16</v>
@@ -9872,31 +9896,31 @@
     </row>
     <row r="155" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>1192</v>
+        <v>1184</v>
       </c>
       <c r="B155" t="s">
-        <v>1193</v>
+        <v>1185</v>
       </c>
       <c r="C155" t="s">
-        <v>1194</v>
+        <v>1186</v>
       </c>
       <c r="D155" t="s">
-        <v>1195</v>
+        <v>1187</v>
       </c>
       <c r="E155" t="s">
-        <v>1196</v>
+        <v>1188</v>
       </c>
       <c r="F155" t="s">
-        <v>1197</v>
+        <v>1189</v>
       </c>
       <c r="G155" t="s">
-        <v>1198</v>
+        <v>1190</v>
       </c>
       <c r="H155" t="s">
-        <v>1199</v>
+        <v>1191</v>
       </c>
       <c r="I155" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J155" t="s">
         <v>16</v>
@@ -9904,31 +9928,31 @@
     </row>
     <row r="156" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>1200</v>
+        <v>1192</v>
       </c>
       <c r="B156" t="s">
-        <v>1201</v>
+        <v>1193</v>
       </c>
       <c r="C156" t="s">
-        <v>1202</v>
+        <v>1194</v>
       </c>
       <c r="D156" t="s">
-        <v>1203</v>
+        <v>1195</v>
       </c>
       <c r="E156" t="s">
-        <v>1204</v>
+        <v>1196</v>
       </c>
       <c r="F156" t="s">
-        <v>1205</v>
+        <v>1197</v>
       </c>
       <c r="G156" t="s">
-        <v>1206</v>
+        <v>1198</v>
       </c>
       <c r="H156" t="s">
-        <v>1207</v>
+        <v>1199</v>
       </c>
       <c r="I156" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J156" t="s">
         <v>16</v>
@@ -9936,31 +9960,31 @@
     </row>
     <row r="157" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>1208</v>
+        <v>1200</v>
       </c>
       <c r="B157" t="s">
-        <v>1209</v>
+        <v>1201</v>
       </c>
       <c r="C157" t="s">
-        <v>1210</v>
+        <v>1202</v>
       </c>
       <c r="D157" t="s">
-        <v>1211</v>
+        <v>1203</v>
       </c>
       <c r="E157" t="s">
-        <v>1212</v>
+        <v>1204</v>
       </c>
       <c r="F157" t="s">
-        <v>1213</v>
+        <v>1205</v>
       </c>
       <c r="G157" t="s">
-        <v>1214</v>
+        <v>1206</v>
       </c>
       <c r="H157" t="s">
-        <v>1215</v>
+        <v>1207</v>
       </c>
       <c r="I157" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J157" t="s">
         <v>16</v>
@@ -9968,28 +9992,28 @@
     </row>
     <row r="158" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>1216</v>
+        <v>1208</v>
       </c>
       <c r="B158" t="s">
-        <v>1217</v>
+        <v>1209</v>
       </c>
       <c r="C158" t="s">
-        <v>1218</v>
+        <v>1210</v>
       </c>
       <c r="D158" t="s">
-        <v>1219</v>
+        <v>1211</v>
       </c>
       <c r="E158" t="s">
-        <v>1220</v>
+        <v>1212</v>
       </c>
       <c r="F158" t="s">
-        <v>1221</v>
+        <v>1213</v>
       </c>
       <c r="G158" t="s">
-        <v>1222</v>
+        <v>1214</v>
       </c>
       <c r="H158" t="s">
-        <v>1223</v>
+        <v>1215</v>
       </c>
       <c r="I158" t="s">
         <v>16</v>
@@ -10000,28 +10024,28 @@
     </row>
     <row r="159" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>1224</v>
+        <v>1216</v>
       </c>
       <c r="B159" t="s">
-        <v>1225</v>
+        <v>1217</v>
       </c>
       <c r="C159" t="s">
-        <v>1226</v>
+        <v>1218</v>
       </c>
       <c r="D159" t="s">
-        <v>1227</v>
+        <v>1219</v>
       </c>
       <c r="E159" t="s">
-        <v>1228</v>
+        <v>1220</v>
       </c>
       <c r="F159" t="s">
-        <v>1229</v>
+        <v>1221</v>
       </c>
       <c r="G159" t="s">
-        <v>1230</v>
+        <v>1222</v>
       </c>
       <c r="H159" t="s">
-        <v>1231</v>
+        <v>1223</v>
       </c>
       <c r="I159" t="s">
         <v>16</v>
@@ -10032,25 +10056,25 @@
     </row>
     <row r="160" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>1232</v>
+        <v>1224</v>
       </c>
       <c r="B160" t="s">
-        <v>1233</v>
+        <v>1225</v>
       </c>
       <c r="C160" t="s">
-        <v>1234</v>
+        <v>1226</v>
       </c>
       <c r="D160" t="s">
-        <v>1235</v>
+        <v>1227</v>
       </c>
       <c r="E160" t="s">
-        <v>1236</v>
+        <v>1228</v>
       </c>
       <c r="F160" t="s">
-        <v>1237</v>
+        <v>1229</v>
       </c>
       <c r="G160" t="s">
-        <v>16</v>
+        <v>1230</v>
       </c>
       <c r="H160" t="s">
         <v>1231</v>
@@ -10064,28 +10088,28 @@
     </row>
     <row r="161" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="B161" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="C161" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="D161" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="E161" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="F161" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="G161" t="s">
-        <v>1244</v>
+        <v>16</v>
       </c>
       <c r="H161" t="s">
-        <v>1245</v>
+        <v>1231</v>
       </c>
       <c r="I161" t="s">
         <v>16</v>
@@ -10096,31 +10120,31 @@
     </row>
     <row r="162" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="B162" t="s">
-        <v>1247</v>
+        <v>1239</v>
       </c>
       <c r="C162" t="s">
-        <v>1248</v>
+        <v>1240</v>
       </c>
       <c r="D162" t="s">
-        <v>1249</v>
+        <v>1241</v>
       </c>
       <c r="E162" t="s">
-        <v>1250</v>
+        <v>1242</v>
       </c>
       <c r="F162" t="s">
-        <v>1251</v>
+        <v>1243</v>
       </c>
       <c r="G162" t="s">
-        <v>1252</v>
+        <v>1244</v>
       </c>
       <c r="H162" t="s">
-        <v>1253</v>
+        <v>1245</v>
       </c>
       <c r="I162" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J162" t="s">
         <v>16</v>
@@ -10128,31 +10152,31 @@
     </row>
     <row r="163" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>1254</v>
+        <v>1246</v>
       </c>
       <c r="B163" t="s">
-        <v>1255</v>
+        <v>1247</v>
       </c>
       <c r="C163" t="s">
-        <v>1256</v>
+        <v>1248</v>
       </c>
       <c r="D163" t="s">
-        <v>1257</v>
+        <v>1249</v>
       </c>
       <c r="E163" t="s">
-        <v>1258</v>
+        <v>1250</v>
       </c>
       <c r="F163" t="s">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="G163" t="s">
-        <v>1260</v>
+        <v>1252</v>
       </c>
       <c r="H163" t="s">
-        <v>1261</v>
+        <v>1253</v>
       </c>
       <c r="I163" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J163" t="s">
         <v>16</v>
@@ -10160,31 +10184,31 @@
     </row>
     <row r="164" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>1262</v>
+        <v>1254</v>
       </c>
       <c r="B164" t="s">
-        <v>1263</v>
+        <v>1255</v>
       </c>
       <c r="C164" t="s">
-        <v>1264</v>
+        <v>1256</v>
       </c>
       <c r="D164" t="s">
-        <v>1265</v>
+        <v>1257</v>
       </c>
       <c r="E164" t="s">
-        <v>1266</v>
+        <v>1258</v>
       </c>
       <c r="F164" t="s">
-        <v>1267</v>
+        <v>1259</v>
       </c>
       <c r="G164" t="s">
-        <v>1268</v>
+        <v>1260</v>
       </c>
       <c r="H164" t="s">
-        <v>1269</v>
+        <v>1261</v>
       </c>
       <c r="I164" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J164" t="s">
         <v>16</v>
@@ -10192,28 +10216,28 @@
     </row>
     <row r="165" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1270</v>
+        <v>1262</v>
       </c>
       <c r="B165" t="s">
-        <v>1271</v>
+        <v>1263</v>
       </c>
       <c r="C165" t="s">
-        <v>1272</v>
+        <v>1264</v>
       </c>
       <c r="D165" t="s">
-        <v>1273</v>
+        <v>1265</v>
       </c>
       <c r="E165" t="s">
-        <v>1274</v>
+        <v>1266</v>
       </c>
       <c r="F165" t="s">
-        <v>1275</v>
+        <v>1267</v>
       </c>
       <c r="G165" t="s">
-        <v>1276</v>
+        <v>1268</v>
       </c>
       <c r="H165" t="s">
-        <v>1277</v>
+        <v>1269</v>
       </c>
       <c r="I165" t="s">
         <v>17</v>
@@ -10224,28 +10248,28 @@
     </row>
     <row r="166" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1278</v>
+        <v>1270</v>
       </c>
       <c r="B166" t="s">
-        <v>102</v>
+        <v>1271</v>
       </c>
       <c r="C166" t="s">
-        <v>1279</v>
+        <v>1272</v>
       </c>
       <c r="D166" t="s">
-        <v>104</v>
+        <v>1273</v>
       </c>
       <c r="E166" t="s">
-        <v>105</v>
+        <v>1274</v>
       </c>
       <c r="F166" t="s">
-        <v>1280</v>
+        <v>1275</v>
       </c>
       <c r="G166" t="s">
-        <v>1281</v>
+        <v>1276</v>
       </c>
       <c r="H166" t="s">
-        <v>1282</v>
+        <v>1277</v>
       </c>
       <c r="I166" t="s">
         <v>17</v>
@@ -10256,28 +10280,28 @@
     </row>
     <row r="167" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1283</v>
+        <v>1278</v>
       </c>
       <c r="B167" t="s">
-        <v>1284</v>
+        <v>102</v>
       </c>
       <c r="C167" t="s">
-        <v>1285</v>
+        <v>1279</v>
       </c>
       <c r="D167" t="s">
-        <v>1286</v>
+        <v>104</v>
       </c>
       <c r="E167" t="s">
-        <v>1287</v>
+        <v>105</v>
       </c>
       <c r="F167" t="s">
-        <v>1288</v>
+        <v>1280</v>
       </c>
       <c r="G167" t="s">
-        <v>1289</v>
+        <v>1281</v>
       </c>
       <c r="H167" t="s">
-        <v>1290</v>
+        <v>1282</v>
       </c>
       <c r="I167" t="s">
         <v>17</v>
@@ -10288,31 +10312,31 @@
     </row>
     <row r="168" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1291</v>
+        <v>1283</v>
       </c>
       <c r="B168" t="s">
-        <v>1292</v>
+        <v>1284</v>
       </c>
       <c r="C168" t="s">
-        <v>1293</v>
+        <v>1285</v>
       </c>
       <c r="D168" t="s">
-        <v>1294</v>
+        <v>1286</v>
       </c>
       <c r="E168" t="s">
-        <v>1295</v>
+        <v>1287</v>
       </c>
       <c r="F168" t="s">
-        <v>1296</v>
+        <v>1288</v>
       </c>
       <c r="G168" t="s">
-        <v>16</v>
+        <v>1289</v>
       </c>
       <c r="H168" t="s">
-        <v>1297</v>
+        <v>1290</v>
       </c>
       <c r="I168" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J168" t="s">
         <v>16</v>
@@ -10320,31 +10344,31 @@
     </row>
     <row r="169" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>1298</v>
+        <v>1291</v>
       </c>
       <c r="B169" t="s">
-        <v>1299</v>
+        <v>1292</v>
       </c>
       <c r="C169" t="s">
-        <v>1300</v>
+        <v>1293</v>
       </c>
       <c r="D169" t="s">
-        <v>1301</v>
+        <v>1294</v>
       </c>
       <c r="E169" t="s">
-        <v>1302</v>
+        <v>1295</v>
       </c>
       <c r="F169" t="s">
-        <v>1303</v>
+        <v>1296</v>
       </c>
       <c r="G169" t="s">
-        <v>1304</v>
+        <v>16</v>
       </c>
       <c r="H169" t="s">
-        <v>1305</v>
+        <v>1297</v>
       </c>
       <c r="I169" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J169" t="s">
         <v>16</v>
@@ -10352,28 +10376,28 @@
     </row>
     <row r="170" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1306</v>
+        <v>1298</v>
       </c>
       <c r="B170" t="s">
-        <v>1307</v>
+        <v>1299</v>
       </c>
       <c r="C170" t="s">
-        <v>1308</v>
+        <v>1300</v>
       </c>
       <c r="D170" t="s">
-        <v>1309</v>
+        <v>1301</v>
       </c>
       <c r="E170" t="s">
-        <v>1310</v>
+        <v>1302</v>
       </c>
       <c r="F170" t="s">
-        <v>1311</v>
+        <v>1303</v>
       </c>
       <c r="G170" t="s">
-        <v>1312</v>
+        <v>1304</v>
       </c>
       <c r="H170" t="s">
-        <v>1313</v>
+        <v>1305</v>
       </c>
       <c r="I170" t="s">
         <v>17</v>
@@ -10384,28 +10408,28 @@
     </row>
     <row r="171" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1314</v>
+        <v>1306</v>
       </c>
       <c r="B171" t="s">
-        <v>1315</v>
+        <v>1307</v>
       </c>
       <c r="C171" t="s">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="D171" t="s">
-        <v>1317</v>
+        <v>1309</v>
       </c>
       <c r="E171" t="s">
-        <v>1318</v>
+        <v>1310</v>
       </c>
       <c r="F171" t="s">
-        <v>1319</v>
+        <v>1311</v>
       </c>
       <c r="G171" t="s">
-        <v>1320</v>
+        <v>1312</v>
       </c>
       <c r="H171" t="s">
-        <v>1321</v>
+        <v>1313</v>
       </c>
       <c r="I171" t="s">
         <v>17</v>
@@ -10416,31 +10440,31 @@
     </row>
     <row r="172" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>1322</v>
+        <v>1314</v>
       </c>
       <c r="B172" t="s">
-        <v>1323</v>
+        <v>1315</v>
       </c>
       <c r="C172" t="s">
-        <v>1324</v>
+        <v>1316</v>
       </c>
       <c r="D172" t="s">
-        <v>1325</v>
+        <v>1317</v>
       </c>
       <c r="E172" t="s">
-        <v>1326</v>
+        <v>1318</v>
       </c>
       <c r="F172" t="s">
-        <v>1327</v>
+        <v>1319</v>
       </c>
       <c r="G172" t="s">
-        <v>1328</v>
+        <v>1320</v>
       </c>
       <c r="H172" t="s">
-        <v>1329</v>
+        <v>1321</v>
       </c>
       <c r="I172" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J172" t="s">
         <v>16</v>
@@ -10448,28 +10472,28 @@
     </row>
     <row r="173" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>1330</v>
+        <v>1322</v>
       </c>
       <c r="B173" t="s">
-        <v>1331</v>
+        <v>1323</v>
       </c>
       <c r="C173" t="s">
-        <v>1332</v>
+        <v>1324</v>
       </c>
       <c r="D173" t="s">
-        <v>1333</v>
+        <v>1325</v>
       </c>
       <c r="E173" t="s">
-        <v>1334</v>
+        <v>1326</v>
       </c>
       <c r="F173" t="s">
-        <v>1335</v>
+        <v>1327</v>
       </c>
       <c r="G173" t="s">
-        <v>16</v>
+        <v>1328</v>
       </c>
       <c r="H173" t="s">
-        <v>1336</v>
+        <v>1329</v>
       </c>
       <c r="I173" t="s">
         <v>16</v>
@@ -10480,28 +10504,28 @@
     </row>
     <row r="174" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>1337</v>
+        <v>1330</v>
       </c>
       <c r="B174" t="s">
-        <v>1338</v>
+        <v>1331</v>
       </c>
       <c r="C174" t="s">
-        <v>1339</v>
+        <v>1332</v>
       </c>
       <c r="D174" t="s">
-        <v>1340</v>
+        <v>1333</v>
       </c>
       <c r="E174" t="s">
-        <v>1341</v>
+        <v>1334</v>
       </c>
       <c r="F174" t="s">
-        <v>1342</v>
+        <v>1335</v>
       </c>
       <c r="G174" t="s">
         <v>16</v>
       </c>
       <c r="H174" t="s">
-        <v>1343</v>
+        <v>1336</v>
       </c>
       <c r="I174" t="s">
         <v>16</v>
@@ -10512,28 +10536,28 @@
     </row>
     <row r="175" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>1344</v>
+        <v>1337</v>
       </c>
       <c r="B175" t="s">
-        <v>1345</v>
+        <v>1338</v>
       </c>
       <c r="C175" t="s">
-        <v>1346</v>
+        <v>1339</v>
       </c>
       <c r="D175" t="s">
-        <v>1347</v>
+        <v>1340</v>
       </c>
       <c r="E175" t="s">
-        <v>1348</v>
+        <v>1341</v>
       </c>
       <c r="F175" t="s">
-        <v>1349</v>
+        <v>1342</v>
       </c>
       <c r="G175" t="s">
         <v>16</v>
       </c>
       <c r="H175" t="s">
-        <v>1336</v>
+        <v>1343</v>
       </c>
       <c r="I175" t="s">
         <v>16</v>
@@ -10544,31 +10568,31 @@
     </row>
     <row r="176" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1350</v>
+        <v>1344</v>
       </c>
       <c r="B176" t="s">
-        <v>1351</v>
+        <v>1345</v>
       </c>
       <c r="C176" t="s">
-        <v>1352</v>
+        <v>1346</v>
       </c>
       <c r="D176" t="s">
-        <v>1353</v>
+        <v>1347</v>
       </c>
       <c r="E176" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="F176" t="s">
-        <v>1355</v>
+        <v>1349</v>
       </c>
       <c r="G176" t="s">
-        <v>1356</v>
+        <v>16</v>
       </c>
       <c r="H176" t="s">
         <v>1336</v>
       </c>
       <c r="I176" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J176" t="s">
         <v>16</v>
@@ -10576,28 +10600,28 @@
     </row>
     <row r="177" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>1357</v>
+        <v>1350</v>
       </c>
       <c r="B177" t="s">
-        <v>1358</v>
+        <v>1351</v>
       </c>
       <c r="C177" t="s">
-        <v>1359</v>
+        <v>1352</v>
       </c>
       <c r="D177" t="s">
-        <v>1360</v>
+        <v>1353</v>
       </c>
       <c r="E177" t="s">
-        <v>1361</v>
+        <v>1354</v>
       </c>
       <c r="F177" t="s">
-        <v>1362</v>
+        <v>1355</v>
       </c>
       <c r="G177" t="s">
-        <v>16</v>
+        <v>1356</v>
       </c>
       <c r="H177" t="s">
-        <v>1363</v>
+        <v>1336</v>
       </c>
       <c r="I177" t="s">
         <v>17</v>
@@ -10608,31 +10632,31 @@
     </row>
     <row r="178" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="B178" t="s">
-        <v>1365</v>
+        <v>1358</v>
       </c>
       <c r="C178" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="D178" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="E178" t="s">
-        <v>1368</v>
+        <v>1361</v>
       </c>
       <c r="F178" t="s">
-        <v>1369</v>
+        <v>1362</v>
       </c>
       <c r="G178" t="s">
-        <v>1370</v>
+        <v>16</v>
       </c>
       <c r="H178" t="s">
-        <v>1371</v>
+        <v>1363</v>
       </c>
       <c r="I178" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J178" t="s">
         <v>16</v>
@@ -10640,28 +10664,28 @@
     </row>
     <row r="179" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>1372</v>
+        <v>1364</v>
       </c>
       <c r="B179" t="s">
-        <v>1373</v>
+        <v>1365</v>
       </c>
       <c r="C179" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="D179" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="E179" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="F179" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="G179" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="H179" t="s">
-        <v>1231</v>
+        <v>1371</v>
       </c>
       <c r="I179" t="s">
         <v>16</v>
@@ -10672,28 +10696,28 @@
     </row>
     <row r="180" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>1379</v>
+        <v>1372</v>
       </c>
       <c r="B180" t="s">
-        <v>1380</v>
+        <v>1373</v>
       </c>
       <c r="C180" t="s">
-        <v>1381</v>
+        <v>1374</v>
       </c>
       <c r="D180" t="s">
-        <v>1382</v>
+        <v>1375</v>
       </c>
       <c r="E180" t="s">
-        <v>1383</v>
+        <v>1376</v>
       </c>
       <c r="F180" t="s">
-        <v>1384</v>
+        <v>1377</v>
       </c>
       <c r="G180" t="s">
-        <v>16</v>
+        <v>1378</v>
       </c>
       <c r="H180" t="s">
-        <v>1385</v>
+        <v>1231</v>
       </c>
       <c r="I180" t="s">
         <v>16</v>
@@ -10704,28 +10728,28 @@
     </row>
     <row r="181" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>1386</v>
+        <v>1379</v>
       </c>
       <c r="B181" t="s">
-        <v>1387</v>
+        <v>1380</v>
       </c>
       <c r="C181" t="s">
-        <v>1388</v>
+        <v>1381</v>
       </c>
       <c r="D181" t="s">
-        <v>34</v>
+        <v>1382</v>
       </c>
       <c r="E181" t="s">
-        <v>1389</v>
+        <v>1383</v>
       </c>
       <c r="F181" t="s">
-        <v>1390</v>
+        <v>1384</v>
       </c>
       <c r="G181" t="s">
-        <v>1391</v>
+        <v>16</v>
       </c>
       <c r="H181" t="s">
-        <v>1392</v>
+        <v>1385</v>
       </c>
       <c r="I181" t="s">
         <v>16</v>
@@ -10736,28 +10760,28 @@
     </row>
     <row r="182" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>1393</v>
+        <v>1386</v>
       </c>
       <c r="B182" t="s">
-        <v>1394</v>
+        <v>1387</v>
       </c>
       <c r="C182" t="s">
-        <v>1395</v>
+        <v>1388</v>
       </c>
       <c r="D182" t="s">
-        <v>1396</v>
+        <v>34</v>
       </c>
       <c r="E182" t="s">
-        <v>1397</v>
+        <v>1389</v>
       </c>
       <c r="F182" t="s">
-        <v>1398</v>
+        <v>1390</v>
       </c>
       <c r="G182" t="s">
-        <v>1399</v>
+        <v>1391</v>
       </c>
       <c r="H182" t="s">
-        <v>1400</v>
+        <v>1392</v>
       </c>
       <c r="I182" t="s">
         <v>16</v>
@@ -10768,31 +10792,31 @@
     </row>
     <row r="183" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>1401</v>
+        <v>1393</v>
       </c>
       <c r="B183" t="s">
-        <v>1402</v>
+        <v>1394</v>
       </c>
       <c r="C183" t="s">
-        <v>1403</v>
+        <v>1395</v>
       </c>
       <c r="D183" t="s">
-        <v>1404</v>
+        <v>1396</v>
       </c>
       <c r="E183" t="s">
-        <v>1405</v>
+        <v>1397</v>
       </c>
       <c r="F183" t="s">
-        <v>1406</v>
+        <v>1398</v>
       </c>
       <c r="G183" t="s">
-        <v>16</v>
+        <v>1399</v>
       </c>
       <c r="H183" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="I183" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J183" t="s">
         <v>16</v>
@@ -10800,31 +10824,31 @@
     </row>
     <row r="184" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="B184" t="s">
-        <v>1409</v>
+        <v>1402</v>
       </c>
       <c r="C184" t="s">
-        <v>1410</v>
+        <v>1403</v>
       </c>
       <c r="D184" t="s">
-        <v>1411</v>
+        <v>1404</v>
       </c>
       <c r="E184" t="s">
-        <v>1412</v>
+        <v>1405</v>
       </c>
       <c r="F184" t="s">
-        <v>1413</v>
+        <v>1406</v>
       </c>
       <c r="G184" t="s">
         <v>16</v>
       </c>
       <c r="H184" t="s">
-        <v>1414</v>
+        <v>1407</v>
       </c>
       <c r="I184" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J184" t="s">
         <v>16</v>
@@ -10832,28 +10856,28 @@
     </row>
     <row r="185" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>1415</v>
+        <v>1408</v>
       </c>
       <c r="B185" t="s">
-        <v>1416</v>
+        <v>1409</v>
       </c>
       <c r="C185" t="s">
-        <v>1417</v>
+        <v>1410</v>
       </c>
       <c r="D185" t="s">
-        <v>1418</v>
+        <v>1411</v>
       </c>
       <c r="E185" t="s">
-        <v>1419</v>
+        <v>1412</v>
       </c>
       <c r="F185" t="s">
-        <v>1420</v>
+        <v>1413</v>
       </c>
       <c r="G185" t="s">
-        <v>1421</v>
+        <v>16</v>
       </c>
       <c r="H185" t="s">
-        <v>1422</v>
+        <v>1414</v>
       </c>
       <c r="I185" t="s">
         <v>16</v>
@@ -10864,28 +10888,28 @@
     </row>
     <row r="186" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>1423</v>
+        <v>1415</v>
       </c>
       <c r="B186" t="s">
-        <v>1424</v>
+        <v>1416</v>
       </c>
       <c r="C186" t="s">
-        <v>1425</v>
+        <v>1417</v>
       </c>
       <c r="D186" t="s">
-        <v>1426</v>
+        <v>1418</v>
       </c>
       <c r="E186" t="s">
-        <v>1427</v>
+        <v>1419</v>
       </c>
       <c r="F186" t="s">
-        <v>1428</v>
+        <v>1420</v>
       </c>
       <c r="G186" t="s">
-        <v>1429</v>
+        <v>1421</v>
       </c>
       <c r="H186" t="s">
-        <v>1430</v>
+        <v>1422</v>
       </c>
       <c r="I186" t="s">
         <v>16</v>
@@ -10896,28 +10920,28 @@
     </row>
     <row r="187" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>1431</v>
+        <v>1423</v>
       </c>
       <c r="B187" t="s">
-        <v>1432</v>
+        <v>1424</v>
       </c>
       <c r="C187" t="s">
-        <v>1433</v>
+        <v>1425</v>
       </c>
       <c r="D187" t="s">
-        <v>1434</v>
+        <v>1426</v>
       </c>
       <c r="E187" t="s">
-        <v>1435</v>
+        <v>1427</v>
       </c>
       <c r="F187" t="s">
-        <v>1436</v>
+        <v>1428</v>
       </c>
       <c r="G187" t="s">
-        <v>1437</v>
+        <v>1429</v>
       </c>
       <c r="H187" t="s">
-        <v>1438</v>
+        <v>1430</v>
       </c>
       <c r="I187" t="s">
         <v>16</v>
@@ -10928,31 +10952,31 @@
     </row>
     <row r="188" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>1439</v>
+        <v>1431</v>
       </c>
       <c r="B188" t="s">
-        <v>1440</v>
+        <v>1432</v>
       </c>
       <c r="C188" t="s">
-        <v>1441</v>
+        <v>1433</v>
       </c>
       <c r="D188" t="s">
-        <v>1442</v>
+        <v>1434</v>
       </c>
       <c r="E188" t="s">
-        <v>1443</v>
+        <v>1435</v>
       </c>
       <c r="F188" t="s">
-        <v>1444</v>
+        <v>1436</v>
       </c>
       <c r="G188" t="s">
-        <v>16</v>
+        <v>1437</v>
       </c>
       <c r="H188" t="s">
         <v>1438</v>
       </c>
       <c r="I188" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J188" t="s">
         <v>16</v>
@@ -10960,28 +10984,28 @@
     </row>
     <row r="189" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1445</v>
+        <v>1439</v>
       </c>
       <c r="B189" t="s">
-        <v>1446</v>
+        <v>1440</v>
       </c>
       <c r="C189" t="s">
-        <v>1447</v>
+        <v>1441</v>
       </c>
       <c r="D189" t="s">
-        <v>1448</v>
+        <v>1442</v>
       </c>
       <c r="E189" t="s">
-        <v>1449</v>
+        <v>1443</v>
       </c>
       <c r="F189" t="s">
-        <v>1450</v>
+        <v>1444</v>
       </c>
       <c r="G189" t="s">
         <v>16</v>
       </c>
       <c r="H189" t="s">
-        <v>1451</v>
+        <v>1438</v>
       </c>
       <c r="I189" t="s">
         <v>17</v>
@@ -10992,28 +11016,28 @@
     </row>
     <row r="190" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1452</v>
+        <v>1445</v>
       </c>
       <c r="B190" t="s">
-        <v>1453</v>
+        <v>1446</v>
       </c>
       <c r="C190" t="s">
-        <v>1454</v>
+        <v>1447</v>
       </c>
       <c r="D190" t="s">
-        <v>1455</v>
+        <v>1448</v>
       </c>
       <c r="E190" t="s">
-        <v>1456</v>
+        <v>1449</v>
       </c>
       <c r="F190" t="s">
-        <v>1457</v>
+        <v>1450</v>
       </c>
       <c r="G190" t="s">
         <v>16</v>
       </c>
       <c r="H190" t="s">
-        <v>1458</v>
+        <v>1451</v>
       </c>
       <c r="I190" t="s">
         <v>17</v>
@@ -11024,31 +11048,31 @@
     </row>
     <row r="191" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1459</v>
+        <v>1452</v>
       </c>
       <c r="B191" t="s">
-        <v>1460</v>
+        <v>1453</v>
       </c>
       <c r="C191" t="s">
-        <v>1461</v>
+        <v>1454</v>
       </c>
       <c r="D191" t="s">
-        <v>1462</v>
+        <v>1455</v>
       </c>
       <c r="E191" t="s">
-        <v>1463</v>
+        <v>1456</v>
       </c>
       <c r="F191" t="s">
-        <v>1464</v>
+        <v>1457</v>
       </c>
       <c r="G191" t="s">
         <v>16</v>
       </c>
       <c r="H191" t="s">
-        <v>1465</v>
+        <v>1458</v>
       </c>
       <c r="I191" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J191" t="s">
         <v>16</v>
@@ -11056,28 +11080,28 @@
     </row>
     <row r="192" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1466</v>
+        <v>1459</v>
       </c>
       <c r="B192" t="s">
-        <v>1467</v>
+        <v>1460</v>
       </c>
       <c r="C192" t="s">
-        <v>1381</v>
+        <v>1461</v>
       </c>
       <c r="D192" t="s">
-        <v>1468</v>
+        <v>1462</v>
       </c>
       <c r="E192" t="s">
-        <v>1469</v>
+        <v>1463</v>
       </c>
       <c r="F192" t="s">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="G192" t="s">
         <v>16</v>
       </c>
       <c r="H192" t="s">
-        <v>1471</v>
+        <v>1465</v>
       </c>
       <c r="I192" t="s">
         <v>16</v>
@@ -11088,31 +11112,31 @@
     </row>
     <row r="193" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>1472</v>
+        <v>1466</v>
       </c>
       <c r="B193" t="s">
-        <v>1473</v>
+        <v>1467</v>
       </c>
       <c r="C193" t="s">
-        <v>1474</v>
+        <v>1381</v>
       </c>
       <c r="D193" t="s">
-        <v>1475</v>
+        <v>1468</v>
       </c>
       <c r="E193" t="s">
-        <v>1476</v>
+        <v>1469</v>
       </c>
       <c r="F193" t="s">
-        <v>1477</v>
+        <v>1470</v>
       </c>
       <c r="G193" t="s">
-        <v>1478</v>
+        <v>16</v>
       </c>
       <c r="H193" t="s">
-        <v>1479</v>
+        <v>1471</v>
       </c>
       <c r="I193" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J193" t="s">
         <v>16</v>
@@ -11120,28 +11144,28 @@
     </row>
     <row r="194" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>1480</v>
+        <v>1472</v>
       </c>
       <c r="B194" t="s">
-        <v>1481</v>
+        <v>1473</v>
       </c>
       <c r="C194" t="s">
-        <v>1482</v>
+        <v>1474</v>
       </c>
       <c r="D194" t="s">
-        <v>1483</v>
+        <v>1475</v>
       </c>
       <c r="E194" t="s">
-        <v>1484</v>
+        <v>1476</v>
       </c>
       <c r="F194" t="s">
-        <v>1485</v>
+        <v>1477</v>
       </c>
       <c r="G194" t="s">
-        <v>1486</v>
+        <v>1478</v>
       </c>
       <c r="H194" t="s">
-        <v>1487</v>
+        <v>1479</v>
       </c>
       <c r="I194" t="s">
         <v>17</v>
@@ -11152,22 +11176,22 @@
     </row>
     <row r="195" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1488</v>
+        <v>1480</v>
       </c>
       <c r="B195" t="s">
-        <v>1489</v>
+        <v>1481</v>
       </c>
       <c r="C195" t="s">
         <v>1482</v>
       </c>
       <c r="D195" t="s">
-        <v>1418</v>
+        <v>1483</v>
       </c>
       <c r="E195" t="s">
-        <v>1490</v>
+        <v>1484</v>
       </c>
       <c r="F195" t="s">
-        <v>1491</v>
+        <v>1485</v>
       </c>
       <c r="G195" t="s">
         <v>1486</v>
@@ -11184,31 +11208,31 @@
     </row>
     <row r="196" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>1492</v>
+        <v>1488</v>
       </c>
       <c r="B196" t="s">
-        <v>1493</v>
+        <v>1489</v>
       </c>
       <c r="C196" t="s">
-        <v>1494</v>
+        <v>1482</v>
       </c>
       <c r="D196" t="s">
-        <v>1495</v>
+        <v>1418</v>
       </c>
       <c r="E196" t="s">
-        <v>1496</v>
+        <v>1490</v>
       </c>
       <c r="F196" t="s">
-        <v>1497</v>
+        <v>1491</v>
       </c>
       <c r="G196" t="s">
-        <v>1498</v>
+        <v>1486</v>
       </c>
       <c r="H196" t="s">
-        <v>1499</v>
+        <v>1487</v>
       </c>
       <c r="I196" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J196" t="s">
         <v>16</v>
@@ -11216,33 +11240,65 @@
     </row>
     <row r="197" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B197" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1494</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1495</v>
+      </c>
+      <c r="E197" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G197" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1499</v>
+      </c>
+      <c r="I197" t="s">
+        <v>16</v>
+      </c>
+      <c r="J197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="14.4" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
         <v>1500</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>1501</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C198" t="s">
         <v>1502</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D198" t="s">
         <v>1503</v>
       </c>
-      <c r="E197" t="s">
+      <c r="E198" t="s">
         <v>1504</v>
       </c>
-      <c r="F197" t="s">
+      <c r="F198" t="s">
         <v>1505</v>
       </c>
-      <c r="G197" t="s">
+      <c r="G198" t="s">
         <v>1506</v>
       </c>
-      <c r="H197" t="s">
+      <c r="H198" t="s">
         <v>1507</v>
       </c>
-      <c r="I197" t="s">
-        <v>16</v>
-      </c>
-      <c r="J197" t="s">
+      <c r="I198" t="s">
+        <v>16</v>
+      </c>
+      <c r="J198" t="s">
         <v>16</v>
       </c>
     </row>
@@ -11250,7 +11306,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:J197" numberStoredAsText="1"/>
+    <ignoredError sqref="A11:J198 A1:J9" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>